--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="315" windowWidth="10020" windowHeight="7560" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="310">
   <si>
     <t>RAZRED</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jednačine </t>
-  </si>
-  <si>
-    <t>Proizvod/kolicnik</t>
   </si>
   <si>
     <t>Zbir/razlika</t>
@@ -858,6 +855,111 @@
   </si>
   <si>
     <t>Merenje zapremine</t>
+  </si>
+  <si>
+    <t>Proizvod/količnik</t>
+  </si>
+  <si>
+    <t>Zbir/razlika do 100</t>
+  </si>
+  <si>
+    <t>Proizvod/količnik do 100</t>
+  </si>
+  <si>
+    <t>a x = c</t>
+  </si>
+  <si>
+    <t>a x  + b x = c</t>
+  </si>
+  <si>
+    <t>a x  + b = c</t>
+  </si>
+  <si>
+    <t>a : x = c</t>
+  </si>
+  <si>
+    <t>a : x  + b = c</t>
+  </si>
+  <si>
+    <t>a +/- x = c</t>
+  </si>
+  <si>
+    <t>x +/- a = c</t>
+  </si>
+  <si>
+    <t>zbir</t>
+  </si>
+  <si>
+    <t>razlika</t>
+  </si>
+  <si>
+    <t>a ./: x = c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x ./: a = c</t>
+  </si>
+  <si>
+    <t>kombinovani zad.7 i 8</t>
+  </si>
+  <si>
+    <t>kombinovani zad. 1 i 2</t>
+  </si>
+  <si>
+    <t>x ./:(a+/- b) = c</t>
+  </si>
+  <si>
+    <t>a ./:(x+/- b) = c</t>
+  </si>
+  <si>
+    <t>x ./:(a./: b) = c</t>
+  </si>
+  <si>
+    <t>a ./:(x./: b) = c</t>
+  </si>
+  <si>
+    <t>x+/-a = c</t>
+  </si>
+  <si>
+    <t>a+/-x = c</t>
+  </si>
+  <si>
+    <t>x./:a = c</t>
+  </si>
+  <si>
+    <t>kombinovani zad. 18 i 19</t>
+  </si>
+  <si>
+    <t>a./:x = c</t>
+  </si>
+  <si>
+    <t>a +/- x +/- b = c</t>
+  </si>
+  <si>
+    <t>tekstualni zadatak</t>
+  </si>
+  <si>
+    <t>a +/- (x +/- b)= c</t>
+  </si>
+  <si>
+    <t>a +/-x ./: b = c</t>
+  </si>
+  <si>
+    <t>a ./: x  +/- b = c</t>
+  </si>
+  <si>
+    <t>a . x &lt;/&gt; c</t>
+  </si>
+  <si>
+    <t>a . x +/- b &lt;/&gt; c</t>
+  </si>
+  <si>
+    <t>a ./: x  +/- b &lt;/&gt; c</t>
+  </si>
+  <si>
+    <t>a +/-x ./: b &lt;/&gt; c</t>
+  </si>
+  <si>
+    <t>takstualni zadatak</t>
   </si>
 </sst>
 </file>
@@ -1504,9 +1606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1539,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>17</v>
@@ -1568,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>56</v>
@@ -1594,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>56</v>
@@ -1610,14 +1712,14 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>9</v>
@@ -1630,14 +1732,14 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>10</v>
@@ -1660,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>56</v>
@@ -1686,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1">
@@ -1712,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>56</v>
@@ -1738,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>56</v>
@@ -1764,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>56</v>
@@ -1790,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>56</v>
@@ -1816,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>56</v>
@@ -1842,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>56</v>
@@ -1868,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>56</v>
@@ -1894,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>56</v>
@@ -1920,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>56</v>
@@ -1946,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>56</v>
@@ -1972,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>56</v>
@@ -1998,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>56</v>
@@ -2024,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>56</v>
@@ -2050,7 +2152,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" s="44" t="s">
         <v>56</v>
@@ -2076,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="52" t="s">
         <v>56</v>
@@ -2102,13 +2204,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="46" customFormat="1">
@@ -2128,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" s="44" t="s">
         <v>56</v>
@@ -2154,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="44" t="s">
         <v>56</v>
@@ -2180,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>56</v>
@@ -2206,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>56</v>
@@ -2232,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>56</v>
@@ -2258,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G29" s="44" t="s">
         <v>56</v>
@@ -2274,14 +2376,14 @@
       <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="D30" s="1">
-        <v>3</v>
+      <c r="C30" s="1">
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>5</v>
@@ -2304,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G31" s="44" t="s">
         <v>56</v>
@@ -2330,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G32" s="52" t="s">
         <v>56</v>
       </c>
       <c r="H32" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2349,20 +2451,17 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="46" customFormat="1">
@@ -2382,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="44" t="s">
         <v>56</v>
@@ -2408,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35" s="44" t="s">
         <v>56</v>
@@ -2424,14 +2523,14 @@
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="D36" s="1">
-        <v>3</v>
+      <c r="C36" s="1">
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>10</v>
@@ -2454,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G37" s="52" t="s">
         <v>56</v>
@@ -2480,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G38" s="52" t="s">
         <v>56</v>
@@ -2506,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39" s="52" t="s">
         <v>56</v>
@@ -2532,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G40" s="52" t="s">
         <v>56</v>
@@ -2558,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="44" t="s">
         <v>56</v>
@@ -2584,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="52" t="s">
         <v>56</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="53" customFormat="1" ht="30">
@@ -2610,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G43" s="52" t="s">
         <v>56</v>
@@ -2626,14 +2725,14 @@
       <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="D44" s="1">
-        <v>3</v>
+      <c r="C44" s="1">
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>7</v>
@@ -2656,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>56</v>
@@ -2682,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G46" s="44" t="s">
         <v>56</v>
@@ -2708,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G47" s="44" t="s">
         <v>56</v>
@@ -2727,14 +2826,14 @@
       <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="D48" s="1">
-        <v>3</v>
+      <c r="C48" s="1">
+        <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>10</v>
@@ -2747,14 +2846,14 @@
       <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="D49" s="1">
-        <v>3</v>
+      <c r="C49" s="1">
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>10</v>
@@ -2777,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G50" s="52" t="s">
         <v>56</v>
@@ -2803,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G51" s="52" t="s">
         <v>56</v>
@@ -2829,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G52" s="52" t="s">
         <v>56</v>
@@ -2855,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G53" s="44" t="s">
         <v>56</v>
@@ -2874,14 +2973,14 @@
       <c r="B54" s="1">
         <v>53</v>
       </c>
-      <c r="D54" s="1">
-        <v>4</v>
+      <c r="C54" s="1">
+        <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>5</v>
@@ -2907,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G55" s="52" t="s">
         <v>56</v>
@@ -2926,14 +3025,14 @@
       <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="D56" s="1">
-        <v>4</v>
+      <c r="C56" s="1">
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>5</v>
@@ -2959,13 +3058,13 @@
         <v>2</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H57" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1">
@@ -2985,13 +3084,13 @@
         <v>2</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G58" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H58" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="46" customFormat="1">
@@ -3011,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G59" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="46" customFormat="1">
@@ -3037,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G60" s="44" t="s">
         <v>56</v>
@@ -3063,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G61" s="44" t="s">
         <v>56</v>
@@ -3089,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G62" s="44" t="s">
         <v>56</v>
@@ -3108,20 +3207,17 @@
       <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="D63" s="1">
-        <v>3</v>
-      </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
@@ -3134,20 +3230,17 @@
       <c r="C64" s="1">
         <v>1</v>
       </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3157,14 +3250,14 @@
       <c r="B65" s="1">
         <v>64</v>
       </c>
-      <c r="D65" s="1">
-        <v>2</v>
+      <c r="C65" s="1">
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>13</v>
@@ -3177,14 +3270,14 @@
       <c r="B66" s="1">
         <v>65</v>
       </c>
-      <c r="D66" s="1">
-        <v>2</v>
+      <c r="C66" s="1">
+        <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>13</v>
@@ -3197,14 +3290,14 @@
       <c r="B67" s="1">
         <v>66</v>
       </c>
-      <c r="D67" s="1">
-        <v>2</v>
+      <c r="C67" s="1">
+        <v>1</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>13</v>
@@ -3217,14 +3310,14 @@
       <c r="B68" s="1">
         <v>67</v>
       </c>
-      <c r="D68" s="1">
-        <v>2</v>
+      <c r="C68" s="1">
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>13</v>
@@ -3237,14 +3330,14 @@
       <c r="B69" s="1">
         <v>68</v>
       </c>
-      <c r="D69" s="1">
-        <v>2</v>
+      <c r="C69" s="1">
+        <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>13</v>
@@ -3267,7 +3360,7 @@
         <v>3</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G70" s="44" t="s">
         <v>56</v>
@@ -3293,13 +3386,13 @@
         <v>1</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G71" s="52" t="s">
         <v>56</v>
       </c>
       <c r="H71" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>17</v>
@@ -3375,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>44</v>
@@ -3402,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>44</v>
@@ -3429,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>44</v>
@@ -3456,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>44</v>
@@ -3483,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>44</v>
@@ -3510,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>44</v>
@@ -3537,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>44</v>
@@ -3564,7 +3657,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>44</v>
@@ -3591,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>48</v>
@@ -3618,10 +3711,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>49</v>
@@ -3645,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>50</v>
@@ -3672,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>44</v>
@@ -3699,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>44</v>
@@ -3726,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>44</v>
@@ -3753,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>44</v>
@@ -3780,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="45" t="s">
         <v>79</v>
@@ -3807,10 +3900,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>80</v>
@@ -3834,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>81</v>
@@ -3861,10 +3954,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" s="45" t="s">
         <v>82</v>
@@ -3888,10 +3981,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H21" s="45" t="s">
         <v>82</v>
@@ -3915,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="45" t="s">
         <v>82</v>
@@ -3942,10 +4035,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="50"/>
@@ -3967,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="50"/>
@@ -3992,10 +4085,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="50"/>
@@ -4017,10 +4110,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H26" s="52"/>
       <c r="I26" s="50"/>
@@ -4042,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="50"/>
@@ -4067,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="52"/>
       <c r="I28" s="50"/>
@@ -4092,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>44</v>
@@ -4119,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>44</v>
@@ -4146,7 +4239,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>44</v>
@@ -4173,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>44</v>
@@ -4200,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>54</v>
@@ -4227,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>83</v>
@@ -4256,10 +4349,10 @@
         <v>3</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>83</v>
@@ -4285,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>44</v>
@@ -4306,8 +4399,8 @@
   <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4341,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>17</v>
@@ -4350,7 +4443,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>21</v>
@@ -4373,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>23</v>
@@ -4382,7 +4475,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J2" s="9"/>
     </row>
@@ -4403,13 +4496,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>25</v>
@@ -4435,13 +4528,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>26</v>
@@ -4465,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -4495,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>23</v>
@@ -4504,7 +4597,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -4525,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>23</v>
@@ -4534,7 +4627,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -4555,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>23</v>
@@ -4585,16 +4678,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -4615,13 +4708,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>37</v>
@@ -4645,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -4675,16 +4768,16 @@
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -4705,13 +4798,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>59</v>
@@ -4735,13 +4828,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>33</v>
@@ -4765,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>34</v>
@@ -4795,16 +4888,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J16" s="9"/>
     </row>
@@ -4825,16 +4918,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J17" s="9"/>
     </row>
@@ -4855,16 +4948,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -4885,13 +4978,13 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>37</v>
@@ -4915,13 +5008,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>37</v>
@@ -4945,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>34</v>
@@ -4954,7 +5047,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J21" s="9"/>
     </row>
@@ -4975,13 +5068,13 @@
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>37</v>
@@ -5005,13 +5098,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I23" s="23" t="s">
         <v>37</v>
@@ -5035,16 +5128,16 @@
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J24" s="19"/>
     </row>
@@ -5065,13 +5158,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>24</v>
@@ -5095,16 +5188,16 @@
         <v>2</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J26" s="9"/>
     </row>
@@ -5125,16 +5218,16 @@
         <v>2</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J27" s="9"/>
     </row>
@@ -5155,13 +5248,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>25</v>
@@ -5187,13 +5280,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>39</v>
@@ -5219,13 +5312,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>40</v>
@@ -5251,13 +5344,13 @@
         <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>26</v>
@@ -5283,13 +5376,13 @@
         <v>1</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>41</v>
@@ -5315,13 +5408,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>42</v>
@@ -5347,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>61</v>
@@ -5379,13 +5472,13 @@
         <v>1</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>62</v>
@@ -5411,10 +5504,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H36" s="23" t="s">
         <v>60</v>
@@ -5443,10 +5536,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H37" s="23" t="s">
         <v>60</v>
@@ -5475,10 +5568,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H38" s="23" t="s">
         <v>60</v>
@@ -5507,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="23" t="s">
         <v>60</v>
@@ -5539,10 +5632,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H40" s="23" t="s">
         <v>60</v>
@@ -5571,10 +5664,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="23" t="s">
         <v>60</v>
@@ -5603,10 +5696,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H42" s="23" t="s">
         <v>60</v>
@@ -5635,10 +5728,10 @@
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H43" s="23" t="s">
         <v>60</v>
@@ -5667,10 +5760,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H44" s="23" t="s">
         <v>70</v>
@@ -5699,10 +5792,10 @@
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H45" s="23" t="s">
         <v>70</v>
@@ -5731,13 +5824,13 @@
         <v>1</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>99</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>37</v>
@@ -5763,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>34</v>
@@ -5772,7 +5865,7 @@
         <v>27</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J47" s="9"/>
     </row>
@@ -5793,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G48" s="44" t="s">
         <v>85</v>
@@ -5802,7 +5895,7 @@
         <v>27</v>
       </c>
       <c r="I48" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J48" s="42">
         <v>46</v>
@@ -5825,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G49" s="44" t="s">
         <v>85</v>
@@ -5857,10 +5950,10 @@
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H50" s="23" t="s">
         <v>70</v>
@@ -5887,10 +5980,10 @@
         <v>2</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H51" s="23" t="s">
         <v>60</v>
@@ -5919,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H52" s="45" t="s">
         <v>31</v>
@@ -5951,10 +6044,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H53" s="45" t="s">
         <v>31</v>
@@ -5983,10 +6076,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H54" s="45" t="s">
         <v>31</v>
@@ -6015,10 +6108,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H55" s="45" t="s">
         <v>31</v>
@@ -6047,10 +6140,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H56" s="45" t="s">
         <v>31</v>
@@ -6079,10 +6172,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H57" s="45" t="s">
         <v>31</v>
@@ -6111,10 +6204,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H58" s="45" t="s">
         <v>31</v>
@@ -6143,10 +6236,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H59" s="45" t="s">
         <v>31</v>
@@ -6175,10 +6268,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H60" s="45" t="s">
         <v>31</v>
@@ -6207,10 +6300,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H61" s="45" t="s">
         <v>31</v>
@@ -6239,10 +6332,10 @@
         <v>2</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H62" s="45" t="s">
         <v>31</v>
@@ -6271,10 +6364,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H63" s="45" t="s">
         <v>31</v>
@@ -6303,10 +6396,10 @@
         <v>2</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H64" s="45" t="s">
         <v>31</v>
@@ -6335,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G65" s="44" t="s">
         <v>85</v>
@@ -6365,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G66" s="44" t="s">
         <v>85</v>
@@ -6395,13 +6488,13 @@
         <v>1</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G67" s="44" t="s">
         <v>85</v>
       </c>
       <c r="H67" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I67" s="45" t="s">
         <v>100</v>
@@ -6427,13 +6520,13 @@
         <v>1</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G68" s="44" t="s">
         <v>85</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I68" s="45" t="s">
         <v>101</v>
@@ -6459,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G69" s="44" t="s">
         <v>85</v>
@@ -6491,13 +6584,13 @@
         <v>1</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G70" s="44" t="s">
         <v>85</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I70" s="45" t="s">
         <v>100</v>
@@ -6523,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G71" s="44" t="s">
         <v>85</v>
@@ -6555,13 +6648,13 @@
         <v>1</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G72" s="44" t="s">
         <v>85</v>
       </c>
       <c r="H72" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I72" s="45" t="s">
         <v>104</v>
@@ -6587,13 +6680,13 @@
         <v>1</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G73" s="44" t="s">
         <v>85</v>
       </c>
       <c r="H73" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I73" s="45" t="s">
         <v>102</v>
@@ -6619,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G74" s="44" t="s">
         <v>85</v>
@@ -6651,13 +6744,13 @@
         <v>2</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H75" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I75" s="45" t="s">
         <v>69</v>
@@ -6683,13 +6776,13 @@
         <v>2</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G76" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H76" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I76" s="45" t="s">
         <v>105</v>
@@ -6715,16 +6808,16 @@
         <v>2</v>
       </c>
       <c r="F77" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G77" s="44" t="s">
         <v>99</v>
       </c>
       <c r="H77" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I77" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J77" s="42">
         <v>40</v>
@@ -6747,16 +6840,16 @@
         <v>2</v>
       </c>
       <c r="F78" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G78" s="44" t="s">
         <v>99</v>
       </c>
       <c r="H78" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I78" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J78" s="42">
         <v>76</v>
@@ -6779,13 +6872,13 @@
         <v>2</v>
       </c>
       <c r="F79" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G79" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I79" s="45" t="s">
         <v>106</v>
@@ -6811,16 +6904,16 @@
         <v>2</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G80" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="I80" s="45" t="s">
         <v>174</v>
-      </c>
-      <c r="H80" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="I80" s="45" t="s">
-        <v>175</v>
       </c>
       <c r="J80" s="42">
         <v>49</v>
@@ -6843,16 +6936,16 @@
         <v>2</v>
       </c>
       <c r="F81" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G81" s="44" t="s">
         <v>99</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I81" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J81" s="42">
         <v>78</v>
@@ -6875,13 +6968,13 @@
         <v>2</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G82" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H82" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I82" s="45" t="s">
         <v>107</v>
@@ -6907,16 +7000,16 @@
         <v>2</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G83" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H83" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I83" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J83" s="42"/>
     </row>
@@ -6937,16 +7030,16 @@
         <v>2</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G84" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H84" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I84" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J84" s="42"/>
     </row>
@@ -6967,16 +7060,16 @@
         <v>2</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G85" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H85" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J85" s="42"/>
     </row>
@@ -6997,16 +7090,16 @@
         <v>2</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H86" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J86" s="42"/>
     </row>
@@ -7027,16 +7120,16 @@
         <v>2</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H87" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I87" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J87" s="42">
         <v>85</v>
@@ -7059,16 +7152,16 @@
         <v>2</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I88" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J88" s="42"/>
     </row>
@@ -7089,16 +7182,16 @@
         <v>3</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H89" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J89" s="42">
         <v>97</v>
@@ -7121,7 +7214,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G90" s="44" t="s">
         <v>99</v>
@@ -7151,13 +7244,13 @@
         <v>2</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H91" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I91" s="45" t="s">
         <v>71</v>
@@ -7183,13 +7276,13 @@
         <v>2</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G92" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H92" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I92" s="45" t="s">
         <v>72</v>
@@ -7215,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G93" s="44" t="s">
         <v>99</v>
@@ -7245,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G94" s="44" t="s">
         <v>99</v>
@@ -7277,7 +7370,7 @@
         <v>2</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G95" s="44" t="s">
         <v>99</v>
@@ -7309,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G96" s="44" t="s">
         <v>99</v>
@@ -7339,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>99</v>
@@ -7369,7 +7462,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>99</v>
@@ -7401,16 +7494,16 @@
         <v>3</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H99" s="45" t="s">
         <v>37</v>
       </c>
       <c r="I99" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J99" s="42"/>
     </row>
@@ -7431,16 +7524,16 @@
         <v>3</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G100" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H100" s="45" t="s">
         <v>37</v>
       </c>
       <c r="I100" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J100" s="42"/>
     </row>
@@ -7461,16 +7554,16 @@
         <v>2</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G101" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H101" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I101" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J101" s="42">
         <v>81</v>
@@ -7493,16 +7586,16 @@
         <v>2</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G102" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I102" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J102" s="42"/>
     </row>
@@ -7523,16 +7616,16 @@
         <v>3</v>
       </c>
       <c r="F103" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G103" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I103" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J103" s="42">
         <v>101</v>
@@ -7555,16 +7648,16 @@
         <v>2</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G104" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H104" s="45" t="s">
         <v>37</v>
       </c>
       <c r="I104" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J104" s="42"/>
     </row>
@@ -7585,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G105" s="44" t="s">
         <v>99</v>
@@ -7594,7 +7687,7 @@
         <v>37</v>
       </c>
       <c r="I105" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J105" s="42"/>
     </row>
@@ -7615,7 +7708,7 @@
         <v>2</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G106" s="44" t="s">
         <v>99</v>
@@ -7645,16 +7738,16 @@
         <v>2</v>
       </c>
       <c r="F107" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G107" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H107" s="45" t="s">
         <v>37</v>
       </c>
       <c r="I107" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J107" s="42"/>
     </row>
@@ -7675,16 +7768,16 @@
         <v>2</v>
       </c>
       <c r="F108" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G108" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H108" s="45" t="s">
         <v>37</v>
       </c>
       <c r="I108" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J108" s="42"/>
     </row>
@@ -7705,16 +7798,16 @@
         <v>2</v>
       </c>
       <c r="F109" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G109" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H109" s="45" t="s">
         <v>37</v>
       </c>
       <c r="I109" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J109" s="42"/>
     </row>
@@ -7735,10 +7828,10 @@
         <v>1</v>
       </c>
       <c r="F110" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G110" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H110" s="54" t="s">
         <v>28</v>
@@ -7767,16 +7860,16 @@
         <v>1</v>
       </c>
       <c r="F111" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G111" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H111" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="I111" s="52" t="s">
         <v>126</v>
-      </c>
-      <c r="H111" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="I111" s="52" t="s">
-        <v>127</v>
       </c>
       <c r="J111" s="50">
         <v>109</v>
@@ -7799,16 +7892,16 @@
         <v>1</v>
       </c>
       <c r="F112" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G112" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H112" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I112" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J112" s="50">
         <v>4</v>
@@ -7831,13 +7924,13 @@
         <v>1</v>
       </c>
       <c r="F113" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G113" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I113" s="54" t="s">
         <v>100</v>
@@ -7861,16 +7954,16 @@
         <v>1</v>
       </c>
       <c r="F114" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G114" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H114" s="54" t="s">
         <v>97</v>
       </c>
       <c r="I114" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J114" s="50">
         <v>65</v>
@@ -7893,10 +7986,10 @@
         <v>1</v>
       </c>
       <c r="F115" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G115" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H115" s="54" t="s">
         <v>97</v>
@@ -7925,16 +8018,16 @@
         <v>1</v>
       </c>
       <c r="F116" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G116" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H116" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I116" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J116" s="50">
         <v>48</v>
@@ -7957,16 +8050,16 @@
         <v>1</v>
       </c>
       <c r="F117" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G117" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H117" s="54" t="s">
         <v>97</v>
       </c>
       <c r="I117" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J117" s="50"/>
     </row>
@@ -7987,10 +8080,10 @@
         <v>1</v>
       </c>
       <c r="F118" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G118" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H118" s="53" t="s">
         <v>97</v>
@@ -8017,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G119" s="44" t="s">
         <v>85</v>
@@ -8047,10 +8140,10 @@
         <v>1</v>
       </c>
       <c r="F120" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G120" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H120" s="53" t="s">
         <v>97</v>
@@ -8077,16 +8170,16 @@
         <v>3</v>
       </c>
       <c r="F121" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G121" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H121" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I121" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J121" s="50"/>
     </row>
@@ -8107,13 +8200,13 @@
         <v>1</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I122" s="11" t="s">
         <v>43</v>
@@ -8137,10 +8230,10 @@
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H123" s="23" t="s">
         <v>70</v>
@@ -8167,16 +8260,16 @@
         <v>1</v>
       </c>
       <c r="F124" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G124" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H124" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I124" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J124" s="50"/>
     </row>
@@ -8197,16 +8290,16 @@
         <v>1</v>
       </c>
       <c r="F125" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G125" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H125" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I125" s="54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J125" s="50"/>
     </row>
@@ -8227,16 +8320,16 @@
         <v>1</v>
       </c>
       <c r="F126" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G126" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H126" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I126" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J126" s="50"/>
     </row>
@@ -8257,16 +8350,16 @@
         <v>2</v>
       </c>
       <c r="F127" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G127" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H127" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I127" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J127" s="50"/>
     </row>
@@ -8287,16 +8380,16 @@
         <v>2</v>
       </c>
       <c r="F128" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G128" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H128" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I128" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J128" s="50"/>
     </row>
@@ -8317,16 +8410,16 @@
         <v>1</v>
       </c>
       <c r="F129" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G129" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H129" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I129" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J129" s="50"/>
     </row>
@@ -8347,16 +8440,16 @@
         <v>1</v>
       </c>
       <c r="F130" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G130" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H130" s="54" t="s">
         <v>97</v>
       </c>
       <c r="I130" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J130" s="50"/>
     </row>
@@ -8377,16 +8470,16 @@
         <v>1</v>
       </c>
       <c r="F131" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G131" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H131" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I131" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J131" s="50"/>
     </row>
@@ -8407,16 +8500,16 @@
         <v>1</v>
       </c>
       <c r="F132" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G132" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H132" s="54" t="s">
         <v>97</v>
       </c>
       <c r="I132" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J132" s="50"/>
     </row>
@@ -8430,17 +8523,14 @@
       <c r="C133" s="1">
         <v>1</v>
       </c>
-      <c r="D133" s="4">
-        <v>3</v>
-      </c>
       <c r="E133" s="1">
         <v>1</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>28</v>
@@ -8462,23 +8552,20 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="4">
-        <v>3</v>
-      </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H134" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="I134" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J134" s="1">
         <v>132</v>
@@ -8494,23 +8581,20 @@
       <c r="C135" s="1">
         <v>0</v>
       </c>
-      <c r="D135" s="4">
-        <v>3</v>
-      </c>
       <c r="E135" s="1">
         <v>2</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -8523,23 +8607,20 @@
       <c r="C136" s="1">
         <v>1</v>
       </c>
-      <c r="D136" s="4">
-        <v>3</v>
-      </c>
       <c r="E136" s="1">
         <v>1</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -8552,23 +8633,20 @@
       <c r="C137" s="1">
         <v>1</v>
       </c>
-      <c r="D137" s="4">
-        <v>3</v>
-      </c>
       <c r="E137" s="1">
         <v>1</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -8581,23 +8659,20 @@
       <c r="C138" s="1">
         <v>1</v>
       </c>
-      <c r="D138" s="4">
-        <v>3</v>
-      </c>
       <c r="E138" s="1">
         <v>1</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J138" s="1">
         <v>4</v>
@@ -8613,23 +8688,20 @@
       <c r="C139" s="1">
         <v>1</v>
       </c>
-      <c r="D139" s="4">
-        <v>3</v>
-      </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J139" s="1">
         <v>3</v>
@@ -8652,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G140" s="44" t="s">
         <v>85</v>
@@ -8684,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G141" s="21" t="s">
         <v>34</v>
@@ -8716,10 +8788,10 @@
         <v>2</v>
       </c>
       <c r="F142" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G142" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H142" s="54" t="s">
         <v>74</v>
@@ -8748,16 +8820,16 @@
         <v>2</v>
       </c>
       <c r="F143" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G143" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H143" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J143" s="50"/>
     </row>
@@ -8778,16 +8850,16 @@
         <v>2</v>
       </c>
       <c r="F144" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G144" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H144" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J144" s="50"/>
     </row>
@@ -8808,16 +8880,16 @@
         <v>2</v>
       </c>
       <c r="F145" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G145" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H145" s="44" t="s">
         <v>31</v>
       </c>
       <c r="I145" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J145" s="42"/>
     </row>
@@ -8838,16 +8910,16 @@
         <v>2</v>
       </c>
       <c r="F146" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G146" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H146" s="44" t="s">
         <v>31</v>
       </c>
       <c r="I146" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J146" s="42">
         <v>121</v>
@@ -8870,16 +8942,16 @@
         <v>2</v>
       </c>
       <c r="F147" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G147" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H147" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I147" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J147" s="50"/>
     </row>
@@ -8900,16 +8972,16 @@
         <v>1</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="53" customFormat="1">
@@ -8929,16 +9001,16 @@
         <v>1</v>
       </c>
       <c r="F149" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G149" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H149" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J149" s="50"/>
     </row>
@@ -8959,16 +9031,16 @@
         <v>1</v>
       </c>
       <c r="F150" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G150" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J150" s="50"/>
     </row>
@@ -8986,16 +9058,16 @@
         <v>1</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H151" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H151" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="I151" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -9012,16 +9084,16 @@
         <v>2</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -9038,16 +9110,16 @@
         <v>2</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="53" customFormat="1">
@@ -9067,16 +9139,16 @@
         <v>2</v>
       </c>
       <c r="F154" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G154" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H154" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I154" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J154" s="50"/>
     </row>
@@ -9097,16 +9169,16 @@
         <v>2</v>
       </c>
       <c r="F155" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G155" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H155" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I155" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J155" s="50"/>
     </row>
@@ -9127,16 +9199,16 @@
         <v>2</v>
       </c>
       <c r="F156" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G156" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H156" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I156" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J156" s="50"/>
     </row>
@@ -9157,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G157" s="21" t="s">
         <v>34</v>
@@ -9166,7 +9238,7 @@
         <v>65</v>
       </c>
       <c r="I157" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J157" s="19"/>
     </row>
@@ -9187,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G158" s="21" t="s">
         <v>34</v>
@@ -9219,7 +9291,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G159" s="21" t="s">
         <v>99</v>
@@ -9249,10 +9321,10 @@
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H160" s="23" t="s">
         <v>60</v>
@@ -9279,10 +9351,10 @@
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H161" s="21" t="s">
         <v>60</v>
@@ -9309,13 +9381,13 @@
         <v>3</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G162" s="21" t="s">
         <v>99</v>
       </c>
       <c r="H162" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I162" s="23" t="s">
         <v>75</v>
@@ -9337,13 +9409,13 @@
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G163" s="21" t="s">
         <v>99</v>
       </c>
       <c r="H163" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I163" s="23" t="s">
         <v>37</v>
@@ -9367,16 +9439,16 @@
         <v>1</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H164" s="23" t="s">
         <v>70</v>
       </c>
       <c r="I164" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J164" s="19"/>
     </row>
@@ -9397,16 +9469,16 @@
         <v>3</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H165" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I165" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J165" s="19"/>
     </row>
@@ -9427,13 +9499,13 @@
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H166" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I166" s="23" t="s">
         <v>77</v>
@@ -9457,13 +9529,13 @@
         <v>2</v>
       </c>
       <c r="F167" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H167" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I167" s="23" t="s">
         <v>78</v>
@@ -9487,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G168" s="44" t="s">
         <v>85</v>
@@ -9496,7 +9568,7 @@
         <v>37</v>
       </c>
       <c r="I168" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J168" s="42"/>
     </row>
@@ -9517,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G169" s="44" t="s">
         <v>85</v>
@@ -9526,7 +9598,7 @@
         <v>28</v>
       </c>
       <c r="I169" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J169" s="42">
         <v>109</v>
@@ -9549,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>34</v>
@@ -9558,7 +9630,7 @@
         <v>28</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J170" s="9">
         <v>168</v>
@@ -9581,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G171" s="44" t="s">
         <v>85</v>
@@ -9613,10 +9685,10 @@
         <v>2</v>
       </c>
       <c r="F172" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G172" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H172" s="54" t="s">
         <v>74</v>
@@ -9643,13 +9715,13 @@
         <v>1</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G173" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H173" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I173" s="23" t="s">
         <v>102</v>
@@ -9673,16 +9745,16 @@
         <v>1</v>
       </c>
       <c r="F174" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G174" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H174" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I174" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J174" s="42"/>
     </row>
@@ -9703,16 +9775,16 @@
         <v>1</v>
       </c>
       <c r="F175" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G175" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H175" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I175" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J175" s="42"/>
     </row>
@@ -9733,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G176" s="44" t="s">
         <v>85</v>
@@ -9742,7 +9814,7 @@
         <v>110</v>
       </c>
       <c r="I176" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J176" s="42">
         <v>131</v>
@@ -9765,13 +9837,13 @@
         <v>2</v>
       </c>
       <c r="F177" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G177" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H177" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I177" s="45" t="s">
         <v>111</v>
@@ -9797,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G178" s="44" t="s">
         <v>85</v>
@@ -9806,7 +9878,7 @@
         <v>65</v>
       </c>
       <c r="I178" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J178" s="42">
         <v>156</v>
@@ -9829,13 +9901,13 @@
         <v>1</v>
       </c>
       <c r="F179" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G179" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H179" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I179" s="45" t="s">
         <v>77</v>
@@ -9861,13 +9933,13 @@
         <v>2</v>
       </c>
       <c r="F180" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G180" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H180" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I180" s="45" t="s">
         <v>78</v>
@@ -9893,13 +9965,13 @@
         <v>1</v>
       </c>
       <c r="F181" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G181" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H181" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I181" s="54" t="s">
         <v>97</v>
@@ -9923,10 +9995,10 @@
         <v>1</v>
       </c>
       <c r="F182" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G182" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H182" s="54" t="s">
         <v>28</v>
@@ -9953,16 +10025,16 @@
         <v>1</v>
       </c>
       <c r="F183" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G183" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H183" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I183" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J183" s="50"/>
     </row>
@@ -9983,16 +10055,16 @@
         <v>2</v>
       </c>
       <c r="F184" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G184" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H184" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I184" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J184" s="50"/>
     </row>
@@ -10013,16 +10085,16 @@
         <v>1</v>
       </c>
       <c r="F185" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G185" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H185" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I185" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J185" s="50"/>
     </row>
@@ -10043,10 +10115,10 @@
         <v>2</v>
       </c>
       <c r="F186" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G186" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H186" s="54" t="s">
         <v>31</v>
@@ -10073,10 +10145,10 @@
         <v>2</v>
       </c>
       <c r="F187" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G187" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H187" s="54" t="s">
         <v>31</v>
@@ -10103,10 +10175,10 @@
         <v>2</v>
       </c>
       <c r="F188" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G188" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H188" s="54" t="s">
         <v>31</v>
@@ -10133,16 +10205,16 @@
         <v>1</v>
       </c>
       <c r="F189" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G189" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H189" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I189" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J189" s="50"/>
     </row>
@@ -10163,16 +10235,16 @@
         <v>1</v>
       </c>
       <c r="F190" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G190" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H190" s="54" t="s">
         <v>25</v>
       </c>
       <c r="I190" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J190" s="50"/>
     </row>
@@ -10193,16 +10265,16 @@
         <v>1</v>
       </c>
       <c r="F191" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G191" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H191" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I191" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J191" s="50"/>
     </row>
@@ -10223,16 +10295,16 @@
         <v>1</v>
       </c>
       <c r="F192" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G192" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H192" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I192" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J192" s="50"/>
     </row>
@@ -10253,10 +10325,10 @@
         <v>2</v>
       </c>
       <c r="F193" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G193" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H193" s="54" t="s">
         <v>31</v>
@@ -10283,16 +10355,16 @@
         <v>2</v>
       </c>
       <c r="F194" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G194" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H194" s="54" t="s">
         <v>31</v>
       </c>
       <c r="I194" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J194" s="50"/>
     </row>
@@ -10313,10 +10385,10 @@
         <v>2</v>
       </c>
       <c r="F195" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G195" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H195" s="54" t="s">
         <v>99</v>
@@ -10343,16 +10415,16 @@
         <v>1</v>
       </c>
       <c r="F196" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G196" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H196" s="54" t="s">
         <v>99</v>
       </c>
       <c r="I196" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J196" s="50"/>
     </row>
@@ -10373,16 +10445,16 @@
         <v>1</v>
       </c>
       <c r="F197" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G197" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H197" s="54" t="s">
         <v>99</v>
       </c>
       <c r="I197" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J197" s="50"/>
     </row>
@@ -10403,16 +10475,16 @@
         <v>1</v>
       </c>
       <c r="F198" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G198" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H198" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I198" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J198" s="50"/>
     </row>
@@ -10433,16 +10505,16 @@
         <v>1</v>
       </c>
       <c r="F199" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G199" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H199" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I199" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J199" s="50"/>
     </row>
@@ -10463,16 +10535,16 @@
         <v>1</v>
       </c>
       <c r="F200" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G200" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H200" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I200" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J200" s="50"/>
     </row>
@@ -10493,16 +10565,16 @@
         <v>1</v>
       </c>
       <c r="F201" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G201" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H201" s="54" t="s">
         <v>73</v>
       </c>
       <c r="I201" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J201" s="50"/>
     </row>
@@ -10523,16 +10595,16 @@
         <v>1</v>
       </c>
       <c r="F202" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G202" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H202" s="54" t="s">
         <v>73</v>
       </c>
       <c r="I202" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J202" s="50"/>
     </row>
@@ -10553,16 +10625,16 @@
         <v>1</v>
       </c>
       <c r="F203" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G203" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H203" s="54" t="s">
         <v>73</v>
       </c>
       <c r="I203" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J203" s="50"/>
     </row>
@@ -10583,16 +10655,16 @@
         <v>1</v>
       </c>
       <c r="F204" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G204" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H204" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I204" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J204" s="50"/>
     </row>
@@ -10613,16 +10685,16 @@
         <v>1</v>
       </c>
       <c r="F205" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G205" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H205" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I205" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J205" s="50">
         <v>182</v>
@@ -10645,16 +10717,16 @@
         <v>2</v>
       </c>
       <c r="F206" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G206" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H206" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I206" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J206" s="50">
         <v>204</v>
@@ -10677,16 +10749,16 @@
         <v>2</v>
       </c>
       <c r="F207" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G207" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H207" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I207" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J207" s="50">
         <v>205</v>
@@ -10709,16 +10781,16 @@
         <v>1</v>
       </c>
       <c r="F208" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G208" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H208" s="54" t="s">
         <v>73</v>
       </c>
       <c r="I208" s="54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J208" s="50">
         <v>182</v>
@@ -10741,16 +10813,16 @@
         <v>2</v>
       </c>
       <c r="F209" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G209" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H209" s="54" t="s">
         <v>73</v>
       </c>
       <c r="I209" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J209" s="50">
         <v>204</v>
@@ -10773,16 +10845,16 @@
         <v>2</v>
       </c>
       <c r="F210" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G210" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H210" s="54" t="s">
         <v>73</v>
       </c>
       <c r="I210" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J210" s="50">
         <v>205</v>
@@ -10805,16 +10877,16 @@
         <v>2</v>
       </c>
       <c r="F211" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G211" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H211" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I211" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J211" s="50"/>
     </row>
@@ -10835,16 +10907,16 @@
         <v>3</v>
       </c>
       <c r="F212" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G212" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H212" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I212" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J212" s="50"/>
     </row>
@@ -10865,16 +10937,16 @@
         <v>2</v>
       </c>
       <c r="F213" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G213" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H213" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I213" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J213" s="50"/>
     </row>
@@ -10895,16 +10967,16 @@
         <v>2</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G214" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H214" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I214" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J214" s="9"/>
     </row>
@@ -10925,16 +10997,16 @@
         <v>1</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G215" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H215" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I215" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J215" s="9"/>
     </row>
@@ -10955,16 +11027,16 @@
         <v>1</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G216" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H216" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I216" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J216" s="9"/>
     </row>
@@ -10985,16 +11057,16 @@
         <v>3</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I217" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J217" s="9">
         <v>189</v>
@@ -11011,11 +11083,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11028,9 +11100,10 @@
     <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="68" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:10" s="68" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11047,7 +11120,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>17</v>
@@ -11055,11 +11128,14 @@
       <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="46" customFormat="1">
+    <row r="2" spans="1:10" s="46" customFormat="1">
       <c r="A2" s="42">
         <v>3</v>
       </c>
@@ -11076,17 +11152,20 @@
         <v>1</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>118</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" s="46" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" s="46" customFormat="1">
       <c r="A3" s="42">
         <v>3</v>
       </c>
@@ -11103,17 +11182,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>118</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" s="46" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" s="46" customFormat="1">
       <c r="A4" s="42">
         <v>3</v>
       </c>
@@ -11130,17 +11212,20 @@
         <v>1</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" s="46" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" s="46" customFormat="1">
       <c r="A5" s="42">
         <v>3</v>
       </c>
@@ -11157,17 +11242,20 @@
         <v>1</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" s="46" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" s="46" customFormat="1">
       <c r="A6" s="42">
         <v>3</v>
       </c>
@@ -11184,17 +11272,20 @@
         <v>2</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" s="46" customFormat="1">
+        <v>275</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" s="46" customFormat="1">
       <c r="A7" s="42">
         <v>3</v>
       </c>
@@ -11211,17 +11302,20 @@
         <v>1</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" s="46" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" s="46" customFormat="1">
       <c r="A8" s="42">
         <v>3</v>
       </c>
@@ -11238,17 +11332,20 @@
         <v>1</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" s="46" customFormat="1">
+        <v>275</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" s="46" customFormat="1">
       <c r="A9" s="42">
         <v>3</v>
       </c>
@@ -11265,17 +11362,20 @@
         <v>2</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" s="46" customFormat="1">
+        <v>275</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" s="46" customFormat="1">
       <c r="A10" s="42">
         <v>3</v>
       </c>
@@ -11292,16 +11392,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G10" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="46" customFormat="1">
+      <c r="I10" s="42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="46" customFormat="1">
       <c r="A11" s="42">
         <v>3</v>
       </c>
@@ -11318,19 +11421,22 @@
         <v>3</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="42">
+      <c r="I11" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J11" s="42">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="46" customFormat="1">
+    <row r="12" spans="1:10" s="46" customFormat="1">
       <c r="A12" s="42">
         <v>3</v>
       </c>
@@ -11347,16 +11453,19 @@
         <v>2</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="46" customFormat="1">
+        <v>275</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="46" customFormat="1">
       <c r="A13" s="42">
         <v>3</v>
       </c>
@@ -11373,16 +11482,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1">
+        <v>275</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="22" customFormat="1">
       <c r="A14" s="19">
         <v>2</v>
       </c>
@@ -11399,16 +11511,22 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="22" customFormat="1">
+        <v>276</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="22" customFormat="1">
       <c r="A15" s="19">
         <v>2</v>
       </c>
@@ -11425,16 +11543,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="22" customFormat="1">
+        <v>276</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="J15" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="22" customFormat="1">
       <c r="A16" s="19">
         <v>2</v>
       </c>
@@ -11451,16 +11575,22 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="22" customFormat="1">
+        <v>276</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="J16" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="22" customFormat="1">
       <c r="A17" s="19">
         <v>2</v>
       </c>
@@ -11477,16 +11607,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="22" customFormat="1">
+        <v>276</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="J17" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="22" customFormat="1">
       <c r="A18" s="19">
         <v>2</v>
       </c>
@@ -11503,16 +11639,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="22" customFormat="1">
+        <v>277</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="22" customFormat="1">
       <c r="A19" s="19">
         <v>2</v>
       </c>
@@ -11529,16 +11668,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="22" customFormat="1">
+        <v>277</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="22" customFormat="1">
       <c r="A20" s="19">
         <v>2</v>
       </c>
@@ -11555,16 +11697,19 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="46" customFormat="1">
+        <v>277</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="46" customFormat="1">
       <c r="A21" s="42">
         <v>3</v>
       </c>
@@ -11581,19 +11726,20 @@
         <v>1</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="42">
+        <v>119</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="46" customFormat="1">
+    <row r="22" spans="1:10" s="46" customFormat="1">
       <c r="A22" s="42">
         <v>3</v>
       </c>
@@ -11610,16 +11756,17 @@
         <v>2</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="53" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="1:10" s="53" customFormat="1">
       <c r="A23" s="50">
         <v>4</v>
       </c>
@@ -11636,19 +11783,22 @@
         <v>1</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="52" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="53" customFormat="1">
+        <v>119</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="J23" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="53" customFormat="1">
       <c r="A24" s="50">
         <v>4</v>
       </c>
@@ -11665,19 +11815,22 @@
         <v>2</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="50">
+        <v>119</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J24" s="50">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="53" customFormat="1">
+    <row r="25" spans="1:10" s="53" customFormat="1">
       <c r="A25" s="50">
         <v>4</v>
       </c>
@@ -11694,19 +11847,22 @@
         <v>2</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="52" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="50">
+        <v>119</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25" s="50">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="53" customFormat="1">
+    <row r="26" spans="1:10" s="53" customFormat="1">
       <c r="A26" s="50">
         <v>4</v>
       </c>
@@ -11723,19 +11879,22 @@
         <v>2</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="52" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="50">
+        <v>245</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J26" s="50">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="53" customFormat="1">
+    <row r="27" spans="1:10" s="53" customFormat="1">
       <c r="A27" s="50">
         <v>4</v>
       </c>
@@ -11752,19 +11911,22 @@
         <v>2</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G27" s="52" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="50">
+        <v>119</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="J27" s="50">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="53" customFormat="1">
+    <row r="28" spans="1:10" s="53" customFormat="1">
       <c r="A28" s="50">
         <v>4</v>
       </c>
@@ -11781,19 +11943,20 @@
         <v>1</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G28" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="I28" s="50">
+      <c r="I28" s="50"/>
+      <c r="J28" s="50">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="53" customFormat="1">
+    <row r="29" spans="1:10" s="53" customFormat="1">
       <c r="A29" s="50">
         <v>4</v>
       </c>
@@ -11810,19 +11973,20 @@
         <v>2</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="50">
+        <v>119</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="53" customFormat="1">
+    <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="50">
         <v>4</v>
       </c>
@@ -11839,19 +12003,20 @@
         <v>2</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="50">
+        <v>119</v>
+      </c>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="53" customFormat="1">
+    <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="50">
         <v>4</v>
       </c>
@@ -11868,19 +12033,20 @@
         <v>2</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G31" s="52" t="s">
         <v>118</v>
       </c>
       <c r="H31" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="I31" s="50">
+        <v>245</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="53" customFormat="1">
+    <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="50">
         <v>4</v>
       </c>
@@ -11897,16 +12063,463 @@
         <v>2</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="53" customFormat="1">
+      <c r="A33" s="50">
+        <v>4</v>
+      </c>
+      <c r="B33" s="50">
+        <v>32</v>
+      </c>
+      <c r="C33" s="50">
+        <v>1</v>
+      </c>
+      <c r="D33" s="50">
+        <v>2</v>
+      </c>
+      <c r="E33" s="50">
+        <v>1</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="53" customFormat="1">
+      <c r="A34" s="50">
+        <v>4</v>
+      </c>
+      <c r="B34" s="50">
+        <v>33</v>
+      </c>
+      <c r="C34" s="50">
+        <v>1</v>
+      </c>
+      <c r="D34" s="50">
+        <v>2</v>
+      </c>
+      <c r="E34" s="50">
+        <v>2</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="53" customFormat="1">
+      <c r="A35" s="50">
+        <v>4</v>
+      </c>
+      <c r="B35" s="50">
+        <v>34</v>
+      </c>
+      <c r="C35" s="50">
+        <v>1</v>
+      </c>
+      <c r="D35" s="50">
+        <v>2</v>
+      </c>
+      <c r="E35" s="50">
+        <v>2</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="53" customFormat="1">
+      <c r="A36" s="50">
+        <v>4</v>
+      </c>
+      <c r="B36" s="50">
+        <v>35</v>
+      </c>
+      <c r="C36" s="50">
+        <v>1</v>
+      </c>
+      <c r="D36" s="50">
+        <v>2</v>
+      </c>
+      <c r="E36" s="50">
+        <v>1</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="J36" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="53" customFormat="1">
+      <c r="A37" s="50">
+        <v>4</v>
+      </c>
+      <c r="B37" s="50">
+        <v>36</v>
+      </c>
+      <c r="C37" s="50">
+        <v>1</v>
+      </c>
+      <c r="D37" s="50">
+        <v>2</v>
+      </c>
+      <c r="E37" s="50">
+        <v>2</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" s="50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="53" customFormat="1">
+      <c r="A38" s="50">
+        <v>4</v>
+      </c>
+      <c r="B38" s="50">
+        <v>37</v>
+      </c>
+      <c r="C38" s="50">
+        <v>1</v>
+      </c>
+      <c r="D38" s="50">
+        <v>2</v>
+      </c>
+      <c r="E38" s="50">
+        <v>2</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="53" customFormat="1">
+      <c r="A39" s="50">
+        <v>4</v>
+      </c>
+      <c r="B39" s="50">
+        <v>38</v>
+      </c>
+      <c r="C39" s="50">
+        <v>1</v>
+      </c>
+      <c r="D39" s="50">
+        <v>2</v>
+      </c>
+      <c r="E39" s="50">
+        <v>2</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" s="50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="53" customFormat="1">
+      <c r="A40" s="50">
+        <v>4</v>
+      </c>
+      <c r="B40" s="50">
+        <v>39</v>
+      </c>
+      <c r="C40" s="50">
+        <v>1</v>
+      </c>
+      <c r="D40" s="50">
+        <v>2</v>
+      </c>
+      <c r="E40" s="50">
+        <v>1</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="I32" s="50">
-        <v>20</v>
+      <c r="H40" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="53" customFormat="1">
+      <c r="A41" s="50">
+        <v>4</v>
+      </c>
+      <c r="B41" s="50">
+        <v>40</v>
+      </c>
+      <c r="C41" s="50">
+        <v>1</v>
+      </c>
+      <c r="D41" s="50">
+        <v>2</v>
+      </c>
+      <c r="E41" s="50">
+        <v>2</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" s="50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="53" customFormat="1">
+      <c r="A42" s="50">
+        <v>4</v>
+      </c>
+      <c r="B42" s="50">
+        <v>41</v>
+      </c>
+      <c r="C42" s="50">
+        <v>1</v>
+      </c>
+      <c r="D42" s="50">
+        <v>2</v>
+      </c>
+      <c r="E42" s="50">
+        <v>2</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="J42" s="50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="53" customFormat="1">
+      <c r="A43" s="50">
+        <v>4</v>
+      </c>
+      <c r="B43" s="50">
+        <v>42</v>
+      </c>
+      <c r="C43" s="50">
+        <v>1</v>
+      </c>
+      <c r="D43" s="50">
+        <v>2</v>
+      </c>
+      <c r="E43" s="50">
+        <v>2</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" s="50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="53" customFormat="1">
+      <c r="A44" s="50">
+        <v>4</v>
+      </c>
+      <c r="B44" s="50">
+        <v>43</v>
+      </c>
+      <c r="C44" s="50">
+        <v>1</v>
+      </c>
+      <c r="D44" s="50">
+        <v>2</v>
+      </c>
+      <c r="E44" s="50">
+        <v>1</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="53" customFormat="1">
+      <c r="A45" s="50">
+        <v>4</v>
+      </c>
+      <c r="B45" s="50">
+        <v>44</v>
+      </c>
+      <c r="C45" s="50">
+        <v>1</v>
+      </c>
+      <c r="D45" s="50">
+        <v>2</v>
+      </c>
+      <c r="E45" s="50">
+        <v>1</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="J45" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="53" customFormat="1">
+      <c r="A46" s="50">
+        <v>4</v>
+      </c>
+      <c r="B46" s="50">
+        <v>45</v>
+      </c>
+      <c r="C46" s="50">
+        <v>1</v>
+      </c>
+      <c r="D46" s="50">
+        <v>2</v>
+      </c>
+      <c r="E46" s="50">
+        <v>2</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="J46" s="50">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -11919,9 +12532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11950,7 +12563,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>17</v>
@@ -11959,7 +12572,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -11985,13 +12598,13 @@
         <v>55</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I2" s="72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" s="42"/>
     </row>
@@ -12015,13 +12628,13 @@
         <v>55</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="53" customFormat="1">
@@ -12044,13 +12657,13 @@
         <v>55</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I4" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J4" s="50"/>
     </row>
@@ -12074,13 +12687,13 @@
         <v>55</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I5" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" s="50"/>
     </row>
@@ -12104,13 +12717,13 @@
         <v>55</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I6" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J6" s="50"/>
     </row>
@@ -12134,13 +12747,13 @@
         <v>55</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J7" s="50"/>
     </row>
@@ -12164,13 +12777,13 @@
         <v>55</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J8" s="50"/>
     </row>
@@ -12194,13 +12807,13 @@
         <v>55</v>
       </c>
       <c r="G9" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="H9" s="52" t="s">
-        <v>254</v>
-      </c>
       <c r="I9" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J9" s="50"/>
     </row>
@@ -12224,13 +12837,13 @@
         <v>55</v>
       </c>
       <c r="G10" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="H10" s="52" t="s">
-        <v>254</v>
-      </c>
       <c r="I10" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J10" s="50"/>
     </row>
@@ -12254,13 +12867,13 @@
         <v>55</v>
       </c>
       <c r="G11" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="H11" s="52" t="s">
-        <v>254</v>
-      </c>
       <c r="I11" s="73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J11" s="50">
         <v>24</v>
@@ -12286,13 +12899,13 @@
         <v>55</v>
       </c>
       <c r="G12" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="52" t="s">
-        <v>254</v>
-      </c>
       <c r="I12" s="73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -12316,13 +12929,13 @@
         <v>55</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -12346,13 +12959,13 @@
         <v>55</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J14" s="50"/>
     </row>
@@ -12376,13 +12989,13 @@
         <v>55</v>
       </c>
       <c r="G15" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="H15" s="52" t="s">
-        <v>254</v>
-      </c>
       <c r="I15" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J15" s="50"/>
     </row>
@@ -12406,13 +13019,13 @@
         <v>55</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J16" s="50"/>
     </row>
@@ -12436,13 +13049,13 @@
         <v>55</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I17" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J17" s="50"/>
     </row>
@@ -12466,13 +13079,13 @@
         <v>55</v>
       </c>
       <c r="G18" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>254</v>
-      </c>
       <c r="I18" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J18" s="50"/>
     </row>
@@ -12496,13 +13109,13 @@
         <v>55</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="50"/>
     </row>
@@ -12526,13 +13139,13 @@
         <v>55</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J20" s="62"/>
     </row>
@@ -12556,13 +13169,13 @@
         <v>55</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I21" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J21" s="62"/>
     </row>
@@ -12586,13 +13199,13 @@
         <v>55</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J22" s="62"/>
     </row>
@@ -12616,13 +13229,13 @@
         <v>55</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I23" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J23" s="62"/>
     </row>
@@ -12646,13 +13259,13 @@
         <v>55</v>
       </c>
       <c r="G24" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I24" s="75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J24" s="62"/>
     </row>
@@ -12676,10 +13289,10 @@
         <v>55</v>
       </c>
       <c r="G25" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H25" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I25" s="74" t="s">
         <v>37</v>
@@ -12706,10 +13319,10 @@
         <v>55</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H26" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>37</v>
@@ -12736,10 +13349,10 @@
         <v>55</v>
       </c>
       <c r="G27" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I27" s="74" t="s">
         <v>37</v>
@@ -12766,10 +13379,10 @@
         <v>55</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I28" s="72" t="s">
         <v>37</v>
@@ -12798,10 +13411,10 @@
         <v>55</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I29" s="72" t="s">
         <v>37</v>
@@ -12828,13 +13441,13 @@
         <v>55</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I30" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J30" s="42"/>
     </row>
@@ -12858,13 +13471,13 @@
         <v>55</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I31" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J31" s="42"/>
     </row>
@@ -12888,13 +13501,13 @@
         <v>55</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I32" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J32" s="42"/>
     </row>
@@ -12918,13 +13531,13 @@
         <v>55</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J33" s="42"/>
     </row>
@@ -12948,13 +13561,13 @@
         <v>55</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I34" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J34" s="42">
         <v>56</v>
@@ -12980,13 +13593,13 @@
         <v>55</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I35" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J35" s="42">
         <v>30</v>
@@ -13012,13 +13625,13 @@
         <v>55</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I36" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J36" s="42">
         <v>31</v>
@@ -13044,13 +13657,13 @@
         <v>55</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I37" s="76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J37" s="42"/>
     </row>
@@ -13074,13 +13687,13 @@
         <v>55</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I38" s="76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J38" s="42"/>
     </row>
@@ -13104,13 +13717,13 @@
         <v>55</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I39" s="76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J39" s="42"/>
     </row>
@@ -13134,13 +13747,13 @@
         <v>55</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I40" s="76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J40" s="42"/>
     </row>
@@ -13164,13 +13777,13 @@
         <v>55</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I41" s="76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J41" s="42"/>
     </row>
@@ -13194,13 +13807,13 @@
         <v>55</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I42" s="76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J42" s="42"/>
     </row>
@@ -13224,13 +13837,13 @@
         <v>55</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I43" s="76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J43" s="42"/>
     </row>
@@ -13254,13 +13867,13 @@
         <v>55</v>
       </c>
       <c r="G44" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="H44" s="44" t="s">
-        <v>267</v>
-      </c>
       <c r="I44" s="76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J44" s="42"/>
     </row>
@@ -13284,13 +13897,13 @@
         <v>55</v>
       </c>
       <c r="G45" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="H45" s="45" t="s">
-        <v>267</v>
-      </c>
       <c r="I45" s="76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J45" s="42"/>
     </row>
@@ -13314,10 +13927,10 @@
         <v>55</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H46" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I46" s="44" t="s">
         <v>37</v>
@@ -13344,10 +13957,10 @@
         <v>55</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H47" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I47" s="44" t="s">
         <v>37</v>
@@ -13374,10 +13987,10 @@
         <v>55</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I48" s="44" t="s">
         <v>37</v>
@@ -13404,10 +14017,10 @@
         <v>55</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I49" s="44" t="s">
         <v>37</v>
@@ -13434,10 +14047,10 @@
         <v>55</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I50" s="44" t="s">
         <v>37</v>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190" activeTab="4"/>
+    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="341">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1006,12 +1006,60 @@
   <si>
     <t>Zapremina kvadra</t>
   </si>
+  <si>
+    <t>Rogljasta i obla tela</t>
+  </si>
+  <si>
+    <t>numb.145</t>
+  </si>
+  <si>
+    <t>Mreža</t>
+  </si>
+  <si>
+    <t>Elementi i osobine</t>
+  </si>
+  <si>
+    <t>Kvadar i kocka</t>
+  </si>
+  <si>
+    <t>Prava</t>
+  </si>
+  <si>
+    <t>Uzajamni položaj pravih</t>
+  </si>
+  <si>
+    <t>Ugao</t>
+  </si>
+  <si>
+    <t>Vrste uglova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojam, elementi </t>
+  </si>
+  <si>
+    <t>Kružnica i krug</t>
+  </si>
+  <si>
+    <t>Pravougaonik, kvadrat</t>
+  </si>
+  <si>
+    <t>meas.3</t>
+  </si>
+  <si>
+    <t>Obim kvadrata</t>
+  </si>
+  <si>
+    <t>Trougao</t>
+  </si>
+  <si>
+    <t>Pojam, elementi I  vrste</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,6 +1084,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1133,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,6 +1376,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,22 +1386,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99FFCC"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1636,7 +1685,7 @@
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
@@ -3678,11 +3727,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4136,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="42">
         <v>1</v>
@@ -4145,25 +4194,25 @@
         <v>2</v>
       </c>
       <c r="E17" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="G17" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>79</v>
+      <c r="G17" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>334</v>
       </c>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:9" s="46" customFormat="1">
+    <row r="18" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="42">
         <v>3</v>
       </c>
       <c r="B18" s="42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="42">
         <v>1</v>
@@ -4172,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>249</v>
@@ -4180,8 +4229,8 @@
       <c r="G18" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="44" t="s">
-        <v>80</v>
+      <c r="H18" s="45" t="s">
+        <v>79</v>
       </c>
       <c r="I18" s="42"/>
     </row>
@@ -4190,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="42">
         <v>1</v>
@@ -4199,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>249</v>
@@ -4208,19 +4257,19 @@
         <v>189</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:9" s="46" customFormat="1">
       <c r="A20" s="42">
         <v>3</v>
       </c>
       <c r="B20" s="42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="43">
         <v>2</v>
@@ -4232,19 +4281,19 @@
         <v>249</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>82</v>
+        <v>189</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" s="46" customFormat="1" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="42">
         <v>3</v>
       </c>
       <c r="B21" s="42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="42">
         <v>0</v>
@@ -4266,12 +4315,12 @@
       </c>
       <c r="I21" s="42"/>
     </row>
-    <row r="22" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:9" s="46" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="42">
         <v>3</v>
       </c>
       <c r="B22" s="42">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="42">
         <v>0</v>
@@ -4293,225 +4342,1044 @@
       </c>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" s="13" customFormat="1">
-      <c r="A23" s="9">
-        <v>1</v>
-      </c>
-      <c r="B23" s="9">
+    <row r="23" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="42">
+        <v>3</v>
+      </c>
+      <c r="B23" s="42">
+        <v>22</v>
+      </c>
+      <c r="C23" s="42">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43">
+        <v>2</v>
+      </c>
+      <c r="E23" s="42">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="50">
+        <v>4</v>
+      </c>
+      <c r="B24" s="50">
+        <v>23</v>
+      </c>
+      <c r="C24" s="50">
+        <v>0</v>
+      </c>
+      <c r="D24" s="51">
+        <v>2</v>
+      </c>
+      <c r="E24" s="50">
+        <v>1</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="I24" s="50">
         <v>43</v>
       </c>
-      <c r="C23" s="9">
+    </row>
+    <row r="25" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="50">
+        <v>4</v>
+      </c>
+      <c r="B25" s="50">
+        <v>24</v>
+      </c>
+      <c r="C25" s="50">
+        <v>1</v>
+      </c>
+      <c r="D25" s="51">
+        <v>2</v>
+      </c>
+      <c r="E25" s="50">
+        <v>1</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="I25" s="50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="50">
+        <v>4</v>
+      </c>
+      <c r="B26" s="50">
+        <v>25</v>
+      </c>
+      <c r="C26" s="50">
+        <v>1</v>
+      </c>
+      <c r="D26" s="51">
+        <v>2</v>
+      </c>
+      <c r="E26" s="50">
+        <v>1</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="50">
+        <v>4</v>
+      </c>
+      <c r="B27" s="50">
+        <v>26</v>
+      </c>
+      <c r="C27" s="50">
+        <v>1</v>
+      </c>
+      <c r="D27" s="51">
+        <v>2</v>
+      </c>
+      <c r="E27" s="50">
+        <v>1</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="I27" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="50">
+        <v>4</v>
+      </c>
+      <c r="B28" s="50">
+        <v>27</v>
+      </c>
+      <c r="C28" s="50">
+        <v>1</v>
+      </c>
+      <c r="D28" s="51">
+        <v>2</v>
+      </c>
+      <c r="E28" s="50">
+        <v>1</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="50">
+        <v>4</v>
+      </c>
+      <c r="B29" s="50">
+        <v>28</v>
+      </c>
+      <c r="C29" s="50">
+        <v>1</v>
+      </c>
+      <c r="D29" s="51">
+        <v>2</v>
+      </c>
+      <c r="E29" s="50">
+        <v>1</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="I29" s="50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="50">
+        <v>4</v>
+      </c>
+      <c r="B30" s="50">
+        <v>29</v>
+      </c>
+      <c r="C30" s="50">
         <v>0</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="D30" s="51">
+        <v>2</v>
+      </c>
+      <c r="E30" s="50">
+        <v>1</v>
+      </c>
+      <c r="F30" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G30" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="42">
+        <v>3</v>
+      </c>
+      <c r="B31" s="42">
+        <v>30</v>
+      </c>
+      <c r="C31" s="42">
+        <v>1</v>
+      </c>
+      <c r="D31" s="43">
+        <v>1</v>
+      </c>
+      <c r="E31" s="42">
+        <v>1</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="I31" s="42"/>
+    </row>
+    <row r="32" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="42">
+        <v>3</v>
+      </c>
+      <c r="B32" s="42">
+        <v>31</v>
+      </c>
+      <c r="C32" s="42">
+        <v>1</v>
+      </c>
+      <c r="D32" s="43">
+        <v>1</v>
+      </c>
+      <c r="E32" s="42">
+        <v>1</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="I32" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="42">
+        <v>3</v>
+      </c>
+      <c r="B33" s="42">
+        <v>32</v>
+      </c>
+      <c r="C33" s="42">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43">
+        <v>1</v>
+      </c>
+      <c r="E33" s="42">
+        <v>1</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H33" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I33" s="42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="42">
+        <v>3</v>
+      </c>
+      <c r="B34" s="42">
+        <v>33</v>
+      </c>
+      <c r="C34" s="42">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43">
+        <v>1</v>
+      </c>
+      <c r="E34" s="42">
+        <v>1</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="42">
+        <v>3</v>
+      </c>
+      <c r="B35" s="42">
+        <v>34</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43">
+        <v>1</v>
+      </c>
+      <c r="E35" s="42">
+        <v>1</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H35" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" s="42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="42">
+        <v>3</v>
+      </c>
+      <c r="B36" s="42">
+        <v>35</v>
+      </c>
+      <c r="C36" s="42">
+        <v>1</v>
+      </c>
+      <c r="D36" s="43">
+        <v>1</v>
+      </c>
+      <c r="E36" s="42">
+        <v>1</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H36" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I36" s="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="42">
+        <v>3</v>
+      </c>
+      <c r="B37" s="42">
+        <v>36</v>
+      </c>
+      <c r="C37" s="42">
+        <v>1</v>
+      </c>
+      <c r="D37" s="43">
+        <v>1</v>
+      </c>
+      <c r="E37" s="42">
+        <v>1</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H37" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="I37" s="42"/>
+    </row>
+    <row r="38" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="42">
+        <v>3</v>
+      </c>
+      <c r="B38" s="42">
+        <v>37</v>
+      </c>
+      <c r="C38" s="42">
+        <v>1</v>
+      </c>
+      <c r="D38" s="43">
+        <v>1</v>
+      </c>
+      <c r="E38" s="42">
+        <v>2</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H38" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="I38" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="42">
+        <v>3</v>
+      </c>
+      <c r="B39" s="42">
+        <v>38</v>
+      </c>
+      <c r="C39" s="42">
+        <v>0</v>
+      </c>
+      <c r="D39" s="43">
+        <v>1</v>
+      </c>
+      <c r="E39" s="42">
+        <v>2</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="I39" s="42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="42">
+        <v>3</v>
+      </c>
+      <c r="B40" s="42">
+        <v>39</v>
+      </c>
+      <c r="C40" s="42">
+        <v>1</v>
+      </c>
+      <c r="D40" s="43">
+        <v>2</v>
+      </c>
+      <c r="E40" s="42">
+        <v>1</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="H40" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I40" s="42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="42">
+        <v>3</v>
+      </c>
+      <c r="B41" s="42">
+        <v>40</v>
+      </c>
+      <c r="C41" s="42">
+        <v>1</v>
+      </c>
+      <c r="D41" s="43">
+        <v>2</v>
+      </c>
+      <c r="E41" s="42">
+        <v>1</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="H41" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I41" s="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="43">
+        <v>2</v>
+      </c>
+      <c r="E42" s="42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="H42" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I42" s="42"/>
+    </row>
+    <row r="43" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="42">
+        <v>3</v>
+      </c>
+      <c r="B43" s="42">
+        <v>42</v>
+      </c>
+      <c r="C43" s="42">
+        <v>1</v>
+      </c>
+      <c r="D43" s="43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="42">
+        <v>2</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="I43" s="42"/>
+    </row>
+    <row r="44" spans="1:9" s="13" customFormat="1">
+      <c r="A44" s="9">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" s="13" customFormat="1">
-      <c r="A24" s="9">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" s="13" customFormat="1">
+      <c r="A45" s="9">
+        <v>1</v>
+      </c>
+      <c r="B45" s="9">
         <v>44</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C45" s="9">
         <v>0</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G45" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" ht="30">
-      <c r="A25" s="9">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" s="13" customFormat="1" ht="30">
+      <c r="A46" s="9">
+        <v>1</v>
+      </c>
+      <c r="B46" s="9">
         <v>45</v>
       </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" s="13" customFormat="1" ht="30">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" s="13" customFormat="1" ht="30">
+      <c r="A47" s="9">
+        <v>1</v>
+      </c>
+      <c r="B47" s="9">
         <v>46</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" s="13" customFormat="1">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" s="13" customFormat="1">
+      <c r="A48" s="9">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9">
         <v>47</v>
       </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G48" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" s="46" customFormat="1">
-      <c r="A28" s="42">
-        <v>3</v>
-      </c>
-      <c r="B28" s="42">
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" s="46" customFormat="1">
+      <c r="A49" s="42">
+        <v>3</v>
+      </c>
+      <c r="B49" s="42">
+        <v>48</v>
+      </c>
+      <c r="C49" s="42">
+        <v>1</v>
+      </c>
+      <c r="D49" s="43">
+        <v>2</v>
+      </c>
+      <c r="E49" s="42">
+        <v>1</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="46" customFormat="1">
+      <c r="A50" s="42">
+        <v>3</v>
+      </c>
+      <c r="B50" s="42">
+        <v>49</v>
+      </c>
+      <c r="C50" s="42">
+        <v>1</v>
+      </c>
+      <c r="D50" s="43">
+        <v>2</v>
+      </c>
+      <c r="E50" s="42">
+        <v>1</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="46" customFormat="1">
+      <c r="A51" s="42">
+        <v>3</v>
+      </c>
+      <c r="B51" s="42">
+        <v>50</v>
+      </c>
+      <c r="C51" s="42">
+        <v>1</v>
+      </c>
+      <c r="D51" s="43">
+        <v>2</v>
+      </c>
+      <c r="E51" s="42">
+        <v>2</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="I51" s="42"/>
+    </row>
+    <row r="52" spans="1:9" s="46" customFormat="1">
+      <c r="A52" s="42">
+        <v>3</v>
+      </c>
+      <c r="B52" s="42">
+        <v>51</v>
+      </c>
+      <c r="C52" s="42">
+        <v>1</v>
+      </c>
+      <c r="D52" s="43">
+        <v>2</v>
+      </c>
+      <c r="E52" s="42">
+        <v>3</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="I52" s="42"/>
+    </row>
+    <row r="53" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="42">
+        <v>3</v>
+      </c>
+      <c r="B53" s="42">
+        <v>52</v>
+      </c>
+      <c r="C53" s="42">
+        <v>1</v>
+      </c>
+      <c r="D53" s="43">
+        <v>2</v>
+      </c>
+      <c r="E53" s="42">
+        <v>1</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="H53" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="I53" s="42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="42">
+        <v>3</v>
+      </c>
+      <c r="B54" s="42">
+        <v>53</v>
+      </c>
+      <c r="C54" s="42">
+        <v>1</v>
+      </c>
+      <c r="D54" s="43">
+        <v>2</v>
+      </c>
+      <c r="E54" s="42">
+        <v>2</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="H54" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="I54" s="42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="42">
+        <v>3</v>
+      </c>
+      <c r="B55" s="42">
+        <v>54</v>
+      </c>
+      <c r="C55" s="42">
+        <v>1</v>
+      </c>
+      <c r="D55" s="43">
+        <v>2</v>
+      </c>
+      <c r="E55" s="42">
+        <v>2</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" spans="1:9" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="42">
+        <v>3</v>
+      </c>
+      <c r="B56" s="42">
+        <v>55</v>
+      </c>
+      <c r="C56" s="42">
+        <v>1</v>
+      </c>
+      <c r="D56" s="43">
+        <v>1</v>
+      </c>
+      <c r="E56" s="42">
+        <v>2</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="42"/>
+    </row>
+    <row r="57" spans="1:9" s="46" customFormat="1">
+      <c r="A57" s="42">
+        <v>3</v>
+      </c>
+      <c r="B57" s="42">
         <v>61</v>
       </c>
-      <c r="C28" s="42">
-        <v>1</v>
-      </c>
-      <c r="D28" s="43">
-        <v>2</v>
-      </c>
-      <c r="E28" s="42">
-        <v>1</v>
-      </c>
-      <c r="F28" s="43" t="s">
+      <c r="C57" s="42">
+        <v>1</v>
+      </c>
+      <c r="D57" s="43">
+        <v>2</v>
+      </c>
+      <c r="E57" s="42">
+        <v>1</v>
+      </c>
+      <c r="F57" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G57" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H57" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I57" s="42">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="46" customFormat="1">
-      <c r="A29" s="42">
-        <v>3</v>
-      </c>
-      <c r="B29" s="42">
+    <row r="58" spans="1:9" s="46" customFormat="1">
+      <c r="A58" s="42">
+        <v>3</v>
+      </c>
+      <c r="B58" s="42">
         <v>62</v>
       </c>
-      <c r="C29" s="42">
-        <v>1</v>
-      </c>
-      <c r="D29" s="43">
-        <v>2</v>
-      </c>
-      <c r="E29" s="42">
-        <v>3</v>
-      </c>
-      <c r="F29" s="43" t="s">
+      <c r="C58" s="42">
+        <v>1</v>
+      </c>
+      <c r="D58" s="43">
+        <v>2</v>
+      </c>
+      <c r="E58" s="42">
+        <v>3</v>
+      </c>
+      <c r="F58" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G58" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H58" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I58" s="42">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="13" customFormat="1">
-      <c r="A30" s="9">
-        <v>1</v>
-      </c>
-      <c r="B30" s="9">
+    <row r="59" spans="1:9" s="13" customFormat="1">
+      <c r="A59" s="9">
+        <v>1</v>
+      </c>
+      <c r="B59" s="9">
         <v>77</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C59" s="9">
         <v>0</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
+        <v>2</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G59" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I59" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4523,8 +5391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
@@ -11305,7 +12173,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -12751,9 +13619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12934,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>55</v>
@@ -13060,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>55</v>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190" activeTab="4"/>
+    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="358">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1138,6 +1138,18 @@
   </si>
   <si>
     <t>Simetrične figure</t>
+  </si>
+  <si>
+    <t>Podaci</t>
+  </si>
+  <si>
+    <t>Tabela i stubičasti dijagram</t>
+  </si>
+  <si>
+    <t>geom. 57</t>
+  </si>
+  <si>
+    <t>kockica za igru</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1497,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FF99CCFF"/>
@@ -3828,11 +3840,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H75" sqref="H74:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6112,6 +6124,38 @@
       <c r="I78" s="11"/>
       <c r="J78" s="9"/>
     </row>
+    <row r="79" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="50">
+        <v>4</v>
+      </c>
+      <c r="B79" s="50">
+        <v>78</v>
+      </c>
+      <c r="C79" s="50">
+        <v>1</v>
+      </c>
+      <c r="D79" s="51">
+        <v>2</v>
+      </c>
+      <c r="E79" s="50">
+        <v>2</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="I79" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="J79" s="50">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6120,11 +6164,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G237" sqref="G237"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11118,33 +11162,35 @@
       </c>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:10" s="22" customFormat="1">
-      <c r="A163" s="36" t="s">
+    <row r="163" spans="1:10" s="46" customFormat="1">
+      <c r="A163" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B163" s="19">
+      <c r="B163" s="42">
         <v>162</v>
       </c>
-      <c r="C163" s="19">
-        <v>1</v>
-      </c>
-      <c r="D163" s="20">
-        <v>1</v>
-      </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="G163" s="21" t="s">
+      <c r="C163" s="42">
+        <v>1</v>
+      </c>
+      <c r="D163" s="43">
+        <v>1</v>
+      </c>
+      <c r="E163" s="42">
+        <v>2</v>
+      </c>
+      <c r="F163" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="G163" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="H163" s="23" t="s">
+      <c r="H163" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="I163" s="23" t="s">
+      <c r="I163" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J163" s="19"/>
+      <c r="J163" s="42"/>
     </row>
     <row r="164" spans="1:10" s="22" customFormat="1">
       <c r="A164" s="36" t="s">
@@ -12888,6 +12934,128 @@
       </c>
       <c r="J220" s="50">
         <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="22" customFormat="1">
+      <c r="A221" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B221" s="19">
+        <v>220</v>
+      </c>
+      <c r="C221" s="19">
+        <v>1</v>
+      </c>
+      <c r="D221" s="20">
+        <v>3</v>
+      </c>
+      <c r="E221" s="19">
+        <v>1</v>
+      </c>
+      <c r="F221" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="G221" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H221" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I221" s="23"/>
+      <c r="J221" s="19"/>
+    </row>
+    <row r="222" spans="1:10" s="22" customFormat="1">
+      <c r="A222" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" s="19">
+        <v>221</v>
+      </c>
+      <c r="C222" s="19">
+        <v>1</v>
+      </c>
+      <c r="D222" s="20">
+        <v>1</v>
+      </c>
+      <c r="E222" s="19">
+        <v>2</v>
+      </c>
+      <c r="F222" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="G222" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H222" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I222" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J222" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="13" customFormat="1" ht="30">
+      <c r="A223" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="9">
+        <v>222</v>
+      </c>
+      <c r="C223" s="9">
+        <v>1</v>
+      </c>
+      <c r="D223" s="10">
+        <v>3</v>
+      </c>
+      <c r="E223" s="9">
+        <v>2</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G223" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H223" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I223" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J223" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="22" customFormat="1">
+      <c r="A224" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B224" s="19">
+        <v>223</v>
+      </c>
+      <c r="C224" s="19">
+        <v>1</v>
+      </c>
+      <c r="D224" s="20">
+        <v>3</v>
+      </c>
+      <c r="E224" s="19">
+        <v>1</v>
+      </c>
+      <c r="F224" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="G224" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H224" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I224" s="23"/>
+      <c r="J224" s="19">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -14348,11 +14516,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15695,42 +15863,44 @@
       </c>
       <c r="J44" s="57"/>
     </row>
-    <row r="45" spans="1:10" s="60" customFormat="1">
-      <c r="A45" s="57">
-        <v>2</v>
-      </c>
-      <c r="B45" s="57">
-        <v>48</v>
-      </c>
-      <c r="C45" s="57">
-        <v>1</v>
-      </c>
-      <c r="D45" s="58">
-        <v>1</v>
-      </c>
-      <c r="E45" s="57">
-        <v>1</v>
-      </c>
-      <c r="F45" s="61" t="s">
+    <row r="45" spans="1:10" s="46" customFormat="1">
+      <c r="A45" s="42">
+        <v>3</v>
+      </c>
+      <c r="B45" s="42">
+        <v>44</v>
+      </c>
+      <c r="C45" s="42">
+        <v>1</v>
+      </c>
+      <c r="D45" s="43">
+        <v>2</v>
+      </c>
+      <c r="E45" s="42">
+        <v>2</v>
+      </c>
+      <c r="F45" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="H45" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="I45" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="J45" s="57"/>
+      <c r="H45" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="42">
+        <v>51</v>
+      </c>
     </row>
     <row r="46" spans="1:10" s="60" customFormat="1">
       <c r="A46" s="57">
         <v>2</v>
       </c>
       <c r="B46" s="57">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="57">
         <v>1</v>
@@ -15739,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="61" t="s">
         <v>54</v>
@@ -15747,11 +15917,11 @@
       <c r="G46" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="H46" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="I46" s="69" t="s">
-        <v>37</v>
+      <c r="H46" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="70" t="s">
+        <v>260</v>
       </c>
       <c r="J46" s="57"/>
     </row>
@@ -15760,7 +15930,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="57">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="57">
         <v>1</v>
@@ -15790,7 +15960,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="57">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="57">
         <v>1</v>
@@ -15799,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="61" t="s">
         <v>54</v>
@@ -15815,45 +15985,43 @@
       </c>
       <c r="J48" s="57"/>
     </row>
-    <row r="49" spans="1:10" s="46" customFormat="1">
-      <c r="A49" s="42">
-        <v>3</v>
-      </c>
-      <c r="B49" s="42">
+    <row r="49" spans="1:10" s="60" customFormat="1">
+      <c r="A49" s="57">
+        <v>2</v>
+      </c>
+      <c r="B49" s="57">
+        <v>51</v>
+      </c>
+      <c r="C49" s="57">
+        <v>1</v>
+      </c>
+      <c r="D49" s="58">
+        <v>1</v>
+      </c>
+      <c r="E49" s="57">
+        <v>3</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="57"/>
+    </row>
+    <row r="50" spans="1:10" s="46" customFormat="1">
+      <c r="A50" s="42">
+        <v>3</v>
+      </c>
+      <c r="B50" s="42">
         <v>52</v>
       </c>
-      <c r="C49" s="42">
-        <v>1</v>
-      </c>
-      <c r="D49" s="43">
-        <v>2</v>
-      </c>
-      <c r="E49" s="42">
-        <v>2</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="I49" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="42">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="46" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A50" s="42">
-        <v>3</v>
-      </c>
-      <c r="B50" s="42">
-        <v>53</v>
-      </c>
       <c r="C50" s="42">
         <v>1</v>
       </c>
@@ -15861,7 +16029,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="45" t="s">
         <v>54</v>
@@ -15869,20 +16037,22 @@
       <c r="G50" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="H50" s="45" t="s">
-        <v>251</v>
+      <c r="H50" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="I50" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" s="46" customFormat="1">
+      <c r="J50" s="42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="46" customFormat="1" ht="17.25" customHeight="1">
       <c r="A51" s="42">
         <v>3</v>
       </c>
       <c r="B51" s="42">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="42">
         <v>1</v>
@@ -15891,19 +16061,19 @@
         <v>2</v>
       </c>
       <c r="E51" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H51" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="I51" s="71" t="s">
-        <v>256</v>
+      <c r="I51" s="67" t="s">
+        <v>37</v>
       </c>
       <c r="J51" s="42"/>
     </row>
@@ -15912,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="42">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="42">
         <v>1</v>
@@ -15921,7 +16091,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>54</v>
@@ -15942,7 +16112,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="42">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="42">
         <v>1</v>
@@ -15951,7 +16121,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="45" t="s">
         <v>54</v>
@@ -15972,7 +16142,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="42">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="42">
         <v>1</v>
@@ -15987,13 +16157,13 @@
         <v>54</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="I54" s="67" t="s">
-        <v>267</v>
+        <v>249</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="I54" s="71" t="s">
+        <v>256</v>
       </c>
       <c r="J54" s="42"/>
     </row>
@@ -16002,7 +16172,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="42">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="42">
         <v>1</v>
@@ -16017,24 +16187,22 @@
         <v>54</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="H55" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="I55" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="J55" s="42">
-        <v>56</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I55" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" s="46" customFormat="1">
       <c r="A56" s="42">
         <v>3</v>
       </c>
       <c r="B56" s="42">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="42">
         <v>1</v>
@@ -16051,14 +16219,14 @@
       <c r="G56" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H56" s="44" t="s">
-        <v>266</v>
+      <c r="H56" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="I56" s="71" t="s">
         <v>256</v>
       </c>
       <c r="J56" s="42">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="46" customFormat="1">
@@ -16066,7 +16234,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="42">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="42">
         <v>1</v>
@@ -16084,13 +16252,13 @@
         <v>249</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="I57" s="71" t="s">
         <v>256</v>
       </c>
       <c r="J57" s="42">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="46" customFormat="1">
@@ -16098,7 +16266,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="42">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C58" s="42">
         <v>1</v>
@@ -16107,28 +16275,30 @@
         <v>2</v>
       </c>
       <c r="E58" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="H58" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="H58" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="I58" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="J58" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="J58" s="42">
+        <v>31</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="46" customFormat="1">
       <c r="A59" s="42">
         <v>3</v>
       </c>
       <c r="B59" s="42">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="42">
         <v>1</v>
@@ -16149,7 +16319,7 @@
         <v>251</v>
       </c>
       <c r="I59" s="71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J59" s="42"/>
     </row>
@@ -16158,7 +16328,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="42">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="42">
         <v>1</v>
@@ -16167,7 +16337,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="45" t="s">
         <v>54</v>
@@ -16183,12 +16353,12 @@
       </c>
       <c r="J60" s="42"/>
     </row>
-    <row r="61" spans="1:10" s="46" customFormat="1" ht="19.5" customHeight="1">
+    <row r="61" spans="1:10" s="46" customFormat="1">
       <c r="A61" s="42">
         <v>3</v>
       </c>
       <c r="B61" s="42">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="42">
         <v>1</v>
@@ -16205,7 +16375,7 @@
       <c r="G61" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="H61" s="44" t="s">
+      <c r="H61" s="45" t="s">
         <v>251</v>
       </c>
       <c r="I61" s="71" t="s">
@@ -16213,12 +16383,12 @@
       </c>
       <c r="J61" s="42"/>
     </row>
-    <row r="62" spans="1:10" s="46" customFormat="1">
+    <row r="62" spans="1:10" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A62" s="42">
         <v>3</v>
       </c>
       <c r="B62" s="42">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="42">
         <v>1</v>
@@ -16236,7 +16406,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="I62" s="71" t="s">
         <v>269</v>
@@ -16248,7 +16418,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="42">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="42">
         <v>1</v>
@@ -16266,7 +16436,7 @@
         <v>261</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="I63" s="71" t="s">
         <v>269</v>
@@ -16278,7 +16448,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="42">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="42">
         <v>1</v>
@@ -16287,28 +16457,28 @@
         <v>2</v>
       </c>
       <c r="E64" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="H64" s="45" t="s">
-        <v>251</v>
+        <v>261</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="I64" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J64" s="42"/>
     </row>
-    <row r="65" spans="1:10" s="46" customFormat="1" ht="28.5" customHeight="1">
+    <row r="65" spans="1:10" s="46" customFormat="1">
       <c r="A65" s="42">
         <v>3</v>
       </c>
       <c r="B65" s="42">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="42">
         <v>1</v>
@@ -16322,23 +16492,23 @@
       <c r="F65" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>264</v>
+      <c r="G65" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="I65" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J65" s="42"/>
     </row>
-    <row r="66" spans="1:10" s="46" customFormat="1" ht="30">
+    <row r="66" spans="1:10" s="46" customFormat="1" ht="28.5" customHeight="1">
       <c r="A66" s="42">
         <v>3</v>
       </c>
       <c r="B66" s="42">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="42">
         <v>1</v>
@@ -16355,7 +16525,7 @@
       <c r="G66" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="44" t="s">
         <v>264</v>
       </c>
       <c r="I66" s="71" t="s">
@@ -16363,12 +16533,12 @@
       </c>
       <c r="J66" s="42"/>
     </row>
-    <row r="67" spans="1:10" s="46" customFormat="1">
+    <row r="67" spans="1:10" s="46" customFormat="1" ht="30">
       <c r="A67" s="42">
         <v>3</v>
       </c>
       <c r="B67" s="42">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="42">
         <v>1</v>
@@ -16382,14 +16552,14 @@
       <c r="F67" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="H67" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="I67" s="44" t="s">
-        <v>37</v>
+      <c r="G67" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="I67" s="71" t="s">
+        <v>271</v>
       </c>
       <c r="J67" s="42"/>
     </row>
@@ -16398,7 +16568,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="42">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="42">
         <v>1</v>
@@ -16413,7 +16583,7 @@
         <v>54</v>
       </c>
       <c r="G68" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>171</v>
@@ -16428,7 +16598,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="42">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="42">
         <v>1</v>
@@ -16443,10 +16613,10 @@
         <v>54</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="H69" s="44" t="s">
-        <v>266</v>
+        <v>261</v>
+      </c>
+      <c r="H69" s="46" t="s">
+        <v>171</v>
       </c>
       <c r="I69" s="44" t="s">
         <v>37</v>
@@ -16458,7 +16628,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="42">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="42">
         <v>1</v>
@@ -16467,16 +16637,16 @@
         <v>2</v>
       </c>
       <c r="E70" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="H70" s="46" t="s">
-        <v>171</v>
+        <v>252</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>266</v>
       </c>
       <c r="I70" s="44" t="s">
         <v>37</v>
@@ -16488,7 +16658,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="42">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="42">
         <v>1</v>
@@ -16503,7 +16673,7 @@
         <v>54</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H71" s="46" t="s">
         <v>171</v>
@@ -16513,44 +16683,42 @@
       </c>
       <c r="J71" s="42"/>
     </row>
-    <row r="72" spans="1:10" s="53" customFormat="1">
-      <c r="A72" s="50">
-        <v>4</v>
-      </c>
-      <c r="B72" s="50">
-        <v>77</v>
-      </c>
-      <c r="C72" s="50">
-        <v>1</v>
-      </c>
-      <c r="D72" s="51">
-        <v>1</v>
-      </c>
-      <c r="E72" s="50">
-        <v>2</v>
-      </c>
-      <c r="F72" s="54" t="s">
+    <row r="72" spans="1:10" s="46" customFormat="1">
+      <c r="A72" s="42">
+        <v>3</v>
+      </c>
+      <c r="B72" s="42">
+        <v>76</v>
+      </c>
+      <c r="C72" s="42">
+        <v>1</v>
+      </c>
+      <c r="D72" s="43">
+        <v>2</v>
+      </c>
+      <c r="E72" s="42">
+        <v>2</v>
+      </c>
+      <c r="F72" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G72" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="H72" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="I72" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="J72" s="50">
-        <v>4</v>
-      </c>
+      <c r="G72" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" s="53" customFormat="1">
       <c r="A73" s="50">
         <v>4</v>
       </c>
       <c r="B73" s="50">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="50">
         <v>1</v>
@@ -16571,10 +16739,10 @@
         <v>322</v>
       </c>
       <c r="I73" s="52" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="J73" s="50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="53" customFormat="1">
@@ -16582,7 +16750,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="50">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="50">
         <v>1</v>
@@ -16591,7 +16759,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="54" t="s">
         <v>54</v>
@@ -16600,13 +16768,13 @@
         <v>321</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I74" s="52" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="J74" s="50">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="53" customFormat="1">
@@ -16614,7 +16782,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="50">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="50">
         <v>1</v>
@@ -16623,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="54" t="s">
         <v>54</v>
@@ -16634,11 +16802,11 @@
       <c r="H75" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="I75" s="68" t="s">
-        <v>319</v>
+      <c r="I75" s="52" t="s">
+        <v>314</v>
       </c>
       <c r="J75" s="50">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="53" customFormat="1">
@@ -16646,7 +16814,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="50">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="50">
         <v>1</v>
@@ -16655,7 +16823,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="54" t="s">
         <v>54</v>
@@ -16666,11 +16834,11 @@
       <c r="H76" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="I76" s="52" t="s">
-        <v>299</v>
+      <c r="I76" s="68" t="s">
+        <v>319</v>
       </c>
       <c r="J76" s="50">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="53" customFormat="1">
@@ -16678,7 +16846,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="50">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="50">
         <v>1</v>
@@ -16687,7 +16855,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="54" t="s">
         <v>54</v>
@@ -16702,7 +16870,7 @@
         <v>299</v>
       </c>
       <c r="J77" s="50">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="53" customFormat="1">
@@ -16710,7 +16878,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="50">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="50">
         <v>1</v>
@@ -16734,6 +16902,38 @@
         <v>299</v>
       </c>
       <c r="J78" s="50">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="53" customFormat="1">
+      <c r="A79" s="50">
+        <v>4</v>
+      </c>
+      <c r="B79" s="50">
+        <v>83</v>
+      </c>
+      <c r="C79" s="50">
+        <v>1</v>
+      </c>
+      <c r="D79" s="51">
+        <v>1</v>
+      </c>
+      <c r="E79" s="50">
+        <v>2</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="I79" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="J79" s="50">
         <v>82</v>
       </c>
     </row>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190"/>
+    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="329">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1090,6 +1090,9 @@
   </si>
   <si>
     <t>RANK TEMA</t>
+  </si>
+  <si>
+    <t>Merenje dužine i težine</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
@@ -4101,11 +4104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7299,6 +7302,112 @@
         <v>46</v>
       </c>
     </row>
+    <row r="91" spans="1:12" s="13" customFormat="1">
+      <c r="A91" s="9">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9">
+        <v>82</v>
+      </c>
+      <c r="C91" s="9">
+        <v>8</v>
+      </c>
+      <c r="D91" s="10">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9">
+        <v>2</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1</v>
+      </c>
+      <c r="J91" s="9">
+        <v>2</v>
+      </c>
+      <c r="K91" s="11"/>
+      <c r="L91" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="13" customFormat="1">
+      <c r="A92" s="9">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>83</v>
+      </c>
+      <c r="C92" s="9">
+        <v>6</v>
+      </c>
+      <c r="D92" s="10">
+        <v>1</v>
+      </c>
+      <c r="E92" s="9">
+        <v>2</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1</v>
+      </c>
+      <c r="J92" s="9">
+        <v>1</v>
+      </c>
+      <c r="K92" s="11"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" spans="1:12" s="13" customFormat="1">
+      <c r="A93" s="9">
+        <v>1</v>
+      </c>
+      <c r="B93" s="9">
+        <v>84</v>
+      </c>
+      <c r="C93" s="9">
+        <v>3</v>
+      </c>
+      <c r="D93" s="10">
+        <v>2</v>
+      </c>
+      <c r="E93" s="9">
+        <v>1</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="I93" s="10">
+        <v>2</v>
+      </c>
+      <c r="J93" s="10">
+        <v>1</v>
+      </c>
+      <c r="K93" s="12"/>
+      <c r="L93" s="9">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7307,11 +7416,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A150" sqref="A150:XFD152"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12475,225 +12584,219 @@
       </c>
       <c r="L139" s="42"/>
     </row>
-    <row r="140" spans="1:12" s="38" customFormat="1">
-      <c r="A140" s="40" t="s">
+    <row r="140" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A140" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="9">
+        <v>132</v>
+      </c>
+      <c r="C140" s="9">
+        <v>10</v>
+      </c>
+      <c r="D140" s="10">
+        <v>3</v>
+      </c>
+      <c r="E140" s="9">
+        <v>2</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I140" s="10">
+        <v>4</v>
+      </c>
+      <c r="J140" s="10">
+        <v>1</v>
+      </c>
+      <c r="K140" s="12"/>
+      <c r="L140" s="9"/>
+    </row>
+    <row r="141" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A141" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="9">
+        <v>133</v>
+      </c>
+      <c r="C141" s="9">
+        <v>10</v>
+      </c>
+      <c r="D141" s="10">
+        <v>3</v>
+      </c>
+      <c r="E141" s="9">
+        <v>2</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I141" s="10">
+        <v>4</v>
+      </c>
+      <c r="J141" s="10">
+        <v>1</v>
+      </c>
+      <c r="K141" s="12"/>
+      <c r="L141" s="9"/>
+    </row>
+    <row r="142" spans="1:12" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A142" s="32">
+        <v>2</v>
+      </c>
+      <c r="B142" s="15">
+        <v>135</v>
+      </c>
+      <c r="C142" s="15">
+        <v>10</v>
+      </c>
+      <c r="D142" s="16">
+        <v>1</v>
+      </c>
+      <c r="E142" s="15">
+        <v>1</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="16">
+        <v>2</v>
+      </c>
+      <c r="J142" s="16">
+        <v>1</v>
+      </c>
+      <c r="K142" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L142" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A143" s="32">
+        <v>2</v>
+      </c>
+      <c r="B143" s="15">
+        <v>136</v>
+      </c>
+      <c r="C143" s="15">
+        <v>10</v>
+      </c>
+      <c r="D143" s="16">
+        <v>1</v>
+      </c>
+      <c r="E143" s="15">
+        <v>1</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I143" s="16">
+        <v>2</v>
+      </c>
+      <c r="J143" s="16">
+        <v>2</v>
+      </c>
+      <c r="K143" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L143" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" s="38" customFormat="1">
+      <c r="A144" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="34">
-        <v>139</v>
-      </c>
-      <c r="C140" s="34">
-        <v>10</v>
-      </c>
-      <c r="D140" s="35">
-        <v>1</v>
-      </c>
-      <c r="E140" s="34">
-        <v>1</v>
-      </c>
-      <c r="F140" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G140" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H140" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="I140" s="35">
-        <v>1</v>
-      </c>
-      <c r="J140" s="35">
-        <v>4</v>
-      </c>
-      <c r="K140" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="L140" s="34">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" s="18" customFormat="1">
-      <c r="A141" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="15">
-        <v>140</v>
-      </c>
-      <c r="C141" s="15">
-        <v>10</v>
-      </c>
-      <c r="D141" s="16">
-        <v>1</v>
-      </c>
-      <c r="E141" s="15">
-        <v>1</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G141" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I141" s="16">
-        <v>1</v>
-      </c>
-      <c r="J141" s="16">
-        <v>4</v>
-      </c>
-      <c r="K141" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="L141" s="15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" s="45" customFormat="1">
-      <c r="A142" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B142" s="42">
-        <v>141</v>
-      </c>
-      <c r="C142" s="42">
-        <v>0</v>
-      </c>
-      <c r="D142" s="43">
-        <v>1</v>
-      </c>
-      <c r="E142" s="42">
-        <v>2</v>
-      </c>
-      <c r="F142" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G142" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="H142" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I142" s="43">
-        <v>1</v>
-      </c>
-      <c r="J142" s="43">
-        <v>4</v>
-      </c>
-      <c r="K142" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="L142" s="42">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A143" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B143" s="42">
-        <v>142</v>
-      </c>
-      <c r="C143" s="42">
-        <v>10</v>
-      </c>
-      <c r="D143" s="43">
-        <v>1</v>
-      </c>
-      <c r="E143" s="42">
-        <v>2</v>
-      </c>
-      <c r="F143" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G143" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H143" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I143" s="43">
-        <v>2</v>
-      </c>
-      <c r="J143" s="43">
-        <v>3</v>
-      </c>
-      <c r="K143" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="L143" s="42"/>
-    </row>
-    <row r="144" spans="1:12" s="45" customFormat="1">
-      <c r="A144" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" s="42">
-        <v>143</v>
-      </c>
-      <c r="C144" s="42">
-        <v>10</v>
-      </c>
-      <c r="D144" s="43">
-        <v>1</v>
-      </c>
-      <c r="E144" s="42">
-        <v>2</v>
-      </c>
-      <c r="F144" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G144" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H144" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I144" s="43">
-        <v>2</v>
-      </c>
-      <c r="J144" s="43">
-        <v>3</v>
-      </c>
-      <c r="K144" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L144" s="42"/>
+      <c r="B144" s="34">
+        <v>137</v>
+      </c>
+      <c r="C144" s="34">
+        <v>5</v>
+      </c>
+      <c r="D144" s="35">
+        <v>1</v>
+      </c>
+      <c r="E144" s="34">
+        <v>1</v>
+      </c>
+      <c r="F144" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G144" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" s="35">
+        <v>3</v>
+      </c>
+      <c r="J144" s="35">
+        <v>2</v>
+      </c>
+      <c r="K144" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="L144" s="34"/>
     </row>
     <row r="145" spans="1:12" s="38" customFormat="1">
       <c r="A145" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B145" s="34">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C145" s="34">
         <v>10</v>
       </c>
       <c r="D145" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E145" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="35" t="s">
         <v>178</v>
       </c>
       <c r="G145" s="36" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H145" s="37" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I145" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J145" s="35">
-        <v>1</v>
-      </c>
-      <c r="K145" s="36" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="K145" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="L145" s="34"/>
     </row>
@@ -12702,126 +12805,130 @@
         <v>60</v>
       </c>
       <c r="B146" s="34">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C146" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D146" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" s="35" t="s">
         <v>178</v>
       </c>
       <c r="G146" s="36" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="H146" s="37" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="I146" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" s="35">
-        <v>1</v>
-      </c>
-      <c r="K146" s="36" t="s">
-        <v>135</v>
+        <v>4</v>
+      </c>
+      <c r="K146" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="L146" s="34">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" s="45" customFormat="1">
-      <c r="A147" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B147" s="42">
-        <v>146</v>
-      </c>
-      <c r="C147" s="42">
-        <v>5</v>
-      </c>
-      <c r="D147" s="43">
-        <v>1</v>
-      </c>
-      <c r="E147" s="42">
-        <v>2</v>
-      </c>
-      <c r="F147" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G147" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H147" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I147" s="42">
-        <v>2</v>
-      </c>
-      <c r="J147" s="42">
-        <v>1</v>
-      </c>
-      <c r="K147" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="L147" s="42"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" s="18" customFormat="1">
+      <c r="A147" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="15">
+        <v>140</v>
+      </c>
+      <c r="C147" s="15">
+        <v>10</v>
+      </c>
+      <c r="D147" s="16">
+        <v>1</v>
+      </c>
+      <c r="E147" s="15">
+        <v>1</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I147" s="16">
+        <v>1</v>
+      </c>
+      <c r="J147" s="16">
+        <v>4</v>
+      </c>
+      <c r="K147" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="L147" s="15">
+        <v>65</v>
+      </c>
     </row>
     <row r="148" spans="1:12" s="45" customFormat="1">
       <c r="A148" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B148" s="42">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C148" s="42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D148" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" s="43" t="s">
         <v>178</v>
       </c>
       <c r="G148" s="44" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="H148" s="46" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I148" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K148" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="L148" s="42"/>
-    </row>
-    <row r="149" spans="1:12" s="45" customFormat="1">
+        <v>55</v>
+      </c>
+      <c r="L148" s="42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A149" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B149" s="42">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C149" s="42">
         <v>10</v>
       </c>
       <c r="D149" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" s="43" t="s">
         <v>178</v>
@@ -12830,16 +12937,16 @@
         <v>125</v>
       </c>
       <c r="H149" s="46" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I149" s="43">
         <v>2</v>
       </c>
       <c r="J149" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K149" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L149" s="42"/>
     </row>
@@ -12848,7 +12955,7 @@
         <v>62</v>
       </c>
       <c r="B150" s="42">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C150" s="42">
         <v>10</v>
@@ -12874,349 +12981,349 @@
       <c r="J150" s="43">
         <v>3</v>
       </c>
-      <c r="K150" s="44" t="s">
+      <c r="K150" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L150" s="42"/>
+    </row>
+    <row r="151" spans="1:12" s="38" customFormat="1">
+      <c r="A151" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B151" s="34">
+        <v>144</v>
+      </c>
+      <c r="C151" s="34">
+        <v>10</v>
+      </c>
+      <c r="D151" s="35">
+        <v>3</v>
+      </c>
+      <c r="E151" s="34">
+        <v>2</v>
+      </c>
+      <c r="F151" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G151" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H151" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="35">
+        <v>2</v>
+      </c>
+      <c r="J151" s="35">
+        <v>1</v>
+      </c>
+      <c r="K151" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="L151" s="34"/>
+    </row>
+    <row r="152" spans="1:12" s="38" customFormat="1">
+      <c r="A152" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" s="34">
+        <v>145</v>
+      </c>
+      <c r="C152" s="34">
+        <v>5</v>
+      </c>
+      <c r="D152" s="35">
+        <v>3</v>
+      </c>
+      <c r="E152" s="34">
+        <v>2</v>
+      </c>
+      <c r="F152" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G152" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H152" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="35">
+        <v>2</v>
+      </c>
+      <c r="J152" s="35">
+        <v>1</v>
+      </c>
+      <c r="K152" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="L152" s="34">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="45" customFormat="1">
+      <c r="A153" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B153" s="42">
+        <v>146</v>
+      </c>
+      <c r="C153" s="42">
+        <v>5</v>
+      </c>
+      <c r="D153" s="43">
+        <v>1</v>
+      </c>
+      <c r="E153" s="42">
+        <v>2</v>
+      </c>
+      <c r="F153" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G153" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H153" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="42">
+        <v>2</v>
+      </c>
+      <c r="J153" s="42">
+        <v>1</v>
+      </c>
+      <c r="K153" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="L153" s="42"/>
+    </row>
+    <row r="154" spans="1:12" s="45" customFormat="1">
+      <c r="A154" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B154" s="42">
+        <v>148</v>
+      </c>
+      <c r="C154" s="42">
+        <v>10</v>
+      </c>
+      <c r="D154" s="43">
+        <v>2</v>
+      </c>
+      <c r="E154" s="42">
+        <v>1</v>
+      </c>
+      <c r="F154" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G154" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H154" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" s="43">
+        <v>2</v>
+      </c>
+      <c r="J154" s="43">
+        <v>3</v>
+      </c>
+      <c r="K154" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="L154" s="42"/>
+    </row>
+    <row r="155" spans="1:12" s="45" customFormat="1">
+      <c r="A155" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B155" s="42">
+        <v>149</v>
+      </c>
+      <c r="C155" s="42">
+        <v>10</v>
+      </c>
+      <c r="D155" s="43">
+        <v>2</v>
+      </c>
+      <c r="E155" s="42">
+        <v>1</v>
+      </c>
+      <c r="F155" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G155" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H155" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I155" s="43">
+        <v>2</v>
+      </c>
+      <c r="J155" s="43">
+        <v>4</v>
+      </c>
+      <c r="K155" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="L155" s="42"/>
+    </row>
+    <row r="156" spans="1:12" s="45" customFormat="1">
+      <c r="A156" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B156" s="42">
+        <v>153</v>
+      </c>
+      <c r="C156" s="42">
+        <v>10</v>
+      </c>
+      <c r="D156" s="43">
+        <v>1</v>
+      </c>
+      <c r="E156" s="42">
+        <v>2</v>
+      </c>
+      <c r="F156" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G156" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H156" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="43">
+        <v>2</v>
+      </c>
+      <c r="J156" s="43">
+        <v>3</v>
+      </c>
+      <c r="K156" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="L150" s="42"/>
-    </row>
-    <row r="151" spans="1:12" s="45" customFormat="1">
-      <c r="A151" s="47" t="s">
+      <c r="L156" s="42"/>
+    </row>
+    <row r="157" spans="1:12" s="45" customFormat="1">
+      <c r="A157" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="42">
+      <c r="B157" s="42">
         <v>154</v>
       </c>
-      <c r="C151" s="42">
-        <v>10</v>
-      </c>
-      <c r="D151" s="43">
-        <v>1</v>
-      </c>
-      <c r="E151" s="42">
-        <v>2</v>
-      </c>
-      <c r="F151" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G151" s="44" t="s">
+      <c r="C157" s="42">
+        <v>10</v>
+      </c>
+      <c r="D157" s="43">
+        <v>1</v>
+      </c>
+      <c r="E157" s="42">
+        <v>2</v>
+      </c>
+      <c r="F157" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G157" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H151" s="46" t="s">
+      <c r="H157" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I151" s="43">
-        <v>2</v>
-      </c>
-      <c r="J151" s="43">
-        <v>3</v>
-      </c>
-      <c r="K151" s="44" t="s">
+      <c r="I157" s="43">
+        <v>2</v>
+      </c>
+      <c r="J157" s="43">
+        <v>3</v>
+      </c>
+      <c r="K157" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="L151" s="42"/>
-    </row>
-    <row r="152" spans="1:12" s="45" customFormat="1">
-      <c r="A152" s="47" t="s">
+      <c r="L157" s="42"/>
+    </row>
+    <row r="158" spans="1:12" s="45" customFormat="1">
+      <c r="A158" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B152" s="42">
+      <c r="B158" s="42">
         <v>155</v>
       </c>
-      <c r="C152" s="42">
-        <v>10</v>
-      </c>
-      <c r="D152" s="43">
-        <v>1</v>
-      </c>
-      <c r="E152" s="42">
-        <v>2</v>
-      </c>
-      <c r="F152" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G152" s="44" t="s">
+      <c r="C158" s="42">
+        <v>10</v>
+      </c>
+      <c r="D158" s="43">
+        <v>1</v>
+      </c>
+      <c r="E158" s="42">
+        <v>2</v>
+      </c>
+      <c r="F158" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G158" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H152" s="46" t="s">
+      <c r="H158" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I152" s="43">
-        <v>2</v>
-      </c>
-      <c r="J152" s="43">
-        <v>3</v>
-      </c>
-      <c r="K152" s="44" t="s">
+      <c r="I158" s="43">
+        <v>2</v>
+      </c>
+      <c r="J158" s="43">
+        <v>3</v>
+      </c>
+      <c r="K158" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="L152" s="42"/>
-    </row>
-    <row r="153" spans="1:12" s="18" customFormat="1">
-      <c r="A153" s="32" t="s">
+      <c r="L158" s="42"/>
+    </row>
+    <row r="159" spans="1:12" s="18" customFormat="1">
+      <c r="A159" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B153" s="15">
+      <c r="B159" s="15">
         <v>156</v>
       </c>
-      <c r="C153" s="15">
-        <v>10</v>
-      </c>
-      <c r="D153" s="16">
-        <v>1</v>
-      </c>
-      <c r="E153" s="15">
-        <v>1</v>
-      </c>
-      <c r="F153" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G153" s="17" t="s">
+      <c r="C159" s="15">
+        <v>10</v>
+      </c>
+      <c r="D159" s="16">
+        <v>1</v>
+      </c>
+      <c r="E159" s="15">
+        <v>1</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G159" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H153" s="19" t="s">
+      <c r="H159" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I153" s="16">
-        <v>1</v>
-      </c>
-      <c r="J153" s="16">
-        <v>2</v>
-      </c>
-      <c r="K153" s="18" t="s">
+      <c r="I159" s="16">
+        <v>1</v>
+      </c>
+      <c r="J159" s="16">
+        <v>2</v>
+      </c>
+      <c r="K159" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="L153" s="15"/>
-    </row>
-    <row r="154" spans="1:12" s="18" customFormat="1">
-      <c r="A154" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="15">
-        <v>157</v>
-      </c>
-      <c r="C154" s="15">
-        <v>10</v>
-      </c>
-      <c r="D154" s="16">
-        <v>1</v>
-      </c>
-      <c r="E154" s="15">
-        <v>1</v>
-      </c>
-      <c r="F154" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G154" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I154" s="16">
-        <v>1</v>
-      </c>
-      <c r="J154" s="16">
-        <v>4</v>
-      </c>
-      <c r="K154" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L154" s="15">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A155" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="15">
-        <v>158</v>
-      </c>
-      <c r="C155" s="15">
-        <v>10</v>
-      </c>
-      <c r="D155" s="16">
-        <v>3</v>
-      </c>
-      <c r="E155" s="15">
-        <v>2</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G155" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I155" s="16">
-        <v>3</v>
-      </c>
-      <c r="J155" s="16">
-        <v>1</v>
-      </c>
-      <c r="K155" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L155" s="15"/>
-    </row>
-    <row r="156" spans="1:12" s="18" customFormat="1">
-      <c r="A156" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" s="15">
-        <v>159</v>
-      </c>
-      <c r="C156" s="15">
-        <v>10</v>
-      </c>
-      <c r="D156" s="16">
-        <v>1</v>
-      </c>
-      <c r="E156" s="15">
-        <v>2</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G156" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H156" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I156" s="16">
-        <v>2</v>
-      </c>
-      <c r="J156" s="16">
-        <v>3</v>
-      </c>
-      <c r="K156" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L156" s="15"/>
-    </row>
-    <row r="157" spans="1:12" s="18" customFormat="1">
-      <c r="A157" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" s="15">
-        <v>160</v>
-      </c>
-      <c r="C157" s="15">
-        <v>10</v>
-      </c>
-      <c r="D157" s="16">
-        <v>1</v>
-      </c>
-      <c r="E157" s="15">
-        <v>2</v>
-      </c>
-      <c r="F157" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G157" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H157" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I157" s="15">
-        <v>2</v>
-      </c>
-      <c r="J157" s="15">
-        <v>3</v>
-      </c>
-      <c r="K157" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L157" s="15"/>
-    </row>
-    <row r="158" spans="1:12" s="18" customFormat="1">
-      <c r="A158" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="15">
-        <v>161</v>
-      </c>
-      <c r="C158" s="15">
-        <v>10</v>
-      </c>
-      <c r="D158" s="16">
-        <v>3</v>
-      </c>
-      <c r="E158" s="15">
-        <v>3</v>
-      </c>
-      <c r="F158" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G158" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H158" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I158" s="16">
-        <v>2</v>
-      </c>
-      <c r="J158" s="16">
-        <v>6</v>
-      </c>
-      <c r="K158" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L158" s="15"/>
-    </row>
-    <row r="159" spans="1:12" s="38" customFormat="1">
-      <c r="A159" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B159" s="34">
-        <v>162</v>
-      </c>
-      <c r="C159" s="34">
-        <v>10</v>
-      </c>
-      <c r="D159" s="35">
-        <v>1</v>
-      </c>
-      <c r="E159" s="34">
-        <v>2</v>
-      </c>
-      <c r="F159" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G159" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H159" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I159" s="35">
-        <v>3</v>
-      </c>
-      <c r="J159" s="35">
-        <v>2</v>
-      </c>
-      <c r="K159" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L159" s="34"/>
+      <c r="L159" s="15"/>
     </row>
     <row r="160" spans="1:12" s="18" customFormat="1">
       <c r="A160" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B160" s="15">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C160" s="15">
         <v>10</v>
       </c>
       <c r="D160" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" s="15">
         <v>1</v>
@@ -13225,37 +13332,39 @@
         <v>178</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H160" s="19" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="I160" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L160" s="15"/>
-    </row>
-    <row r="161" spans="1:12" s="18" customFormat="1" ht="16.5" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="L160" s="15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A161" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B161" s="15">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C161" s="15">
         <v>10</v>
       </c>
       <c r="D161" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F161" s="16" t="s">
         <v>178</v>
@@ -13273,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="L161" s="15"/>
     </row>
@@ -13282,13 +13391,13 @@
         <v>23</v>
       </c>
       <c r="B162" s="15">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C162" s="15">
         <v>10</v>
       </c>
       <c r="D162" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162" s="15">
         <v>2</v>
@@ -13299,17 +13408,17 @@
       <c r="G162" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H162" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I162" s="15">
-        <v>2</v>
-      </c>
-      <c r="J162" s="15">
-        <v>4</v>
+      <c r="H162" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I162" s="16">
+        <v>2</v>
+      </c>
+      <c r="J162" s="16">
+        <v>3</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="L162" s="15"/>
     </row>
@@ -13318,13 +13427,13 @@
         <v>23</v>
       </c>
       <c r="B163" s="15">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C163" s="15">
         <v>10</v>
       </c>
       <c r="D163" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163" s="15">
         <v>2</v>
@@ -13335,62 +13444,62 @@
       <c r="G163" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H163" s="18" t="s">
-        <v>54</v>
+      <c r="H163" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="I163" s="15">
         <v>2</v>
       </c>
       <c r="J163" s="15">
-        <v>5</v>
-      </c>
-      <c r="K163" s="19" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="K163" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" s="38" customFormat="1">
-      <c r="A164" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B164" s="34">
-        <v>167</v>
-      </c>
-      <c r="C164" s="34">
-        <v>10</v>
-      </c>
-      <c r="D164" s="35">
-        <v>1</v>
-      </c>
-      <c r="E164" s="34">
-        <v>1</v>
-      </c>
-      <c r="F164" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G164" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H164" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I164" s="35">
-        <v>3</v>
-      </c>
-      <c r="J164" s="35">
-        <v>2</v>
-      </c>
-      <c r="K164" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="L164" s="34"/>
-    </row>
-    <row r="165" spans="1:12" s="38" customFormat="1" ht="16.5" customHeight="1">
+    <row r="164" spans="1:12" s="18" customFormat="1">
+      <c r="A164" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="15">
+        <v>161</v>
+      </c>
+      <c r="C164" s="15">
+        <v>10</v>
+      </c>
+      <c r="D164" s="16">
+        <v>3</v>
+      </c>
+      <c r="E164" s="15">
+        <v>3</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I164" s="16">
+        <v>2</v>
+      </c>
+      <c r="J164" s="16">
+        <v>6</v>
+      </c>
+      <c r="K164" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L164" s="15"/>
+    </row>
+    <row r="165" spans="1:12" s="38" customFormat="1">
       <c r="A165" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B165" s="34">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C165" s="34">
         <v>10</v>
@@ -13399,218 +13508,214 @@
         <v>1</v>
       </c>
       <c r="E165" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" s="35" t="s">
         <v>178</v>
       </c>
       <c r="G165" s="36" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="I165" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J165" s="35">
-        <v>1</v>
-      </c>
-      <c r="K165" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="L165" s="34">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" s="13" customFormat="1">
-      <c r="A166" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B166" s="9">
-        <v>169</v>
-      </c>
-      <c r="C166" s="9">
-        <v>10</v>
-      </c>
-      <c r="D166" s="10">
-        <v>3</v>
-      </c>
-      <c r="E166" s="9">
-        <v>1</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I166" s="9">
-        <v>3</v>
-      </c>
-      <c r="J166" s="9">
-        <v>3</v>
-      </c>
-      <c r="K166" s="11"/>
-      <c r="L166" s="9"/>
-    </row>
-    <row r="167" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="K165" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L165" s="34"/>
+    </row>
+    <row r="166" spans="1:12" s="18" customFormat="1">
+      <c r="A166" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B167" s="49">
-        <v>169</v>
-      </c>
-      <c r="C167" s="49">
-        <v>10</v>
-      </c>
-      <c r="D167" s="50">
-        <v>1</v>
-      </c>
-      <c r="E167" s="49">
-        <v>1</v>
-      </c>
-      <c r="F167" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="G167" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H167" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="I167" s="50">
-        <v>1</v>
-      </c>
-      <c r="J167" s="50">
-        <v>1</v>
-      </c>
-      <c r="K167" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="L167" s="49">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" s="38" customFormat="1">
-      <c r="A168" s="40" t="s">
+      <c r="B166" s="15">
+        <v>163</v>
+      </c>
+      <c r="C166" s="15">
+        <v>10</v>
+      </c>
+      <c r="D166" s="16">
+        <v>2</v>
+      </c>
+      <c r="E166" s="15">
+        <v>1</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="I166" s="16">
+        <v>2</v>
+      </c>
+      <c r="J166" s="16">
+        <v>6</v>
+      </c>
+      <c r="K166" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L166" s="15"/>
+    </row>
+    <row r="167" spans="1:12" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A167" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="15">
+        <v>164</v>
+      </c>
+      <c r="C167" s="15">
+        <v>10</v>
+      </c>
+      <c r="D167" s="16">
+        <v>2</v>
+      </c>
+      <c r="E167" s="15">
+        <v>3</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I167" s="16">
+        <v>3</v>
+      </c>
+      <c r="J167" s="16">
+        <v>1</v>
+      </c>
+      <c r="K167" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L167" s="15"/>
+    </row>
+    <row r="168" spans="1:12" s="18" customFormat="1">
+      <c r="A168" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="15">
+        <v>165</v>
+      </c>
+      <c r="C168" s="15">
+        <v>10</v>
+      </c>
+      <c r="D168" s="16">
+        <v>3</v>
+      </c>
+      <c r="E168" s="15">
+        <v>2</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I168" s="15">
+        <v>2</v>
+      </c>
+      <c r="J168" s="15">
+        <v>4</v>
+      </c>
+      <c r="K168" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L168" s="15"/>
+    </row>
+    <row r="169" spans="1:12" s="18" customFormat="1">
+      <c r="A169" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="15">
+        <v>166</v>
+      </c>
+      <c r="C169" s="15">
+        <v>10</v>
+      </c>
+      <c r="D169" s="16">
+        <v>3</v>
+      </c>
+      <c r="E169" s="15">
+        <v>2</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I169" s="15">
+        <v>2</v>
+      </c>
+      <c r="J169" s="15">
+        <v>5</v>
+      </c>
+      <c r="K169" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L169" s="15"/>
+    </row>
+    <row r="170" spans="1:12" s="38" customFormat="1">
+      <c r="A170" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B168" s="34">
+      <c r="B170" s="34">
+        <v>167</v>
+      </c>
+      <c r="C170" s="34">
+        <v>10</v>
+      </c>
+      <c r="D170" s="35">
+        <v>1</v>
+      </c>
+      <c r="E170" s="34">
+        <v>1</v>
+      </c>
+      <c r="F170" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G170" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I170" s="35">
+        <v>3</v>
+      </c>
+      <c r="J170" s="35">
+        <v>2</v>
+      </c>
+      <c r="K170" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="34">
-        <v>10</v>
-      </c>
-      <c r="D168" s="35">
-        <v>1</v>
-      </c>
-      <c r="E168" s="34">
-        <v>1</v>
-      </c>
-      <c r="F168" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G168" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H168" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="I168" s="35">
-        <v>1</v>
-      </c>
-      <c r="J168" s="35">
-        <v>4</v>
-      </c>
-      <c r="K168" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="L168" s="34">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" s="45" customFormat="1">
-      <c r="A169" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B169" s="42">
-        <v>171</v>
-      </c>
-      <c r="C169" s="42">
-        <v>0</v>
-      </c>
-      <c r="D169" s="43">
-        <v>1</v>
-      </c>
-      <c r="E169" s="42">
-        <v>2</v>
-      </c>
-      <c r="F169" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G169" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="H169" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I169" s="43">
-        <v>1</v>
-      </c>
-      <c r="J169" s="43">
-        <v>4</v>
-      </c>
-      <c r="K169" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="L169" s="42"/>
-    </row>
-    <row r="170" spans="1:12" s="18" customFormat="1">
-      <c r="A170" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" s="15">
-        <v>172</v>
-      </c>
-      <c r="C170" s="15">
-        <v>10</v>
-      </c>
-      <c r="D170" s="16">
-        <v>1</v>
-      </c>
-      <c r="E170" s="15">
-        <v>1</v>
-      </c>
-      <c r="F170" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G170" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H170" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I170" s="15">
-        <v>1</v>
-      </c>
-      <c r="J170" s="15">
-        <v>3</v>
-      </c>
-      <c r="K170" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L170" s="15"/>
-    </row>
-    <row r="171" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L170" s="34"/>
+    </row>
+    <row r="171" spans="1:12" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A171" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B171" s="34">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C171" s="34">
         <v>10</v>
@@ -13625,94 +13730,94 @@
         <v>178</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="H171" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I171" s="34">
-        <v>2</v>
-      </c>
-      <c r="J171" s="34">
-        <v>5</v>
-      </c>
-      <c r="K171" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="L171" s="34"/>
-    </row>
-    <row r="172" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A172" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B172" s="34">
-        <v>174</v>
-      </c>
-      <c r="C172" s="34">
-        <v>10</v>
-      </c>
-      <c r="D172" s="35">
-        <v>1</v>
-      </c>
-      <c r="E172" s="34">
-        <v>1</v>
-      </c>
-      <c r="F172" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G172" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="H172" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I172" s="34">
-        <v>2</v>
-      </c>
-      <c r="J172" s="34">
-        <v>5</v>
-      </c>
-      <c r="K172" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="L172" s="34"/>
-    </row>
-    <row r="173" spans="1:12" s="38" customFormat="1">
-      <c r="A173" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B173" s="34">
-        <v>175</v>
-      </c>
-      <c r="C173" s="34">
-        <v>10</v>
-      </c>
-      <c r="D173" s="35">
-        <v>2</v>
-      </c>
-      <c r="E173" s="34">
-        <v>1</v>
-      </c>
-      <c r="F173" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G173" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H173" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I173" s="35">
-        <v>1</v>
-      </c>
-      <c r="J173" s="35">
-        <v>2</v>
-      </c>
-      <c r="K173" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="L173" s="34">
-        <v>131</v>
+      <c r="H171" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="I171" s="35">
+        <v>1</v>
+      </c>
+      <c r="J171" s="35">
+        <v>1</v>
+      </c>
+      <c r="K171" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="L171" s="34">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="13" customFormat="1">
+      <c r="A172" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="9">
+        <v>169</v>
+      </c>
+      <c r="C172" s="9">
+        <v>10</v>
+      </c>
+      <c r="D172" s="10">
+        <v>3</v>
+      </c>
+      <c r="E172" s="9">
+        <v>1</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I172" s="9">
+        <v>3</v>
+      </c>
+      <c r="J172" s="9">
+        <v>3</v>
+      </c>
+      <c r="K172" s="11"/>
+      <c r="L172" s="9"/>
+    </row>
+    <row r="173" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" s="49">
+        <v>169</v>
+      </c>
+      <c r="C173" s="49">
+        <v>10</v>
+      </c>
+      <c r="D173" s="50">
+        <v>1</v>
+      </c>
+      <c r="E173" s="49">
+        <v>1</v>
+      </c>
+      <c r="F173" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G173" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="I173" s="50">
+        <v>1</v>
+      </c>
+      <c r="J173" s="50">
+        <v>1</v>
+      </c>
+      <c r="K173" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="L173" s="49">
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:12" s="38" customFormat="1">
@@ -13720,130 +13825,126 @@
         <v>60</v>
       </c>
       <c r="B174" s="34">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C174" s="34">
         <v>10</v>
       </c>
       <c r="D174" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" s="35" t="s">
         <v>178</v>
       </c>
       <c r="G174" s="36" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="H174" s="37" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="I174" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K174" s="37" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="L174" s="34">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" s="38" customFormat="1">
-      <c r="A175" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B175" s="34">
-        <v>177</v>
-      </c>
-      <c r="C175" s="34">
-        <v>10</v>
-      </c>
-      <c r="D175" s="35">
-        <v>1</v>
-      </c>
-      <c r="E175" s="34">
-        <v>1</v>
-      </c>
-      <c r="F175" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G175" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H175" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175" s="35">
-        <v>1</v>
-      </c>
-      <c r="J175" s="35">
-        <v>2</v>
-      </c>
-      <c r="K175" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="45" customFormat="1">
+      <c r="A175" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B175" s="42">
         <v>171</v>
       </c>
-      <c r="L175" s="34">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" s="38" customFormat="1">
-      <c r="A176" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B176" s="34">
-        <v>178</v>
-      </c>
-      <c r="C176" s="34">
-        <v>10</v>
-      </c>
-      <c r="D176" s="35">
-        <v>2</v>
-      </c>
-      <c r="E176" s="34">
-        <v>1</v>
-      </c>
-      <c r="F176" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G176" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="H176" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="I176" s="35">
-        <v>2</v>
-      </c>
-      <c r="J176" s="35">
-        <v>4</v>
-      </c>
-      <c r="K176" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="L176" s="34">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" s="38" customFormat="1">
+      <c r="C175" s="42">
+        <v>0</v>
+      </c>
+      <c r="D175" s="43">
+        <v>1</v>
+      </c>
+      <c r="E175" s="42">
+        <v>2</v>
+      </c>
+      <c r="F175" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G175" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H175" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I175" s="43">
+        <v>1</v>
+      </c>
+      <c r="J175" s="43">
+        <v>4</v>
+      </c>
+      <c r="K175" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L175" s="42"/>
+    </row>
+    <row r="176" spans="1:12" s="18" customFormat="1">
+      <c r="A176" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="15">
+        <v>172</v>
+      </c>
+      <c r="C176" s="15">
+        <v>10</v>
+      </c>
+      <c r="D176" s="16">
+        <v>1</v>
+      </c>
+      <c r="E176" s="15">
+        <v>1</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I176" s="15">
+        <v>1</v>
+      </c>
+      <c r="J176" s="15">
+        <v>3</v>
+      </c>
+      <c r="K176" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L176" s="15"/>
+    </row>
+    <row r="177" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A177" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B177" s="34">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C177" s="34">
         <v>10</v>
       </c>
       <c r="D177" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" s="35" t="s">
         <v>178</v>
@@ -13860,235 +13961,243 @@
       <c r="J177" s="34">
         <v>5</v>
       </c>
-      <c r="K177" s="37" t="s">
+      <c r="K177" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="L177" s="34"/>
+    </row>
+    <row r="178" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A178" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B178" s="34">
+        <v>174</v>
+      </c>
+      <c r="C178" s="34">
+        <v>10</v>
+      </c>
+      <c r="D178" s="35">
+        <v>1</v>
+      </c>
+      <c r="E178" s="34">
+        <v>1</v>
+      </c>
+      <c r="F178" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G178" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H178" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I178" s="34">
+        <v>2</v>
+      </c>
+      <c r="J178" s="34">
+        <v>5</v>
+      </c>
+      <c r="K178" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L178" s="34"/>
+    </row>
+    <row r="179" spans="1:12" s="38" customFormat="1">
+      <c r="A179" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B179" s="34">
+        <v>175</v>
+      </c>
+      <c r="C179" s="34">
+        <v>10</v>
+      </c>
+      <c r="D179" s="35">
+        <v>2</v>
+      </c>
+      <c r="E179" s="34">
+        <v>1</v>
+      </c>
+      <c r="F179" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G179" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H179" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="35">
+        <v>1</v>
+      </c>
+      <c r="J179" s="35">
+        <v>2</v>
+      </c>
+      <c r="K179" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L179" s="34">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" s="38" customFormat="1">
+      <c r="A180" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B180" s="34">
+        <v>176</v>
+      </c>
+      <c r="C180" s="34">
+        <v>10</v>
+      </c>
+      <c r="D180" s="35">
+        <v>2</v>
+      </c>
+      <c r="E180" s="34">
+        <v>2</v>
+      </c>
+      <c r="F180" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G180" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H180" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" s="35">
+        <v>2</v>
+      </c>
+      <c r="J180" s="35">
+        <v>3</v>
+      </c>
+      <c r="K180" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="L180" s="34">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" s="38" customFormat="1">
+      <c r="A181" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B181" s="34">
+        <v>177</v>
+      </c>
+      <c r="C181" s="34">
+        <v>10</v>
+      </c>
+      <c r="D181" s="35">
+        <v>1</v>
+      </c>
+      <c r="E181" s="34">
+        <v>1</v>
+      </c>
+      <c r="F181" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G181" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H181" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="35">
+        <v>1</v>
+      </c>
+      <c r="J181" s="35">
+        <v>2</v>
+      </c>
+      <c r="K181" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L181" s="34">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" s="38" customFormat="1">
+      <c r="A182" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B182" s="34">
+        <v>178</v>
+      </c>
+      <c r="C182" s="34">
+        <v>10</v>
+      </c>
+      <c r="D182" s="35">
+        <v>2</v>
+      </c>
+      <c r="E182" s="34">
+        <v>1</v>
+      </c>
+      <c r="F182" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G182" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H182" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I182" s="35">
+        <v>2</v>
+      </c>
+      <c r="J182" s="35">
+        <v>4</v>
+      </c>
+      <c r="K182" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="L182" s="34">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" s="38" customFormat="1">
+      <c r="A183" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" s="34">
+        <v>179</v>
+      </c>
+      <c r="C183" s="34">
+        <v>10</v>
+      </c>
+      <c r="D183" s="35">
+        <v>2</v>
+      </c>
+      <c r="E183" s="34">
+        <v>2</v>
+      </c>
+      <c r="F183" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G183" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H183" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I183" s="34">
+        <v>2</v>
+      </c>
+      <c r="J183" s="34">
+        <v>5</v>
+      </c>
+      <c r="K183" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="L177" s="34">
+      <c r="L183" s="34">
         <v>166</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" s="45" customFormat="1">
-      <c r="A178" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B178" s="42">
-        <v>180</v>
-      </c>
-      <c r="C178" s="42">
-        <v>10</v>
-      </c>
-      <c r="D178" s="43">
-        <v>1</v>
-      </c>
-      <c r="E178" s="42">
-        <v>1</v>
-      </c>
-      <c r="F178" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G178" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="H178" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="I178" s="43">
-        <v>1</v>
-      </c>
-      <c r="J178" s="43">
-        <v>3</v>
-      </c>
-      <c r="K178" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="L178" s="42"/>
-    </row>
-    <row r="179" spans="1:12" s="45" customFormat="1">
-      <c r="A179" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B179" s="42">
-        <v>181</v>
-      </c>
-      <c r="C179" s="42">
-        <v>10</v>
-      </c>
-      <c r="D179" s="43">
-        <v>1</v>
-      </c>
-      <c r="E179" s="42">
-        <v>1</v>
-      </c>
-      <c r="F179" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G179" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H179" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I179" s="43">
-        <v>2</v>
-      </c>
-      <c r="J179" s="43">
-        <v>3</v>
-      </c>
-      <c r="K179" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="L179" s="42"/>
-    </row>
-    <row r="180" spans="1:12" s="45" customFormat="1">
-      <c r="A180" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B180" s="42">
-        <v>182</v>
-      </c>
-      <c r="C180" s="42">
-        <v>10</v>
-      </c>
-      <c r="D180" s="43">
-        <v>1</v>
-      </c>
-      <c r="E180" s="42">
-        <v>1</v>
-      </c>
-      <c r="F180" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G180" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H180" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I180" s="42">
-        <v>2</v>
-      </c>
-      <c r="J180" s="42">
-        <v>1</v>
-      </c>
-      <c r="K180" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="L180" s="42"/>
-    </row>
-    <row r="181" spans="1:12" s="45" customFormat="1">
-      <c r="A181" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B181" s="42">
-        <v>183</v>
-      </c>
-      <c r="C181" s="42">
-        <v>10</v>
-      </c>
-      <c r="D181" s="43">
-        <v>1</v>
-      </c>
-      <c r="E181" s="42">
-        <v>2</v>
-      </c>
-      <c r="F181" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G181" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H181" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I181" s="42">
-        <v>2</v>
-      </c>
-      <c r="J181" s="42">
-        <v>1</v>
-      </c>
-      <c r="K181" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="L181" s="42"/>
-    </row>
-    <row r="182" spans="1:12" s="45" customFormat="1">
-      <c r="A182" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B182" s="42">
-        <v>184</v>
-      </c>
-      <c r="C182" s="42">
-        <v>10</v>
-      </c>
-      <c r="D182" s="43">
-        <v>1</v>
-      </c>
-      <c r="E182" s="42">
-        <v>1</v>
-      </c>
-      <c r="F182" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G182" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H182" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I182" s="43">
-        <v>2</v>
-      </c>
-      <c r="J182" s="43">
-        <v>2</v>
-      </c>
-      <c r="K182" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L182" s="42"/>
-    </row>
-    <row r="183" spans="1:12" s="45" customFormat="1">
-      <c r="A183" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B183" s="42">
-        <v>185</v>
-      </c>
-      <c r="C183" s="42">
-        <v>10</v>
-      </c>
-      <c r="D183" s="43">
-        <v>1</v>
-      </c>
-      <c r="E183" s="42">
-        <v>2</v>
-      </c>
-      <c r="F183" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G183" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H183" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I183" s="42">
-        <v>3</v>
-      </c>
-      <c r="J183" s="42">
-        <v>2</v>
-      </c>
-      <c r="K183" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="L183" s="42"/>
     </row>
     <row r="184" spans="1:12" s="45" customFormat="1">
       <c r="A184" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B184" s="42">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C184" s="42">
         <v>10</v>
@@ -14097,25 +14206,25 @@
         <v>1</v>
       </c>
       <c r="E184" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="43" t="s">
         <v>178</v>
       </c>
       <c r="G184" s="44" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="H184" s="46" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I184" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" s="43">
         <v>3</v>
       </c>
       <c r="K184" s="46" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="L184" s="42"/>
     </row>
@@ -14124,7 +14233,7 @@
         <v>62</v>
       </c>
       <c r="B185" s="42">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C185" s="42">
         <v>10</v>
@@ -14133,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" s="43" t="s">
         <v>178</v>
@@ -14151,7 +14260,7 @@
         <v>3</v>
       </c>
       <c r="K185" s="46" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="L185" s="42"/>
     </row>
@@ -14160,7 +14269,7 @@
         <v>62</v>
       </c>
       <c r="B186" s="42">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C186" s="42">
         <v>10</v>
@@ -14177,17 +14286,17 @@
       <c r="G186" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H186" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I186" s="43">
-        <v>2</v>
-      </c>
-      <c r="J186" s="43">
-        <v>3</v>
+      <c r="H186" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" s="42">
+        <v>2</v>
+      </c>
+      <c r="J186" s="42">
+        <v>1</v>
       </c>
       <c r="K186" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L186" s="42"/>
     </row>
@@ -14196,7 +14305,7 @@
         <v>62</v>
       </c>
       <c r="B187" s="42">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C187" s="42">
         <v>10</v>
@@ -14205,7 +14314,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F187" s="43" t="s">
         <v>178</v>
@@ -14213,17 +14322,17 @@
       <c r="G187" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H187" s="46" t="s">
+      <c r="H187" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I187" s="43">
-        <v>2</v>
-      </c>
-      <c r="J187" s="43">
+      <c r="I187" s="42">
+        <v>2</v>
+      </c>
+      <c r="J187" s="42">
         <v>1</v>
       </c>
       <c r="K187" s="46" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="L187" s="42"/>
     </row>
@@ -14232,7 +14341,7 @@
         <v>62</v>
       </c>
       <c r="B188" s="42">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C188" s="42">
         <v>10</v>
@@ -14246,20 +14355,20 @@
       <c r="F188" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G188" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H188" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I188" s="42">
-        <v>3</v>
-      </c>
-      <c r="J188" s="42">
-        <v>2</v>
-      </c>
-      <c r="K188" s="44" t="s">
-        <v>111</v>
+      <c r="G188" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H188" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="43">
+        <v>2</v>
+      </c>
+      <c r="J188" s="43">
+        <v>2</v>
+      </c>
+      <c r="K188" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="L188" s="42"/>
     </row>
@@ -14268,7 +14377,7 @@
         <v>62</v>
       </c>
       <c r="B189" s="42">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C189" s="42">
         <v>10</v>
@@ -14277,25 +14386,25 @@
         <v>1</v>
       </c>
       <c r="E189" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G189" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H189" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I189" s="43">
-        <v>2</v>
-      </c>
-      <c r="J189" s="43">
-        <v>3</v>
+      <c r="G189" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I189" s="42">
+        <v>3</v>
+      </c>
+      <c r="J189" s="42">
+        <v>2</v>
       </c>
       <c r="K189" s="46" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="L189" s="42"/>
     </row>
@@ -14304,7 +14413,7 @@
         <v>62</v>
       </c>
       <c r="B190" s="42">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C190" s="42">
         <v>10</v>
@@ -14318,17 +14427,17 @@
       <c r="F190" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G190" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H190" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I190" s="42">
-        <v>3</v>
-      </c>
-      <c r="J190" s="42">
-        <v>2</v>
+      <c r="G190" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H190" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I190" s="43">
+        <v>2</v>
+      </c>
+      <c r="J190" s="43">
+        <v>3</v>
       </c>
       <c r="K190" s="46" t="s">
         <v>27</v>
@@ -14340,7 +14449,7 @@
         <v>62</v>
       </c>
       <c r="B191" s="42">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C191" s="42">
         <v>10</v>
@@ -14367,7 +14476,7 @@
         <v>3</v>
       </c>
       <c r="K191" s="46" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="L191" s="42"/>
     </row>
@@ -14376,7 +14485,7 @@
         <v>62</v>
       </c>
       <c r="B192" s="42">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C192" s="42">
         <v>10</v>
@@ -14385,25 +14494,25 @@
         <v>1</v>
       </c>
       <c r="E192" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F192" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G192" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H192" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I192" s="42">
-        <v>3</v>
-      </c>
-      <c r="J192" s="42">
-        <v>2</v>
+      <c r="G192" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H192" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I192" s="43">
+        <v>2</v>
+      </c>
+      <c r="J192" s="43">
+        <v>3</v>
       </c>
       <c r="K192" s="46" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="L192" s="42"/>
     </row>
@@ -14412,7 +14521,7 @@
         <v>62</v>
       </c>
       <c r="B193" s="42">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C193" s="42">
         <v>10</v>
@@ -14430,16 +14539,16 @@
         <v>125</v>
       </c>
       <c r="H193" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I193" s="43">
         <v>2</v>
       </c>
       <c r="J193" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" s="46" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="L193" s="42"/>
     </row>
@@ -14448,7 +14557,7 @@
         <v>62</v>
       </c>
       <c r="B194" s="42">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C194" s="42">
         <v>10</v>
@@ -14466,16 +14575,16 @@
         <v>75</v>
       </c>
       <c r="H194" s="45" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I194" s="42">
         <v>3</v>
       </c>
       <c r="J194" s="42">
-        <v>1</v>
-      </c>
-      <c r="K194" s="46" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="K194" s="44" t="s">
+        <v>111</v>
       </c>
       <c r="L194" s="42"/>
     </row>
@@ -14484,7 +14593,7 @@
         <v>62</v>
       </c>
       <c r="B195" s="42">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C195" s="42">
         <v>10</v>
@@ -14502,16 +14611,16 @@
         <v>125</v>
       </c>
       <c r="H195" s="46" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I195" s="43">
         <v>2</v>
       </c>
       <c r="J195" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K195" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L195" s="42"/>
     </row>
@@ -14520,7 +14629,7 @@
         <v>62</v>
       </c>
       <c r="B196" s="42">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C196" s="42">
         <v>10</v>
@@ -14529,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F196" s="43" t="s">
         <v>178</v>
@@ -14538,16 +14647,16 @@
         <v>75</v>
       </c>
       <c r="H196" s="45" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I196" s="42">
         <v>3</v>
       </c>
       <c r="J196" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K196" s="46" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="L196" s="42"/>
     </row>
@@ -14556,7 +14665,7 @@
         <v>62</v>
       </c>
       <c r="B197" s="42">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C197" s="42">
         <v>10</v>
@@ -14565,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197" s="43" t="s">
         <v>178</v>
@@ -14574,16 +14683,16 @@
         <v>125</v>
       </c>
       <c r="H197" s="46" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I197" s="43">
         <v>2</v>
       </c>
       <c r="J197" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K197" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L197" s="42"/>
     </row>
@@ -14592,7 +14701,7 @@
         <v>62</v>
       </c>
       <c r="B198" s="42">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C198" s="42">
         <v>10</v>
@@ -14601,25 +14710,25 @@
         <v>1</v>
       </c>
       <c r="E198" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G198" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H198" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="I198" s="43">
-        <v>2</v>
-      </c>
-      <c r="J198" s="43">
-        <v>4</v>
+      <c r="G198" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H198" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I198" s="42">
+        <v>3</v>
+      </c>
+      <c r="J198" s="42">
+        <v>2</v>
       </c>
       <c r="K198" s="46" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="L198" s="42"/>
     </row>
@@ -14628,7 +14737,7 @@
         <v>62</v>
       </c>
       <c r="B199" s="42">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C199" s="42">
         <v>10</v>
@@ -14643,19 +14752,19 @@
         <v>178</v>
       </c>
       <c r="G199" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="H199" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="I199" s="42">
-        <v>1</v>
-      </c>
-      <c r="J199" s="42">
+        <v>125</v>
+      </c>
+      <c r="H199" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I199" s="43">
+        <v>2</v>
+      </c>
+      <c r="J199" s="43">
         <v>2</v>
       </c>
       <c r="K199" s="46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L199" s="42"/>
     </row>
@@ -14664,7 +14773,7 @@
         <v>62</v>
       </c>
       <c r="B200" s="42">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C200" s="42">
         <v>10</v>
@@ -14678,20 +14787,20 @@
       <c r="F200" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G200" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H200" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="I200" s="43">
-        <v>2</v>
-      </c>
-      <c r="J200" s="43">
-        <v>4</v>
+      <c r="G200" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H200" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I200" s="42">
+        <v>3</v>
+      </c>
+      <c r="J200" s="42">
+        <v>1</v>
       </c>
       <c r="K200" s="46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L200" s="42"/>
     </row>
@@ -14700,7 +14809,7 @@
         <v>62</v>
       </c>
       <c r="B201" s="42">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C201" s="42">
         <v>10</v>
@@ -14718,16 +14827,16 @@
         <v>125</v>
       </c>
       <c r="H201" s="46" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I201" s="43">
         <v>2</v>
       </c>
       <c r="J201" s="43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K201" s="46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L201" s="42"/>
     </row>
@@ -14736,7 +14845,7 @@
         <v>62</v>
       </c>
       <c r="B202" s="42">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C202" s="42">
         <v>10</v>
@@ -14750,20 +14859,20 @@
       <c r="F202" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G202" s="44" t="s">
-        <v>91</v>
+      <c r="G202" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="H202" s="45" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="I202" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J202" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K202" s="46" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L202" s="42"/>
     </row>
@@ -14772,7 +14881,7 @@
         <v>62</v>
       </c>
       <c r="B203" s="42">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C203" s="42">
         <v>10</v>
@@ -14790,16 +14899,16 @@
         <v>125</v>
       </c>
       <c r="H203" s="46" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="I203" s="43">
         <v>2</v>
       </c>
       <c r="J203" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K203" s="46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L203" s="42"/>
     </row>
@@ -14808,7 +14917,7 @@
         <v>62</v>
       </c>
       <c r="B204" s="42">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C204" s="42">
         <v>10</v>
@@ -14826,16 +14935,16 @@
         <v>125</v>
       </c>
       <c r="H204" s="46" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="I204" s="43">
         <v>2</v>
       </c>
       <c r="J204" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K204" s="46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L204" s="42"/>
     </row>
@@ -14844,10 +14953,10 @@
         <v>62</v>
       </c>
       <c r="B205" s="42">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C205" s="42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D205" s="43">
         <v>1</v>
@@ -14859,28 +14968,28 @@
         <v>178</v>
       </c>
       <c r="G205" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H205" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="I205" s="43">
-        <v>2</v>
-      </c>
-      <c r="J205" s="43">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="H205" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I205" s="42">
+        <v>1</v>
+      </c>
+      <c r="J205" s="42">
+        <v>2</v>
       </c>
       <c r="K205" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L205" s="42"/>
     </row>
-    <row r="206" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="206" spans="1:12" s="45" customFormat="1">
       <c r="A206" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B206" s="42">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C206" s="42">
         <v>10</v>
@@ -14907,18 +15016,16 @@
         <v>4</v>
       </c>
       <c r="K206" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="L206" s="42">
-        <v>182</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="L206" s="42"/>
     </row>
     <row r="207" spans="1:12" s="45" customFormat="1">
       <c r="A207" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B207" s="42">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C207" s="42">
         <v>10</v>
@@ -14927,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F207" s="43" t="s">
         <v>178</v>
@@ -14936,27 +15043,25 @@
         <v>125</v>
       </c>
       <c r="H207" s="46" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="I207" s="43">
         <v>2</v>
       </c>
       <c r="J207" s="43">
-        <v>4</v>
-      </c>
-      <c r="K207" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="L207" s="42">
-        <v>204</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K207" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="L207" s="42"/>
     </row>
     <row r="208" spans="1:12" s="45" customFormat="1">
       <c r="A208" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B208" s="42">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C208" s="42">
         <v>10</v>
@@ -14965,36 +15070,34 @@
         <v>1</v>
       </c>
       <c r="E208" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" s="43" t="s">
         <v>178</v>
       </c>
       <c r="G208" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H208" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="I208" s="43">
-        <v>2</v>
-      </c>
-      <c r="J208" s="43">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="H208" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I208" s="42">
+        <v>1</v>
+      </c>
+      <c r="J208" s="42">
+        <v>2</v>
       </c>
       <c r="K208" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="L208" s="42">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" s="45" customFormat="1" ht="17.25" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="L208" s="42"/>
+    </row>
+    <row r="209" spans="1:12" s="45" customFormat="1">
       <c r="A209" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B209" s="42">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C209" s="42">
         <v>10</v>
@@ -15021,18 +15124,16 @@
         <v>5</v>
       </c>
       <c r="K209" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="L209" s="42">
-        <v>182</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L209" s="42"/>
     </row>
     <row r="210" spans="1:12" s="45" customFormat="1">
       <c r="A210" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B210" s="42">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C210" s="42">
         <v>10</v>
@@ -15041,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="E210" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F210" s="43" t="s">
         <v>178</v>
@@ -15058,28 +15159,26 @@
       <c r="J210" s="43">
         <v>5</v>
       </c>
-      <c r="K210" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="L210" s="42">
-        <v>204</v>
-      </c>
+      <c r="K210" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="L210" s="42"/>
     </row>
     <row r="211" spans="1:12" s="45" customFormat="1">
       <c r="A211" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B211" s="42">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C211" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D211" s="43">
         <v>1</v>
       </c>
       <c r="E211" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F211" s="43" t="s">
         <v>178</v>
@@ -15088,27 +15187,25 @@
         <v>125</v>
       </c>
       <c r="H211" s="46" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I211" s="43">
         <v>2</v>
       </c>
       <c r="J211" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K211" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L211" s="42">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" s="45" customFormat="1" ht="18" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="L211" s="42"/>
+    </row>
+    <row r="212" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A212" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B212" s="42">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C212" s="42">
         <v>10</v>
@@ -15117,7 +15214,7 @@
         <v>1</v>
       </c>
       <c r="E212" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212" s="43" t="s">
         <v>178</v>
@@ -15126,25 +15223,27 @@
         <v>125</v>
       </c>
       <c r="H212" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I212" s="43">
         <v>2</v>
       </c>
       <c r="J212" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K212" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="L212" s="42"/>
-    </row>
-    <row r="213" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
+        <v>120</v>
+      </c>
+      <c r="L212" s="42">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" s="45" customFormat="1">
       <c r="A213" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B213" s="42">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C213" s="42">
         <v>10</v>
@@ -15153,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F213" s="43" t="s">
         <v>178</v>
@@ -15162,25 +15261,27 @@
         <v>125</v>
       </c>
       <c r="H213" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I213" s="43">
         <v>2</v>
       </c>
       <c r="J213" s="43">
-        <v>6</v>
-      </c>
-      <c r="K213" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="L213" s="42"/>
-    </row>
-    <row r="214" spans="1:12" s="45" customFormat="1" ht="13.5" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="K213" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="L213" s="42">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" s="45" customFormat="1">
       <c r="A214" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B214" s="42">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C214" s="42">
         <v>10</v>
@@ -15198,881 +15299,879 @@
         <v>125</v>
       </c>
       <c r="H214" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I214" s="43">
+        <v>2</v>
+      </c>
+      <c r="J214" s="43">
+        <v>4</v>
+      </c>
+      <c r="K214" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L214" s="42">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" s="45" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A215" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" s="42">
+        <v>207</v>
+      </c>
+      <c r="C215" s="42">
+        <v>10</v>
+      </c>
+      <c r="D215" s="43">
+        <v>1</v>
+      </c>
+      <c r="E215" s="42">
+        <v>1</v>
+      </c>
+      <c r="F215" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G215" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H215" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I215" s="43">
+        <v>2</v>
+      </c>
+      <c r="J215" s="43">
+        <v>5</v>
+      </c>
+      <c r="K215" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="L215" s="42">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" s="45" customFormat="1">
+      <c r="A216" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B216" s="42">
+        <v>208</v>
+      </c>
+      <c r="C216" s="42">
+        <v>10</v>
+      </c>
+      <c r="D216" s="43">
+        <v>1</v>
+      </c>
+      <c r="E216" s="42">
+        <v>2</v>
+      </c>
+      <c r="F216" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G216" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H216" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I216" s="43">
+        <v>2</v>
+      </c>
+      <c r="J216" s="43">
+        <v>5</v>
+      </c>
+      <c r="K216" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L216" s="42">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" s="45" customFormat="1">
+      <c r="A217" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" s="42">
+        <v>209</v>
+      </c>
+      <c r="C217" s="42">
+        <v>10</v>
+      </c>
+      <c r="D217" s="43">
+        <v>1</v>
+      </c>
+      <c r="E217" s="42">
+        <v>2</v>
+      </c>
+      <c r="F217" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G217" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H217" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I217" s="43">
+        <v>2</v>
+      </c>
+      <c r="J217" s="43">
+        <v>5</v>
+      </c>
+      <c r="K217" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="L217" s="42">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" s="45" customFormat="1" ht="18" customHeight="1">
+      <c r="A218" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B218" s="42">
+        <v>210</v>
+      </c>
+      <c r="C218" s="42">
+        <v>10</v>
+      </c>
+      <c r="D218" s="43">
+        <v>1</v>
+      </c>
+      <c r="E218" s="42">
+        <v>2</v>
+      </c>
+      <c r="F218" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G218" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H218" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I214" s="43">
-        <v>2</v>
-      </c>
-      <c r="J214" s="43">
+      <c r="I218" s="43">
+        <v>2</v>
+      </c>
+      <c r="J218" s="43">
         <v>6</v>
       </c>
-      <c r="K214" s="46" t="s">
+      <c r="K218" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="L218" s="42"/>
+    </row>
+    <row r="219" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A219" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B219" s="42">
+        <v>211</v>
+      </c>
+      <c r="C219" s="42">
+        <v>10</v>
+      </c>
+      <c r="D219" s="43">
+        <v>1</v>
+      </c>
+      <c r="E219" s="42">
+        <v>3</v>
+      </c>
+      <c r="F219" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G219" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H219" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="I219" s="43">
+        <v>2</v>
+      </c>
+      <c r="J219" s="43">
+        <v>6</v>
+      </c>
+      <c r="K219" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="L214" s="42"/>
-    </row>
-    <row r="215" spans="1:12" s="13" customFormat="1">
-      <c r="A215" s="8">
-        <v>1</v>
-      </c>
-      <c r="B215" s="9">
+      <c r="L219" s="42"/>
+    </row>
+    <row r="220" spans="1:12" s="45" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A220" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B220" s="42">
+        <v>212</v>
+      </c>
+      <c r="C220" s="42">
+        <v>10</v>
+      </c>
+      <c r="D220" s="43">
+        <v>1</v>
+      </c>
+      <c r="E220" s="42">
+        <v>2</v>
+      </c>
+      <c r="F220" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G220" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H220" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="I220" s="43">
+        <v>2</v>
+      </c>
+      <c r="J220" s="43">
+        <v>6</v>
+      </c>
+      <c r="K220" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="L220" s="42"/>
+    </row>
+    <row r="221" spans="1:12" s="13" customFormat="1">
+      <c r="A221" s="8">
+        <v>1</v>
+      </c>
+      <c r="B221" s="9">
         <v>213</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C221" s="9">
         <v>6</v>
       </c>
-      <c r="D215" s="10">
-        <v>2</v>
-      </c>
-      <c r="E215" s="9">
-        <v>3</v>
-      </c>
-      <c r="F215" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G215" s="11" t="s">
+      <c r="D221" s="10">
+        <v>2</v>
+      </c>
+      <c r="E221" s="9">
+        <v>3</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G221" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H215" s="12" t="s">
+      <c r="H221" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I215" s="10">
-        <v>2</v>
-      </c>
-      <c r="J215" s="10">
-        <v>1</v>
-      </c>
-      <c r="K215" s="12" t="s">
+      <c r="I221" s="10">
+        <v>2</v>
+      </c>
+      <c r="J221" s="10">
+        <v>1</v>
+      </c>
+      <c r="K221" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L215" s="9"/>
-    </row>
-    <row r="216" spans="1:12" s="13" customFormat="1">
-      <c r="A216" s="8">
-        <v>1</v>
-      </c>
-      <c r="B216" s="9">
+      <c r="L221" s="9"/>
+    </row>
+    <row r="222" spans="1:12" s="13" customFormat="1">
+      <c r="A222" s="8">
+        <v>1</v>
+      </c>
+      <c r="B222" s="9">
         <v>213</v>
       </c>
-      <c r="C216" s="9">
+      <c r="C222" s="9">
         <v>6</v>
       </c>
-      <c r="D216" s="10">
-        <v>2</v>
-      </c>
-      <c r="E216" s="9">
-        <v>2</v>
-      </c>
-      <c r="F216" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G216" s="24" t="s">
+      <c r="D222" s="10">
+        <v>2</v>
+      </c>
+      <c r="E222" s="9">
+        <v>2</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G222" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="H216" s="12" t="s">
+      <c r="H222" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I216" s="10">
-        <v>2</v>
-      </c>
-      <c r="J216" s="10">
-        <v>4</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="I222" s="10">
+        <v>2</v>
+      </c>
+      <c r="J222" s="10">
+        <v>4</v>
+      </c>
+      <c r="K222" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L216" s="9"/>
-    </row>
-    <row r="217" spans="1:12" s="13" customFormat="1">
-      <c r="A217" s="8">
-        <v>1</v>
-      </c>
-      <c r="B217" s="9">
+      <c r="L222" s="9"/>
+    </row>
+    <row r="223" spans="1:12" s="13" customFormat="1">
+      <c r="A223" s="8">
+        <v>1</v>
+      </c>
+      <c r="B223" s="9">
         <v>214</v>
       </c>
-      <c r="C217" s="9">
+      <c r="C223" s="9">
         <v>6</v>
       </c>
-      <c r="D217" s="10">
-        <v>2</v>
-      </c>
-      <c r="E217" s="9">
-        <v>2</v>
-      </c>
-      <c r="F217" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G217" s="11" t="s">
+      <c r="D223" s="10">
+        <v>2</v>
+      </c>
+      <c r="E223" s="9">
+        <v>2</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G223" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H217" s="12" t="s">
+      <c r="H223" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I217" s="10">
-        <v>2</v>
-      </c>
-      <c r="J217" s="10">
-        <v>1</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="I223" s="10">
+        <v>2</v>
+      </c>
+      <c r="J223" s="10">
+        <v>1</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L217" s="9"/>
-    </row>
-    <row r="218" spans="1:12" s="13" customFormat="1">
-      <c r="A218" s="8">
-        <v>1</v>
-      </c>
-      <c r="B218" s="9">
+      <c r="L223" s="9"/>
+    </row>
+    <row r="224" spans="1:12" s="13" customFormat="1">
+      <c r="A224" s="8">
+        <v>1</v>
+      </c>
+      <c r="B224" s="9">
         <v>214</v>
       </c>
-      <c r="C218" s="9">
+      <c r="C224" s="9">
         <v>6</v>
       </c>
-      <c r="D218" s="10">
-        <v>2</v>
-      </c>
-      <c r="E218" s="9">
-        <v>1</v>
-      </c>
-      <c r="F218" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G218" s="11" t="s">
+      <c r="D224" s="10">
+        <v>2</v>
+      </c>
+      <c r="E224" s="9">
+        <v>1</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G224" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H218" s="12" t="s">
+      <c r="H224" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I218" s="10">
-        <v>2</v>
-      </c>
-      <c r="J218" s="10">
-        <v>2</v>
-      </c>
-      <c r="K218" s="12" t="s">
+      <c r="I224" s="10">
+        <v>2</v>
+      </c>
+      <c r="J224" s="10">
+        <v>2</v>
+      </c>
+      <c r="K224" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L218" s="9"/>
-    </row>
-    <row r="219" spans="1:12" s="13" customFormat="1">
-      <c r="A219" s="8">
-        <v>1</v>
-      </c>
-      <c r="B219" s="9">
+      <c r="L224" s="9"/>
+    </row>
+    <row r="225" spans="1:12" s="13" customFormat="1">
+      <c r="A225" s="8">
+        <v>1</v>
+      </c>
+      <c r="B225" s="9">
         <v>215</v>
       </c>
-      <c r="C219" s="9">
+      <c r="C225" s="9">
         <v>6</v>
       </c>
-      <c r="D219" s="10">
-        <v>2</v>
-      </c>
-      <c r="E219" s="9">
-        <v>2</v>
-      </c>
-      <c r="F219" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G219" s="11" t="s">
+      <c r="D225" s="10">
+        <v>2</v>
+      </c>
+      <c r="E225" s="9">
+        <v>2</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G225" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H219" s="12" t="s">
+      <c r="H225" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I219" s="10">
-        <v>2</v>
-      </c>
-      <c r="J219" s="10">
-        <v>1</v>
-      </c>
-      <c r="K219" s="12" t="s">
+      <c r="I225" s="10">
+        <v>2</v>
+      </c>
+      <c r="J225" s="10">
+        <v>1</v>
+      </c>
+      <c r="K225" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L219" s="9"/>
-    </row>
-    <row r="220" spans="1:12" s="13" customFormat="1">
-      <c r="A220" s="8">
-        <v>1</v>
-      </c>
-      <c r="B220" s="9">
+      <c r="L225" s="9"/>
+    </row>
+    <row r="226" spans="1:12" s="13" customFormat="1">
+      <c r="A226" s="8">
+        <v>1</v>
+      </c>
+      <c r="B226" s="9">
         <v>215</v>
       </c>
-      <c r="C220" s="9">
+      <c r="C226" s="9">
         <v>6</v>
       </c>
-      <c r="D220" s="10">
-        <v>2</v>
-      </c>
-      <c r="E220" s="9">
-        <v>1</v>
-      </c>
-      <c r="F220" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G220" s="11" t="s">
+      <c r="D226" s="10">
+        <v>2</v>
+      </c>
+      <c r="E226" s="9">
+        <v>1</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G226" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H220" s="12" t="s">
+      <c r="H226" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="I220" s="10">
-        <v>2</v>
-      </c>
-      <c r="J220" s="10">
-        <v>3</v>
-      </c>
-      <c r="K220" s="12" t="s">
+      <c r="I226" s="10">
+        <v>2</v>
+      </c>
+      <c r="J226" s="10">
+        <v>3</v>
+      </c>
+      <c r="K226" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L220" s="9"/>
-    </row>
-    <row r="221" spans="1:12" s="13" customFormat="1">
-      <c r="A221" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B221" s="9">
-        <v>216</v>
-      </c>
-      <c r="C221" s="9">
-        <v>10</v>
-      </c>
-      <c r="D221" s="10">
-        <v>1</v>
-      </c>
-      <c r="E221" s="9">
-        <v>3</v>
-      </c>
-      <c r="F221" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G221" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H221" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I221" s="10">
-        <v>3</v>
-      </c>
-      <c r="J221" s="10">
-        <v>4</v>
-      </c>
-      <c r="K221" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L221" s="9">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" s="45" customFormat="1">
-      <c r="A222" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B222" s="42">
-        <v>217</v>
-      </c>
-      <c r="C222" s="42">
-        <v>10</v>
-      </c>
-      <c r="D222" s="43">
-        <v>1</v>
-      </c>
-      <c r="E222" s="42">
-        <v>2</v>
-      </c>
-      <c r="F222" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G222" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H222" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I222" s="42">
-        <v>3</v>
-      </c>
-      <c r="J222" s="42">
-        <v>1</v>
-      </c>
-      <c r="K222" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L222" s="42"/>
-    </row>
-    <row r="223" spans="1:12" s="45" customFormat="1">
-      <c r="A223" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B223" s="42">
-        <v>218</v>
-      </c>
-      <c r="C223" s="42">
-        <v>10</v>
-      </c>
-      <c r="D223" s="43">
-        <v>1</v>
-      </c>
-      <c r="E223" s="42">
-        <v>2</v>
-      </c>
-      <c r="F223" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G223" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H223" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I223" s="42">
-        <v>3</v>
-      </c>
-      <c r="J223" s="42">
-        <v>1</v>
-      </c>
-      <c r="K223" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L223" s="42">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" s="45" customFormat="1">
-      <c r="A224" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B224" s="42">
-        <v>219</v>
-      </c>
-      <c r="C224" s="42">
-        <v>10</v>
-      </c>
-      <c r="D224" s="43">
-        <v>1</v>
-      </c>
-      <c r="E224" s="42">
-        <v>2</v>
-      </c>
-      <c r="F224" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G224" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H224" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I224" s="42">
-        <v>3</v>
-      </c>
-      <c r="J224" s="42">
-        <v>1</v>
-      </c>
-      <c r="K224" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="L224" s="42">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" s="18" customFormat="1">
-      <c r="A225" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B225" s="15">
-        <v>220</v>
-      </c>
-      <c r="C225" s="15">
-        <v>8</v>
-      </c>
-      <c r="D225" s="16">
-        <v>3</v>
-      </c>
-      <c r="E225" s="15">
-        <v>1</v>
-      </c>
-      <c r="F225" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G225" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H225" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="I225" s="15">
-        <v>4</v>
-      </c>
-      <c r="J225" s="15">
-        <v>1</v>
-      </c>
-      <c r="K225" s="19"/>
-      <c r="L225" s="15"/>
-    </row>
-    <row r="226" spans="1:12" s="18" customFormat="1">
-      <c r="A226" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B226" s="15">
-        <v>221</v>
-      </c>
-      <c r="C226" s="15">
-        <v>8</v>
-      </c>
-      <c r="D226" s="16">
-        <v>1</v>
-      </c>
-      <c r="E226" s="15">
-        <v>3</v>
-      </c>
-      <c r="F226" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G226" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H226" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I226" s="16">
-        <v>3</v>
-      </c>
-      <c r="J226" s="16">
-        <v>2</v>
-      </c>
-      <c r="K226" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L226" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="L226" s="9"/>
+    </row>
+    <row r="227" spans="1:12" s="13" customFormat="1">
       <c r="A227" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B227" s="9">
+        <v>216</v>
+      </c>
+      <c r="C227" s="9">
+        <v>10</v>
+      </c>
+      <c r="D227" s="10">
+        <v>1</v>
+      </c>
+      <c r="E227" s="9">
+        <v>3</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H227" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I227" s="10">
+        <v>3</v>
+      </c>
+      <c r="J227" s="10">
+        <v>4</v>
+      </c>
+      <c r="K227" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L227" s="9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" s="45" customFormat="1">
+      <c r="A228" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B228" s="42">
+        <v>217</v>
+      </c>
+      <c r="C228" s="42">
+        <v>10</v>
+      </c>
+      <c r="D228" s="43">
+        <v>1</v>
+      </c>
+      <c r="E228" s="42">
+        <v>2</v>
+      </c>
+      <c r="F228" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G228" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H228" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I228" s="42">
+        <v>3</v>
+      </c>
+      <c r="J228" s="42">
+        <v>1</v>
+      </c>
+      <c r="K228" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L228" s="42"/>
+    </row>
+    <row r="229" spans="1:12" s="45" customFormat="1">
+      <c r="A229" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B229" s="42">
+        <v>218</v>
+      </c>
+      <c r="C229" s="42">
+        <v>10</v>
+      </c>
+      <c r="D229" s="43">
+        <v>1</v>
+      </c>
+      <c r="E229" s="42">
+        <v>2</v>
+      </c>
+      <c r="F229" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G229" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H229" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I229" s="42">
+        <v>3</v>
+      </c>
+      <c r="J229" s="42">
+        <v>1</v>
+      </c>
+      <c r="K229" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L229" s="42">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" s="45" customFormat="1">
+      <c r="A230" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B230" s="42">
+        <v>219</v>
+      </c>
+      <c r="C230" s="42">
+        <v>10</v>
+      </c>
+      <c r="D230" s="43">
+        <v>1</v>
+      </c>
+      <c r="E230" s="42">
+        <v>2</v>
+      </c>
+      <c r="F230" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G230" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H230" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I230" s="42">
+        <v>3</v>
+      </c>
+      <c r="J230" s="42">
+        <v>1</v>
+      </c>
+      <c r="K230" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L230" s="42">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" s="18" customFormat="1">
+      <c r="A231" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="15">
+        <v>220</v>
+      </c>
+      <c r="C231" s="15">
+        <v>8</v>
+      </c>
+      <c r="D231" s="16">
+        <v>3</v>
+      </c>
+      <c r="E231" s="15">
+        <v>1</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G231" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H231" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I231" s="15">
+        <v>4</v>
+      </c>
+      <c r="J231" s="15">
+        <v>1</v>
+      </c>
+      <c r="K231" s="19"/>
+      <c r="L231" s="15"/>
+    </row>
+    <row r="232" spans="1:12" s="18" customFormat="1">
+      <c r="A232" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="15">
+        <v>221</v>
+      </c>
+      <c r="C232" s="15">
+        <v>8</v>
+      </c>
+      <c r="D232" s="16">
+        <v>1</v>
+      </c>
+      <c r="E232" s="15">
+        <v>3</v>
+      </c>
+      <c r="F232" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G232" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H232" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I232" s="16">
+        <v>3</v>
+      </c>
+      <c r="J232" s="16">
+        <v>2</v>
+      </c>
+      <c r="K232" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L232" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A233" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="9">
         <v>222</v>
       </c>
-      <c r="C227" s="9">
-        <v>10</v>
-      </c>
-      <c r="D227" s="10">
-        <v>3</v>
-      </c>
-      <c r="E227" s="9">
-        <v>2</v>
-      </c>
-      <c r="F227" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G227" s="12" t="s">
+      <c r="C233" s="9">
+        <v>10</v>
+      </c>
+      <c r="D233" s="10">
+        <v>3</v>
+      </c>
+      <c r="E233" s="9">
+        <v>2</v>
+      </c>
+      <c r="F233" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G233" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H227" s="12" t="s">
+      <c r="H233" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="I227" s="10">
-        <v>4</v>
-      </c>
-      <c r="J227" s="10">
-        <v>1</v>
-      </c>
-      <c r="K227" s="12"/>
-      <c r="L227" s="9">
+      <c r="I233" s="10">
+        <v>4</v>
+      </c>
+      <c r="J233" s="10">
+        <v>1</v>
+      </c>
+      <c r="K233" s="12"/>
+      <c r="L233" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="18" customFormat="1">
-      <c r="A228" s="32" t="s">
+    <row r="234" spans="1:12" s="18" customFormat="1">
+      <c r="A234" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B228" s="15">
+      <c r="B234" s="15">
         <v>223</v>
       </c>
-      <c r="C228" s="15">
+      <c r="C234" s="15">
         <v>8</v>
       </c>
-      <c r="D228" s="16">
-        <v>3</v>
-      </c>
-      <c r="E228" s="15">
-        <v>1</v>
-      </c>
-      <c r="F228" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G228" s="17" t="s">
+      <c r="D234" s="16">
+        <v>3</v>
+      </c>
+      <c r="E234" s="15">
+        <v>1</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G234" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H228" s="17" t="s">
+      <c r="H234" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="I228" s="15">
-        <v>4</v>
-      </c>
-      <c r="J228" s="15">
-        <v>1</v>
-      </c>
-      <c r="K228" s="19"/>
-      <c r="L228" s="15">
+      <c r="I234" s="15">
+        <v>4</v>
+      </c>
+      <c r="J234" s="15">
+        <v>1</v>
+      </c>
+      <c r="K234" s="19"/>
+      <c r="L234" s="15">
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="13" customFormat="1">
-      <c r="A229" s="8" t="s">
+    <row r="235" spans="1:12" s="13" customFormat="1">
+      <c r="A235" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B235" s="9">
         <v>224</v>
       </c>
-      <c r="C229" s="9">
-        <v>10</v>
-      </c>
-      <c r="D229" s="10">
-        <v>3</v>
-      </c>
-      <c r="E229" s="9">
-        <v>1</v>
-      </c>
-      <c r="F229" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G229" s="11" t="s">
+      <c r="C235" s="9">
+        <v>10</v>
+      </c>
+      <c r="D235" s="10">
+        <v>3</v>
+      </c>
+      <c r="E235" s="9">
+        <v>1</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G235" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H229" s="11" t="s">
+      <c r="H235" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="I229" s="9">
-        <v>3</v>
-      </c>
-      <c r="J229" s="9">
-        <v>1</v>
-      </c>
-      <c r="K229" s="11" t="s">
+      <c r="I235" s="9">
+        <v>3</v>
+      </c>
+      <c r="J235" s="9">
+        <v>1</v>
+      </c>
+      <c r="K235" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="L229" s="9">
+      <c r="L235" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A230" s="69" t="s">
+    <row r="236" spans="1:12" s="52" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A236" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="49">
+      <c r="B236" s="49">
         <v>225</v>
       </c>
-      <c r="C230" s="49">
-        <v>10</v>
-      </c>
-      <c r="D230" s="50">
-        <v>1</v>
-      </c>
-      <c r="E230" s="49">
-        <v>1</v>
-      </c>
-      <c r="F230" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="G230" s="51" t="s">
+      <c r="C236" s="49">
+        <v>10</v>
+      </c>
+      <c r="D236" s="50">
+        <v>1</v>
+      </c>
+      <c r="E236" s="49">
+        <v>1</v>
+      </c>
+      <c r="F236" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G236" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H230" s="53" t="s">
+      <c r="H236" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="I230" s="50">
-        <v>1</v>
-      </c>
-      <c r="J230" s="50">
-        <v>1</v>
-      </c>
-      <c r="K230" s="70" t="s">
+      <c r="I236" s="50">
+        <v>1</v>
+      </c>
+      <c r="J236" s="50">
+        <v>1</v>
+      </c>
+      <c r="K236" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="L230" s="49">
+      <c r="L236" s="49">
         <v>65</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="13" customFormat="1">
-      <c r="A231" s="8">
-        <v>1</v>
-      </c>
-      <c r="B231" s="9">
+    <row r="237" spans="1:12" s="13" customFormat="1">
+      <c r="A237" s="8">
+        <v>1</v>
+      </c>
+      <c r="B237" s="9">
         <v>226</v>
       </c>
-      <c r="C231" s="9">
-        <v>10</v>
-      </c>
-      <c r="D231" s="10">
-        <v>2</v>
-      </c>
-      <c r="E231" s="9">
-        <v>2</v>
-      </c>
-      <c r="F231" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G231" s="11" t="s">
+      <c r="C237" s="9">
+        <v>10</v>
+      </c>
+      <c r="D237" s="10">
+        <v>2</v>
+      </c>
+      <c r="E237" s="9">
+        <v>2</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G237" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H231" s="12" t="s">
+      <c r="H237" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="I231" s="10">
-        <v>2</v>
-      </c>
-      <c r="J231" s="10">
-        <v>3</v>
-      </c>
-      <c r="K231" s="19" t="s">
+      <c r="I237" s="10">
+        <v>2</v>
+      </c>
+      <c r="J237" s="10">
+        <v>3</v>
+      </c>
+      <c r="K237" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="L231" s="9">
+      <c r="L237" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="18" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A232" s="32">
-        <v>2</v>
-      </c>
-      <c r="B232" s="15">
+    <row r="238" spans="1:12" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A238" s="32">
+        <v>2</v>
+      </c>
+      <c r="B238" s="15">
         <v>227</v>
       </c>
-      <c r="C232" s="15">
-        <v>10</v>
-      </c>
-      <c r="D232" s="16">
-        <v>1</v>
-      </c>
-      <c r="E232" s="15">
-        <v>1</v>
-      </c>
-      <c r="F232" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G232" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H232" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="I232" s="16">
-        <v>2</v>
-      </c>
-      <c r="J232" s="16">
-        <v>2</v>
-      </c>
-      <c r="K232" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L232" s="15">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" s="13" customFormat="1">
-      <c r="A233" s="8">
-        <v>1</v>
-      </c>
-      <c r="B233" s="9">
-        <v>228</v>
-      </c>
-      <c r="C233" s="9">
-        <v>6</v>
-      </c>
-      <c r="D233" s="10">
-        <v>2</v>
-      </c>
-      <c r="E233" s="9">
-        <v>1</v>
-      </c>
-      <c r="F233" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G233" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H233" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I233" s="10">
-        <v>2</v>
-      </c>
-      <c r="J233" s="10">
-        <v>1</v>
-      </c>
-      <c r="K233" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L233" s="9">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" s="13" customFormat="1">
-      <c r="A234" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B234" s="9">
-        <v>229</v>
-      </c>
-      <c r="C234" s="9">
-        <v>10</v>
-      </c>
-      <c r="D234" s="10">
-        <v>2</v>
-      </c>
-      <c r="E234" s="9">
-        <v>1</v>
-      </c>
-      <c r="F234" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G234" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H234" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I234" s="10">
-        <v>2</v>
-      </c>
-      <c r="J234" s="10">
-        <v>3</v>
-      </c>
-      <c r="K234" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L234" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A235" s="32">
-        <v>2</v>
-      </c>
-      <c r="B235" s="15">
-        <v>230</v>
-      </c>
-      <c r="C235" s="15">
-        <v>10</v>
-      </c>
-      <c r="D235" s="16">
-        <v>1</v>
-      </c>
-      <c r="E235" s="15">
-        <v>1</v>
-      </c>
-      <c r="F235" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G235" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H235" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="I235" s="16">
-        <v>2</v>
-      </c>
-      <c r="J235" s="16">
-        <v>2</v>
-      </c>
-      <c r="K235" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="L235" s="15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" s="18" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A236" s="32">
-        <v>2</v>
-      </c>
-      <c r="B236" s="15">
-        <v>231</v>
-      </c>
-      <c r="C236" s="15">
-        <v>10</v>
-      </c>
-      <c r="D236" s="16">
-        <v>1</v>
-      </c>
-      <c r="E236" s="15">
-        <v>1</v>
-      </c>
-      <c r="F236" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G236" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H236" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="I236" s="16">
-        <v>2</v>
-      </c>
-      <c r="J236" s="16">
-        <v>2</v>
-      </c>
-      <c r="K236" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="L236" s="15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" s="18" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A237" s="32">
-        <v>2</v>
-      </c>
-      <c r="B237" s="15">
-        <v>232</v>
-      </c>
-      <c r="C237" s="15">
-        <v>10</v>
-      </c>
-      <c r="D237" s="16">
-        <v>2</v>
-      </c>
-      <c r="E237" s="15">
-        <v>1</v>
-      </c>
-      <c r="F237" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G237" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H237" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I237" s="15">
-        <v>2</v>
-      </c>
-      <c r="J237" s="15">
-        <v>4</v>
-      </c>
-      <c r="K237" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="L237" s="15"/>
-    </row>
-    <row r="238" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A238" s="32">
-        <v>2</v>
-      </c>
-      <c r="B238" s="15">
-        <v>233</v>
-      </c>
       <c r="C238" s="15">
         <v>10</v>
       </c>
       <c r="D238" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238" s="15">
         <v>1</v>
@@ -16083,205 +16182,431 @@
       <c r="G238" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H238" s="18" t="s">
+      <c r="H238" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I238" s="16">
+        <v>2</v>
+      </c>
+      <c r="J238" s="16">
+        <v>2</v>
+      </c>
+      <c r="K238" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L238" s="15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" s="13" customFormat="1">
+      <c r="A239" s="8">
+        <v>1</v>
+      </c>
+      <c r="B239" s="9">
+        <v>228</v>
+      </c>
+      <c r="C239" s="9">
+        <v>6</v>
+      </c>
+      <c r="D239" s="10">
+        <v>2</v>
+      </c>
+      <c r="E239" s="9">
+        <v>1</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G239" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H239" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I239" s="10">
+        <v>2</v>
+      </c>
+      <c r="J239" s="10">
+        <v>1</v>
+      </c>
+      <c r="K239" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L239" s="9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" s="13" customFormat="1">
+      <c r="A240" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="9">
+        <v>229</v>
+      </c>
+      <c r="C240" s="9">
+        <v>10</v>
+      </c>
+      <c r="D240" s="10">
+        <v>2</v>
+      </c>
+      <c r="E240" s="9">
+        <v>1</v>
+      </c>
+      <c r="F240" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G240" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H240" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I240" s="10">
+        <v>2</v>
+      </c>
+      <c r="J240" s="10">
+        <v>3</v>
+      </c>
+      <c r="K240" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L240" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A241" s="32">
+        <v>2</v>
+      </c>
+      <c r="B241" s="15">
+        <v>230</v>
+      </c>
+      <c r="C241" s="15">
+        <v>10</v>
+      </c>
+      <c r="D241" s="16">
+        <v>1</v>
+      </c>
+      <c r="E241" s="15">
+        <v>1</v>
+      </c>
+      <c r="F241" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G241" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H241" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I241" s="16">
+        <v>2</v>
+      </c>
+      <c r="J241" s="16">
+        <v>2</v>
+      </c>
+      <c r="K241" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="L241" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A242" s="32">
+        <v>2</v>
+      </c>
+      <c r="B242" s="15">
+        <v>231</v>
+      </c>
+      <c r="C242" s="15">
+        <v>10</v>
+      </c>
+      <c r="D242" s="16">
+        <v>1</v>
+      </c>
+      <c r="E242" s="15">
+        <v>1</v>
+      </c>
+      <c r="F242" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G242" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H242" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I242" s="16">
+        <v>2</v>
+      </c>
+      <c r="J242" s="16">
+        <v>2</v>
+      </c>
+      <c r="K242" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="L242" s="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A243" s="32">
+        <v>2</v>
+      </c>
+      <c r="B243" s="15">
+        <v>232</v>
+      </c>
+      <c r="C243" s="15">
+        <v>10</v>
+      </c>
+      <c r="D243" s="16">
+        <v>2</v>
+      </c>
+      <c r="E243" s="15">
+        <v>1</v>
+      </c>
+      <c r="F243" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G243" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H243" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I243" s="15">
+        <v>2</v>
+      </c>
+      <c r="J243" s="15">
+        <v>4</v>
+      </c>
+      <c r="K243" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="L243" s="15"/>
+    </row>
+    <row r="244" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A244" s="32">
+        <v>2</v>
+      </c>
+      <c r="B244" s="15">
+        <v>233</v>
+      </c>
+      <c r="C244" s="15">
+        <v>10</v>
+      </c>
+      <c r="D244" s="16">
+        <v>2</v>
+      </c>
+      <c r="E244" s="15">
+        <v>1</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G244" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H244" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I238" s="15">
-        <v>2</v>
-      </c>
-      <c r="J238" s="15">
+      <c r="I244" s="15">
+        <v>2</v>
+      </c>
+      <c r="J244" s="15">
         <v>5</v>
       </c>
-      <c r="K238" s="19" t="s">
+      <c r="K244" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="L238" s="15">
+      <c r="L244" s="15">
         <v>232</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="38" customFormat="1">
-      <c r="A239" s="40">
-        <v>3</v>
-      </c>
-      <c r="B239" s="34">
+    <row r="245" spans="1:12" s="38" customFormat="1">
+      <c r="A245" s="40">
+        <v>3</v>
+      </c>
+      <c r="B245" s="34">
         <v>234</v>
       </c>
-      <c r="C239" s="34">
-        <v>10</v>
-      </c>
-      <c r="D239" s="35">
-        <v>1</v>
-      </c>
-      <c r="E239" s="34">
-        <v>2</v>
-      </c>
-      <c r="F239" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G239" s="36" t="s">
+      <c r="C245" s="34">
+        <v>10</v>
+      </c>
+      <c r="D245" s="35">
+        <v>1</v>
+      </c>
+      <c r="E245" s="34">
+        <v>2</v>
+      </c>
+      <c r="F245" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G245" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H239" s="37" t="s">
+      <c r="H245" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I239" s="35">
-        <v>2</v>
-      </c>
-      <c r="J239" s="35">
-        <v>2</v>
-      </c>
-      <c r="K239" s="37" t="s">
+      <c r="I245" s="35">
+        <v>2</v>
+      </c>
+      <c r="J245" s="35">
+        <v>2</v>
+      </c>
+      <c r="K245" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="L239" s="34"/>
-    </row>
-    <row r="240" spans="1:12" s="38" customFormat="1">
-      <c r="A240" s="40">
-        <v>3</v>
-      </c>
-      <c r="B240" s="34">
+      <c r="L245" s="34"/>
+    </row>
+    <row r="246" spans="1:12" s="38" customFormat="1">
+      <c r="A246" s="40">
+        <v>3</v>
+      </c>
+      <c r="B246" s="34">
         <v>234</v>
       </c>
-      <c r="C240" s="34">
-        <v>10</v>
-      </c>
-      <c r="D240" s="35">
-        <v>1</v>
-      </c>
-      <c r="E240" s="34">
-        <v>2</v>
-      </c>
-      <c r="F240" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G240" s="36" t="s">
+      <c r="C246" s="34">
+        <v>10</v>
+      </c>
+      <c r="D246" s="35">
+        <v>1</v>
+      </c>
+      <c r="E246" s="34">
+        <v>2</v>
+      </c>
+      <c r="F246" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G246" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H240" s="37" t="s">
+      <c r="H246" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I240" s="35">
-        <v>1</v>
-      </c>
-      <c r="J240" s="35">
-        <v>2</v>
-      </c>
-      <c r="K240" s="37" t="s">
+      <c r="I246" s="35">
+        <v>1</v>
+      </c>
+      <c r="J246" s="35">
+        <v>2</v>
+      </c>
+      <c r="K246" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="L240" s="34"/>
-    </row>
-    <row r="241" spans="1:12" s="38" customFormat="1">
-      <c r="A241" s="40">
-        <v>3</v>
-      </c>
-      <c r="B241" s="34">
+      <c r="L246" s="34"/>
+    </row>
+    <row r="247" spans="1:12" s="38" customFormat="1">
+      <c r="A247" s="40">
+        <v>3</v>
+      </c>
+      <c r="B247" s="34">
         <v>235</v>
       </c>
-      <c r="C241" s="34">
-        <v>10</v>
-      </c>
-      <c r="D241" s="35">
-        <v>1</v>
-      </c>
-      <c r="E241" s="34">
-        <v>1</v>
-      </c>
-      <c r="F241" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G241" s="36" t="s">
+      <c r="C247" s="34">
+        <v>10</v>
+      </c>
+      <c r="D247" s="35">
+        <v>1</v>
+      </c>
+      <c r="E247" s="34">
+        <v>1</v>
+      </c>
+      <c r="F247" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G247" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H241" s="37" t="s">
+      <c r="H247" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I241" s="35">
-        <v>2</v>
-      </c>
-      <c r="J241" s="35">
-        <v>2</v>
-      </c>
-      <c r="K241" s="37" t="s">
+      <c r="I247" s="35">
+        <v>2</v>
+      </c>
+      <c r="J247" s="35">
+        <v>2</v>
+      </c>
+      <c r="K247" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="L241" s="34">
+      <c r="L247" s="34">
         <v>230</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="38" customFormat="1">
-      <c r="A242" s="40">
-        <v>3</v>
-      </c>
-      <c r="B242" s="34">
+    <row r="248" spans="1:12" s="38" customFormat="1">
+      <c r="A248" s="40">
+        <v>3</v>
+      </c>
+      <c r="B248" s="34">
         <v>236</v>
       </c>
-      <c r="C242" s="34">
-        <v>10</v>
-      </c>
-      <c r="D242" s="35">
-        <v>1</v>
-      </c>
-      <c r="E242" s="34">
-        <v>1</v>
-      </c>
-      <c r="F242" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G242" s="36" t="s">
+      <c r="C248" s="34">
+        <v>10</v>
+      </c>
+      <c r="D248" s="35">
+        <v>1</v>
+      </c>
+      <c r="E248" s="34">
+        <v>1</v>
+      </c>
+      <c r="F248" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G248" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H242" s="37" t="s">
+      <c r="H248" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="I242" s="35">
-        <v>2</v>
-      </c>
-      <c r="J242" s="35">
-        <v>4</v>
-      </c>
-      <c r="K242" s="37" t="s">
+      <c r="I248" s="35">
+        <v>2</v>
+      </c>
+      <c r="J248" s="35">
+        <v>4</v>
+      </c>
+      <c r="K248" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="L242" s="34">
+      <c r="L248" s="34">
         <v>233</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="45" customFormat="1">
-      <c r="A243" s="47" t="s">
+    <row r="249" spans="1:12" s="45" customFormat="1">
+      <c r="A249" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B243" s="42">
+      <c r="B249" s="42">
         <v>237</v>
       </c>
-      <c r="C243" s="42">
-        <v>10</v>
-      </c>
-      <c r="D243" s="43">
-        <v>1</v>
-      </c>
-      <c r="E243" s="42">
-        <v>2</v>
-      </c>
-      <c r="F243" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G243" s="44" t="s">
+      <c r="C249" s="42">
+        <v>10</v>
+      </c>
+      <c r="D249" s="43">
+        <v>1</v>
+      </c>
+      <c r="E249" s="42">
+        <v>2</v>
+      </c>
+      <c r="F249" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G249" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H243" s="46" t="s">
+      <c r="H249" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I243" s="43">
-        <v>2</v>
-      </c>
-      <c r="J243" s="43">
+      <c r="I249" s="43">
+        <v>2</v>
+      </c>
+      <c r="J249" s="43">
         <v>6</v>
       </c>
-      <c r="K243" s="46" t="s">
+      <c r="K249" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L243" s="42"/>
+      <c r="L249" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18019,11 +18344,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19812,129 +20137,120 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="52" customFormat="1" ht="30">
-      <c r="A50" s="49">
-        <v>2</v>
-      </c>
-      <c r="B50" s="49">
+    <row r="50" spans="1:12" s="13" customFormat="1" ht="31.5">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9">
+        <v>45</v>
+      </c>
+      <c r="C50" s="9">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="I50" s="86">
+        <v>1</v>
+      </c>
+      <c r="J50" s="87">
+        <v>1</v>
+      </c>
+      <c r="K50" s="73"/>
+    </row>
+    <row r="51" spans="1:12" s="13" customFormat="1" ht="31.5">
+      <c r="A51" s="9">
+        <v>1</v>
+      </c>
+      <c r="B51" s="9">
+        <v>46</v>
+      </c>
+      <c r="C51" s="9">
+        <v>5</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="I51" s="86">
+        <v>1</v>
+      </c>
+      <c r="J51" s="87">
+        <v>1</v>
+      </c>
+      <c r="K51" s="73"/>
+    </row>
+    <row r="52" spans="1:12" s="13" customFormat="1" ht="31.5">
+      <c r="A52" s="9">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9">
+        <v>47</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>2</v>
+      </c>
+      <c r="E52" s="9">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="I52" s="86">
+        <v>1</v>
+      </c>
+      <c r="J52" s="87">
+        <v>1</v>
+      </c>
+      <c r="K52" s="73"/>
+    </row>
+    <row r="53" spans="1:12" s="52" customFormat="1" ht="30">
+      <c r="A53" s="49">
+        <v>2</v>
+      </c>
+      <c r="B53" s="49">
         <v>48</v>
       </c>
-      <c r="C50" s="49">
-        <v>3</v>
-      </c>
-      <c r="D50" s="50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="49">
-        <v>1</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="H50" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" s="49">
-        <v>2</v>
-      </c>
-      <c r="J50" s="49">
-        <v>1</v>
-      </c>
-      <c r="K50" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="L50" s="49"/>
-    </row>
-    <row r="51" spans="1:12" s="52" customFormat="1">
-      <c r="A51" s="49">
-        <v>2</v>
-      </c>
-      <c r="B51" s="49">
-        <v>49</v>
-      </c>
-      <c r="C51" s="49">
-        <v>10</v>
-      </c>
-      <c r="D51" s="50">
-        <v>1</v>
-      </c>
-      <c r="E51" s="49">
-        <v>2</v>
-      </c>
-      <c r="F51" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="I51" s="49">
-        <v>2</v>
-      </c>
-      <c r="J51" s="49">
-        <v>2</v>
-      </c>
-      <c r="K51" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="49"/>
-    </row>
-    <row r="52" spans="1:12" s="52" customFormat="1">
-      <c r="A52" s="49">
-        <v>2</v>
-      </c>
-      <c r="B52" s="49">
-        <v>50</v>
-      </c>
-      <c r="C52" s="49">
-        <v>10</v>
-      </c>
-      <c r="D52" s="50">
-        <v>1</v>
-      </c>
-      <c r="E52" s="49">
-        <v>2</v>
-      </c>
-      <c r="F52" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="I52" s="49">
-        <v>2</v>
-      </c>
-      <c r="J52" s="49">
-        <v>2</v>
-      </c>
-      <c r="K52" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="49"/>
-    </row>
-    <row r="53" spans="1:12" s="52" customFormat="1">
-      <c r="A53" s="49">
-        <v>2</v>
-      </c>
-      <c r="B53" s="49">
-        <v>51</v>
-      </c>
       <c r="C53" s="49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D53" s="50">
         <v>1</v>
       </c>
       <c r="E53" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" s="53" t="s">
         <v>39</v>
@@ -19942,137 +20258,135 @@
       <c r="G53" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="51" t="s">
+      <c r="H53" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53" s="49">
+        <v>2</v>
+      </c>
+      <c r="J53" s="49">
+        <v>1</v>
+      </c>
+      <c r="K53" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" s="49"/>
+    </row>
+    <row r="54" spans="1:12" s="52" customFormat="1">
+      <c r="A54" s="49">
+        <v>2</v>
+      </c>
+      <c r="B54" s="49">
+        <v>49</v>
+      </c>
+      <c r="C54" s="49">
+        <v>10</v>
+      </c>
+      <c r="D54" s="50">
+        <v>1</v>
+      </c>
+      <c r="E54" s="49">
+        <v>2</v>
+      </c>
+      <c r="F54" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="I53" s="49">
-        <v>2</v>
-      </c>
-      <c r="J53" s="49">
-        <v>2</v>
-      </c>
-      <c r="K53" s="61" t="s">
+      <c r="I54" s="49">
+        <v>2</v>
+      </c>
+      <c r="J54" s="49">
+        <v>2</v>
+      </c>
+      <c r="K54" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="49"/>
-    </row>
-    <row r="54" spans="1:12" s="38" customFormat="1">
-      <c r="A54" s="34">
-        <v>3</v>
-      </c>
-      <c r="B54" s="34">
+      <c r="L54" s="49"/>
+    </row>
+    <row r="55" spans="1:12" s="52" customFormat="1">
+      <c r="A55" s="49">
+        <v>2</v>
+      </c>
+      <c r="B55" s="49">
+        <v>50</v>
+      </c>
+      <c r="C55" s="49">
+        <v>10</v>
+      </c>
+      <c r="D55" s="50">
+        <v>1</v>
+      </c>
+      <c r="E55" s="49">
+        <v>2</v>
+      </c>
+      <c r="F55" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="49">
+        <v>2</v>
+      </c>
+      <c r="J55" s="49">
+        <v>2</v>
+      </c>
+      <c r="K55" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="49"/>
+    </row>
+    <row r="56" spans="1:12" s="52" customFormat="1">
+      <c r="A56" s="49">
+        <v>2</v>
+      </c>
+      <c r="B56" s="49">
+        <v>51</v>
+      </c>
+      <c r="C56" s="49">
+        <v>10</v>
+      </c>
+      <c r="D56" s="50">
+        <v>1</v>
+      </c>
+      <c r="E56" s="49">
+        <v>3</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="49">
+        <v>2</v>
+      </c>
+      <c r="J56" s="49">
+        <v>2</v>
+      </c>
+      <c r="K56" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="49"/>
+    </row>
+    <row r="57" spans="1:12" s="38" customFormat="1">
+      <c r="A57" s="34">
+        <v>3</v>
+      </c>
+      <c r="B57" s="34">
         <v>52</v>
       </c>
-      <c r="C54" s="34">
-        <v>10</v>
-      </c>
-      <c r="D54" s="35">
-        <v>2</v>
-      </c>
-      <c r="E54" s="34">
-        <v>2</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="34">
-        <v>2</v>
-      </c>
-      <c r="J54" s="34">
-        <v>3</v>
-      </c>
-      <c r="K54" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="L54" s="34">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A55" s="34">
-        <v>3</v>
-      </c>
-      <c r="B55" s="34">
-        <v>53</v>
-      </c>
-      <c r="C55" s="34">
-        <v>4</v>
-      </c>
-      <c r="D55" s="35">
-        <v>2</v>
-      </c>
-      <c r="E55" s="34">
-        <v>1</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I55" s="34">
-        <v>2</v>
-      </c>
-      <c r="J55" s="34">
-        <v>2</v>
-      </c>
-      <c r="K55" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="34"/>
-    </row>
-    <row r="56" spans="1:12" s="38" customFormat="1" ht="30">
-      <c r="A56" s="34">
-        <v>3</v>
-      </c>
-      <c r="B56" s="34">
-        <v>54</v>
-      </c>
-      <c r="C56" s="34">
-        <v>10</v>
-      </c>
-      <c r="D56" s="35">
-        <v>2</v>
-      </c>
-      <c r="E56" s="34">
-        <v>2</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I56" s="34">
-        <v>3</v>
-      </c>
-      <c r="J56" s="34">
-        <v>2</v>
-      </c>
-      <c r="K56" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L56" s="34"/>
-    </row>
-    <row r="57" spans="1:12" s="38" customFormat="1" ht="30">
-      <c r="A57" s="34">
-        <v>3</v>
-      </c>
-      <c r="B57" s="34">
-        <v>55</v>
-      </c>
       <c r="C57" s="34">
         <v>10</v>
       </c>
@@ -20080,61 +20394,63 @@
         <v>2</v>
       </c>
       <c r="E57" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="I57" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" s="34">
-        <v>2</v>
-      </c>
-      <c r="K57" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L57" s="34"/>
-    </row>
-    <row r="58" spans="1:12" s="38" customFormat="1" ht="30">
+        <v>3</v>
+      </c>
+      <c r="K57" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A58" s="34">
         <v>3</v>
       </c>
       <c r="B58" s="34">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C58" s="34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D58" s="35">
         <v>2</v>
       </c>
       <c r="E58" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H58" s="37" t="s">
         <v>182</v>
       </c>
       <c r="I58" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" s="34">
         <v>2</v>
       </c>
-      <c r="K58" s="63" t="s">
-        <v>187</v>
+      <c r="K58" s="59" t="s">
+        <v>27</v>
       </c>
       <c r="L58" s="34"/>
     </row>
@@ -20143,7 +20459,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="34">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C59" s="34">
         <v>10</v>
@@ -20158,19 +20474,19 @@
         <v>39</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H59" s="37" t="s">
         <v>182</v>
       </c>
       <c r="I59" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" s="34">
         <v>2</v>
       </c>
-      <c r="K59" s="59" t="s">
-        <v>196</v>
+      <c r="K59" s="63" t="s">
+        <v>187</v>
       </c>
       <c r="L59" s="34"/>
     </row>
@@ -20179,7 +20495,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="34">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" s="34">
         <v>10</v>
@@ -20188,7 +20504,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="37" t="s">
         <v>39</v>
@@ -20208,16 +20524,14 @@
       <c r="K60" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="34"/>
+    </row>
+    <row r="61" spans="1:12" s="38" customFormat="1" ht="30">
+      <c r="A61" s="34">
+        <v>3</v>
+      </c>
+      <c r="B61" s="34">
         <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="38" customFormat="1">
-      <c r="A61" s="34">
-        <v>3</v>
-      </c>
-      <c r="B61" s="34">
-        <v>59</v>
       </c>
       <c r="C61" s="34">
         <v>10</v>
@@ -20234,28 +20548,26 @@
       <c r="G61" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="H61" s="36" t="s">
-        <v>195</v>
+      <c r="H61" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I61" s="34">
         <v>3</v>
       </c>
       <c r="J61" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="L61" s="34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="38" customFormat="1">
+      <c r="L61" s="34"/>
+    </row>
+    <row r="62" spans="1:12" s="38" customFormat="1" ht="30">
       <c r="A62" s="34">
         <v>3</v>
       </c>
       <c r="B62" s="34">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C62" s="34">
         <v>10</v>
@@ -20270,30 +20582,28 @@
         <v>39</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>125</v>
+        <v>183</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I62" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" s="34">
-        <v>3</v>
-      </c>
-      <c r="K62" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L62" s="34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="38" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="K62" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="L62" s="34"/>
+    </row>
+    <row r="63" spans="1:12" s="38" customFormat="1" ht="30">
       <c r="A63" s="34">
         <v>3</v>
       </c>
       <c r="B63" s="34">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C63" s="34">
         <v>10</v>
@@ -20302,7 +20612,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="37" t="s">
         <v>39</v>
@@ -20310,20 +20620,20 @@
       <c r="G63" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="H63" s="36" t="s">
-        <v>125</v>
+      <c r="H63" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I63" s="34">
         <v>3</v>
       </c>
       <c r="J63" s="34">
-        <v>3</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="L63" s="34" t="s">
-        <v>294</v>
+        <v>2</v>
+      </c>
+      <c r="K63" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L63" s="34">
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="38" customFormat="1">
@@ -20331,7 +20641,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="34">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C64" s="34">
         <v>10</v>
@@ -20340,7 +20650,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" s="37" t="s">
         <v>39</v>
@@ -20349,27 +20659,27 @@
         <v>180</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="I64" s="34">
         <v>3</v>
       </c>
       <c r="J64" s="34">
-        <v>3</v>
-      </c>
-      <c r="K64" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="L64" s="34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="38" customFormat="1" ht="30">
+        <v>1</v>
+      </c>
+      <c r="K64" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L64" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="38" customFormat="1">
       <c r="A65" s="34">
         <v>3</v>
       </c>
       <c r="B65" s="34">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C65" s="34">
         <v>10</v>
@@ -20378,34 +20688,36 @@
         <v>2</v>
       </c>
       <c r="E65" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="I65" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J65" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="L65" s="34"/>
-    </row>
-    <row r="66" spans="1:12" s="38" customFormat="1" ht="30">
+        <v>187</v>
+      </c>
+      <c r="L65" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="38" customFormat="1">
       <c r="A66" s="34">
         <v>3</v>
       </c>
       <c r="B66" s="34">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C66" s="34">
         <v>10</v>
@@ -20420,28 +20732,30 @@
         <v>39</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="H66" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="I66" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" s="34">
-        <v>2</v>
-      </c>
-      <c r="K66" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="L66" s="34"/>
-    </row>
-    <row r="67" spans="1:12" s="38" customFormat="1" ht="30">
+        <v>3</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L66" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="38" customFormat="1">
       <c r="A67" s="34">
         <v>3</v>
       </c>
       <c r="B67" s="34">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C67" s="34">
         <v>10</v>
@@ -20450,34 +20764,36 @@
         <v>2</v>
       </c>
       <c r="E67" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="I67" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J67" s="34">
-        <v>2</v>
-      </c>
-      <c r="K67" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="L67" s="34"/>
-    </row>
-    <row r="68" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="38" customFormat="1" ht="30">
       <c r="A68" s="34">
         <v>3</v>
       </c>
       <c r="B68" s="34">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C68" s="34">
         <v>10</v>
@@ -20486,7 +20802,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="37" t="s">
         <v>39</v>
@@ -20494,7 +20810,7 @@
       <c r="G68" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="37" t="s">
         <v>182</v>
       </c>
       <c r="I68" s="34">
@@ -20504,16 +20820,16 @@
         <v>2</v>
       </c>
       <c r="K68" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L68" s="34"/>
     </row>
-    <row r="69" spans="1:12" s="38" customFormat="1">
+    <row r="69" spans="1:12" s="38" customFormat="1" ht="30">
       <c r="A69" s="34">
         <v>3</v>
       </c>
       <c r="B69" s="34">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C69" s="34">
         <v>10</v>
@@ -20522,7 +20838,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="37" t="s">
         <v>39</v>
@@ -20530,26 +20846,26 @@
       <c r="G69" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="H69" s="36" t="s">
-        <v>195</v>
+      <c r="H69" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I69" s="34">
         <v>4</v>
       </c>
       <c r="J69" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" s="63" t="s">
         <v>198</v>
       </c>
       <c r="L69" s="34"/>
     </row>
-    <row r="70" spans="1:12" s="38" customFormat="1">
+    <row r="70" spans="1:12" s="38" customFormat="1" ht="30">
       <c r="A70" s="34">
         <v>3</v>
       </c>
       <c r="B70" s="34">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C70" s="34">
         <v>10</v>
@@ -20566,26 +20882,26 @@
       <c r="G70" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="H70" s="36" t="s">
-        <v>125</v>
+      <c r="H70" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I70" s="34">
         <v>4</v>
       </c>
       <c r="J70" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K70" s="63" t="s">
         <v>198</v>
       </c>
       <c r="L70" s="34"/>
     </row>
-    <row r="71" spans="1:12" s="38" customFormat="1" ht="30">
+    <row r="71" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A71" s="34">
         <v>3</v>
       </c>
       <c r="B71" s="34">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C71" s="34">
         <v>10</v>
@@ -20594,109 +20910,109 @@
         <v>2</v>
       </c>
       <c r="E71" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="H71" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" s="36" t="s">
         <v>182</v>
       </c>
       <c r="I71" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L71" s="34"/>
     </row>
-    <row r="72" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="72" spans="1:12" s="38" customFormat="1">
       <c r="A72" s="34">
         <v>3</v>
       </c>
       <c r="B72" s="34">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C72" s="34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D72" s="35">
         <v>2</v>
       </c>
       <c r="E72" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>182</v>
+        <v>192</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="I72" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" s="34">
         <v>1</v>
       </c>
       <c r="K72" s="63" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L72" s="34"/>
     </row>
-    <row r="73" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:12" s="38" customFormat="1">
       <c r="A73" s="34">
         <v>3</v>
       </c>
       <c r="B73" s="34">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D73" s="35">
         <v>2</v>
       </c>
       <c r="E73" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="I73" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" s="63" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L73" s="34"/>
     </row>
-    <row r="74" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" s="38" customFormat="1" ht="30">
       <c r="A74" s="34">
         <v>3</v>
       </c>
       <c r="B74" s="34">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D74" s="35">
         <v>2</v>
@@ -20708,19 +21024,19 @@
         <v>39</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H74" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I74" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" s="34">
         <v>1</v>
       </c>
       <c r="K74" s="63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L74" s="34"/>
     </row>
@@ -20744,13 +21060,13 @@
         <v>39</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="H75" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I75" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" s="34">
         <v>1</v>
@@ -20760,15 +21076,15 @@
       </c>
       <c r="L75" s="34"/>
     </row>
-    <row r="76" spans="1:12" s="38" customFormat="1" ht="30">
+    <row r="76" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="34">
         <v>3</v>
       </c>
       <c r="B76" s="34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" s="35">
         <v>2</v>
@@ -20780,13 +21096,13 @@
         <v>39</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="H76" s="37" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="I76" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="34">
         <v>1</v>
@@ -20796,15 +21112,15 @@
       </c>
       <c r="L76" s="34"/>
     </row>
-    <row r="77" spans="1:12" s="38" customFormat="1" ht="16.5" customHeight="1">
+    <row r="77" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="34">
         <v>3</v>
       </c>
       <c r="B77" s="34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" s="35">
         <v>2</v>
@@ -20816,13 +21132,13 @@
         <v>39</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H77" s="36" t="s">
         <v>195</v>
       </c>
       <c r="I77" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" s="34">
         <v>1</v>
@@ -20837,10 +21153,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" s="35">
         <v>2</v>
@@ -20852,13 +21168,13 @@
         <v>39</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H78" s="36" t="s">
         <v>195</v>
       </c>
       <c r="I78" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78" s="34">
         <v>1</v>
@@ -20868,7 +21184,7 @@
       </c>
       <c r="L78" s="34"/>
     </row>
-    <row r="79" spans="1:12" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="79" spans="1:12" s="38" customFormat="1" ht="30">
       <c r="A79" s="34">
         <v>3</v>
       </c>
@@ -20888,13 +21204,13 @@
         <v>39</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="H79" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="H79" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="I79" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" s="34">
         <v>1</v>
@@ -20904,15 +21220,15 @@
       </c>
       <c r="L79" s="34"/>
     </row>
-    <row r="80" spans="1:12" s="38" customFormat="1">
+    <row r="80" spans="1:12" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A80" s="34">
         <v>3</v>
       </c>
       <c r="B80" s="34">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D80" s="35">
         <v>2</v>
@@ -20924,31 +21240,31 @@
         <v>39</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="H80" s="38" t="s">
-        <v>125</v>
+        <v>183</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="I80" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" s="34">
-        <v>2</v>
-      </c>
-      <c r="K80" s="36" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="K80" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="L80" s="34"/>
     </row>
-    <row r="81" spans="1:12" s="38" customFormat="1">
+    <row r="81" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A81" s="34">
         <v>3</v>
       </c>
       <c r="B81" s="34">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D81" s="35">
         <v>2</v>
@@ -20960,31 +21276,31 @@
         <v>39</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="H81" s="38" t="s">
-        <v>125</v>
+        <v>180</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="I81" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" s="34">
-        <v>3</v>
-      </c>
-      <c r="K81" s="36" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="K81" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="L81" s="34"/>
     </row>
-    <row r="82" spans="1:12" s="38" customFormat="1">
+    <row r="82" spans="1:12" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A82" s="34">
         <v>3</v>
       </c>
       <c r="B82" s="34">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D82" s="35">
         <v>2</v>
@@ -20996,19 +21312,19 @@
         <v>39</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="H82" s="38" t="s">
-        <v>125</v>
+        <v>192</v>
+      </c>
+      <c r="H82" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="I82" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82" s="34">
-        <v>3</v>
-      </c>
-      <c r="K82" s="36" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="K82" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="L82" s="34"/>
     </row>
@@ -21017,7 +21333,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="34">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="34">
         <v>10</v>
@@ -21032,16 +21348,16 @@
         <v>39</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="H83" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="I83" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83" s="36" t="s">
         <v>27</v>
@@ -21053,7 +21369,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="34">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" s="34">
         <v>10</v>
@@ -21062,7 +21378,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>39</v>
@@ -21089,7 +21405,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="34">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C85" s="34">
         <v>10</v>
@@ -21098,7 +21414,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="37" t="s">
         <v>39</v>
@@ -21120,126 +21436,120 @@
       </c>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="1:12" s="45" customFormat="1">
-      <c r="A86" s="42">
-        <v>4</v>
-      </c>
-      <c r="B86" s="42">
-        <v>77</v>
-      </c>
-      <c r="C86" s="42">
-        <v>10</v>
-      </c>
-      <c r="D86" s="43">
-        <v>1</v>
-      </c>
-      <c r="E86" s="42">
-        <v>2</v>
-      </c>
-      <c r="F86" s="46" t="s">
+    <row r="86" spans="1:12" s="38" customFormat="1">
+      <c r="A86" s="34">
+        <v>3</v>
+      </c>
+      <c r="B86" s="34">
+        <v>74</v>
+      </c>
+      <c r="C86" s="34">
+        <v>10</v>
+      </c>
+      <c r="D86" s="35">
+        <v>2</v>
+      </c>
+      <c r="E86" s="34">
+        <v>1</v>
+      </c>
+      <c r="F86" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G86" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="H86" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="I86" s="42">
-        <v>5</v>
-      </c>
-      <c r="J86" s="42">
-        <v>1</v>
-      </c>
-      <c r="K86" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="L86" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="45" customFormat="1">
-      <c r="A87" s="42">
-        <v>4</v>
-      </c>
-      <c r="B87" s="42">
-        <v>78</v>
-      </c>
-      <c r="C87" s="42">
-        <v>10</v>
-      </c>
-      <c r="D87" s="43">
-        <v>1</v>
-      </c>
-      <c r="E87" s="42">
-        <v>2</v>
-      </c>
-      <c r="F87" s="46" t="s">
+      <c r="G86" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H86" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="I86" s="34">
+        <v>2</v>
+      </c>
+      <c r="J86" s="34">
+        <v>1</v>
+      </c>
+      <c r="K86" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" s="34"/>
+    </row>
+    <row r="87" spans="1:12" s="38" customFormat="1">
+      <c r="A87" s="34">
+        <v>3</v>
+      </c>
+      <c r="B87" s="34">
+        <v>75</v>
+      </c>
+      <c r="C87" s="34">
+        <v>10</v>
+      </c>
+      <c r="D87" s="35">
+        <v>2</v>
+      </c>
+      <c r="E87" s="34">
+        <v>2</v>
+      </c>
+      <c r="F87" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G87" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="H87" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="I87" s="42">
-        <v>5</v>
-      </c>
-      <c r="J87" s="42">
-        <v>1</v>
-      </c>
-      <c r="K87" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="L87" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="45" customFormat="1">
-      <c r="A88" s="42">
-        <v>4</v>
-      </c>
-      <c r="B88" s="42">
-        <v>79</v>
-      </c>
-      <c r="C88" s="42">
-        <v>10</v>
-      </c>
-      <c r="D88" s="43">
-        <v>1</v>
-      </c>
-      <c r="E88" s="42">
-        <v>1</v>
-      </c>
-      <c r="F88" s="46" t="s">
+      <c r="G87" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I87" s="34">
+        <v>4</v>
+      </c>
+      <c r="J87" s="34">
+        <v>3</v>
+      </c>
+      <c r="K87" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" s="34"/>
+    </row>
+    <row r="88" spans="1:12" s="38" customFormat="1">
+      <c r="A88" s="34">
+        <v>3</v>
+      </c>
+      <c r="B88" s="34">
+        <v>76</v>
+      </c>
+      <c r="C88" s="34">
+        <v>10</v>
+      </c>
+      <c r="D88" s="35">
+        <v>2</v>
+      </c>
+      <c r="E88" s="34">
+        <v>2</v>
+      </c>
+      <c r="F88" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G88" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="H88" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="I88" s="42">
-        <v>5</v>
-      </c>
-      <c r="J88" s="42">
-        <v>2</v>
-      </c>
-      <c r="K88" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="L88" s="42">
-        <v>5</v>
-      </c>
+      <c r="G88" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" s="34">
+        <v>2</v>
+      </c>
+      <c r="J88" s="34">
+        <v>3</v>
+      </c>
+      <c r="K88" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88" s="34"/>
     </row>
     <row r="89" spans="1:12" s="45" customFormat="1">
       <c r="A89" s="42">
         <v>4</v>
       </c>
       <c r="B89" s="42">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C89" s="42">
         <v>10</v>
@@ -21257,19 +21567,19 @@
         <v>245</v>
       </c>
       <c r="H89" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I89" s="42">
         <v>5</v>
       </c>
       <c r="J89" s="42">
-        <v>2</v>
-      </c>
-      <c r="K89" s="60" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="K89" s="44" t="s">
+        <v>238</v>
       </c>
       <c r="L89" s="42">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="45" customFormat="1">
@@ -21277,7 +21587,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="42">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C90" s="42">
         <v>10</v>
@@ -21286,7 +21596,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="46" t="s">
         <v>39</v>
@@ -21307,7 +21617,7 @@
         <v>225</v>
       </c>
       <c r="L90" s="42">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="45" customFormat="1">
@@ -21315,7 +21625,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="42">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C91" s="42">
         <v>10</v>
@@ -21342,10 +21652,10 @@
         <v>2</v>
       </c>
       <c r="K91" s="44" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="L91" s="42">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:12" s="45" customFormat="1">
@@ -21353,7 +21663,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="42">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C92" s="42">
         <v>10</v>
@@ -21379,11 +21689,11 @@
       <c r="J92" s="42">
         <v>2</v>
       </c>
-      <c r="K92" s="44" t="s">
-        <v>225</v>
+      <c r="K92" s="60" t="s">
+        <v>243</v>
       </c>
       <c r="L92" s="42">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:12" s="45" customFormat="1">
@@ -21391,7 +21701,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="42">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C93" s="42">
         <v>10</v>
@@ -21400,7 +21710,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="46" t="s">
         <v>39</v>
@@ -21409,122 +21719,170 @@
         <v>245</v>
       </c>
       <c r="H93" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I93" s="42">
         <v>5</v>
       </c>
       <c r="J93" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" s="44" t="s">
         <v>225</v>
       </c>
       <c r="L93" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="45" customFormat="1">
+      <c r="A94" s="42">
+        <v>4</v>
+      </c>
+      <c r="B94" s="42">
+        <v>81</v>
+      </c>
+      <c r="C94" s="42">
+        <v>10</v>
+      </c>
+      <c r="D94" s="43">
+        <v>1</v>
+      </c>
+      <c r="E94" s="42">
+        <v>1</v>
+      </c>
+      <c r="F94" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="H94" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="I94" s="42">
+        <v>5</v>
+      </c>
+      <c r="J94" s="42">
+        <v>2</v>
+      </c>
+      <c r="K94" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="L94" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="45" customFormat="1">
+      <c r="A95" s="42">
+        <v>4</v>
+      </c>
+      <c r="B95" s="42">
         <v>82</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" s="38" customFormat="1">
-      <c r="A94" s="34">
-        <v>3</v>
-      </c>
-      <c r="B94" s="34">
+      <c r="C95" s="42">
+        <v>10</v>
+      </c>
+      <c r="D95" s="43">
+        <v>1</v>
+      </c>
+      <c r="E95" s="42">
+        <v>2</v>
+      </c>
+      <c r="F95" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="H95" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="I95" s="42">
+        <v>5</v>
+      </c>
+      <c r="J95" s="42">
+        <v>2</v>
+      </c>
+      <c r="K95" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="L95" s="42">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="45" customFormat="1">
+      <c r="A96" s="42">
+        <v>4</v>
+      </c>
+      <c r="B96" s="42">
+        <v>83</v>
+      </c>
+      <c r="C96" s="42">
+        <v>10</v>
+      </c>
+      <c r="D96" s="43">
+        <v>1</v>
+      </c>
+      <c r="E96" s="42">
+        <v>2</v>
+      </c>
+      <c r="F96" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="I96" s="42">
+        <v>5</v>
+      </c>
+      <c r="J96" s="42">
+        <v>2</v>
+      </c>
+      <c r="K96" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="L96" s="42">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="38" customFormat="1">
+      <c r="A97" s="34">
+        <v>3</v>
+      </c>
+      <c r="B97" s="34">
         <v>84</v>
       </c>
-      <c r="C94" s="34">
-        <v>10</v>
-      </c>
-      <c r="D94" s="35">
-        <v>2</v>
-      </c>
-      <c r="E94" s="34">
-        <v>1</v>
-      </c>
-      <c r="F94" s="37" t="s">
+      <c r="C97" s="34">
+        <v>10</v>
+      </c>
+      <c r="D97" s="35">
+        <v>2</v>
+      </c>
+      <c r="E97" s="34">
+        <v>1</v>
+      </c>
+      <c r="F97" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G94" s="36" t="s">
+      <c r="G97" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="H94" s="38" t="s">
+      <c r="H97" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I94" s="34">
-        <v>1</v>
-      </c>
-      <c r="J94" s="34">
-        <v>2</v>
-      </c>
-      <c r="K94" s="36" t="s">
+      <c r="I97" s="34">
+        <v>1</v>
+      </c>
+      <c r="J97" s="34">
+        <v>2</v>
+      </c>
+      <c r="K97" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L94" s="34"/>
-    </row>
-    <row r="95" spans="1:12" s="13" customFormat="1" ht="31.5">
-      <c r="A95" s="9">
-        <v>1</v>
-      </c>
-      <c r="B95" s="9">
-        <v>85</v>
-      </c>
-      <c r="C95" s="9">
-        <v>5</v>
-      </c>
-      <c r="D95" s="10">
-        <v>2</v>
-      </c>
-      <c r="E95" s="9">
-        <v>1</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="H95" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I95" s="86">
-        <v>1</v>
-      </c>
-      <c r="J95" s="87">
-        <v>1</v>
-      </c>
-      <c r="K95" s="73"/>
-    </row>
-    <row r="96" spans="1:12" s="13" customFormat="1" ht="31.5">
-      <c r="A96" s="9">
-        <v>1</v>
-      </c>
-      <c r="B96" s="9">
-        <v>86</v>
-      </c>
-      <c r="C96" s="9">
-        <v>5</v>
-      </c>
-      <c r="D96" s="10">
-        <v>2</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="H96" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I96" s="86">
-        <v>1</v>
-      </c>
-      <c r="J96" s="87">
-        <v>1</v>
-      </c>
-      <c r="K96" s="73"/>
+      <c r="L97" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2895" windowWidth="15600" windowHeight="5190" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,18 @@
     <sheet name="numbers" sheetId="3" r:id="rId3"/>
     <sheet name="equations" sheetId="4" r:id="rId4"/>
     <sheet name="measures" sheetId="5" r:id="rId5"/>
+    <sheet name="fract_2" sheetId="6" r:id="rId6"/>
+    <sheet name="geom_2" sheetId="7" r:id="rId7"/>
+    <sheet name="numb_2" sheetId="8" r:id="rId8"/>
+    <sheet name="algebra" sheetId="9" r:id="rId9"/>
+    <sheet name="data" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="358">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1096,6 +1101,115 @@
   </si>
   <si>
     <t>dan, sedmica, mesec</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Dopuna niza članovima koji nedostaju</t>
+  </si>
+  <si>
+    <t>Tekstualni zadatak - temperatura</t>
+  </si>
+  <si>
+    <t>Poredjenje  brojeva</t>
+  </si>
+  <si>
+    <t>Razlika</t>
+  </si>
+  <si>
+    <t>Zajednički činioci dva broja</t>
+  </si>
+  <si>
+    <t>Deljivost sa 3, 6 i  9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Celi brojevi</t>
+  </si>
+  <si>
+    <t>Prikaz na brojevnoj pravoj, upoređivanje</t>
+  </si>
+  <si>
+    <t>numbers 109</t>
+  </si>
+  <si>
+    <t>Pojam, suprotan broj, apsolutna vrednost</t>
+  </si>
+  <si>
+    <t>Zbir/razlika - tabela</t>
+  </si>
+  <si>
+    <t>Magični kvadrat</t>
+  </si>
+  <si>
+    <t>Deljivost brojeva</t>
+  </si>
+  <si>
+    <t>Svojstva deljivosti</t>
+  </si>
+  <si>
+    <t>Svi činioci  jednog broja</t>
+  </si>
+  <si>
+    <t>Deljivost sa 3 i 9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEO                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theme</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pojam, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">brojevna prava </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Proširivanje, skraćivanje i upoređivanje            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Računske operacije    </t>
+  </si>
+  <si>
+    <t>Mešoviti broj</t>
+  </si>
+  <si>
+    <t>Skraćivanje</t>
+  </si>
+  <si>
+    <t>Upoređivanje</t>
+  </si>
+  <si>
+    <t>Proširivanje</t>
+  </si>
+  <si>
+    <t>fract.20</t>
+  </si>
+  <si>
+    <t>fract.38</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1509,6 +1623,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,10 +1646,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF99CCFF"/>
@@ -4178,13 +4307,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7494,9 +7688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K151" sqref="J151:K151"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16775,7 +16969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18500,7 +18694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22600,4 +22794,1302 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="55" customFormat="1" ht="30">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="10">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A5" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10">
+        <v>5</v>
+      </c>
+      <c r="K10" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10">
+        <v>5</v>
+      </c>
+      <c r="K11" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="13" customFormat="1">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" s="10">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10">
+        <v>5</v>
+      </c>
+      <c r="K12" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I13" s="10">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>5</v>
+      </c>
+      <c r="K13" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10">
+        <v>5</v>
+      </c>
+      <c r="K14" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4</v>
+      </c>
+      <c r="J15" s="10">
+        <v>5</v>
+      </c>
+      <c r="K15" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="13" customFormat="1">
+      <c r="A16" s="9">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10">
+        <v>5</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="13" customFormat="1">
+      <c r="A17" s="9">
+        <v>5</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I17" s="10">
+        <v>4</v>
+      </c>
+      <c r="J17" s="10">
+        <v>5</v>
+      </c>
+      <c r="K17" s="95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="13" customFormat="1">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I18" s="10">
+        <v>4</v>
+      </c>
+      <c r="J18" s="10">
+        <v>5</v>
+      </c>
+      <c r="K18" s="95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="91" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A2" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="49">
+        <v>1</v>
+      </c>
+      <c r="C2" s="49">
+        <v>8</v>
+      </c>
+      <c r="D2" s="50">
+        <v>1</v>
+      </c>
+      <c r="E2" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" s="50">
+        <v>1</v>
+      </c>
+      <c r="J2" s="50">
+        <v>2</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A3" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="49">
+        <v>2</v>
+      </c>
+      <c r="C3" s="49">
+        <v>8</v>
+      </c>
+      <c r="D3" s="50">
+        <v>1</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="I3" s="49">
+        <v>1</v>
+      </c>
+      <c r="J3" s="49">
+        <v>2</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A4" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="49">
+        <v>3</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>2</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="49">
+        <v>1</v>
+      </c>
+      <c r="J4" s="49">
+        <v>1</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="49"/>
+    </row>
+    <row r="5" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A5" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="49">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49">
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
+        <v>1</v>
+      </c>
+      <c r="E5" s="49">
+        <v>2</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1</v>
+      </c>
+      <c r="J5" s="49">
+        <v>2</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A6" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="49">
+        <v>4</v>
+      </c>
+      <c r="C6" s="49">
+        <v>10</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="I6" s="49">
+        <v>1</v>
+      </c>
+      <c r="J6" s="49">
+        <v>2</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:13" s="52" customFormat="1">
+      <c r="A7" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="49">
+        <v>5</v>
+      </c>
+      <c r="C7" s="49">
+        <v>10</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="49">
+        <v>1</v>
+      </c>
+      <c r="J7" s="49">
+        <v>3</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A8" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="49">
+        <v>6</v>
+      </c>
+      <c r="C8" s="49">
+        <v>10</v>
+      </c>
+      <c r="D8" s="50">
+        <v>1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="49">
+        <v>1</v>
+      </c>
+      <c r="J8" s="49">
+        <v>2</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="49"/>
+    </row>
+    <row r="9" spans="1:13" s="52" customFormat="1">
+      <c r="A9" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="49">
+        <v>7</v>
+      </c>
+      <c r="C9" s="49">
+        <v>10</v>
+      </c>
+      <c r="D9" s="50">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49">
+        <v>2</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="49">
+        <v>1</v>
+      </c>
+      <c r="J9" s="49">
+        <v>3</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="L9" s="49"/>
+    </row>
+    <row r="10" spans="1:13" s="52" customFormat="1">
+      <c r="A10" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="49">
+        <v>8</v>
+      </c>
+      <c r="C10" s="49">
+        <v>5</v>
+      </c>
+      <c r="D10" s="50">
+        <v>1</v>
+      </c>
+      <c r="E10" s="49">
+        <v>3</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="49">
+        <v>1</v>
+      </c>
+      <c r="J10" s="49">
+        <v>3</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1">
+      <c r="A12" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1">
+      <c r="A13" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="55" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="363">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1210,6 +1210,21 @@
   </si>
   <si>
     <t>fract.38</t>
+  </si>
+  <si>
+    <t>Prosti i složeni brojevi</t>
+  </si>
+  <si>
+    <t>Rastavljanje na proste činioce</t>
+  </si>
+  <si>
+    <t>Erastotenovo sito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivice - površina  </t>
+  </si>
+  <si>
+    <t>Sabiranje I oduzimanje</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1637,6 +1652,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1947,7 +1968,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -4311,7 +4332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4376,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -7689,7 +7710,7 @@
   <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -18690,11 +18711,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22790,6 +22811,120 @@
       </c>
       <c r="L112" s="34"/>
     </row>
+    <row r="113" spans="1:12" s="45" customFormat="1">
+      <c r="A113" s="42">
+        <v>4</v>
+      </c>
+      <c r="B113" s="42">
+        <v>100</v>
+      </c>
+      <c r="C113" s="42">
+        <v>10</v>
+      </c>
+      <c r="D113" s="43">
+        <v>1</v>
+      </c>
+      <c r="E113" s="42">
+        <v>3</v>
+      </c>
+      <c r="F113" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H113" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="I113" s="42">
+        <v>3</v>
+      </c>
+      <c r="J113" s="42">
+        <v>2</v>
+      </c>
+      <c r="K113" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="L113" s="42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="45" customFormat="1">
+      <c r="A114" s="42">
+        <v>4</v>
+      </c>
+      <c r="B114" s="42">
+        <v>101</v>
+      </c>
+      <c r="C114" s="42">
+        <v>10</v>
+      </c>
+      <c r="D114" s="43">
+        <v>1</v>
+      </c>
+      <c r="E114" s="42">
+        <v>3</v>
+      </c>
+      <c r="F114" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H114" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="I114" s="42">
+        <v>3</v>
+      </c>
+      <c r="J114" s="42">
+        <v>2</v>
+      </c>
+      <c r="K114" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="L114" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="45" customFormat="1">
+      <c r="A115" s="42">
+        <v>4</v>
+      </c>
+      <c r="B115" s="42">
+        <v>102</v>
+      </c>
+      <c r="C115" s="42">
+        <v>10</v>
+      </c>
+      <c r="D115" s="43">
+        <v>1</v>
+      </c>
+      <c r="E115" s="42">
+        <v>2</v>
+      </c>
+      <c r="F115" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H115" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="I115" s="42">
+        <v>5</v>
+      </c>
+      <c r="J115" s="42">
+        <v>2</v>
+      </c>
+      <c r="K115" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="L115" s="42">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22798,10 +22933,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22811,7 +22946,7 @@
     <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="55" customFormat="1" ht="30">
@@ -22957,7 +23092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" ht="28.5" customHeight="1">
+    <row r="5" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -22989,7 +23124,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
@@ -23131,6 +23266,9 @@
       <c r="K9" s="12" t="s">
         <v>353</v>
       </c>
+      <c r="L9" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="13" customFormat="1">
       <c r="A10" s="9">
@@ -23455,6 +23593,41 @@
       </c>
       <c r="K18" s="95" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="13" customFormat="1">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4</v>
+      </c>
+      <c r="J19" s="10">
+        <v>5</v>
+      </c>
+      <c r="K19" s="95" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -23528,10 +23701,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24021,6 +24194,42 @@
         <v>336</v>
       </c>
       <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" s="98" t="s">
+        <v>359</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="385">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1118,9 +1118,6 @@
     <t>Razlika</t>
   </si>
   <si>
-    <t>Zajednički činioci dva broja</t>
-  </si>
-  <si>
     <t>Deljivost sa 3, 6 i  9</t>
   </si>
   <si>
@@ -1149,12 +1146,6 @@
   </si>
   <si>
     <t>Svojstva deljivosti</t>
-  </si>
-  <si>
-    <t>Svi činioci  jednog broja</t>
-  </si>
-  <si>
-    <t>Deljivost sa 3 i 9</t>
   </si>
   <si>
     <r>
@@ -1215,16 +1206,91 @@
     <t>Prosti i složeni brojevi</t>
   </si>
   <si>
+    <t>Erastotenovo sito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivice - površina  </t>
+  </si>
+  <si>
+    <t>Sabiranje I oduzimanje</t>
+  </si>
+  <si>
+    <t>Deljenje i   sabiranje/oduzimanje</t>
+  </si>
+  <si>
+    <t>Množenje i sabiranje/oduzimanje</t>
+  </si>
+  <si>
+    <t>Deljenje i   sabiranje</t>
+  </si>
+  <si>
+    <t>Množenje i   sabiranje</t>
+  </si>
+  <si>
+    <t>numbers 163</t>
+  </si>
+  <si>
+    <t>Svi delioci  jednog broja</t>
+  </si>
+  <si>
+    <t>Zajednički delilac i sadržalac</t>
+  </si>
+  <si>
+    <t>Zajednički delioci dva broja</t>
+  </si>
+  <si>
+    <t>numbers 121</t>
+  </si>
+  <si>
+    <t>Svi sadržaoci  jednog broja</t>
+  </si>
+  <si>
+    <t>Brojevni izrazi</t>
+  </si>
+  <si>
+    <t>numbers 208</t>
+  </si>
+  <si>
+    <t>Deljenje sa ostatkom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deljivost sa 2, 3, 4, 5, 9, 10   </t>
+  </si>
+  <si>
+    <t>Pravila</t>
+  </si>
+  <si>
+    <t>geometry 28</t>
+  </si>
+  <si>
+    <t>equations 38</t>
+  </si>
+  <si>
+    <t>Množenje sa 1, 2, 5, 10</t>
+  </si>
+  <si>
+    <t>Deljivost sa 2, 4, 5 i  10</t>
+  </si>
+  <si>
     <t>Rastavljanje na proste činioce</t>
   </si>
   <si>
-    <t>Erastotenovo sito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivice - površina  </t>
-  </si>
-  <si>
-    <t>Sabiranje I oduzimanje</t>
+    <t>Najveći zajednički delilac dva broja</t>
+  </si>
+  <si>
+    <t>Najveći zajednički delilac tri broja</t>
+  </si>
+  <si>
+    <t>Deljivost sa 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najmanji zajednički sadržalac </t>
+  </si>
+  <si>
+    <t>Najmanji zajednički sadržalac dva broja</t>
+  </si>
+  <si>
+    <t>Najmanji zajednički sadržalac tri broja</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1653,11 +1719,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,8 +1734,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFCCFFFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCCC"/>
@@ -4397,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -7707,11 +7774,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16974,6 +17041,120 @@
         <v>56</v>
       </c>
       <c r="L251" s="42"/>
+    </row>
+    <row r="252" spans="1:12" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A252" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B252" s="42">
+        <v>238</v>
+      </c>
+      <c r="C252" s="42">
+        <v>10</v>
+      </c>
+      <c r="D252" s="43">
+        <v>1</v>
+      </c>
+      <c r="E252" s="42">
+        <v>2</v>
+      </c>
+      <c r="F252" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G252" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H252" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I252" s="43">
+        <v>2</v>
+      </c>
+      <c r="J252" s="43">
+        <v>4</v>
+      </c>
+      <c r="K252" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L252" s="42">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A253" s="32">
+        <v>2</v>
+      </c>
+      <c r="B253" s="15">
+        <v>239</v>
+      </c>
+      <c r="C253" s="15">
+        <v>10</v>
+      </c>
+      <c r="D253" s="16">
+        <v>2</v>
+      </c>
+      <c r="E253" s="15">
+        <v>1</v>
+      </c>
+      <c r="F253" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G253" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H253" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I253" s="15">
+        <v>2</v>
+      </c>
+      <c r="J253" s="15">
+        <v>4</v>
+      </c>
+      <c r="K253" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="L253" s="15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" s="45" customFormat="1">
+      <c r="A254" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B254" s="42">
+        <v>240</v>
+      </c>
+      <c r="C254" s="42">
+        <v>10</v>
+      </c>
+      <c r="D254" s="43">
+        <v>1</v>
+      </c>
+      <c r="E254" s="42">
+        <v>3</v>
+      </c>
+      <c r="F254" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G254" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H254" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I254" s="42">
+        <v>3</v>
+      </c>
+      <c r="J254" s="42">
+        <v>1</v>
+      </c>
+      <c r="K254" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L254" s="42" t="s">
+        <v>375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18713,9 +18894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L115" sqref="L115"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22881,7 +23062,7 @@
         <v>2</v>
       </c>
       <c r="K114" s="60" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L114" s="42">
         <v>10</v>
@@ -22935,7 +23116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -22966,7 +23147,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>272</v>
@@ -23010,16 +23191,16 @@
         <v>40</v>
       </c>
       <c r="H2" s="95" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="10">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="I2" s="10">
-        <v>4</v>
-      </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="27.75" customHeight="1">
@@ -23045,16 +23226,16 @@
         <v>40</v>
       </c>
       <c r="H3" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="I3" s="10">
-        <v>4</v>
-      </c>
-      <c r="J3" s="10">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="13" customFormat="1">
@@ -23080,7 +23261,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I4" s="10">
         <v>4</v>
@@ -23115,7 +23296,7 @@
         <v>40</v>
       </c>
       <c r="H5" s="96" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I5" s="10">
         <v>4</v>
@@ -23124,7 +23305,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
@@ -23150,7 +23331,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="96" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I6" s="10">
         <v>4</v>
@@ -23159,7 +23340,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
@@ -23185,7 +23366,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="96" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I7" s="10">
         <v>4</v>
@@ -23194,7 +23375,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
@@ -23220,7 +23401,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="96" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I8" s="10">
         <v>4</v>
@@ -23229,7 +23410,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="13" customFormat="1" ht="27" customHeight="1">
@@ -23255,16 +23436,16 @@
         <v>40</v>
       </c>
       <c r="H9" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10">
-        <v>2</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>353</v>
       </c>
       <c r="L9" s="9">
         <v>7</v>
@@ -23293,7 +23474,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I10" s="10">
         <v>4</v>
@@ -23305,7 +23486,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="13" customFormat="1">
@@ -23331,7 +23512,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I11" s="10">
         <v>4</v>
@@ -23343,7 +23524,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="13" customFormat="1">
@@ -23369,7 +23550,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I12" s="10">
         <v>4</v>
@@ -23405,7 +23586,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I13" s="10">
         <v>4</v>
@@ -23441,7 +23622,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I14" s="10">
         <v>4</v>
@@ -23477,7 +23658,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I15" s="10">
         <v>4</v>
@@ -23513,7 +23694,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I16" s="10">
         <v>4</v>
@@ -23548,7 +23729,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I17" s="10">
         <v>4</v>
@@ -23583,7 +23764,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I18" s="10">
         <v>4</v>
@@ -23618,7 +23799,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I19" s="10">
         <v>4</v>
@@ -23627,7 +23808,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="95" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -23701,10 +23882,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23718,7 +23899,7 @@
     <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23763,7 +23944,7 @@
     </row>
     <row r="2" spans="1:13" s="52" customFormat="1" ht="30">
       <c r="A2" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="49">
         <v>1</v>
@@ -23781,10 +23962,10 @@
         <v>178</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="70" t="s">
         <v>338</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>339</v>
       </c>
       <c r="I2" s="50">
         <v>1</v>
@@ -23796,12 +23977,12 @@
         <v>20</v>
       </c>
       <c r="L2" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="52" customFormat="1" ht="30">
       <c r="A3" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="49">
         <v>2</v>
@@ -23819,10 +24000,10 @@
         <v>178</v>
       </c>
       <c r="G3" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>338</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>339</v>
       </c>
       <c r="I3" s="49">
         <v>1</v>
@@ -23837,7 +24018,7 @@
     </row>
     <row r="4" spans="1:13" s="52" customFormat="1" ht="30">
       <c r="A4" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="49">
         <v>3</v>
@@ -23855,10 +24036,10 @@
         <v>178</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H4" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I4" s="49">
         <v>1</v>
@@ -23873,7 +24054,7 @@
     </row>
     <row r="5" spans="1:13" s="52" customFormat="1" ht="30">
       <c r="A5" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="49">
         <v>3</v>
@@ -23891,10 +24072,10 @@
         <v>178</v>
       </c>
       <c r="G5" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="70" t="s">
         <v>338</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>339</v>
       </c>
       <c r="I5" s="49">
         <v>1</v>
@@ -23909,28 +24090,28 @@
     </row>
     <row r="6" spans="1:13" s="52" customFormat="1" ht="30">
       <c r="A6" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="49">
+        <v>4</v>
+      </c>
+      <c r="C6" s="49">
+        <v>10</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="49">
-        <v>4</v>
-      </c>
-      <c r="C6" s="49">
-        <v>10</v>
-      </c>
-      <c r="D6" s="50">
-        <v>1</v>
-      </c>
-      <c r="E6" s="49">
-        <v>1</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="H6" s="70" t="s">
         <v>338</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>339</v>
       </c>
       <c r="I6" s="49">
         <v>1</v>
@@ -23945,7 +24126,7 @@
     </row>
     <row r="7" spans="1:13" s="52" customFormat="1">
       <c r="A7" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" s="49">
         <v>5</v>
@@ -23963,7 +24144,7 @@
         <v>178</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H7" s="52" t="s">
         <v>125</v>
@@ -23981,7 +24162,7 @@
     </row>
     <row r="8" spans="1:13" s="52" customFormat="1" ht="30">
       <c r="A8" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="49">
         <v>6</v>
@@ -23999,10 +24180,10 @@
         <v>178</v>
       </c>
       <c r="G8" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" s="70" t="s">
         <v>338</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>339</v>
       </c>
       <c r="I8" s="49">
         <v>1</v>
@@ -24017,7 +24198,7 @@
     </row>
     <row r="9" spans="1:13" s="52" customFormat="1">
       <c r="A9" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="49">
         <v>7</v>
@@ -24035,7 +24216,7 @@
         <v>178</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>125</v>
@@ -24047,13 +24228,13 @@
         <v>3</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:13" s="52" customFormat="1">
       <c r="A10" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="49">
         <v>8</v>
@@ -24071,7 +24252,7 @@
         <v>178</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H10" s="52" t="s">
         <v>125</v>
@@ -24083,7 +24264,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L10" s="49"/>
     </row>
@@ -24101,17 +24282,17 @@
         <v>1</v>
       </c>
       <c r="E11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>345</v>
-      </c>
       <c r="I11" s="10">
         <v>1</v>
       </c>
@@ -24119,7 +24300,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="L11" s="9"/>
     </row>
@@ -24134,28 +24315,28 @@
         <v>10</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>365</v>
       </c>
       <c r="I12" s="9">
         <v>1</v>
       </c>
       <c r="J12" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -24173,29 +24354,29 @@
         <v>1</v>
       </c>
       <c r="E13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="I13" s="10">
         <v>1</v>
       </c>
       <c r="J13" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>330</v>
       </c>
@@ -24214,26 +24395,707 @@
       <c r="F14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="97" t="s">
-        <v>358</v>
+      <c r="G14" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="H14" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1">
+      <c r="A15" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="L14" s="9"/>
+      <c r="L17" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L19" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9">
+        <v>10</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <v>2</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="13" customFormat="1">
+      <c r="A22" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <v>5</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="L22" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="13" customFormat="1">
+      <c r="A23" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9">
+        <v>10</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="13" customFormat="1">
+      <c r="A25" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>3</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L25" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H26" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>4</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" s="13" customFormat="1">
+      <c r="A27" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>5</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" s="13" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <v>5</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="L28" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H29" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10">
+        <v>4</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="L29" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="9">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>5</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="13" customFormat="1">
+      <c r="A31" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>3</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>5</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="L31" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="9">
+        <v>30</v>
+      </c>
+      <c r="C32" s="9">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>3</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H32" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10">
+        <v>4</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L32" s="9">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="395">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1291,6 +1291,36 @@
   </si>
   <si>
     <t>Najmanji zajednički sadržalac tri broja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekstualni zadatak </t>
+  </si>
+  <si>
+    <t>Svi  dvocifreni sadržaoci  jednog broja</t>
+  </si>
+  <si>
+    <t>Tekstualni zadatak - najveći delilac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekstualni zadatak -najmanji  sadržalac </t>
+  </si>
+  <si>
+    <t>Najmanji  sadržalac - nepoznati činilac</t>
+  </si>
+  <si>
+    <t>Skupovi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Različiti zapisi skupa </t>
+  </si>
+  <si>
+    <t>Složena figura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jednaki skupovi, podskup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broj elemenata skupa </t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1725,6 +1755,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4465,8 +4501,8 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4477,7 +4513,7 @@
     <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32" style="2" customWidth="1"/>
     <col min="9" max="10" width="7.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
@@ -18892,11 +18928,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23104,6 +23140,82 @@
       </c>
       <c r="L115" s="42">
         <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="38" customFormat="1">
+      <c r="A116" s="34">
+        <v>3</v>
+      </c>
+      <c r="B116" s="34">
+        <v>103</v>
+      </c>
+      <c r="C116" s="34">
+        <v>8</v>
+      </c>
+      <c r="D116" s="35">
+        <v>2</v>
+      </c>
+      <c r="E116" s="34">
+        <v>2</v>
+      </c>
+      <c r="F116" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="H116" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I116" s="34">
+        <v>1</v>
+      </c>
+      <c r="J116" s="34">
+        <v>2</v>
+      </c>
+      <c r="K116" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L116" s="34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="45" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A117" s="42">
+        <v>4</v>
+      </c>
+      <c r="B117" s="42">
+        <v>104</v>
+      </c>
+      <c r="C117" s="42">
+        <v>10</v>
+      </c>
+      <c r="D117" s="43">
+        <v>1</v>
+      </c>
+      <c r="E117" s="42">
+        <v>2</v>
+      </c>
+      <c r="F117" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I117" s="43">
+        <v>2</v>
+      </c>
+      <c r="J117" s="42">
+        <v>2</v>
+      </c>
+      <c r="K117" s="100" t="s">
+        <v>392</v>
+      </c>
+      <c r="L117" s="101">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -23882,10 +23994,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24878,7 +24990,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>91</v>
@@ -24914,7 +25026,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>91</v>
@@ -24990,7 +25102,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>91</v>
@@ -25028,7 +25140,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>91</v>
@@ -25088,6 +25200,458 @@
       </c>
       <c r="L32" s="9">
         <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="9">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="13" customFormat="1">
+      <c r="A34" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34" s="9">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9">
+        <v>5</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="L34" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="13" customFormat="1">
+      <c r="A35" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+      <c r="C35" s="9">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L35" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="13" customFormat="1">
+      <c r="A36" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="9">
+        <v>3</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9">
+        <v>5</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="L36" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="13" customFormat="1">
+      <c r="A37" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="9">
+        <v>10</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>5</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="L37" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="13" customFormat="1">
+      <c r="A38" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="9">
+        <v>10</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9">
+        <v>5</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="L38" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="13" customFormat="1">
+      <c r="A39" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="9">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="9">
+        <v>2</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" s="13" customFormat="1">
+      <c r="A40" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="9">
+        <v>6</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="9">
+        <v>2</v>
+      </c>
+      <c r="J40" s="9">
+        <v>1</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L40" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="13" customFormat="1">
+      <c r="A41" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="9">
+        <v>2</v>
+      </c>
+      <c r="J41" s="9">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L41" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="13" customFormat="1">
+      <c r="A42" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="9">
+        <v>2</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="13" customFormat="1">
+      <c r="A43" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="9">
+        <v>8</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="9">
+        <v>2</v>
+      </c>
+      <c r="J43" s="9">
+        <v>1</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" s="13" customFormat="1">
+      <c r="A44" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="9">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="9">
+        <v>2</v>
+      </c>
+      <c r="J44" s="9">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="L44" s="9">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-90" windowWidth="15600" windowHeight="5190" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="401">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1317,10 +1317,28 @@
     <t>Složena figura</t>
   </si>
   <si>
-    <t xml:space="preserve">Jednaki skupovi, podskup </t>
-  </si>
-  <si>
     <t xml:space="preserve">Broj elemenata skupa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pravi podskupovi jednog skupa </t>
+  </si>
+  <si>
+    <t>Unija, presek</t>
+  </si>
+  <si>
+    <t>Unija, presek, razlika</t>
+  </si>
+  <si>
+    <t>geometry 16</t>
+  </si>
+  <si>
+    <t>Zapis</t>
+  </si>
+  <si>
+    <t>Podskup, jednaki skupovi</t>
+  </si>
+  <si>
+    <t>Tekstualni zadatak -broj elemenata</t>
   </si>
 </sst>
 </file>
@@ -7813,8 +7831,8 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E254" sqref="E254"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8026,7 +8044,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -18930,9 +18948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23994,10 +24012,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24008,7 +24026,7 @@
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="36.140625" bestFit="1" customWidth="1"/>
@@ -25453,7 +25471,7 @@
         <v>390</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="I39" s="9">
         <v>2</v>
@@ -25489,7 +25507,7 @@
         <v>390</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="I40" s="9">
         <v>2</v>
@@ -25518,7 +25536,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>91</v>
@@ -25527,7 +25545,7 @@
         <v>390</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="I41" s="9">
         <v>2</v>
@@ -25565,7 +25583,7 @@
         <v>390</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="I42" s="9">
         <v>2</v>
@@ -25602,18 +25620,16 @@
       <c r="G43" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>41</v>
+      <c r="H43" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="I43" s="9">
         <v>2</v>
       </c>
       <c r="J43" s="9">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>393</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K43" s="11"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="13" customFormat="1">
@@ -25630,7 +25646,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>91</v>
@@ -25638,20 +25654,527 @@
       <c r="G44" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>41</v>
+      <c r="H44" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="I44" s="9">
         <v>2</v>
       </c>
       <c r="J44" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L44" s="9">
         <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="13" customFormat="1">
+      <c r="A45" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="9">
+        <v>8</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I45" s="9">
+        <v>2</v>
+      </c>
+      <c r="J45" s="9">
+        <v>2</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" s="13" customFormat="1">
+      <c r="A46" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="9">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="I46" s="9">
+        <v>2</v>
+      </c>
+      <c r="J46" s="9">
+        <v>3</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="13" customFormat="1">
+      <c r="A47" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="9">
+        <v>6</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47" s="9">
+        <v>2</v>
+      </c>
+      <c r="J47" s="9">
+        <v>4</v>
+      </c>
+      <c r="L47" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="13" customFormat="1">
+      <c r="A48" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="9">
+        <v>6</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="I48" s="9">
+        <v>2</v>
+      </c>
+      <c r="J48" s="9">
+        <v>3</v>
+      </c>
+      <c r="K48" s="11"/>
+      <c r="L48" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="13" customFormat="1">
+      <c r="A49" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="C49" s="9">
+        <v>6</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>3</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="I49" s="9">
+        <v>2</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="13" customFormat="1">
+      <c r="A50" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="C50" s="9">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" s="9">
+        <v>2</v>
+      </c>
+      <c r="J50" s="9">
+        <v>4</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="13" customFormat="1">
+      <c r="A51" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="C51" s="9">
+        <v>8</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>3</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I51" s="9">
+        <v>2</v>
+      </c>
+      <c r="J51" s="9">
+        <v>5</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="13" customFormat="1">
+      <c r="A52" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="C52" s="9">
+        <v>8</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I52" s="9">
+        <v>2</v>
+      </c>
+      <c r="J52" s="9">
+        <v>5</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="13" customFormat="1">
+      <c r="A53" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="C53" s="9">
+        <v>8</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I53" s="9">
+        <v>2</v>
+      </c>
+      <c r="J53" s="9">
+        <v>5</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="13" customFormat="1">
+      <c r="A54" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="C54" s="9">
+        <v>8</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9">
+        <v>3</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I54" s="9">
+        <v>2</v>
+      </c>
+      <c r="J54" s="9">
+        <v>5</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="13" customFormat="1">
+      <c r="A55" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="C55" s="9">
+        <v>8</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I55" s="9">
+        <v>2</v>
+      </c>
+      <c r="J55" s="9">
+        <v>5</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="L55" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="13" customFormat="1">
+      <c r="A56" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="C56" s="9">
+        <v>8</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I56" s="9">
+        <v>2</v>
+      </c>
+      <c r="J56" s="9">
+        <v>5</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="13" customFormat="1">
+      <c r="A57" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="C57" s="9">
+        <v>10</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I57" s="9">
+        <v>2</v>
+      </c>
+      <c r="J57" s="9">
+        <v>5</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="L57" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="13" customFormat="1">
+      <c r="A58" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="9">
+        <v>56</v>
+      </c>
+      <c r="C58" s="9">
+        <v>10</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
+        <v>3</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I58" s="9">
+        <v>2</v>
+      </c>
+      <c r="J58" s="9">
+        <v>5</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="L58" s="9">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0651134-55C6-4711-8DEB-F01CA6AAD649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="426">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1393,20 +1392,35 @@
     <t>Sabiranje - shema</t>
   </si>
   <si>
-    <t>svođenje na zajednički imenilac</t>
-  </si>
-  <si>
     <t>razlomaka sa istim imeniocem</t>
   </si>
   <si>
     <t>RANK DEO</t>
+  </si>
+  <si>
+    <t>mešovitih I decimalnih brojeva</t>
+  </si>
+  <si>
+    <t>svođenje na zajednički imenilac pravih razlomaka</t>
+  </si>
+  <si>
+    <t>svođenje na zajednički imenilac mešovitih brojeva</t>
+  </si>
+  <si>
+    <t>decimalni brojevi pomoću razlomaka</t>
+  </si>
+  <si>
+    <t>decimalnih brojeva</t>
+  </si>
+  <si>
+    <t>numbers182</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1841,6 +1855,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,7 +1933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1945,27 +1965,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1997,24 +1999,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2190,7 +2174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,24 +2182,24 @@
       <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="34.26953125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +2225,7 @@
         <v>273</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>325</v>
@@ -2256,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="18" customFormat="1">
       <c r="A2" s="15">
         <v>2</v>
       </c>
@@ -2292,7 +2276,7 @@
       </c>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="18" customFormat="1">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2328,7 +2312,7 @@
       </c>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="18" customFormat="1">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -2364,7 +2348,7 @@
       </c>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="18" customFormat="1">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -2400,7 +2384,7 @@
       </c>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="18" customFormat="1">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -2436,7 +2420,7 @@
       </c>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="18" customFormat="1">
       <c r="A7" s="15">
         <v>2</v>
       </c>
@@ -2472,7 +2456,7 @@
       </c>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="18" customFormat="1">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -2508,7 +2492,7 @@
       </c>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="38" customFormat="1">
       <c r="A9" s="34">
         <v>3</v>
       </c>
@@ -2544,7 +2528,7 @@
       </c>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="18" customFormat="1">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -2580,7 +2564,7 @@
       </c>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="18" customFormat="1">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -2616,7 +2600,7 @@
       </c>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="18" customFormat="1">
       <c r="A12" s="15">
         <v>2</v>
       </c>
@@ -2652,7 +2636,7 @@
       </c>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="18" customFormat="1">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -2688,7 +2672,7 @@
       </c>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="18" customFormat="1">
       <c r="A14" s="15">
         <v>2</v>
       </c>
@@ -2724,7 +2708,7 @@
       </c>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="18" customFormat="1">
       <c r="A15" s="15">
         <v>2</v>
       </c>
@@ -2760,7 +2744,7 @@
       </c>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="18" customFormat="1">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -2796,7 +2780,7 @@
       </c>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="18" customFormat="1">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -2832,7 +2816,7 @@
       </c>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="18" customFormat="1">
       <c r="A18" s="15">
         <v>2</v>
       </c>
@@ -2868,7 +2852,7 @@
       </c>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" s="45" customFormat="1">
       <c r="A19" s="42">
         <v>4</v>
       </c>
@@ -2904,7 +2888,7 @@
       </c>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" s="38" customFormat="1">
       <c r="A20" s="34">
         <v>3</v>
       </c>
@@ -2940,7 +2924,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" s="38" customFormat="1">
       <c r="A21" s="34">
         <v>3</v>
       </c>
@@ -2976,7 +2960,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" s="38" customFormat="1">
       <c r="A22" s="34">
         <v>3</v>
       </c>
@@ -3012,7 +2996,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="45" customFormat="1">
       <c r="A23" s="42">
         <v>4</v>
       </c>
@@ -3048,7 +3032,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" s="38" customFormat="1">
       <c r="A24" s="34">
         <v>3</v>
       </c>
@@ -3084,7 +3068,7 @@
       </c>
       <c r="L24" s="39"/>
     </row>
-    <row r="25" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" s="38" customFormat="1">
       <c r="A25" s="34">
         <v>3</v>
       </c>
@@ -3120,7 +3104,7 @@
       </c>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" s="38" customFormat="1">
       <c r="A26" s="34">
         <v>3</v>
       </c>
@@ -3156,7 +3140,7 @@
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" s="38" customFormat="1">
       <c r="A27" s="34">
         <v>3</v>
       </c>
@@ -3192,7 +3176,7 @@
       </c>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="38" customFormat="1">
       <c r="A28" s="34">
         <v>3</v>
       </c>
@@ -3228,7 +3212,7 @@
       </c>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" s="45" customFormat="1">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -3264,7 +3248,7 @@
       </c>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" s="38" customFormat="1">
       <c r="A30" s="34">
         <v>3</v>
       </c>
@@ -3300,7 +3284,7 @@
       </c>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" s="38" customFormat="1">
       <c r="A31" s="34">
         <v>3</v>
       </c>
@@ -3336,7 +3320,7 @@
       </c>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="45" customFormat="1">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -3372,7 +3356,7 @@
       </c>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="38" customFormat="1">
       <c r="A33" s="34">
         <v>3</v>
       </c>
@@ -3408,7 +3392,7 @@
       </c>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="38" customFormat="1">
       <c r="A34" s="34">
         <v>3</v>
       </c>
@@ -3444,7 +3428,7 @@
       </c>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="45" customFormat="1">
       <c r="A35" s="42">
         <v>4</v>
       </c>
@@ -3480,7 +3464,7 @@
       </c>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="45" customFormat="1">
       <c r="A36" s="42">
         <v>4</v>
       </c>
@@ -3516,7 +3500,7 @@
       </c>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="45" customFormat="1">
       <c r="A37" s="42">
         <v>4</v>
       </c>
@@ -3552,7 +3536,7 @@
       </c>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="45" customFormat="1">
       <c r="A38" s="42">
         <v>4</v>
       </c>
@@ -3588,7 +3572,7 @@
       </c>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="38" customFormat="1">
       <c r="A39" s="34">
         <v>3</v>
       </c>
@@ -3624,7 +3608,7 @@
       </c>
       <c r="L39" s="37"/>
     </row>
-    <row r="40" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="45" customFormat="1">
       <c r="A40" s="42">
         <v>4</v>
       </c>
@@ -3660,7 +3644,7 @@
       </c>
       <c r="L40" s="46"/>
     </row>
-    <row r="41" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="45" customFormat="1">
       <c r="A41" s="42">
         <v>4</v>
       </c>
@@ -3696,7 +3680,7 @@
       </c>
       <c r="L41" s="46"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="18" customFormat="1">
       <c r="A42" s="15">
         <v>2</v>
       </c>
@@ -3732,7 +3716,7 @@
       </c>
       <c r="L42" s="19"/>
     </row>
-    <row r="43" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="38" customFormat="1">
       <c r="A43" s="34">
         <v>3</v>
       </c>
@@ -3768,7 +3752,7 @@
       </c>
       <c r="L43" s="37"/>
     </row>
-    <row r="44" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="38" customFormat="1">
       <c r="A44" s="34">
         <v>3</v>
       </c>
@@ -3807,7 +3791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="38" customFormat="1">
       <c r="A45" s="34">
         <v>3</v>
       </c>
@@ -3843,7 +3827,7 @@
       </c>
       <c r="L45" s="37"/>
     </row>
-    <row r="46" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="38" customFormat="1">
       <c r="A46" s="34">
         <v>3</v>
       </c>
@@ -3882,7 +3866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="45" customFormat="1">
       <c r="A47" s="42">
         <v>4</v>
       </c>
@@ -3918,7 +3902,7 @@
       </c>
       <c r="L47" s="46"/>
     </row>
-    <row r="48" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" s="45" customFormat="1">
       <c r="A48" s="42">
         <v>4</v>
       </c>
@@ -3954,7 +3938,7 @@
       </c>
       <c r="L48" s="46"/>
     </row>
-    <row r="49" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="45" customFormat="1">
       <c r="A49" s="42">
         <v>4</v>
       </c>
@@ -3990,7 +3974,7 @@
       </c>
       <c r="L49" s="46"/>
     </row>
-    <row r="50" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="38" customFormat="1">
       <c r="A50" s="34">
         <v>3</v>
       </c>
@@ -4029,7 +4013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" s="45" customFormat="1">
       <c r="A51" s="42">
         <v>4</v>
       </c>
@@ -4068,7 +4052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="45" customFormat="1">
       <c r="A52" s="42">
         <v>4</v>
       </c>
@@ -4107,7 +4091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" s="45" customFormat="1">
       <c r="A53" s="42">
         <v>4</v>
       </c>
@@ -4146,7 +4130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="38" customFormat="1">
       <c r="A54" s="34">
         <v>3</v>
       </c>
@@ -4182,7 +4166,7 @@
       </c>
       <c r="L54" s="39"/>
     </row>
-    <row r="55" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" s="38" customFormat="1">
       <c r="A55" s="34">
         <v>3</v>
       </c>
@@ -4218,7 +4202,7 @@
       </c>
       <c r="L55" s="39"/>
     </row>
-    <row r="56" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="38" customFormat="1">
       <c r="A56" s="34">
         <v>3</v>
       </c>
@@ -4254,7 +4238,7 @@
       </c>
       <c r="L56" s="39"/>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" s="38" customFormat="1">
       <c r="A57" s="34">
         <v>3</v>
       </c>
@@ -4290,7 +4274,7 @@
       </c>
       <c r="L57" s="37"/>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="38" customFormat="1">
       <c r="A58" s="34">
         <v>3</v>
       </c>
@@ -4326,7 +4310,7 @@
       </c>
       <c r="L58" s="37"/>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" s="38" customFormat="1">
       <c r="A59" s="34">
         <v>3</v>
       </c>
@@ -4362,7 +4346,7 @@
       </c>
       <c r="L59" s="37"/>
     </row>
-    <row r="60" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" s="45" customFormat="1">
       <c r="A60" s="42">
         <v>4</v>
       </c>
@@ -4401,7 +4385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" s="45" customFormat="1">
       <c r="A61" s="42">
         <v>4</v>
       </c>
@@ -4440,7 +4424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" s="38" customFormat="1">
       <c r="A62" s="34">
         <v>3</v>
       </c>
@@ -4476,7 +4460,7 @@
       </c>
       <c r="L62" s="37"/>
     </row>
-    <row r="63" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" s="45" customFormat="1">
       <c r="A63" s="42">
         <v>4</v>
       </c>
@@ -4512,7 +4496,7 @@
       </c>
       <c r="L63" s="46"/>
     </row>
-    <row r="64" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" s="45" customFormat="1">
       <c r="A64" s="42">
         <v>4</v>
       </c>
@@ -4553,7 +4537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" s="45" customFormat="1">
       <c r="A65" s="42">
         <v>4</v>
       </c>
@@ -4594,7 +4578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" s="45" customFormat="1">
       <c r="A66" s="42">
         <v>4</v>
       </c>
@@ -4633,7 +4617,7 @@
       </c>
       <c r="M66" s="42"/>
     </row>
-    <row r="67" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" s="45" customFormat="1">
       <c r="A67" s="42">
         <v>4</v>
       </c>
@@ -4674,7 +4658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="45" customFormat="1">
       <c r="A68" s="42">
         <v>4</v>
       </c>
@@ -4715,7 +4699,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" s="45" customFormat="1">
       <c r="A69" s="42">
         <v>4</v>
       </c>
@@ -4763,28 +4747,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="36.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +4812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -4836,22 +4820,22 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.7265625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="32" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4877,7 +4861,7 @@
         <v>273</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>325</v>
@@ -4892,7 +4876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="13" customFormat="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4929,7 +4913,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="13" customFormat="1">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -4966,7 +4950,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="13" customFormat="1">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5003,7 +4987,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="13" customFormat="1">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -5040,7 +5024,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="13" customFormat="1">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -5077,7 +5061,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="13" customFormat="1">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -5114,7 +5098,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="13" customFormat="1">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -5151,7 +5135,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="13" customFormat="1">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -5188,7 +5172,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="13" customFormat="1">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -5225,7 +5209,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="13" customFormat="1">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -5262,7 +5246,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="13" customFormat="1">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -5299,7 +5283,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="13" customFormat="1">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -5336,7 +5320,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="13" customFormat="1">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -5373,7 +5357,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="13" customFormat="1">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -5410,7 +5394,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="13" customFormat="1">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -5447,7 +5431,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="25" customFormat="1">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -5484,7 +5468,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="34">
         <v>3</v>
       </c>
@@ -5521,7 +5505,7 @@
       <c r="L18" s="65"/>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="34">
         <v>3</v>
       </c>
@@ -5560,7 +5544,7 @@
       </c>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="34">
         <v>3</v>
       </c>
@@ -5599,7 +5583,7 @@
       </c>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="34">
         <v>3</v>
       </c>
@@ -5638,7 +5622,7 @@
       </c>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="38" customFormat="1">
       <c r="A22" s="34">
         <v>3</v>
       </c>
@@ -5677,7 +5661,7 @@
       </c>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="38" customFormat="1">
       <c r="A23" s="34">
         <v>3</v>
       </c>
@@ -5716,7 +5700,7 @@
       </c>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="38" customFormat="1">
       <c r="A24" s="34">
         <v>3</v>
       </c>
@@ -5753,7 +5737,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="34">
         <v>3</v>
       </c>
@@ -5790,7 +5774,7 @@
       <c r="L25" s="37"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="34">
         <v>3</v>
       </c>
@@ -5827,7 +5811,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="34">
         <v>3</v>
       </c>
@@ -5864,7 +5848,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="42">
         <v>4</v>
       </c>
@@ -5903,7 +5887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -5942,7 +5926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="42">
         <v>4</v>
       </c>
@@ -5981,7 +5965,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="42">
         <v>4</v>
       </c>
@@ -6020,7 +6004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -6057,7 +6041,7 @@
       <c r="L32" s="48"/>
       <c r="M32" s="42"/>
     </row>
-    <row r="33" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="42">
         <v>4</v>
       </c>
@@ -6096,7 +6080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="42">
         <v>4</v>
       </c>
@@ -6135,7 +6119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="34">
         <v>3</v>
       </c>
@@ -6172,7 +6156,7 @@
       <c r="L35" s="65"/>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="34">
         <v>3</v>
       </c>
@@ -6211,7 +6195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="34">
         <v>3</v>
       </c>
@@ -6250,7 +6234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="34">
         <v>3</v>
       </c>
@@ -6287,7 +6271,7 @@
       <c r="L38" s="65"/>
       <c r="M38" s="34"/>
     </row>
-    <row r="39" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="34">
         <v>3</v>
       </c>
@@ -6326,7 +6310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="34">
         <v>3</v>
       </c>
@@ -6365,7 +6349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="34">
         <v>3</v>
       </c>
@@ -6402,7 +6386,7 @@
       <c r="L41" s="65"/>
       <c r="M41" s="34"/>
     </row>
-    <row r="42" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="34">
         <v>3</v>
       </c>
@@ -6441,7 +6425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="34">
         <v>3</v>
       </c>
@@ -6480,7 +6464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="34">
         <v>3</v>
       </c>
@@ -6519,7 +6503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="34">
         <v>3</v>
       </c>
@@ -6558,7 +6542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="34">
         <v>3</v>
       </c>
@@ -6595,7 +6579,7 @@
       <c r="L46" s="65"/>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="34">
         <v>3</v>
       </c>
@@ -6632,7 +6616,7 @@
       <c r="L47" s="65"/>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" s="13" customFormat="1">
       <c r="A48" s="9">
         <v>1</v>
       </c>
@@ -6669,7 +6653,7 @@
       <c r="L48" s="11"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="13" customFormat="1">
       <c r="A49" s="9">
         <v>1</v>
       </c>
@@ -6706,7 +6690,7 @@
       <c r="L49" s="11"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="13" customFormat="1">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -6743,7 +6727,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" s="13" customFormat="1">
       <c r="A51" s="9">
         <v>1</v>
       </c>
@@ -6780,7 +6764,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="13" customFormat="1">
       <c r="A52" s="9">
         <v>1</v>
       </c>
@@ -6817,7 +6801,7 @@
       <c r="L52" s="12"/>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" s="18" customFormat="1">
       <c r="A53" s="15">
         <v>2</v>
       </c>
@@ -6856,7 +6840,7 @@
       </c>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="38" customFormat="1">
       <c r="A54" s="34">
         <v>3</v>
       </c>
@@ -6895,7 +6879,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" s="38" customFormat="1">
       <c r="A55" s="34">
         <v>3</v>
       </c>
@@ -6936,7 +6920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="38" customFormat="1">
       <c r="A56" s="34">
         <v>3</v>
       </c>
@@ -6977,7 +6961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" s="38" customFormat="1">
       <c r="A57" s="34">
         <v>3</v>
       </c>
@@ -7014,7 +6998,7 @@
       <c r="L57" s="36"/>
       <c r="M57" s="34"/>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="38" customFormat="1">
       <c r="A58" s="34">
         <v>3</v>
       </c>
@@ -7051,7 +7035,7 @@
       <c r="L58" s="36"/>
       <c r="M58" s="34"/>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="34">
         <v>3</v>
       </c>
@@ -7090,7 +7074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="34">
         <v>3</v>
       </c>
@@ -7129,7 +7113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="34">
         <v>3</v>
       </c>
@@ -7166,7 +7150,7 @@
       <c r="L61" s="36"/>
       <c r="M61" s="34"/>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="34">
         <v>3</v>
       </c>
@@ -7203,7 +7187,7 @@
       <c r="L62" s="36"/>
       <c r="M62" s="34"/>
     </row>
-    <row r="63" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -7240,7 +7224,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="15">
         <v>2</v>
       </c>
@@ -7277,7 +7261,7 @@
       <c r="L64" s="17"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="15">
         <v>2</v>
       </c>
@@ -7318,7 +7302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" s="18" customFormat="1" ht="15.75">
       <c r="A66" s="15">
         <v>2</v>
       </c>
@@ -7359,7 +7343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="15">
         <v>2</v>
       </c>
@@ -7400,7 +7384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="34">
         <v>3</v>
       </c>
@@ -7437,7 +7421,7 @@
       <c r="L68" s="65"/>
       <c r="M68" s="34"/>
     </row>
-    <row r="69" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" s="38" customFormat="1">
       <c r="A69" s="34">
         <v>3</v>
       </c>
@@ -7476,7 +7460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" s="38" customFormat="1">
       <c r="A70" s="34">
         <v>3</v>
       </c>
@@ -7515,7 +7499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="34">
         <v>3</v>
       </c>
@@ -7554,7 +7538,7 @@
       </c>
       <c r="M71" s="34"/>
     </row>
-    <row r="72" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="34">
         <v>3</v>
       </c>
@@ -7595,7 +7579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="34">
         <v>3</v>
       </c>
@@ -7634,7 +7618,7 @@
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="34">
         <v>3</v>
       </c>
@@ -7673,7 +7657,7 @@
       </c>
       <c r="M74" s="34"/>
     </row>
-    <row r="75" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="34">
         <v>3</v>
       </c>
@@ -7712,7 +7696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="34">
         <v>3</v>
       </c>
@@ -7751,7 +7735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="15">
         <v>2</v>
       </c>
@@ -7792,7 +7776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="15">
         <v>2</v>
       </c>
@@ -7831,7 +7815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="15">
         <v>2</v>
       </c>
@@ -7872,7 +7856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="15">
         <v>2</v>
       </c>
@@ -7911,7 +7895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="15">
         <v>2</v>
       </c>
@@ -7950,7 +7934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="15">
         <v>2</v>
       </c>
@@ -7989,7 +7973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="15">
         <v>2</v>
       </c>
@@ -8028,7 +8012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="15">
         <v>2</v>
       </c>
@@ -8065,7 +8049,7 @@
       <c r="L84" s="66"/>
       <c r="M84" s="15"/>
     </row>
-    <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="15">
         <v>2</v>
       </c>
@@ -8104,7 +8088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" s="13" customFormat="1">
       <c r="A86" s="9">
         <v>1</v>
       </c>
@@ -8141,7 +8125,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="42">
         <v>4</v>
       </c>
@@ -8182,7 +8166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A88" s="15">
         <v>2</v>
       </c>
@@ -8221,7 +8205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="42">
         <v>4</v>
       </c>
@@ -8259,7 +8243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" s="13" customFormat="1">
       <c r="A90" s="9">
         <v>1</v>
       </c>
@@ -8298,7 +8282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" s="13" customFormat="1">
       <c r="A91" s="9">
         <v>1</v>
       </c>
@@ -8337,7 +8321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" s="13" customFormat="1">
       <c r="A92" s="9">
         <v>1</v>
       </c>
@@ -8374,7 +8358,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" s="13" customFormat="1">
       <c r="A93" s="9">
         <v>1</v>
       </c>
@@ -8420,7 +8404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N254"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -8428,24 +8412,24 @@
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="35.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -8471,7 +8455,7 @@
         <v>273</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>325</v>
@@ -8487,7 +8471,7 @@
       </c>
       <c r="N1" s="74"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="13" customFormat="1">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -8526,7 +8510,7 @@
       </c>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="13" customFormat="1">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -8567,7 +8551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="13" customFormat="1">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -8606,7 +8590,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="13" customFormat="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -8645,7 +8629,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="13" customFormat="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -8684,7 +8668,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="13" customFormat="1">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -8723,7 +8707,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="25" customFormat="1">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -8762,7 +8746,7 @@
       </c>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="13" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -8801,7 +8785,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="18" customFormat="1">
       <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
@@ -8840,7 +8824,7 @@
       </c>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="13" customFormat="1">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -8879,7 +8863,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="13" customFormat="1">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -8918,7 +8902,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="13" customFormat="1">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -8957,7 +8941,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="32">
         <v>2</v>
       </c>
@@ -8996,7 +8980,7 @@
       </c>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="13" customFormat="1">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -9035,7 +9019,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="31" customFormat="1">
       <c r="A16" s="26">
         <v>1</v>
       </c>
@@ -9074,7 +9058,7 @@
       </c>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="13" customFormat="1">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -9113,7 +9097,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="13" customFormat="1">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -9152,7 +9136,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -9191,7 +9175,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -9230,7 +9214,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="13" customFormat="1">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -9269,7 +9253,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="13" customFormat="1">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -9308,7 +9292,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -9345,7 +9329,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="18" customFormat="1">
       <c r="A24" s="32">
         <v>2</v>
       </c>
@@ -9384,7 +9368,7 @@
       </c>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="18" customFormat="1">
       <c r="A25" s="32">
         <v>2</v>
       </c>
@@ -9423,7 +9407,7 @@
       </c>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="18" customFormat="1">
       <c r="A26" s="32">
         <v>2</v>
       </c>
@@ -9462,7 +9446,7 @@
       </c>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="13" customFormat="1">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -9501,7 +9485,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="13" customFormat="1">
       <c r="A28" s="8">
         <v>1</v>
       </c>
@@ -9540,7 +9524,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="13" customFormat="1">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -9579,7 +9563,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="13" customFormat="1">
       <c r="A30" s="8">
         <v>1</v>
       </c>
@@ -9620,7 +9604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -9661,7 +9645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="13" customFormat="1">
       <c r="A32" s="8">
         <v>1</v>
       </c>
@@ -9702,7 +9686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="13" customFormat="1">
       <c r="A33" s="8">
         <v>1</v>
       </c>
@@ -9743,7 +9727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="8">
         <v>1</v>
       </c>
@@ -9784,7 +9768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="13" customFormat="1">
       <c r="A35" s="8">
         <v>1</v>
       </c>
@@ -9825,7 +9809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="32">
         <v>2</v>
       </c>
@@ -9866,7 +9850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="32">
         <v>2</v>
       </c>
@@ -9907,7 +9891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="18" customFormat="1">
       <c r="A38" s="32">
         <v>2</v>
       </c>
@@ -9948,7 +9932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="18" customFormat="1">
       <c r="A39" s="32">
         <v>2</v>
       </c>
@@ -9989,7 +9973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="18" customFormat="1">
       <c r="A40" s="32">
         <v>2</v>
       </c>
@@ -10030,7 +10014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="18" customFormat="1">
       <c r="A41" s="32">
         <v>2</v>
       </c>
@@ -10069,7 +10053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="18" customFormat="1">
       <c r="A42" s="32">
         <v>2</v>
       </c>
@@ -10110,7 +10094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="18" customFormat="1">
       <c r="A43" s="32">
         <v>2</v>
       </c>
@@ -10151,7 +10135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="18" customFormat="1">
       <c r="A44" s="32">
         <v>2</v>
       </c>
@@ -10192,7 +10176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
       <c r="A45" s="32">
         <v>2</v>
       </c>
@@ -10233,7 +10217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="18" customFormat="1">
       <c r="A46" s="32">
         <v>2</v>
       </c>
@@ -10274,7 +10258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="18" customFormat="1">
       <c r="A47" s="32">
         <v>2</v>
       </c>
@@ -10315,7 +10299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" s="18" customFormat="1">
       <c r="A48" s="32">
         <v>2</v>
       </c>
@@ -10356,7 +10340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="18" customFormat="1">
       <c r="A49" s="32">
         <v>2</v>
       </c>
@@ -10397,7 +10381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="18" customFormat="1">
       <c r="A50" s="32">
         <v>2</v>
       </c>
@@ -10438,7 +10422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" s="13" customFormat="1">
       <c r="A51" s="8">
         <v>1</v>
       </c>
@@ -10477,7 +10461,7 @@
       </c>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="38" customFormat="1">
       <c r="A52" s="40">
         <v>3</v>
       </c>
@@ -10518,7 +10502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="40">
         <v>3</v>
       </c>
@@ -10559,7 +10543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A54" s="40">
         <v>3</v>
       </c>
@@ -10600,7 +10584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" s="18" customFormat="1">
       <c r="A55" s="32">
         <v>2</v>
       </c>
@@ -10639,7 +10623,7 @@
       </c>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="32">
         <v>2</v>
       </c>
@@ -10680,7 +10664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" s="38" customFormat="1">
       <c r="A57" s="40">
         <v>3</v>
       </c>
@@ -10721,7 +10705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="38" customFormat="1">
       <c r="A58" s="40">
         <v>3</v>
       </c>
@@ -10762,7 +10746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A59" s="40">
         <v>3</v>
       </c>
@@ -10803,7 +10787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A60" s="40">
         <v>3</v>
       </c>
@@ -10844,7 +10828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="40">
         <v>3</v>
       </c>
@@ -10885,7 +10869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A62" s="40">
         <v>3</v>
       </c>
@@ -10926,7 +10910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" s="38" customFormat="1">
       <c r="A63" s="40">
         <v>3</v>
       </c>
@@ -10967,7 +10951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" s="38" customFormat="1">
       <c r="A64" s="40">
         <v>3</v>
       </c>
@@ -11008,7 +10992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" s="38" customFormat="1">
       <c r="A65" s="40">
         <v>3</v>
       </c>
@@ -11049,7 +11033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" s="38" customFormat="1">
       <c r="A66" s="40">
         <v>3</v>
       </c>
@@ -11090,7 +11074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" s="38" customFormat="1">
       <c r="A67" s="40">
         <v>3</v>
       </c>
@@ -11131,7 +11115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="38" customFormat="1">
       <c r="A68" s="40">
         <v>3</v>
       </c>
@@ -11172,7 +11156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" s="38" customFormat="1">
       <c r="A69" s="40">
         <v>3</v>
       </c>
@@ -11213,7 +11197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" s="38" customFormat="1">
       <c r="A70" s="40" t="s">
         <v>60</v>
       </c>
@@ -11252,7 +11236,7 @@
       </c>
       <c r="M70" s="34"/>
     </row>
-    <row r="71" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" s="38" customFormat="1">
       <c r="A71" s="40">
         <v>3</v>
       </c>
@@ -11293,7 +11277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A72" s="40">
         <v>3</v>
       </c>
@@ -11332,7 +11316,7 @@
       </c>
       <c r="M72" s="34"/>
     </row>
-    <row r="73" spans="1:13" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A73" s="40">
         <v>3</v>
       </c>
@@ -11371,7 +11355,7 @@
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" s="38" customFormat="1">
       <c r="A74" s="40">
         <v>3</v>
       </c>
@@ -11412,7 +11396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" s="38" customFormat="1">
       <c r="A75" s="40">
         <v>3</v>
       </c>
@@ -11453,7 +11437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" s="38" customFormat="1">
       <c r="A76" s="40">
         <v>3</v>
       </c>
@@ -11494,7 +11478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" s="38" customFormat="1">
       <c r="A77" s="40">
         <v>3</v>
       </c>
@@ -11535,7 +11519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="38" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" s="38" customFormat="1" ht="18.75" customHeight="1">
       <c r="A78" s="40">
         <v>3</v>
       </c>
@@ -11576,7 +11560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="40">
         <v>3</v>
       </c>
@@ -11617,7 +11601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" s="38" customFormat="1">
       <c r="A80" s="40">
         <v>3</v>
       </c>
@@ -11658,7 +11642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" s="38" customFormat="1">
       <c r="A81" s="40">
         <v>3</v>
       </c>
@@ -11699,7 +11683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" s="38" customFormat="1">
       <c r="A82" s="40">
         <v>3</v>
       </c>
@@ -11740,7 +11724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" s="38" customFormat="1">
       <c r="A83" s="40">
         <v>3</v>
       </c>
@@ -11781,7 +11765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" s="38" customFormat="1">
       <c r="A84" s="40">
         <v>3</v>
       </c>
@@ -11822,7 +11806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" s="38" customFormat="1">
       <c r="A85" s="40">
         <v>3</v>
       </c>
@@ -11863,7 +11847,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" s="38" customFormat="1">
       <c r="A86" s="40">
         <v>3</v>
       </c>
@@ -11904,7 +11888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" s="38" customFormat="1">
       <c r="A87" s="40">
         <v>3</v>
       </c>
@@ -11945,7 +11929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" s="38" customFormat="1">
       <c r="A88" s="40">
         <v>3</v>
       </c>
@@ -11986,7 +11970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" s="38" customFormat="1">
       <c r="A89" s="40">
         <v>3</v>
       </c>
@@ -12027,7 +12011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" s="38" customFormat="1">
       <c r="A90" s="40">
         <v>3</v>
       </c>
@@ -12066,7 +12050,7 @@
       </c>
       <c r="M90" s="34"/>
     </row>
-    <row r="91" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" s="38" customFormat="1">
       <c r="A91" s="40">
         <v>3</v>
       </c>
@@ -12105,7 +12089,7 @@
       </c>
       <c r="M91" s="34"/>
     </row>
-    <row r="92" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" s="38" customFormat="1">
       <c r="A92" s="40">
         <v>3</v>
       </c>
@@ -12144,7 +12128,7 @@
       </c>
       <c r="M92" s="34"/>
     </row>
-    <row r="93" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" s="38" customFormat="1">
       <c r="A93" s="40">
         <v>3</v>
       </c>
@@ -12183,7 +12167,7 @@
       </c>
       <c r="M93" s="34"/>
     </row>
-    <row r="94" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" s="38" customFormat="1">
       <c r="A94" s="40">
         <v>3</v>
       </c>
@@ -12224,7 +12208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" s="38" customFormat="1">
       <c r="A95" s="40">
         <v>3</v>
       </c>
@@ -12263,7 +12247,7 @@
       </c>
       <c r="M95" s="34"/>
     </row>
-    <row r="96" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" s="38" customFormat="1">
       <c r="A96" s="40">
         <v>3</v>
       </c>
@@ -12304,7 +12288,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" s="38" customFormat="1">
       <c r="A97" s="40">
         <v>3</v>
       </c>
@@ -12343,7 +12327,7 @@
       </c>
       <c r="M97" s="34"/>
     </row>
-    <row r="98" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" s="38" customFormat="1">
       <c r="A98" s="40">
         <v>3</v>
       </c>
@@ -12384,7 +12368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A99" s="40">
         <v>3</v>
       </c>
@@ -12425,7 +12409,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A100" s="40">
         <v>3</v>
       </c>
@@ -12464,7 +12448,7 @@
       </c>
       <c r="M100" s="34"/>
     </row>
-    <row r="101" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A101" s="40">
         <v>3</v>
       </c>
@@ -12505,7 +12489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A102" s="40">
         <v>3</v>
       </c>
@@ -12546,7 +12530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A103" s="40">
         <v>3</v>
       </c>
@@ -12585,7 +12569,7 @@
       </c>
       <c r="M103" s="34"/>
     </row>
-    <row r="104" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A104" s="32" t="s">
         <v>23</v>
       </c>
@@ -12624,7 +12608,7 @@
       </c>
       <c r="M104" s="15"/>
     </row>
-    <row r="105" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A105" s="32" t="s">
         <v>23</v>
       </c>
@@ -12665,7 +12649,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" s="38" customFormat="1">
       <c r="A106" s="40">
         <v>3</v>
       </c>
@@ -12704,7 +12688,7 @@
       </c>
       <c r="M106" s="34"/>
     </row>
-    <row r="107" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" s="38" customFormat="1">
       <c r="A107" s="40">
         <v>3</v>
       </c>
@@ -12743,7 +12727,7 @@
       </c>
       <c r="M107" s="34"/>
     </row>
-    <row r="108" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" s="38" customFormat="1">
       <c r="A108" s="40">
         <v>3</v>
       </c>
@@ -12784,7 +12768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" s="38" customFormat="1">
       <c r="A109" s="40">
         <v>3</v>
       </c>
@@ -12823,7 +12807,7 @@
       </c>
       <c r="M109" s="34"/>
     </row>
-    <row r="110" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" s="38" customFormat="1">
       <c r="A110" s="40">
         <v>3</v>
       </c>
@@ -12864,7 +12848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" s="38" customFormat="1">
       <c r="A111" s="40">
         <v>3</v>
       </c>
@@ -12903,7 +12887,7 @@
       </c>
       <c r="M111" s="34"/>
     </row>
-    <row r="112" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" s="38" customFormat="1">
       <c r="A112" s="40">
         <v>3</v>
       </c>
@@ -12942,7 +12926,7 @@
       </c>
       <c r="M112" s="34"/>
     </row>
-    <row r="113" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" s="38" customFormat="1">
       <c r="A113" s="40">
         <v>3</v>
       </c>
@@ -12981,7 +12965,7 @@
       </c>
       <c r="M113" s="34"/>
     </row>
-    <row r="114" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" s="38" customFormat="1">
       <c r="A114" s="40">
         <v>3</v>
       </c>
@@ -13020,7 +13004,7 @@
       </c>
       <c r="M114" s="34"/>
     </row>
-    <row r="115" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" s="38" customFormat="1">
       <c r="A115" s="40">
         <v>3</v>
       </c>
@@ -13059,7 +13043,7 @@
       </c>
       <c r="M115" s="34"/>
     </row>
-    <row r="116" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" s="38" customFormat="1">
       <c r="A116" s="40">
         <v>3</v>
       </c>
@@ -13098,7 +13082,7 @@
       </c>
       <c r="M116" s="34"/>
     </row>
-    <row r="117" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="47">
         <v>4</v>
       </c>
@@ -13139,7 +13123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" s="45" customFormat="1">
       <c r="A118" s="47">
         <v>4</v>
       </c>
@@ -13180,7 +13164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" s="45" customFormat="1">
       <c r="A119" s="47">
         <v>4</v>
       </c>
@@ -13221,7 +13205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" s="45" customFormat="1">
       <c r="A120" s="47">
         <v>4</v>
       </c>
@@ -13260,7 +13244,7 @@
       </c>
       <c r="M120" s="42"/>
     </row>
-    <row r="121" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A121" s="47">
         <v>4</v>
       </c>
@@ -13301,7 +13285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1">
       <c r="A122" s="47">
         <v>4</v>
       </c>
@@ -13342,7 +13326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" s="45" customFormat="1">
       <c r="A123" s="47">
         <v>4</v>
       </c>
@@ -13383,7 +13367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A124" s="47" t="s">
         <v>62</v>
       </c>
@@ -13422,7 +13406,7 @@
       </c>
       <c r="M124" s="42"/>
     </row>
-    <row r="125" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="47">
         <v>4</v>
       </c>
@@ -13461,7 +13445,7 @@
       </c>
       <c r="M125" s="42"/>
     </row>
-    <row r="126" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A126" s="40" t="s">
         <v>60</v>
       </c>
@@ -13500,7 +13484,7 @@
       </c>
       <c r="M126" s="34"/>
     </row>
-    <row r="127" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1">
       <c r="A127" s="47" t="s">
         <v>62</v>
       </c>
@@ -13539,7 +13523,7 @@
       </c>
       <c r="M127" s="42"/>
     </row>
-    <row r="128" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" s="45" customFormat="1">
       <c r="A128" s="47">
         <v>4</v>
       </c>
@@ -13578,7 +13562,7 @@
       </c>
       <c r="M128" s="42"/>
     </row>
-    <row r="129" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" s="13" customFormat="1">
       <c r="A129" s="8" t="s">
         <v>9</v>
       </c>
@@ -13617,7 +13601,7 @@
       </c>
       <c r="M129" s="9"/>
     </row>
-    <row r="130" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" s="18" customFormat="1">
       <c r="A130" s="32" t="s">
         <v>23</v>
       </c>
@@ -13656,7 +13640,7 @@
       </c>
       <c r="M130" s="15"/>
     </row>
-    <row r="131" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" s="45" customFormat="1">
       <c r="A131" s="47" t="s">
         <v>62</v>
       </c>
@@ -13695,7 +13679,7 @@
       </c>
       <c r="M131" s="42"/>
     </row>
-    <row r="132" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" s="45" customFormat="1">
       <c r="A132" s="47" t="s">
         <v>62</v>
       </c>
@@ -13734,7 +13718,7 @@
       </c>
       <c r="M132" s="42"/>
     </row>
-    <row r="133" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" s="45" customFormat="1">
       <c r="A133" s="47" t="s">
         <v>62</v>
       </c>
@@ -13773,7 +13757,7 @@
       </c>
       <c r="M133" s="42"/>
     </row>
-    <row r="134" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" s="45" customFormat="1">
       <c r="A134" s="47" t="s">
         <v>62</v>
       </c>
@@ -13812,7 +13796,7 @@
       </c>
       <c r="M134" s="42"/>
     </row>
-    <row r="135" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" s="45" customFormat="1">
       <c r="A135" s="47" t="s">
         <v>62</v>
       </c>
@@ -13851,7 +13835,7 @@
       </c>
       <c r="M135" s="42"/>
     </row>
-    <row r="136" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" s="45" customFormat="1">
       <c r="A136" s="47" t="s">
         <v>62</v>
       </c>
@@ -13890,7 +13874,7 @@
       </c>
       <c r="M136" s="42"/>
     </row>
-    <row r="137" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A137" s="47" t="s">
         <v>62</v>
       </c>
@@ -13929,7 +13913,7 @@
       </c>
       <c r="M137" s="42"/>
     </row>
-    <row r="138" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" s="45" customFormat="1">
       <c r="A138" s="47" t="s">
         <v>62</v>
       </c>
@@ -13968,7 +13952,7 @@
       </c>
       <c r="M138" s="42"/>
     </row>
-    <row r="139" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="47" t="s">
         <v>62</v>
       </c>
@@ -14007,7 +13991,7 @@
       </c>
       <c r="M139" s="42"/>
     </row>
-    <row r="140" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A140" s="8" t="s">
         <v>9</v>
       </c>
@@ -14044,7 +14028,7 @@
       <c r="L140" s="12"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A141" s="8" t="s">
         <v>9</v>
       </c>
@@ -14081,7 +14065,7 @@
       <c r="L141" s="12"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" s="38" customFormat="1">
       <c r="A142" s="40">
         <v>3</v>
       </c>
@@ -14122,7 +14106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
       <c r="A143" s="32">
         <v>2</v>
       </c>
@@ -14163,7 +14147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
       <c r="A144" s="32">
         <v>2</v>
       </c>
@@ -14204,7 +14188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" s="38" customFormat="1">
       <c r="A145" s="40" t="s">
         <v>60</v>
       </c>
@@ -14243,7 +14227,7 @@
       </c>
       <c r="M145" s="34"/>
     </row>
-    <row r="146" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" s="38" customFormat="1">
       <c r="A146" s="40" t="s">
         <v>60</v>
       </c>
@@ -14282,7 +14266,7 @@
       </c>
       <c r="M146" s="34"/>
     </row>
-    <row r="147" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" s="38" customFormat="1">
       <c r="A147" s="40" t="s">
         <v>60</v>
       </c>
@@ -14323,7 +14307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" s="18" customFormat="1">
       <c r="A148" s="32" t="s">
         <v>23</v>
       </c>
@@ -14364,7 +14348,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" s="45" customFormat="1">
       <c r="A149" s="47" t="s">
         <v>62</v>
       </c>
@@ -14405,7 +14389,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A150" s="47" t="s">
         <v>62</v>
       </c>
@@ -14444,7 +14428,7 @@
       </c>
       <c r="M150" s="42"/>
     </row>
-    <row r="151" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" s="45" customFormat="1">
       <c r="A151" s="47" t="s">
         <v>62</v>
       </c>
@@ -14483,7 +14467,7 @@
       </c>
       <c r="M151" s="42"/>
     </row>
-    <row r="152" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" s="38" customFormat="1">
       <c r="A152" s="40" t="s">
         <v>60</v>
       </c>
@@ -14522,7 +14506,7 @@
       </c>
       <c r="M152" s="34"/>
     </row>
-    <row r="153" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" s="38" customFormat="1">
       <c r="A153" s="40" t="s">
         <v>60</v>
       </c>
@@ -14563,7 +14547,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" s="45" customFormat="1">
       <c r="A154" s="47" t="s">
         <v>62</v>
       </c>
@@ -14602,7 +14586,7 @@
       </c>
       <c r="M154" s="42"/>
     </row>
-    <row r="155" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" s="45" customFormat="1">
       <c r="A155" s="47" t="s">
         <v>62</v>
       </c>
@@ -14641,7 +14625,7 @@
       </c>
       <c r="M155" s="42"/>
     </row>
-    <row r="156" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" s="45" customFormat="1">
       <c r="A156" s="47" t="s">
         <v>62</v>
       </c>
@@ -14680,7 +14664,7 @@
       </c>
       <c r="M156" s="42"/>
     </row>
-    <row r="157" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" s="45" customFormat="1">
       <c r="A157" s="47" t="s">
         <v>62</v>
       </c>
@@ -14719,7 +14703,7 @@
       </c>
       <c r="M157" s="42"/>
     </row>
-    <row r="158" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" s="45" customFormat="1">
       <c r="A158" s="47" t="s">
         <v>62</v>
       </c>
@@ -14758,7 +14742,7 @@
       </c>
       <c r="M158" s="42"/>
     </row>
-    <row r="159" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" s="45" customFormat="1">
       <c r="A159" s="47" t="s">
         <v>62</v>
       </c>
@@ -14797,7 +14781,7 @@
       </c>
       <c r="M159" s="42"/>
     </row>
-    <row r="160" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" s="18" customFormat="1">
       <c r="A160" s="32" t="s">
         <v>23</v>
       </c>
@@ -14836,7 +14820,7 @@
       </c>
       <c r="M160" s="15"/>
     </row>
-    <row r="161" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" s="18" customFormat="1">
       <c r="A161" s="32" t="s">
         <v>23</v>
       </c>
@@ -14877,7 +14861,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A162" s="32" t="s">
         <v>23</v>
       </c>
@@ -14916,7 +14900,7 @@
       </c>
       <c r="M162" s="15"/>
     </row>
-    <row r="163" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" s="18" customFormat="1">
       <c r="A163" s="32" t="s">
         <v>23</v>
       </c>
@@ -14955,7 +14939,7 @@
       </c>
       <c r="M163" s="15"/>
     </row>
-    <row r="164" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" s="18" customFormat="1">
       <c r="A164" s="32" t="s">
         <v>23</v>
       </c>
@@ -14994,7 +14978,7 @@
       </c>
       <c r="M164" s="15"/>
     </row>
-    <row r="165" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" s="18" customFormat="1">
       <c r="A165" s="32" t="s">
         <v>23</v>
       </c>
@@ -15033,7 +15017,7 @@
       </c>
       <c r="M165" s="15"/>
     </row>
-    <row r="166" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" s="38" customFormat="1">
       <c r="A166" s="40" t="s">
         <v>60</v>
       </c>
@@ -15072,7 +15056,7 @@
       </c>
       <c r="M166" s="34"/>
     </row>
-    <row r="167" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" s="18" customFormat="1">
       <c r="A167" s="32" t="s">
         <v>23</v>
       </c>
@@ -15111,7 +15095,7 @@
       </c>
       <c r="M167" s="15"/>
     </row>
-    <row r="168" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A168" s="32" t="s">
         <v>23</v>
       </c>
@@ -15150,7 +15134,7 @@
       </c>
       <c r="M168" s="15"/>
     </row>
-    <row r="169" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" s="18" customFormat="1">
       <c r="A169" s="32" t="s">
         <v>23</v>
       </c>
@@ -15189,7 +15173,7 @@
       </c>
       <c r="M169" s="15"/>
     </row>
-    <row r="170" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" s="18" customFormat="1">
       <c r="A170" s="32" t="s">
         <v>23</v>
       </c>
@@ -15228,7 +15212,7 @@
       </c>
       <c r="M170" s="15"/>
     </row>
-    <row r="171" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" s="38" customFormat="1">
       <c r="A171" s="40" t="s">
         <v>60</v>
       </c>
@@ -15267,7 +15251,7 @@
       </c>
       <c r="M171" s="34"/>
     </row>
-    <row r="172" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A172" s="40" t="s">
         <v>60</v>
       </c>
@@ -15308,7 +15292,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" s="13" customFormat="1">
       <c r="A173" s="8" t="s">
         <v>9</v>
       </c>
@@ -15345,7 +15329,7 @@
       <c r="L173" s="11"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A174" s="69" t="s">
         <v>23</v>
       </c>
@@ -15386,7 +15370,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" s="38" customFormat="1">
       <c r="A175" s="40" t="s">
         <v>60</v>
       </c>
@@ -15427,7 +15411,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" s="45" customFormat="1">
       <c r="A176" s="47" t="s">
         <v>62</v>
       </c>
@@ -15466,7 +15450,7 @@
       </c>
       <c r="M176" s="42"/>
     </row>
-    <row r="177" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" s="18" customFormat="1">
       <c r="A177" s="32" t="s">
         <v>23</v>
       </c>
@@ -15505,7 +15489,7 @@
       </c>
       <c r="M177" s="15"/>
     </row>
-    <row r="178" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A178" s="40" t="s">
         <v>60</v>
       </c>
@@ -15544,7 +15528,7 @@
       </c>
       <c r="M178" s="34"/>
     </row>
-    <row r="179" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A179" s="40" t="s">
         <v>60</v>
       </c>
@@ -15583,7 +15567,7 @@
       </c>
       <c r="M179" s="34"/>
     </row>
-    <row r="180" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" s="38" customFormat="1">
       <c r="A180" s="40" t="s">
         <v>60</v>
       </c>
@@ -15624,7 +15608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" s="38" customFormat="1">
       <c r="A181" s="40" t="s">
         <v>60</v>
       </c>
@@ -15665,7 +15649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" s="38" customFormat="1">
       <c r="A182" s="40" t="s">
         <v>60</v>
       </c>
@@ -15706,7 +15690,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" s="38" customFormat="1">
       <c r="A183" s="40" t="s">
         <v>60</v>
       </c>
@@ -15747,7 +15731,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" s="38" customFormat="1">
       <c r="A184" s="40" t="s">
         <v>60</v>
       </c>
@@ -15788,7 +15772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" s="45" customFormat="1">
       <c r="A185" s="47" t="s">
         <v>62</v>
       </c>
@@ -15827,7 +15811,7 @@
       </c>
       <c r="M185" s="42"/>
     </row>
-    <row r="186" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" s="45" customFormat="1">
       <c r="A186" s="47" t="s">
         <v>62</v>
       </c>
@@ -15866,7 +15850,7 @@
       </c>
       <c r="M186" s="42"/>
     </row>
-    <row r="187" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" s="45" customFormat="1">
       <c r="A187" s="47" t="s">
         <v>62</v>
       </c>
@@ -15905,7 +15889,7 @@
       </c>
       <c r="M187" s="42"/>
     </row>
-    <row r="188" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" s="45" customFormat="1">
       <c r="A188" s="47" t="s">
         <v>62</v>
       </c>
@@ -15944,7 +15928,7 @@
       </c>
       <c r="M188" s="42"/>
     </row>
-    <row r="189" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" s="45" customFormat="1">
       <c r="A189" s="47" t="s">
         <v>62</v>
       </c>
@@ -15983,7 +15967,7 @@
       </c>
       <c r="M189" s="42"/>
     </row>
-    <row r="190" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" s="45" customFormat="1">
       <c r="A190" s="47" t="s">
         <v>62</v>
       </c>
@@ -16022,7 +16006,7 @@
       </c>
       <c r="M190" s="42"/>
     </row>
-    <row r="191" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" s="45" customFormat="1">
       <c r="A191" s="47" t="s">
         <v>62</v>
       </c>
@@ -16061,7 +16045,7 @@
       </c>
       <c r="M191" s="42"/>
     </row>
-    <row r="192" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" s="45" customFormat="1">
       <c r="A192" s="47" t="s">
         <v>62</v>
       </c>
@@ -16100,7 +16084,7 @@
       </c>
       <c r="M192" s="42"/>
     </row>
-    <row r="193" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" s="45" customFormat="1">
       <c r="A193" s="47" t="s">
         <v>62</v>
       </c>
@@ -16139,7 +16123,7 @@
       </c>
       <c r="M193" s="42"/>
     </row>
-    <row r="194" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" s="45" customFormat="1">
       <c r="A194" s="47" t="s">
         <v>62</v>
       </c>
@@ -16178,7 +16162,7 @@
       </c>
       <c r="M194" s="42"/>
     </row>
-    <row r="195" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" s="45" customFormat="1">
       <c r="A195" s="47" t="s">
         <v>62</v>
       </c>
@@ -16217,7 +16201,7 @@
       </c>
       <c r="M195" s="42"/>
     </row>
-    <row r="196" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" s="45" customFormat="1">
       <c r="A196" s="47" t="s">
         <v>62</v>
       </c>
@@ -16256,7 +16240,7 @@
       </c>
       <c r="M196" s="42"/>
     </row>
-    <row r="197" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" s="45" customFormat="1">
       <c r="A197" s="47" t="s">
         <v>62</v>
       </c>
@@ -16295,7 +16279,7 @@
       </c>
       <c r="M197" s="42"/>
     </row>
-    <row r="198" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" s="45" customFormat="1">
       <c r="A198" s="47" t="s">
         <v>62</v>
       </c>
@@ -16334,7 +16318,7 @@
       </c>
       <c r="M198" s="42"/>
     </row>
-    <row r="199" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" s="45" customFormat="1">
       <c r="A199" s="47" t="s">
         <v>62</v>
       </c>
@@ -16373,7 +16357,7 @@
       </c>
       <c r="M199" s="42"/>
     </row>
-    <row r="200" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" s="45" customFormat="1">
       <c r="A200" s="47" t="s">
         <v>62</v>
       </c>
@@ -16412,7 +16396,7 @@
       </c>
       <c r="M200" s="42"/>
     </row>
-    <row r="201" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" s="45" customFormat="1">
       <c r="A201" s="47" t="s">
         <v>62</v>
       </c>
@@ -16451,7 +16435,7 @@
       </c>
       <c r="M201" s="42"/>
     </row>
-    <row r="202" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" s="45" customFormat="1">
       <c r="A202" s="47" t="s">
         <v>62</v>
       </c>
@@ -16490,7 +16474,7 @@
       </c>
       <c r="M202" s="42"/>
     </row>
-    <row r="203" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" s="45" customFormat="1">
       <c r="A203" s="47" t="s">
         <v>62</v>
       </c>
@@ -16529,7 +16513,7 @@
       </c>
       <c r="M203" s="42"/>
     </row>
-    <row r="204" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" s="45" customFormat="1">
       <c r="A204" s="47" t="s">
         <v>62</v>
       </c>
@@ -16568,7 +16552,7 @@
       </c>
       <c r="M204" s="42"/>
     </row>
-    <row r="205" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" s="45" customFormat="1">
       <c r="A205" s="47" t="s">
         <v>62</v>
       </c>
@@ -16607,7 +16591,7 @@
       </c>
       <c r="M205" s="42"/>
     </row>
-    <row r="206" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" s="45" customFormat="1">
       <c r="A206" s="47" t="s">
         <v>62</v>
       </c>
@@ -16646,7 +16630,7 @@
       </c>
       <c r="M206" s="42"/>
     </row>
-    <row r="207" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" s="45" customFormat="1">
       <c r="A207" s="47" t="s">
         <v>62</v>
       </c>
@@ -16685,7 +16669,7 @@
       </c>
       <c r="M207" s="42"/>
     </row>
-    <row r="208" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" s="45" customFormat="1">
       <c r="A208" s="47" t="s">
         <v>62</v>
       </c>
@@ -16724,7 +16708,7 @@
       </c>
       <c r="M208" s="42"/>
     </row>
-    <row r="209" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" s="45" customFormat="1">
       <c r="A209" s="47" t="s">
         <v>62</v>
       </c>
@@ -16763,7 +16747,7 @@
       </c>
       <c r="M209" s="42"/>
     </row>
-    <row r="210" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" s="45" customFormat="1">
       <c r="A210" s="47" t="s">
         <v>62</v>
       </c>
@@ -16802,7 +16786,7 @@
       </c>
       <c r="M210" s="42"/>
     </row>
-    <row r="211" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" s="45" customFormat="1">
       <c r="A211" s="47" t="s">
         <v>62</v>
       </c>
@@ -16841,7 +16825,7 @@
       </c>
       <c r="M211" s="42"/>
     </row>
-    <row r="212" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" s="45" customFormat="1">
       <c r="A212" s="47" t="s">
         <v>62</v>
       </c>
@@ -16880,7 +16864,7 @@
       </c>
       <c r="M212" s="42"/>
     </row>
-    <row r="213" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A213" s="47" t="s">
         <v>62</v>
       </c>
@@ -16921,7 +16905,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" s="45" customFormat="1">
       <c r="A214" s="47" t="s">
         <v>62</v>
       </c>
@@ -16962,7 +16946,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="215" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" s="45" customFormat="1">
       <c r="A215" s="47" t="s">
         <v>62</v>
       </c>
@@ -17003,7 +16987,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="216" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1">
       <c r="A216" s="47" t="s">
         <v>62</v>
       </c>
@@ -17044,7 +17028,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="217" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" s="45" customFormat="1">
       <c r="A217" s="47" t="s">
         <v>62</v>
       </c>
@@ -17085,7 +17069,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" s="45" customFormat="1">
       <c r="A218" s="47" t="s">
         <v>62</v>
       </c>
@@ -17126,7 +17110,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A219" s="47" t="s">
         <v>62</v>
       </c>
@@ -17165,7 +17149,7 @@
       </c>
       <c r="M219" s="42"/>
     </row>
-    <row r="220" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A220" s="47" t="s">
         <v>62</v>
       </c>
@@ -17204,7 +17188,7 @@
       </c>
       <c r="M220" s="42"/>
     </row>
-    <row r="221" spans="1:13" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A221" s="47" t="s">
         <v>62</v>
       </c>
@@ -17243,7 +17227,7 @@
       </c>
       <c r="M221" s="42"/>
     </row>
-    <row r="222" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" s="13" customFormat="1">
       <c r="A222" s="8">
         <v>1</v>
       </c>
@@ -17282,7 +17266,7 @@
       </c>
       <c r="M222" s="9"/>
     </row>
-    <row r="223" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" s="13" customFormat="1">
       <c r="A223" s="8">
         <v>1</v>
       </c>
@@ -17321,7 +17305,7 @@
       </c>
       <c r="M223" s="9"/>
     </row>
-    <row r="224" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" s="13" customFormat="1">
       <c r="A224" s="8">
         <v>1</v>
       </c>
@@ -17360,7 +17344,7 @@
       </c>
       <c r="M224" s="9"/>
     </row>
-    <row r="225" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" s="13" customFormat="1">
       <c r="A225" s="8">
         <v>1</v>
       </c>
@@ -17399,7 +17383,7 @@
       </c>
       <c r="M225" s="9"/>
     </row>
-    <row r="226" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" s="13" customFormat="1">
       <c r="A226" s="8">
         <v>1</v>
       </c>
@@ -17438,7 +17422,7 @@
       </c>
       <c r="M226" s="9"/>
     </row>
-    <row r="227" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" s="13" customFormat="1">
       <c r="A227" s="8">
         <v>1</v>
       </c>
@@ -17477,7 +17461,7 @@
       </c>
       <c r="M227" s="9"/>
     </row>
-    <row r="228" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" s="13" customFormat="1">
       <c r="A228" s="8" t="s">
         <v>9</v>
       </c>
@@ -17518,7 +17502,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" s="45" customFormat="1">
       <c r="A229" s="47" t="s">
         <v>62</v>
       </c>
@@ -17557,7 +17541,7 @@
       </c>
       <c r="M229" s="42"/>
     </row>
-    <row r="230" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" s="45" customFormat="1">
       <c r="A230" s="47" t="s">
         <v>62</v>
       </c>
@@ -17598,7 +17582,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="231" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" s="45" customFormat="1">
       <c r="A231" s="47" t="s">
         <v>62</v>
       </c>
@@ -17639,7 +17623,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="232" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" s="18" customFormat="1">
       <c r="A232" s="32" t="s">
         <v>23</v>
       </c>
@@ -17676,7 +17660,7 @@
       <c r="L232" s="19"/>
       <c r="M232" s="15"/>
     </row>
-    <row r="233" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" s="18" customFormat="1">
       <c r="A233" s="32" t="s">
         <v>23</v>
       </c>
@@ -17717,7 +17701,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A234" s="8" t="s">
         <v>9</v>
       </c>
@@ -17756,7 +17740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" s="18" customFormat="1">
       <c r="A235" s="32" t="s">
         <v>23</v>
       </c>
@@ -17795,7 +17779,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" s="13" customFormat="1">
       <c r="A236" s="8" t="s">
         <v>9</v>
       </c>
@@ -17836,7 +17820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" s="52" customFormat="1" ht="18.75" customHeight="1">
       <c r="A237" s="69" t="s">
         <v>23</v>
       </c>
@@ -17877,7 +17861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="52" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" s="52" customFormat="1" ht="18.75" customHeight="1">
       <c r="A238" s="69" t="s">
         <v>23</v>
       </c>
@@ -17918,7 +17902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" s="13" customFormat="1">
       <c r="A239" s="8">
         <v>1</v>
       </c>
@@ -17959,7 +17943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
       <c r="A240" s="32">
         <v>2</v>
       </c>
@@ -18000,7 +17984,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" s="13" customFormat="1">
       <c r="A241" s="8">
         <v>1</v>
       </c>
@@ -18041,7 +18025,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" s="13" customFormat="1">
       <c r="A242" s="8" t="s">
         <v>9</v>
       </c>
@@ -18082,7 +18066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="A243" s="32">
         <v>2</v>
       </c>
@@ -18123,7 +18107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A244" s="32">
         <v>2</v>
       </c>
@@ -18164,7 +18148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A245" s="32">
         <v>2</v>
       </c>
@@ -18203,7 +18187,7 @@
       </c>
       <c r="M245" s="15"/>
     </row>
-    <row r="246" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A246" s="32">
         <v>2</v>
       </c>
@@ -18244,7 +18228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="247" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" s="38" customFormat="1">
       <c r="A247" s="40">
         <v>3</v>
       </c>
@@ -18283,7 +18267,7 @@
       </c>
       <c r="M247" s="34"/>
     </row>
-    <row r="248" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" s="38" customFormat="1">
       <c r="A248" s="40">
         <v>3</v>
       </c>
@@ -18322,7 +18306,7 @@
       </c>
       <c r="M248" s="34"/>
     </row>
-    <row r="249" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" s="38" customFormat="1">
       <c r="A249" s="40">
         <v>3</v>
       </c>
@@ -18363,7 +18347,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="250" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" s="38" customFormat="1">
       <c r="A250" s="40">
         <v>3</v>
       </c>
@@ -18404,7 +18388,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="251" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" s="45" customFormat="1">
       <c r="A251" s="47" t="s">
         <v>62</v>
       </c>
@@ -18443,7 +18427,7 @@
       </c>
       <c r="M251" s="42"/>
     </row>
-    <row r="252" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A252" s="47" t="s">
         <v>62</v>
       </c>
@@ -18484,7 +18468,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="253" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A253" s="32">
         <v>2</v>
       </c>
@@ -18525,7 +18509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" s="45" customFormat="1">
       <c r="A254" s="47" t="s">
         <v>62</v>
       </c>
@@ -18576,7 +18560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18584,23 +18568,23 @@
       <selection pane="bottomLeft" activeCell="I3" sqref="I3:I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -18626,7 +18610,7 @@
         <v>273</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>325</v>
@@ -18641,7 +18625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="38" customFormat="1">
       <c r="A2" s="34">
         <v>3</v>
       </c>
@@ -18680,7 +18664,7 @@
       </c>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="38" customFormat="1">
       <c r="A3" s="34">
         <v>3</v>
       </c>
@@ -18719,7 +18703,7 @@
       </c>
       <c r="M3" s="36"/>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="38" customFormat="1">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -18758,7 +18742,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="38" customFormat="1">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -18797,7 +18781,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="38" customFormat="1">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -18836,7 +18820,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="38" customFormat="1">
       <c r="A7" s="34">
         <v>3</v>
       </c>
@@ -18875,7 +18859,7 @@
       </c>
       <c r="M7" s="36"/>
     </row>
-    <row r="8" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="38" customFormat="1">
       <c r="A8" s="34">
         <v>3</v>
       </c>
@@ -18914,7 +18898,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="38" customFormat="1">
       <c r="A9" s="34">
         <v>3</v>
       </c>
@@ -18953,7 +18937,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="38" customFormat="1">
       <c r="A10" s="34">
         <v>3</v>
       </c>
@@ -18991,7 +18975,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="38" customFormat="1">
       <c r="A11" s="34">
         <v>3</v>
       </c>
@@ -19032,7 +19016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="38" customFormat="1">
       <c r="A12" s="34">
         <v>3</v>
       </c>
@@ -19070,7 +19054,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="38" customFormat="1">
       <c r="A13" s="34">
         <v>3</v>
       </c>
@@ -19108,7 +19092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="18" customFormat="1">
       <c r="A14" s="15">
         <v>2</v>
       </c>
@@ -19149,7 +19133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="18" customFormat="1">
       <c r="A15" s="15">
         <v>2</v>
       </c>
@@ -19190,7 +19174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="18" customFormat="1">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -19231,7 +19215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="18" customFormat="1">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -19272,7 +19256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="18" customFormat="1">
       <c r="A18" s="15">
         <v>2</v>
       </c>
@@ -19310,7 +19294,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="18" customFormat="1">
       <c r="A19" s="15">
         <v>2</v>
       </c>
@@ -19348,7 +19332,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="18" customFormat="1">
       <c r="A20" s="15">
         <v>2</v>
       </c>
@@ -19386,7 +19370,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="38" customFormat="1">
       <c r="A21" s="34">
         <v>3</v>
       </c>
@@ -19425,7 +19409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="38" customFormat="1">
       <c r="A22" s="34">
         <v>3</v>
       </c>
@@ -19461,7 +19445,7 @@
       </c>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="45" customFormat="1">
       <c r="A23" s="42">
         <v>4</v>
       </c>
@@ -19502,7 +19486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="45" customFormat="1">
       <c r="A24" s="42">
         <v>4</v>
       </c>
@@ -19543,7 +19527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="45" customFormat="1">
       <c r="A25" s="42">
         <v>4</v>
       </c>
@@ -19584,7 +19568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="45" customFormat="1">
       <c r="A26" s="42">
         <v>4</v>
       </c>
@@ -19625,7 +19609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="45" customFormat="1">
       <c r="A27" s="42">
         <v>4</v>
       </c>
@@ -19666,7 +19650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="45" customFormat="1">
       <c r="A28" s="42">
         <v>4</v>
       </c>
@@ -19705,7 +19689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="45" customFormat="1">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -19744,7 +19728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="45" customFormat="1">
       <c r="A30" s="42">
         <v>4</v>
       </c>
@@ -19783,7 +19767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="45" customFormat="1">
       <c r="A31" s="42">
         <v>4</v>
       </c>
@@ -19822,7 +19806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="45" customFormat="1">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -19861,7 +19845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="45" customFormat="1">
       <c r="A33" s="42">
         <v>4</v>
       </c>
@@ -19902,7 +19886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="45" customFormat="1">
       <c r="A34" s="42">
         <v>4</v>
       </c>
@@ -19943,7 +19927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="45" customFormat="1">
       <c r="A35" s="42">
         <v>4</v>
       </c>
@@ -19984,7 +19968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="45" customFormat="1">
       <c r="A36" s="42">
         <v>4</v>
       </c>
@@ -20025,7 +20009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="45" customFormat="1">
       <c r="A37" s="42">
         <v>4</v>
       </c>
@@ -20066,7 +20050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="45" customFormat="1">
       <c r="A38" s="42">
         <v>4</v>
       </c>
@@ -20107,7 +20091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="45" customFormat="1">
       <c r="A39" s="42">
         <v>4</v>
       </c>
@@ -20148,7 +20132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="45" customFormat="1">
       <c r="A40" s="42">
         <v>4</v>
       </c>
@@ -20189,7 +20173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="45" customFormat="1">
       <c r="A41" s="42">
         <v>4</v>
       </c>
@@ -20230,7 +20214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="45" customFormat="1">
       <c r="A42" s="42">
         <v>4</v>
       </c>
@@ -20271,7 +20255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="45" customFormat="1">
       <c r="A43" s="42">
         <v>4</v>
       </c>
@@ -20312,7 +20296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="45" customFormat="1">
       <c r="A44" s="42">
         <v>4</v>
       </c>
@@ -20351,7 +20335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="45" customFormat="1">
       <c r="A45" s="42">
         <v>4</v>
       </c>
@@ -20392,7 +20376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="45" customFormat="1">
       <c r="A46" s="42">
         <v>4</v>
       </c>
@@ -20440,27 +20424,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="8.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="57" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" customWidth="1"/>
-    <col min="8" max="8" width="29.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.81640625" style="64" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="36.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -20486,7 +20470,7 @@
         <v>273</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>325</v>
@@ -20501,7 +20485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="45" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="42">
         <v>4</v>
       </c>
@@ -20537,7 +20521,7 @@
       </c>
       <c r="L2" s="42"/>
     </row>
-    <row r="3" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="42">
         <v>4</v>
       </c>
@@ -20578,7 +20562,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="42">
         <v>4</v>
       </c>
@@ -20619,7 +20603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="45" customFormat="1">
       <c r="A5" s="42">
         <v>4</v>
       </c>
@@ -20660,7 +20644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="45" customFormat="1">
       <c r="A6" s="42">
         <v>4</v>
       </c>
@@ -20701,7 +20685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="45" customFormat="1">
       <c r="A7" s="42">
         <v>4</v>
       </c>
@@ -20742,7 +20726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="45" customFormat="1">
       <c r="A8" s="42">
         <v>4</v>
       </c>
@@ -20783,7 +20767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="45" customFormat="1">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -20822,7 +20806,7 @@
       </c>
       <c r="M9" s="42"/>
     </row>
-    <row r="10" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="45" customFormat="1">
       <c r="A10" s="42">
         <v>4</v>
       </c>
@@ -20863,7 +20847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="45" customFormat="1">
       <c r="A11" s="42">
         <v>4</v>
       </c>
@@ -20904,7 +20888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="45" customFormat="1">
       <c r="A12" s="42">
         <v>4</v>
       </c>
@@ -20945,7 +20929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="45" customFormat="1">
       <c r="A13" s="42">
         <v>4</v>
       </c>
@@ -20986,7 +20970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="45" customFormat="1">
       <c r="A14" s="42">
         <v>4</v>
       </c>
@@ -21027,7 +21011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="45" customFormat="1">
       <c r="A15" s="42">
         <v>4</v>
       </c>
@@ -21068,7 +21052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="45" customFormat="1">
       <c r="A16" s="42">
         <v>4</v>
       </c>
@@ -21109,7 +21093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="45" customFormat="1">
       <c r="A17" s="42">
         <v>4</v>
       </c>
@@ -21150,7 +21134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="45" customFormat="1">
       <c r="A18" s="42">
         <v>4</v>
       </c>
@@ -21191,7 +21175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="38" customFormat="1">
       <c r="A19" s="34">
         <v>3</v>
       </c>
@@ -21230,7 +21214,7 @@
       </c>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="45" customFormat="1">
       <c r="A20" s="42">
         <v>4</v>
       </c>
@@ -21268,7 +21252,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="45" customFormat="1">
       <c r="A21" s="42">
         <v>4</v>
       </c>
@@ -21307,7 +21291,7 @@
       </c>
       <c r="M21" s="42"/>
     </row>
-    <row r="22" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="45" customFormat="1">
       <c r="A22" s="42">
         <v>4</v>
       </c>
@@ -21346,7 +21330,7 @@
       </c>
       <c r="M22" s="42"/>
     </row>
-    <row r="23" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="45" customFormat="1">
       <c r="A23" s="42">
         <v>4</v>
       </c>
@@ -21385,7 +21369,7 @@
       </c>
       <c r="M23" s="42"/>
     </row>
-    <row r="24" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="45" customFormat="1">
       <c r="A24" s="42">
         <v>4</v>
       </c>
@@ -21424,7 +21408,7 @@
       </c>
       <c r="M24" s="42"/>
     </row>
-    <row r="25" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="45" customFormat="1">
       <c r="A25" s="42">
         <v>4</v>
       </c>
@@ -21463,7 +21447,7 @@
       </c>
       <c r="M25" s="42"/>
     </row>
-    <row r="26" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="45" customFormat="1">
       <c r="A26" s="42">
         <v>4</v>
       </c>
@@ -21502,7 +21486,7 @@
       </c>
       <c r="M26" s="42"/>
     </row>
-    <row r="27" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="45" customFormat="1">
       <c r="A27" s="42">
         <v>4</v>
       </c>
@@ -21541,7 +21525,7 @@
       </c>
       <c r="M27" s="42"/>
     </row>
-    <row r="28" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="45" customFormat="1">
       <c r="A28" s="42">
         <v>4</v>
       </c>
@@ -21582,7 +21566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="45" customFormat="1">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -21621,7 +21605,7 @@
       </c>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="45" customFormat="1">
       <c r="A30" s="42">
         <v>4</v>
       </c>
@@ -21660,7 +21644,7 @@
       </c>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="45" customFormat="1">
       <c r="A31" s="42">
         <v>4</v>
       </c>
@@ -21699,7 +21683,7 @@
       </c>
       <c r="M31" s="42"/>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="45" customFormat="1">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -21738,7 +21722,7 @@
       </c>
       <c r="M32" s="42"/>
     </row>
-    <row r="33" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="45" customFormat="1">
       <c r="A33" s="42">
         <v>4</v>
       </c>
@@ -21777,7 +21761,7 @@
       </c>
       <c r="M33" s="42"/>
     </row>
-    <row r="34" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="45" customFormat="1">
       <c r="A34" s="42">
         <v>4</v>
       </c>
@@ -21816,7 +21800,7 @@
       </c>
       <c r="M34" s="42"/>
     </row>
-    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="45" customFormat="1">
       <c r="A35" s="42">
         <v>4</v>
       </c>
@@ -21855,7 +21839,7 @@
       </c>
       <c r="M35" s="42"/>
     </row>
-    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="45" customFormat="1">
       <c r="A36" s="42">
         <v>4</v>
       </c>
@@ -21894,7 +21878,7 @@
       </c>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="42">
         <v>4</v>
       </c>
@@ -21930,7 +21914,7 @@
       </c>
       <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="42">
         <v>4</v>
       </c>
@@ -21966,7 +21950,7 @@
       </c>
       <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="42">
         <v>4</v>
       </c>
@@ -22002,7 +21986,7 @@
       </c>
       <c r="L39" s="42"/>
     </row>
-    <row r="40" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="42">
         <v>4</v>
       </c>
@@ -22038,7 +22022,7 @@
       </c>
       <c r="L40" s="42"/>
     </row>
-    <row r="41" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="42">
         <v>4</v>
       </c>
@@ -22074,7 +22058,7 @@
       </c>
       <c r="L41" s="42"/>
     </row>
-    <row r="42" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="42">
         <v>4</v>
       </c>
@@ -22110,7 +22094,7 @@
       </c>
       <c r="L42" s="42"/>
     </row>
-    <row r="43" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1">
       <c r="A43" s="42">
         <v>4</v>
       </c>
@@ -22146,7 +22130,7 @@
       </c>
       <c r="L43" s="42"/>
     </row>
-    <row r="44" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="52" customFormat="1">
       <c r="A44" s="49">
         <v>2</v>
       </c>
@@ -22185,7 +22169,7 @@
       </c>
       <c r="M44" s="49"/>
     </row>
-    <row r="45" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="49">
         <v>2</v>
       </c>
@@ -22224,7 +22208,7 @@
       </c>
       <c r="M45" s="49"/>
     </row>
-    <row r="46" spans="1:13" s="52" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A46" s="49">
         <v>2</v>
       </c>
@@ -22263,7 +22247,7 @@
       </c>
       <c r="M46" s="49"/>
     </row>
-    <row r="47" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="49">
         <v>2</v>
       </c>
@@ -22302,7 +22286,7 @@
       </c>
       <c r="M47" s="49"/>
     </row>
-    <row r="48" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="49">
         <v>2</v>
       </c>
@@ -22341,7 +22325,7 @@
       </c>
       <c r="M48" s="49"/>
     </row>
-    <row r="49" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="38" customFormat="1">
       <c r="A49" s="34">
         <v>3</v>
       </c>
@@ -22382,7 +22366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="13" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="13" customFormat="1" ht="31.5">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -22418,7 +22402,7 @@
       </c>
       <c r="L50" s="73"/>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" s="13" customFormat="1" ht="31.5">
       <c r="A51" s="9">
         <v>1</v>
       </c>
@@ -22454,7 +22438,7 @@
       </c>
       <c r="L51" s="73"/>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="13" customFormat="1" ht="31.5">
       <c r="A52" s="9">
         <v>1</v>
       </c>
@@ -22490,7 +22474,7 @@
       </c>
       <c r="L52" s="73"/>
     </row>
-    <row r="53" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="49">
         <v>2</v>
       </c>
@@ -22529,7 +22513,7 @@
       </c>
       <c r="M53" s="49"/>
     </row>
-    <row r="54" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="52" customFormat="1">
       <c r="A54" s="49">
         <v>2</v>
       </c>
@@ -22568,7 +22552,7 @@
       </c>
       <c r="M54" s="49"/>
     </row>
-    <row r="55" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" s="52" customFormat="1">
       <c r="A55" s="49">
         <v>2</v>
       </c>
@@ -22607,7 +22591,7 @@
       </c>
       <c r="M55" s="49"/>
     </row>
-    <row r="56" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="52" customFormat="1">
       <c r="A56" s="49">
         <v>2</v>
       </c>
@@ -22646,7 +22630,7 @@
       </c>
       <c r="M56" s="49"/>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" s="38" customFormat="1">
       <c r="A57" s="34">
         <v>3</v>
       </c>
@@ -22687,7 +22671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A58" s="34">
         <v>3</v>
       </c>
@@ -22726,7 +22710,7 @@
       </c>
       <c r="M58" s="34"/>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A59" s="34">
         <v>3</v>
       </c>
@@ -22765,7 +22749,7 @@
       </c>
       <c r="M59" s="34"/>
     </row>
-    <row r="60" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A60" s="34">
         <v>3</v>
       </c>
@@ -22804,7 +22788,7 @@
       </c>
       <c r="M60" s="34"/>
     </row>
-    <row r="61" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A61" s="34">
         <v>3</v>
       </c>
@@ -22843,7 +22827,7 @@
       </c>
       <c r="M61" s="34"/>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="34">
         <v>3</v>
       </c>
@@ -22882,7 +22866,7 @@
       </c>
       <c r="M62" s="34"/>
     </row>
-    <row r="63" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="34">
         <v>3</v>
       </c>
@@ -22923,7 +22907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" s="38" customFormat="1">
       <c r="A64" s="34">
         <v>3</v>
       </c>
@@ -22964,7 +22948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" s="38" customFormat="1">
       <c r="A65" s="34">
         <v>3</v>
       </c>
@@ -23005,7 +22989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" s="38" customFormat="1">
       <c r="A66" s="34">
         <v>3</v>
       </c>
@@ -23046,7 +23030,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" s="38" customFormat="1">
       <c r="A67" s="34">
         <v>3</v>
       </c>
@@ -23087,7 +23071,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="34">
         <v>3</v>
       </c>
@@ -23126,7 +23110,7 @@
       </c>
       <c r="M68" s="34"/>
     </row>
-    <row r="69" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="34">
         <v>3</v>
       </c>
@@ -23165,7 +23149,7 @@
       </c>
       <c r="M69" s="34"/>
     </row>
-    <row r="70" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="34">
         <v>3</v>
       </c>
@@ -23204,7 +23188,7 @@
       </c>
       <c r="M70" s="34"/>
     </row>
-    <row r="71" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="34">
         <v>3</v>
       </c>
@@ -23243,7 +23227,7 @@
       </c>
       <c r="M71" s="34"/>
     </row>
-    <row r="72" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" s="38" customFormat="1">
       <c r="A72" s="34">
         <v>3</v>
       </c>
@@ -23282,7 +23266,7 @@
       </c>
       <c r="M72" s="34"/>
     </row>
-    <row r="73" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" s="38" customFormat="1">
       <c r="A73" s="34">
         <v>3</v>
       </c>
@@ -23321,7 +23305,7 @@
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="34">
         <v>3</v>
       </c>
@@ -23360,7 +23344,7 @@
       </c>
       <c r="M74" s="34"/>
     </row>
-    <row r="75" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A75" s="34">
         <v>3</v>
       </c>
@@ -23399,7 +23383,7 @@
       </c>
       <c r="M75" s="34"/>
     </row>
-    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="34">
         <v>3</v>
       </c>
@@ -23438,7 +23422,7 @@
       </c>
       <c r="M76" s="34"/>
     </row>
-    <row r="77" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="34">
         <v>3</v>
       </c>
@@ -23477,7 +23461,7 @@
       </c>
       <c r="M77" s="34"/>
     </row>
-    <row r="78" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A78" s="34">
         <v>3</v>
       </c>
@@ -23516,7 +23500,7 @@
       </c>
       <c r="M78" s="34"/>
     </row>
-    <row r="79" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A79" s="34">
         <v>3</v>
       </c>
@@ -23555,7 +23539,7 @@
       </c>
       <c r="M79" s="34"/>
     </row>
-    <row r="80" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A80" s="34">
         <v>3</v>
       </c>
@@ -23594,7 +23578,7 @@
       </c>
       <c r="M80" s="34"/>
     </row>
-    <row r="81" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A81" s="34">
         <v>3</v>
       </c>
@@ -23633,7 +23617,7 @@
       </c>
       <c r="M81" s="34"/>
     </row>
-    <row r="82" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
       <c r="A82" s="34">
         <v>3</v>
       </c>
@@ -23672,7 +23656,7 @@
       </c>
       <c r="M82" s="34"/>
     </row>
-    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" s="38" customFormat="1">
       <c r="A83" s="34">
         <v>3</v>
       </c>
@@ -23711,7 +23695,7 @@
       </c>
       <c r="M83" s="34"/>
     </row>
-    <row r="84" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" s="38" customFormat="1">
       <c r="A84" s="34">
         <v>3</v>
       </c>
@@ -23750,7 +23734,7 @@
       </c>
       <c r="M84" s="34"/>
     </row>
-    <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" s="38" customFormat="1">
       <c r="A85" s="34">
         <v>3</v>
       </c>
@@ -23789,7 +23773,7 @@
       </c>
       <c r="M85" s="34"/>
     </row>
-    <row r="86" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" s="38" customFormat="1">
       <c r="A86" s="34">
         <v>3</v>
       </c>
@@ -23828,7 +23812,7 @@
       </c>
       <c r="M86" s="34"/>
     </row>
-    <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" s="38" customFormat="1">
       <c r="A87" s="34">
         <v>3</v>
       </c>
@@ -23867,7 +23851,7 @@
       </c>
       <c r="M87" s="34"/>
     </row>
-    <row r="88" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" s="38" customFormat="1">
       <c r="A88" s="34">
         <v>3</v>
       </c>
@@ -23906,7 +23890,7 @@
       </c>
       <c r="M88" s="34"/>
     </row>
-    <row r="89" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" s="45" customFormat="1">
       <c r="A89" s="42">
         <v>4</v>
       </c>
@@ -23947,7 +23931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" s="45" customFormat="1">
       <c r="A90" s="42">
         <v>4</v>
       </c>
@@ -23988,7 +23972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" s="45" customFormat="1">
       <c r="A91" s="42">
         <v>4</v>
       </c>
@@ -24029,7 +24013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" s="45" customFormat="1">
       <c r="A92" s="42">
         <v>4</v>
       </c>
@@ -24070,7 +24054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" s="45" customFormat="1">
       <c r="A93" s="42">
         <v>4</v>
       </c>
@@ -24111,7 +24095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" s="45" customFormat="1">
       <c r="A94" s="42">
         <v>4</v>
       </c>
@@ -24152,7 +24136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" s="45" customFormat="1">
       <c r="A95" s="42">
         <v>4</v>
       </c>
@@ -24193,7 +24177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" s="45" customFormat="1">
       <c r="A96" s="42">
         <v>4</v>
       </c>
@@ -24234,7 +24218,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" s="38" customFormat="1">
       <c r="A97" s="34">
         <v>3</v>
       </c>
@@ -24273,7 +24257,7 @@
       </c>
       <c r="M97" s="34"/>
     </row>
-    <row r="98" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A98" s="49">
         <v>2</v>
       </c>
@@ -24314,7 +24298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" s="52" customFormat="1">
       <c r="A99" s="49">
         <v>2</v>
       </c>
@@ -24353,7 +24337,7 @@
       </c>
       <c r="M99" s="49"/>
     </row>
-    <row r="100" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" s="38" customFormat="1">
       <c r="A100" s="34">
         <v>3</v>
       </c>
@@ -24392,7 +24376,7 @@
       </c>
       <c r="M100" s="34"/>
     </row>
-    <row r="101" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" s="52" customFormat="1">
       <c r="A101" s="49">
         <v>2</v>
       </c>
@@ -24433,7 +24417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" s="52" customFormat="1">
       <c r="A102" s="49">
         <v>2</v>
       </c>
@@ -24474,7 +24458,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" s="52" customFormat="1">
       <c r="A103" s="49">
         <v>2</v>
       </c>
@@ -24515,7 +24499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" s="38" customFormat="1">
       <c r="A104" s="34">
         <v>3</v>
       </c>
@@ -24556,7 +24540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" s="38" customFormat="1">
       <c r="A105" s="34">
         <v>3</v>
       </c>
@@ -24597,7 +24581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" s="52" customFormat="1">
       <c r="A106" s="49">
         <v>2</v>
       </c>
@@ -24638,7 +24622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" s="52" customFormat="1">
       <c r="A107" s="49">
         <v>2</v>
       </c>
@@ -24679,7 +24663,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" s="52" customFormat="1">
       <c r="A108" s="49">
         <v>2</v>
       </c>
@@ -24720,7 +24704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A109" s="49">
         <v>2</v>
       </c>
@@ -24759,7 +24743,7 @@
       </c>
       <c r="M109" s="49"/>
     </row>
-    <row r="110" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A110" s="49">
         <v>2</v>
       </c>
@@ -24798,7 +24782,7 @@
       </c>
       <c r="M110" s="49"/>
     </row>
-    <row r="111" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" s="52" customFormat="1">
       <c r="A111" s="49">
         <v>2</v>
       </c>
@@ -24839,7 +24823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A112" s="34">
         <v>3</v>
       </c>
@@ -24878,7 +24862,7 @@
       </c>
       <c r="M112" s="34"/>
     </row>
-    <row r="113" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" s="45" customFormat="1">
       <c r="A113" s="42">
         <v>4</v>
       </c>
@@ -24919,7 +24903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" s="45" customFormat="1">
       <c r="A114" s="42">
         <v>4</v>
       </c>
@@ -24960,7 +24944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" s="45" customFormat="1">
       <c r="A115" s="42">
         <v>4</v>
       </c>
@@ -25001,7 +24985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" s="38" customFormat="1">
       <c r="A116" s="34">
         <v>3</v>
       </c>
@@ -25042,7 +25026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1">
       <c r="A117" s="42">
         <v>4</v>
       </c>
@@ -25090,26 +25074,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="26.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -25135,7 +25119,7 @@
         <v>273</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>325</v>
@@ -25150,7 +25134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="13" customFormat="1">
       <c r="A2" s="9">
         <v>5</v>
       </c>
@@ -25188,7 +25172,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="9">
         <v>5</v>
       </c>
@@ -25226,7 +25210,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="13" customFormat="1">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -25264,7 +25248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -25302,7 +25286,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -25340,7 +25324,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -25378,7 +25362,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -25416,7 +25400,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -25457,7 +25441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="13" customFormat="1">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -25498,7 +25482,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="13" customFormat="1">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -25539,7 +25523,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="13" customFormat="1">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -25574,11 +25558,11 @@
         <v>4</v>
       </c>
       <c r="L12" s="95" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="13" customFormat="1">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -25617,23 +25601,48 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+    <row r="14" spans="1:13" s="13" customFormat="1">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>415</v>
+      </c>
       <c r="I14" s="10">
         <v>2</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="10">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10">
+        <v>4</v>
+      </c>
+      <c r="L14" s="95" t="s">
+        <v>420</v>
+      </c>
+      <c r="M14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -25647,7 +25656,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>91</v>
@@ -25655,7 +25664,7 @@
       <c r="G15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="103" t="s">
         <v>415</v>
       </c>
       <c r="I15" s="10">
@@ -25667,12 +25676,12 @@
       <c r="K15" s="10">
         <v>4</v>
       </c>
-      <c r="L15" s="95" t="s">
-        <v>418</v>
+      <c r="L15" s="102" t="s">
+        <v>421</v>
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="13" customFormat="1">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -25686,7 +25695,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>91</v>
@@ -25695,7 +25704,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="I16" s="10">
         <v>2</v>
@@ -25704,13 +25713,16 @@
         <v>3</v>
       </c>
       <c r="K16" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16" s="95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="M16" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="30">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -25724,7 +25736,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>91</v>
@@ -25732,8 +25744,8 @@
       <c r="G17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>348</v>
+      <c r="H17" s="103" t="s">
+        <v>415</v>
       </c>
       <c r="I17" s="10">
         <v>2</v>
@@ -25742,13 +25754,16 @@
         <v>3</v>
       </c>
       <c r="K17" s="10">
-        <v>5</v>
-      </c>
-      <c r="L17" s="95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="L17" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="M17" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -25771,7 +25786,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="I18" s="10">
         <v>2</v>
@@ -25786,22 +25801,48 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+    <row r="19" spans="1:13" s="13" customFormat="1">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>415</v>
+      </c>
       <c r="I19" s="10">
         <v>2</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="95"/>
-    </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="10">
+        <v>3</v>
+      </c>
+      <c r="K19" s="10">
+        <v>4</v>
+      </c>
+      <c r="L19" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1">
       <c r="A20" s="9">
         <v>5</v>
       </c>
@@ -25842,7 +25883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="13" customFormat="1">
       <c r="A21" s="9">
         <v>5</v>
       </c>
@@ -25883,7 +25924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="13" customFormat="1">
       <c r="A22" s="9">
         <v>5</v>
       </c>
@@ -25924,7 +25965,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="13" customFormat="1">
       <c r="A23" s="9">
         <v>5</v>
       </c>
@@ -25965,7 +26006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -26006,7 +26047,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="9">
         <v>5</v>
       </c>
@@ -26047,7 +26088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="9">
         <v>5</v>
       </c>
@@ -26088,7 +26129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="9">
         <v>5</v>
       </c>
@@ -26129,7 +26170,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="9">
         <v>5</v>
       </c>
@@ -26170,7 +26211,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="9">
         <v>5</v>
       </c>
@@ -26211,7 +26252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="9">
         <v>5</v>
       </c>
@@ -26252,7 +26293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="9">
         <v>5</v>
       </c>
@@ -26293,7 +26334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="9">
         <v>5</v>
       </c>
@@ -26334,7 +26375,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="9">
         <v>5</v>
       </c>
@@ -26375,7 +26416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="9">
         <v>5</v>
       </c>
@@ -26416,7 +26457,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="9">
         <v>5</v>
       </c>
@@ -26457,7 +26498,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="9">
         <v>5</v>
       </c>
@@ -26498,7 +26539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="9">
         <v>5</v>
       </c>
@@ -26539,7 +26580,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="9">
         <v>5</v>
       </c>
@@ -26580,7 +26621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="13" customFormat="1">
       <c r="A39" s="9">
         <v>5</v>
       </c>
@@ -26626,26 +26667,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -26689,30 +26730,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="91" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="91" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -26738,7 +26779,7 @@
         <v>273</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>325</v>
@@ -26754,7 +26795,7 @@
       </c>
       <c r="N1" s="90"/>
     </row>
-    <row r="2" spans="1:14" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="52" customFormat="1" ht="30">
       <c r="A2" s="92" t="s">
         <v>336</v>
       </c>
@@ -26795,7 +26836,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="52" customFormat="1" ht="30">
       <c r="A3" s="92" t="s">
         <v>336</v>
       </c>
@@ -26834,7 +26875,7 @@
       </c>
       <c r="M3" s="49"/>
     </row>
-    <row r="4" spans="1:14" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="52" customFormat="1" ht="30">
       <c r="A4" s="92" t="s">
         <v>336</v>
       </c>
@@ -26873,7 +26914,7 @@
       </c>
       <c r="M4" s="49"/>
     </row>
-    <row r="5" spans="1:14" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="52" customFormat="1" ht="30">
       <c r="A5" s="92" t="s">
         <v>336</v>
       </c>
@@ -26912,7 +26953,7 @@
       </c>
       <c r="M5" s="49"/>
     </row>
-    <row r="6" spans="1:14" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="52" customFormat="1" ht="30">
       <c r="A6" s="92" t="s">
         <v>336</v>
       </c>
@@ -26951,7 +26992,7 @@
       </c>
       <c r="M6" s="49"/>
     </row>
-    <row r="7" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="52" customFormat="1">
       <c r="A7" s="92" t="s">
         <v>336</v>
       </c>
@@ -26990,7 +27031,7 @@
       </c>
       <c r="M7" s="49"/>
     </row>
-    <row r="8" spans="1:14" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="52" customFormat="1" ht="30">
       <c r="A8" s="92" t="s">
         <v>336</v>
       </c>
@@ -27029,7 +27070,7 @@
       </c>
       <c r="M8" s="49"/>
     </row>
-    <row r="9" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="52" customFormat="1">
       <c r="A9" s="92" t="s">
         <v>336</v>
       </c>
@@ -27068,7 +27109,7 @@
       </c>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="52" customFormat="1">
       <c r="A10" s="92" t="s">
         <v>336</v>
       </c>
@@ -27107,7 +27148,7 @@
       </c>
       <c r="M10" s="49"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="13" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>330</v>
       </c>
@@ -27146,7 +27187,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="13" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>330</v>
       </c>
@@ -27185,7 +27226,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="13" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>330</v>
       </c>
@@ -27224,7 +27265,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>330</v>
       </c>
@@ -27265,7 +27306,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="13" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>330</v>
       </c>
@@ -27306,7 +27347,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>330</v>
       </c>
@@ -27345,7 +27386,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>330</v>
       </c>
@@ -27386,7 +27427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>330</v>
       </c>
@@ -27425,7 +27466,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>330</v>
       </c>
@@ -27466,7 +27507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>330</v>
       </c>
@@ -27507,7 +27548,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>330</v>
       </c>
@@ -27548,7 +27589,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="13" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>330</v>
       </c>
@@ -27589,7 +27630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="13" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>330</v>
       </c>
@@ -27630,7 +27671,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>330</v>
       </c>
@@ -27671,7 +27712,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="13" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>330</v>
       </c>
@@ -27712,7 +27753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>330</v>
       </c>
@@ -27751,7 +27792,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="13" customFormat="1">
       <c r="A27" s="8" t="s">
         <v>330</v>
       </c>
@@ -27790,7 +27831,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="13" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>330</v>
       </c>
@@ -27831,7 +27872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>330</v>
       </c>
@@ -27872,7 +27913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="13" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>330</v>
       </c>
@@ -27913,7 +27954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="13" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>330</v>
       </c>
@@ -27954,7 +27995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>330</v>
       </c>
@@ -27995,7 +28036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>330</v>
       </c>
@@ -28036,7 +28077,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="13" customFormat="1">
       <c r="A34" s="8" t="s">
         <v>330</v>
       </c>
@@ -28077,7 +28118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="13" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>330</v>
       </c>
@@ -28118,7 +28159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="13" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>330</v>
       </c>
@@ -28159,7 +28200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="13" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>330</v>
       </c>
@@ -28200,7 +28241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="13" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>330</v>
       </c>
@@ -28241,7 +28282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="13" customFormat="1">
       <c r="A39" s="8" t="s">
         <v>330</v>
       </c>
@@ -28280,7 +28321,7 @@
       </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="13" customFormat="1">
       <c r="A40" s="8" t="s">
         <v>330</v>
       </c>
@@ -28321,7 +28362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="13" customFormat="1">
       <c r="A41" s="8" t="s">
         <v>330</v>
       </c>
@@ -28362,7 +28403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="13" customFormat="1">
       <c r="A42" s="8" t="s">
         <v>330</v>
       </c>
@@ -28403,7 +28444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="13" customFormat="1">
       <c r="A43" s="8" t="s">
         <v>330</v>
       </c>
@@ -28440,7 +28481,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="13" customFormat="1">
       <c r="A44" s="8" t="s">
         <v>330</v>
       </c>
@@ -28481,7 +28522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="13" customFormat="1">
       <c r="A45" s="8" t="s">
         <v>330</v>
       </c>
@@ -28520,7 +28561,7 @@
       </c>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="13" customFormat="1">
       <c r="A46" s="8" t="s">
         <v>330</v>
       </c>
@@ -28559,7 +28600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="13" customFormat="1">
       <c r="A47" s="8" t="s">
         <v>330</v>
       </c>
@@ -28597,7 +28638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" s="13" customFormat="1">
       <c r="A48" s="8" t="s">
         <v>330</v>
       </c>
@@ -28636,7 +28677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="13" customFormat="1">
       <c r="A49" s="8" t="s">
         <v>330</v>
       </c>
@@ -28675,7 +28716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="13" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>330</v>
       </c>
@@ -28714,7 +28755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" s="13" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>330</v>
       </c>
@@ -28753,7 +28794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="13" customFormat="1">
       <c r="A52" s="8" t="s">
         <v>330</v>
       </c>
@@ -28792,7 +28833,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" s="13" customFormat="1">
       <c r="A53" s="8" t="s">
         <v>330</v>
       </c>
@@ -28831,7 +28872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="13" customFormat="1">
       <c r="A54" s="8" t="s">
         <v>330</v>
       </c>
@@ -28870,7 +28911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" s="13" customFormat="1">
       <c r="A55" s="8" t="s">
         <v>330</v>
       </c>
@@ -28909,7 +28950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="13" customFormat="1">
       <c r="A56" s="8" t="s">
         <v>330</v>
       </c>
@@ -28948,7 +28989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" s="13" customFormat="1">
       <c r="A57" s="8" t="s">
         <v>330</v>
       </c>
@@ -28989,7 +29030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="13" customFormat="1">
       <c r="A58" s="8" t="s">
         <v>330</v>
       </c>
@@ -29040,29 +29081,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="55" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="55" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -16,14 +16,14 @@
     <sheet name="geom_2" sheetId="7" r:id="rId7"/>
     <sheet name="numb_2" sheetId="8" r:id="rId8"/>
     <sheet name="algebra" sheetId="9" r:id="rId9"/>
-    <sheet name="data" sheetId="10" r:id="rId10"/>
+    <sheet name="data_2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="435">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1414,6 +1414,46 @@
   </si>
   <si>
     <t>numbers182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinatni sistem </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEO                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theme</t>
+    </r>
+  </si>
+  <si>
+    <t>Zavisnost među veličinama</t>
+  </si>
+  <si>
+    <t>Koordinate tačaka</t>
+  </si>
+  <si>
+    <t>4 razlomka</t>
+  </si>
+  <si>
+    <t>3 razlomka + decimalni broj</t>
+  </si>
+  <si>
+    <t>4 decimalna broj</t>
+  </si>
+  <si>
+    <t>15&amp;41</t>
+  </si>
+  <si>
+    <t>Forma razlomka</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1861,6 +1901,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2179,7 +2226,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4734,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>235</v>
+        <v>434</v>
       </c>
       <c r="M69" s="42">
         <v>28</v>
@@ -4748,66 +4795,177 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="36.75" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="76" t="s">
         <v>273</v>
       </c>
       <c r="I1" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="K1" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="L1" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="105" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="15.75">
+      <c r="A2" s="15">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>8</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="15">
+        <v>4</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="15.75">
+      <c r="A3" s="15">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="I3" s="15">
+        <v>4</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="15.75">
+      <c r="A4" s="15">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" s="15">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25075,10 +25233,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26659,6 +26817,168 @@
         <v>17</v>
       </c>
       <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" s="13" customFormat="1">
+      <c r="A40" s="9">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I40" s="10">
+        <v>2</v>
+      </c>
+      <c r="J40" s="10">
+        <v>3</v>
+      </c>
+      <c r="K40" s="10">
+        <v>4</v>
+      </c>
+      <c r="L40" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" s="13" customFormat="1">
+      <c r="A41" s="9">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2</v>
+      </c>
+      <c r="J41" s="10">
+        <v>3</v>
+      </c>
+      <c r="K41" s="10">
+        <v>4</v>
+      </c>
+      <c r="L41" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="M41" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="13" customFormat="1">
+      <c r="A42" s="9">
+        <v>5</v>
+      </c>
+      <c r="B42" s="9">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2</v>
+      </c>
+      <c r="J42" s="10">
+        <v>3</v>
+      </c>
+      <c r="K42" s="10">
+        <v>4</v>
+      </c>
+      <c r="L42" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="M42" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="13" customFormat="1">
+      <c r="A43" s="9">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I43" s="10">
+        <v>2</v>
+      </c>
+      <c r="J43" s="10">
+        <v>3</v>
+      </c>
+      <c r="K43" s="10">
+        <v>4</v>
+      </c>
+      <c r="L43" s="95" t="s">
+        <v>432</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>433</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26733,7 +27053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12:I58"/>
     </sheetView>
   </sheetViews>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="450">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1454,6 +1454,51 @@
   </si>
   <si>
     <t>Forma razlomka</t>
+  </si>
+  <si>
+    <t>fractions 27</t>
+  </si>
+  <si>
+    <t>Množenje i deljenje razlomaka</t>
+  </si>
+  <si>
+    <t>Množenje 2 razlomka</t>
+  </si>
+  <si>
+    <t>razlomak*decimalni broj</t>
+  </si>
+  <si>
+    <t>decimalni*decimalni broj</t>
+  </si>
+  <si>
+    <t>recipročna vrednost</t>
+  </si>
+  <si>
+    <t>deo  broja</t>
+  </si>
+  <si>
+    <t>fractions 34</t>
+  </si>
+  <si>
+    <t>deljenje razlomaka(dec. broj)</t>
+  </si>
+  <si>
+    <t>veće/manje</t>
+  </si>
+  <si>
+    <t>brojevni izraz</t>
+  </si>
+  <si>
+    <t>množenje 2 decimalna broja</t>
+  </si>
+  <si>
+    <t>deljenje 2 decimalna broja</t>
+  </si>
+  <si>
+    <t>množenje/deljenje dekadnom jedinicom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deljenje dec. sa celim brojem </t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,12 +1843,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1908,6 +1947,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1917,9 +1974,9 @@
   <colors>
     <mruColors>
       <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FF99FFCC"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF99CCFF"/>
@@ -2225,8 +2282,8 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2274,10 +2331,10 @@
       <c r="I1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -2564,13 +2621,13 @@
       <c r="H9" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="16">
-        <v>1</v>
-      </c>
-      <c r="J9" s="82">
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="80">
         <v>6</v>
       </c>
-      <c r="K9" s="82">
+      <c r="K9" s="80">
         <v>3</v>
       </c>
       <c r="L9" s="37"/>
@@ -2924,7 +2981,7 @@
       <c r="H19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="43">
         <v>1</v>
       </c>
       <c r="J19" s="43">
@@ -2960,7 +3017,7 @@
       <c r="H20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="35">
         <v>1</v>
       </c>
       <c r="J20" s="35">
@@ -2996,7 +3053,7 @@
       <c r="H21" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="35">
         <v>1</v>
       </c>
       <c r="J21" s="35">
@@ -3032,13 +3089,13 @@
       <c r="H22" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="16">
-        <v>1</v>
-      </c>
-      <c r="J22" s="82">
+      <c r="I22" s="35">
+        <v>1</v>
+      </c>
+      <c r="J22" s="80">
         <v>6</v>
       </c>
-      <c r="K22" s="82">
+      <c r="K22" s="80">
         <v>4</v>
       </c>
       <c r="L22" s="37"/>
@@ -3068,7 +3125,7 @@
       <c r="H23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="43">
         <v>1</v>
       </c>
       <c r="J23" s="43">
@@ -3104,13 +3161,13 @@
       <c r="H24" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="82">
+      <c r="I24" s="35">
+        <v>1</v>
+      </c>
+      <c r="J24" s="80">
         <v>6</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K24" s="80">
         <v>3</v>
       </c>
       <c r="L24" s="39"/>
@@ -3140,13 +3197,13 @@
       <c r="H25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="16">
-        <v>1</v>
-      </c>
-      <c r="J25" s="82">
+      <c r="I25" s="35">
+        <v>1</v>
+      </c>
+      <c r="J25" s="80">
         <v>6</v>
       </c>
-      <c r="K25" s="82">
+      <c r="K25" s="80">
         <v>4</v>
       </c>
       <c r="L25" s="37"/>
@@ -3176,13 +3233,13 @@
       <c r="H26" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="16">
-        <v>1</v>
-      </c>
-      <c r="J26" s="82">
+      <c r="I26" s="35">
+        <v>1</v>
+      </c>
+      <c r="J26" s="80">
         <v>6</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="80">
         <v>3</v>
       </c>
       <c r="L26" s="37"/>
@@ -3212,7 +3269,7 @@
       <c r="H27" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="35">
         <v>1</v>
       </c>
       <c r="J27" s="35">
@@ -3248,13 +3305,13 @@
       <c r="H28" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="16">
-        <v>1</v>
-      </c>
-      <c r="J28" s="82">
+      <c r="I28" s="35">
+        <v>1</v>
+      </c>
+      <c r="J28" s="80">
         <v>6</v>
       </c>
-      <c r="K28" s="82">
+      <c r="K28" s="80">
         <v>3</v>
       </c>
       <c r="L28" s="37"/>
@@ -3281,16 +3338,16 @@
       <c r="G29" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="16">
-        <v>1</v>
-      </c>
-      <c r="J29" s="89">
+      <c r="I29" s="43">
+        <v>1</v>
+      </c>
+      <c r="J29" s="87">
         <v>6</v>
       </c>
-      <c r="K29" s="89">
+      <c r="K29" s="87">
         <v>3</v>
       </c>
       <c r="L29" s="46"/>
@@ -3320,13 +3377,13 @@
       <c r="H30" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="16">
-        <v>1</v>
-      </c>
-      <c r="J30" s="82">
+      <c r="I30" s="35">
+        <v>1</v>
+      </c>
+      <c r="J30" s="80">
         <v>6</v>
       </c>
-      <c r="K30" s="82">
+      <c r="K30" s="80">
         <v>3</v>
       </c>
       <c r="L30" s="37"/>
@@ -3356,7 +3413,7 @@
       <c r="H31" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="35">
         <v>1</v>
       </c>
       <c r="J31" s="35">
@@ -3392,7 +3449,7 @@
       <c r="H32" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="43">
         <v>1</v>
       </c>
       <c r="J32" s="43">
@@ -3428,7 +3485,7 @@
       <c r="H33" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="35">
         <v>1</v>
       </c>
       <c r="J33" s="35">
@@ -3464,7 +3521,7 @@
       <c r="H34" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="35">
         <v>1</v>
       </c>
       <c r="J34" s="35">
@@ -3500,7 +3557,7 @@
       <c r="H35" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="43">
         <v>1</v>
       </c>
       <c r="J35" s="43">
@@ -3536,7 +3593,7 @@
       <c r="H36" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="43">
         <v>1</v>
       </c>
       <c r="J36" s="43">
@@ -3572,7 +3629,7 @@
       <c r="H37" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="43">
         <v>1</v>
       </c>
       <c r="J37" s="43">
@@ -3608,7 +3665,7 @@
       <c r="H38" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="43">
         <v>1</v>
       </c>
       <c r="J38" s="43">
@@ -3644,7 +3701,7 @@
       <c r="H39" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="35">
         <v>1</v>
       </c>
       <c r="J39" s="35">
@@ -3680,7 +3737,7 @@
       <c r="H40" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="43">
         <v>1</v>
       </c>
       <c r="J40" s="43">
@@ -3716,7 +3773,7 @@
       <c r="H41" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="43">
         <v>1</v>
       </c>
       <c r="J41" s="43">
@@ -3788,7 +3845,7 @@
       <c r="H43" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="35">
         <v>1</v>
       </c>
       <c r="J43" s="35">
@@ -3824,13 +3881,13 @@
       <c r="H44" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="16">
-        <v>1</v>
-      </c>
-      <c r="J44" s="82">
+      <c r="I44" s="35">
+        <v>1</v>
+      </c>
+      <c r="J44" s="80">
         <v>6</v>
       </c>
-      <c r="K44" s="82">
+      <c r="K44" s="80">
         <v>4</v>
       </c>
       <c r="L44" s="37"/>
@@ -3863,13 +3920,13 @@
       <c r="H45" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="16">
-        <v>1</v>
-      </c>
-      <c r="J45" s="82">
+      <c r="I45" s="35">
+        <v>1</v>
+      </c>
+      <c r="J45" s="80">
         <v>6</v>
       </c>
-      <c r="K45" s="82">
+      <c r="K45" s="80">
         <v>4</v>
       </c>
       <c r="L45" s="37"/>
@@ -3899,13 +3956,13 @@
       <c r="H46" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="16">
-        <v>1</v>
-      </c>
-      <c r="J46" s="82">
+      <c r="I46" s="35">
+        <v>1</v>
+      </c>
+      <c r="J46" s="80">
         <v>6</v>
       </c>
-      <c r="K46" s="82">
+      <c r="K46" s="80">
         <v>4</v>
       </c>
       <c r="L46" s="37"/>
@@ -3938,7 +3995,7 @@
       <c r="H47" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="43">
         <v>1</v>
       </c>
       <c r="J47" s="43">
@@ -3974,7 +4031,7 @@
       <c r="H48" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="43">
         <v>1</v>
       </c>
       <c r="J48" s="43">
@@ -4010,7 +4067,7 @@
       <c r="H49" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="43">
         <v>1</v>
       </c>
       <c r="J49" s="43">
@@ -4046,13 +4103,13 @@
       <c r="H50" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="16">
-        <v>1</v>
-      </c>
-      <c r="J50" s="82">
+      <c r="I50" s="35">
+        <v>1</v>
+      </c>
+      <c r="J50" s="80">
         <v>6</v>
       </c>
-      <c r="K50" s="82">
+      <c r="K50" s="80">
         <v>4</v>
       </c>
       <c r="L50" s="37"/>
@@ -4085,7 +4142,7 @@
       <c r="H51" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="43">
         <v>1</v>
       </c>
       <c r="J51" s="43">
@@ -4124,7 +4181,7 @@
       <c r="H52" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="43">
         <v>1</v>
       </c>
       <c r="J52" s="43">
@@ -4163,7 +4220,7 @@
       <c r="H53" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="43">
         <v>1</v>
       </c>
       <c r="J53" s="43">
@@ -4202,13 +4259,13 @@
       <c r="H54" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="16">
-        <v>1</v>
-      </c>
-      <c r="J54" s="82">
+      <c r="I54" s="35">
+        <v>1</v>
+      </c>
+      <c r="J54" s="80">
         <v>6</v>
       </c>
-      <c r="K54" s="82">
+      <c r="K54" s="80">
         <v>3</v>
       </c>
       <c r="L54" s="39"/>
@@ -4238,13 +4295,13 @@
       <c r="H55" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I55" s="16">
-        <v>1</v>
-      </c>
-      <c r="J55" s="82">
+      <c r="I55" s="35">
+        <v>1</v>
+      </c>
+      <c r="J55" s="80">
         <v>6</v>
       </c>
-      <c r="K55" s="82">
+      <c r="K55" s="80">
         <v>3</v>
       </c>
       <c r="L55" s="39"/>
@@ -4274,13 +4331,13 @@
       <c r="H56" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I56" s="16">
-        <v>1</v>
-      </c>
-      <c r="J56" s="82">
+      <c r="I56" s="35">
+        <v>1</v>
+      </c>
+      <c r="J56" s="80">
         <v>6</v>
       </c>
-      <c r="K56" s="82">
+      <c r="K56" s="80">
         <v>3</v>
       </c>
       <c r="L56" s="39"/>
@@ -4310,13 +4367,13 @@
       <c r="H57" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I57" s="16">
-        <v>1</v>
-      </c>
-      <c r="J57" s="82">
+      <c r="I57" s="35">
+        <v>1</v>
+      </c>
+      <c r="J57" s="80">
         <v>6</v>
       </c>
-      <c r="K57" s="82">
+      <c r="K57" s="80">
         <v>4</v>
       </c>
       <c r="L57" s="37"/>
@@ -4346,13 +4403,13 @@
       <c r="H58" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="16">
-        <v>1</v>
-      </c>
-      <c r="J58" s="82">
+      <c r="I58" s="35">
+        <v>1</v>
+      </c>
+      <c r="J58" s="80">
         <v>6</v>
       </c>
-      <c r="K58" s="82">
+      <c r="K58" s="80">
         <v>4</v>
       </c>
       <c r="L58" s="37"/>
@@ -4382,13 +4439,13 @@
       <c r="H59" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="16">
-        <v>1</v>
-      </c>
-      <c r="J59" s="82">
+      <c r="I59" s="35">
+        <v>1</v>
+      </c>
+      <c r="J59" s="80">
         <v>6</v>
       </c>
-      <c r="K59" s="82">
+      <c r="K59" s="80">
         <v>4</v>
       </c>
       <c r="L59" s="37"/>
@@ -4418,7 +4475,7 @@
       <c r="H60" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="43">
         <v>1</v>
       </c>
       <c r="J60" s="43">
@@ -4457,7 +4514,7 @@
       <c r="H61" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="43">
         <v>1</v>
       </c>
       <c r="J61" s="43">
@@ -4496,7 +4553,7 @@
       <c r="H62" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="35">
         <v>1</v>
       </c>
       <c r="J62" s="35">
@@ -4532,7 +4589,7 @@
       <c r="H63" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="43">
         <v>1</v>
       </c>
       <c r="J63" s="43">
@@ -4568,7 +4625,7 @@
       <c r="H64" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="43">
         <v>1</v>
       </c>
       <c r="J64" s="43">
@@ -4609,7 +4666,7 @@
       <c r="H65" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="43">
         <v>1</v>
       </c>
       <c r="J65" s="43">
@@ -4650,7 +4707,7 @@
       <c r="H66" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="43">
         <v>1</v>
       </c>
       <c r="J66" s="43">
@@ -4689,7 +4746,7 @@
       <c r="H67" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="43">
         <v>1</v>
       </c>
       <c r="J67" s="43">
@@ -4730,7 +4787,7 @@
       <c r="H68" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="43">
         <v>1</v>
       </c>
       <c r="J68" s="43">
@@ -4771,7 +4828,7 @@
       <c r="H69" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="43">
         <v>1</v>
       </c>
       <c r="J69" s="43">
@@ -4798,7 +4855,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4818,43 +4875,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="76" t="s">
+      <c r="D1" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="103" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4874,7 +4931,7 @@
       <c r="E2" s="15">
         <v>3</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="104" t="s">
         <v>426</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -4909,7 +4966,7 @@
       <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="104" t="s">
         <v>426</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -4944,7 +5001,7 @@
       <c r="E4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="104" t="s">
         <v>426</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -4974,8 +5031,8 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I93"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5021,10 +5078,10 @@
       <c r="I1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
       <c r="L1" s="58" t="s">
@@ -5059,7 +5116,7 @@
       <c r="H2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="10">
         <v>3</v>
       </c>
       <c r="J2" s="9">
@@ -5096,7 +5153,7 @@
       <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="10">
         <v>3</v>
       </c>
       <c r="J3" s="9">
@@ -5133,7 +5190,7 @@
       <c r="H4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="10">
         <v>3</v>
       </c>
       <c r="J4" s="9">
@@ -5170,7 +5227,7 @@
       <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="10">
         <v>3</v>
       </c>
       <c r="J5" s="9">
@@ -5207,7 +5264,7 @@
       <c r="H6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="10">
         <v>3</v>
       </c>
       <c r="J6" s="9">
@@ -5244,7 +5301,7 @@
       <c r="H7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="10">
         <v>3</v>
       </c>
       <c r="J7" s="9">
@@ -5281,7 +5338,7 @@
       <c r="H8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="10">
         <v>3</v>
       </c>
       <c r="J8" s="9">
@@ -5318,7 +5375,7 @@
       <c r="H9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="10">
         <v>3</v>
       </c>
       <c r="J9" s="9">
@@ -5355,7 +5412,7 @@
       <c r="H10" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="10">
         <v>3</v>
       </c>
       <c r="J10" s="10">
@@ -5392,7 +5449,7 @@
       <c r="H11" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="10">
         <v>3</v>
       </c>
       <c r="J11" s="10">
@@ -5429,7 +5486,7 @@
       <c r="H12" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="10">
         <v>3</v>
       </c>
       <c r="J12" s="10">
@@ -5466,7 +5523,7 @@
       <c r="H13" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="10">
         <v>3</v>
       </c>
       <c r="J13" s="10">
@@ -5503,7 +5560,7 @@
       <c r="H14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="10">
         <v>3</v>
       </c>
       <c r="J14" s="9">
@@ -5540,7 +5597,7 @@
       <c r="H15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="10">
         <v>3</v>
       </c>
       <c r="J15" s="9">
@@ -5577,7 +5634,7 @@
       <c r="H16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="10">
         <v>3</v>
       </c>
       <c r="J16" s="9">
@@ -5614,7 +5671,7 @@
       <c r="H17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="10">
         <v>3</v>
       </c>
       <c r="J17" s="21">
@@ -5645,22 +5702,22 @@
       <c r="F18" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I18" s="35">
         <v>3</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="81">
         <v>5</v>
       </c>
-      <c r="K18" s="83">
-        <v>1</v>
-      </c>
-      <c r="L18" s="65"/>
+      <c r="K18" s="81">
+        <v>1</v>
+      </c>
+      <c r="L18" s="63"/>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
@@ -6031,13 +6088,13 @@
       <c r="H28" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="I28" s="35">
-        <v>3</v>
-      </c>
-      <c r="J28" s="84">
-        <v>1</v>
-      </c>
-      <c r="K28" s="84">
+      <c r="I28" s="43">
+        <v>3</v>
+      </c>
+      <c r="J28" s="82">
+        <v>1</v>
+      </c>
+      <c r="K28" s="82">
         <v>1</v>
       </c>
       <c r="L28" s="48"/>
@@ -6070,13 +6127,13 @@
       <c r="H29" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="I29" s="35">
-        <v>3</v>
-      </c>
-      <c r="J29" s="84">
-        <v>1</v>
-      </c>
-      <c r="K29" s="84">
+      <c r="I29" s="43">
+        <v>3</v>
+      </c>
+      <c r="J29" s="82">
+        <v>1</v>
+      </c>
+      <c r="K29" s="82">
         <v>1</v>
       </c>
       <c r="L29" s="48"/>
@@ -6109,13 +6166,13 @@
       <c r="H30" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="I30" s="35">
-        <v>3</v>
-      </c>
-      <c r="J30" s="84">
-        <v>1</v>
-      </c>
-      <c r="K30" s="84">
+      <c r="I30" s="43">
+        <v>3</v>
+      </c>
+      <c r="J30" s="82">
+        <v>1</v>
+      </c>
+      <c r="K30" s="82">
         <v>1</v>
       </c>
       <c r="L30" s="48"/>
@@ -6148,13 +6205,13 @@
       <c r="H31" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="I31" s="35">
-        <v>3</v>
-      </c>
-      <c r="J31" s="84">
-        <v>1</v>
-      </c>
-      <c r="K31" s="84">
+      <c r="I31" s="43">
+        <v>3</v>
+      </c>
+      <c r="J31" s="82">
+        <v>1</v>
+      </c>
+      <c r="K31" s="82">
         <v>1</v>
       </c>
       <c r="L31" s="48"/>
@@ -6187,13 +6244,13 @@
       <c r="H32" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="I32" s="35">
-        <v>3</v>
-      </c>
-      <c r="J32" s="84">
-        <v>2</v>
-      </c>
-      <c r="K32" s="84">
+      <c r="I32" s="43">
+        <v>3</v>
+      </c>
+      <c r="J32" s="82">
+        <v>2</v>
+      </c>
+      <c r="K32" s="82">
         <v>2</v>
       </c>
       <c r="L32" s="48"/>
@@ -6224,13 +6281,13 @@
       <c r="H33" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="I33" s="35">
-        <v>3</v>
-      </c>
-      <c r="J33" s="84">
-        <v>2</v>
-      </c>
-      <c r="K33" s="84">
+      <c r="I33" s="43">
+        <v>3</v>
+      </c>
+      <c r="J33" s="82">
+        <v>2</v>
+      </c>
+      <c r="K33" s="82">
         <v>1</v>
       </c>
       <c r="L33" s="48"/>
@@ -6263,13 +6320,13 @@
       <c r="H34" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="I34" s="35">
-        <v>3</v>
-      </c>
-      <c r="J34" s="84">
-        <v>2</v>
-      </c>
-      <c r="K34" s="84">
+      <c r="I34" s="43">
+        <v>3</v>
+      </c>
+      <c r="J34" s="82">
+        <v>2</v>
+      </c>
+      <c r="K34" s="82">
         <v>2</v>
       </c>
       <c r="L34" s="48"/>
@@ -6296,22 +6353,22 @@
       <c r="F35" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="H35" s="65" t="s">
+      <c r="H35" s="63" t="s">
         <v>251</v>
       </c>
       <c r="I35" s="35">
         <v>3</v>
       </c>
-      <c r="J35" s="83">
-        <v>1</v>
-      </c>
-      <c r="K35" s="83">
-        <v>1</v>
-      </c>
-      <c r="L35" s="65"/>
+      <c r="J35" s="81">
+        <v>1</v>
+      </c>
+      <c r="K35" s="81">
+        <v>1</v>
+      </c>
+      <c r="L35" s="63"/>
       <c r="M35" s="34"/>
     </row>
     <row r="36" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
@@ -6333,22 +6390,22 @@
       <c r="F36" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="65" t="s">
+      <c r="G36" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="63" t="s">
         <v>251</v>
       </c>
       <c r="I36" s="35">
         <v>3</v>
       </c>
-      <c r="J36" s="83">
-        <v>1</v>
-      </c>
-      <c r="K36" s="83">
-        <v>1</v>
-      </c>
-      <c r="L36" s="65"/>
+      <c r="J36" s="81">
+        <v>1</v>
+      </c>
+      <c r="K36" s="81">
+        <v>1</v>
+      </c>
+      <c r="L36" s="63"/>
       <c r="M36" s="34">
         <v>30</v>
       </c>
@@ -6372,22 +6429,22 @@
       <c r="F37" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="65" t="s">
+      <c r="G37" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H37" s="65" t="s">
+      <c r="H37" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I37" s="35">
         <v>3</v>
       </c>
-      <c r="J37" s="83">
-        <v>2</v>
-      </c>
-      <c r="K37" s="83">
-        <v>1</v>
-      </c>
-      <c r="L37" s="65"/>
+      <c r="J37" s="81">
+        <v>2</v>
+      </c>
+      <c r="K37" s="81">
+        <v>1</v>
+      </c>
+      <c r="L37" s="63"/>
       <c r="M37" s="34">
         <v>23</v>
       </c>
@@ -6411,22 +6468,22 @@
       <c r="F38" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H38" s="65" t="s">
+      <c r="H38" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I38" s="35">
         <v>3</v>
       </c>
-      <c r="J38" s="83">
-        <v>2</v>
-      </c>
-      <c r="K38" s="83">
-        <v>1</v>
-      </c>
-      <c r="L38" s="65"/>
+      <c r="J38" s="81">
+        <v>2</v>
+      </c>
+      <c r="K38" s="81">
+        <v>1</v>
+      </c>
+      <c r="L38" s="63"/>
       <c r="M38" s="34"/>
     </row>
     <row r="39" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
@@ -6448,22 +6505,22 @@
       <c r="F39" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H39" s="65" t="s">
+      <c r="H39" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I39" s="35">
         <v>3</v>
       </c>
-      <c r="J39" s="83">
-        <v>2</v>
-      </c>
-      <c r="K39" s="83">
-        <v>1</v>
-      </c>
-      <c r="L39" s="65"/>
+      <c r="J39" s="81">
+        <v>2</v>
+      </c>
+      <c r="K39" s="81">
+        <v>1</v>
+      </c>
+      <c r="L39" s="63"/>
       <c r="M39" s="34">
         <v>31</v>
       </c>
@@ -6487,22 +6544,22 @@
       <c r="F40" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I40" s="35">
         <v>3</v>
       </c>
-      <c r="J40" s="83">
-        <v>2</v>
-      </c>
-      <c r="K40" s="83">
-        <v>1</v>
-      </c>
-      <c r="L40" s="65"/>
+      <c r="J40" s="81">
+        <v>2</v>
+      </c>
+      <c r="K40" s="81">
+        <v>1</v>
+      </c>
+      <c r="L40" s="63"/>
       <c r="M40" s="34">
         <v>33</v>
       </c>
@@ -6526,22 +6583,22 @@
       <c r="F41" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G41" s="65" t="s">
+      <c r="G41" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I41" s="35">
         <v>3</v>
       </c>
-      <c r="J41" s="83">
-        <v>2</v>
-      </c>
-      <c r="K41" s="83">
-        <v>2</v>
-      </c>
-      <c r="L41" s="65"/>
+      <c r="J41" s="81">
+        <v>2</v>
+      </c>
+      <c r="K41" s="81">
+        <v>2</v>
+      </c>
+      <c r="L41" s="63"/>
       <c r="M41" s="34"/>
     </row>
     <row r="42" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
@@ -6563,22 +6620,22 @@
       <c r="F42" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I42" s="35">
         <v>3</v>
       </c>
-      <c r="J42" s="83">
-        <v>2</v>
-      </c>
-      <c r="K42" s="83">
-        <v>2</v>
-      </c>
-      <c r="L42" s="65"/>
+      <c r="J42" s="81">
+        <v>2</v>
+      </c>
+      <c r="K42" s="81">
+        <v>2</v>
+      </c>
+      <c r="L42" s="63"/>
       <c r="M42" s="34">
         <v>13</v>
       </c>
@@ -6602,22 +6659,22 @@
       <c r="F43" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="65" t="s">
+      <c r="G43" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H43" s="65" t="s">
+      <c r="H43" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I43" s="35">
         <v>3</v>
       </c>
-      <c r="J43" s="83">
-        <v>2</v>
-      </c>
-      <c r="K43" s="83">
-        <v>2</v>
-      </c>
-      <c r="L43" s="65"/>
+      <c r="J43" s="81">
+        <v>2</v>
+      </c>
+      <c r="K43" s="81">
+        <v>2</v>
+      </c>
+      <c r="L43" s="63"/>
       <c r="M43" s="34">
         <v>37</v>
       </c>
@@ -6644,19 +6701,19 @@
       <c r="G44" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="H44" s="65" t="s">
+      <c r="H44" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I44" s="35">
         <v>3</v>
       </c>
-      <c r="J44" s="83">
-        <v>3</v>
-      </c>
-      <c r="K44" s="83">
-        <v>1</v>
-      </c>
-      <c r="L44" s="65"/>
+      <c r="J44" s="81">
+        <v>3</v>
+      </c>
+      <c r="K44" s="81">
+        <v>1</v>
+      </c>
+      <c r="L44" s="63"/>
       <c r="M44" s="34">
         <v>31</v>
       </c>
@@ -6683,19 +6740,19 @@
       <c r="G45" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="H45" s="65" t="s">
+      <c r="H45" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I45" s="35">
         <v>3</v>
       </c>
-      <c r="J45" s="83">
-        <v>3</v>
-      </c>
-      <c r="K45" s="83">
-        <v>1</v>
-      </c>
-      <c r="L45" s="65"/>
+      <c r="J45" s="81">
+        <v>3</v>
+      </c>
+      <c r="K45" s="81">
+        <v>1</v>
+      </c>
+      <c r="L45" s="63"/>
       <c r="M45" s="34">
         <v>39</v>
       </c>
@@ -6719,22 +6776,22 @@
       <c r="F46" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G46" s="65" t="s">
+      <c r="G46" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="H46" s="65" t="s">
+      <c r="H46" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I46" s="35">
         <v>3</v>
       </c>
-      <c r="J46" s="83">
+      <c r="J46" s="81">
         <v>5</v>
       </c>
-      <c r="K46" s="83">
-        <v>1</v>
-      </c>
-      <c r="L46" s="65"/>
+      <c r="K46" s="81">
+        <v>1</v>
+      </c>
+      <c r="L46" s="63"/>
       <c r="M46" s="34"/>
     </row>
     <row r="47" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
@@ -6756,22 +6813,22 @@
       <c r="F47" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G47" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="H47" s="65" t="s">
+      <c r="H47" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I47" s="35">
         <v>3</v>
       </c>
-      <c r="J47" s="83">
+      <c r="J47" s="81">
         <v>5</v>
       </c>
-      <c r="K47" s="83">
-        <v>1</v>
-      </c>
-      <c r="L47" s="65"/>
+      <c r="K47" s="81">
+        <v>1</v>
+      </c>
+      <c r="L47" s="63"/>
       <c r="M47" s="34"/>
     </row>
     <row r="48" spans="1:13" s="13" customFormat="1">
@@ -6799,7 +6856,7 @@
       <c r="H48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="10">
         <v>3</v>
       </c>
       <c r="J48" s="9">
@@ -6836,7 +6893,7 @@
       <c r="H49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="10">
         <v>3</v>
       </c>
       <c r="J49" s="9">
@@ -6873,7 +6930,7 @@
       <c r="H50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="10">
         <v>3</v>
       </c>
       <c r="J50" s="9">
@@ -6910,7 +6967,7 @@
       <c r="H51" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="10">
         <v>3</v>
       </c>
       <c r="J51" s="9">
@@ -6947,7 +7004,7 @@
       <c r="H52" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="10">
         <v>3</v>
       </c>
       <c r="J52" s="9">
@@ -6978,13 +7035,13 @@
       <c r="F53" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G53" s="68" t="s">
+      <c r="G53" s="66" t="s">
         <v>274</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="16">
         <v>3</v>
       </c>
       <c r="J53" s="15">
@@ -7212,22 +7269,22 @@
       <c r="F59" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G59" s="65" t="s">
+      <c r="G59" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="H59" s="65" t="s">
+      <c r="H59" s="63" t="s">
         <v>288</v>
       </c>
       <c r="I59" s="35">
         <v>3</v>
       </c>
-      <c r="J59" s="83">
-        <v>4</v>
-      </c>
-      <c r="K59" s="83">
-        <v>1</v>
-      </c>
-      <c r="L59" s="65"/>
+      <c r="J59" s="81">
+        <v>4</v>
+      </c>
+      <c r="K59" s="81">
+        <v>1</v>
+      </c>
+      <c r="L59" s="63"/>
       <c r="M59" s="34">
         <v>41</v>
       </c>
@@ -7251,22 +7308,22 @@
       <c r="F60" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G60" s="65" t="s">
+      <c r="G60" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="H60" s="65" t="s">
+      <c r="H60" s="63" t="s">
         <v>288</v>
       </c>
       <c r="I60" s="35">
         <v>3</v>
       </c>
-      <c r="J60" s="83">
-        <v>4</v>
-      </c>
-      <c r="K60" s="83">
-        <v>1</v>
-      </c>
-      <c r="L60" s="65"/>
+      <c r="J60" s="81">
+        <v>4</v>
+      </c>
+      <c r="K60" s="81">
+        <v>1</v>
+      </c>
+      <c r="L60" s="63"/>
       <c r="M60" s="34">
         <v>42</v>
       </c>
@@ -7370,7 +7427,7 @@
       <c r="H63" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="I63" s="35">
+      <c r="I63" s="10">
         <v>3</v>
       </c>
       <c r="J63" s="9">
@@ -7407,7 +7464,7 @@
       <c r="H64" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="16">
         <v>3</v>
       </c>
       <c r="J64" s="15">
@@ -7438,13 +7495,13 @@
       <c r="F65" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="G65" s="66" t="s">
         <v>274</v>
       </c>
       <c r="H65" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="16">
         <v>3</v>
       </c>
       <c r="J65" s="15">
@@ -7453,7 +7510,7 @@
       <c r="K65" s="15">
         <v>1</v>
       </c>
-      <c r="L65" s="66" t="s">
+      <c r="L65" s="64" t="s">
         <v>261</v>
       </c>
       <c r="M65" s="15">
@@ -7485,7 +7542,7 @@
       <c r="H66" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="16">
         <v>3</v>
       </c>
       <c r="J66" s="15">
@@ -7494,7 +7551,7 @@
       <c r="K66" s="15">
         <v>1</v>
       </c>
-      <c r="L66" s="66" t="s">
+      <c r="L66" s="64" t="s">
         <v>261</v>
       </c>
       <c r="M66" s="15">
@@ -7520,13 +7577,13 @@
       <c r="F67" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="G67" s="66" t="s">
         <v>274</v>
       </c>
       <c r="H67" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="I67" s="35">
+      <c r="I67" s="16">
         <v>3</v>
       </c>
       <c r="J67" s="15">
@@ -7535,7 +7592,7 @@
       <c r="K67" s="15">
         <v>1</v>
       </c>
-      <c r="L67" s="66" t="s">
+      <c r="L67" s="64" t="s">
         <v>261</v>
       </c>
       <c r="M67" s="15">
@@ -7561,22 +7618,22 @@
       <c r="F68" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G68" s="65" t="s">
+      <c r="G68" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H68" s="65" t="s">
+      <c r="H68" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I68" s="35">
         <v>3</v>
       </c>
-      <c r="J68" s="83">
-        <v>2</v>
-      </c>
-      <c r="K68" s="83">
-        <v>2</v>
-      </c>
-      <c r="L68" s="65"/>
+      <c r="J68" s="81">
+        <v>2</v>
+      </c>
+      <c r="K68" s="81">
+        <v>2</v>
+      </c>
+      <c r="L68" s="63"/>
       <c r="M68" s="34"/>
     </row>
     <row r="69" spans="1:13" s="38" customFormat="1">
@@ -7676,22 +7733,22 @@
       <c r="F71" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G71" s="65" t="s">
+      <c r="G71" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H71" s="65" t="s">
+      <c r="H71" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I71" s="35">
         <v>3</v>
       </c>
-      <c r="J71" s="83">
-        <v>2</v>
-      </c>
-      <c r="K71" s="83">
-        <v>2</v>
-      </c>
-      <c r="L71" s="65" t="s">
+      <c r="J71" s="81">
+        <v>2</v>
+      </c>
+      <c r="K71" s="81">
+        <v>2</v>
+      </c>
+      <c r="L71" s="63" t="s">
         <v>262</v>
       </c>
       <c r="M71" s="34"/>
@@ -7715,22 +7772,22 @@
       <c r="F72" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G72" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H72" s="65" t="s">
+      <c r="H72" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I72" s="35">
         <v>3</v>
       </c>
-      <c r="J72" s="83">
-        <v>2</v>
-      </c>
-      <c r="K72" s="83">
-        <v>2</v>
-      </c>
-      <c r="L72" s="65" t="s">
+      <c r="J72" s="81">
+        <v>2</v>
+      </c>
+      <c r="K72" s="81">
+        <v>2</v>
+      </c>
+      <c r="L72" s="63" t="s">
         <v>263</v>
       </c>
       <c r="M72" s="34">
@@ -7756,22 +7813,22 @@
       <c r="F73" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G73" s="65" t="s">
+      <c r="G73" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H73" s="65" t="s">
+      <c r="H73" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I73" s="35">
         <v>3</v>
       </c>
-      <c r="J73" s="83">
-        <v>2</v>
-      </c>
-      <c r="K73" s="83">
-        <v>2</v>
-      </c>
-      <c r="L73" s="65" t="s">
+      <c r="J73" s="81">
+        <v>2</v>
+      </c>
+      <c r="K73" s="81">
+        <v>2</v>
+      </c>
+      <c r="L73" s="63" t="s">
         <v>264</v>
       </c>
       <c r="M73" s="34"/>
@@ -7795,22 +7852,22 @@
       <c r="F74" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G74" s="65" t="s">
+      <c r="G74" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="H74" s="65" t="s">
+      <c r="H74" s="63" t="s">
         <v>288</v>
       </c>
       <c r="I74" s="35">
         <v>3</v>
       </c>
-      <c r="J74" s="83">
-        <v>4</v>
-      </c>
-      <c r="K74" s="83">
-        <v>1</v>
-      </c>
-      <c r="L74" s="65" t="s">
+      <c r="J74" s="81">
+        <v>4</v>
+      </c>
+      <c r="K74" s="81">
+        <v>1</v>
+      </c>
+      <c r="L74" s="63" t="s">
         <v>264</v>
       </c>
       <c r="M74" s="34"/>
@@ -7834,22 +7891,22 @@
       <c r="F75" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G75" s="65" t="s">
+      <c r="G75" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="H75" s="65" t="s">
+      <c r="H75" s="63" t="s">
         <v>251</v>
       </c>
       <c r="I75" s="35">
         <v>3</v>
       </c>
-      <c r="J75" s="83">
-        <v>1</v>
-      </c>
-      <c r="K75" s="83">
-        <v>1</v>
-      </c>
-      <c r="L75" s="65"/>
+      <c r="J75" s="81">
+        <v>1</v>
+      </c>
+      <c r="K75" s="81">
+        <v>1</v>
+      </c>
+      <c r="L75" s="63"/>
       <c r="M75" s="34">
         <v>31</v>
       </c>
@@ -7873,22 +7930,22 @@
       <c r="F76" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G76" s="65" t="s">
+      <c r="G76" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="H76" s="65" t="s">
+      <c r="H76" s="63" t="s">
         <v>254</v>
       </c>
       <c r="I76" s="35">
         <v>3</v>
       </c>
-      <c r="J76" s="83">
-        <v>2</v>
-      </c>
-      <c r="K76" s="83">
-        <v>1</v>
-      </c>
-      <c r="L76" s="65"/>
+      <c r="J76" s="81">
+        <v>2</v>
+      </c>
+      <c r="K76" s="81">
+        <v>1</v>
+      </c>
+      <c r="L76" s="63"/>
       <c r="M76" s="34">
         <v>63</v>
       </c>
@@ -7912,13 +7969,13 @@
       <c r="F77" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G77" s="68" t="s">
+      <c r="G77" s="66" t="s">
         <v>274</v>
       </c>
       <c r="H77" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="I77" s="35">
+      <c r="I77" s="16">
         <v>3</v>
       </c>
       <c r="J77" s="15">
@@ -7927,7 +7984,7 @@
       <c r="K77" s="15">
         <v>1</v>
       </c>
-      <c r="L77" s="66" t="s">
+      <c r="L77" s="64" t="s">
         <v>261</v>
       </c>
       <c r="M77" s="15">
@@ -7956,19 +8013,19 @@
       <c r="G78" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="H78" s="66" t="s">
+      <c r="H78" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="I78" s="35">
-        <v>3</v>
-      </c>
-      <c r="J78" s="85">
-        <v>2</v>
-      </c>
-      <c r="K78" s="85">
-        <v>2</v>
-      </c>
-      <c r="L78" s="66"/>
+      <c r="I78" s="16">
+        <v>3</v>
+      </c>
+      <c r="J78" s="83">
+        <v>2</v>
+      </c>
+      <c r="K78" s="83">
+        <v>2</v>
+      </c>
+      <c r="L78" s="64"/>
       <c r="M78" s="15">
         <v>22</v>
       </c>
@@ -7995,19 +8052,19 @@
       <c r="G79" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H79" s="66" t="s">
+      <c r="H79" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="I79" s="35">
-        <v>3</v>
-      </c>
-      <c r="J79" s="85">
-        <v>3</v>
-      </c>
-      <c r="K79" s="85">
-        <v>1</v>
-      </c>
-      <c r="L79" s="67" t="s">
+      <c r="I79" s="16">
+        <v>3</v>
+      </c>
+      <c r="J79" s="83">
+        <v>3</v>
+      </c>
+      <c r="K79" s="83">
+        <v>1</v>
+      </c>
+      <c r="L79" s="65" t="s">
         <v>267</v>
       </c>
       <c r="M79" s="15">
@@ -8036,19 +8093,19 @@
       <c r="G80" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="H80" s="66" t="s">
+      <c r="H80" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="I80" s="35">
-        <v>3</v>
-      </c>
-      <c r="J80" s="85">
-        <v>2</v>
-      </c>
-      <c r="K80" s="85">
-        <v>2</v>
-      </c>
-      <c r="L80" s="66"/>
+      <c r="I80" s="16">
+        <v>3</v>
+      </c>
+      <c r="J80" s="83">
+        <v>2</v>
+      </c>
+      <c r="K80" s="83">
+        <v>2</v>
+      </c>
+      <c r="L80" s="64"/>
       <c r="M80" s="15">
         <v>70</v>
       </c>
@@ -8075,19 +8132,19 @@
       <c r="G81" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H81" s="66" t="s">
+      <c r="H81" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="I81" s="35">
-        <v>3</v>
-      </c>
-      <c r="J81" s="85">
-        <v>3</v>
-      </c>
-      <c r="K81" s="85">
-        <v>3</v>
-      </c>
-      <c r="L81" s="66"/>
+      <c r="I81" s="16">
+        <v>3</v>
+      </c>
+      <c r="J81" s="83">
+        <v>3</v>
+      </c>
+      <c r="K81" s="83">
+        <v>3</v>
+      </c>
+      <c r="L81" s="64"/>
       <c r="M81" s="15">
         <v>22</v>
       </c>
@@ -8114,19 +8171,19 @@
       <c r="G82" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="I82" s="35">
-        <v>3</v>
-      </c>
-      <c r="J82" s="85">
-        <v>3</v>
-      </c>
-      <c r="K82" s="85">
-        <v>2</v>
-      </c>
-      <c r="L82" s="66"/>
+      <c r="I82" s="16">
+        <v>3</v>
+      </c>
+      <c r="J82" s="83">
+        <v>3</v>
+      </c>
+      <c r="K82" s="83">
+        <v>2</v>
+      </c>
+      <c r="L82" s="64"/>
       <c r="M82" s="15">
         <v>14</v>
       </c>
@@ -8153,19 +8210,19 @@
       <c r="G83" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H83" s="66" t="s">
+      <c r="H83" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="I83" s="35">
-        <v>3</v>
-      </c>
-      <c r="J83" s="85">
-        <v>3</v>
-      </c>
-      <c r="K83" s="85">
-        <v>2</v>
-      </c>
-      <c r="L83" s="66"/>
+      <c r="I83" s="16">
+        <v>3</v>
+      </c>
+      <c r="J83" s="83">
+        <v>3</v>
+      </c>
+      <c r="K83" s="83">
+        <v>2</v>
+      </c>
+      <c r="L83" s="64"/>
       <c r="M83" s="15">
         <v>10</v>
       </c>
@@ -8192,19 +8249,19 @@
       <c r="G84" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H84" s="66" t="s">
+      <c r="H84" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="I84" s="35">
-        <v>3</v>
-      </c>
-      <c r="J84" s="85">
-        <v>3</v>
-      </c>
-      <c r="K84" s="85">
-        <v>2</v>
-      </c>
-      <c r="L84" s="66"/>
+      <c r="I84" s="16">
+        <v>3</v>
+      </c>
+      <c r="J84" s="83">
+        <v>3</v>
+      </c>
+      <c r="K84" s="83">
+        <v>2</v>
+      </c>
+      <c r="L84" s="64"/>
       <c r="M84" s="15"/>
     </row>
     <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -8229,19 +8286,19 @@
       <c r="G85" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H85" s="66" t="s">
+      <c r="H85" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="I85" s="35">
-        <v>3</v>
-      </c>
-      <c r="J85" s="85">
-        <v>3</v>
-      </c>
-      <c r="K85" s="85">
-        <v>3</v>
-      </c>
-      <c r="L85" s="66"/>
+      <c r="I85" s="16">
+        <v>3</v>
+      </c>
+      <c r="J85" s="83">
+        <v>3</v>
+      </c>
+      <c r="K85" s="83">
+        <v>3</v>
+      </c>
+      <c r="L85" s="64"/>
       <c r="M85" s="15">
         <v>75</v>
       </c>
@@ -8271,7 +8328,7 @@
       <c r="H86" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I86" s="35">
+      <c r="I86" s="10">
         <v>3</v>
       </c>
       <c r="J86" s="9">
@@ -8308,13 +8365,13 @@
       <c r="H87" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="I87" s="35">
-        <v>3</v>
-      </c>
-      <c r="J87" s="84">
-        <v>2</v>
-      </c>
-      <c r="K87" s="84">
+      <c r="I87" s="43">
+        <v>3</v>
+      </c>
+      <c r="J87" s="82">
+        <v>2</v>
+      </c>
+      <c r="K87" s="82">
         <v>2</v>
       </c>
       <c r="L87" s="48" t="s">
@@ -8346,19 +8403,19 @@
       <c r="G88" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H88" s="66" t="s">
+      <c r="H88" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="I88" s="35">
-        <v>3</v>
-      </c>
-      <c r="J88" s="85">
-        <v>3</v>
-      </c>
-      <c r="K88" s="85">
-        <v>1</v>
-      </c>
-      <c r="L88" s="67"/>
+      <c r="I88" s="16">
+        <v>3</v>
+      </c>
+      <c r="J88" s="83">
+        <v>3</v>
+      </c>
+      <c r="K88" s="83">
+        <v>1</v>
+      </c>
+      <c r="L88" s="65"/>
       <c r="M88" s="15">
         <v>20</v>
       </c>
@@ -8388,13 +8445,13 @@
       <c r="H89" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="I89" s="35">
-        <v>3</v>
-      </c>
-      <c r="J89" s="84">
-        <v>2</v>
-      </c>
-      <c r="K89" s="84">
+      <c r="I89" s="43">
+        <v>3</v>
+      </c>
+      <c r="J89" s="82">
+        <v>2</v>
+      </c>
+      <c r="K89" s="82">
         <v>1</v>
       </c>
       <c r="M89" s="42">
@@ -8426,7 +8483,7 @@
       <c r="H90" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="I90" s="35">
+      <c r="I90" s="10">
         <v>3</v>
       </c>
       <c r="J90" s="9">
@@ -8465,7 +8522,7 @@
       <c r="H91" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I91" s="35">
+      <c r="I91" s="10">
         <v>3</v>
       </c>
       <c r="J91" s="9">
@@ -8504,7 +8561,7 @@
       <c r="H92" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="10">
         <v>3</v>
       </c>
       <c r="J92" s="9">
@@ -8541,7 +8598,7 @@
       <c r="H93" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="10">
         <v>3</v>
       </c>
       <c r="J93" s="10">
@@ -8563,11 +8620,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N254"/>
+  <dimension ref="A1:N255"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8588,46 +8645,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="14" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="76" t="s">
+      <c r="E1" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="74"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1">
       <c r="A2" s="26">
@@ -8821,7 +8878,7 @@
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="79" t="s">
         <v>158</v>
       </c>
       <c r="M6" s="9"/>
@@ -8968,7 +9025,7 @@
       <c r="H10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="105">
         <v>1</v>
       </c>
       <c r="J10" s="16">
@@ -9124,7 +9181,7 @@
       <c r="H14" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="105">
         <v>1</v>
       </c>
       <c r="J14" s="15">
@@ -9512,7 +9569,7 @@
       <c r="H24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="105">
         <v>1</v>
       </c>
       <c r="J24" s="16">
@@ -9551,7 +9608,7 @@
       <c r="H25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="105">
         <v>1</v>
       </c>
       <c r="J25" s="16">
@@ -9590,7 +9647,7 @@
       <c r="H26" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="105">
         <v>1</v>
       </c>
       <c r="J26" s="15">
@@ -9992,7 +10049,7 @@
       <c r="H36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="105">
         <v>1</v>
       </c>
       <c r="J36" s="16">
@@ -10033,7 +10090,7 @@
       <c r="H37" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="105">
         <v>1</v>
       </c>
       <c r="J37" s="16">
@@ -10074,7 +10131,7 @@
       <c r="H38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="105">
         <v>1</v>
       </c>
       <c r="J38" s="16">
@@ -10115,7 +10172,7 @@
       <c r="H39" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="105">
         <v>1</v>
       </c>
       <c r="J39" s="16">
@@ -10156,7 +10213,7 @@
       <c r="H40" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="105">
         <v>1</v>
       </c>
       <c r="J40" s="16">
@@ -10197,7 +10254,7 @@
       <c r="H41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="105">
         <v>1</v>
       </c>
       <c r="J41" s="16">
@@ -10236,7 +10293,7 @@
       <c r="H42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="105">
         <v>1</v>
       </c>
       <c r="J42" s="16">
@@ -10277,7 +10334,7 @@
       <c r="H43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="105">
         <v>1</v>
       </c>
       <c r="J43" s="16">
@@ -10318,7 +10375,7 @@
       <c r="H44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="105">
         <v>1</v>
       </c>
       <c r="J44" s="16">
@@ -10359,7 +10416,7 @@
       <c r="H45" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="105">
         <v>1</v>
       </c>
       <c r="J45" s="16">
@@ -10400,7 +10457,7 @@
       <c r="H46" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="105">
         <v>1</v>
       </c>
       <c r="J46" s="16">
@@ -10441,7 +10498,7 @@
       <c r="H47" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="105">
         <v>1</v>
       </c>
       <c r="J47" s="16">
@@ -10482,7 +10539,7 @@
       <c r="H48" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="105">
         <v>1</v>
       </c>
       <c r="J48" s="15">
@@ -10523,7 +10580,7 @@
       <c r="H49" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="105">
         <v>1</v>
       </c>
       <c r="J49" s="15">
@@ -10564,7 +10621,7 @@
       <c r="H50" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="105">
         <v>1</v>
       </c>
       <c r="J50" s="16">
@@ -10644,7 +10701,7 @@
       <c r="H52" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="107">
         <v>1</v>
       </c>
       <c r="J52" s="35">
@@ -10685,7 +10742,7 @@
       <c r="H53" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="107">
         <v>1</v>
       </c>
       <c r="J53" s="35">
@@ -10726,7 +10783,7 @@
       <c r="H54" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="107">
         <v>1</v>
       </c>
       <c r="J54" s="35">
@@ -10767,7 +10824,7 @@
       <c r="H55" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="105">
         <v>1</v>
       </c>
       <c r="J55" s="16">
@@ -10806,7 +10863,7 @@
       <c r="H56" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="28">
+      <c r="I56" s="105">
         <v>1</v>
       </c>
       <c r="J56" s="16">
@@ -10847,7 +10904,7 @@
       <c r="H57" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="107">
         <v>1</v>
       </c>
       <c r="J57" s="35">
@@ -10888,7 +10945,7 @@
       <c r="H58" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="107">
         <v>1</v>
       </c>
       <c r="J58" s="35">
@@ -10929,7 +10986,7 @@
       <c r="H59" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="107">
         <v>1</v>
       </c>
       <c r="J59" s="35">
@@ -10970,7 +11027,7 @@
       <c r="H60" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="107">
         <v>1</v>
       </c>
       <c r="J60" s="35">
@@ -11011,7 +11068,7 @@
       <c r="H61" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="107">
         <v>1</v>
       </c>
       <c r="J61" s="35">
@@ -11052,7 +11109,7 @@
       <c r="H62" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="107">
         <v>1</v>
       </c>
       <c r="J62" s="35">
@@ -11093,7 +11150,7 @@
       <c r="H63" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="107">
         <v>1</v>
       </c>
       <c r="J63" s="35">
@@ -11134,7 +11191,7 @@
       <c r="H64" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="107">
         <v>1</v>
       </c>
       <c r="J64" s="35">
@@ -11175,7 +11232,7 @@
       <c r="H65" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="107">
         <v>1</v>
       </c>
       <c r="J65" s="35">
@@ -11216,7 +11273,7 @@
       <c r="H66" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I66" s="28">
+      <c r="I66" s="107">
         <v>1</v>
       </c>
       <c r="J66" s="35">
@@ -11257,7 +11314,7 @@
       <c r="H67" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="107">
         <v>1</v>
       </c>
       <c r="J67" s="35">
@@ -11298,7 +11355,7 @@
       <c r="H68" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="107">
         <v>1</v>
       </c>
       <c r="J68" s="35">
@@ -11339,7 +11396,7 @@
       <c r="H69" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="107">
         <v>1</v>
       </c>
       <c r="J69" s="35">
@@ -11380,7 +11437,7 @@
       <c r="H70" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="107">
         <v>1</v>
       </c>
       <c r="J70" s="35">
@@ -11419,7 +11476,7 @@
       <c r="H71" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="107">
         <v>1</v>
       </c>
       <c r="J71" s="35">
@@ -11460,7 +11517,7 @@
       <c r="H72" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="107">
         <v>1</v>
       </c>
       <c r="J72" s="35">
@@ -11499,7 +11556,7 @@
       <c r="H73" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="107">
         <v>1</v>
       </c>
       <c r="J73" s="35">
@@ -11538,7 +11595,7 @@
       <c r="H74" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="107">
         <v>1</v>
       </c>
       <c r="J74" s="35">
@@ -11579,7 +11636,7 @@
       <c r="H75" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="107">
         <v>1</v>
       </c>
       <c r="J75" s="34">
@@ -11620,7 +11677,7 @@
       <c r="H76" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="107">
         <v>1</v>
       </c>
       <c r="J76" s="35">
@@ -11661,7 +11718,7 @@
       <c r="H77" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="107">
         <v>1</v>
       </c>
       <c r="J77" s="34">
@@ -11702,7 +11759,7 @@
       <c r="H78" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="107">
         <v>1</v>
       </c>
       <c r="J78" s="35">
@@ -11743,7 +11800,7 @@
       <c r="H79" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="107">
         <v>1</v>
       </c>
       <c r="J79" s="34">
@@ -11784,7 +11841,7 @@
       <c r="H80" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="107">
         <v>1</v>
       </c>
       <c r="J80" s="34">
@@ -11825,7 +11882,7 @@
       <c r="H81" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="28">
+      <c r="I81" s="107">
         <v>1</v>
       </c>
       <c r="J81" s="35">
@@ -11866,7 +11923,7 @@
       <c r="H82" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I82" s="28">
+      <c r="I82" s="107">
         <v>1</v>
       </c>
       <c r="J82" s="35">
@@ -11907,7 +11964,7 @@
       <c r="H83" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="107">
         <v>1</v>
       </c>
       <c r="J83" s="35">
@@ -11948,7 +12005,7 @@
       <c r="H84" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="107">
         <v>1</v>
       </c>
       <c r="J84" s="35">
@@ -11989,7 +12046,7 @@
       <c r="H85" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="107">
         <v>1</v>
       </c>
       <c r="J85" s="35">
@@ -12030,7 +12087,7 @@
       <c r="H86" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I86" s="28">
+      <c r="I86" s="107">
         <v>1</v>
       </c>
       <c r="J86" s="35">
@@ -12071,7 +12128,7 @@
       <c r="H87" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I87" s="28">
+      <c r="I87" s="107">
         <v>1</v>
       </c>
       <c r="J87" s="35">
@@ -12112,7 +12169,7 @@
       <c r="H88" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I88" s="28">
+      <c r="I88" s="107">
         <v>1</v>
       </c>
       <c r="J88" s="35">
@@ -12153,7 +12210,7 @@
       <c r="H89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I89" s="28">
+      <c r="I89" s="107">
         <v>1</v>
       </c>
       <c r="J89" s="35">
@@ -12194,7 +12251,7 @@
       <c r="H90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="107">
         <v>1</v>
       </c>
       <c r="J90" s="35">
@@ -12233,7 +12290,7 @@
       <c r="H91" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="107">
         <v>1</v>
       </c>
       <c r="J91" s="35">
@@ -12272,7 +12329,7 @@
       <c r="H92" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I92" s="28">
+      <c r="I92" s="107">
         <v>1</v>
       </c>
       <c r="J92" s="34">
@@ -12311,7 +12368,7 @@
       <c r="H93" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I93" s="28">
+      <c r="I93" s="107">
         <v>1</v>
       </c>
       <c r="J93" s="34">
@@ -12350,7 +12407,7 @@
       <c r="H94" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I94" s="28">
+      <c r="I94" s="107">
         <v>1</v>
       </c>
       <c r="J94" s="35">
@@ -12391,7 +12448,7 @@
       <c r="H95" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I95" s="28">
+      <c r="I95" s="107">
         <v>1</v>
       </c>
       <c r="J95" s="34">
@@ -12430,7 +12487,7 @@
       <c r="H96" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I96" s="28">
+      <c r="I96" s="107">
         <v>1</v>
       </c>
       <c r="J96" s="34">
@@ -12471,7 +12528,7 @@
       <c r="H97" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I97" s="28">
+      <c r="I97" s="107">
         <v>1</v>
       </c>
       <c r="J97" s="35">
@@ -12510,7 +12567,7 @@
       <c r="H98" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="I98" s="28">
+      <c r="I98" s="107">
         <v>1</v>
       </c>
       <c r="J98" s="35">
@@ -12551,7 +12608,7 @@
       <c r="H99" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I99" s="28">
+      <c r="I99" s="107">
         <v>1</v>
       </c>
       <c r="J99" s="34">
@@ -12592,7 +12649,7 @@
       <c r="H100" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I100" s="28">
+      <c r="I100" s="107">
         <v>1</v>
       </c>
       <c r="J100" s="35">
@@ -12631,7 +12688,7 @@
       <c r="H101" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I101" s="28">
+      <c r="I101" s="107">
         <v>1</v>
       </c>
       <c r="J101" s="35">
@@ -12672,7 +12729,7 @@
       <c r="H102" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I102" s="28">
+      <c r="I102" s="107">
         <v>1</v>
       </c>
       <c r="J102" s="35">
@@ -12713,7 +12770,7 @@
       <c r="H103" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I103" s="28">
+      <c r="I103" s="107">
         <v>1</v>
       </c>
       <c r="J103" s="35">
@@ -12752,7 +12809,7 @@
       <c r="H104" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I104" s="28">
+      <c r="I104" s="105">
         <v>1</v>
       </c>
       <c r="J104" s="16">
@@ -12791,7 +12848,7 @@
       <c r="H105" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I105" s="28">
+      <c r="I105" s="105">
         <v>1</v>
       </c>
       <c r="J105" s="16">
@@ -12832,7 +12889,7 @@
       <c r="H106" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I106" s="28">
+      <c r="I106" s="107">
         <v>1</v>
       </c>
       <c r="J106" s="35">
@@ -12871,7 +12928,7 @@
       <c r="H107" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I107" s="28">
+      <c r="I107" s="107">
         <v>1</v>
       </c>
       <c r="J107" s="35">
@@ -12910,7 +12967,7 @@
       <c r="H108" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I108" s="28">
+      <c r="I108" s="107">
         <v>1</v>
       </c>
       <c r="J108" s="34">
@@ -12951,7 +13008,7 @@
       <c r="H109" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I109" s="28">
+      <c r="I109" s="107">
         <v>1</v>
       </c>
       <c r="J109" s="35">
@@ -12990,7 +13047,7 @@
       <c r="H110" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I110" s="28">
+      <c r="I110" s="107">
         <v>1</v>
       </c>
       <c r="J110" s="35">
@@ -13031,7 +13088,7 @@
       <c r="H111" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I111" s="28">
+      <c r="I111" s="107">
         <v>1</v>
       </c>
       <c r="J111" s="34">
@@ -13070,7 +13127,7 @@
       <c r="H112" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I112" s="28">
+      <c r="I112" s="107">
         <v>1</v>
       </c>
       <c r="J112" s="35">
@@ -13109,7 +13166,7 @@
       <c r="H113" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I113" s="28">
+      <c r="I113" s="107">
         <v>1</v>
       </c>
       <c r="J113" s="35">
@@ -13148,7 +13205,7 @@
       <c r="H114" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I114" s="28">
+      <c r="I114" s="107">
         <v>1</v>
       </c>
       <c r="J114" s="35">
@@ -13187,7 +13244,7 @@
       <c r="H115" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I115" s="28">
+      <c r="I115" s="107">
         <v>1</v>
       </c>
       <c r="J115" s="34">
@@ -13226,7 +13283,7 @@
       <c r="H116" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I116" s="28">
+      <c r="I116" s="107">
         <v>1</v>
       </c>
       <c r="J116" s="35">
@@ -13265,7 +13322,7 @@
       <c r="H117" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I117" s="28">
+      <c r="I117" s="108">
         <v>1</v>
       </c>
       <c r="J117" s="43">
@@ -13306,7 +13363,7 @@
       <c r="H118" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I118" s="28">
+      <c r="I118" s="108">
         <v>1</v>
       </c>
       <c r="J118" s="42">
@@ -13347,7 +13404,7 @@
       <c r="H119" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="I119" s="28">
+      <c r="I119" s="108">
         <v>1</v>
       </c>
       <c r="J119" s="42">
@@ -13388,7 +13445,7 @@
       <c r="H120" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I120" s="28">
+      <c r="I120" s="108">
         <v>1</v>
       </c>
       <c r="J120" s="42">
@@ -13427,7 +13484,7 @@
       <c r="H121" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I121" s="28">
+      <c r="I121" s="108">
         <v>1</v>
       </c>
       <c r="J121" s="43">
@@ -13468,7 +13525,7 @@
       <c r="H122" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I122" s="28">
+      <c r="I122" s="108">
         <v>1</v>
       </c>
       <c r="J122" s="43">
@@ -13509,7 +13566,7 @@
       <c r="H123" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="I123" s="28">
+      <c r="I123" s="108">
         <v>1</v>
       </c>
       <c r="J123" s="42">
@@ -13550,7 +13607,7 @@
       <c r="H124" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I124" s="28">
+      <c r="I124" s="108">
         <v>1</v>
       </c>
       <c r="J124" s="43">
@@ -13589,7 +13646,7 @@
       <c r="H125" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I125" s="28">
+      <c r="I125" s="108">
         <v>1</v>
       </c>
       <c r="J125" s="43">
@@ -13628,7 +13685,7 @@
       <c r="H126" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="I126" s="28">
+      <c r="I126" s="107">
         <v>1</v>
       </c>
       <c r="J126" s="35">
@@ -13667,7 +13724,7 @@
       <c r="H127" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I127" s="28">
+      <c r="I127" s="108">
         <v>1</v>
       </c>
       <c r="J127" s="43">
@@ -13706,7 +13763,7 @@
       <c r="H128" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I128" s="28">
+      <c r="I128" s="108">
         <v>1</v>
       </c>
       <c r="J128" s="42">
@@ -13784,7 +13841,7 @@
       <c r="H130" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I130" s="28">
+      <c r="I130" s="105">
         <v>1</v>
       </c>
       <c r="J130" s="15">
@@ -13823,7 +13880,7 @@
       <c r="H131" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I131" s="28">
+      <c r="I131" s="108">
         <v>1</v>
       </c>
       <c r="J131" s="42">
@@ -13862,7 +13919,7 @@
       <c r="H132" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I132" s="28">
+      <c r="I132" s="108">
         <v>1</v>
       </c>
       <c r="J132" s="43">
@@ -13901,7 +13958,7 @@
       <c r="H133" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I133" s="28">
+      <c r="I133" s="108">
         <v>1</v>
       </c>
       <c r="J133" s="43">
@@ -13940,7 +13997,7 @@
       <c r="H134" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I134" s="28">
+      <c r="I134" s="108">
         <v>1</v>
       </c>
       <c r="J134" s="43">
@@ -13979,7 +14036,7 @@
       <c r="H135" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="I135" s="28">
+      <c r="I135" s="108">
         <v>1</v>
       </c>
       <c r="J135" s="42">
@@ -14018,7 +14075,7 @@
       <c r="H136" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I136" s="28">
+      <c r="I136" s="108">
         <v>1</v>
       </c>
       <c r="J136" s="43">
@@ -14057,7 +14114,7 @@
       <c r="H137" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I137" s="28">
+      <c r="I137" s="108">
         <v>1</v>
       </c>
       <c r="J137" s="43">
@@ -14096,7 +14153,7 @@
       <c r="H138" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I138" s="28">
+      <c r="I138" s="108">
         <v>1</v>
       </c>
       <c r="J138" s="43">
@@ -14135,7 +14192,7 @@
       <c r="H139" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="I139" s="28">
+      <c r="I139" s="108">
         <v>1</v>
       </c>
       <c r="J139" s="43">
@@ -14248,7 +14305,7 @@
       <c r="H142" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="I142" s="28">
+      <c r="I142" s="107">
         <v>1</v>
       </c>
       <c r="J142" s="35">
@@ -14289,7 +14346,7 @@
       <c r="H143" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I143" s="28">
+      <c r="I143" s="105">
         <v>1</v>
       </c>
       <c r="J143" s="16">
@@ -14330,7 +14387,7 @@
       <c r="H144" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="I144" s="28">
+      <c r="I144" s="105">
         <v>1</v>
       </c>
       <c r="J144" s="16">
@@ -14371,7 +14428,7 @@
       <c r="H145" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I145" s="28">
+      <c r="I145" s="107">
         <v>1</v>
       </c>
       <c r="J145" s="35">
@@ -14410,7 +14467,7 @@
       <c r="H146" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I146" s="28">
+      <c r="I146" s="107">
         <v>1</v>
       </c>
       <c r="J146" s="35">
@@ -14449,7 +14506,7 @@
       <c r="H147" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="I147" s="28">
+      <c r="I147" s="107">
         <v>1</v>
       </c>
       <c r="J147" s="35">
@@ -14490,7 +14547,7 @@
       <c r="H148" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I148" s="28">
+      <c r="I148" s="105">
         <v>1</v>
       </c>
       <c r="J148" s="16">
@@ -14531,7 +14588,7 @@
       <c r="H149" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="I149" s="28">
+      <c r="I149" s="108">
         <v>1</v>
       </c>
       <c r="J149" s="43">
@@ -14572,7 +14629,7 @@
       <c r="H150" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I150" s="28">
+      <c r="I150" s="108">
         <v>1</v>
       </c>
       <c r="J150" s="43">
@@ -14611,7 +14668,7 @@
       <c r="H151" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I151" s="28">
+      <c r="I151" s="108">
         <v>1</v>
       </c>
       <c r="J151" s="43">
@@ -14650,7 +14707,7 @@
       <c r="H152" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I152" s="28">
+      <c r="I152" s="107">
         <v>1</v>
       </c>
       <c r="J152" s="35">
@@ -14689,7 +14746,7 @@
       <c r="H153" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I153" s="28">
+      <c r="I153" s="107">
         <v>1</v>
       </c>
       <c r="J153" s="35">
@@ -14730,7 +14787,7 @@
       <c r="H154" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I154" s="28">
+      <c r="I154" s="108">
         <v>1</v>
       </c>
       <c r="J154" s="42">
@@ -14769,7 +14826,7 @@
       <c r="H155" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I155" s="28">
+      <c r="I155" s="108">
         <v>1</v>
       </c>
       <c r="J155" s="43">
@@ -14808,7 +14865,7 @@
       <c r="H156" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I156" s="28">
+      <c r="I156" s="108">
         <v>1</v>
       </c>
       <c r="J156" s="43">
@@ -14847,7 +14904,7 @@
       <c r="H157" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I157" s="28">
+      <c r="I157" s="108">
         <v>1</v>
       </c>
       <c r="J157" s="43">
@@ -14886,7 +14943,7 @@
       <c r="H158" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I158" s="28">
+      <c r="I158" s="108">
         <v>1</v>
       </c>
       <c r="J158" s="43">
@@ -14925,7 +14982,7 @@
       <c r="H159" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I159" s="28">
+      <c r="I159" s="108">
         <v>1</v>
       </c>
       <c r="J159" s="43">
@@ -14964,7 +15021,7 @@
       <c r="H160" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I160" s="28">
+      <c r="I160" s="105">
         <v>1</v>
       </c>
       <c r="J160" s="16">
@@ -15003,7 +15060,7 @@
       <c r="H161" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I161" s="28">
+      <c r="I161" s="105">
         <v>1</v>
       </c>
       <c r="J161" s="16">
@@ -15044,7 +15101,7 @@
       <c r="H162" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I162" s="28">
+      <c r="I162" s="105">
         <v>1</v>
       </c>
       <c r="J162" s="16">
@@ -15083,7 +15140,7 @@
       <c r="H163" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I163" s="28">
+      <c r="I163" s="105">
         <v>1</v>
       </c>
       <c r="J163" s="16">
@@ -15122,7 +15179,7 @@
       <c r="H164" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I164" s="28">
+      <c r="I164" s="105">
         <v>1</v>
       </c>
       <c r="J164" s="15">
@@ -15161,7 +15218,7 @@
       <c r="H165" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I165" s="28">
+      <c r="I165" s="105">
         <v>1</v>
       </c>
       <c r="J165" s="16">
@@ -15200,7 +15257,7 @@
       <c r="H166" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I166" s="28">
+      <c r="I166" s="107">
         <v>1</v>
       </c>
       <c r="J166" s="35">
@@ -15239,7 +15296,7 @@
       <c r="H167" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="I167" s="28">
+      <c r="I167" s="105">
         <v>1</v>
       </c>
       <c r="J167" s="16">
@@ -15278,7 +15335,7 @@
       <c r="H168" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I168" s="28">
+      <c r="I168" s="105">
         <v>1</v>
       </c>
       <c r="J168" s="16">
@@ -15317,7 +15374,7 @@
       <c r="H169" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="I169" s="28">
+      <c r="I169" s="105">
         <v>1</v>
       </c>
       <c r="J169" s="15">
@@ -15356,7 +15413,7 @@
       <c r="H170" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I170" s="28">
+      <c r="I170" s="105">
         <v>1</v>
       </c>
       <c r="J170" s="15">
@@ -15395,7 +15452,7 @@
       <c r="H171" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I171" s="28">
+      <c r="I171" s="107">
         <v>1</v>
       </c>
       <c r="J171" s="35">
@@ -15434,7 +15491,7 @@
       <c r="H172" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="I172" s="28">
+      <c r="I172" s="107">
         <v>1</v>
       </c>
       <c r="J172" s="35">
@@ -15488,7 +15545,7 @@
       <c r="M173" s="9"/>
     </row>
     <row r="174" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="69" t="s">
+      <c r="A174" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B174" s="49">
@@ -15512,7 +15569,7 @@
       <c r="H174" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="I174" s="28">
+      <c r="I174" s="105">
         <v>1</v>
       </c>
       <c r="J174" s="50">
@@ -15521,7 +15578,7 @@
       <c r="K174" s="50">
         <v>1</v>
       </c>
-      <c r="L174" s="80" t="s">
+      <c r="L174" s="78" t="s">
         <v>160</v>
       </c>
       <c r="M174" s="49">
@@ -15553,7 +15610,7 @@
       <c r="H175" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="I175" s="28">
+      <c r="I175" s="107">
         <v>1</v>
       </c>
       <c r="J175" s="35">
@@ -15594,7 +15651,7 @@
       <c r="H176" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="I176" s="28">
+      <c r="I176" s="108">
         <v>1</v>
       </c>
       <c r="J176" s="43">
@@ -15633,7 +15690,7 @@
       <c r="H177" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="I177" s="28">
+      <c r="I177" s="105">
         <v>1</v>
       </c>
       <c r="J177" s="15">
@@ -15672,7 +15729,7 @@
       <c r="H178" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I178" s="28">
+      <c r="I178" s="107">
         <v>1</v>
       </c>
       <c r="J178" s="34">
@@ -15711,7 +15768,7 @@
       <c r="H179" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I179" s="28">
+      <c r="I179" s="107">
         <v>1</v>
       </c>
       <c r="J179" s="34">
@@ -15750,7 +15807,7 @@
       <c r="H180" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I180" s="28">
+      <c r="I180" s="107">
         <v>1</v>
       </c>
       <c r="J180" s="35">
@@ -15791,7 +15848,7 @@
       <c r="H181" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I181" s="28">
+      <c r="I181" s="107">
         <v>1</v>
       </c>
       <c r="J181" s="35">
@@ -15832,7 +15889,7 @@
       <c r="H182" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I182" s="28">
+      <c r="I182" s="107">
         <v>1</v>
       </c>
       <c r="J182" s="35">
@@ -15873,7 +15930,7 @@
       <c r="H183" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="I183" s="28">
+      <c r="I183" s="107">
         <v>1</v>
       </c>
       <c r="J183" s="35">
@@ -15914,7 +15971,7 @@
       <c r="H184" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I184" s="28">
+      <c r="I184" s="107">
         <v>1</v>
       </c>
       <c r="J184" s="34">
@@ -15955,7 +16012,7 @@
       <c r="H185" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="I185" s="28">
+      <c r="I185" s="108">
         <v>1</v>
       </c>
       <c r="J185" s="43">
@@ -15994,7 +16051,7 @@
       <c r="H186" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I186" s="28">
+      <c r="I186" s="108">
         <v>1</v>
       </c>
       <c r="J186" s="43">
@@ -16033,7 +16090,7 @@
       <c r="H187" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I187" s="28">
+      <c r="I187" s="108">
         <v>1</v>
       </c>
       <c r="J187" s="42">
@@ -16072,7 +16129,7 @@
       <c r="H188" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I188" s="28">
+      <c r="I188" s="108">
         <v>1</v>
       </c>
       <c r="J188" s="42">
@@ -16111,7 +16168,7 @@
       <c r="H189" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I189" s="28">
+      <c r="I189" s="108">
         <v>1</v>
       </c>
       <c r="J189" s="43">
@@ -16150,7 +16207,7 @@
       <c r="H190" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="I190" s="28">
+      <c r="I190" s="108">
         <v>1</v>
       </c>
       <c r="J190" s="42">
@@ -16189,7 +16246,7 @@
       <c r="H191" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I191" s="28">
+      <c r="I191" s="108">
         <v>1</v>
       </c>
       <c r="J191" s="43">
@@ -16228,7 +16285,7 @@
       <c r="H192" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I192" s="28">
+      <c r="I192" s="108">
         <v>1</v>
       </c>
       <c r="J192" s="43">
@@ -16267,7 +16324,7 @@
       <c r="H193" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I193" s="28">
+      <c r="I193" s="108">
         <v>1</v>
       </c>
       <c r="J193" s="43">
@@ -16306,7 +16363,7 @@
       <c r="H194" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I194" s="28">
+      <c r="I194" s="108">
         <v>1</v>
       </c>
       <c r="J194" s="43">
@@ -16345,7 +16402,7 @@
       <c r="H195" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="I195" s="28">
+      <c r="I195" s="108">
         <v>1</v>
       </c>
       <c r="J195" s="42">
@@ -16384,7 +16441,7 @@
       <c r="H196" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I196" s="28">
+      <c r="I196" s="108">
         <v>1</v>
       </c>
       <c r="J196" s="43">
@@ -16423,7 +16480,7 @@
       <c r="H197" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="I197" s="28">
+      <c r="I197" s="108">
         <v>1</v>
       </c>
       <c r="J197" s="42">
@@ -16462,7 +16519,7 @@
       <c r="H198" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I198" s="28">
+      <c r="I198" s="108">
         <v>1</v>
       </c>
       <c r="J198" s="43">
@@ -16501,7 +16558,7 @@
       <c r="H199" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="I199" s="28">
+      <c r="I199" s="108">
         <v>1</v>
       </c>
       <c r="J199" s="42">
@@ -16540,7 +16597,7 @@
       <c r="H200" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I200" s="28">
+      <c r="I200" s="108">
         <v>1</v>
       </c>
       <c r="J200" s="43">
@@ -16579,7 +16636,7 @@
       <c r="H201" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I201" s="28">
+      <c r="I201" s="108">
         <v>1</v>
       </c>
       <c r="J201" s="42">
@@ -16618,7 +16675,7 @@
       <c r="H202" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I202" s="28">
+      <c r="I202" s="108">
         <v>1</v>
       </c>
       <c r="J202" s="43">
@@ -16657,7 +16714,7 @@
       <c r="H203" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I203" s="28">
+      <c r="I203" s="108">
         <v>1</v>
       </c>
       <c r="J203" s="42">
@@ -16696,7 +16753,7 @@
       <c r="H204" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I204" s="28">
+      <c r="I204" s="108">
         <v>1</v>
       </c>
       <c r="J204" s="43">
@@ -16735,7 +16792,7 @@
       <c r="H205" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="I205" s="28">
+      <c r="I205" s="108">
         <v>1</v>
       </c>
       <c r="J205" s="43">
@@ -16774,7 +16831,7 @@
       <c r="H206" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="I206" s="28">
+      <c r="I206" s="108">
         <v>1</v>
       </c>
       <c r="J206" s="42">
@@ -16813,7 +16870,7 @@
       <c r="H207" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I207" s="28">
+      <c r="I207" s="108">
         <v>1</v>
       </c>
       <c r="J207" s="43">
@@ -16852,7 +16909,7 @@
       <c r="H208" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I208" s="28">
+      <c r="I208" s="108">
         <v>1</v>
       </c>
       <c r="J208" s="43">
@@ -16891,7 +16948,7 @@
       <c r="H209" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="I209" s="28">
+      <c r="I209" s="108">
         <v>1</v>
       </c>
       <c r="J209" s="42">
@@ -16930,7 +16987,7 @@
       <c r="H210" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I210" s="28">
+      <c r="I210" s="108">
         <v>1</v>
       </c>
       <c r="J210" s="43">
@@ -16969,7 +17026,7 @@
       <c r="H211" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I211" s="28">
+      <c r="I211" s="108">
         <v>1</v>
       </c>
       <c r="J211" s="43">
@@ -17008,7 +17065,7 @@
       <c r="H212" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I212" s="28">
+      <c r="I212" s="108">
         <v>1</v>
       </c>
       <c r="J212" s="43">
@@ -17047,7 +17104,7 @@
       <c r="H213" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I213" s="28">
+      <c r="I213" s="108">
         <v>1</v>
       </c>
       <c r="J213" s="43">
@@ -17088,7 +17145,7 @@
       <c r="H214" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I214" s="28">
+      <c r="I214" s="108">
         <v>1</v>
       </c>
       <c r="J214" s="43">
@@ -17129,7 +17186,7 @@
       <c r="H215" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I215" s="28">
+      <c r="I215" s="108">
         <v>1</v>
       </c>
       <c r="J215" s="43">
@@ -17170,7 +17227,7 @@
       <c r="H216" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I216" s="28">
+      <c r="I216" s="108">
         <v>1</v>
       </c>
       <c r="J216" s="43">
@@ -17211,7 +17268,7 @@
       <c r="H217" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I217" s="28">
+      <c r="I217" s="108">
         <v>1</v>
       </c>
       <c r="J217" s="43">
@@ -17252,7 +17309,7 @@
       <c r="H218" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I218" s="28">
+      <c r="I218" s="108">
         <v>1</v>
       </c>
       <c r="J218" s="43">
@@ -17293,7 +17350,7 @@
       <c r="H219" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I219" s="28">
+      <c r="I219" s="108">
         <v>1</v>
       </c>
       <c r="J219" s="43">
@@ -17332,7 +17389,7 @@
       <c r="H220" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I220" s="28">
+      <c r="I220" s="108">
         <v>1</v>
       </c>
       <c r="J220" s="43">
@@ -17371,7 +17428,7 @@
       <c r="H221" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I221" s="28">
+      <c r="I221" s="108">
         <v>1</v>
       </c>
       <c r="J221" s="43">
@@ -17685,7 +17742,7 @@
       <c r="H229" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I229" s="28">
+      <c r="I229" s="108">
         <v>1</v>
       </c>
       <c r="J229" s="42">
@@ -17724,7 +17781,7 @@
       <c r="H230" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I230" s="28">
+      <c r="I230" s="108">
         <v>1</v>
       </c>
       <c r="J230" s="42">
@@ -17765,7 +17822,7 @@
       <c r="H231" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I231" s="28">
+      <c r="I231" s="108">
         <v>1</v>
       </c>
       <c r="J231" s="42">
@@ -17806,7 +17863,7 @@
       <c r="H232" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="I232" s="28">
+      <c r="I232" s="105">
         <v>1</v>
       </c>
       <c r="J232" s="15">
@@ -17843,7 +17900,7 @@
       <c r="H233" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I233" s="28">
+      <c r="I233" s="105">
         <v>1</v>
       </c>
       <c r="J233" s="16">
@@ -17923,7 +17980,7 @@
       <c r="H235" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="I235" s="28">
+      <c r="I235" s="105">
         <v>1</v>
       </c>
       <c r="J235" s="15">
@@ -17978,85 +18035,85 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A237" s="69" t="s">
+    <row r="237" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A237" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="49">
+      <c r="B237" s="15">
         <v>224</v>
       </c>
-      <c r="C237" s="49">
-        <v>10</v>
-      </c>
-      <c r="D237" s="50">
-        <v>1</v>
-      </c>
-      <c r="E237" s="49">
-        <v>1</v>
-      </c>
-      <c r="F237" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="G237" s="51" t="s">
+      <c r="C237" s="15">
+        <v>10</v>
+      </c>
+      <c r="D237" s="16">
+        <v>1</v>
+      </c>
+      <c r="E237" s="15">
+        <v>1</v>
+      </c>
+      <c r="F237" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G237" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H237" s="53" t="s">
+      <c r="H237" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="I237" s="28">
-        <v>1</v>
-      </c>
-      <c r="J237" s="50">
-        <v>1</v>
-      </c>
-      <c r="K237" s="50">
-        <v>1</v>
-      </c>
-      <c r="L237" s="70" t="s">
+      <c r="I237" s="105">
+        <v>1</v>
+      </c>
+      <c r="J237" s="16">
+        <v>1</v>
+      </c>
+      <c r="K237" s="16">
+        <v>1</v>
+      </c>
+      <c r="L237" s="106" t="s">
         <v>303</v>
       </c>
-      <c r="M237" s="49">
+      <c r="M237" s="15">
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A238" s="69" t="s">
+    <row r="238" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A238" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B238" s="49">
+      <c r="B238" s="15">
         <v>225</v>
       </c>
-      <c r="C238" s="49">
-        <v>10</v>
-      </c>
-      <c r="D238" s="50">
-        <v>1</v>
-      </c>
-      <c r="E238" s="49">
-        <v>1</v>
-      </c>
-      <c r="F238" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="G238" s="51" t="s">
+      <c r="C238" s="15">
+        <v>10</v>
+      </c>
+      <c r="D238" s="16">
+        <v>1</v>
+      </c>
+      <c r="E238" s="15">
+        <v>1</v>
+      </c>
+      <c r="F238" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G238" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H238" s="53" t="s">
+      <c r="H238" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="I238" s="28">
-        <v>1</v>
-      </c>
-      <c r="J238" s="50">
-        <v>1</v>
-      </c>
-      <c r="K238" s="50">
-        <v>1</v>
-      </c>
-      <c r="L238" s="70" t="s">
+      <c r="I238" s="105">
+        <v>1</v>
+      </c>
+      <c r="J238" s="16">
+        <v>1</v>
+      </c>
+      <c r="K238" s="16">
+        <v>1</v>
+      </c>
+      <c r="L238" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="M238" s="49">
+      <c r="M238" s="15">
         <v>65</v>
       </c>
     </row>
@@ -18126,7 +18183,7 @@
       <c r="H240" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="I240" s="28">
+      <c r="I240" s="105">
         <v>1</v>
       </c>
       <c r="J240" s="16">
@@ -18249,7 +18306,7 @@
       <c r="H243" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="I243" s="28">
+      <c r="I243" s="105">
         <v>1</v>
       </c>
       <c r="J243" s="16">
@@ -18290,7 +18347,7 @@
       <c r="H244" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="I244" s="28">
+      <c r="I244" s="105">
         <v>1</v>
       </c>
       <c r="J244" s="16">
@@ -18331,7 +18388,7 @@
       <c r="H245" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="I245" s="28">
+      <c r="I245" s="105">
         <v>1</v>
       </c>
       <c r="J245" s="15">
@@ -18370,7 +18427,7 @@
       <c r="H246" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I246" s="28">
+      <c r="I246" s="105">
         <v>1</v>
       </c>
       <c r="J246" s="15">
@@ -18411,7 +18468,7 @@
       <c r="H247" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I247" s="28">
+      <c r="I247" s="107">
         <v>1</v>
       </c>
       <c r="J247" s="35">
@@ -18450,7 +18507,7 @@
       <c r="H248" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I248" s="28">
+      <c r="I248" s="107">
         <v>1</v>
       </c>
       <c r="J248" s="35">
@@ -18489,7 +18546,7 @@
       <c r="H249" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I249" s="28">
+      <c r="I249" s="107">
         <v>1</v>
       </c>
       <c r="J249" s="35">
@@ -18530,7 +18587,7 @@
       <c r="H250" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="I250" s="28">
+      <c r="I250" s="107">
         <v>1</v>
       </c>
       <c r="J250" s="35">
@@ -18571,7 +18628,7 @@
       <c r="H251" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I251" s="28">
+      <c r="I251" s="108">
         <v>1</v>
       </c>
       <c r="J251" s="43">
@@ -18610,7 +18667,7 @@
       <c r="H252" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I252" s="28">
+      <c r="I252" s="108">
         <v>1</v>
       </c>
       <c r="J252" s="43">
@@ -18651,7 +18708,7 @@
       <c r="H253" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="I253" s="28">
+      <c r="I253" s="105">
         <v>1</v>
       </c>
       <c r="J253" s="15">
@@ -18692,7 +18749,7 @@
       <c r="H254" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I254" s="28">
+      <c r="I254" s="108">
         <v>1</v>
       </c>
       <c r="J254" s="42">
@@ -18707,6 +18764,45 @@
       <c r="M254" s="42" t="s">
         <v>373</v>
       </c>
+    </row>
+    <row r="255" spans="1:13" s="38" customFormat="1">
+      <c r="A255" s="40">
+        <v>3</v>
+      </c>
+      <c r="B255" s="34">
+        <v>241</v>
+      </c>
+      <c r="C255" s="34">
+        <v>10</v>
+      </c>
+      <c r="D255" s="35">
+        <v>1</v>
+      </c>
+      <c r="E255" s="34">
+        <v>2</v>
+      </c>
+      <c r="F255" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G255" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H255" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I255" s="107">
+        <v>1</v>
+      </c>
+      <c r="J255" s="35">
+        <v>3</v>
+      </c>
+      <c r="K255" s="35">
+        <v>1</v>
+      </c>
+      <c r="L255" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M255" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18722,8 +18818,8 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I46"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H52:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18770,10 +18866,10 @@
       <c r="I1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
       <c r="L1" s="58" t="s">
@@ -19275,7 +19371,7 @@
       <c r="H14" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="15">
         <v>1</v>
       </c>
       <c r="J14" s="16">
@@ -19316,7 +19412,7 @@
       <c r="H15" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="15">
         <v>1</v>
       </c>
       <c r="J15" s="16">
@@ -19357,7 +19453,7 @@
       <c r="H16" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="15">
         <v>1</v>
       </c>
       <c r="J16" s="16">
@@ -19398,7 +19494,7 @@
       <c r="H17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="15">
         <v>1</v>
       </c>
       <c r="J17" s="16">
@@ -19439,7 +19535,7 @@
       <c r="H18" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="15">
         <v>1</v>
       </c>
       <c r="J18" s="16">
@@ -19477,7 +19573,7 @@
       <c r="H19" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="15">
         <v>1</v>
       </c>
       <c r="J19" s="16">
@@ -19515,7 +19611,7 @@
       <c r="H20" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="15">
         <v>1</v>
       </c>
       <c r="J20" s="16">
@@ -19628,7 +19724,7 @@
       <c r="H23" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="42">
         <v>1</v>
       </c>
       <c r="J23" s="43">
@@ -19669,7 +19765,7 @@
       <c r="H24" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="42">
         <v>1</v>
       </c>
       <c r="J24" s="43">
@@ -19710,7 +19806,7 @@
       <c r="H25" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="42">
         <v>1</v>
       </c>
       <c r="J25" s="43">
@@ -19751,7 +19847,7 @@
       <c r="H26" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="42">
         <v>1</v>
       </c>
       <c r="J26" s="43">
@@ -19792,7 +19888,7 @@
       <c r="H27" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="42">
         <v>1</v>
       </c>
       <c r="J27" s="43">
@@ -19833,7 +19929,7 @@
       <c r="H28" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="42">
         <v>1</v>
       </c>
       <c r="J28" s="43">
@@ -19872,7 +19968,7 @@
       <c r="H29" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="42">
         <v>1</v>
       </c>
       <c r="J29" s="43">
@@ -19911,7 +20007,7 @@
       <c r="H30" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="42">
         <v>1</v>
       </c>
       <c r="J30" s="43">
@@ -19950,7 +20046,7 @@
       <c r="H31" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="42">
         <v>1</v>
       </c>
       <c r="J31" s="43">
@@ -19989,7 +20085,7 @@
       <c r="H32" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="42">
         <v>1</v>
       </c>
       <c r="J32" s="43">
@@ -20028,7 +20124,7 @@
       <c r="H33" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="42">
         <v>1</v>
       </c>
       <c r="J33" s="43">
@@ -20069,7 +20165,7 @@
       <c r="H34" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="42">
         <v>1</v>
       </c>
       <c r="J34" s="43">
@@ -20110,7 +20206,7 @@
       <c r="H35" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="42">
         <v>1</v>
       </c>
       <c r="J35" s="43">
@@ -20151,7 +20247,7 @@
       <c r="H36" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="42">
         <v>1</v>
       </c>
       <c r="J36" s="43">
@@ -20192,7 +20288,7 @@
       <c r="H37" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="42">
         <v>1</v>
       </c>
       <c r="J37" s="43">
@@ -20233,7 +20329,7 @@
       <c r="H38" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="42">
         <v>1</v>
       </c>
       <c r="J38" s="43">
@@ -20274,7 +20370,7 @@
       <c r="H39" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="42">
         <v>1</v>
       </c>
       <c r="J39" s="43">
@@ -20315,7 +20411,7 @@
       <c r="H40" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="42">
         <v>1</v>
       </c>
       <c r="J40" s="43">
@@ -20356,7 +20452,7 @@
       <c r="H41" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="42">
         <v>1</v>
       </c>
       <c r="J41" s="43">
@@ -20397,7 +20493,7 @@
       <c r="H42" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="42">
         <v>1</v>
       </c>
       <c r="J42" s="43">
@@ -20438,7 +20534,7 @@
       <c r="H43" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="42">
         <v>1</v>
       </c>
       <c r="J43" s="43">
@@ -20479,7 +20575,7 @@
       <c r="H44" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="42">
         <v>1</v>
       </c>
       <c r="J44" s="43">
@@ -20518,7 +20614,7 @@
       <c r="H45" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="42">
         <v>1</v>
       </c>
       <c r="J45" s="43">
@@ -20559,7 +20655,7 @@
       <c r="H46" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="42">
         <v>1</v>
       </c>
       <c r="J46" s="43">
@@ -20585,9 +20681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20599,7 +20695,7 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" style="64" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75" customHeight="1">
@@ -20630,10 +20726,10 @@
       <c r="I1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
       <c r="L1" s="58" t="s">
@@ -21358,7 +21454,7 @@
       <c r="H19" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="35">
         <v>4</v>
       </c>
       <c r="J19" s="34">
@@ -22288,200 +22384,200 @@
       </c>
       <c r="L43" s="42"/>
     </row>
-    <row r="44" spans="1:13" s="52" customFormat="1">
-      <c r="A44" s="49">
-        <v>2</v>
-      </c>
-      <c r="B44" s="49">
+    <row r="44" spans="1:13" s="18" customFormat="1">
+      <c r="A44" s="15">
+        <v>2</v>
+      </c>
+      <c r="B44" s="15">
         <v>39</v>
       </c>
-      <c r="C44" s="49">
-        <v>10</v>
-      </c>
-      <c r="D44" s="50">
-        <v>1</v>
-      </c>
-      <c r="E44" s="49">
-        <v>1</v>
-      </c>
-      <c r="F44" s="53" t="s">
+      <c r="C44" s="15">
+        <v>10</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I44" s="43">
-        <v>4</v>
-      </c>
-      <c r="J44" s="49">
-        <v>1</v>
-      </c>
-      <c r="K44" s="49">
-        <v>1</v>
-      </c>
-      <c r="L44" s="61" t="s">
+      <c r="I44" s="16">
+        <v>4</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1</v>
+      </c>
+      <c r="L44" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="M44" s="49"/>
-    </row>
-    <row r="45" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="49">
-        <v>2</v>
-      </c>
-      <c r="B45" s="49">
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="15">
+        <v>2</v>
+      </c>
+      <c r="B45" s="15">
         <v>40</v>
       </c>
-      <c r="C45" s="49">
-        <v>10</v>
-      </c>
-      <c r="D45" s="50">
-        <v>1</v>
-      </c>
-      <c r="E45" s="49">
-        <v>2</v>
-      </c>
-      <c r="F45" s="53" t="s">
+      <c r="C45" s="15">
+        <v>10</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I45" s="43">
-        <v>4</v>
-      </c>
-      <c r="J45" s="49">
-        <v>1</v>
-      </c>
-      <c r="K45" s="49">
-        <v>2</v>
-      </c>
-      <c r="L45" s="61" t="s">
+      <c r="I45" s="16">
+        <v>4</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1</v>
+      </c>
+      <c r="K45" s="15">
+        <v>2</v>
+      </c>
+      <c r="L45" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="49"/>
-    </row>
-    <row r="46" spans="1:13" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="49">
-        <v>2</v>
-      </c>
-      <c r="B46" s="49">
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A46" s="15">
+        <v>2</v>
+      </c>
+      <c r="B46" s="15">
         <v>41</v>
       </c>
-      <c r="C46" s="49">
-        <v>10</v>
-      </c>
-      <c r="D46" s="50">
-        <v>1</v>
-      </c>
-      <c r="E46" s="49">
-        <v>1</v>
-      </c>
-      <c r="F46" s="53" t="s">
+      <c r="C46" s="15">
+        <v>10</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="G46" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I46" s="43">
-        <v>4</v>
-      </c>
-      <c r="J46" s="49">
-        <v>1</v>
-      </c>
-      <c r="K46" s="49">
-        <v>2</v>
-      </c>
-      <c r="L46" s="61" t="s">
+      <c r="I46" s="16">
+        <v>4</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1</v>
+      </c>
+      <c r="K46" s="15">
+        <v>2</v>
+      </c>
+      <c r="L46" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="M46" s="49"/>
-    </row>
-    <row r="47" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="49">
-        <v>2</v>
-      </c>
-      <c r="B47" s="49">
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="15">
+        <v>2</v>
+      </c>
+      <c r="B47" s="15">
         <v>42</v>
       </c>
-      <c r="C47" s="49">
-        <v>10</v>
-      </c>
-      <c r="D47" s="50">
-        <v>1</v>
-      </c>
-      <c r="E47" s="49">
-        <v>2</v>
-      </c>
-      <c r="F47" s="53" t="s">
+      <c r="C47" s="15">
+        <v>10</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>2</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="51" t="s">
+      <c r="G47" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I47" s="43">
-        <v>4</v>
-      </c>
-      <c r="J47" s="49">
-        <v>1</v>
-      </c>
-      <c r="K47" s="49">
-        <v>2</v>
-      </c>
-      <c r="L47" s="62" t="s">
+      <c r="I47" s="16">
+        <v>4</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1</v>
+      </c>
+      <c r="K47" s="15">
+        <v>2</v>
+      </c>
+      <c r="L47" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="M47" s="49"/>
-    </row>
-    <row r="48" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="49">
-        <v>2</v>
-      </c>
-      <c r="B48" s="49">
+      <c r="M47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="15">
+        <v>2</v>
+      </c>
+      <c r="B48" s="15">
         <v>43</v>
       </c>
-      <c r="C48" s="49">
-        <v>10</v>
-      </c>
-      <c r="D48" s="50">
-        <v>1</v>
-      </c>
-      <c r="E48" s="49">
-        <v>1</v>
-      </c>
-      <c r="F48" s="53" t="s">
+      <c r="C48" s="15">
+        <v>10</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I48" s="43">
-        <v>4</v>
-      </c>
-      <c r="J48" s="49">
-        <v>2</v>
-      </c>
-      <c r="K48" s="49">
-        <v>1</v>
-      </c>
-      <c r="L48" s="62" t="s">
+      <c r="I48" s="16">
+        <v>4</v>
+      </c>
+      <c r="J48" s="15">
+        <v>2</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1</v>
+      </c>
+      <c r="L48" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="M48" s="49"/>
+      <c r="M48" s="15"/>
     </row>
     <row r="49" spans="1:13" s="38" customFormat="1">
       <c r="A49" s="34">
@@ -22508,7 +22604,7 @@
       <c r="H49" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="35">
         <v>4</v>
       </c>
       <c r="J49" s="34">
@@ -22543,22 +22639,22 @@
       <c r="F50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="71" t="s">
+      <c r="G50" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="H50" s="72" t="s">
+      <c r="H50" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="I50" s="43">
-        <v>4</v>
-      </c>
-      <c r="J50" s="86">
-        <v>1</v>
-      </c>
-      <c r="K50" s="87">
-        <v>1</v>
-      </c>
-      <c r="L50" s="73"/>
+      <c r="I50" s="10">
+        <v>4</v>
+      </c>
+      <c r="J50" s="84">
+        <v>1</v>
+      </c>
+      <c r="K50" s="85">
+        <v>1</v>
+      </c>
+      <c r="L50" s="71"/>
     </row>
     <row r="51" spans="1:13" s="13" customFormat="1" ht="31.5">
       <c r="A51" s="9">
@@ -22579,22 +22675,22 @@
       <c r="F51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="H51" s="72" t="s">
+      <c r="H51" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="I51" s="43">
-        <v>4</v>
-      </c>
-      <c r="J51" s="86">
-        <v>1</v>
-      </c>
-      <c r="K51" s="87">
-        <v>1</v>
-      </c>
-      <c r="L51" s="73"/>
+      <c r="I51" s="10">
+        <v>4</v>
+      </c>
+      <c r="J51" s="84">
+        <v>1</v>
+      </c>
+      <c r="K51" s="85">
+        <v>1</v>
+      </c>
+      <c r="L51" s="71"/>
     </row>
     <row r="52" spans="1:13" s="13" customFormat="1" ht="31.5">
       <c r="A52" s="9">
@@ -22604,7 +22700,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" s="10">
         <v>2</v>
@@ -22615,178 +22711,178 @@
       <c r="F52" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="71" t="s">
+      <c r="G52" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="H52" s="72" t="s">
+      <c r="H52" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="I52" s="43">
-        <v>4</v>
-      </c>
-      <c r="J52" s="86">
-        <v>1</v>
-      </c>
-      <c r="K52" s="87">
-        <v>1</v>
-      </c>
-      <c r="L52" s="73"/>
-    </row>
-    <row r="53" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="49">
-        <v>2</v>
-      </c>
-      <c r="B53" s="49">
+      <c r="I52" s="10">
+        <v>4</v>
+      </c>
+      <c r="J52" s="84">
+        <v>1</v>
+      </c>
+      <c r="K52" s="85">
+        <v>1</v>
+      </c>
+      <c r="L52" s="71"/>
+    </row>
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="15">
+        <v>2</v>
+      </c>
+      <c r="B53" s="15">
         <v>48</v>
       </c>
-      <c r="C53" s="49">
-        <v>10</v>
-      </c>
-      <c r="D53" s="50">
-        <v>1</v>
-      </c>
-      <c r="E53" s="49">
-        <v>1</v>
-      </c>
-      <c r="F53" s="53" t="s">
+      <c r="C53" s="15">
+        <v>10</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="53" t="s">
+      <c r="H53" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="43">
-        <v>4</v>
-      </c>
-      <c r="J53" s="49">
-        <v>2</v>
-      </c>
-      <c r="K53" s="49">
-        <v>1</v>
-      </c>
-      <c r="L53" s="62" t="s">
+      <c r="I53" s="16">
+        <v>4</v>
+      </c>
+      <c r="J53" s="15">
+        <v>2</v>
+      </c>
+      <c r="K53" s="15">
+        <v>1</v>
+      </c>
+      <c r="L53" s="110" t="s">
         <v>328</v>
       </c>
-      <c r="M53" s="49"/>
-    </row>
-    <row r="54" spans="1:13" s="52" customFormat="1">
-      <c r="A54" s="49">
-        <v>2</v>
-      </c>
-      <c r="B54" s="49">
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" s="18" customFormat="1">
+      <c r="A54" s="15">
+        <v>2</v>
+      </c>
+      <c r="B54" s="15">
         <v>49</v>
       </c>
-      <c r="C54" s="49">
-        <v>10</v>
-      </c>
-      <c r="D54" s="50">
-        <v>1</v>
-      </c>
-      <c r="E54" s="49">
-        <v>2</v>
-      </c>
-      <c r="F54" s="53" t="s">
+      <c r="C54" s="15">
+        <v>10</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15">
+        <v>2</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H54" s="51" t="s">
+      <c r="H54" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="43">
-        <v>4</v>
-      </c>
-      <c r="J54" s="49">
-        <v>2</v>
-      </c>
-      <c r="K54" s="49">
-        <v>2</v>
-      </c>
-      <c r="L54" s="61" t="s">
+      <c r="I54" s="16">
+        <v>4</v>
+      </c>
+      <c r="J54" s="15">
+        <v>2</v>
+      </c>
+      <c r="K54" s="15">
+        <v>2</v>
+      </c>
+      <c r="L54" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M54" s="49"/>
-    </row>
-    <row r="55" spans="1:13" s="52" customFormat="1">
-      <c r="A55" s="49">
-        <v>2</v>
-      </c>
-      <c r="B55" s="49">
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" s="18" customFormat="1">
+      <c r="A55" s="15">
+        <v>2</v>
+      </c>
+      <c r="B55" s="15">
         <v>50</v>
       </c>
-      <c r="C55" s="49">
-        <v>10</v>
-      </c>
-      <c r="D55" s="50">
-        <v>1</v>
-      </c>
-      <c r="E55" s="49">
-        <v>2</v>
-      </c>
-      <c r="F55" s="53" t="s">
+      <c r="C55" s="15">
+        <v>10</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15">
+        <v>2</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="51" t="s">
+      <c r="H55" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I55" s="43">
-        <v>4</v>
-      </c>
-      <c r="J55" s="49">
-        <v>2</v>
-      </c>
-      <c r="K55" s="49">
-        <v>2</v>
-      </c>
-      <c r="L55" s="61" t="s">
+      <c r="I55" s="16">
+        <v>4</v>
+      </c>
+      <c r="J55" s="15">
+        <v>2</v>
+      </c>
+      <c r="K55" s="15">
+        <v>2</v>
+      </c>
+      <c r="L55" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M55" s="49"/>
-    </row>
-    <row r="56" spans="1:13" s="52" customFormat="1">
-      <c r="A56" s="49">
-        <v>2</v>
-      </c>
-      <c r="B56" s="49">
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" s="18" customFormat="1">
+      <c r="A56" s="15">
+        <v>2</v>
+      </c>
+      <c r="B56" s="15">
         <v>51</v>
       </c>
-      <c r="C56" s="49">
-        <v>10</v>
-      </c>
-      <c r="D56" s="50">
-        <v>1</v>
-      </c>
-      <c r="E56" s="49">
-        <v>3</v>
-      </c>
-      <c r="F56" s="53" t="s">
+      <c r="C56" s="15">
+        <v>10</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15">
+        <v>3</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="51" t="s">
+      <c r="G56" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H56" s="51" t="s">
+      <c r="H56" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I56" s="43">
-        <v>4</v>
-      </c>
-      <c r="J56" s="49">
-        <v>2</v>
-      </c>
-      <c r="K56" s="49">
-        <v>2</v>
-      </c>
-      <c r="L56" s="61" t="s">
+      <c r="I56" s="16">
+        <v>4</v>
+      </c>
+      <c r="J56" s="15">
+        <v>2</v>
+      </c>
+      <c r="K56" s="15">
+        <v>2</v>
+      </c>
+      <c r="L56" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M56" s="49"/>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" spans="1:13" s="38" customFormat="1">
       <c r="A57" s="34">
@@ -22813,7 +22909,7 @@
       <c r="H57" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I57" s="43">
+      <c r="I57" s="35">
         <v>4</v>
       </c>
       <c r="J57" s="34">
@@ -22854,7 +22950,7 @@
       <c r="H58" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I58" s="43">
+      <c r="I58" s="35">
         <v>4</v>
       </c>
       <c r="J58" s="34">
@@ -22893,7 +22989,7 @@
       <c r="H59" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I59" s="43">
+      <c r="I59" s="35">
         <v>4</v>
       </c>
       <c r="J59" s="34">
@@ -22902,7 +22998,7 @@
       <c r="K59" s="34">
         <v>2</v>
       </c>
-      <c r="L59" s="63" t="s">
+      <c r="L59" s="61" t="s">
         <v>187</v>
       </c>
       <c r="M59" s="34"/>
@@ -22932,7 +23028,7 @@
       <c r="H60" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I60" s="43">
+      <c r="I60" s="35">
         <v>4</v>
       </c>
       <c r="J60" s="34">
@@ -22941,7 +23037,7 @@
       <c r="K60" s="34">
         <v>2</v>
       </c>
-      <c r="L60" s="63" t="s">
+      <c r="L60" s="61" t="s">
         <v>187</v>
       </c>
       <c r="M60" s="34"/>
@@ -22971,7 +23067,7 @@
       <c r="H61" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I61" s="35">
         <v>4</v>
       </c>
       <c r="J61" s="34">
@@ -22980,7 +23076,7 @@
       <c r="K61" s="34">
         <v>2</v>
       </c>
-      <c r="L61" s="63" t="s">
+      <c r="L61" s="61" t="s">
         <v>187</v>
       </c>
       <c r="M61" s="34"/>
@@ -23010,7 +23106,7 @@
       <c r="H62" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I62" s="43">
+      <c r="I62" s="35">
         <v>4</v>
       </c>
       <c r="J62" s="34">
@@ -23049,7 +23145,7 @@
       <c r="H63" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I63" s="43">
+      <c r="I63" s="35">
         <v>4</v>
       </c>
       <c r="J63" s="34">
@@ -23058,7 +23154,7 @@
       <c r="K63" s="34">
         <v>2</v>
       </c>
-      <c r="L63" s="63" t="s">
+      <c r="L63" s="61" t="s">
         <v>187</v>
       </c>
       <c r="M63" s="34">
@@ -23090,7 +23186,7 @@
       <c r="H64" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="35">
         <v>4</v>
       </c>
       <c r="J64" s="34">
@@ -23099,7 +23195,7 @@
       <c r="K64" s="34">
         <v>1</v>
       </c>
-      <c r="L64" s="63" t="s">
+      <c r="L64" s="61" t="s">
         <v>187</v>
       </c>
       <c r="M64" s="34">
@@ -23131,7 +23227,7 @@
       <c r="H65" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="35">
         <v>4</v>
       </c>
       <c r="J65" s="34">
@@ -23140,7 +23236,7 @@
       <c r="K65" s="34">
         <v>3</v>
       </c>
-      <c r="L65" s="63" t="s">
+      <c r="L65" s="61" t="s">
         <v>187</v>
       </c>
       <c r="M65" s="34">
@@ -23172,7 +23268,7 @@
       <c r="H66" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="35">
         <v>4</v>
       </c>
       <c r="J66" s="34">
@@ -23213,7 +23309,7 @@
       <c r="H67" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I67" s="43">
+      <c r="I67" s="35">
         <v>4</v>
       </c>
       <c r="J67" s="34">
@@ -23254,7 +23350,7 @@
       <c r="H68" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="35">
         <v>4</v>
       </c>
       <c r="J68" s="34">
@@ -23263,7 +23359,7 @@
       <c r="K68" s="34">
         <v>2</v>
       </c>
-      <c r="L68" s="63" t="s">
+      <c r="L68" s="61" t="s">
         <v>196</v>
       </c>
       <c r="M68" s="34"/>
@@ -23293,7 +23389,7 @@
       <c r="H69" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I69" s="43">
+      <c r="I69" s="35">
         <v>4</v>
       </c>
       <c r="J69" s="34">
@@ -23302,7 +23398,7 @@
       <c r="K69" s="34">
         <v>2</v>
       </c>
-      <c r="L69" s="63" t="s">
+      <c r="L69" s="61" t="s">
         <v>197</v>
       </c>
       <c r="M69" s="34"/>
@@ -23332,7 +23428,7 @@
       <c r="H70" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I70" s="43">
+      <c r="I70" s="35">
         <v>4</v>
       </c>
       <c r="J70" s="34">
@@ -23341,7 +23437,7 @@
       <c r="K70" s="34">
         <v>2</v>
       </c>
-      <c r="L70" s="63" t="s">
+      <c r="L70" s="61" t="s">
         <v>197</v>
       </c>
       <c r="M70" s="34"/>
@@ -23371,7 +23467,7 @@
       <c r="H71" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I71" s="35">
         <v>4</v>
       </c>
       <c r="J71" s="34">
@@ -23380,7 +23476,7 @@
       <c r="K71" s="34">
         <v>2</v>
       </c>
-      <c r="L71" s="63" t="s">
+      <c r="L71" s="61" t="s">
         <v>197</v>
       </c>
       <c r="M71" s="34"/>
@@ -23410,7 +23506,7 @@
       <c r="H72" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="35">
         <v>4</v>
       </c>
       <c r="J72" s="34">
@@ -23419,7 +23515,7 @@
       <c r="K72" s="34">
         <v>1</v>
       </c>
-      <c r="L72" s="63" t="s">
+      <c r="L72" s="61" t="s">
         <v>197</v>
       </c>
       <c r="M72" s="34"/>
@@ -23449,7 +23545,7 @@
       <c r="H73" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="35">
         <v>4</v>
       </c>
       <c r="J73" s="34">
@@ -23458,7 +23554,7 @@
       <c r="K73" s="34">
         <v>3</v>
       </c>
-      <c r="L73" s="63" t="s">
+      <c r="L73" s="61" t="s">
         <v>197</v>
       </c>
       <c r="M73" s="34"/>
@@ -23488,7 +23584,7 @@
       <c r="H74" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="35">
         <v>4</v>
       </c>
       <c r="J74" s="34">
@@ -23497,7 +23593,7 @@
       <c r="K74" s="34">
         <v>1</v>
       </c>
-      <c r="L74" s="63" t="s">
+      <c r="L74" s="61" t="s">
         <v>198</v>
       </c>
       <c r="M74" s="34"/>
@@ -23527,7 +23623,7 @@
       <c r="H75" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="35">
         <v>4</v>
       </c>
       <c r="J75" s="34">
@@ -23536,7 +23632,7 @@
       <c r="K75" s="34">
         <v>1</v>
       </c>
-      <c r="L75" s="63" t="s">
+      <c r="L75" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M75" s="34"/>
@@ -23566,7 +23662,7 @@
       <c r="H76" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="35">
         <v>4</v>
       </c>
       <c r="J76" s="34">
@@ -23575,7 +23671,7 @@
       <c r="K76" s="34">
         <v>1</v>
       </c>
-      <c r="L76" s="63" t="s">
+      <c r="L76" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M76" s="34"/>
@@ -23605,7 +23701,7 @@
       <c r="H77" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="35">
         <v>4</v>
       </c>
       <c r="J77" s="34">
@@ -23614,7 +23710,7 @@
       <c r="K77" s="34">
         <v>1</v>
       </c>
-      <c r="L77" s="63" t="s">
+      <c r="L77" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M77" s="34"/>
@@ -23644,7 +23740,7 @@
       <c r="H78" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="35">
         <v>4</v>
       </c>
       <c r="J78" s="34">
@@ -23653,7 +23749,7 @@
       <c r="K78" s="34">
         <v>1</v>
       </c>
-      <c r="L78" s="63" t="s">
+      <c r="L78" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M78" s="34"/>
@@ -23683,7 +23779,7 @@
       <c r="H79" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="35">
         <v>4</v>
       </c>
       <c r="J79" s="34">
@@ -23692,7 +23788,7 @@
       <c r="K79" s="34">
         <v>1</v>
       </c>
-      <c r="L79" s="63" t="s">
+      <c r="L79" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M79" s="34"/>
@@ -23722,7 +23818,7 @@
       <c r="H80" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I80" s="43">
+      <c r="I80" s="35">
         <v>4</v>
       </c>
       <c r="J80" s="34">
@@ -23731,7 +23827,7 @@
       <c r="K80" s="34">
         <v>1</v>
       </c>
-      <c r="L80" s="63" t="s">
+      <c r="L80" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M80" s="34"/>
@@ -23761,7 +23857,7 @@
       <c r="H81" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I81" s="43">
+      <c r="I81" s="35">
         <v>4</v>
       </c>
       <c r="J81" s="34">
@@ -23770,7 +23866,7 @@
       <c r="K81" s="34">
         <v>1</v>
       </c>
-      <c r="L81" s="63" t="s">
+      <c r="L81" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M81" s="34"/>
@@ -23800,7 +23896,7 @@
       <c r="H82" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I82" s="43">
+      <c r="I82" s="35">
         <v>4</v>
       </c>
       <c r="J82" s="34">
@@ -23809,7 +23905,7 @@
       <c r="K82" s="34">
         <v>1</v>
       </c>
-      <c r="L82" s="63" t="s">
+      <c r="L82" s="61" t="s">
         <v>199</v>
       </c>
       <c r="M82" s="34"/>
@@ -23839,7 +23935,7 @@
       <c r="H83" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I83" s="43">
+      <c r="I83" s="35">
         <v>4</v>
       </c>
       <c r="J83" s="34">
@@ -23878,7 +23974,7 @@
       <c r="H84" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I84" s="43">
+      <c r="I84" s="35">
         <v>4</v>
       </c>
       <c r="J84" s="34">
@@ -23917,7 +24013,7 @@
       <c r="H85" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I85" s="43">
+      <c r="I85" s="35">
         <v>4</v>
       </c>
       <c r="J85" s="34">
@@ -23956,7 +24052,7 @@
       <c r="H86" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I86" s="43">
+      <c r="I86" s="35">
         <v>4</v>
       </c>
       <c r="J86" s="34">
@@ -23995,7 +24091,7 @@
       <c r="H87" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I87" s="43">
+      <c r="I87" s="35">
         <v>4</v>
       </c>
       <c r="J87" s="34">
@@ -24034,7 +24130,7 @@
       <c r="H88" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I88" s="43">
+      <c r="I88" s="35">
         <v>4</v>
       </c>
       <c r="J88" s="34">
@@ -24401,7 +24497,7 @@
       <c r="H97" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I97" s="43">
+      <c r="I97" s="35">
         <v>4</v>
       </c>
       <c r="J97" s="34">
@@ -24415,85 +24511,85 @@
       </c>
       <c r="M97" s="34"/>
     </row>
-    <row r="98" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A98" s="49">
-        <v>2</v>
-      </c>
-      <c r="B98" s="49">
+    <row r="98" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A98" s="15">
+        <v>2</v>
+      </c>
+      <c r="B98" s="15">
         <v>85</v>
       </c>
-      <c r="C98" s="49">
+      <c r="C98" s="15">
         <v>8</v>
       </c>
-      <c r="D98" s="50">
-        <v>1</v>
-      </c>
-      <c r="E98" s="49">
-        <v>1</v>
-      </c>
-      <c r="F98" s="53" t="s">
+      <c r="D98" s="16">
+        <v>1</v>
+      </c>
+      <c r="E98" s="15">
+        <v>1</v>
+      </c>
+      <c r="F98" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G98" s="51" t="s">
+      <c r="G98" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H98" s="53" t="s">
+      <c r="H98" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I98" s="43">
-        <v>4</v>
-      </c>
-      <c r="J98" s="49">
-        <v>2</v>
-      </c>
-      <c r="K98" s="49">
-        <v>1</v>
-      </c>
-      <c r="L98" s="62" t="s">
+      <c r="I98" s="16">
+        <v>4</v>
+      </c>
+      <c r="J98" s="15">
+        <v>2</v>
+      </c>
+      <c r="K98" s="15">
+        <v>1</v>
+      </c>
+      <c r="L98" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="M98" s="49">
+      <c r="M98" s="15">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="52" customFormat="1">
-      <c r="A99" s="49">
-        <v>2</v>
-      </c>
-      <c r="B99" s="49">
+    <row r="99" spans="1:13" s="18" customFormat="1">
+      <c r="A99" s="15">
+        <v>2</v>
+      </c>
+      <c r="B99" s="15">
         <v>86</v>
       </c>
-      <c r="C99" s="49">
+      <c r="C99" s="15">
         <v>8</v>
       </c>
-      <c r="D99" s="50">
-        <v>1</v>
-      </c>
-      <c r="E99" s="49">
-        <v>2</v>
-      </c>
-      <c r="F99" s="53" t="s">
+      <c r="D99" s="16">
+        <v>1</v>
+      </c>
+      <c r="E99" s="15">
+        <v>2</v>
+      </c>
+      <c r="F99" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G99" s="51" t="s">
+      <c r="G99" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H99" s="51" t="s">
+      <c r="H99" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I99" s="43">
-        <v>4</v>
-      </c>
-      <c r="J99" s="49">
-        <v>2</v>
-      </c>
-      <c r="K99" s="49">
-        <v>2</v>
-      </c>
-      <c r="L99" s="61" t="s">
+      <c r="I99" s="16">
+        <v>4</v>
+      </c>
+      <c r="J99" s="15">
+        <v>2</v>
+      </c>
+      <c r="K99" s="15">
+        <v>2</v>
+      </c>
+      <c r="L99" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M99" s="49"/>
+      <c r="M99" s="15"/>
     </row>
     <row r="100" spans="1:13" s="38" customFormat="1">
       <c r="A100" s="34">
@@ -24520,7 +24616,7 @@
       <c r="H100" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I100" s="43">
+      <c r="I100" s="35">
         <v>4</v>
       </c>
       <c r="J100" s="34">
@@ -24534,126 +24630,126 @@
       </c>
       <c r="M100" s="34"/>
     </row>
-    <row r="101" spans="1:13" s="52" customFormat="1">
-      <c r="A101" s="49">
-        <v>2</v>
-      </c>
-      <c r="B101" s="49">
+    <row r="101" spans="1:13" s="18" customFormat="1">
+      <c r="A101" s="15">
+        <v>2</v>
+      </c>
+      <c r="B101" s="15">
         <v>88</v>
       </c>
-      <c r="C101" s="49">
+      <c r="C101" s="15">
         <v>8</v>
       </c>
-      <c r="D101" s="50">
-        <v>1</v>
-      </c>
-      <c r="E101" s="49">
-        <v>2</v>
-      </c>
-      <c r="F101" s="53" t="s">
+      <c r="D101" s="16">
+        <v>1</v>
+      </c>
+      <c r="E101" s="15">
+        <v>2</v>
+      </c>
+      <c r="F101" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G101" s="51" t="s">
+      <c r="G101" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H101" s="51" t="s">
+      <c r="H101" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I101" s="43">
-        <v>4</v>
-      </c>
-      <c r="J101" s="49">
-        <v>2</v>
-      </c>
-      <c r="K101" s="49">
-        <v>2</v>
-      </c>
-      <c r="L101" s="61" t="s">
+      <c r="I101" s="16">
+        <v>4</v>
+      </c>
+      <c r="J101" s="15">
+        <v>2</v>
+      </c>
+      <c r="K101" s="15">
+        <v>2</v>
+      </c>
+      <c r="L101" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M101" s="49">
+      <c r="M101" s="15">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="52" customFormat="1">
-      <c r="A102" s="49">
-        <v>2</v>
-      </c>
-      <c r="B102" s="49">
+    <row r="102" spans="1:13" s="18" customFormat="1">
+      <c r="A102" s="15">
+        <v>2</v>
+      </c>
+      <c r="B102" s="15">
         <v>89</v>
       </c>
-      <c r="C102" s="49">
+      <c r="C102" s="15">
         <v>8</v>
       </c>
-      <c r="D102" s="50">
-        <v>1</v>
-      </c>
-      <c r="E102" s="49">
-        <v>2</v>
-      </c>
-      <c r="F102" s="53" t="s">
+      <c r="D102" s="16">
+        <v>1</v>
+      </c>
+      <c r="E102" s="15">
+        <v>2</v>
+      </c>
+      <c r="F102" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G102" s="51" t="s">
+      <c r="G102" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H102" s="51" t="s">
+      <c r="H102" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I102" s="43">
-        <v>4</v>
-      </c>
-      <c r="J102" s="49">
-        <v>2</v>
-      </c>
-      <c r="K102" s="49">
-        <v>2</v>
-      </c>
-      <c r="L102" s="61" t="s">
+      <c r="I102" s="16">
+        <v>4</v>
+      </c>
+      <c r="J102" s="15">
+        <v>2</v>
+      </c>
+      <c r="K102" s="15">
+        <v>2</v>
+      </c>
+      <c r="L102" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M102" s="49">
+      <c r="M102" s="15">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="52" customFormat="1">
-      <c r="A103" s="49">
-        <v>2</v>
-      </c>
-      <c r="B103" s="49">
+    <row r="103" spans="1:13" s="18" customFormat="1">
+      <c r="A103" s="15">
+        <v>2</v>
+      </c>
+      <c r="B103" s="15">
         <v>90</v>
       </c>
-      <c r="C103" s="49">
+      <c r="C103" s="15">
         <v>8</v>
       </c>
-      <c r="D103" s="50">
-        <v>1</v>
-      </c>
-      <c r="E103" s="49">
-        <v>3</v>
-      </c>
-      <c r="F103" s="53" t="s">
+      <c r="D103" s="16">
+        <v>1</v>
+      </c>
+      <c r="E103" s="15">
+        <v>3</v>
+      </c>
+      <c r="F103" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G103" s="51" t="s">
+      <c r="G103" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H103" s="51" t="s">
+      <c r="H103" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I103" s="43">
-        <v>4</v>
-      </c>
-      <c r="J103" s="49">
-        <v>2</v>
-      </c>
-      <c r="K103" s="49">
-        <v>2</v>
-      </c>
-      <c r="L103" s="61" t="s">
+      <c r="I103" s="16">
+        <v>4</v>
+      </c>
+      <c r="J103" s="15">
+        <v>2</v>
+      </c>
+      <c r="K103" s="15">
+        <v>2</v>
+      </c>
+      <c r="L103" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M103" s="49">
+      <c r="M103" s="15">
         <v>89</v>
       </c>
     </row>
@@ -24682,7 +24778,7 @@
       <c r="H104" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I104" s="43">
+      <c r="I104" s="35">
         <v>4</v>
       </c>
       <c r="J104" s="34">
@@ -24723,7 +24819,7 @@
       <c r="H105" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I105" s="43">
+      <c r="I105" s="35">
         <v>4</v>
       </c>
       <c r="J105" s="34">
@@ -24739,245 +24835,245 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="52" customFormat="1">
-      <c r="A106" s="49">
-        <v>2</v>
-      </c>
-      <c r="B106" s="49">
+    <row r="106" spans="1:13" s="18" customFormat="1">
+      <c r="A106" s="15">
+        <v>2</v>
+      </c>
+      <c r="B106" s="15">
         <v>93</v>
       </c>
-      <c r="C106" s="49">
+      <c r="C106" s="15">
         <v>8</v>
       </c>
-      <c r="D106" s="50">
-        <v>1</v>
-      </c>
-      <c r="E106" s="49">
-        <v>3</v>
-      </c>
-      <c r="F106" s="53" t="s">
+      <c r="D106" s="16">
+        <v>1</v>
+      </c>
+      <c r="E106" s="15">
+        <v>3</v>
+      </c>
+      <c r="F106" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G106" s="51" t="s">
+      <c r="G106" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H106" s="51" t="s">
+      <c r="H106" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I106" s="43">
-        <v>4</v>
-      </c>
-      <c r="J106" s="49">
-        <v>2</v>
-      </c>
-      <c r="K106" s="49">
-        <v>2</v>
-      </c>
-      <c r="L106" s="61" t="s">
+      <c r="I106" s="16">
+        <v>4</v>
+      </c>
+      <c r="J106" s="15">
+        <v>2</v>
+      </c>
+      <c r="K106" s="15">
+        <v>2</v>
+      </c>
+      <c r="L106" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M106" s="49">
+      <c r="M106" s="15">
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="52" customFormat="1">
-      <c r="A107" s="49">
-        <v>2</v>
-      </c>
-      <c r="B107" s="49">
+    <row r="107" spans="1:13" s="18" customFormat="1">
+      <c r="A107" s="15">
+        <v>2</v>
+      </c>
+      <c r="B107" s="15">
         <v>94</v>
       </c>
-      <c r="C107" s="49">
+      <c r="C107" s="15">
         <v>8</v>
       </c>
-      <c r="D107" s="50">
-        <v>1</v>
-      </c>
-      <c r="E107" s="49">
-        <v>2</v>
-      </c>
-      <c r="F107" s="53" t="s">
+      <c r="D107" s="16">
+        <v>1</v>
+      </c>
+      <c r="E107" s="15">
+        <v>2</v>
+      </c>
+      <c r="F107" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G107" s="51" t="s">
+      <c r="G107" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H107" s="51" t="s">
+      <c r="H107" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I107" s="43">
-        <v>4</v>
-      </c>
-      <c r="J107" s="49">
-        <v>2</v>
-      </c>
-      <c r="K107" s="49">
-        <v>2</v>
-      </c>
-      <c r="L107" s="61" t="s">
+      <c r="I107" s="16">
+        <v>4</v>
+      </c>
+      <c r="J107" s="15">
+        <v>2</v>
+      </c>
+      <c r="K107" s="15">
+        <v>2</v>
+      </c>
+      <c r="L107" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M107" s="49">
+      <c r="M107" s="15">
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="52" customFormat="1">
-      <c r="A108" s="49">
-        <v>2</v>
-      </c>
-      <c r="B108" s="49">
+    <row r="108" spans="1:13" s="18" customFormat="1">
+      <c r="A108" s="15">
+        <v>2</v>
+      </c>
+      <c r="B108" s="15">
         <v>95</v>
       </c>
-      <c r="C108" s="49">
+      <c r="C108" s="15">
         <v>6</v>
       </c>
-      <c r="D108" s="50">
-        <v>1</v>
-      </c>
-      <c r="E108" s="49">
-        <v>1</v>
-      </c>
-      <c r="F108" s="53" t="s">
+      <c r="D108" s="16">
+        <v>1</v>
+      </c>
+      <c r="E108" s="15">
+        <v>1</v>
+      </c>
+      <c r="F108" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G108" s="51" t="s">
+      <c r="G108" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H108" s="51" t="s">
+      <c r="H108" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I108" s="43">
-        <v>4</v>
-      </c>
-      <c r="J108" s="49">
-        <v>2</v>
-      </c>
-      <c r="K108" s="49">
-        <v>2</v>
-      </c>
-      <c r="L108" s="61" t="s">
+      <c r="I108" s="16">
+        <v>4</v>
+      </c>
+      <c r="J108" s="15">
+        <v>2</v>
+      </c>
+      <c r="K108" s="15">
+        <v>2</v>
+      </c>
+      <c r="L108" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M108" s="49">
+      <c r="M108" s="15">
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A109" s="49">
-        <v>2</v>
-      </c>
-      <c r="B109" s="49">
+    <row r="109" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A109" s="15">
+        <v>2</v>
+      </c>
+      <c r="B109" s="15">
         <v>96</v>
       </c>
-      <c r="C109" s="49">
+      <c r="C109" s="15">
         <v>8</v>
       </c>
-      <c r="D109" s="50">
-        <v>1</v>
-      </c>
-      <c r="E109" s="49">
-        <v>1</v>
-      </c>
-      <c r="F109" s="53" t="s">
+      <c r="D109" s="16">
+        <v>1</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+      <c r="F109" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G109" s="51" t="s">
+      <c r="G109" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H109" s="53" t="s">
+      <c r="H109" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I109" s="43">
-        <v>4</v>
-      </c>
-      <c r="J109" s="49">
-        <v>2</v>
-      </c>
-      <c r="K109" s="49">
-        <v>1</v>
-      </c>
-      <c r="L109" s="62" t="s">
+      <c r="I109" s="16">
+        <v>4</v>
+      </c>
+      <c r="J109" s="15">
+        <v>2</v>
+      </c>
+      <c r="K109" s="15">
+        <v>1</v>
+      </c>
+      <c r="L109" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="M109" s="49"/>
-    </row>
-    <row r="110" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A110" s="49">
-        <v>2</v>
-      </c>
-      <c r="B110" s="49">
+      <c r="M109" s="15"/>
+    </row>
+    <row r="110" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A110" s="15">
+        <v>2</v>
+      </c>
+      <c r="B110" s="15">
         <v>97</v>
       </c>
-      <c r="C110" s="49">
+      <c r="C110" s="15">
         <v>8</v>
       </c>
-      <c r="D110" s="50">
-        <v>1</v>
-      </c>
-      <c r="E110" s="49">
-        <v>1</v>
-      </c>
-      <c r="F110" s="53" t="s">
+      <c r="D110" s="16">
+        <v>1</v>
+      </c>
+      <c r="E110" s="15">
+        <v>1</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G110" s="51" t="s">
+      <c r="G110" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H110" s="53" t="s">
+      <c r="H110" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I110" s="43">
-        <v>4</v>
-      </c>
-      <c r="J110" s="49">
-        <v>2</v>
-      </c>
-      <c r="K110" s="49">
-        <v>1</v>
-      </c>
-      <c r="L110" s="62" t="s">
+      <c r="I110" s="16">
+        <v>4</v>
+      </c>
+      <c r="J110" s="15">
+        <v>2</v>
+      </c>
+      <c r="K110" s="15">
+        <v>1</v>
+      </c>
+      <c r="L110" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="M110" s="49"/>
-    </row>
-    <row r="111" spans="1:13" s="52" customFormat="1">
-      <c r="A111" s="49">
-        <v>2</v>
-      </c>
-      <c r="B111" s="49">
+      <c r="M110" s="15"/>
+    </row>
+    <row r="111" spans="1:13" s="18" customFormat="1">
+      <c r="A111" s="15">
+        <v>2</v>
+      </c>
+      <c r="B111" s="15">
         <v>98</v>
       </c>
-      <c r="C111" s="49">
-        <v>10</v>
-      </c>
-      <c r="D111" s="50">
-        <v>1</v>
-      </c>
-      <c r="E111" s="49">
-        <v>1</v>
-      </c>
-      <c r="F111" s="53" t="s">
+      <c r="C111" s="15">
+        <v>10</v>
+      </c>
+      <c r="D111" s="16">
+        <v>1</v>
+      </c>
+      <c r="E111" s="15">
+        <v>1</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G111" s="51" t="s">
+      <c r="G111" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H111" s="51" t="s">
+      <c r="H111" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I111" s="43">
-        <v>4</v>
-      </c>
-      <c r="J111" s="49">
-        <v>1</v>
-      </c>
-      <c r="K111" s="49">
-        <v>1</v>
-      </c>
-      <c r="L111" s="61" t="s">
+      <c r="I111" s="16">
+        <v>4</v>
+      </c>
+      <c r="J111" s="15">
+        <v>1</v>
+      </c>
+      <c r="K111" s="15">
+        <v>1</v>
+      </c>
+      <c r="L111" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="M111" s="49">
+      <c r="M111" s="15">
         <v>39</v>
       </c>
     </row>
@@ -25006,7 +25102,7 @@
       <c r="H112" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I112" s="43">
+      <c r="I112" s="35">
         <v>4</v>
       </c>
       <c r="J112" s="34">
@@ -25015,7 +25111,7 @@
       <c r="K112" s="34">
         <v>1</v>
       </c>
-      <c r="L112" s="63" t="s">
+      <c r="L112" s="61" t="s">
         <v>198</v>
       </c>
       <c r="M112" s="34"/>
@@ -25168,7 +25264,7 @@
       <c r="H116" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I116" s="43">
+      <c r="I116" s="35">
         <v>4</v>
       </c>
       <c r="J116" s="34">
@@ -25218,10 +25314,10 @@
       <c r="K117" s="42">
         <v>2</v>
       </c>
-      <c r="L117" s="100" t="s">
+      <c r="L117" s="98" t="s">
         <v>390</v>
       </c>
-      <c r="M117" s="101">
+      <c r="M117" s="99">
         <v>38</v>
       </c>
     </row>
@@ -25233,10 +25329,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25279,10 +25375,10 @@
       <c r="I1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -25314,11 +25410,11 @@
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="93" t="s">
         <v>346</v>
       </c>
       <c r="I2" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="10">
         <v>3</v>
@@ -25352,11 +25448,11 @@
       <c r="G3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="10">
         <v>3</v>
@@ -25394,15 +25490,15 @@
         <v>348</v>
       </c>
       <c r="I4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="10">
         <v>3</v>
       </c>
       <c r="K4" s="10">
-        <v>5</v>
-      </c>
-      <c r="L4" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="93" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25428,11 +25524,11 @@
       <c r="G5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="10">
         <v>3</v>
@@ -25466,11 +25562,11 @@
       <c r="G6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="10">
         <v>3</v>
@@ -25504,11 +25600,11 @@
       <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="10">
         <v>3</v>
@@ -25542,11 +25638,11 @@
       <c r="G8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="10">
         <v>3</v>
@@ -25580,11 +25676,11 @@
       <c r="G9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="10">
         <v>3</v>
@@ -25621,19 +25717,19 @@
       <c r="G10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="93" t="s">
         <v>346</v>
       </c>
       <c r="I10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="10">
         <v>3</v>
       </c>
       <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="93" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -25662,19 +25758,19 @@
       <c r="G11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="93" t="s">
         <v>346</v>
       </c>
       <c r="I11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="10">
         <v>3</v>
       </c>
       <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="93" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="9" t="s">
@@ -25707,7 +25803,7 @@
         <v>415</v>
       </c>
       <c r="I12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="10">
         <v>3</v>
@@ -25715,7 +25811,7 @@
       <c r="K12" s="10">
         <v>4</v>
       </c>
-      <c r="L12" s="95" t="s">
+      <c r="L12" s="93" t="s">
         <v>418</v>
       </c>
       <c r="M12" s="9"/>
@@ -25746,7 +25842,7 @@
         <v>415</v>
       </c>
       <c r="I13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="10">
         <v>3</v>
@@ -25754,7 +25850,7 @@
       <c r="K13" s="10">
         <v>4</v>
       </c>
-      <c r="L13" s="95" t="s">
+      <c r="L13" s="93" t="s">
         <v>416</v>
       </c>
       <c r="M13" s="9"/>
@@ -25785,7 +25881,7 @@
         <v>415</v>
       </c>
       <c r="I14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="10">
         <v>3</v>
@@ -25793,7 +25889,7 @@
       <c r="K14" s="10">
         <v>4</v>
       </c>
-      <c r="L14" s="95" t="s">
+      <c r="L14" s="93" t="s">
         <v>420</v>
       </c>
       <c r="M14" s="9">
@@ -25822,11 +25918,11 @@
       <c r="G15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="101" t="s">
         <v>415</v>
       </c>
       <c r="I15" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="10">
         <v>3</v>
@@ -25834,7 +25930,7 @@
       <c r="K15" s="10">
         <v>4</v>
       </c>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="100" t="s">
         <v>421</v>
       </c>
       <c r="M15" s="9"/>
@@ -25865,7 +25961,7 @@
         <v>415</v>
       </c>
       <c r="I16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="10">
         <v>3</v>
@@ -25873,7 +25969,7 @@
       <c r="K16" s="10">
         <v>4</v>
       </c>
-      <c r="L16" s="95" t="s">
+      <c r="L16" s="93" t="s">
         <v>423</v>
       </c>
       <c r="M16" s="9">
@@ -25902,11 +25998,11 @@
       <c r="G17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="101" t="s">
         <v>415</v>
       </c>
       <c r="I17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="10">
         <v>3</v>
@@ -25914,7 +26010,7 @@
       <c r="K17" s="10">
         <v>4</v>
       </c>
-      <c r="L17" s="102" t="s">
+      <c r="L17" s="100" t="s">
         <v>422</v>
       </c>
       <c r="M17" s="9">
@@ -25947,7 +26043,7 @@
         <v>415</v>
       </c>
       <c r="I18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="10">
         <v>3</v>
@@ -25955,7 +26051,7 @@
       <c r="K18" s="10">
         <v>4</v>
       </c>
-      <c r="L18" s="95" t="s">
+      <c r="L18" s="93" t="s">
         <v>417</v>
       </c>
     </row>
@@ -25985,7 +26081,7 @@
         <v>415</v>
       </c>
       <c r="I19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="10">
         <v>3</v>
@@ -25993,7 +26089,7 @@
       <c r="K19" s="10">
         <v>4</v>
       </c>
-      <c r="L19" s="95" t="s">
+      <c r="L19" s="93" t="s">
         <v>424</v>
       </c>
       <c r="M19" s="13" t="s">
@@ -26022,11 +26118,11 @@
       <c r="G20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="95" t="s">
+      <c r="H20" s="93" t="s">
         <v>346</v>
       </c>
       <c r="I20" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="10">
         <v>3</v>
@@ -26063,11 +26159,11 @@
       <c r="G21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="95" t="s">
+      <c r="H21" s="93" t="s">
         <v>346</v>
       </c>
       <c r="I21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="10">
         <v>3</v>
@@ -26104,11 +26200,11 @@
       <c r="G22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="95" t="s">
+      <c r="H22" s="93" t="s">
         <v>346</v>
       </c>
       <c r="I22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="10">
         <v>3</v>
@@ -26145,11 +26241,11 @@
       <c r="G23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H23" s="93" t="s">
         <v>346</v>
       </c>
       <c r="I23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10">
         <v>3</v>
@@ -26186,11 +26282,11 @@
       <c r="G24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="96" t="s">
+      <c r="H24" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="10">
         <v>3</v>
@@ -26227,11 +26323,11 @@
       <c r="G25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="96" t="s">
+      <c r="H25" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="10">
         <v>3</v>
@@ -26268,11 +26364,11 @@
       <c r="G26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="94" t="s">
         <v>347</v>
       </c>
       <c r="I26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="10">
         <v>3</v>
@@ -26309,11 +26405,11 @@
       <c r="G27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="10">
         <v>3</v>
@@ -26350,11 +26446,11 @@
       <c r="G28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="96" t="s">
+      <c r="H28" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="10">
         <v>3</v>
@@ -26391,11 +26487,11 @@
       <c r="G29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I29" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="10">
         <v>3</v>
@@ -26432,11 +26528,11 @@
       <c r="G30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="96" t="s">
+      <c r="H30" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="10">
         <v>3</v>
@@ -26473,11 +26569,11 @@
       <c r="G31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="10">
         <v>3</v>
@@ -26514,11 +26610,11 @@
       <c r="G32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="96" t="s">
+      <c r="H32" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="10">
         <v>3</v>
@@ -26555,11 +26651,11 @@
       <c r="G33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="H33" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I33" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="10">
         <v>3</v>
@@ -26596,11 +26692,11 @@
       <c r="G34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="96" t="s">
+      <c r="H34" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I34" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="10">
         <v>3</v>
@@ -26637,11 +26733,11 @@
       <c r="G35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="96" t="s">
+      <c r="H35" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="10">
         <v>3</v>
@@ -26678,11 +26774,11 @@
       <c r="G36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="10">
         <v>3</v>
@@ -26719,11 +26815,11 @@
       <c r="G37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="96" t="s">
+      <c r="H37" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="10">
         <v>3</v>
@@ -26760,11 +26856,11 @@
       <c r="G38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="96" t="s">
+      <c r="H38" s="94" t="s">
         <v>405</v>
       </c>
       <c r="I38" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="10">
         <v>3</v>
@@ -26805,7 +26901,7 @@
         <v>415</v>
       </c>
       <c r="I39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="10">
         <v>3</v>
@@ -26813,7 +26909,7 @@
       <c r="K39" s="10">
         <v>4</v>
       </c>
-      <c r="L39" s="95" t="s">
+      <c r="L39" s="93" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="9"/>
@@ -26844,7 +26940,7 @@
         <v>415</v>
       </c>
       <c r="I40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="10">
         <v>3</v>
@@ -26852,7 +26948,7 @@
       <c r="K40" s="10">
         <v>4</v>
       </c>
-      <c r="L40" s="95" t="s">
+      <c r="L40" s="93" t="s">
         <v>27</v>
       </c>
       <c r="M40" s="9"/>
@@ -26883,7 +26979,7 @@
         <v>415</v>
       </c>
       <c r="I41" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="10">
         <v>3</v>
@@ -26891,7 +26987,7 @@
       <c r="K41" s="10">
         <v>4</v>
       </c>
-      <c r="L41" s="95" t="s">
+      <c r="L41" s="93" t="s">
         <v>430</v>
       </c>
       <c r="M41" s="9">
@@ -26924,7 +27020,7 @@
         <v>415</v>
       </c>
       <c r="I42" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="10">
         <v>3</v>
@@ -26932,7 +27028,7 @@
       <c r="K42" s="10">
         <v>4</v>
       </c>
-      <c r="L42" s="95" t="s">
+      <c r="L42" s="93" t="s">
         <v>431</v>
       </c>
       <c r="M42" s="9">
@@ -26965,7 +27061,7 @@
         <v>415</v>
       </c>
       <c r="I43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="10">
         <v>3</v>
@@ -26973,11 +27069,745 @@
       <c r="K43" s="10">
         <v>4</v>
       </c>
-      <c r="L43" s="95" t="s">
+      <c r="L43" s="93" t="s">
         <v>432</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="13" customFormat="1">
+      <c r="A44" s="9">
+        <v>5</v>
+      </c>
+      <c r="B44" s="9">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9">
+        <v>10</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
+        <v>3</v>
+      </c>
+      <c r="K44" s="10">
+        <v>4</v>
+      </c>
+      <c r="L44" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="13" customFormat="1">
+      <c r="A45" s="9">
+        <v>5</v>
+      </c>
+      <c r="B45" s="9">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9">
+        <v>10</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I45" s="10">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10">
+        <v>3</v>
+      </c>
+      <c r="K45" s="10">
+        <v>4</v>
+      </c>
+      <c r="L45" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" s="13" customFormat="1">
+      <c r="A46" s="9">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9">
+        <v>8</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10">
+        <v>3</v>
+      </c>
+      <c r="K46" s="10">
+        <v>5</v>
+      </c>
+      <c r="L46" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" s="13" customFormat="1">
+      <c r="A47" s="9">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9">
+        <v>46</v>
+      </c>
+      <c r="C47" s="9">
+        <v>10</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1</v>
+      </c>
+      <c r="J47" s="10">
+        <v>3</v>
+      </c>
+      <c r="K47" s="10">
+        <v>5</v>
+      </c>
+      <c r="L47" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="M47" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="13" customFormat="1">
+      <c r="A48" s="9">
+        <v>5</v>
+      </c>
+      <c r="B48" s="9">
+        <v>47</v>
+      </c>
+      <c r="C48" s="9">
+        <v>10</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10">
+        <v>3</v>
+      </c>
+      <c r="K48" s="10">
+        <v>5</v>
+      </c>
+      <c r="L48" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="M48" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="9">
+        <v>5</v>
+      </c>
+      <c r="B49" s="9">
+        <v>48</v>
+      </c>
+      <c r="C49" s="9">
+        <v>10</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I49" s="10">
+        <v>1</v>
+      </c>
+      <c r="J49" s="10">
+        <v>3</v>
+      </c>
+      <c r="K49" s="10">
+        <v>5</v>
+      </c>
+      <c r="L49" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="9">
+        <v>5</v>
+      </c>
+      <c r="B50" s="9">
+        <v>49</v>
+      </c>
+      <c r="C50" s="9">
+        <v>10</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2</v>
+      </c>
+      <c r="E50" s="9">
+        <v>3</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I50" s="10">
+        <v>1</v>
+      </c>
+      <c r="J50" s="10">
+        <v>3</v>
+      </c>
+      <c r="K50" s="10">
+        <v>5</v>
+      </c>
+      <c r="L50" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="M50" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="9">
+        <v>5</v>
+      </c>
+      <c r="B51" s="9">
+        <v>50</v>
+      </c>
+      <c r="C51" s="9">
+        <v>10</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I51" s="10">
+        <v>1</v>
+      </c>
+      <c r="J51" s="10">
+        <v>3</v>
+      </c>
+      <c r="K51" s="10">
+        <v>5</v>
+      </c>
+      <c r="L51" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="M51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="9">
+        <v>5</v>
+      </c>
+      <c r="B52" s="9">
+        <v>51</v>
+      </c>
+      <c r="C52" s="9">
+        <v>10</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10">
+        <v>3</v>
+      </c>
+      <c r="K52" s="10">
+        <v>5</v>
+      </c>
+      <c r="L52" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="9">
+        <v>5</v>
+      </c>
+      <c r="B53" s="9">
+        <v>52</v>
+      </c>
+      <c r="C53" s="9">
+        <v>10</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9">
+        <v>3</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+      <c r="J53" s="10">
+        <v>3</v>
+      </c>
+      <c r="K53" s="10">
+        <v>5</v>
+      </c>
+      <c r="L53" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="9">
+        <v>5</v>
+      </c>
+      <c r="B54" s="9">
+        <v>53</v>
+      </c>
+      <c r="C54" s="9">
+        <v>10</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I54" s="10">
+        <v>1</v>
+      </c>
+      <c r="J54" s="10">
+        <v>3</v>
+      </c>
+      <c r="K54" s="10">
+        <v>5</v>
+      </c>
+      <c r="L54" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="9">
+        <v>5</v>
+      </c>
+      <c r="B55" s="9">
+        <v>54</v>
+      </c>
+      <c r="C55" s="9">
+        <v>10</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10">
+        <v>3</v>
+      </c>
+      <c r="K55" s="10">
+        <v>5</v>
+      </c>
+      <c r="L55" s="93" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="9">
+        <v>5</v>
+      </c>
+      <c r="B56" s="9">
+        <v>55</v>
+      </c>
+      <c r="C56" s="9">
+        <v>10</v>
+      </c>
+      <c r="D56" s="9">
+        <v>2</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I56" s="10">
+        <v>1</v>
+      </c>
+      <c r="J56" s="10">
+        <v>3</v>
+      </c>
+      <c r="K56" s="10">
+        <v>5</v>
+      </c>
+      <c r="L56" s="93" t="s">
+        <v>444</v>
+      </c>
+      <c r="M56" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="9">
+        <v>5</v>
+      </c>
+      <c r="B57" s="9">
+        <v>56</v>
+      </c>
+      <c r="C57" s="9">
+        <v>10</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2</v>
+      </c>
+      <c r="E57" s="9">
+        <v>3</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I57" s="10">
+        <v>1</v>
+      </c>
+      <c r="J57" s="10">
+        <v>3</v>
+      </c>
+      <c r="K57" s="10">
+        <v>5</v>
+      </c>
+      <c r="L57" s="93" t="s">
+        <v>445</v>
+      </c>
+      <c r="M57" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="9">
+        <v>5</v>
+      </c>
+      <c r="B58" s="9">
+        <v>57</v>
+      </c>
+      <c r="C58" s="9">
+        <v>10</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I58" s="10">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10">
+        <v>3</v>
+      </c>
+      <c r="K58" s="10">
+        <v>5</v>
+      </c>
+      <c r="L58" s="93" t="s">
+        <v>446</v>
+      </c>
+      <c r="M58" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="9">
+        <v>5</v>
+      </c>
+      <c r="B59" s="9">
+        <v>58</v>
+      </c>
+      <c r="C59" s="9">
+        <v>10</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I59" s="10">
+        <v>1</v>
+      </c>
+      <c r="J59" s="10">
+        <v>3</v>
+      </c>
+      <c r="K59" s="10">
+        <v>5</v>
+      </c>
+      <c r="L59" s="93" t="s">
+        <v>447</v>
+      </c>
+      <c r="M59" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="9">
+        <v>5</v>
+      </c>
+      <c r="B60" s="9">
+        <v>59</v>
+      </c>
+      <c r="C60" s="9">
+        <v>10</v>
+      </c>
+      <c r="D60" s="9">
+        <v>2</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I60" s="10">
+        <v>1</v>
+      </c>
+      <c r="J60" s="10">
+        <v>3</v>
+      </c>
+      <c r="K60" s="10">
+        <v>5</v>
+      </c>
+      <c r="L60" s="93" t="s">
+        <v>448</v>
+      </c>
+      <c r="M60" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A61" s="9">
+        <v>5</v>
+      </c>
+      <c r="B61" s="9">
+        <v>60</v>
+      </c>
+      <c r="C61" s="9">
+        <v>10</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I61" s="10">
+        <v>1</v>
+      </c>
+      <c r="J61" s="10">
+        <v>3</v>
+      </c>
+      <c r="K61" s="10">
+        <v>5</v>
+      </c>
+      <c r="L61" s="93" t="s">
+        <v>449</v>
+      </c>
+      <c r="M61" s="9">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -27031,10 +27861,10 @@
       <c r="H1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="74" t="s">
         <v>326</v>
       </c>
       <c r="K1" s="58" t="s">
@@ -27053,8 +27883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I58"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27073,50 +27903,50 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="91" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:14" s="89" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="94" t="s">
+      <c r="E1" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="90"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:14" s="52" customFormat="1" ht="30">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B2" s="49">
@@ -27137,7 +27967,7 @@
       <c r="G2" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="68" t="s">
         <v>338</v>
       </c>
       <c r="I2" s="50">
@@ -27157,7 +27987,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="52" customFormat="1" ht="30">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B3" s="49">
@@ -27196,7 +28026,7 @@
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:14" s="52" customFormat="1" ht="30">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B4" s="49">
@@ -27217,7 +28047,7 @@
       <c r="G4" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="91" t="s">
         <v>340</v>
       </c>
       <c r="I4" s="50">
@@ -27235,7 +28065,7 @@
       <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:14" s="52" customFormat="1" ht="30">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B5" s="49">
@@ -27256,7 +28086,7 @@
       <c r="G5" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="68" t="s">
         <v>338</v>
       </c>
       <c r="I5" s="50">
@@ -27274,7 +28104,7 @@
       <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:14" s="52" customFormat="1" ht="30">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B6" s="49">
@@ -27295,7 +28125,7 @@
       <c r="G6" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="68" t="s">
         <v>338</v>
       </c>
       <c r="I6" s="50">
@@ -27313,7 +28143,7 @@
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:14" s="52" customFormat="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B7" s="49">
@@ -27352,7 +28182,7 @@
       <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:14" s="52" customFormat="1" ht="30">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B8" s="49">
@@ -27373,7 +28203,7 @@
       <c r="G8" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="68" t="s">
         <v>338</v>
       </c>
       <c r="I8" s="50">
@@ -27391,7 +28221,7 @@
       <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:14" s="52" customFormat="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B9" s="49">
@@ -27430,7 +28260,7 @@
       <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:14" s="52" customFormat="1">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B10" s="49">
@@ -27494,7 +28324,7 @@
         <v>344</v>
       </c>
       <c r="I11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
@@ -27529,11 +28359,11 @@
       <c r="G12" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="95" t="s">
         <v>363</v>
       </c>
       <c r="I12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
@@ -27572,7 +28402,7 @@
         <v>370</v>
       </c>
       <c r="I13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -27607,11 +28437,11 @@
       <c r="G14" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="98" t="s">
+      <c r="H14" s="96" t="s">
         <v>354</v>
       </c>
       <c r="I14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="10">
         <v>1</v>
@@ -27652,7 +28482,7 @@
         <v>344</v>
       </c>
       <c r="I15" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="10">
         <v>1</v>
@@ -27693,7 +28523,7 @@
         <v>367</v>
       </c>
       <c r="I16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="10">
         <v>1</v>
@@ -27732,7 +28562,7 @@
         <v>367</v>
       </c>
       <c r="I17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="10">
         <v>1</v>
@@ -27766,14 +28596,14 @@
       <c r="F18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="97" t="s">
         <v>343</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>367</v>
       </c>
       <c r="I18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -27812,7 +28642,7 @@
         <v>367</v>
       </c>
       <c r="I19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="10">
         <v>1</v>
@@ -27853,7 +28683,7 @@
         <v>344</v>
       </c>
       <c r="I20" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="10">
         <v>1</v>
@@ -27894,7 +28724,7 @@
         <v>344</v>
       </c>
       <c r="I21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="10">
         <v>1</v>
@@ -27935,7 +28765,7 @@
         <v>363</v>
       </c>
       <c r="I22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -27976,7 +28806,7 @@
         <v>370</v>
       </c>
       <c r="I23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10">
         <v>1</v>
@@ -28017,7 +28847,7 @@
         <v>367</v>
       </c>
       <c r="I24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="10">
         <v>1</v>
@@ -28058,7 +28888,7 @@
         <v>370</v>
       </c>
       <c r="I25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -28095,11 +28925,11 @@
       <c r="G26" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H26" s="98" t="s">
+      <c r="H26" s="96" t="s">
         <v>354</v>
       </c>
       <c r="I26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="10">
         <v>1</v>
@@ -28138,7 +28968,7 @@
         <v>363</v>
       </c>
       <c r="I27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -28177,7 +29007,7 @@
         <v>363</v>
       </c>
       <c r="I28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -28214,11 +29044,11 @@
       <c r="G29" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="96" t="s">
         <v>354</v>
       </c>
       <c r="I29" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="10">
         <v>1</v>
@@ -28259,7 +29089,7 @@
         <v>363</v>
       </c>
       <c r="I30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -28300,7 +29130,7 @@
         <v>363</v>
       </c>
       <c r="I31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -28337,11 +29167,11 @@
       <c r="G32" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="96" t="s">
         <v>354</v>
       </c>
       <c r="I32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="10">
         <v>1</v>
@@ -28382,7 +29212,7 @@
         <v>344</v>
       </c>
       <c r="I33" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="10">
         <v>1</v>
@@ -28423,7 +29253,7 @@
         <v>363</v>
       </c>
       <c r="I34" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="9">
         <v>1</v>
@@ -28464,7 +29294,7 @@
         <v>344</v>
       </c>
       <c r="I35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="10">
         <v>1</v>
@@ -28505,7 +29335,7 @@
         <v>363</v>
       </c>
       <c r="I36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="9">
         <v>1</v>
@@ -28546,7 +29376,7 @@
         <v>363</v>
       </c>
       <c r="I37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="9">
         <v>1</v>
@@ -28587,7 +29417,7 @@
         <v>363</v>
       </c>
       <c r="I38" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="9">
         <v>1</v>
@@ -28628,7 +29458,7 @@
         <v>396</v>
       </c>
       <c r="I39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="9">
         <v>2</v>
@@ -28667,7 +29497,7 @@
         <v>396</v>
       </c>
       <c r="I40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="9">
         <v>2</v>
@@ -28708,7 +29538,7 @@
         <v>396</v>
       </c>
       <c r="I41" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="9">
         <v>2</v>
@@ -28749,7 +29579,7 @@
         <v>396</v>
       </c>
       <c r="I42" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="9">
         <v>2</v>
@@ -28790,7 +29620,7 @@
         <v>397</v>
       </c>
       <c r="I43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="9">
         <v>2</v>
@@ -28827,7 +29657,7 @@
         <v>397</v>
       </c>
       <c r="I44" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="9">
         <v>2</v>
@@ -28868,7 +29698,7 @@
         <v>397</v>
       </c>
       <c r="I45" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="9">
         <v>2</v>
@@ -28907,7 +29737,7 @@
         <v>393</v>
       </c>
       <c r="I46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="9">
         <v>2</v>
@@ -28946,7 +29776,7 @@
         <v>334</v>
       </c>
       <c r="I47" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="9">
         <v>2</v>
@@ -28984,7 +29814,7 @@
         <v>393</v>
       </c>
       <c r="I48" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="9">
         <v>2</v>
@@ -29023,7 +29853,7 @@
         <v>393</v>
       </c>
       <c r="I49" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="9">
         <v>2</v>
@@ -29062,7 +29892,7 @@
         <v>334</v>
       </c>
       <c r="I50" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="9">
         <v>2</v>
@@ -29101,7 +29931,7 @@
         <v>394</v>
       </c>
       <c r="I51" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="9">
         <v>2</v>
@@ -29140,7 +29970,7 @@
         <v>394</v>
       </c>
       <c r="I52" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="9">
         <v>2</v>
@@ -29179,7 +30009,7 @@
         <v>394</v>
       </c>
       <c r="I53" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="9">
         <v>2</v>
@@ -29218,7 +30048,7 @@
         <v>394</v>
       </c>
       <c r="I54" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="9">
         <v>2</v>
@@ -29257,7 +30087,7 @@
         <v>394</v>
       </c>
       <c r="I55" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="9">
         <v>2</v>
@@ -29296,7 +30126,7 @@
         <v>394</v>
       </c>
       <c r="I56" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="9">
         <v>2</v>
@@ -29335,7 +30165,7 @@
         <v>394</v>
       </c>
       <c r="I57" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="9">
         <v>2</v>
@@ -29376,7 +30206,7 @@
         <v>394</v>
       </c>
       <c r="I58" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="9">
         <v>2</v>
@@ -29448,10 +30278,10 @@
       <c r="H1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="74" t="s">
         <v>326</v>
       </c>
       <c r="K1" s="58" t="s">

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="fract_2" sheetId="6" r:id="rId6"/>
     <sheet name="geom_2" sheetId="7" r:id="rId7"/>
     <sheet name="numb_2" sheetId="8" r:id="rId8"/>
-    <sheet name="algebra" sheetId="9" r:id="rId9"/>
+    <sheet name="equat_2" sheetId="9" r:id="rId9"/>
     <sheet name="data_2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="499">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1499,6 +1499,153 @@
   </si>
   <si>
     <t xml:space="preserve">deljenje dec. sa celim brojem </t>
+  </si>
+  <si>
+    <t>Primena razlomaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broj -&gt; procenat </t>
+  </si>
+  <si>
+    <t>procenat -&gt; broj</t>
+  </si>
+  <si>
+    <t>procenat od broja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od kog broja je procenat </t>
+  </si>
+  <si>
+    <t>deo izražen procentom</t>
+  </si>
+  <si>
+    <t>Obrada podataka</t>
+  </si>
+  <si>
+    <t>Procenat</t>
+  </si>
+  <si>
+    <t>Razmera</t>
+  </si>
+  <si>
+    <t>višestruki izbor</t>
+  </si>
+  <si>
+    <t>obrnuta proporcija</t>
+  </si>
+  <si>
+    <t>razmera modela</t>
+  </si>
+  <si>
+    <t>koncentracija rastvora</t>
+  </si>
+  <si>
+    <t>poskupelo/pojeftinilo</t>
+  </si>
+  <si>
+    <t>glasanje</t>
+  </si>
+  <si>
+    <t>porez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snizenje </t>
+  </si>
+  <si>
+    <t>kupovina</t>
+  </si>
+  <si>
+    <t>nepoznati član</t>
+  </si>
+  <si>
+    <t>direktna proporcija</t>
+  </si>
+  <si>
+    <t>procenat I razmera</t>
+  </si>
+  <si>
+    <t>produzena proporcija</t>
+  </si>
+  <si>
+    <t>razmera stana</t>
+  </si>
+  <si>
+    <t>Aritmetička sredina</t>
+  </si>
+  <si>
+    <t>dva broja</t>
+  </si>
+  <si>
+    <t>više brojeva</t>
+  </si>
+  <si>
+    <t>Prikaz I obrada podataka</t>
+  </si>
+  <si>
+    <t>aritmetička sredina</t>
+  </si>
+  <si>
+    <t>Stubičasti dijagram</t>
+  </si>
+  <si>
+    <t>I tabela</t>
+  </si>
+  <si>
+    <t>numb 223</t>
+  </si>
+  <si>
+    <t>I stubičasti dijagram</t>
+  </si>
+  <si>
+    <t>Kružni dijagram</t>
+  </si>
+  <si>
+    <t>meas 43</t>
+  </si>
+  <si>
+    <t>I %, kružni dijagram</t>
+  </si>
+  <si>
+    <t>I %, tabela</t>
+  </si>
+  <si>
+    <t>tabela, kružni dijagram</t>
+  </si>
+  <si>
+    <t>fract_2 59</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primena razlomaka </t>
+  </si>
+  <si>
+    <t>dekadne jedinice</t>
+  </si>
+  <si>
+    <t>množenje</t>
+  </si>
+  <si>
+    <t>fract_2 47</t>
+  </si>
+  <si>
+    <t>deljenje</t>
+  </si>
+  <si>
+    <t>sab/odu I množenje</t>
+  </si>
+  <si>
+    <t>sab/odu I deljenje</t>
+  </si>
+  <si>
+    <t>sve računske  oper.</t>
+  </si>
+  <si>
+    <t>fract_2 56</t>
+  </si>
+  <si>
+    <t>fract_2 9</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1964,6 +2111,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4852,10 +5005,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4931,23 +5084,26 @@
       <c r="E2" s="15">
         <v>3</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="G2" s="104" t="s">
         <v>426</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="15">
+        <v>4</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="I2" s="15">
-        <v>4</v>
-      </c>
-      <c r="J2" s="15">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="15.75">
@@ -4966,23 +5122,26 @@
       <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>426</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="15">
+        <v>4</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="I3" s="15">
-        <v>4</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="15.75">
@@ -5001,23 +5160,1515 @@
       <c r="E4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4" s="104" t="s">
         <v>426</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="15">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="I4" s="15">
-        <v>4</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1</v>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="M5" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="93" t="s">
+        <v>452</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>453</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="93" t="s">
+        <v>454</v>
+      </c>
+      <c r="M8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="93" t="s">
+        <v>466</v>
+      </c>
+      <c r="M10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="93" t="s">
+        <v>465</v>
+      </c>
+      <c r="M11" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I12" s="10">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="93" t="s">
+        <v>464</v>
+      </c>
+      <c r="M12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I13" s="10">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="93" t="s">
+        <v>463</v>
+      </c>
+      <c r="M13" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="93" t="s">
+        <v>467</v>
+      </c>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="9">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>2</v>
+      </c>
+      <c r="L16" s="93" t="s">
+        <v>461</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="9">
+        <v>5</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I17" s="10">
+        <v>4</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>2</v>
+      </c>
+      <c r="L17" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I18" s="10">
+        <v>4</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+      <c r="L18" s="93" t="s">
+        <v>459</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>2</v>
+      </c>
+      <c r="L19" s="93" t="s">
+        <v>468</v>
+      </c>
+      <c r="M19" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="9">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
+        <v>2</v>
+      </c>
+      <c r="L20" s="93" t="s">
+        <v>469</v>
+      </c>
+      <c r="M20" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="9">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I21" s="10">
+        <v>4</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>2</v>
+      </c>
+      <c r="L21" s="93" t="s">
+        <v>469</v>
+      </c>
+      <c r="M21" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="9">
+        <v>5</v>
+      </c>
+      <c r="B22" s="9">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I22" s="10">
+        <v>4</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>2</v>
+      </c>
+      <c r="L22" s="93" t="s">
+        <v>470</v>
+      </c>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="9">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" s="10">
+        <v>4</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2</v>
+      </c>
+      <c r="L23" s="93" t="s">
+        <v>471</v>
+      </c>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="9">
+        <v>5</v>
+      </c>
+      <c r="B24" s="9">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9">
+        <v>3</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I24" s="10">
+        <v>4</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>2</v>
+      </c>
+      <c r="L24" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="9">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I25" s="10">
+        <v>4</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>3</v>
+      </c>
+      <c r="L25" s="93" t="s">
+        <v>474</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="9">
+        <v>5</v>
+      </c>
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I26" s="10">
+        <v>4</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>3</v>
+      </c>
+      <c r="L26" s="93" t="s">
+        <v>475</v>
+      </c>
+      <c r="M26" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A27" s="9">
+        <v>5</v>
+      </c>
+      <c r="B27" s="9">
+        <v>26</v>
+      </c>
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I27" s="10">
+        <v>4</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>3</v>
+      </c>
+      <c r="L27" s="93" t="s">
+        <v>475</v>
+      </c>
+      <c r="M27" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="9">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I28" s="10">
+        <v>4</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>3</v>
+      </c>
+      <c r="L28" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="9">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9">
+        <v>8</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I29" s="10">
+        <v>4</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>3</v>
+      </c>
+      <c r="L29" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>5</v>
+      </c>
+      <c r="B30" s="9">
+        <v>29</v>
+      </c>
+      <c r="C30" s="9">
+        <v>10</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I30" s="10">
+        <v>4</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>3</v>
+      </c>
+      <c r="L30" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A31" s="9">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9">
+        <v>30</v>
+      </c>
+      <c r="C31" s="9">
+        <v>10</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="10">
+        <v>4</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="93" t="s">
+        <v>477</v>
+      </c>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="9">
+        <v>5</v>
+      </c>
+      <c r="B32" s="9">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9">
+        <v>10</v>
+      </c>
+      <c r="D32" s="9">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="10">
+        <v>4</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+      <c r="L32" s="93" t="s">
+        <v>477</v>
+      </c>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A33" s="9">
+        <v>5</v>
+      </c>
+      <c r="B33" s="9">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9">
+        <v>10</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="10">
+        <v>4</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
+      <c r="L33" s="93" t="s">
+        <v>477</v>
+      </c>
+      <c r="M33" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A34" s="9">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="10">
+        <v>4</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A35" s="9">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+      <c r="C35" s="9">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9">
+        <v>3</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="I35" s="10">
+        <v>4</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2</v>
+      </c>
+      <c r="L35" s="93" t="s">
+        <v>479</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A36" s="9">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9">
+        <v>3</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="10">
+        <v>4</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="M36" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A37" s="9">
+        <v>5</v>
+      </c>
+      <c r="B37" s="9">
+        <v>34</v>
+      </c>
+      <c r="C37" s="9">
+        <v>10</v>
+      </c>
+      <c r="D37" s="9">
+        <v>3</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="I37" s="10">
+        <v>4</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2</v>
+      </c>
+      <c r="K37" s="10">
+        <v>2</v>
+      </c>
+      <c r="L37" s="93" t="s">
+        <v>479</v>
+      </c>
+      <c r="M37" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="9">
+        <v>5</v>
+      </c>
+      <c r="B38" s="9">
+        <v>35</v>
+      </c>
+      <c r="C38" s="9">
+        <v>10</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="I38" s="10">
+        <v>4</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2</v>
+      </c>
+      <c r="K38" s="10">
+        <v>3</v>
+      </c>
+      <c r="L38" s="93"/>
+      <c r="M38" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="9">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="I39" s="10">
+        <v>4</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2</v>
+      </c>
+      <c r="K39" s="10">
+        <v>3</v>
+      </c>
+      <c r="L39" s="93" t="s">
+        <v>485</v>
+      </c>
+      <c r="M39" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="9">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9">
+        <v>36</v>
+      </c>
+      <c r="C40" s="9">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" s="10">
+        <v>4</v>
+      </c>
+      <c r="J40" s="10">
+        <v>2</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
+      <c r="L40" s="93" t="s">
+        <v>484</v>
+      </c>
+      <c r="M40" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="9">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9">
+        <v>36</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9">
+        <v>3</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" s="10">
+        <v>4</v>
+      </c>
+      <c r="J41" s="10">
+        <v>1</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="93" t="s">
+        <v>486</v>
+      </c>
+      <c r="M41" s="9">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -8623,7 +10274,7 @@
   <dimension ref="A1:N255"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
@@ -20681,8 +22332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -25332,7 +26983,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27090,7 +28741,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>91</v>
@@ -27332,7 +28983,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>91</v>
@@ -27883,8 +29534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30232,10 +31883,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30245,15 +31896,18 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="55" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -30278,21 +31932,315 @@
       <c r="H1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="L1" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="M1" s="56" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="112" t="s">
+        <v>490</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="112" t="s">
+        <v>491</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="112" t="s">
+        <v>493</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="112" t="s">
+        <v>495</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="112" t="s">
+        <v>496</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="H10" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="507">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1646,6 +1646,30 @@
   </si>
   <si>
     <t>fract_2 9</t>
+  </si>
+  <si>
+    <t>jednačine</t>
+  </si>
+  <si>
+    <t>fract_2 39</t>
+  </si>
+  <si>
+    <t>fract_2 54</t>
+  </si>
+  <si>
+    <t>množenje I br.prava</t>
+  </si>
+  <si>
+    <t>fract_2 22</t>
+  </si>
+  <si>
+    <t>deljenje I br.prava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linearna </t>
+  </si>
+  <si>
+    <t>prirodni broj</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2111,9 +2135,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5005,10 +5026,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6670,6 +6691,45 @@
       <c r="M41" s="9">
         <v>35</v>
       </c>
+    </row>
+    <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="9">
+        <v>5</v>
+      </c>
+      <c r="B42" s="9">
+        <v>37</v>
+      </c>
+      <c r="C42" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9">
+        <v>3</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I42" s="10">
+        <v>4</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10">
+        <v>1</v>
+      </c>
+      <c r="L42" s="111" t="s">
+        <v>499</v>
+      </c>
+      <c r="M42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10274,7 +10334,7 @@
   <dimension ref="A1:N255"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
@@ -29534,7 +29594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -31883,10 +31943,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31896,7 +31956,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
@@ -31982,7 +32042,7 @@
       <c r="K2" s="10">
         <v>1</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="111" t="s">
         <v>490</v>
       </c>
       <c r="M2" s="9" t="s">
@@ -32023,7 +32083,7 @@
       <c r="K3" s="10">
         <v>1</v>
       </c>
-      <c r="L3" s="112" t="s">
+      <c r="L3" s="111" t="s">
         <v>491</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -32064,7 +32124,7 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="111" t="s">
         <v>493</v>
       </c>
       <c r="M4" s="9">
@@ -32105,7 +32165,7 @@
       <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="111" t="s">
         <v>494</v>
       </c>
       <c r="M5" s="9">
@@ -32146,7 +32206,7 @@
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="111" t="s">
         <v>495</v>
       </c>
       <c r="M6" s="9">
@@ -32187,7 +32247,7 @@
       <c r="K7" s="10">
         <v>1</v>
       </c>
-      <c r="L7" s="112" t="s">
+      <c r="L7" s="111" t="s">
         <v>496</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -32228,15 +32288,381 @@
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="112" t="s">
+      <c r="L8" s="111" t="s">
         <v>224</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="H10" s="111"/>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>491</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="111" t="s">
+        <v>493</v>
+      </c>
+      <c r="M12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>502</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>504</v>
+      </c>
+      <c r="M14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>505</v>
+      </c>
+      <c r="M15" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="9">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="9">
+        <v>5</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>506</v>
+      </c>
+      <c r="M17" s="9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="527">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1670,6 +1670,66 @@
   </si>
   <si>
     <t>prirodni broj</t>
+  </si>
+  <si>
+    <t>Osnovni pojmovi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tačka, prava, duž </t>
+  </si>
+  <si>
+    <t>geom. 31</t>
+  </si>
+  <si>
+    <t>Pripadanje, paralelnost</t>
+  </si>
+  <si>
+    <t>duž, trougao</t>
+  </si>
+  <si>
+    <t>geom. 53</t>
+  </si>
+  <si>
+    <t>Krug</t>
+  </si>
+  <si>
+    <t>krug I tačka</t>
+  </si>
+  <si>
+    <t>numb.100</t>
+  </si>
+  <si>
+    <t>odnos krugova</t>
+  </si>
+  <si>
+    <t>numb_2 39</t>
+  </si>
+  <si>
+    <t>krug I prava</t>
+  </si>
+  <si>
+    <t>geom. 75</t>
+  </si>
+  <si>
+    <t>Preslikavanje</t>
+  </si>
+  <si>
+    <t>Centralna simetrija</t>
+  </si>
+  <si>
+    <t>geom. 46</t>
+  </si>
+  <si>
+    <t>Vektor</t>
+  </si>
+  <si>
+    <t>Translacija</t>
+  </si>
+  <si>
+    <t>Translacija trougla</t>
+  </si>
+  <si>
+    <t>Translacija i centralna simetrija trougla</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2138,6 +2198,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -27042,8 +27108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29529,25 +29595,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="113" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -29572,21 +29641,759 @@
       <c r="H1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="K1" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="L1" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="9">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="111" t="s">
+        <v>510</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="111" t="s">
+        <v>510</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="111" t="s">
+        <v>510</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="111" t="s">
+        <v>510</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="111" t="s">
+        <v>511</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>2</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>514</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>2</v>
+      </c>
+      <c r="L8" s="111" t="s">
+        <v>516</v>
+      </c>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2</v>
+      </c>
+      <c r="L9" s="111" t="s">
+        <v>516</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="111" t="s">
+        <v>514</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I11" s="9">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+      <c r="L12" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="M12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>521</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>3</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>521</v>
+      </c>
+      <c r="M14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="I15" s="9">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>3</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="9">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>3</v>
+      </c>
+      <c r="L16" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="M16" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="9">
+        <v>5</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>3</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>524</v>
+      </c>
+      <c r="M17" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>3</v>
+      </c>
+      <c r="L18" s="111" t="s">
+        <v>525</v>
+      </c>
+      <c r="M18" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I19" s="9">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>3</v>
+      </c>
+      <c r="L19" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="M19" s="9">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29594,7 +30401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -31946,7 +32753,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="558">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1730,6 +1730,99 @@
   </si>
   <si>
     <t>Translacija i centralna simetrija trougla</t>
+  </si>
+  <si>
+    <t>Poluprave</t>
+  </si>
+  <si>
+    <t>geom.35</t>
+  </si>
+  <si>
+    <t>Figura</t>
+  </si>
+  <si>
+    <t>geom.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upoređivanje</t>
+  </si>
+  <si>
+    <t>Centralni ugao</t>
+  </si>
+  <si>
+    <t>Pojam, upoređivanje, vrste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Računanje sa uglovima </t>
+  </si>
+  <si>
+    <t>measures  25</t>
+  </si>
+  <si>
+    <t>Pretvaranje jedinica</t>
+  </si>
+  <si>
+    <t>Susedni, uporedni, unakrsni, komplementni, suplementni</t>
+  </si>
+  <si>
+    <t>Zbir/razlika</t>
+  </si>
+  <si>
+    <t>parovi uglova</t>
+  </si>
+  <si>
+    <t>numb_2 31</t>
+  </si>
+  <si>
+    <t>measures  43</t>
+  </si>
+  <si>
+    <t>Merenje (sat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translacija i uglovi </t>
+  </si>
+  <si>
+    <t>uglovi sa paralelnim kracima</t>
+  </si>
+  <si>
+    <t>geom_2 1</t>
+  </si>
+  <si>
+    <t>uglovi trougla</t>
+  </si>
+  <si>
+    <t>uglovi paralelograma</t>
+  </si>
+  <si>
+    <t>Osna simetrija</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>geom.73</t>
+  </si>
+  <si>
+    <t>slova</t>
+  </si>
+  <si>
+    <t>geom.74</t>
+  </si>
+  <si>
+    <t>geom.75</t>
+  </si>
+  <si>
+    <t>tačke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duži</t>
+  </si>
+  <si>
+    <t>Osna simetrija figure</t>
+  </si>
+  <si>
+    <t>Simetrala duži i ugla</t>
   </si>
 </sst>
 </file>
@@ -6808,7 +6901,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
@@ -10400,7 +10493,7 @@
   <dimension ref="A1:N255"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
@@ -22459,7 +22552,7 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -29595,10 +29688,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29607,7 +29700,7 @@
     <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" customWidth="1"/>
@@ -30389,6 +30482,990 @@
       </c>
       <c r="M19" s="9">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="9">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="111" t="s">
+        <v>527</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="9">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I21" s="9">
+        <v>3</v>
+      </c>
+      <c r="J21" s="9">
+        <v>2</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="111" t="s">
+        <v>529</v>
+      </c>
+      <c r="M21" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="9">
+        <v>5</v>
+      </c>
+      <c r="B22" s="9">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="111" t="s">
+        <v>532</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="9">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I23" s="9">
+        <v>3</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="111" t="s">
+        <v>531</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="9">
+        <v>5</v>
+      </c>
+      <c r="B24" s="9">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I24" s="9">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+      <c r="L24" s="111" t="s">
+        <v>537</v>
+      </c>
+      <c r="M24" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="9">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>2</v>
+      </c>
+      <c r="K25" s="10">
+        <v>2</v>
+      </c>
+      <c r="L25" s="111" t="s">
+        <v>536</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="9">
+        <v>5</v>
+      </c>
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9">
+        <v>2</v>
+      </c>
+      <c r="K26" s="10">
+        <v>2</v>
+      </c>
+      <c r="L26" s="111" t="s">
+        <v>536</v>
+      </c>
+      <c r="M26" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A27" s="9">
+        <v>5</v>
+      </c>
+      <c r="B27" s="9">
+        <v>26</v>
+      </c>
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I27" s="9">
+        <v>3</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2</v>
+      </c>
+      <c r="L27" s="111" t="s">
+        <v>350</v>
+      </c>
+      <c r="M27" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="9">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I28" s="9">
+        <v>3</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2</v>
+      </c>
+      <c r="K28" s="10">
+        <v>2</v>
+      </c>
+      <c r="L28" s="111" t="s">
+        <v>538</v>
+      </c>
+      <c r="M28" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="9">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I29" s="9">
+        <v>3</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2</v>
+      </c>
+      <c r="K29" s="10">
+        <v>2</v>
+      </c>
+      <c r="L29" s="111" t="s">
+        <v>539</v>
+      </c>
+      <c r="M29" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>5</v>
+      </c>
+      <c r="B30" s="9">
+        <v>29</v>
+      </c>
+      <c r="C30" s="9">
+        <v>10</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I30" s="9">
+        <v>3</v>
+      </c>
+      <c r="J30" s="9">
+        <v>2</v>
+      </c>
+      <c r="K30" s="10">
+        <v>2</v>
+      </c>
+      <c r="L30" s="111" t="s">
+        <v>538</v>
+      </c>
+      <c r="M30" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A31" s="9">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9">
+        <v>30</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I31" s="9">
+        <v>3</v>
+      </c>
+      <c r="J31" s="9">
+        <v>2</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="111" t="s">
+        <v>537</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="9">
+        <v>5</v>
+      </c>
+      <c r="B32" s="9">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I32" s="9">
+        <v>3</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2</v>
+      </c>
+      <c r="L32" s="111" t="s">
+        <v>542</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A33" s="9">
+        <v>5</v>
+      </c>
+      <c r="B33" s="9">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9">
+        <v>3</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I33" s="9">
+        <v>3</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2</v>
+      </c>
+      <c r="K33" s="10">
+        <v>2</v>
+      </c>
+      <c r="L33" s="111" t="s">
+        <v>542</v>
+      </c>
+      <c r="M33" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A34" s="9">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="I34" s="9">
+        <v>3</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>3</v>
+      </c>
+      <c r="L34" s="111" t="s">
+        <v>544</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A35" s="9">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="I35" s="9">
+        <v>3</v>
+      </c>
+      <c r="J35" s="9">
+        <v>2</v>
+      </c>
+      <c r="K35" s="10">
+        <v>3</v>
+      </c>
+      <c r="L35" s="111" t="s">
+        <v>546</v>
+      </c>
+      <c r="M35" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A36" s="9">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="I36" s="9">
+        <v>3</v>
+      </c>
+      <c r="J36" s="9">
+        <v>2</v>
+      </c>
+      <c r="K36" s="10">
+        <v>3</v>
+      </c>
+      <c r="L36" s="111" t="s">
+        <v>546</v>
+      </c>
+      <c r="M36" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A37" s="9">
+        <v>5</v>
+      </c>
+      <c r="B37" s="9">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9">
+        <v>10</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="I37" s="9">
+        <v>3</v>
+      </c>
+      <c r="J37" s="9">
+        <v>2</v>
+      </c>
+      <c r="K37" s="10">
+        <v>3</v>
+      </c>
+      <c r="L37" s="111" t="s">
+        <v>547</v>
+      </c>
+      <c r="M37" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="9">
+        <v>5</v>
+      </c>
+      <c r="B38" s="9">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I38" s="9">
+        <v>3</v>
+      </c>
+      <c r="J38" s="9">
+        <v>3</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="111" t="s">
+        <v>549</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="9">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I39" s="9">
+        <v>3</v>
+      </c>
+      <c r="J39" s="9">
+        <v>3</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="9">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9">
+        <v>5</v>
+      </c>
+      <c r="D40" s="9">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I40" s="9">
+        <v>3</v>
+      </c>
+      <c r="J40" s="9">
+        <v>3</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
+      <c r="L40" s="111" t="s">
+        <v>549</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="9">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="I41" s="9">
+        <v>3</v>
+      </c>
+      <c r="J41" s="9">
+        <v>3</v>
+      </c>
+      <c r="K41" s="10">
+        <v>2</v>
+      </c>
+      <c r="L41" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="9">
+        <v>5</v>
+      </c>
+      <c r="B42" s="9">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="I42" s="9">
+        <v>3</v>
+      </c>
+      <c r="J42" s="9">
+        <v>3</v>
+      </c>
+      <c r="K42" s="10">
+        <v>2</v>
+      </c>
+      <c r="L42" s="111" t="s">
+        <v>555</v>
+      </c>
+      <c r="M42" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="9">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9">
+        <v>3</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="I43" s="9">
+        <v>3</v>
+      </c>
+      <c r="J43" s="9">
+        <v>3</v>
+      </c>
+      <c r="K43" s="10">
+        <v>2</v>
+      </c>
+      <c r="L43" s="111" t="s">
+        <v>555</v>
+      </c>
+      <c r="M43" s="9">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="561">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1823,6 +1823,15 @@
   </si>
   <si>
     <t>Simetrala duži i ugla</t>
+  </si>
+  <si>
+    <t>ugla</t>
+  </si>
+  <si>
+    <t>geom_2 30</t>
+  </si>
+  <si>
+    <t>geom_2 19</t>
   </si>
 </sst>
 </file>
@@ -6901,7 +6910,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
@@ -29688,10 +29697,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31468,6 +31477,88 @@
         <v>39</v>
       </c>
     </row>
+    <row r="44" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="9">
+        <v>5</v>
+      </c>
+      <c r="B44" s="9">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="I44" s="9">
+        <v>3</v>
+      </c>
+      <c r="J44" s="9">
+        <v>3</v>
+      </c>
+      <c r="K44" s="10">
+        <v>2</v>
+      </c>
+      <c r="L44" s="111" t="s">
+        <v>558</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="9">
+        <v>5</v>
+      </c>
+      <c r="B45" s="9">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9">
+        <v>6</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="I45" s="9">
+        <v>3</v>
+      </c>
+      <c r="J45" s="9">
+        <v>3</v>
+      </c>
+      <c r="K45" s="10">
+        <v>2</v>
+      </c>
+      <c r="L45" s="111" t="s">
+        <v>558</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31478,7 +31569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="577">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1832,6 +1832,54 @@
   </si>
   <si>
     <t>geom_2 19</t>
+  </si>
+  <si>
+    <t>oznake, elementi</t>
+  </si>
+  <si>
+    <t>geometry 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojam, elementi, vrste </t>
+  </si>
+  <si>
+    <t>vrste</t>
+  </si>
+  <si>
+    <t>geom_2 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stranice i uglovi </t>
+  </si>
+  <si>
+    <t>odnos stranica</t>
+  </si>
+  <si>
+    <t>geometry 48</t>
+  </si>
+  <si>
+    <t>zbir uglova</t>
+  </si>
+  <si>
+    <t>geometry 34</t>
+  </si>
+  <si>
+    <t>zbir stranica</t>
+  </si>
+  <si>
+    <t>measures 6</t>
+  </si>
+  <si>
+    <t>geom_2 43</t>
+  </si>
+  <si>
+    <t>odnos uglova</t>
+  </si>
+  <si>
+    <t>odnos stranica I uglova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konstrukcija nekih uglova </t>
   </si>
 </sst>
 </file>
@@ -6911,7 +6959,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29697,10 +29745,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29713,7 +29761,7 @@
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="113" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="113" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
   </cols>
@@ -31557,6 +31605,492 @@
       </c>
       <c r="M45" s="9" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="15">
+        <v>6</v>
+      </c>
+      <c r="B46" s="15">
+        <v>45</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="I46" s="16">
+        <v>3</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1</v>
+      </c>
+      <c r="L46" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="15">
+        <v>6</v>
+      </c>
+      <c r="B47" s="15">
+        <v>46</v>
+      </c>
+      <c r="C47" s="15">
+        <v>8</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>2</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="I47" s="16">
+        <v>3</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1</v>
+      </c>
+      <c r="L47" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="15">
+        <v>6</v>
+      </c>
+      <c r="B48" s="15">
+        <v>47</v>
+      </c>
+      <c r="C48" s="15">
+        <v>6</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>2</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="I48" s="16">
+        <v>3</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1</v>
+      </c>
+      <c r="L48" s="64"/>
+      <c r="M48" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="15">
+        <v>6</v>
+      </c>
+      <c r="B49" s="15">
+        <v>48</v>
+      </c>
+      <c r="C49" s="15">
+        <v>10</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I49" s="16">
+        <v>3</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1</v>
+      </c>
+      <c r="K49" s="15">
+        <v>2</v>
+      </c>
+      <c r="L49" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="15">
+        <v>6</v>
+      </c>
+      <c r="B50" s="15">
+        <v>49</v>
+      </c>
+      <c r="C50" s="15">
+        <v>10</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <v>1</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I50" s="16">
+        <v>3</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1</v>
+      </c>
+      <c r="K50" s="15">
+        <v>2</v>
+      </c>
+      <c r="L50" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="15">
+        <v>6</v>
+      </c>
+      <c r="B51" s="15">
+        <v>50</v>
+      </c>
+      <c r="C51" s="15">
+        <v>10</v>
+      </c>
+      <c r="D51" s="16">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I51" s="16">
+        <v>3</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1</v>
+      </c>
+      <c r="K51" s="15">
+        <v>2</v>
+      </c>
+      <c r="L51" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="15">
+        <v>6</v>
+      </c>
+      <c r="B52" s="15">
+        <v>51</v>
+      </c>
+      <c r="C52" s="15">
+        <v>8</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <v>2</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I52" s="16">
+        <v>3</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1</v>
+      </c>
+      <c r="K52" s="15">
+        <v>2</v>
+      </c>
+      <c r="L52" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="15">
+        <v>6</v>
+      </c>
+      <c r="B53" s="15">
+        <v>52</v>
+      </c>
+      <c r="C53" s="15">
+        <v>8</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>2</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I53" s="16">
+        <v>3</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1</v>
+      </c>
+      <c r="K53" s="15">
+        <v>2</v>
+      </c>
+      <c r="L53" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="M53" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="15">
+        <v>6</v>
+      </c>
+      <c r="B54" s="15">
+        <v>53</v>
+      </c>
+      <c r="C54" s="15">
+        <v>10</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I54" s="16">
+        <v>3</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1</v>
+      </c>
+      <c r="K54" s="15">
+        <v>2</v>
+      </c>
+      <c r="L54" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="15">
+        <v>6</v>
+      </c>
+      <c r="B55" s="15">
+        <v>54</v>
+      </c>
+      <c r="C55" s="15">
+        <v>10</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I55" s="16">
+        <v>3</v>
+      </c>
+      <c r="J55" s="15">
+        <v>1</v>
+      </c>
+      <c r="K55" s="15">
+        <v>2</v>
+      </c>
+      <c r="L55" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="15">
+        <v>6</v>
+      </c>
+      <c r="B56" s="15">
+        <v>55</v>
+      </c>
+      <c r="C56" s="15">
+        <v>8</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15">
+        <v>2</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I56" s="16">
+        <v>3</v>
+      </c>
+      <c r="J56" s="15">
+        <v>1</v>
+      </c>
+      <c r="K56" s="15">
+        <v>2</v>
+      </c>
+      <c r="L56" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="M56" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="15">
+        <v>6</v>
+      </c>
+      <c r="B57" s="15">
+        <v>56</v>
+      </c>
+      <c r="C57" s="15">
+        <v>8</v>
+      </c>
+      <c r="D57" s="16">
+        <v>1</v>
+      </c>
+      <c r="E57" s="15">
+        <v>2</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I57" s="16">
+        <v>3</v>
+      </c>
+      <c r="J57" s="15">
+        <v>1</v>
+      </c>
+      <c r="K57" s="15">
+        <v>2</v>
+      </c>
+      <c r="L57" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="M57" s="15">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="588">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1880,6 +1880,39 @@
   </si>
   <si>
     <t xml:space="preserve">konstrukcija nekih uglova </t>
+  </si>
+  <si>
+    <t>stavovi podudarnosti</t>
+  </si>
+  <si>
+    <t>centralna simetrija</t>
+  </si>
+  <si>
+    <t>osna simetrija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Značajne duži I tačke trougla </t>
+  </si>
+  <si>
+    <t>odnos razlicitih tačaka i duži</t>
+  </si>
+  <si>
+    <t>visina, srednja linija</t>
+  </si>
+  <si>
+    <t>visina, srednja linija, ugao</t>
+  </si>
+  <si>
+    <t>Četvorougao</t>
+  </si>
+  <si>
+    <t>Pojam, vrste, uglovi</t>
+  </si>
+  <si>
+    <t>osobine</t>
+  </si>
+  <si>
+    <t>uglovi</t>
   </si>
 </sst>
 </file>
@@ -10547,11 +10580,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N255"/>
+  <dimension ref="A1:N256"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L239" sqref="L239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20078,7 +20111,7 @@
       <c r="K239" s="10">
         <v>3</v>
       </c>
-      <c r="L239" s="19" t="s">
+      <c r="L239" s="12" t="s">
         <v>156</v>
       </c>
       <c r="M239" s="9">
@@ -20730,6 +20763,45 @@
         <v>56</v>
       </c>
       <c r="M255" s="34"/>
+    </row>
+    <row r="256" spans="1:13" s="13" customFormat="1">
+      <c r="A256" s="26">
+        <v>1</v>
+      </c>
+      <c r="B256" s="27">
+        <v>242</v>
+      </c>
+      <c r="C256" s="27">
+        <v>8</v>
+      </c>
+      <c r="D256" s="28">
+        <v>1</v>
+      </c>
+      <c r="E256" s="27">
+        <v>1</v>
+      </c>
+      <c r="F256" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G256" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I256" s="28">
+        <v>1</v>
+      </c>
+      <c r="J256" s="28">
+        <v>1</v>
+      </c>
+      <c r="K256" s="28">
+        <v>1</v>
+      </c>
+      <c r="L256" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="M256" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29745,10 +29817,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32091,6 +32163,533 @@
       </c>
       <c r="M57" s="15">
         <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="15">
+        <v>6</v>
+      </c>
+      <c r="B58" s="15">
+        <v>57</v>
+      </c>
+      <c r="C58" s="15">
+        <v>8</v>
+      </c>
+      <c r="D58" s="16">
+        <v>2</v>
+      </c>
+      <c r="E58" s="15">
+        <v>2</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I58" s="16">
+        <v>3</v>
+      </c>
+      <c r="J58" s="15">
+        <v>1</v>
+      </c>
+      <c r="K58" s="15">
+        <v>3</v>
+      </c>
+      <c r="L58" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="M58" s="15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="15">
+        <v>6</v>
+      </c>
+      <c r="B59" s="15">
+        <v>58</v>
+      </c>
+      <c r="C59" s="15">
+        <v>8</v>
+      </c>
+      <c r="D59" s="16">
+        <v>2</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I59" s="16">
+        <v>3</v>
+      </c>
+      <c r="J59" s="15">
+        <v>1</v>
+      </c>
+      <c r="K59" s="15">
+        <v>3</v>
+      </c>
+      <c r="L59" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="15">
+        <v>6</v>
+      </c>
+      <c r="B60" s="15">
+        <v>59</v>
+      </c>
+      <c r="C60" s="15">
+        <v>10</v>
+      </c>
+      <c r="D60" s="16">
+        <v>2</v>
+      </c>
+      <c r="E60" s="15">
+        <v>2</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="16">
+        <v>3</v>
+      </c>
+      <c r="J60" s="15">
+        <v>1</v>
+      </c>
+      <c r="K60" s="15">
+        <v>3</v>
+      </c>
+      <c r="L60" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="15">
+        <v>6</v>
+      </c>
+      <c r="B61" s="15">
+        <v>60</v>
+      </c>
+      <c r="C61" s="15">
+        <v>10</v>
+      </c>
+      <c r="D61" s="16">
+        <v>2</v>
+      </c>
+      <c r="E61" s="15">
+        <v>1</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I61" s="16">
+        <v>3</v>
+      </c>
+      <c r="J61" s="15">
+        <v>1</v>
+      </c>
+      <c r="K61" s="15">
+        <v>3</v>
+      </c>
+      <c r="L61" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="M61" s="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="15">
+        <v>6</v>
+      </c>
+      <c r="B62" s="15">
+        <v>61</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0</v>
+      </c>
+      <c r="D62" s="16">
+        <v>2</v>
+      </c>
+      <c r="E62" s="15">
+        <v>2</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I62" s="16">
+        <v>3</v>
+      </c>
+      <c r="J62" s="15">
+        <v>1</v>
+      </c>
+      <c r="K62" s="15">
+        <v>3</v>
+      </c>
+      <c r="L62" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="M62" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="15">
+        <v>6</v>
+      </c>
+      <c r="B63" s="15">
+        <v>62</v>
+      </c>
+      <c r="C63" s="15">
+        <v>10</v>
+      </c>
+      <c r="D63" s="16">
+        <v>2</v>
+      </c>
+      <c r="E63" s="15">
+        <v>1</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="I63" s="16">
+        <v>3</v>
+      </c>
+      <c r="J63" s="15">
+        <v>1</v>
+      </c>
+      <c r="K63" s="15">
+        <v>4</v>
+      </c>
+      <c r="L63" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="M63" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="15">
+        <v>6</v>
+      </c>
+      <c r="B64" s="15">
+        <v>63</v>
+      </c>
+      <c r="C64" s="15">
+        <v>10</v>
+      </c>
+      <c r="D64" s="16">
+        <v>2</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="I64" s="16">
+        <v>3</v>
+      </c>
+      <c r="J64" s="15">
+        <v>1</v>
+      </c>
+      <c r="K64" s="15">
+        <v>4</v>
+      </c>
+      <c r="L64" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="M64" s="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="15">
+        <v>6</v>
+      </c>
+      <c r="B65" s="15">
+        <v>64</v>
+      </c>
+      <c r="C65" s="15">
+        <v>10</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15">
+        <v>2</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I65" s="16">
+        <v>3</v>
+      </c>
+      <c r="J65" s="15">
+        <v>1</v>
+      </c>
+      <c r="K65" s="15">
+        <v>2</v>
+      </c>
+      <c r="L65" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="15">
+        <v>6</v>
+      </c>
+      <c r="B66" s="15">
+        <v>65</v>
+      </c>
+      <c r="C66" s="15">
+        <v>10</v>
+      </c>
+      <c r="D66" s="16">
+        <v>2</v>
+      </c>
+      <c r="E66" s="15">
+        <v>3</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="I66" s="16">
+        <v>3</v>
+      </c>
+      <c r="J66" s="15">
+        <v>1</v>
+      </c>
+      <c r="K66" s="15">
+        <v>4</v>
+      </c>
+      <c r="L66" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="M66" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="15">
+        <v>6</v>
+      </c>
+      <c r="B67" s="15">
+        <v>66</v>
+      </c>
+      <c r="C67" s="15">
+        <v>10</v>
+      </c>
+      <c r="D67" s="16">
+        <v>2</v>
+      </c>
+      <c r="E67" s="15">
+        <v>3</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="I67" s="16">
+        <v>3</v>
+      </c>
+      <c r="J67" s="15">
+        <v>1</v>
+      </c>
+      <c r="K67" s="15">
+        <v>4</v>
+      </c>
+      <c r="L67" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="M67" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="15">
+        <v>6</v>
+      </c>
+      <c r="B68" s="15">
+        <v>67</v>
+      </c>
+      <c r="C68" s="15">
+        <v>6</v>
+      </c>
+      <c r="D68" s="16">
+        <v>3</v>
+      </c>
+      <c r="E68" s="15">
+        <v>1</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="I68" s="16">
+        <v>3</v>
+      </c>
+      <c r="J68" s="15">
+        <v>2</v>
+      </c>
+      <c r="K68" s="15">
+        <v>1</v>
+      </c>
+      <c r="L68" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="M68" s="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="15">
+        <v>6</v>
+      </c>
+      <c r="B69" s="15">
+        <v>68</v>
+      </c>
+      <c r="C69" s="15">
+        <v>8</v>
+      </c>
+      <c r="D69" s="16">
+        <v>3</v>
+      </c>
+      <c r="E69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="I69" s="16">
+        <v>3</v>
+      </c>
+      <c r="J69" s="15">
+        <v>2</v>
+      </c>
+      <c r="K69" s="15">
+        <v>1</v>
+      </c>
+      <c r="L69" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="M69" s="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="15">
+        <v>6</v>
+      </c>
+      <c r="B70" s="15">
+        <v>69</v>
+      </c>
+      <c r="C70" s="15">
+        <v>10</v>
+      </c>
+      <c r="D70" s="16">
+        <v>3</v>
+      </c>
+      <c r="E70" s="15">
+        <v>2</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="I70" s="16">
+        <v>3</v>
+      </c>
+      <c r="J70" s="15">
+        <v>2</v>
+      </c>
+      <c r="K70" s="15">
+        <v>1</v>
+      </c>
+      <c r="L70" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="M70" s="15">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="594">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1913,6 +1913,24 @@
   </si>
   <si>
     <t>uglovi</t>
+  </si>
+  <si>
+    <t>trapez-uglovi</t>
+  </si>
+  <si>
+    <t>Paralelogram</t>
+  </si>
+  <si>
+    <t>Četvorougao-uglovi</t>
+  </si>
+  <si>
+    <t>stranice, obim</t>
+  </si>
+  <si>
+    <t>Trapez</t>
+  </si>
+  <si>
+    <t>pravougli, jednakokraki</t>
   </si>
 </sst>
 </file>
@@ -29817,10 +29835,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31351,45 +31369,45 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A38" s="9">
-        <v>5</v>
-      </c>
-      <c r="B38" s="9">
-        <v>37</v>
-      </c>
-      <c r="C38" s="9">
-        <v>5</v>
-      </c>
-      <c r="D38" s="9">
-        <v>3</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1</v>
-      </c>
-      <c r="F38" s="11" t="s">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="15">
+        <v>6</v>
+      </c>
+      <c r="B38" s="15">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15">
+        <v>10</v>
+      </c>
+      <c r="D38" s="16">
+        <v>3</v>
+      </c>
+      <c r="E38" s="15">
+        <v>2</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I38" s="9">
-        <v>3</v>
-      </c>
-      <c r="J38" s="9">
-        <v>3</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="111" t="s">
-        <v>549</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>550</v>
+      <c r="G38" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="I38" s="16">
+        <v>3</v>
+      </c>
+      <c r="J38" s="15">
+        <v>2</v>
+      </c>
+      <c r="K38" s="15">
+        <v>2</v>
+      </c>
+      <c r="L38" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="M38" s="15">
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -31397,7 +31415,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="9">
         <v>5</v>
@@ -31427,10 +31445,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="111" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -31438,7 +31456,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="9">
         <v>5</v>
@@ -31468,10 +31486,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="111" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -31479,16 +31497,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D41" s="9">
         <v>3</v>
       </c>
       <c r="E41" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>179</v>
@@ -31497,7 +31515,7 @@
         <v>548</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I41" s="9">
         <v>3</v>
@@ -31506,10 +31524,10 @@
         <v>3</v>
       </c>
       <c r="K41" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="111" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>553</v>
@@ -31520,7 +31538,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="9">
         <v>10</v>
@@ -31529,7 +31547,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>179</v>
@@ -31550,10 +31568,10 @@
         <v>2</v>
       </c>
       <c r="L42" s="111" t="s">
-        <v>555</v>
-      </c>
-      <c r="M42" s="9">
-        <v>40</v>
+        <v>554</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -31561,7 +31579,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="9">
         <v>10</v>
@@ -31570,7 +31588,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>179</v>
@@ -31594,7 +31612,7 @@
         <v>555</v>
       </c>
       <c r="M43" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -31602,10 +31620,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" s="9">
         <v>3</v>
@@ -31632,10 +31650,10 @@
         <v>2</v>
       </c>
       <c r="L44" s="111" t="s">
-        <v>558</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
+      </c>
+      <c r="M44" s="9">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
@@ -31643,16 +31661,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="9">
         <v>3</v>
       </c>
       <c r="E45" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>179</v>
@@ -31676,48 +31694,48 @@
         <v>558</v>
       </c>
       <c r="M45" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="9">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="9">
+        <v>6</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="I46" s="9">
+        <v>3</v>
+      </c>
+      <c r="J46" s="9">
+        <v>3</v>
+      </c>
+      <c r="K46" s="10">
+        <v>2</v>
+      </c>
+      <c r="L46" s="111" t="s">
+        <v>558</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="15">
-        <v>6</v>
-      </c>
-      <c r="B46" s="15">
-        <v>45</v>
-      </c>
-      <c r="C46" s="15">
-        <v>0</v>
-      </c>
-      <c r="D46" s="16">
-        <v>1</v>
-      </c>
-      <c r="E46" s="15">
-        <v>1</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="I46" s="16">
-        <v>3</v>
-      </c>
-      <c r="J46" s="15">
-        <v>1</v>
-      </c>
-      <c r="K46" s="15">
-        <v>1</v>
-      </c>
-      <c r="L46" s="64" t="s">
-        <v>561</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31725,16 +31743,16 @@
         <v>6</v>
       </c>
       <c r="B47" s="15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D47" s="16">
         <v>1</v>
       </c>
       <c r="E47" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>179</v>
@@ -31755,10 +31773,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="64" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31766,10 +31784,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" s="16">
         <v>1</v>
@@ -31795,7 +31813,9 @@
       <c r="K48" s="15">
         <v>1</v>
       </c>
-      <c r="L48" s="64"/>
+      <c r="L48" s="64" t="s">
+        <v>564</v>
+      </c>
       <c r="M48" s="15" t="s">
         <v>565</v>
       </c>
@@ -31805,16 +31825,16 @@
         <v>6</v>
       </c>
       <c r="B49" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" s="16">
         <v>1</v>
       </c>
       <c r="E49" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>179</v>
@@ -31823,7 +31843,7 @@
         <v>258</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I49" s="16">
         <v>3</v>
@@ -31832,13 +31852,11 @@
         <v>1</v>
       </c>
       <c r="K49" s="15">
-        <v>2</v>
-      </c>
-      <c r="L49" s="64" t="s">
-        <v>567</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L49" s="64"/>
       <c r="M49" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31846,7 +31864,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="15">
         <v>10</v>
@@ -31876,10 +31894,10 @@
         <v>2</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31887,7 +31905,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="15">
         <v>10</v>
@@ -31917,10 +31935,10 @@
         <v>2</v>
       </c>
       <c r="L51" s="64" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31928,16 +31946,16 @@
         <v>6</v>
       </c>
       <c r="B52" s="15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D52" s="16">
         <v>1</v>
       </c>
       <c r="E52" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>179</v>
@@ -31958,10 +31976,10 @@
         <v>2</v>
       </c>
       <c r="L52" s="64" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31969,7 +31987,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="15">
         <v>8</v>
@@ -31999,10 +32017,10 @@
         <v>2</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>567</v>
-      </c>
-      <c r="M53" s="15">
-        <v>50</v>
+        <v>574</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32010,16 +32028,16 @@
         <v>6</v>
       </c>
       <c r="B54" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54" s="16">
         <v>1</v>
       </c>
       <c r="E54" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>179</v>
@@ -32040,16 +32058,18 @@
         <v>2</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>575</v>
-      </c>
-      <c r="M54" s="15"/>
+        <v>567</v>
+      </c>
+      <c r="M54" s="15">
+        <v>50</v>
+      </c>
     </row>
     <row r="55" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="15">
         <v>6</v>
       </c>
       <c r="B55" s="15">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="15">
         <v>10</v>
@@ -32088,16 +32108,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D56" s="16">
         <v>1</v>
       </c>
       <c r="E56" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>179</v>
@@ -32118,18 +32138,16 @@
         <v>2</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>576</v>
-      </c>
-      <c r="M56" s="15">
-        <v>44</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="15">
         <v>6</v>
       </c>
       <c r="B57" s="15">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="15">
         <v>8</v>
@@ -32159,10 +32177,10 @@
         <v>2</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M57" s="15">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32170,13 +32188,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="15">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="15">
         <v>8</v>
       </c>
       <c r="D58" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="15">
         <v>2</v>
@@ -32188,7 +32206,7 @@
         <v>258</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>276</v>
+        <v>566</v>
       </c>
       <c r="I58" s="16">
         <v>3</v>
@@ -32197,13 +32215,13 @@
         <v>1</v>
       </c>
       <c r="K58" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M58" s="15">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32211,7 +32229,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="15">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="15">
         <v>8</v>
@@ -32220,7 +32238,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="16" t="s">
         <v>179</v>
@@ -32243,23 +32261,25 @@
       <c r="L59" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="M59" s="15"/>
+      <c r="M59" s="15">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="15">
         <v>6</v>
       </c>
       <c r="B60" s="15">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60" s="16">
         <v>2</v>
       </c>
       <c r="E60" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="16" t="s">
         <v>179</v>
@@ -32280,7 +32300,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M60" s="15"/>
     </row>
@@ -32289,7 +32309,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="15">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="15">
         <v>10</v>
@@ -32298,7 +32318,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>179</v>
@@ -32319,27 +32339,25 @@
         <v>3</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>579</v>
-      </c>
-      <c r="M61" s="15">
-        <v>59</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M61" s="15"/>
     </row>
     <row r="62" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="15">
         <v>6</v>
       </c>
       <c r="B62" s="15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D62" s="16">
         <v>2</v>
       </c>
       <c r="E62" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>179</v>
@@ -32360,10 +32378,10 @@
         <v>3</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M62" s="15">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32371,16 +32389,16 @@
         <v>6</v>
       </c>
       <c r="B63" s="15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D63" s="16">
         <v>2</v>
       </c>
       <c r="E63" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>179</v>
@@ -32389,7 +32407,7 @@
         <v>258</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>580</v>
+        <v>276</v>
       </c>
       <c r="I63" s="16">
         <v>3</v>
@@ -32398,13 +32416,13 @@
         <v>1</v>
       </c>
       <c r="K63" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L63" s="64" t="s">
         <v>577</v>
       </c>
       <c r="M63" s="15">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32412,7 +32430,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="15">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="15">
         <v>10</v>
@@ -32442,10 +32460,10 @@
         <v>4</v>
       </c>
       <c r="L64" s="64" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="M64" s="15">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32453,16 +32471,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="15">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="15">
         <v>10</v>
       </c>
       <c r="D65" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>179</v>
@@ -32471,7 +32489,7 @@
         <v>258</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="I65" s="16">
         <v>3</v>
@@ -32480,28 +32498,30 @@
         <v>1</v>
       </c>
       <c r="K65" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L65" s="64" t="s">
-        <v>575</v>
-      </c>
-      <c r="M65" s="15"/>
+        <v>581</v>
+      </c>
+      <c r="M65" s="15">
+        <v>51</v>
+      </c>
     </row>
     <row r="66" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="15">
         <v>6</v>
       </c>
       <c r="B66" s="15">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="15">
         <v>10</v>
       </c>
       <c r="D66" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>179</v>
@@ -32510,7 +32530,7 @@
         <v>258</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="I66" s="16">
         <v>3</v>
@@ -32519,21 +32539,19 @@
         <v>1</v>
       </c>
       <c r="K66" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>582</v>
-      </c>
-      <c r="M66" s="15">
-        <v>35</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M66" s="15"/>
     </row>
     <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="15">
         <v>6</v>
       </c>
       <c r="B67" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="15">
         <v>10</v>
@@ -32563,7 +32581,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M67" s="15">
         <v>35</v>
@@ -32574,40 +32592,40 @@
         <v>6</v>
       </c>
       <c r="B68" s="15">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>179</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>584</v>
+        <v>258</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I68" s="16">
         <v>3</v>
       </c>
       <c r="J68" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="M68" s="15">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32615,10 +32633,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="15">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D69" s="16">
         <v>3</v>
@@ -32645,10 +32663,10 @@
         <v>1</v>
       </c>
       <c r="L69" s="64" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="M69" s="15">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
@@ -32656,10 +32674,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="15">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" s="16">
         <v>3</v>
@@ -32686,10 +32704,418 @@
         <v>1</v>
       </c>
       <c r="L70" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="M70" s="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="15">
+        <v>6</v>
+      </c>
+      <c r="B71" s="15">
+        <v>69</v>
+      </c>
+      <c r="C71" s="15">
+        <v>10</v>
+      </c>
+      <c r="D71" s="16">
+        <v>3</v>
+      </c>
+      <c r="E71" s="15">
+        <v>2</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="I71" s="16">
+        <v>3</v>
+      </c>
+      <c r="J71" s="15">
+        <v>2</v>
+      </c>
+      <c r="K71" s="15">
+        <v>1</v>
+      </c>
+      <c r="L71" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="M70" s="15">
+      <c r="M71" s="15">
         <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="15">
+        <v>6</v>
+      </c>
+      <c r="B72" s="15">
+        <v>70</v>
+      </c>
+      <c r="C72" s="15">
+        <v>10</v>
+      </c>
+      <c r="D72" s="16">
+        <v>3</v>
+      </c>
+      <c r="E72" s="15">
+        <v>2</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="I72" s="16">
+        <v>3</v>
+      </c>
+      <c r="J72" s="15">
+        <v>2</v>
+      </c>
+      <c r="K72" s="15">
+        <v>1</v>
+      </c>
+      <c r="L72" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="M72" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="15">
+        <v>6</v>
+      </c>
+      <c r="B73" s="15">
+        <v>71</v>
+      </c>
+      <c r="C73" s="15">
+        <v>10</v>
+      </c>
+      <c r="D73" s="16">
+        <v>3</v>
+      </c>
+      <c r="E73" s="15">
+        <v>3</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="I73" s="16">
+        <v>3</v>
+      </c>
+      <c r="J73" s="15">
+        <v>2</v>
+      </c>
+      <c r="K73" s="15">
+        <v>1</v>
+      </c>
+      <c r="L73" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="M73" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="15">
+        <v>6</v>
+      </c>
+      <c r="B74" s="15">
+        <v>72</v>
+      </c>
+      <c r="C74" s="15">
+        <v>10</v>
+      </c>
+      <c r="D74" s="16">
+        <v>3</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="I74" s="16">
+        <v>3</v>
+      </c>
+      <c r="J74" s="15">
+        <v>2</v>
+      </c>
+      <c r="K74" s="15">
+        <v>2</v>
+      </c>
+      <c r="L74" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="M74" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="15">
+        <v>6</v>
+      </c>
+      <c r="B75" s="15">
+        <v>73</v>
+      </c>
+      <c r="C75" s="15">
+        <v>10</v>
+      </c>
+      <c r="D75" s="16">
+        <v>3</v>
+      </c>
+      <c r="E75" s="15">
+        <v>2</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="I75" s="16">
+        <v>3</v>
+      </c>
+      <c r="J75" s="15">
+        <v>2</v>
+      </c>
+      <c r="K75" s="15">
+        <v>2</v>
+      </c>
+      <c r="L75" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="M75" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="15">
+        <v>6</v>
+      </c>
+      <c r="B76" s="15">
+        <v>74</v>
+      </c>
+      <c r="C76" s="15">
+        <v>10</v>
+      </c>
+      <c r="D76" s="16">
+        <v>3</v>
+      </c>
+      <c r="E76" s="15">
+        <v>2</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="I76" s="16">
+        <v>3</v>
+      </c>
+      <c r="J76" s="15">
+        <v>2</v>
+      </c>
+      <c r="K76" s="15">
+        <v>2</v>
+      </c>
+      <c r="L76" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="M76" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="15">
+        <v>6</v>
+      </c>
+      <c r="B77" s="15">
+        <v>75</v>
+      </c>
+      <c r="C77" s="15">
+        <v>10</v>
+      </c>
+      <c r="D77" s="16">
+        <v>3</v>
+      </c>
+      <c r="E77" s="15">
+        <v>3</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="I77" s="16">
+        <v>3</v>
+      </c>
+      <c r="J77" s="15">
+        <v>2</v>
+      </c>
+      <c r="K77" s="15">
+        <v>2</v>
+      </c>
+      <c r="L77" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="M77" s="15"/>
+    </row>
+    <row r="78" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="15">
+        <v>6</v>
+      </c>
+      <c r="B78" s="15">
+        <v>76</v>
+      </c>
+      <c r="C78" s="15">
+        <v>8</v>
+      </c>
+      <c r="D78" s="16">
+        <v>3</v>
+      </c>
+      <c r="E78" s="15">
+        <v>2</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="I78" s="16">
+        <v>3</v>
+      </c>
+      <c r="J78" s="15">
+        <v>2</v>
+      </c>
+      <c r="K78" s="15">
+        <v>2</v>
+      </c>
+      <c r="L78" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="M78" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="15">
+        <v>6</v>
+      </c>
+      <c r="B79" s="15">
+        <v>77</v>
+      </c>
+      <c r="C79" s="15">
+        <v>8</v>
+      </c>
+      <c r="D79" s="16">
+        <v>3</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I79" s="16">
+        <v>3</v>
+      </c>
+      <c r="J79" s="15">
+        <v>2</v>
+      </c>
+      <c r="K79" s="15">
+        <v>3</v>
+      </c>
+      <c r="L79" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="M79" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A80" s="15">
+        <v>6</v>
+      </c>
+      <c r="B80" s="15">
+        <v>78</v>
+      </c>
+      <c r="C80" s="15">
+        <v>8</v>
+      </c>
+      <c r="D80" s="16">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I80" s="16">
+        <v>3</v>
+      </c>
+      <c r="J80" s="15">
+        <v>2</v>
+      </c>
+      <c r="K80" s="15">
+        <v>3</v>
+      </c>
+      <c r="L80" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="M80" s="15">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3563" uniqueCount="605">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1931,6 +1931,39 @@
   </si>
   <si>
     <t>pravougli, jednakokraki</t>
+  </si>
+  <si>
+    <t>srednja linija</t>
+  </si>
+  <si>
+    <t>srednja linija, obim</t>
+  </si>
+  <si>
+    <t>obim</t>
+  </si>
+  <si>
+    <t>dijagonale</t>
+  </si>
+  <si>
+    <t>Podudarne figure</t>
+  </si>
+  <si>
+    <t>kompozitne figure</t>
+  </si>
+  <si>
+    <t>measure 3</t>
+  </si>
+  <si>
+    <t>Paralelogram, trougao, trapez</t>
+  </si>
+  <si>
+    <t>romb</t>
+  </si>
+  <si>
+    <t>numbers 101</t>
+  </si>
+  <si>
+    <t>paralelogram</t>
   </si>
 </sst>
 </file>
@@ -7009,8 +7042,8 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10102,7 +10135,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>179</v>
@@ -29835,10 +29868,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29847,7 +29880,7 @@
     <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" customWidth="1"/>
@@ -33116,6 +33149,484 @@
       </c>
       <c r="M80" s="15">
         <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A81" s="15">
+        <v>6</v>
+      </c>
+      <c r="B81" s="15">
+        <v>79</v>
+      </c>
+      <c r="C81" s="15">
+        <v>8</v>
+      </c>
+      <c r="D81" s="16">
+        <v>3</v>
+      </c>
+      <c r="E81" s="15">
+        <v>2</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I81" s="16">
+        <v>3</v>
+      </c>
+      <c r="J81" s="15">
+        <v>2</v>
+      </c>
+      <c r="K81" s="15">
+        <v>3</v>
+      </c>
+      <c r="L81" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="M81" s="15"/>
+    </row>
+    <row r="82" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A82" s="15">
+        <v>6</v>
+      </c>
+      <c r="B82" s="15">
+        <v>80</v>
+      </c>
+      <c r="C82" s="15">
+        <v>10</v>
+      </c>
+      <c r="D82" s="16">
+        <v>3</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I82" s="16">
+        <v>3</v>
+      </c>
+      <c r="J82" s="15">
+        <v>2</v>
+      </c>
+      <c r="K82" s="15">
+        <v>3</v>
+      </c>
+      <c r="L82" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="M82" s="15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A83" s="15">
+        <v>6</v>
+      </c>
+      <c r="B83" s="15">
+        <v>81</v>
+      </c>
+      <c r="C83" s="15">
+        <v>10</v>
+      </c>
+      <c r="D83" s="16">
+        <v>3</v>
+      </c>
+      <c r="E83" s="15">
+        <v>2</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I83" s="16">
+        <v>3</v>
+      </c>
+      <c r="J83" s="15">
+        <v>2</v>
+      </c>
+      <c r="K83" s="15">
+        <v>3</v>
+      </c>
+      <c r="L83" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="M83" s="15"/>
+    </row>
+    <row r="84" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A84" s="15">
+        <v>6</v>
+      </c>
+      <c r="B84" s="15">
+        <v>82</v>
+      </c>
+      <c r="C84" s="15">
+        <v>10</v>
+      </c>
+      <c r="D84" s="16">
+        <v>3</v>
+      </c>
+      <c r="E84" s="15">
+        <v>2</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I84" s="16">
+        <v>3</v>
+      </c>
+      <c r="J84" s="15">
+        <v>2</v>
+      </c>
+      <c r="K84" s="15">
+        <v>3</v>
+      </c>
+      <c r="L84" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="M84" s="15"/>
+    </row>
+    <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A85" s="15">
+        <v>6</v>
+      </c>
+      <c r="B85" s="15">
+        <v>83</v>
+      </c>
+      <c r="C85" s="15">
+        <v>10</v>
+      </c>
+      <c r="D85" s="16">
+        <v>3</v>
+      </c>
+      <c r="E85" s="15">
+        <v>3</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I85" s="16">
+        <v>3</v>
+      </c>
+      <c r="J85" s="15">
+        <v>2</v>
+      </c>
+      <c r="K85" s="15">
+        <v>3</v>
+      </c>
+      <c r="L85" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="M85" s="15"/>
+    </row>
+    <row r="86" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="15">
+        <v>6</v>
+      </c>
+      <c r="B86" s="15">
+        <v>84</v>
+      </c>
+      <c r="C86" s="15">
+        <v>5</v>
+      </c>
+      <c r="D86" s="16">
+        <v>3</v>
+      </c>
+      <c r="E86" s="15">
+        <v>2</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H86" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="I86" s="16">
+        <v>3</v>
+      </c>
+      <c r="J86" s="83">
+        <v>3</v>
+      </c>
+      <c r="K86" s="83">
+        <v>1</v>
+      </c>
+      <c r="L86" s="64" t="s">
+        <v>599</v>
+      </c>
+      <c r="M86" s="15"/>
+    </row>
+    <row r="87" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A87" s="15">
+        <v>6</v>
+      </c>
+      <c r="B87" s="15">
+        <v>85</v>
+      </c>
+      <c r="C87" s="15">
+        <v>8</v>
+      </c>
+      <c r="D87" s="16">
+        <v>3</v>
+      </c>
+      <c r="E87" s="15">
+        <v>3</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="I87" s="16">
+        <v>3</v>
+      </c>
+      <c r="J87" s="83">
+        <v>3</v>
+      </c>
+      <c r="K87" s="83">
+        <v>1</v>
+      </c>
+      <c r="L87" s="64" t="s">
+        <v>599</v>
+      </c>
+      <c r="M87" s="15"/>
+    </row>
+    <row r="88" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A88" s="15">
+        <v>6</v>
+      </c>
+      <c r="B88" s="15">
+        <v>86</v>
+      </c>
+      <c r="C88" s="15">
+        <v>10</v>
+      </c>
+      <c r="D88" s="16">
+        <v>3</v>
+      </c>
+      <c r="E88" s="15">
+        <v>1</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="I88" s="16">
+        <v>3</v>
+      </c>
+      <c r="J88" s="83">
+        <v>3</v>
+      </c>
+      <c r="K88" s="83">
+        <v>2</v>
+      </c>
+      <c r="L88" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A89" s="15">
+        <v>6</v>
+      </c>
+      <c r="B89" s="15">
+        <v>87</v>
+      </c>
+      <c r="C89" s="15">
+        <v>10</v>
+      </c>
+      <c r="D89" s="16">
+        <v>3</v>
+      </c>
+      <c r="E89" s="15">
+        <v>3</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="I89" s="16">
+        <v>3</v>
+      </c>
+      <c r="J89" s="83">
+        <v>3</v>
+      </c>
+      <c r="K89" s="83">
+        <v>2</v>
+      </c>
+      <c r="L89" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="M89" s="15"/>
+    </row>
+    <row r="90" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A90" s="15">
+        <v>6</v>
+      </c>
+      <c r="B90" s="15">
+        <v>88</v>
+      </c>
+      <c r="C90" s="15">
+        <v>10</v>
+      </c>
+      <c r="D90" s="16">
+        <v>3</v>
+      </c>
+      <c r="E90" s="15">
+        <v>2</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="I90" s="16">
+        <v>3</v>
+      </c>
+      <c r="J90" s="83">
+        <v>3</v>
+      </c>
+      <c r="K90" s="83">
+        <v>2</v>
+      </c>
+      <c r="L90" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="M90" s="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A91" s="15">
+        <v>6</v>
+      </c>
+      <c r="B91" s="15">
+        <v>89</v>
+      </c>
+      <c r="C91" s="15">
+        <v>10</v>
+      </c>
+      <c r="D91" s="16">
+        <v>3</v>
+      </c>
+      <c r="E91" s="15">
+        <v>2</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H91" s="64" t="s">
+        <v>601</v>
+      </c>
+      <c r="I91" s="16">
+        <v>3</v>
+      </c>
+      <c r="J91" s="83">
+        <v>3</v>
+      </c>
+      <c r="K91" s="83">
+        <v>3</v>
+      </c>
+      <c r="L91" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A92" s="15">
+        <v>6</v>
+      </c>
+      <c r="B92" s="15">
+        <v>90</v>
+      </c>
+      <c r="C92" s="15">
+        <v>10</v>
+      </c>
+      <c r="D92" s="16">
+        <v>3</v>
+      </c>
+      <c r="E92" s="15">
+        <v>2</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H92" s="64" t="s">
+        <v>601</v>
+      </c>
+      <c r="I92" s="16">
+        <v>3</v>
+      </c>
+      <c r="J92" s="83">
+        <v>3</v>
+      </c>
+      <c r="K92" s="83">
+        <v>3</v>
+      </c>
+      <c r="L92" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="M92" s="15">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3563" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="611">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1964,6 +1964,24 @@
   </si>
   <si>
     <t>paralelogram</t>
+  </si>
+  <si>
+    <t>measure 14</t>
+  </si>
+  <si>
+    <t>trougao</t>
+  </si>
+  <si>
+    <t>trapez</t>
+  </si>
+  <si>
+    <t>Paralelogram, trougao, trapez, deltoid</t>
+  </si>
+  <si>
+    <t>Paralelogram, trapez, deltoid</t>
+  </si>
+  <si>
+    <t>figura sa normalnim dijagonalama</t>
   </si>
 </sst>
 </file>
@@ -29868,10 +29886,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33547,7 +33565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
       <c r="A91" s="15">
         <v>6</v>
       </c>
@@ -33569,8 +33587,8 @@
       <c r="G91" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H91" s="64" t="s">
-        <v>601</v>
+      <c r="H91" s="65" t="s">
+        <v>608</v>
       </c>
       <c r="I91" s="16">
         <v>3</v>
@@ -33588,7 +33606,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
       <c r="A92" s="15">
         <v>6</v>
       </c>
@@ -33610,8 +33628,8 @@
       <c r="G92" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H92" s="64" t="s">
-        <v>601</v>
+      <c r="H92" s="65" t="s">
+        <v>608</v>
       </c>
       <c r="I92" s="16">
         <v>3</v>
@@ -33627,6 +33645,332 @@
       </c>
       <c r="M92" s="15">
         <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A93" s="15">
+        <v>6</v>
+      </c>
+      <c r="B93" s="15">
+        <v>91</v>
+      </c>
+      <c r="C93" s="15">
+        <v>10</v>
+      </c>
+      <c r="D93" s="16">
+        <v>3</v>
+      </c>
+      <c r="E93" s="15">
+        <v>2</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H93" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="I93" s="16">
+        <v>3</v>
+      </c>
+      <c r="J93" s="83">
+        <v>3</v>
+      </c>
+      <c r="K93" s="83">
+        <v>2</v>
+      </c>
+      <c r="L93" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A94" s="15">
+        <v>6</v>
+      </c>
+      <c r="B94" s="15">
+        <v>92</v>
+      </c>
+      <c r="C94" s="15">
+        <v>10</v>
+      </c>
+      <c r="D94" s="16">
+        <v>3</v>
+      </c>
+      <c r="E94" s="15">
+        <v>2</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I94" s="16">
+        <v>3</v>
+      </c>
+      <c r="J94" s="83">
+        <v>3</v>
+      </c>
+      <c r="K94" s="83">
+        <v>3</v>
+      </c>
+      <c r="L94" s="64" t="s">
+        <v>601</v>
+      </c>
+      <c r="M94" s="15"/>
+    </row>
+    <row r="95" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A95" s="15">
+        <v>6</v>
+      </c>
+      <c r="B95" s="15">
+        <v>93</v>
+      </c>
+      <c r="C95" s="15">
+        <v>10</v>
+      </c>
+      <c r="D95" s="16">
+        <v>3</v>
+      </c>
+      <c r="E95" s="15">
+        <v>2</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I95" s="16">
+        <v>3</v>
+      </c>
+      <c r="J95" s="83">
+        <v>3</v>
+      </c>
+      <c r="K95" s="83">
+        <v>3</v>
+      </c>
+      <c r="L95" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="M95" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="18" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A96" s="15">
+        <v>6</v>
+      </c>
+      <c r="B96" s="15">
+        <v>94</v>
+      </c>
+      <c r="C96" s="15">
+        <v>10</v>
+      </c>
+      <c r="D96" s="16">
+        <v>3</v>
+      </c>
+      <c r="E96" s="15">
+        <v>2</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H96" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I96" s="16">
+        <v>3</v>
+      </c>
+      <c r="J96" s="83">
+        <v>3</v>
+      </c>
+      <c r="K96" s="83">
+        <v>3</v>
+      </c>
+      <c r="L96" s="64" t="s">
+        <v>607</v>
+      </c>
+      <c r="M96" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A97" s="15">
+        <v>6</v>
+      </c>
+      <c r="B97" s="15">
+        <v>95</v>
+      </c>
+      <c r="C97" s="15">
+        <v>8</v>
+      </c>
+      <c r="D97" s="16">
+        <v>3</v>
+      </c>
+      <c r="E97" s="15">
+        <v>2</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I97" s="16">
+        <v>3</v>
+      </c>
+      <c r="J97" s="83">
+        <v>3</v>
+      </c>
+      <c r="K97" s="83">
+        <v>3</v>
+      </c>
+      <c r="L97" s="65" t="s">
+        <v>609</v>
+      </c>
+      <c r="M97" s="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A98" s="15">
+        <v>6</v>
+      </c>
+      <c r="B98" s="15">
+        <v>96</v>
+      </c>
+      <c r="C98" s="15">
+        <v>8</v>
+      </c>
+      <c r="D98" s="16">
+        <v>3</v>
+      </c>
+      <c r="E98" s="15">
+        <v>1</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H98" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I98" s="16">
+        <v>3</v>
+      </c>
+      <c r="J98" s="83">
+        <v>3</v>
+      </c>
+      <c r="K98" s="83">
+        <v>3</v>
+      </c>
+      <c r="L98" s="65" t="s">
+        <v>592</v>
+      </c>
+      <c r="M98" s="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A99" s="15">
+        <v>6</v>
+      </c>
+      <c r="B99" s="15">
+        <v>97</v>
+      </c>
+      <c r="C99" s="15">
+        <v>8</v>
+      </c>
+      <c r="D99" s="16">
+        <v>3</v>
+      </c>
+      <c r="E99" s="15">
+        <v>1</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I99" s="16">
+        <v>3</v>
+      </c>
+      <c r="J99" s="83">
+        <v>3</v>
+      </c>
+      <c r="K99" s="83">
+        <v>3</v>
+      </c>
+      <c r="L99" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="M99" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A100" s="15">
+        <v>6</v>
+      </c>
+      <c r="B100" s="15">
+        <v>98</v>
+      </c>
+      <c r="C100" s="15">
+        <v>8</v>
+      </c>
+      <c r="D100" s="16">
+        <v>3</v>
+      </c>
+      <c r="E100" s="15">
+        <v>1</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H100" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I100" s="16">
+        <v>3</v>
+      </c>
+      <c r="J100" s="83">
+        <v>3</v>
+      </c>
+      <c r="K100" s="83">
+        <v>3</v>
+      </c>
+      <c r="L100" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="M100" s="15">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="640">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1982,6 +1982,93 @@
   </si>
   <si>
     <t>figura sa normalnim dijagonalama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">složena figura </t>
+  </si>
+  <si>
+    <t>Apsolutna vrednost</t>
+  </si>
+  <si>
+    <t>Suprotan broj, apsolutna vrednost</t>
+  </si>
+  <si>
+    <t>numbers 42</t>
+  </si>
+  <si>
+    <t>Zbir - tabela</t>
+  </si>
+  <si>
+    <t>Razlika - tabela</t>
+  </si>
+  <si>
+    <t>numbers 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zbir/razlika </t>
+  </si>
+  <si>
+    <t>numbers 187</t>
+  </si>
+  <si>
+    <t>Zbir/razlika, poređenje rezultata</t>
+  </si>
+  <si>
+    <t>numbers 39</t>
+  </si>
+  <si>
+    <t>sabiranje</t>
+  </si>
+  <si>
+    <t>numbers 181</t>
+  </si>
+  <si>
+    <t>pitanja</t>
+  </si>
+  <si>
+    <t>Množenje - tabela</t>
+  </si>
+  <si>
+    <t>numbers 90</t>
+  </si>
+  <si>
+    <t>Deljenje - tabela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sve računske operacije - tekst </t>
+  </si>
+  <si>
+    <t>numbers 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sve računske operacije </t>
+  </si>
+  <si>
+    <t>numbers 93</t>
+  </si>
+  <si>
+    <t>numbers 63</t>
+  </si>
+  <si>
+    <t>Sa celim brojevima</t>
+  </si>
+  <si>
+    <t>equations 6</t>
+  </si>
+  <si>
+    <t>equations 16</t>
+  </si>
+  <si>
+    <t>Racionalni brojevi</t>
+  </si>
+  <si>
+    <t>decimalni I razlomci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojam, prikaz na brojevnoj pravoj </t>
+  </si>
+  <si>
+    <t>zapis tacaka na brojevnoj pravoj</t>
   </si>
 </sst>
 </file>
@@ -27397,10 +27484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="I46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27408,7 +27495,7 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" customWidth="1"/>
@@ -29878,6 +29965,129 @@
         <v>31</v>
       </c>
     </row>
+    <row r="62" spans="1:13" s="52" customFormat="1">
+      <c r="A62" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="49">
+        <v>61</v>
+      </c>
+      <c r="C62" s="49">
+        <v>10</v>
+      </c>
+      <c r="D62" s="50">
+        <v>2</v>
+      </c>
+      <c r="E62" s="49">
+        <v>1</v>
+      </c>
+      <c r="F62" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H62" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I62" s="50">
+        <v>1</v>
+      </c>
+      <c r="J62" s="49">
+        <v>2</v>
+      </c>
+      <c r="K62" s="49">
+        <v>2</v>
+      </c>
+      <c r="L62" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="M62" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="52" customFormat="1">
+      <c r="A63" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B63" s="49">
+        <v>62</v>
+      </c>
+      <c r="C63" s="49">
+        <v>10</v>
+      </c>
+      <c r="D63" s="50">
+        <v>2</v>
+      </c>
+      <c r="E63" s="49">
+        <v>2</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H63" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I63" s="50">
+        <v>1</v>
+      </c>
+      <c r="J63" s="49">
+        <v>2</v>
+      </c>
+      <c r="K63" s="49">
+        <v>2</v>
+      </c>
+      <c r="L63" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="M63" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="52" customFormat="1">
+      <c r="A64" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="49">
+        <v>63</v>
+      </c>
+      <c r="C64" s="49">
+        <v>10</v>
+      </c>
+      <c r="D64" s="50">
+        <v>2</v>
+      </c>
+      <c r="E64" s="49">
+        <v>1</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H64" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="I64" s="50">
+        <v>1</v>
+      </c>
+      <c r="J64" s="49">
+        <v>2</v>
+      </c>
+      <c r="K64" s="49">
+        <v>1</v>
+      </c>
+      <c r="L64" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="M64" s="49">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29886,10 +30096,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33973,6 +34183,88 @@
         <v>95</v>
       </c>
     </row>
+    <row r="101" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A101" s="15">
+        <v>6</v>
+      </c>
+      <c r="B101" s="15">
+        <v>99</v>
+      </c>
+      <c r="C101" s="15">
+        <v>8</v>
+      </c>
+      <c r="D101" s="16">
+        <v>3</v>
+      </c>
+      <c r="E101" s="15">
+        <v>2</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I101" s="16">
+        <v>3</v>
+      </c>
+      <c r="J101" s="83">
+        <v>3</v>
+      </c>
+      <c r="K101" s="83">
+        <v>3</v>
+      </c>
+      <c r="L101" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="M101" s="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A102" s="15">
+        <v>6</v>
+      </c>
+      <c r="B102" s="15">
+        <v>100</v>
+      </c>
+      <c r="C102" s="15">
+        <v>8</v>
+      </c>
+      <c r="D102" s="16">
+        <v>3</v>
+      </c>
+      <c r="E102" s="15">
+        <v>3</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="I102" s="16">
+        <v>3</v>
+      </c>
+      <c r="J102" s="83">
+        <v>3</v>
+      </c>
+      <c r="K102" s="83">
+        <v>3</v>
+      </c>
+      <c r="L102" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="M102" s="15">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33981,10 +34273,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34334,7 +34626,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>178</v>
@@ -36319,6 +36611,785 @@
       </c>
       <c r="M58" s="9">
         <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A59" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59" s="49">
+        <v>57</v>
+      </c>
+      <c r="C59" s="49">
+        <v>10</v>
+      </c>
+      <c r="D59" s="50">
+        <v>1</v>
+      </c>
+      <c r="E59" s="49">
+        <v>1</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H59" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="I59" s="50">
+        <v>1</v>
+      </c>
+      <c r="J59" s="49">
+        <v>1</v>
+      </c>
+      <c r="K59" s="49">
+        <v>1</v>
+      </c>
+      <c r="L59" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="M59" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A60" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B60" s="49">
+        <v>57</v>
+      </c>
+      <c r="C60" s="49">
+        <v>10</v>
+      </c>
+      <c r="D60" s="50">
+        <v>1</v>
+      </c>
+      <c r="E60" s="49">
+        <v>1</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H60" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="I60" s="50">
+        <v>1</v>
+      </c>
+      <c r="J60" s="49">
+        <v>1</v>
+      </c>
+      <c r="K60" s="49">
+        <v>2</v>
+      </c>
+      <c r="L60" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="M60" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A61" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="49">
+        <v>58</v>
+      </c>
+      <c r="C61" s="49">
+        <v>10</v>
+      </c>
+      <c r="D61" s="50">
+        <v>1</v>
+      </c>
+      <c r="E61" s="49">
+        <v>2</v>
+      </c>
+      <c r="F61" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H61" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="I61" s="50">
+        <v>1</v>
+      </c>
+      <c r="J61" s="49">
+        <v>1</v>
+      </c>
+      <c r="K61" s="49">
+        <v>1</v>
+      </c>
+      <c r="L61" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="M61" s="49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A62" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="49">
+        <v>58</v>
+      </c>
+      <c r="C62" s="49">
+        <v>10</v>
+      </c>
+      <c r="D62" s="50">
+        <v>1</v>
+      </c>
+      <c r="E62" s="49">
+        <v>2</v>
+      </c>
+      <c r="F62" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H62" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="I62" s="50">
+        <v>1</v>
+      </c>
+      <c r="J62" s="49">
+        <v>1</v>
+      </c>
+      <c r="K62" s="49">
+        <v>2</v>
+      </c>
+      <c r="L62" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="M62" s="49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A63" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B63" s="49">
+        <v>59</v>
+      </c>
+      <c r="C63" s="49">
+        <v>10</v>
+      </c>
+      <c r="D63" s="50">
+        <v>1</v>
+      </c>
+      <c r="E63" s="49">
+        <v>2</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H63" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="I63" s="50">
+        <v>1</v>
+      </c>
+      <c r="J63" s="49">
+        <v>1</v>
+      </c>
+      <c r="K63" s="49">
+        <v>1</v>
+      </c>
+      <c r="L63" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="M63" s="49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="52" customFormat="1">
+      <c r="A64" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="49">
+        <v>60</v>
+      </c>
+      <c r="C64" s="49">
+        <v>10</v>
+      </c>
+      <c r="D64" s="50">
+        <v>1</v>
+      </c>
+      <c r="E64" s="49">
+        <v>1</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H64" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" s="50">
+        <v>1</v>
+      </c>
+      <c r="J64" s="49">
+        <v>1</v>
+      </c>
+      <c r="K64" s="49">
+        <v>3</v>
+      </c>
+      <c r="L64" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="M64" s="49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="52" customFormat="1">
+      <c r="A65" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="49">
+        <v>61</v>
+      </c>
+      <c r="C65" s="49">
+        <v>10</v>
+      </c>
+      <c r="D65" s="50">
+        <v>1</v>
+      </c>
+      <c r="E65" s="49">
+        <v>1</v>
+      </c>
+      <c r="F65" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H65" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" s="50">
+        <v>1</v>
+      </c>
+      <c r="J65" s="49">
+        <v>1</v>
+      </c>
+      <c r="K65" s="49">
+        <v>3</v>
+      </c>
+      <c r="L65" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="M65" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="52" customFormat="1">
+      <c r="A66" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" s="49">
+        <v>62</v>
+      </c>
+      <c r="C66" s="49">
+        <v>10</v>
+      </c>
+      <c r="D66" s="50">
+        <v>1</v>
+      </c>
+      <c r="E66" s="49">
+        <v>2</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" s="50">
+        <v>1</v>
+      </c>
+      <c r="J66" s="49">
+        <v>1</v>
+      </c>
+      <c r="K66" s="49">
+        <v>3</v>
+      </c>
+      <c r="L66" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="M66" s="49" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="52" customFormat="1">
+      <c r="A67" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="49">
+        <v>63</v>
+      </c>
+      <c r="C67" s="49">
+        <v>10</v>
+      </c>
+      <c r="D67" s="50">
+        <v>1</v>
+      </c>
+      <c r="E67" s="49">
+        <v>2</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="50">
+        <v>1</v>
+      </c>
+      <c r="J67" s="49">
+        <v>1</v>
+      </c>
+      <c r="K67" s="49">
+        <v>4</v>
+      </c>
+      <c r="L67" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="M67" s="49">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="52" customFormat="1">
+      <c r="A68" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="49">
+        <v>64</v>
+      </c>
+      <c r="C68" s="49">
+        <v>10</v>
+      </c>
+      <c r="D68" s="50">
+        <v>1</v>
+      </c>
+      <c r="E68" s="49">
+        <v>3</v>
+      </c>
+      <c r="F68" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="50">
+        <v>1</v>
+      </c>
+      <c r="J68" s="49">
+        <v>1</v>
+      </c>
+      <c r="K68" s="49">
+        <v>4</v>
+      </c>
+      <c r="L68" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="M68" s="49">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="52" customFormat="1">
+      <c r="A69" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B69" s="49">
+        <v>65</v>
+      </c>
+      <c r="C69" s="49">
+        <v>10</v>
+      </c>
+      <c r="D69" s="50">
+        <v>1</v>
+      </c>
+      <c r="E69" s="49">
+        <v>3</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="50">
+        <v>1</v>
+      </c>
+      <c r="J69" s="49">
+        <v>1</v>
+      </c>
+      <c r="K69" s="49">
+        <v>4</v>
+      </c>
+      <c r="L69" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="M69" s="49" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="52" customFormat="1">
+      <c r="A70" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" s="49">
+        <v>66</v>
+      </c>
+      <c r="C70" s="49">
+        <v>10</v>
+      </c>
+      <c r="D70" s="50">
+        <v>1</v>
+      </c>
+      <c r="E70" s="49">
+        <v>3</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I70" s="50">
+        <v>1</v>
+      </c>
+      <c r="J70" s="49">
+        <v>1</v>
+      </c>
+      <c r="K70" s="49">
+        <v>3</v>
+      </c>
+      <c r="L70" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="M70" s="49" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A71" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B71" s="49">
+        <v>67</v>
+      </c>
+      <c r="C71" s="49">
+        <v>10</v>
+      </c>
+      <c r="D71" s="50">
+        <v>1</v>
+      </c>
+      <c r="E71" s="49">
+        <v>1</v>
+      </c>
+      <c r="F71" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H71" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="I71" s="50">
+        <v>1</v>
+      </c>
+      <c r="J71" s="49">
+        <v>1</v>
+      </c>
+      <c r="K71" s="49">
+        <v>2</v>
+      </c>
+      <c r="L71" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="M71" s="49" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="52" customFormat="1" ht="30">
+      <c r="A72" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" s="49">
+        <v>68</v>
+      </c>
+      <c r="C72" s="49">
+        <v>8</v>
+      </c>
+      <c r="D72" s="50">
+        <v>1</v>
+      </c>
+      <c r="E72" s="49">
+        <v>1</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H72" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="I72" s="50">
+        <v>1</v>
+      </c>
+      <c r="J72" s="50">
+        <v>1</v>
+      </c>
+      <c r="K72" s="50">
+        <v>1</v>
+      </c>
+      <c r="L72" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="M72" s="49" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="52" customFormat="1">
+      <c r="A73" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="49">
+        <v>69</v>
+      </c>
+      <c r="C73" s="49">
+        <v>10</v>
+      </c>
+      <c r="D73" s="50">
+        <v>1</v>
+      </c>
+      <c r="E73" s="49">
+        <v>2</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H73" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I73" s="50">
+        <v>1</v>
+      </c>
+      <c r="J73" s="49">
+        <v>1</v>
+      </c>
+      <c r="K73" s="49">
+        <v>3</v>
+      </c>
+      <c r="L73" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="M73" s="49" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="52" customFormat="1">
+      <c r="A74" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="49">
+        <v>70</v>
+      </c>
+      <c r="C74" s="49">
+        <v>10</v>
+      </c>
+      <c r="D74" s="50">
+        <v>1</v>
+      </c>
+      <c r="E74" s="49">
+        <v>2</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74" s="50">
+        <v>1</v>
+      </c>
+      <c r="J74" s="49">
+        <v>1</v>
+      </c>
+      <c r="K74" s="49">
+        <v>3</v>
+      </c>
+      <c r="L74" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="M74" s="49">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="52" customFormat="1">
+      <c r="A75" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B75" s="49">
+        <v>71</v>
+      </c>
+      <c r="C75" s="49">
+        <v>10</v>
+      </c>
+      <c r="D75" s="50">
+        <v>1</v>
+      </c>
+      <c r="E75" s="49">
+        <v>2</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="50">
+        <v>1</v>
+      </c>
+      <c r="J75" s="49">
+        <v>1</v>
+      </c>
+      <c r="K75" s="49">
+        <v>4</v>
+      </c>
+      <c r="L75" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="M75" s="49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="52" customFormat="1">
+      <c r="A76" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B76" s="49">
+        <v>72</v>
+      </c>
+      <c r="C76" s="49">
+        <v>10</v>
+      </c>
+      <c r="D76" s="50">
+        <v>1</v>
+      </c>
+      <c r="E76" s="49">
+        <v>1</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" s="50">
+        <v>1</v>
+      </c>
+      <c r="J76" s="49">
+        <v>1</v>
+      </c>
+      <c r="K76" s="49">
+        <v>4</v>
+      </c>
+      <c r="L76" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="M76" s="49" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="52" customFormat="1">
+      <c r="A77" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" s="49">
+        <v>73</v>
+      </c>
+      <c r="C77" s="49">
+        <v>10</v>
+      </c>
+      <c r="D77" s="50">
+        <v>1</v>
+      </c>
+      <c r="E77" s="49">
+        <v>2</v>
+      </c>
+      <c r="F77" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="H77" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I77" s="50">
+        <v>1</v>
+      </c>
+      <c r="J77" s="49">
+        <v>1</v>
+      </c>
+      <c r="K77" s="49">
+        <v>3</v>
+      </c>
+      <c r="L77" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="49" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -36332,10 +37403,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37053,6 +38124,88 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:13" s="52" customFormat="1">
+      <c r="A18" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="49">
+        <v>17</v>
+      </c>
+      <c r="C18" s="49">
+        <v>10</v>
+      </c>
+      <c r="D18" s="50">
+        <v>3</v>
+      </c>
+      <c r="E18" s="49">
+        <v>1</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="I18" s="50">
+        <v>2</v>
+      </c>
+      <c r="J18" s="49">
+        <v>1</v>
+      </c>
+      <c r="K18" s="49">
+        <v>1</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="52" customFormat="1">
+      <c r="A19" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="49">
+        <v>18</v>
+      </c>
+      <c r="C19" s="49">
+        <v>10</v>
+      </c>
+      <c r="D19" s="50">
+        <v>3</v>
+      </c>
+      <c r="E19" s="49">
+        <v>1</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="I19" s="50">
+        <v>2</v>
+      </c>
+      <c r="J19" s="49">
+        <v>1</v>
+      </c>
+      <c r="K19" s="49">
+        <v>1</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A8520E-6977-40F0-BE00-8585B331F7C0}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="651">
   <si>
     <t>RAZRED</t>
   </si>
@@ -2070,12 +2071,45 @@
   <si>
     <t>zapis tacaka na brojevnoj pravoj</t>
   </si>
+  <si>
+    <t>apsolutna vrednost, suprotan broj</t>
+  </si>
+  <si>
+    <t>numb2 59</t>
+  </si>
+  <si>
+    <t>celi brojevi</t>
+  </si>
+  <si>
+    <t>tabela - sabiranje I oduzimanje</t>
+  </si>
+  <si>
+    <t>sabiranje I oduzimanje razlom.</t>
+  </si>
+  <si>
+    <t>sabiranje I oduzimanje decim.</t>
+  </si>
+  <si>
+    <t>sabiranje I oduzimanje decim. I razlomaka</t>
+  </si>
+  <si>
+    <t>tabela - množenje i deljenje</t>
+  </si>
+  <si>
+    <t>množenje i deljenje razlomaka</t>
+  </si>
+  <si>
+    <t>sve operacije decim. I razlomaka</t>
+  </si>
+  <si>
+    <t>apsolutne vrednosti</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2616,7 +2650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2648,9 +2682,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2682,6 +2734,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2857,7 +2927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2865,24 +2935,24 @@
       <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1" ht="30">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1">
+    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>2</v>
       </c>
@@ -2959,7 +3029,7 @@
       </c>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1">
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2995,7 +3065,7 @@
       </c>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1">
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -3031,7 +3101,7 @@
       </c>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1">
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -3067,7 +3137,7 @@
       </c>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -3103,7 +3173,7 @@
       </c>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1">
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2</v>
       </c>
@@ -3139,7 +3209,7 @@
       </c>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1">
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -3175,7 +3245,7 @@
       </c>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="38" customFormat="1">
+    <row r="9" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>3</v>
       </c>
@@ -3211,7 +3281,7 @@
       </c>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1">
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -3247,7 +3317,7 @@
       </c>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1">
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -3283,7 +3353,7 @@
       </c>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1">
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>2</v>
       </c>
@@ -3319,7 +3389,7 @@
       </c>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1">
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -3355,7 +3425,7 @@
       </c>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1">
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2</v>
       </c>
@@ -3391,7 +3461,7 @@
       </c>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1">
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>2</v>
       </c>
@@ -3427,7 +3497,7 @@
       </c>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1">
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -3463,7 +3533,7 @@
       </c>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:12" s="18" customFormat="1">
+    <row r="17" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -3499,7 +3569,7 @@
       </c>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" s="18" customFormat="1">
+    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2</v>
       </c>
@@ -3535,7 +3605,7 @@
       </c>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" s="45" customFormat="1">
+    <row r="19" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>4</v>
       </c>
@@ -3571,7 +3641,7 @@
       </c>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1">
+    <row r="20" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>3</v>
       </c>
@@ -3607,7 +3677,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" s="38" customFormat="1">
+    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>3</v>
       </c>
@@ -3643,7 +3713,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" s="38" customFormat="1">
+    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>3</v>
       </c>
@@ -3679,7 +3749,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" s="45" customFormat="1">
+    <row r="23" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>4</v>
       </c>
@@ -3715,7 +3785,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12" s="38" customFormat="1">
+    <row r="24" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>3</v>
       </c>
@@ -3751,7 +3821,7 @@
       </c>
       <c r="L24" s="39"/>
     </row>
-    <row r="25" spans="1:12" s="38" customFormat="1">
+    <row r="25" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>3</v>
       </c>
@@ -3787,7 +3857,7 @@
       </c>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" s="38" customFormat="1">
+    <row r="26" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>3</v>
       </c>
@@ -3823,7 +3893,7 @@
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" s="38" customFormat="1">
+    <row r="27" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>3</v>
       </c>
@@ -3859,7 +3929,7 @@
       </c>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" s="38" customFormat="1">
+    <row r="28" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <v>3</v>
       </c>
@@ -3895,7 +3965,7 @@
       </c>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" s="45" customFormat="1">
+    <row r="29" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -3931,7 +4001,7 @@
       </c>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12" s="38" customFormat="1">
+    <row r="30" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>3</v>
       </c>
@@ -3967,7 +4037,7 @@
       </c>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" s="38" customFormat="1">
+    <row r="31" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <v>3</v>
       </c>
@@ -4003,7 +4073,7 @@
       </c>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" s="45" customFormat="1">
+    <row r="32" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -4039,7 +4109,7 @@
       </c>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:13" s="38" customFormat="1">
+    <row r="33" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <v>3</v>
       </c>
@@ -4075,7 +4145,7 @@
       </c>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:13" s="38" customFormat="1">
+    <row r="34" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <v>3</v>
       </c>
@@ -4111,7 +4181,7 @@
       </c>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="1:13" s="45" customFormat="1">
+    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>4</v>
       </c>
@@ -4147,7 +4217,7 @@
       </c>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:13" s="45" customFormat="1">
+    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>4</v>
       </c>
@@ -4183,7 +4253,7 @@
       </c>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:13" s="45" customFormat="1">
+    <row r="37" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>4</v>
       </c>
@@ -4219,7 +4289,7 @@
       </c>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:13" s="45" customFormat="1">
+    <row r="38" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>4</v>
       </c>
@@ -4255,7 +4325,7 @@
       </c>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:13" s="38" customFormat="1">
+    <row r="39" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <v>3</v>
       </c>
@@ -4291,7 +4361,7 @@
       </c>
       <c r="L39" s="37"/>
     </row>
-    <row r="40" spans="1:13" s="45" customFormat="1">
+    <row r="40" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42">
         <v>4</v>
       </c>
@@ -4327,7 +4397,7 @@
       </c>
       <c r="L40" s="46"/>
     </row>
-    <row r="41" spans="1:13" s="45" customFormat="1">
+    <row r="41" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42">
         <v>4</v>
       </c>
@@ -4363,7 +4433,7 @@
       </c>
       <c r="L41" s="46"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1">
+    <row r="42" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>2</v>
       </c>
@@ -4399,7 +4469,7 @@
       </c>
       <c r="L42" s="19"/>
     </row>
-    <row r="43" spans="1:13" s="38" customFormat="1">
+    <row r="43" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <v>3</v>
       </c>
@@ -4435,7 +4505,7 @@
       </c>
       <c r="L43" s="37"/>
     </row>
-    <row r="44" spans="1:13" s="38" customFormat="1">
+    <row r="44" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <v>3</v>
       </c>
@@ -4474,7 +4544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="38" customFormat="1">
+    <row r="45" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <v>3</v>
       </c>
@@ -4510,7 +4580,7 @@
       </c>
       <c r="L45" s="37"/>
     </row>
-    <row r="46" spans="1:13" s="38" customFormat="1">
+    <row r="46" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <v>3</v>
       </c>
@@ -4549,7 +4619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="45" customFormat="1">
+    <row r="47" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42">
         <v>4</v>
       </c>
@@ -4585,7 +4655,7 @@
       </c>
       <c r="L47" s="46"/>
     </row>
-    <row r="48" spans="1:13" s="45" customFormat="1">
+    <row r="48" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="42">
         <v>4</v>
       </c>
@@ -4621,7 +4691,7 @@
       </c>
       <c r="L48" s="46"/>
     </row>
-    <row r="49" spans="1:13" s="45" customFormat="1">
+    <row r="49" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42">
         <v>4</v>
       </c>
@@ -4657,7 +4727,7 @@
       </c>
       <c r="L49" s="46"/>
     </row>
-    <row r="50" spans="1:13" s="38" customFormat="1">
+    <row r="50" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34">
         <v>3</v>
       </c>
@@ -4696,7 +4766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="45" customFormat="1">
+    <row r="51" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="42">
         <v>4</v>
       </c>
@@ -4735,7 +4805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="45" customFormat="1">
+    <row r="52" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="42">
         <v>4</v>
       </c>
@@ -4774,7 +4844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="45" customFormat="1">
+    <row r="53" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="42">
         <v>4</v>
       </c>
@@ -4813,7 +4883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1">
+    <row r="54" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34">
         <v>3</v>
       </c>
@@ -4849,7 +4919,7 @@
       </c>
       <c r="L54" s="39"/>
     </row>
-    <row r="55" spans="1:13" s="38" customFormat="1">
+    <row r="55" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="34">
         <v>3</v>
       </c>
@@ -4885,7 +4955,7 @@
       </c>
       <c r="L55" s="39"/>
     </row>
-    <row r="56" spans="1:13" s="38" customFormat="1">
+    <row r="56" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34">
         <v>3</v>
       </c>
@@ -4921,7 +4991,7 @@
       </c>
       <c r="L56" s="39"/>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1">
+    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34">
         <v>3</v>
       </c>
@@ -4957,7 +5027,7 @@
       </c>
       <c r="L57" s="37"/>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1">
+    <row r="58" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34">
         <v>3</v>
       </c>
@@ -4993,7 +5063,7 @@
       </c>
       <c r="L58" s="37"/>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1">
+    <row r="59" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="34">
         <v>3</v>
       </c>
@@ -5029,7 +5099,7 @@
       </c>
       <c r="L59" s="37"/>
     </row>
-    <row r="60" spans="1:13" s="45" customFormat="1">
+    <row r="60" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
         <v>4</v>
       </c>
@@ -5068,7 +5138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="45" customFormat="1">
+    <row r="61" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="42">
         <v>4</v>
       </c>
@@ -5107,7 +5177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1">
+    <row r="62" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="34">
         <v>3</v>
       </c>
@@ -5143,7 +5213,7 @@
       </c>
       <c r="L62" s="37"/>
     </row>
-    <row r="63" spans="1:13" s="45" customFormat="1">
+    <row r="63" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="42">
         <v>4</v>
       </c>
@@ -5179,7 +5249,7 @@
       </c>
       <c r="L63" s="46"/>
     </row>
-    <row r="64" spans="1:13" s="45" customFormat="1">
+    <row r="64" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="42">
         <v>4</v>
       </c>
@@ -5220,7 +5290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="45" customFormat="1">
+    <row r="65" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="42">
         <v>4</v>
       </c>
@@ -5261,7 +5331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="45" customFormat="1">
+    <row r="66" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>4</v>
       </c>
@@ -5300,7 +5370,7 @@
       </c>
       <c r="M66" s="42"/>
     </row>
-    <row r="67" spans="1:13" s="45" customFormat="1">
+    <row r="67" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="42">
         <v>4</v>
       </c>
@@ -5341,7 +5411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="45" customFormat="1">
+    <row r="68" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="42">
         <v>4</v>
       </c>
@@ -5382,7 +5452,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="45" customFormat="1">
+    <row r="69" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="42">
         <v>4</v>
       </c>
@@ -5430,30 +5500,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" customHeight="1">
+    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -5494,7 +5564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="15.75">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>6</v>
       </c>
@@ -5532,7 +5602,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="15.75">
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>6</v>
       </c>
@@ -5570,7 +5640,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="15.75">
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>6</v>
       </c>
@@ -5608,7 +5678,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -5649,7 +5719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -5690,7 +5760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -5731,7 +5801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -5772,7 +5842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -5813,7 +5883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -5854,7 +5924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -5895,7 +5965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -5936,7 +6006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -5977,7 +6047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -6016,7 +6086,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -6055,7 +6125,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -6094,7 +6164,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -6133,7 +6203,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -6172,7 +6242,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>5</v>
       </c>
@@ -6213,7 +6283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>5</v>
       </c>
@@ -6254,7 +6324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>5</v>
       </c>
@@ -6295,7 +6365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>5</v>
       </c>
@@ -6334,7 +6404,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>5</v>
       </c>
@@ -6373,7 +6443,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6412,7 +6482,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>5</v>
       </c>
@@ -6451,7 +6521,7 @@
       </c>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>5</v>
       </c>
@@ -6492,7 +6562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>5</v>
       </c>
@@ -6533,7 +6603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>5</v>
       </c>
@@ -6572,7 +6642,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>5</v>
       </c>
@@ -6611,7 +6681,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>5</v>
       </c>
@@ -6652,7 +6722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>5</v>
       </c>
@@ -6691,7 +6761,7 @@
       </c>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>5</v>
       </c>
@@ -6730,7 +6800,7 @@
       </c>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>5</v>
       </c>
@@ -6771,7 +6841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>5</v>
       </c>
@@ -6812,7 +6882,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>5</v>
       </c>
@@ -6853,7 +6923,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="36" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>5</v>
       </c>
@@ -6894,7 +6964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>5</v>
       </c>
@@ -6935,7 +7005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="38" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>5</v>
       </c>
@@ -6974,7 +7044,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>5</v>
       </c>
@@ -7015,7 +7085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>5</v>
       </c>
@@ -7056,7 +7126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>5</v>
       </c>
@@ -7097,7 +7167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>5</v>
       </c>
@@ -7143,7 +7213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -7151,22 +7221,22 @@
       <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="32" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7207,7 +7277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1">
+    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -7244,7 +7314,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1">
+    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -7281,7 +7351,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1">
+    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7318,7 +7388,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1">
+    <row r="5" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -7355,7 +7425,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1">
+    <row r="6" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -7392,7 +7462,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1">
+    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -7429,7 +7499,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1">
+    <row r="8" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -7466,7 +7536,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1">
+    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -7503,7 +7573,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1">
+    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -7540,7 +7610,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1">
+    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -7577,7 +7647,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1">
+    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -7614,7 +7684,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1">
+    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -7651,7 +7721,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1">
+    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -7688,7 +7758,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1">
+    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -7725,7 +7795,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1">
+    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -7762,7 +7832,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="25" customFormat="1">
+    <row r="17" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -7799,7 +7869,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>3</v>
       </c>
@@ -7836,7 +7906,7 @@
       <c r="L18" s="63"/>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>3</v>
       </c>
@@ -7875,7 +7945,7 @@
       </c>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>3</v>
       </c>
@@ -7914,7 +7984,7 @@
       </c>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>3</v>
       </c>
@@ -7953,7 +8023,7 @@
       </c>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13" s="38" customFormat="1">
+    <row r="22" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>3</v>
       </c>
@@ -7992,7 +8062,7 @@
       </c>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" s="38" customFormat="1">
+    <row r="23" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>3</v>
       </c>
@@ -8031,7 +8101,7 @@
       </c>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13" s="38" customFormat="1">
+    <row r="24" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>3</v>
       </c>
@@ -8068,7 +8138,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1">
+    <row r="25" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>3</v>
       </c>
@@ -8105,7 +8175,7 @@
       <c r="L25" s="37"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="26" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>3</v>
       </c>
@@ -8142,7 +8212,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>3</v>
       </c>
@@ -8179,7 +8249,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>4</v>
       </c>
@@ -8218,7 +8288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -8257,7 +8327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
         <v>4</v>
       </c>
@@ -8296,7 +8366,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>4</v>
       </c>
@@ -8335,7 +8405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -8372,7 +8442,7 @@
       <c r="L32" s="48"/>
       <c r="M32" s="42"/>
     </row>
-    <row r="33" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <v>4</v>
       </c>
@@ -8411,7 +8481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>4</v>
       </c>
@@ -8450,7 +8520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <v>3</v>
       </c>
@@ -8487,7 +8557,7 @@
       <c r="L35" s="63"/>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <v>3</v>
       </c>
@@ -8526,7 +8596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <v>3</v>
       </c>
@@ -8565,7 +8635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <v>3</v>
       </c>
@@ -8602,7 +8672,7 @@
       <c r="L38" s="63"/>
       <c r="M38" s="34"/>
     </row>
-    <row r="39" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <v>3</v>
       </c>
@@ -8641,7 +8711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <v>3</v>
       </c>
@@ -8680,7 +8750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <v>3</v>
       </c>
@@ -8717,7 +8787,7 @@
       <c r="L41" s="63"/>
       <c r="M41" s="34"/>
     </row>
-    <row r="42" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
         <v>3</v>
       </c>
@@ -8756,7 +8826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <v>3</v>
       </c>
@@ -8795,7 +8865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <v>3</v>
       </c>
@@ -8834,7 +8904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <v>3</v>
       </c>
@@ -8873,7 +8943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <v>3</v>
       </c>
@@ -8910,7 +8980,7 @@
       <c r="L46" s="63"/>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <v>3</v>
       </c>
@@ -8947,7 +9017,7 @@
       <c r="L47" s="63"/>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="1:13" s="13" customFormat="1">
+    <row r="48" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>1</v>
       </c>
@@ -8984,7 +9054,7 @@
       <c r="L48" s="11"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13" s="13" customFormat="1">
+    <row r="49" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>1</v>
       </c>
@@ -9021,7 +9091,7 @@
       <c r="L49" s="11"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" s="13" customFormat="1">
+    <row r="50" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -9058,7 +9128,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1">
+    <row r="51" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>1</v>
       </c>
@@ -9095,7 +9165,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1">
+    <row r="52" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>1</v>
       </c>
@@ -9132,7 +9202,7 @@
       <c r="L52" s="12"/>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" spans="1:13" s="18" customFormat="1">
+    <row r="53" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>2</v>
       </c>
@@ -9171,7 +9241,7 @@
       </c>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1">
+    <row r="54" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34">
         <v>3</v>
       </c>
@@ -9210,7 +9280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="38" customFormat="1">
+    <row r="55" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="34">
         <v>3</v>
       </c>
@@ -9251,7 +9321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="38" customFormat="1">
+    <row r="56" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34">
         <v>3</v>
       </c>
@@ -9292,7 +9362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1">
+    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34">
         <v>3</v>
       </c>
@@ -9329,7 +9399,7 @@
       <c r="L57" s="36"/>
       <c r="M57" s="34"/>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1">
+    <row r="58" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34">
         <v>3</v>
       </c>
@@ -9366,7 +9436,7 @@
       <c r="L58" s="36"/>
       <c r="M58" s="34"/>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="34">
         <v>3</v>
       </c>
@@ -9405,7 +9475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="34">
         <v>3</v>
       </c>
@@ -9444,7 +9514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34">
         <v>3</v>
       </c>
@@ -9481,7 +9551,7 @@
       <c r="L61" s="36"/>
       <c r="M61" s="34"/>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="34">
         <v>3</v>
       </c>
@@ -9518,7 +9588,7 @@
       <c r="L62" s="36"/>
       <c r="M62" s="34"/>
     </row>
-    <row r="63" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -9555,7 +9625,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>2</v>
       </c>
@@ -9592,7 +9662,7 @@
       <c r="L64" s="17"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>2</v>
       </c>
@@ -9633,7 +9703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="18" customFormat="1" ht="15.75">
+    <row r="66" spans="1:13" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>2</v>
       </c>
@@ -9674,7 +9744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>2</v>
       </c>
@@ -9715,7 +9785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <v>3</v>
       </c>
@@ -9752,7 +9822,7 @@
       <c r="L68" s="63"/>
       <c r="M68" s="34"/>
     </row>
-    <row r="69" spans="1:13" s="38" customFormat="1">
+    <row r="69" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="34">
         <v>3</v>
       </c>
@@ -9791,7 +9861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="38" customFormat="1">
+    <row r="70" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <v>3</v>
       </c>
@@ -9830,7 +9900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34">
         <v>3</v>
       </c>
@@ -9869,7 +9939,7 @@
       </c>
       <c r="M71" s="34"/>
     </row>
-    <row r="72" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34">
         <v>3</v>
       </c>
@@ -9910,7 +9980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="34">
         <v>3</v>
       </c>
@@ -9949,7 +10019,7 @@
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="34">
         <v>3</v>
       </c>
@@ -9988,7 +10058,7 @@
       </c>
       <c r="M74" s="34"/>
     </row>
-    <row r="75" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="34">
         <v>3</v>
       </c>
@@ -10027,7 +10097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="34">
         <v>3</v>
       </c>
@@ -10066,7 +10136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>2</v>
       </c>
@@ -10107,7 +10177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>2</v>
       </c>
@@ -10146,7 +10216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>2</v>
       </c>
@@ -10187,7 +10257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>2</v>
       </c>
@@ -10226,7 +10296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>2</v>
       </c>
@@ -10265,7 +10335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>2</v>
       </c>
@@ -10304,7 +10374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>2</v>
       </c>
@@ -10343,7 +10413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>2</v>
       </c>
@@ -10380,7 +10450,7 @@
       <c r="L84" s="64"/>
       <c r="M84" s="15"/>
     </row>
-    <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>2</v>
       </c>
@@ -10419,7 +10489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="13" customFormat="1">
+    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>1</v>
       </c>
@@ -10456,7 +10526,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="42">
         <v>4</v>
       </c>
@@ -10497,7 +10567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
+    <row r="88" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>2</v>
       </c>
@@ -10536,7 +10606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="42">
         <v>4</v>
       </c>
@@ -10574,7 +10644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="13" customFormat="1">
+    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>1</v>
       </c>
@@ -10613,7 +10683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="13" customFormat="1">
+    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>1</v>
       </c>
@@ -10652,7 +10722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="13" customFormat="1">
+    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>1</v>
       </c>
@@ -10689,7 +10759,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93" spans="1:13" s="13" customFormat="1">
+    <row r="93" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>1</v>
       </c>
@@ -10735,7 +10805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N256"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -10743,24 +10813,24 @@
       <selection pane="bottomLeft" activeCell="L239" sqref="L239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="35.6640625" style="5" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="35.25" customHeight="1">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -10802,7 +10872,7 @@
       </c>
       <c r="N1" s="72"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1">
+    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -10841,7 +10911,7 @@
       </c>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1">
+    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -10882,7 +10952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1">
+    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -10921,7 +10991,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
+    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -10960,7 +11030,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1">
+    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -10999,7 +11069,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1">
+    <row r="7" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -11038,7 +11108,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1">
+    <row r="8" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -11077,7 +11147,7 @@
       </c>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="19.5" customHeight="1">
+    <row r="9" spans="1:14" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -11116,7 +11186,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="18" customFormat="1">
+    <row r="10" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
@@ -11155,7 +11225,7 @@
       </c>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1">
+    <row r="11" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -11194,7 +11264,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1">
+    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -11233,7 +11303,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1">
+    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -11272,7 +11342,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>2</v>
       </c>
@@ -11311,7 +11381,7 @@
       </c>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1">
+    <row r="15" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -11350,7 +11420,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:14" s="31" customFormat="1">
+    <row r="16" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>1</v>
       </c>
@@ -11389,7 +11459,7 @@
       </c>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1">
+    <row r="17" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -11428,7 +11498,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1">
+    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -11467,7 +11537,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -11506,7 +11576,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -11545,7 +11615,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1">
+    <row r="21" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -11584,7 +11654,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1">
+    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -11623,7 +11693,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -11660,7 +11730,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1">
+    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>2</v>
       </c>
@@ -11699,7 +11769,7 @@
       </c>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1">
+    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>2</v>
       </c>
@@ -11738,7 +11808,7 @@
       </c>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1">
+    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
         <v>2</v>
       </c>
@@ -11777,7 +11847,7 @@
       </c>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1">
+    <row r="27" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -11816,7 +11886,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1">
+    <row r="28" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>1</v>
       </c>
@@ -11855,7 +11925,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1">
+    <row r="29" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -11894,7 +11964,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1">
+    <row r="30" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>1</v>
       </c>
@@ -11935,7 +12005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -11976,7 +12046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1">
+    <row r="32" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>1</v>
       </c>
@@ -12017,7 +12087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1">
+    <row r="33" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>1</v>
       </c>
@@ -12058,7 +12128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>1</v>
       </c>
@@ -12099,7 +12169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1">
+    <row r="35" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>1</v>
       </c>
@@ -12140,7 +12210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32">
         <v>2</v>
       </c>
@@ -12181,7 +12251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32">
         <v>2</v>
       </c>
@@ -12222,7 +12292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1">
+    <row r="38" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32">
         <v>2</v>
       </c>
@@ -12263,7 +12333,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1">
+    <row r="39" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32">
         <v>2</v>
       </c>
@@ -12304,7 +12374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1">
+    <row r="40" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32">
         <v>2</v>
       </c>
@@ -12345,7 +12415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1">
+    <row r="41" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32">
         <v>2</v>
       </c>
@@ -12384,7 +12454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1">
+    <row r="42" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32">
         <v>2</v>
       </c>
@@ -12425,7 +12495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1">
+    <row r="43" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32">
         <v>2</v>
       </c>
@@ -12466,7 +12536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1">
+    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32">
         <v>2</v>
       </c>
@@ -12507,7 +12577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32">
         <v>2</v>
       </c>
@@ -12548,7 +12618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1">
+    <row r="46" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32">
         <v>2</v>
       </c>
@@ -12589,7 +12659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1">
+    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32">
         <v>2</v>
       </c>
@@ -12630,7 +12700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1">
+    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="32">
         <v>2</v>
       </c>
@@ -12671,7 +12741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="18" customFormat="1">
+    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32">
         <v>2</v>
       </c>
@@ -12712,7 +12782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="18" customFormat="1">
+    <row r="50" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="32">
         <v>2</v>
       </c>
@@ -12753,7 +12823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1">
+    <row r="51" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>1</v>
       </c>
@@ -12792,7 +12862,7 @@
       </c>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" s="38" customFormat="1">
+    <row r="52" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>3</v>
       </c>
@@ -12833,7 +12903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="53" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>3</v>
       </c>
@@ -12874,7 +12944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="54" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>3</v>
       </c>
@@ -12915,7 +12985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1">
+    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="32">
         <v>2</v>
       </c>
@@ -12954,7 +13024,7 @@
       </c>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="32">
         <v>2</v>
       </c>
@@ -12995,7 +13065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1">
+    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>3</v>
       </c>
@@ -13036,7 +13106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1">
+    <row r="58" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>3</v>
       </c>
@@ -13077,7 +13147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="59" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>3</v>
       </c>
@@ -13118,7 +13188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
+    <row r="60" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>3</v>
       </c>
@@ -13159,7 +13229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>3</v>
       </c>
@@ -13200,7 +13270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="62" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>3</v>
       </c>
@@ -13241,7 +13311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="38" customFormat="1">
+    <row r="63" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>3</v>
       </c>
@@ -13282,7 +13352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="38" customFormat="1">
+    <row r="64" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>3</v>
       </c>
@@ -13323,7 +13393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="38" customFormat="1">
+    <row r="65" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>3</v>
       </c>
@@ -13364,7 +13434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="38" customFormat="1">
+    <row r="66" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>3</v>
       </c>
@@ -13405,7 +13475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="38" customFormat="1">
+    <row r="67" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>3</v>
       </c>
@@ -13446,7 +13516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="38" customFormat="1">
+    <row r="68" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>3</v>
       </c>
@@ -13487,7 +13557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="38" customFormat="1">
+    <row r="69" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>3</v>
       </c>
@@ -13528,7 +13598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="38" customFormat="1">
+    <row r="70" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="40" t="s">
         <v>60</v>
       </c>
@@ -13567,7 +13637,7 @@
       </c>
       <c r="M70" s="34"/>
     </row>
-    <row r="71" spans="1:13" s="38" customFormat="1">
+    <row r="71" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>3</v>
       </c>
@@ -13608,7 +13678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="72" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>3</v>
       </c>
@@ -13647,7 +13717,7 @@
       </c>
       <c r="M72" s="34"/>
     </row>
-    <row r="73" spans="1:13" s="38" customFormat="1" ht="19.5" customHeight="1">
+    <row r="73" spans="1:13" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>3</v>
       </c>
@@ -13686,7 +13756,7 @@
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" s="38" customFormat="1">
+    <row r="74" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>3</v>
       </c>
@@ -13727,7 +13797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="38" customFormat="1">
+    <row r="75" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>3</v>
       </c>
@@ -13768,7 +13838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="38" customFormat="1">
+    <row r="76" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>3</v>
       </c>
@@ -13809,7 +13879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="38" customFormat="1">
+    <row r="77" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>3</v>
       </c>
@@ -13850,7 +13920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="38" customFormat="1" ht="18.75" customHeight="1">
+    <row r="78" spans="1:13" s="38" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>3</v>
       </c>
@@ -13891,7 +13961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="79" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>3</v>
       </c>
@@ -13932,7 +14002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="38" customFormat="1">
+    <row r="80" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>3</v>
       </c>
@@ -13973,7 +14043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="38" customFormat="1">
+    <row r="81" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>3</v>
       </c>
@@ -14014,7 +14084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="38" customFormat="1">
+    <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>3</v>
       </c>
@@ -14055,7 +14125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="38" customFormat="1">
+    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>3</v>
       </c>
@@ -14096,7 +14166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="38" customFormat="1">
+    <row r="84" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>3</v>
       </c>
@@ -14137,7 +14207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="38" customFormat="1">
+    <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>3</v>
       </c>
@@ -14178,7 +14248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="38" customFormat="1">
+    <row r="86" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>3</v>
       </c>
@@ -14219,7 +14289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="38" customFormat="1">
+    <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>3</v>
       </c>
@@ -14260,7 +14330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="38" customFormat="1">
+    <row r="88" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>3</v>
       </c>
@@ -14301,7 +14371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="38" customFormat="1">
+    <row r="89" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>3</v>
       </c>
@@ -14342,7 +14412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="38" customFormat="1">
+    <row r="90" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>3</v>
       </c>
@@ -14381,7 +14451,7 @@
       </c>
       <c r="M90" s="34"/>
     </row>
-    <row r="91" spans="1:13" s="38" customFormat="1">
+    <row r="91" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>3</v>
       </c>
@@ -14420,7 +14490,7 @@
       </c>
       <c r="M91" s="34"/>
     </row>
-    <row r="92" spans="1:13" s="38" customFormat="1">
+    <row r="92" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>3</v>
       </c>
@@ -14459,7 +14529,7 @@
       </c>
       <c r="M92" s="34"/>
     </row>
-    <row r="93" spans="1:13" s="38" customFormat="1">
+    <row r="93" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>3</v>
       </c>
@@ -14498,7 +14568,7 @@
       </c>
       <c r="M93" s="34"/>
     </row>
-    <row r="94" spans="1:13" s="38" customFormat="1">
+    <row r="94" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>3</v>
       </c>
@@ -14539,7 +14609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="38" customFormat="1">
+    <row r="95" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>3</v>
       </c>
@@ -14578,7 +14648,7 @@
       </c>
       <c r="M95" s="34"/>
     </row>
-    <row r="96" spans="1:13" s="38" customFormat="1">
+    <row r="96" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>3</v>
       </c>
@@ -14619,7 +14689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="38" customFormat="1">
+    <row r="97" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>3</v>
       </c>
@@ -14658,7 +14728,7 @@
       </c>
       <c r="M97" s="34"/>
     </row>
-    <row r="98" spans="1:13" s="38" customFormat="1">
+    <row r="98" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>3</v>
       </c>
@@ -14699,7 +14769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="99" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>3</v>
       </c>
@@ -14740,7 +14810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="100" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>3</v>
       </c>
@@ -14779,7 +14849,7 @@
       </c>
       <c r="M100" s="34"/>
     </row>
-    <row r="101" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="101" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>3</v>
       </c>
@@ -14820,7 +14890,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="102" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>3</v>
       </c>
@@ -14861,7 +14931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="103" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>3</v>
       </c>
@@ -14900,7 +14970,7 @@
       </c>
       <c r="M103" s="34"/>
     </row>
-    <row r="104" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
+    <row r="104" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
         <v>23</v>
       </c>
@@ -14939,7 +15009,7 @@
       </c>
       <c r="M104" s="15"/>
     </row>
-    <row r="105" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
+    <row r="105" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>23</v>
       </c>
@@ -14980,7 +15050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="38" customFormat="1">
+    <row r="106" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>3</v>
       </c>
@@ -15019,7 +15089,7 @@
       </c>
       <c r="M106" s="34"/>
     </row>
-    <row r="107" spans="1:13" s="38" customFormat="1">
+    <row r="107" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>3</v>
       </c>
@@ -15058,7 +15128,7 @@
       </c>
       <c r="M107" s="34"/>
     </row>
-    <row r="108" spans="1:13" s="38" customFormat="1">
+    <row r="108" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>3</v>
       </c>
@@ -15099,7 +15169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="38" customFormat="1">
+    <row r="109" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>3</v>
       </c>
@@ -15138,7 +15208,7 @@
       </c>
       <c r="M109" s="34"/>
     </row>
-    <row r="110" spans="1:13" s="38" customFormat="1">
+    <row r="110" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>3</v>
       </c>
@@ -15179,7 +15249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="38" customFormat="1">
+    <row r="111" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>3</v>
       </c>
@@ -15218,7 +15288,7 @@
       </c>
       <c r="M111" s="34"/>
     </row>
-    <row r="112" spans="1:13" s="38" customFormat="1">
+    <row r="112" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>3</v>
       </c>
@@ -15257,7 +15327,7 @@
       </c>
       <c r="M112" s="34"/>
     </row>
-    <row r="113" spans="1:13" s="38" customFormat="1">
+    <row r="113" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>3</v>
       </c>
@@ -15296,7 +15366,7 @@
       </c>
       <c r="M113" s="34"/>
     </row>
-    <row r="114" spans="1:13" s="38" customFormat="1">
+    <row r="114" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>3</v>
       </c>
@@ -15335,7 +15405,7 @@
       </c>
       <c r="M114" s="34"/>
     </row>
-    <row r="115" spans="1:13" s="38" customFormat="1">
+    <row r="115" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>3</v>
       </c>
@@ -15374,7 +15444,7 @@
       </c>
       <c r="M115" s="34"/>
     </row>
-    <row r="116" spans="1:13" s="38" customFormat="1">
+    <row r="116" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>3</v>
       </c>
@@ -15413,7 +15483,7 @@
       </c>
       <c r="M116" s="34"/>
     </row>
-    <row r="117" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1">
+    <row r="117" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="47">
         <v>4</v>
       </c>
@@ -15454,7 +15524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="45" customFormat="1">
+    <row r="118" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="47">
         <v>4</v>
       </c>
@@ -15495,7 +15565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="45" customFormat="1">
+    <row r="119" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="47">
         <v>4</v>
       </c>
@@ -15536,7 +15606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="45" customFormat="1">
+    <row r="120" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="47">
         <v>4</v>
       </c>
@@ -15575,7 +15645,7 @@
       </c>
       <c r="M120" s="42"/>
     </row>
-    <row r="121" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="121" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="47">
         <v>4</v>
       </c>
@@ -15616,7 +15686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1">
+    <row r="122" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="47">
         <v>4</v>
       </c>
@@ -15657,7 +15727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="45" customFormat="1">
+    <row r="123" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="47">
         <v>4</v>
       </c>
@@ -15698,7 +15768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="124" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="47" t="s">
         <v>62</v>
       </c>
@@ -15737,7 +15807,7 @@
       </c>
       <c r="M124" s="42"/>
     </row>
-    <row r="125" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="125" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="47">
         <v>4</v>
       </c>
@@ -15776,7 +15846,7 @@
       </c>
       <c r="M125" s="42"/>
     </row>
-    <row r="126" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1">
+    <row r="126" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="40" t="s">
         <v>60</v>
       </c>
@@ -15815,7 +15885,7 @@
       </c>
       <c r="M126" s="34"/>
     </row>
-    <row r="127" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1">
+    <row r="127" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="47" t="s">
         <v>62</v>
       </c>
@@ -15854,7 +15924,7 @@
       </c>
       <c r="M127" s="42"/>
     </row>
-    <row r="128" spans="1:13" s="45" customFormat="1">
+    <row r="128" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="47">
         <v>4</v>
       </c>
@@ -15893,7 +15963,7 @@
       </c>
       <c r="M128" s="42"/>
     </row>
-    <row r="129" spans="1:13" s="13" customFormat="1">
+    <row r="129" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>9</v>
       </c>
@@ -15932,7 +16002,7 @@
       </c>
       <c r="M129" s="9"/>
     </row>
-    <row r="130" spans="1:13" s="18" customFormat="1">
+    <row r="130" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
         <v>23</v>
       </c>
@@ -15971,7 +16041,7 @@
       </c>
       <c r="M130" s="15"/>
     </row>
-    <row r="131" spans="1:13" s="45" customFormat="1">
+    <row r="131" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>62</v>
       </c>
@@ -16010,7 +16080,7 @@
       </c>
       <c r="M131" s="42"/>
     </row>
-    <row r="132" spans="1:13" s="45" customFormat="1">
+    <row r="132" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
         <v>62</v>
       </c>
@@ -16049,7 +16119,7 @@
       </c>
       <c r="M132" s="42"/>
     </row>
-    <row r="133" spans="1:13" s="45" customFormat="1">
+    <row r="133" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>62</v>
       </c>
@@ -16088,7 +16158,7 @@
       </c>
       <c r="M133" s="42"/>
     </row>
-    <row r="134" spans="1:13" s="45" customFormat="1">
+    <row r="134" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="47" t="s">
         <v>62</v>
       </c>
@@ -16127,7 +16197,7 @@
       </c>
       <c r="M134" s="42"/>
     </row>
-    <row r="135" spans="1:13" s="45" customFormat="1">
+    <row r="135" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>62</v>
       </c>
@@ -16166,7 +16236,7 @@
       </c>
       <c r="M135" s="42"/>
     </row>
-    <row r="136" spans="1:13" s="45" customFormat="1">
+    <row r="136" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="47" t="s">
         <v>62</v>
       </c>
@@ -16205,7 +16275,7 @@
       </c>
       <c r="M136" s="42"/>
     </row>
-    <row r="137" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
+    <row r="137" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
         <v>62</v>
       </c>
@@ -16244,7 +16314,7 @@
       </c>
       <c r="M137" s="42"/>
     </row>
-    <row r="138" spans="1:13" s="45" customFormat="1">
+    <row r="138" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
         <v>62</v>
       </c>
@@ -16283,7 +16353,7 @@
       </c>
       <c r="M138" s="42"/>
     </row>
-    <row r="139" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="139" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="47" t="s">
         <v>62</v>
       </c>
@@ -16322,7 +16392,7 @@
       </c>
       <c r="M139" s="42"/>
     </row>
-    <row r="140" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="140" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>9</v>
       </c>
@@ -16359,7 +16429,7 @@
       <c r="L140" s="12"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="141" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>9</v>
       </c>
@@ -16396,7 +16466,7 @@
       <c r="L141" s="12"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142" spans="1:13" s="38" customFormat="1">
+    <row r="142" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>3</v>
       </c>
@@ -16437,7 +16507,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="143" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="32">
         <v>2</v>
       </c>
@@ -16478,7 +16548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="144" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="32">
         <v>2</v>
       </c>
@@ -16519,7 +16589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="38" customFormat="1">
+    <row r="145" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="40" t="s">
         <v>60</v>
       </c>
@@ -16558,7 +16628,7 @@
       </c>
       <c r="M145" s="34"/>
     </row>
-    <row r="146" spans="1:13" s="38" customFormat="1">
+    <row r="146" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="40" t="s">
         <v>60</v>
       </c>
@@ -16597,7 +16667,7 @@
       </c>
       <c r="M146" s="34"/>
     </row>
-    <row r="147" spans="1:13" s="38" customFormat="1">
+    <row r="147" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
         <v>60</v>
       </c>
@@ -16638,7 +16708,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="18" customFormat="1">
+    <row r="148" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="32" t="s">
         <v>23</v>
       </c>
@@ -16679,7 +16749,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="45" customFormat="1">
+    <row r="149" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="47" t="s">
         <v>62</v>
       </c>
@@ -16720,7 +16790,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="150" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
         <v>62</v>
       </c>
@@ -16759,7 +16829,7 @@
       </c>
       <c r="M150" s="42"/>
     </row>
-    <row r="151" spans="1:13" s="45" customFormat="1">
+    <row r="151" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="47" t="s">
         <v>62</v>
       </c>
@@ -16798,7 +16868,7 @@
       </c>
       <c r="M151" s="42"/>
     </row>
-    <row r="152" spans="1:13" s="38" customFormat="1">
+    <row r="152" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="40" t="s">
         <v>60</v>
       </c>
@@ -16837,7 +16907,7 @@
       </c>
       <c r="M152" s="34"/>
     </row>
-    <row r="153" spans="1:13" s="38" customFormat="1">
+    <row r="153" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="40" t="s">
         <v>60</v>
       </c>
@@ -16878,7 +16948,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="45" customFormat="1">
+    <row r="154" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
         <v>62</v>
       </c>
@@ -16917,7 +16987,7 @@
       </c>
       <c r="M154" s="42"/>
     </row>
-    <row r="155" spans="1:13" s="45" customFormat="1">
+    <row r="155" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="47" t="s">
         <v>62</v>
       </c>
@@ -16956,7 +17026,7 @@
       </c>
       <c r="M155" s="42"/>
     </row>
-    <row r="156" spans="1:13" s="45" customFormat="1">
+    <row r="156" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="47" t="s">
         <v>62</v>
       </c>
@@ -16995,7 +17065,7 @@
       </c>
       <c r="M156" s="42"/>
     </row>
-    <row r="157" spans="1:13" s="45" customFormat="1">
+    <row r="157" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>62</v>
       </c>
@@ -17034,7 +17104,7 @@
       </c>
       <c r="M157" s="42"/>
     </row>
-    <row r="158" spans="1:13" s="45" customFormat="1">
+    <row r="158" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>62</v>
       </c>
@@ -17073,7 +17143,7 @@
       </c>
       <c r="M158" s="42"/>
     </row>
-    <row r="159" spans="1:13" s="45" customFormat="1">
+    <row r="159" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>62</v>
       </c>
@@ -17112,7 +17182,7 @@
       </c>
       <c r="M159" s="42"/>
     </row>
-    <row r="160" spans="1:13" s="18" customFormat="1">
+    <row r="160" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
         <v>23</v>
       </c>
@@ -17151,7 +17221,7 @@
       </c>
       <c r="M160" s="15"/>
     </row>
-    <row r="161" spans="1:13" s="18" customFormat="1">
+    <row r="161" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>23</v>
       </c>
@@ -17192,7 +17262,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
+    <row r="162" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>23</v>
       </c>
@@ -17231,7 +17301,7 @@
       </c>
       <c r="M162" s="15"/>
     </row>
-    <row r="163" spans="1:13" s="18" customFormat="1">
+    <row r="163" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>23</v>
       </c>
@@ -17270,7 +17340,7 @@
       </c>
       <c r="M163" s="15"/>
     </row>
-    <row r="164" spans="1:13" s="18" customFormat="1">
+    <row r="164" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>23</v>
       </c>
@@ -17309,7 +17379,7 @@
       </c>
       <c r="M164" s="15"/>
     </row>
-    <row r="165" spans="1:13" s="18" customFormat="1">
+    <row r="165" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
         <v>23</v>
       </c>
@@ -17348,7 +17418,7 @@
       </c>
       <c r="M165" s="15"/>
     </row>
-    <row r="166" spans="1:13" s="38" customFormat="1">
+    <row r="166" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="40" t="s">
         <v>60</v>
       </c>
@@ -17387,7 +17457,7 @@
       </c>
       <c r="M166" s="34"/>
     </row>
-    <row r="167" spans="1:13" s="18" customFormat="1">
+    <row r="167" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
         <v>23</v>
       </c>
@@ -17426,7 +17496,7 @@
       </c>
       <c r="M167" s="15"/>
     </row>
-    <row r="168" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="168" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
         <v>23</v>
       </c>
@@ -17465,7 +17535,7 @@
       </c>
       <c r="M168" s="15"/>
     </row>
-    <row r="169" spans="1:13" s="18" customFormat="1">
+    <row r="169" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>23</v>
       </c>
@@ -17504,7 +17574,7 @@
       </c>
       <c r="M169" s="15"/>
     </row>
-    <row r="170" spans="1:13" s="18" customFormat="1">
+    <row r="170" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
         <v>23</v>
       </c>
@@ -17543,7 +17613,7 @@
       </c>
       <c r="M170" s="15"/>
     </row>
-    <row r="171" spans="1:13" s="38" customFormat="1">
+    <row r="171" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="40" t="s">
         <v>60</v>
       </c>
@@ -17582,7 +17652,7 @@
       </c>
       <c r="M171" s="34"/>
     </row>
-    <row r="172" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
+    <row r="172" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="40" t="s">
         <v>60</v>
       </c>
@@ -17623,7 +17693,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="13" customFormat="1">
+    <row r="173" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>9</v>
       </c>
@@ -17660,7 +17730,7 @@
       <c r="L173" s="11"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1">
+    <row r="174" spans="1:13" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="67" t="s">
         <v>23</v>
       </c>
@@ -17701,7 +17771,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="38" customFormat="1">
+    <row r="175" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="40" t="s">
         <v>60</v>
       </c>
@@ -17742,7 +17812,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="45" customFormat="1">
+    <row r="176" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="47" t="s">
         <v>62</v>
       </c>
@@ -17781,7 +17851,7 @@
       </c>
       <c r="M176" s="42"/>
     </row>
-    <row r="177" spans="1:13" s="18" customFormat="1">
+    <row r="177" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
         <v>23</v>
       </c>
@@ -17820,7 +17890,7 @@
       </c>
       <c r="M177" s="15"/>
     </row>
-    <row r="178" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="178" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="40" t="s">
         <v>60</v>
       </c>
@@ -17859,7 +17929,7 @@
       </c>
       <c r="M178" s="34"/>
     </row>
-    <row r="179" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="179" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="40" t="s">
         <v>60</v>
       </c>
@@ -17898,7 +17968,7 @@
       </c>
       <c r="M179" s="34"/>
     </row>
-    <row r="180" spans="1:13" s="38" customFormat="1">
+    <row r="180" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="40" t="s">
         <v>60</v>
       </c>
@@ -17939,7 +18009,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="38" customFormat="1">
+    <row r="181" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="40" t="s">
         <v>60</v>
       </c>
@@ -17980,7 +18050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="38" customFormat="1">
+    <row r="182" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="40" t="s">
         <v>60</v>
       </c>
@@ -18021,7 +18091,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="38" customFormat="1">
+    <row r="183" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="40" t="s">
         <v>60</v>
       </c>
@@ -18062,7 +18132,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="38" customFormat="1">
+    <row r="184" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="40" t="s">
         <v>60</v>
       </c>
@@ -18103,7 +18173,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="45" customFormat="1">
+    <row r="185" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="47" t="s">
         <v>62</v>
       </c>
@@ -18142,7 +18212,7 @@
       </c>
       <c r="M185" s="42"/>
     </row>
-    <row r="186" spans="1:13" s="45" customFormat="1">
+    <row r="186" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="47" t="s">
         <v>62</v>
       </c>
@@ -18181,7 +18251,7 @@
       </c>
       <c r="M186" s="42"/>
     </row>
-    <row r="187" spans="1:13" s="45" customFormat="1">
+    <row r="187" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="47" t="s">
         <v>62</v>
       </c>
@@ -18220,7 +18290,7 @@
       </c>
       <c r="M187" s="42"/>
     </row>
-    <row r="188" spans="1:13" s="45" customFormat="1">
+    <row r="188" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="47" t="s">
         <v>62</v>
       </c>
@@ -18259,7 +18329,7 @@
       </c>
       <c r="M188" s="42"/>
     </row>
-    <row r="189" spans="1:13" s="45" customFormat="1">
+    <row r="189" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>62</v>
       </c>
@@ -18298,7 +18368,7 @@
       </c>
       <c r="M189" s="42"/>
     </row>
-    <row r="190" spans="1:13" s="45" customFormat="1">
+    <row r="190" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>62</v>
       </c>
@@ -18337,7 +18407,7 @@
       </c>
       <c r="M190" s="42"/>
     </row>
-    <row r="191" spans="1:13" s="45" customFormat="1">
+    <row r="191" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="47" t="s">
         <v>62</v>
       </c>
@@ -18376,7 +18446,7 @@
       </c>
       <c r="M191" s="42"/>
     </row>
-    <row r="192" spans="1:13" s="45" customFormat="1">
+    <row r="192" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="47" t="s">
         <v>62</v>
       </c>
@@ -18415,7 +18485,7 @@
       </c>
       <c r="M192" s="42"/>
     </row>
-    <row r="193" spans="1:13" s="45" customFormat="1">
+    <row r="193" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="47" t="s">
         <v>62</v>
       </c>
@@ -18454,7 +18524,7 @@
       </c>
       <c r="M193" s="42"/>
     </row>
-    <row r="194" spans="1:13" s="45" customFormat="1">
+    <row r="194" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="47" t="s">
         <v>62</v>
       </c>
@@ -18493,7 +18563,7 @@
       </c>
       <c r="M194" s="42"/>
     </row>
-    <row r="195" spans="1:13" s="45" customFormat="1">
+    <row r="195" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="47" t="s">
         <v>62</v>
       </c>
@@ -18532,7 +18602,7 @@
       </c>
       <c r="M195" s="42"/>
     </row>
-    <row r="196" spans="1:13" s="45" customFormat="1">
+    <row r="196" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="47" t="s">
         <v>62</v>
       </c>
@@ -18571,7 +18641,7 @@
       </c>
       <c r="M196" s="42"/>
     </row>
-    <row r="197" spans="1:13" s="45" customFormat="1">
+    <row r="197" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="47" t="s">
         <v>62</v>
       </c>
@@ -18610,7 +18680,7 @@
       </c>
       <c r="M197" s="42"/>
     </row>
-    <row r="198" spans="1:13" s="45" customFormat="1">
+    <row r="198" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="47" t="s">
         <v>62</v>
       </c>
@@ -18649,7 +18719,7 @@
       </c>
       <c r="M198" s="42"/>
     </row>
-    <row r="199" spans="1:13" s="45" customFormat="1">
+    <row r="199" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="47" t="s">
         <v>62</v>
       </c>
@@ -18688,7 +18758,7 @@
       </c>
       <c r="M199" s="42"/>
     </row>
-    <row r="200" spans="1:13" s="45" customFormat="1">
+    <row r="200" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="47" t="s">
         <v>62</v>
       </c>
@@ -18727,7 +18797,7 @@
       </c>
       <c r="M200" s="42"/>
     </row>
-    <row r="201" spans="1:13" s="45" customFormat="1">
+    <row r="201" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="47" t="s">
         <v>62</v>
       </c>
@@ -18766,7 +18836,7 @@
       </c>
       <c r="M201" s="42"/>
     </row>
-    <row r="202" spans="1:13" s="45" customFormat="1">
+    <row r="202" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>62</v>
       </c>
@@ -18805,7 +18875,7 @@
       </c>
       <c r="M202" s="42"/>
     </row>
-    <row r="203" spans="1:13" s="45" customFormat="1">
+    <row r="203" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="47" t="s">
         <v>62</v>
       </c>
@@ -18844,7 +18914,7 @@
       </c>
       <c r="M203" s="42"/>
     </row>
-    <row r="204" spans="1:13" s="45" customFormat="1">
+    <row r="204" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="47" t="s">
         <v>62</v>
       </c>
@@ -18883,7 +18953,7 @@
       </c>
       <c r="M204" s="42"/>
     </row>
-    <row r="205" spans="1:13" s="45" customFormat="1">
+    <row r="205" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>62</v>
       </c>
@@ -18922,7 +18992,7 @@
       </c>
       <c r="M205" s="42"/>
     </row>
-    <row r="206" spans="1:13" s="45" customFormat="1">
+    <row r="206" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="47" t="s">
         <v>62</v>
       </c>
@@ -18961,7 +19031,7 @@
       </c>
       <c r="M206" s="42"/>
     </row>
-    <row r="207" spans="1:13" s="45" customFormat="1">
+    <row r="207" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="47" t="s">
         <v>62</v>
       </c>
@@ -19000,7 +19070,7 @@
       </c>
       <c r="M207" s="42"/>
     </row>
-    <row r="208" spans="1:13" s="45" customFormat="1">
+    <row r="208" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="47" t="s">
         <v>62</v>
       </c>
@@ -19039,7 +19109,7 @@
       </c>
       <c r="M208" s="42"/>
     </row>
-    <row r="209" spans="1:13" s="45" customFormat="1">
+    <row r="209" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="47" t="s">
         <v>62</v>
       </c>
@@ -19078,7 +19148,7 @@
       </c>
       <c r="M209" s="42"/>
     </row>
-    <row r="210" spans="1:13" s="45" customFormat="1">
+    <row r="210" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="47" t="s">
         <v>62</v>
       </c>
@@ -19117,7 +19187,7 @@
       </c>
       <c r="M210" s="42"/>
     </row>
-    <row r="211" spans="1:13" s="45" customFormat="1">
+    <row r="211" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="47" t="s">
         <v>62</v>
       </c>
@@ -19156,7 +19226,7 @@
       </c>
       <c r="M211" s="42"/>
     </row>
-    <row r="212" spans="1:13" s="45" customFormat="1">
+    <row r="212" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="47" t="s">
         <v>62</v>
       </c>
@@ -19195,7 +19265,7 @@
       </c>
       <c r="M212" s="42"/>
     </row>
-    <row r="213" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="213" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="47" t="s">
         <v>62</v>
       </c>
@@ -19236,7 +19306,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="45" customFormat="1">
+    <row r="214" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="47" t="s">
         <v>62</v>
       </c>
@@ -19277,7 +19347,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="215" spans="1:13" s="45" customFormat="1">
+    <row r="215" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="47" t="s">
         <v>62</v>
       </c>
@@ -19318,7 +19388,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="216" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1">
+    <row r="216" spans="1:13" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="47" t="s">
         <v>62</v>
       </c>
@@ -19359,7 +19429,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="217" spans="1:13" s="45" customFormat="1">
+    <row r="217" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="47" t="s">
         <v>62</v>
       </c>
@@ -19400,7 +19470,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:13" s="45" customFormat="1">
+    <row r="218" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="47" t="s">
         <v>62</v>
       </c>
@@ -19441,7 +19511,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1">
+    <row r="219" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="47" t="s">
         <v>62</v>
       </c>
@@ -19480,7 +19550,7 @@
       </c>
       <c r="M219" s="42"/>
     </row>
-    <row r="220" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="220" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="47" t="s">
         <v>62</v>
       </c>
@@ -19519,7 +19589,7 @@
       </c>
       <c r="M220" s="42"/>
     </row>
-    <row r="221" spans="1:13" s="45" customFormat="1" ht="13.5" customHeight="1">
+    <row r="221" spans="1:13" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="47" t="s">
         <v>62</v>
       </c>
@@ -19558,7 +19628,7 @@
       </c>
       <c r="M221" s="42"/>
     </row>
-    <row r="222" spans="1:13" s="13" customFormat="1">
+    <row r="222" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>1</v>
       </c>
@@ -19597,7 +19667,7 @@
       </c>
       <c r="M222" s="9"/>
     </row>
-    <row r="223" spans="1:13" s="13" customFormat="1">
+    <row r="223" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>1</v>
       </c>
@@ -19636,7 +19706,7 @@
       </c>
       <c r="M223" s="9"/>
     </row>
-    <row r="224" spans="1:13" s="13" customFormat="1">
+    <row r="224" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>1</v>
       </c>
@@ -19675,7 +19745,7 @@
       </c>
       <c r="M224" s="9"/>
     </row>
-    <row r="225" spans="1:13" s="13" customFormat="1">
+    <row r="225" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>1</v>
       </c>
@@ -19714,7 +19784,7 @@
       </c>
       <c r="M225" s="9"/>
     </row>
-    <row r="226" spans="1:13" s="13" customFormat="1">
+    <row r="226" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>1</v>
       </c>
@@ -19753,7 +19823,7 @@
       </c>
       <c r="M226" s="9"/>
     </row>
-    <row r="227" spans="1:13" s="13" customFormat="1">
+    <row r="227" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>1</v>
       </c>
@@ -19792,7 +19862,7 @@
       </c>
       <c r="M227" s="9"/>
     </row>
-    <row r="228" spans="1:13" s="13" customFormat="1">
+    <row r="228" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>9</v>
       </c>
@@ -19833,7 +19903,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="45" customFormat="1">
+    <row r="229" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="47" t="s">
         <v>62</v>
       </c>
@@ -19872,7 +19942,7 @@
       </c>
       <c r="M229" s="42"/>
     </row>
-    <row r="230" spans="1:13" s="45" customFormat="1">
+    <row r="230" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="47" t="s">
         <v>62</v>
       </c>
@@ -19913,7 +19983,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="231" spans="1:13" s="45" customFormat="1">
+    <row r="231" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="47" t="s">
         <v>62</v>
       </c>
@@ -19954,7 +20024,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="232" spans="1:13" s="18" customFormat="1">
+    <row r="232" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="32" t="s">
         <v>23</v>
       </c>
@@ -19991,7 +20061,7 @@
       <c r="L232" s="19"/>
       <c r="M232" s="15"/>
     </row>
-    <row r="233" spans="1:13" s="18" customFormat="1">
+    <row r="233" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="32" t="s">
         <v>23</v>
       </c>
@@ -20032,7 +20102,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="234" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>9</v>
       </c>
@@ -20071,7 +20141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="18" customFormat="1">
+    <row r="235" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="32" t="s">
         <v>23</v>
       </c>
@@ -20110,7 +20180,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="13" customFormat="1">
+    <row r="236" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
         <v>9</v>
       </c>
@@ -20151,7 +20221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1">
+    <row r="237" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="32" t="s">
         <v>23</v>
       </c>
@@ -20192,7 +20262,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1">
+    <row r="238" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="32" t="s">
         <v>23</v>
       </c>
@@ -20233,7 +20303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="13" customFormat="1">
+    <row r="239" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>1</v>
       </c>
@@ -20274,7 +20344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="240" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="32">
         <v>2</v>
       </c>
@@ -20315,7 +20385,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:13" s="13" customFormat="1">
+    <row r="241" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>1</v>
       </c>
@@ -20356,7 +20426,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="13" customFormat="1">
+    <row r="242" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>9</v>
       </c>
@@ -20397,7 +20467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1">
+    <row r="243" spans="1:13" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="32">
         <v>2</v>
       </c>
@@ -20438,7 +20508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="244" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="32">
         <v>2</v>
       </c>
@@ -20479,7 +20549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="245" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="32">
         <v>2</v>
       </c>
@@ -20518,7 +20588,7 @@
       </c>
       <c r="M245" s="15"/>
     </row>
-    <row r="246" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1">
+    <row r="246" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="32">
         <v>2</v>
       </c>
@@ -20559,7 +20629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="247" spans="1:13" s="38" customFormat="1">
+    <row r="247" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>3</v>
       </c>
@@ -20598,7 +20668,7 @@
       </c>
       <c r="M247" s="34"/>
     </row>
-    <row r="248" spans="1:13" s="38" customFormat="1">
+    <row r="248" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>3</v>
       </c>
@@ -20637,7 +20707,7 @@
       </c>
       <c r="M248" s="34"/>
     </row>
-    <row r="249" spans="1:13" s="38" customFormat="1">
+    <row r="249" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>3</v>
       </c>
@@ -20678,7 +20748,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="250" spans="1:13" s="38" customFormat="1">
+    <row r="250" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>3</v>
       </c>
@@ -20719,7 +20789,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="251" spans="1:13" s="45" customFormat="1">
+    <row r="251" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="47" t="s">
         <v>62</v>
       </c>
@@ -20758,7 +20828,7 @@
       </c>
       <c r="M251" s="42"/>
     </row>
-    <row r="252" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="252" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="47" t="s">
         <v>62</v>
       </c>
@@ -20799,7 +20869,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="253" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="253" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="32">
         <v>2</v>
       </c>
@@ -20840,7 +20910,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="45" customFormat="1">
+    <row r="254" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="47" t="s">
         <v>62</v>
       </c>
@@ -20881,7 +20951,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="255" spans="1:13" s="38" customFormat="1">
+    <row r="255" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>3</v>
       </c>
@@ -20920,7 +20990,7 @@
       </c>
       <c r="M255" s="34"/>
     </row>
-    <row r="256" spans="1:13" s="13" customFormat="1">
+    <row r="256" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="26">
         <v>1</v>
       </c>
@@ -20969,7 +21039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20977,23 +21047,23 @@
       <selection pane="bottomLeft" activeCell="H53" sqref="H52:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -21034,7 +21104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="38" customFormat="1">
+    <row r="2" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>3</v>
       </c>
@@ -21073,7 +21143,7 @@
       </c>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" s="38" customFormat="1">
+    <row r="3" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>3</v>
       </c>
@@ -21112,7 +21182,7 @@
       </c>
       <c r="M3" s="36"/>
     </row>
-    <row r="4" spans="1:13" s="38" customFormat="1">
+    <row r="4" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -21151,7 +21221,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" s="38" customFormat="1">
+    <row r="5" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -21190,7 +21260,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:13" s="38" customFormat="1">
+    <row r="6" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -21229,7 +21299,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:13" s="38" customFormat="1">
+    <row r="7" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>3</v>
       </c>
@@ -21268,7 +21338,7 @@
       </c>
       <c r="M7" s="36"/>
     </row>
-    <row r="8" spans="1:13" s="38" customFormat="1">
+    <row r="8" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>3</v>
       </c>
@@ -21307,7 +21377,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:13" s="38" customFormat="1">
+    <row r="9" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>3</v>
       </c>
@@ -21346,7 +21416,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:13" s="38" customFormat="1">
+    <row r="10" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <v>3</v>
       </c>
@@ -21384,7 +21454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="38" customFormat="1">
+    <row r="11" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>3</v>
       </c>
@@ -21425,7 +21495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="38" customFormat="1">
+    <row r="12" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>3</v>
       </c>
@@ -21463,7 +21533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="38" customFormat="1">
+    <row r="13" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>3</v>
       </c>
@@ -21501,7 +21571,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1">
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2</v>
       </c>
@@ -21542,7 +21612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1">
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>2</v>
       </c>
@@ -21583,7 +21653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1">
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -21624,7 +21694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1">
+    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -21665,7 +21735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1">
+    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2</v>
       </c>
@@ -21703,7 +21773,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1">
+    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>2</v>
       </c>
@@ -21741,7 +21811,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1">
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>2</v>
       </c>
@@ -21779,7 +21849,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="38" customFormat="1">
+    <row r="21" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>3</v>
       </c>
@@ -21818,7 +21888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="38" customFormat="1">
+    <row r="22" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>3</v>
       </c>
@@ -21854,7 +21924,7 @@
       </c>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:13" s="45" customFormat="1">
+    <row r="23" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>4</v>
       </c>
@@ -21895,7 +21965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="45" customFormat="1">
+    <row r="24" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>4</v>
       </c>
@@ -21936,7 +22006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="45" customFormat="1">
+    <row r="25" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <v>4</v>
       </c>
@@ -21977,7 +22047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="45" customFormat="1">
+    <row r="26" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>4</v>
       </c>
@@ -22018,7 +22088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="45" customFormat="1">
+    <row r="27" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>4</v>
       </c>
@@ -22059,7 +22129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="45" customFormat="1">
+    <row r="28" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>4</v>
       </c>
@@ -22098,7 +22168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="45" customFormat="1">
+    <row r="29" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -22137,7 +22207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="45" customFormat="1">
+    <row r="30" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
         <v>4</v>
       </c>
@@ -22176,7 +22246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1">
+    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>4</v>
       </c>
@@ -22215,7 +22285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1">
+    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -22254,7 +22324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="45" customFormat="1">
+    <row r="33" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <v>4</v>
       </c>
@@ -22295,7 +22365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="45" customFormat="1">
+    <row r="34" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>4</v>
       </c>
@@ -22336,7 +22406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="45" customFormat="1">
+    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>4</v>
       </c>
@@ -22377,7 +22447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="45" customFormat="1">
+    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>4</v>
       </c>
@@ -22418,7 +22488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="45" customFormat="1">
+    <row r="37" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>4</v>
       </c>
@@ -22459,7 +22529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="45" customFormat="1">
+    <row r="38" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>4</v>
       </c>
@@ -22500,7 +22570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="45" customFormat="1">
+    <row r="39" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42">
         <v>4</v>
       </c>
@@ -22541,7 +22611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="45" customFormat="1">
+    <row r="40" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42">
         <v>4</v>
       </c>
@@ -22582,7 +22652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="45" customFormat="1">
+    <row r="41" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42">
         <v>4</v>
       </c>
@@ -22623,7 +22693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="45" customFormat="1">
+    <row r="42" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42">
         <v>4</v>
       </c>
@@ -22664,7 +22734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="45" customFormat="1">
+    <row r="43" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <v>4</v>
       </c>
@@ -22705,7 +22775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="45" customFormat="1">
+    <row r="44" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="42">
         <v>4</v>
       </c>
@@ -22744,7 +22814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="45" customFormat="1">
+    <row r="45" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="42">
         <v>4</v>
       </c>
@@ -22785,7 +22855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="45" customFormat="1">
+    <row r="46" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="42">
         <v>4</v>
       </c>
@@ -22833,7 +22903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22841,19 +22911,19 @@
       <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" style="62" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" customHeight="1">
+    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -22894,7 +22964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:13" s="45" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42">
         <v>4</v>
       </c>
@@ -22930,7 +23000,7 @@
       </c>
       <c r="L2" s="42"/>
     </row>
-    <row r="3" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:13" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42">
         <v>4</v>
       </c>
@@ -22971,7 +23041,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42">
         <v>4</v>
       </c>
@@ -23012,7 +23082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="45" customFormat="1">
+    <row r="5" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42">
         <v>4</v>
       </c>
@@ -23053,7 +23123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="45" customFormat="1">
+    <row r="6" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42">
         <v>4</v>
       </c>
@@ -23094,7 +23164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="45" customFormat="1">
+    <row r="7" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42">
         <v>4</v>
       </c>
@@ -23135,7 +23205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="45" customFormat="1">
+    <row r="8" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42">
         <v>4</v>
       </c>
@@ -23176,7 +23246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="45" customFormat="1">
+    <row r="9" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <v>4</v>
       </c>
@@ -23215,7 +23285,7 @@
       </c>
       <c r="M9" s="42"/>
     </row>
-    <row r="10" spans="1:13" s="45" customFormat="1">
+    <row r="10" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42">
         <v>4</v>
       </c>
@@ -23256,7 +23326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="45" customFormat="1">
+    <row r="11" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>4</v>
       </c>
@@ -23297,7 +23367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="45" customFormat="1">
+    <row r="12" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>4</v>
       </c>
@@ -23338,7 +23408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="45" customFormat="1">
+    <row r="13" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>4</v>
       </c>
@@ -23379,7 +23449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="45" customFormat="1">
+    <row r="14" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>4</v>
       </c>
@@ -23420,7 +23490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="45" customFormat="1">
+    <row r="15" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>4</v>
       </c>
@@ -23461,7 +23531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="45" customFormat="1">
+    <row r="16" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>4</v>
       </c>
@@ -23502,7 +23572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="45" customFormat="1">
+    <row r="17" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>4</v>
       </c>
@@ -23543,7 +23613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="45" customFormat="1">
+    <row r="18" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>4</v>
       </c>
@@ -23584,7 +23654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="38" customFormat="1">
+    <row r="19" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>3</v>
       </c>
@@ -23623,7 +23693,7 @@
       </c>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" s="45" customFormat="1">
+    <row r="20" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>4</v>
       </c>
@@ -23661,7 +23731,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="45" customFormat="1">
+    <row r="21" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>4</v>
       </c>
@@ -23700,7 +23770,7 @@
       </c>
       <c r="M21" s="42"/>
     </row>
-    <row r="22" spans="1:13" s="45" customFormat="1">
+    <row r="22" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42">
         <v>4</v>
       </c>
@@ -23739,7 +23809,7 @@
       </c>
       <c r="M22" s="42"/>
     </row>
-    <row r="23" spans="1:13" s="45" customFormat="1">
+    <row r="23" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>4</v>
       </c>
@@ -23778,7 +23848,7 @@
       </c>
       <c r="M23" s="42"/>
     </row>
-    <row r="24" spans="1:13" s="45" customFormat="1">
+    <row r="24" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>4</v>
       </c>
@@ -23817,7 +23887,7 @@
       </c>
       <c r="M24" s="42"/>
     </row>
-    <row r="25" spans="1:13" s="45" customFormat="1">
+    <row r="25" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <v>4</v>
       </c>
@@ -23856,7 +23926,7 @@
       </c>
       <c r="M25" s="42"/>
     </row>
-    <row r="26" spans="1:13" s="45" customFormat="1">
+    <row r="26" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>4</v>
       </c>
@@ -23895,7 +23965,7 @@
       </c>
       <c r="M26" s="42"/>
     </row>
-    <row r="27" spans="1:13" s="45" customFormat="1">
+    <row r="27" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>4</v>
       </c>
@@ -23934,7 +24004,7 @@
       </c>
       <c r="M27" s="42"/>
     </row>
-    <row r="28" spans="1:13" s="45" customFormat="1">
+    <row r="28" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>4</v>
       </c>
@@ -23975,7 +24045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="45" customFormat="1">
+    <row r="29" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>4</v>
       </c>
@@ -24014,7 +24084,7 @@
       </c>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="1:13" s="45" customFormat="1">
+    <row r="30" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
         <v>4</v>
       </c>
@@ -24053,7 +24123,7 @@
       </c>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1">
+    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>4</v>
       </c>
@@ -24092,7 +24162,7 @@
       </c>
       <c r="M31" s="42"/>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1">
+    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>4</v>
       </c>
@@ -24131,7 +24201,7 @@
       </c>
       <c r="M32" s="42"/>
     </row>
-    <row r="33" spans="1:13" s="45" customFormat="1">
+    <row r="33" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <v>4</v>
       </c>
@@ -24170,7 +24240,7 @@
       </c>
       <c r="M33" s="42"/>
     </row>
-    <row r="34" spans="1:13" s="45" customFormat="1">
+    <row r="34" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>4</v>
       </c>
@@ -24209,7 +24279,7 @@
       </c>
       <c r="M34" s="42"/>
     </row>
-    <row r="35" spans="1:13" s="45" customFormat="1">
+    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>4</v>
       </c>
@@ -24248,7 +24318,7 @@
       </c>
       <c r="M35" s="42"/>
     </row>
-    <row r="36" spans="1:13" s="45" customFormat="1">
+    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>4</v>
       </c>
@@ -24287,7 +24357,7 @@
       </c>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>4</v>
       </c>
@@ -24323,7 +24393,7 @@
       </c>
       <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
+    <row r="38" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>4</v>
       </c>
@@ -24359,7 +24429,7 @@
       </c>
       <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42">
         <v>4</v>
       </c>
@@ -24395,7 +24465,7 @@
       </c>
       <c r="L39" s="42"/>
     </row>
-    <row r="40" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:13" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42">
         <v>4</v>
       </c>
@@ -24431,7 +24501,7 @@
       </c>
       <c r="L40" s="42"/>
     </row>
-    <row r="41" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
+    <row r="41" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42">
         <v>4</v>
       </c>
@@ -24467,7 +24537,7 @@
       </c>
       <c r="L41" s="42"/>
     </row>
-    <row r="42" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1">
+    <row r="42" spans="1:13" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42">
         <v>4</v>
       </c>
@@ -24503,7 +24573,7 @@
       </c>
       <c r="L42" s="42"/>
     </row>
-    <row r="43" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1">
+    <row r="43" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <v>4</v>
       </c>
@@ -24539,7 +24609,7 @@
       </c>
       <c r="L43" s="42"/>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1">
+    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>2</v>
       </c>
@@ -24578,7 +24648,7 @@
       </c>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>2</v>
       </c>
@@ -24617,7 +24687,7 @@
       </c>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>2</v>
       </c>
@@ -24656,7 +24726,7 @@
       </c>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>2</v>
       </c>
@@ -24695,7 +24765,7 @@
       </c>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>2</v>
       </c>
@@ -24734,7 +24804,7 @@
       </c>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13" s="38" customFormat="1">
+    <row r="49" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <v>3</v>
       </c>
@@ -24775,7 +24845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="13" customFormat="1" ht="31.5">
+    <row r="50" spans="1:13" s="13" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -24811,7 +24881,7 @@
       </c>
       <c r="L50" s="71"/>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" ht="31.5">
+    <row r="51" spans="1:13" s="13" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>1</v>
       </c>
@@ -24847,7 +24917,7 @@
       </c>
       <c r="L51" s="71"/>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1" ht="31.5">
+    <row r="52" spans="1:13" s="13" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>1</v>
       </c>
@@ -24883,7 +24953,7 @@
       </c>
       <c r="L52" s="71"/>
     </row>
-    <row r="53" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1">
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>2</v>
       </c>
@@ -24922,7 +24992,7 @@
       </c>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" s="18" customFormat="1">
+    <row r="54" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>2</v>
       </c>
@@ -24961,7 +25031,7 @@
       </c>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1">
+    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>2</v>
       </c>
@@ -25000,7 +25070,7 @@
       </c>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1">
+    <row r="56" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>2</v>
       </c>
@@ -25039,7 +25109,7 @@
       </c>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" s="38" customFormat="1">
+    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34">
         <v>3</v>
       </c>
@@ -25080,7 +25150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="58" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34">
         <v>3</v>
       </c>
@@ -25119,7 +25189,7 @@
       </c>
       <c r="M58" s="34"/>
     </row>
-    <row r="59" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
+    <row r="59" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="34">
         <v>3</v>
       </c>
@@ -25158,7 +25228,7 @@
       </c>
       <c r="M59" s="34"/>
     </row>
-    <row r="60" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="60" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="34">
         <v>3</v>
       </c>
@@ -25197,7 +25267,7 @@
       </c>
       <c r="M60" s="34"/>
     </row>
-    <row r="61" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="61" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34">
         <v>3</v>
       </c>
@@ -25236,7 +25306,7 @@
       </c>
       <c r="M61" s="34"/>
     </row>
-    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="34">
         <v>3</v>
       </c>
@@ -25275,7 +25345,7 @@
       </c>
       <c r="M62" s="34"/>
     </row>
-    <row r="63" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="34">
         <v>3</v>
       </c>
@@ -25316,7 +25386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="38" customFormat="1">
+    <row r="64" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="34">
         <v>3</v>
       </c>
@@ -25357,7 +25427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="38" customFormat="1">
+    <row r="65" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="34">
         <v>3</v>
       </c>
@@ -25398,7 +25468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="38" customFormat="1">
+    <row r="66" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="34">
         <v>3</v>
       </c>
@@ -25439,7 +25509,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="38" customFormat="1">
+    <row r="67" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34">
         <v>3</v>
       </c>
@@ -25480,7 +25550,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1">
+    <row r="68" spans="1:13" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <v>3</v>
       </c>
@@ -25519,7 +25589,7 @@
       </c>
       <c r="M68" s="34"/>
     </row>
-    <row r="69" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="34">
         <v>3</v>
       </c>
@@ -25558,7 +25628,7 @@
       </c>
       <c r="M69" s="34"/>
     </row>
-    <row r="70" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <v>3</v>
       </c>
@@ -25597,7 +25667,7 @@
       </c>
       <c r="M70" s="34"/>
     </row>
-    <row r="71" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="71" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34">
         <v>3</v>
       </c>
@@ -25636,7 +25706,7 @@
       </c>
       <c r="M71" s="34"/>
     </row>
-    <row r="72" spans="1:13" s="38" customFormat="1">
+    <row r="72" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34">
         <v>3</v>
       </c>
@@ -25675,7 +25745,7 @@
       </c>
       <c r="M72" s="34"/>
     </row>
-    <row r="73" spans="1:13" s="38" customFormat="1">
+    <row r="73" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="34">
         <v>3</v>
       </c>
@@ -25714,7 +25784,7 @@
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="74" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="34">
         <v>3</v>
       </c>
@@ -25753,7 +25823,7 @@
       </c>
       <c r="M74" s="34"/>
     </row>
-    <row r="75" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="75" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="34">
         <v>3</v>
       </c>
@@ -25792,7 +25862,7 @@
       </c>
       <c r="M75" s="34"/>
     </row>
-    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="34">
         <v>3</v>
       </c>
@@ -25831,7 +25901,7 @@
       </c>
       <c r="M76" s="34"/>
     </row>
-    <row r="77" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="77" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34">
         <v>3</v>
       </c>
@@ -25870,7 +25940,7 @@
       </c>
       <c r="M77" s="34"/>
     </row>
-    <row r="78" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="78" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="34">
         <v>3</v>
       </c>
@@ -25909,7 +25979,7 @@
       </c>
       <c r="M78" s="34"/>
     </row>
-    <row r="79" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
+    <row r="79" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="34">
         <v>3</v>
       </c>
@@ -25948,7 +26018,7 @@
       </c>
       <c r="M79" s="34"/>
     </row>
-    <row r="80" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1">
+    <row r="80" spans="1:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34">
         <v>3</v>
       </c>
@@ -25987,7 +26057,7 @@
       </c>
       <c r="M80" s="34"/>
     </row>
-    <row r="81" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1">
+    <row r="81" spans="1:13" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="34">
         <v>3</v>
       </c>
@@ -26026,7 +26096,7 @@
       </c>
       <c r="M81" s="34"/>
     </row>
-    <row r="82" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1">
+    <row r="82" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <v>3</v>
       </c>
@@ -26065,7 +26135,7 @@
       </c>
       <c r="M82" s="34"/>
     </row>
-    <row r="83" spans="1:13" s="38" customFormat="1">
+    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="34">
         <v>3</v>
       </c>
@@ -26104,7 +26174,7 @@
       </c>
       <c r="M83" s="34"/>
     </row>
-    <row r="84" spans="1:13" s="38" customFormat="1">
+    <row r="84" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <v>3</v>
       </c>
@@ -26143,7 +26213,7 @@
       </c>
       <c r="M84" s="34"/>
     </row>
-    <row r="85" spans="1:13" s="38" customFormat="1">
+    <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
         <v>3</v>
       </c>
@@ -26182,7 +26252,7 @@
       </c>
       <c r="M85" s="34"/>
     </row>
-    <row r="86" spans="1:13" s="38" customFormat="1">
+    <row r="86" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="34">
         <v>3</v>
       </c>
@@ -26221,7 +26291,7 @@
       </c>
       <c r="M86" s="34"/>
     </row>
-    <row r="87" spans="1:13" s="38" customFormat="1">
+    <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="34">
         <v>3</v>
       </c>
@@ -26260,7 +26330,7 @@
       </c>
       <c r="M87" s="34"/>
     </row>
-    <row r="88" spans="1:13" s="38" customFormat="1">
+    <row r="88" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <v>3</v>
       </c>
@@ -26299,7 +26369,7 @@
       </c>
       <c r="M88" s="34"/>
     </row>
-    <row r="89" spans="1:13" s="45" customFormat="1">
+    <row r="89" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="42">
         <v>4</v>
       </c>
@@ -26340,7 +26410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="45" customFormat="1">
+    <row r="90" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="42">
         <v>4</v>
       </c>
@@ -26381,7 +26451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="45" customFormat="1">
+    <row r="91" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="42">
         <v>4</v>
       </c>
@@ -26422,7 +26492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="45" customFormat="1">
+    <row r="92" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="42">
         <v>4</v>
       </c>
@@ -26463,7 +26533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="45" customFormat="1">
+    <row r="93" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="42">
         <v>4</v>
       </c>
@@ -26504,7 +26574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="45" customFormat="1">
+    <row r="94" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="42">
         <v>4</v>
       </c>
@@ -26545,7 +26615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="45" customFormat="1">
+    <row r="95" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="42">
         <v>4</v>
       </c>
@@ -26586,7 +26656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="45" customFormat="1">
+    <row r="96" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="42">
         <v>4</v>
       </c>
@@ -26627,7 +26697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="38" customFormat="1">
+    <row r="97" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34">
         <v>3</v>
       </c>
@@ -26666,7 +26736,7 @@
       </c>
       <c r="M97" s="34"/>
     </row>
-    <row r="98" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="98" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>2</v>
       </c>
@@ -26707,7 +26777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="18" customFormat="1">
+    <row r="99" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>2</v>
       </c>
@@ -26746,7 +26816,7 @@
       </c>
       <c r="M99" s="15"/>
     </row>
-    <row r="100" spans="1:13" s="38" customFormat="1">
+    <row r="100" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="34">
         <v>3</v>
       </c>
@@ -26785,7 +26855,7 @@
       </c>
       <c r="M100" s="34"/>
     </row>
-    <row r="101" spans="1:13" s="18" customFormat="1">
+    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>2</v>
       </c>
@@ -26826,7 +26896,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="18" customFormat="1">
+    <row r="102" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>2</v>
       </c>
@@ -26867,7 +26937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="18" customFormat="1">
+    <row r="103" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>2</v>
       </c>
@@ -26908,7 +26978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="38" customFormat="1">
+    <row r="104" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="34">
         <v>3</v>
       </c>
@@ -26949,7 +27019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="38" customFormat="1">
+    <row r="105" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="34">
         <v>3</v>
       </c>
@@ -26990,7 +27060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="18" customFormat="1">
+    <row r="106" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>2</v>
       </c>
@@ -27031,7 +27101,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="18" customFormat="1">
+    <row r="107" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>2</v>
       </c>
@@ -27072,7 +27142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="18" customFormat="1">
+    <row r="108" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>2</v>
       </c>
@@ -27113,7 +27183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="109" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>2</v>
       </c>
@@ -27152,7 +27222,7 @@
       </c>
       <c r="M109" s="15"/>
     </row>
-    <row r="110" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+    <row r="110" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>2</v>
       </c>
@@ -27191,7 +27261,7 @@
       </c>
       <c r="M110" s="15"/>
     </row>
-    <row r="111" spans="1:13" s="18" customFormat="1">
+    <row r="111" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>2</v>
       </c>
@@ -27232,7 +27302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="112" spans="1:13" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34">
         <v>3</v>
       </c>
@@ -27271,7 +27341,7 @@
       </c>
       <c r="M112" s="34"/>
     </row>
-    <row r="113" spans="1:13" s="45" customFormat="1">
+    <row r="113" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="42">
         <v>4</v>
       </c>
@@ -27312,7 +27382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="45" customFormat="1">
+    <row r="114" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="42">
         <v>4</v>
       </c>
@@ -27353,7 +27423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="45" customFormat="1">
+    <row r="115" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="42">
         <v>4</v>
       </c>
@@ -27394,7 +27464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="38" customFormat="1">
+    <row r="116" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34">
         <v>3</v>
       </c>
@@ -27435,7 +27505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1">
+    <row r="117" spans="1:13" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="42">
         <v>4</v>
       </c>
@@ -27483,26 +27553,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1" ht="30">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -27543,7 +27613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1">
+    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>5</v>
       </c>
@@ -27581,7 +27651,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>5</v>
       </c>
@@ -27619,7 +27689,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1">
+    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -27657,7 +27727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -27695,7 +27765,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -27733,7 +27803,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -27771,7 +27841,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -27809,7 +27879,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -27850,7 +27920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1">
+    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -27891,7 +27961,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1">
+    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -27932,7 +28002,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1">
+    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -27971,7 +28041,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1">
+    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -28010,7 +28080,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1">
+    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -28051,7 +28121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -28090,7 +28160,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1">
+    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -28131,7 +28201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="30">
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -28172,7 +28242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1">
+    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -28210,7 +28280,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1">
+    <row r="19" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>5</v>
       </c>
@@ -28251,7 +28321,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="13" customFormat="1">
+    <row r="20" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>5</v>
       </c>
@@ -28292,7 +28362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1">
+    <row r="21" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>5</v>
       </c>
@@ -28333,7 +28403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1">
+    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>5</v>
       </c>
@@ -28374,7 +28444,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1">
+    <row r="23" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>5</v>
       </c>
@@ -28415,7 +28485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -28456,7 +28526,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1">
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>5</v>
       </c>
@@ -28497,7 +28567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>5</v>
       </c>
@@ -28538,7 +28608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>5</v>
       </c>
@@ -28579,7 +28649,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>5</v>
       </c>
@@ -28620,7 +28690,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>5</v>
       </c>
@@ -28661,7 +28731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>5</v>
       </c>
@@ -28702,7 +28772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>5</v>
       </c>
@@ -28743,7 +28813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>5</v>
       </c>
@@ -28784,7 +28854,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>5</v>
       </c>
@@ -28825,7 +28895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>5</v>
       </c>
@@ -28866,7 +28936,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>5</v>
       </c>
@@ -28907,7 +28977,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>5</v>
       </c>
@@ -28948,7 +29018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>5</v>
       </c>
@@ -28989,7 +29059,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>5</v>
       </c>
@@ -29030,7 +29100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1">
+    <row r="39" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>5</v>
       </c>
@@ -29069,7 +29139,7 @@
       </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" s="13" customFormat="1">
+    <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>5</v>
       </c>
@@ -29108,7 +29178,7 @@
       </c>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:13" s="13" customFormat="1">
+    <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>5</v>
       </c>
@@ -29149,7 +29219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="13" customFormat="1">
+    <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>5</v>
       </c>
@@ -29190,7 +29260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="13" customFormat="1">
+    <row r="43" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>5</v>
       </c>
@@ -29231,7 +29301,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="13" customFormat="1">
+    <row r="44" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>5</v>
       </c>
@@ -29272,7 +29342,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="13" customFormat="1">
+    <row r="45" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>5</v>
       </c>
@@ -29311,7 +29381,7 @@
       </c>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13" s="13" customFormat="1">
+    <row r="46" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>5</v>
       </c>
@@ -29350,7 +29420,7 @@
       </c>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="1:13" s="13" customFormat="1">
+    <row r="47" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>5</v>
       </c>
@@ -29391,7 +29461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="13" customFormat="1">
+    <row r="48" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>5</v>
       </c>
@@ -29432,7 +29502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="49" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>5</v>
       </c>
@@ -29473,7 +29543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="50" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -29514,7 +29584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="51" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>5</v>
       </c>
@@ -29555,7 +29625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="52" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>5</v>
       </c>
@@ -29596,7 +29666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="53" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>5</v>
       </c>
@@ -29637,7 +29707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="54" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>5</v>
       </c>
@@ -29678,7 +29748,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="55" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>5</v>
       </c>
@@ -29719,7 +29789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="56" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>5</v>
       </c>
@@ -29760,7 +29830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="57" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>5</v>
       </c>
@@ -29801,7 +29871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="58" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>5</v>
       </c>
@@ -29842,7 +29912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="59" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>5</v>
       </c>
@@ -29883,7 +29953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="60" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>5</v>
       </c>
@@ -29924,7 +29994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="61" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>5</v>
       </c>
@@ -29965,7 +30035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="52" customFormat="1">
+    <row r="62" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="90" t="s">
         <v>336</v>
       </c>
@@ -30006,7 +30076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="52" customFormat="1">
+    <row r="63" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90" t="s">
         <v>336</v>
       </c>
@@ -30047,7 +30117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="52" customFormat="1">
+    <row r="64" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="90" t="s">
         <v>336</v>
       </c>
@@ -30086,6 +30156,619 @@
       </c>
       <c r="M64" s="49">
         <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="49">
+        <v>64</v>
+      </c>
+      <c r="C65" s="49">
+        <v>10</v>
+      </c>
+      <c r="D65" s="50">
+        <v>2</v>
+      </c>
+      <c r="E65" s="49">
+        <v>1</v>
+      </c>
+      <c r="F65" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H65" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="I65" s="50">
+        <v>1</v>
+      </c>
+      <c r="J65" s="49">
+        <v>2</v>
+      </c>
+      <c r="K65" s="49">
+        <v>1</v>
+      </c>
+      <c r="L65" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="M65" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" s="49">
+        <v>65</v>
+      </c>
+      <c r="C66" s="49">
+        <v>10</v>
+      </c>
+      <c r="D66" s="50">
+        <v>2</v>
+      </c>
+      <c r="E66" s="49">
+        <v>1</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="I66" s="50">
+        <v>1</v>
+      </c>
+      <c r="J66" s="49">
+        <v>2</v>
+      </c>
+      <c r="K66" s="49">
+        <v>1</v>
+      </c>
+      <c r="L66" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="M66" s="49" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="49">
+        <v>66</v>
+      </c>
+      <c r="C67" s="49">
+        <v>10</v>
+      </c>
+      <c r="D67" s="50">
+        <v>2</v>
+      </c>
+      <c r="E67" s="49">
+        <v>2</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="I67" s="50">
+        <v>1</v>
+      </c>
+      <c r="J67" s="49">
+        <v>2</v>
+      </c>
+      <c r="K67" s="49">
+        <v>3</v>
+      </c>
+      <c r="L67" s="51" t="s">
+        <v>643</v>
+      </c>
+      <c r="M67" s="49" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="49">
+        <v>67</v>
+      </c>
+      <c r="C68" s="49">
+        <v>10</v>
+      </c>
+      <c r="D68" s="50">
+        <v>2</v>
+      </c>
+      <c r="E68" s="49">
+        <v>1</v>
+      </c>
+      <c r="F68" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="I68" s="50">
+        <v>1</v>
+      </c>
+      <c r="J68" s="49">
+        <v>2</v>
+      </c>
+      <c r="K68" s="49">
+        <v>1</v>
+      </c>
+      <c r="L68" s="51" t="s">
+        <v>642</v>
+      </c>
+      <c r="M68" s="49"/>
+    </row>
+    <row r="69" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B69" s="49">
+        <v>68</v>
+      </c>
+      <c r="C69" s="49">
+        <v>10</v>
+      </c>
+      <c r="D69" s="50">
+        <v>2</v>
+      </c>
+      <c r="E69" s="49">
+        <v>1</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="I69" s="50">
+        <v>1</v>
+      </c>
+      <c r="J69" s="49">
+        <v>2</v>
+      </c>
+      <c r="K69" s="49">
+        <v>3</v>
+      </c>
+      <c r="L69" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="M69" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" s="49">
+        <v>69</v>
+      </c>
+      <c r="C70" s="49">
+        <v>10</v>
+      </c>
+      <c r="D70" s="50">
+        <v>2</v>
+      </c>
+      <c r="E70" s="49">
+        <v>2</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="50">
+        <v>1</v>
+      </c>
+      <c r="J70" s="49">
+        <v>2</v>
+      </c>
+      <c r="K70" s="49">
+        <v>3</v>
+      </c>
+      <c r="L70" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="M70" s="49">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B71" s="49">
+        <v>70</v>
+      </c>
+      <c r="C71" s="49">
+        <v>10</v>
+      </c>
+      <c r="D71" s="50">
+        <v>2</v>
+      </c>
+      <c r="E71" s="49">
+        <v>2</v>
+      </c>
+      <c r="F71" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="50">
+        <v>1</v>
+      </c>
+      <c r="J71" s="49">
+        <v>2</v>
+      </c>
+      <c r="K71" s="49">
+        <v>4</v>
+      </c>
+      <c r="L71" s="51" t="s">
+        <v>645</v>
+      </c>
+      <c r="M71" s="49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" s="49">
+        <v>71</v>
+      </c>
+      <c r="C72" s="49">
+        <v>10</v>
+      </c>
+      <c r="D72" s="50">
+        <v>2</v>
+      </c>
+      <c r="E72" s="49">
+        <v>2</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="50">
+        <v>1</v>
+      </c>
+      <c r="J72" s="49">
+        <v>2</v>
+      </c>
+      <c r="K72" s="49">
+        <v>4</v>
+      </c>
+      <c r="L72" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="M72" s="49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="49">
+        <v>72</v>
+      </c>
+      <c r="C73" s="49">
+        <v>10</v>
+      </c>
+      <c r="D73" s="50">
+        <v>2</v>
+      </c>
+      <c r="E73" s="49">
+        <v>3</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H73" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="50">
+        <v>1</v>
+      </c>
+      <c r="J73" s="49">
+        <v>2</v>
+      </c>
+      <c r="K73" s="49">
+        <v>4</v>
+      </c>
+      <c r="L73" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="M73" s="49">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="52" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="49">
+        <v>73</v>
+      </c>
+      <c r="C74" s="49">
+        <v>10</v>
+      </c>
+      <c r="D74" s="50">
+        <v>2</v>
+      </c>
+      <c r="E74" s="49">
+        <v>3</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="50">
+        <v>1</v>
+      </c>
+      <c r="J74" s="49">
+        <v>2</v>
+      </c>
+      <c r="K74" s="49">
+        <v>4</v>
+      </c>
+      <c r="L74" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="M74" s="49">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B75" s="49">
+        <v>74</v>
+      </c>
+      <c r="C75" s="49">
+        <v>10</v>
+      </c>
+      <c r="D75" s="50">
+        <v>2</v>
+      </c>
+      <c r="E75" s="49">
+        <v>2</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="I75" s="50">
+        <v>1</v>
+      </c>
+      <c r="J75" s="49">
+        <v>2</v>
+      </c>
+      <c r="K75" s="49">
+        <v>3</v>
+      </c>
+      <c r="L75" s="51" t="s">
+        <v>647</v>
+      </c>
+      <c r="M75" s="49">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B76" s="49">
+        <v>75</v>
+      </c>
+      <c r="C76" s="49">
+        <v>10</v>
+      </c>
+      <c r="D76" s="50">
+        <v>2</v>
+      </c>
+      <c r="E76" s="49">
+        <v>1</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="I76" s="50">
+        <v>1</v>
+      </c>
+      <c r="J76" s="49">
+        <v>2</v>
+      </c>
+      <c r="K76" s="49">
+        <v>3</v>
+      </c>
+      <c r="L76" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="M76" s="49">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="52" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" s="49">
+        <v>76</v>
+      </c>
+      <c r="C77" s="49">
+        <v>10</v>
+      </c>
+      <c r="D77" s="50">
+        <v>2</v>
+      </c>
+      <c r="E77" s="49">
+        <v>3</v>
+      </c>
+      <c r="F77" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H77" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77" s="50">
+        <v>1</v>
+      </c>
+      <c r="J77" s="49">
+        <v>2</v>
+      </c>
+      <c r="K77" s="49">
+        <v>4</v>
+      </c>
+      <c r="L77" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="M77" s="49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B78" s="49">
+        <v>77</v>
+      </c>
+      <c r="C78" s="49">
+        <v>10</v>
+      </c>
+      <c r="D78" s="50">
+        <v>2</v>
+      </c>
+      <c r="E78" s="49">
+        <v>1</v>
+      </c>
+      <c r="F78" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H78" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="I78" s="50">
+        <v>1</v>
+      </c>
+      <c r="J78" s="49">
+        <v>2</v>
+      </c>
+      <c r="K78" s="49">
+        <v>3</v>
+      </c>
+      <c r="L78" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="M78" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="52" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B79" s="49">
+        <v>78</v>
+      </c>
+      <c r="C79" s="49">
+        <v>10</v>
+      </c>
+      <c r="D79" s="50">
+        <v>2</v>
+      </c>
+      <c r="E79" s="49">
+        <v>3</v>
+      </c>
+      <c r="F79" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79" s="50">
+        <v>1</v>
+      </c>
+      <c r="J79" s="49">
+        <v>2</v>
+      </c>
+      <c r="K79" s="49">
+        <v>4</v>
+      </c>
+      <c r="L79" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="M79" s="49">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -30095,29 +30778,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="113" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" style="113" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -30158,7 +30841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>5</v>
       </c>
@@ -30199,7 +30882,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>5</v>
       </c>
@@ -30240,7 +30923,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -30281,7 +30964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -30322,7 +31005,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -30363,7 +31046,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -30404,7 +31087,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -30443,7 +31126,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -30484,7 +31167,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -30523,7 +31206,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -30564,7 +31247,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -30605,7 +31288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -30646,7 +31329,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -30687,7 +31370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -30728,7 +31411,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -30769,7 +31452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -30810,7 +31493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -30851,7 +31534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>5</v>
       </c>
@@ -30892,7 +31575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>5</v>
       </c>
@@ -30933,7 +31616,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>5</v>
       </c>
@@ -30974,7 +31657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>5</v>
       </c>
@@ -31015,7 +31698,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>5</v>
       </c>
@@ -31056,7 +31739,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -31097,7 +31780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>5</v>
       </c>
@@ -31138,7 +31821,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>5</v>
       </c>
@@ -31179,7 +31862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>5</v>
       </c>
@@ -31220,7 +31903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>5</v>
       </c>
@@ -31261,7 +31944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>5</v>
       </c>
@@ -31302,7 +31985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>5</v>
       </c>
@@ -31343,7 +32026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>5</v>
       </c>
@@ -31384,7 +32067,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>5</v>
       </c>
@@ -31425,7 +32108,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>5</v>
       </c>
@@ -31466,7 +32149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>5</v>
       </c>
@@ -31507,7 +32190,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>5</v>
       </c>
@@ -31548,7 +32231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="36" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>5</v>
       </c>
@@ -31589,7 +32272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>5</v>
       </c>
@@ -31630,7 +32313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>6</v>
       </c>
@@ -31671,7 +32354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>5</v>
       </c>
@@ -31712,7 +32395,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>5</v>
       </c>
@@ -31753,7 +32436,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>5</v>
       </c>
@@ -31794,7 +32477,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>5</v>
       </c>
@@ -31835,7 +32518,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>5</v>
       </c>
@@ -31876,7 +32559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="44" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>5</v>
       </c>
@@ -31917,7 +32600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="45" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>5</v>
       </c>
@@ -31958,7 +32641,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="46" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>5</v>
       </c>
@@ -31999,7 +32682,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>6</v>
       </c>
@@ -32040,7 +32723,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>6</v>
       </c>
@@ -32081,7 +32764,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>6</v>
       </c>
@@ -32120,7 +32803,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>6</v>
       </c>
@@ -32161,7 +32844,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>6</v>
       </c>
@@ -32202,7 +32885,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>6</v>
       </c>
@@ -32243,7 +32926,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>6</v>
       </c>
@@ -32284,7 +32967,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>6</v>
       </c>
@@ -32325,7 +33008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>6</v>
       </c>
@@ -32364,7 +33047,7 @@
       </c>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>6</v>
       </c>
@@ -32403,7 +33086,7 @@
       </c>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>6</v>
       </c>
@@ -32444,7 +33127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>6</v>
       </c>
@@ -32485,7 +33168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>6</v>
       </c>
@@ -32526,7 +33209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>6</v>
       </c>
@@ -32565,7 +33248,7 @@
       </c>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>6</v>
       </c>
@@ -32604,7 +33287,7 @@
       </c>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>6</v>
       </c>
@@ -32645,7 +33328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>6</v>
       </c>
@@ -32686,7 +33369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>6</v>
       </c>
@@ -32727,7 +33410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>6</v>
       </c>
@@ -32768,7 +33451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>6</v>
       </c>
@@ -32807,7 +33490,7 @@
       </c>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>6</v>
       </c>
@@ -32848,7 +33531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>6</v>
       </c>
@@ -32889,7 +33572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>6</v>
       </c>
@@ -32930,7 +33613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>6</v>
       </c>
@@ -32971,7 +33654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>6</v>
       </c>
@@ -33012,7 +33695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>6</v>
       </c>
@@ -33053,7 +33736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>6</v>
       </c>
@@ -33094,7 +33777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>6</v>
       </c>
@@ -33135,7 +33818,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>6</v>
       </c>
@@ -33176,7 +33859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>6</v>
       </c>
@@ -33217,7 +33900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>6</v>
       </c>
@@ -33256,7 +33939,7 @@
       </c>
       <c r="M77" s="15"/>
     </row>
-    <row r="78" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>6</v>
       </c>
@@ -33297,7 +33980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>6</v>
       </c>
@@ -33338,7 +34021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>6</v>
       </c>
@@ -33379,7 +34062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>6</v>
       </c>
@@ -33418,7 +34101,7 @@
       </c>
       <c r="M81" s="15"/>
     </row>
-    <row r="82" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>6</v>
       </c>
@@ -33459,7 +34142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>6</v>
       </c>
@@ -33498,7 +34181,7 @@
       </c>
       <c r="M83" s="15"/>
     </row>
-    <row r="84" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>6</v>
       </c>
@@ -33537,7 +34220,7 @@
       </c>
       <c r="M84" s="15"/>
     </row>
-    <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>6</v>
       </c>
@@ -33576,7 +34259,7 @@
       </c>
       <c r="M85" s="15"/>
     </row>
-    <row r="86" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>6</v>
       </c>
@@ -33615,7 +34298,7 @@
       </c>
       <c r="M86" s="15"/>
     </row>
-    <row r="87" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>6</v>
       </c>
@@ -33654,7 +34337,7 @@
       </c>
       <c r="M87" s="15"/>
     </row>
-    <row r="88" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>6</v>
       </c>
@@ -33695,7 +34378,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>6</v>
       </c>
@@ -33734,7 +34417,7 @@
       </c>
       <c r="M89" s="15"/>
     </row>
-    <row r="90" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>6</v>
       </c>
@@ -33775,7 +34458,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
+    <row r="91" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>6</v>
       </c>
@@ -33816,7 +34499,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
+    <row r="92" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>6</v>
       </c>
@@ -33857,7 +34540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>6</v>
       </c>
@@ -33898,7 +34581,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
+    <row r="94" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>6</v>
       </c>
@@ -33937,7 +34620,7 @@
       </c>
       <c r="M94" s="15"/>
     </row>
-    <row r="95" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1">
+    <row r="95" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>6</v>
       </c>
@@ -33978,7 +34661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="18" customFormat="1" ht="29.25" customHeight="1">
+    <row r="96" spans="1:13" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>6</v>
       </c>
@@ -34019,7 +34702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="97" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>6</v>
       </c>
@@ -34060,7 +34743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="98" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>6</v>
       </c>
@@ -34101,7 +34784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="99" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>6</v>
       </c>
@@ -34142,7 +34825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="100" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>6</v>
       </c>
@@ -34183,7 +34866,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="101" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>6</v>
       </c>
@@ -34224,7 +34907,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="102" spans="1:13" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>6</v>
       </c>
@@ -34272,30 +34955,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="89" customFormat="1" ht="35.25" customHeight="1">
+    <row r="1" spans="1:14" s="89" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -34337,7 +35020,7 @@
       </c>
       <c r="N1" s="88"/>
     </row>
-    <row r="2" spans="1:14" s="52" customFormat="1" ht="30">
+    <row r="2" spans="1:14" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="90" t="s">
         <v>336</v>
       </c>
@@ -34378,7 +35061,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="52" customFormat="1" ht="30">
+    <row r="3" spans="1:14" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="90" t="s">
         <v>336</v>
       </c>
@@ -34417,7 +35100,7 @@
       </c>
       <c r="M3" s="49"/>
     </row>
-    <row r="4" spans="1:14" s="52" customFormat="1" ht="30">
+    <row r="4" spans="1:14" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="90" t="s">
         <v>336</v>
       </c>
@@ -34456,7 +35139,7 @@
       </c>
       <c r="M4" s="49"/>
     </row>
-    <row r="5" spans="1:14" s="52" customFormat="1" ht="30">
+    <row r="5" spans="1:14" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
         <v>336</v>
       </c>
@@ -34495,7 +35178,7 @@
       </c>
       <c r="M5" s="49"/>
     </row>
-    <row r="6" spans="1:14" s="52" customFormat="1" ht="30">
+    <row r="6" spans="1:14" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="90" t="s">
         <v>336</v>
       </c>
@@ -34534,7 +35217,7 @@
       </c>
       <c r="M6" s="49"/>
     </row>
-    <row r="7" spans="1:14" s="52" customFormat="1">
+    <row r="7" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="90" t="s">
         <v>336</v>
       </c>
@@ -34573,7 +35256,7 @@
       </c>
       <c r="M7" s="49"/>
     </row>
-    <row r="8" spans="1:14" s="52" customFormat="1" ht="30">
+    <row r="8" spans="1:14" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>336</v>
       </c>
@@ -34612,7 +35295,7 @@
       </c>
       <c r="M8" s="49"/>
     </row>
-    <row r="9" spans="1:14" s="52" customFormat="1">
+    <row r="9" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="90" t="s">
         <v>336</v>
       </c>
@@ -34651,7 +35334,7 @@
       </c>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="1:14" s="52" customFormat="1">
+    <row r="10" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
         <v>336</v>
       </c>
@@ -34690,7 +35373,7 @@
       </c>
       <c r="M10" s="49"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1">
+    <row r="11" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>330</v>
       </c>
@@ -34729,7 +35412,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1">
+    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>330</v>
       </c>
@@ -34768,7 +35451,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1">
+    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>330</v>
       </c>
@@ -34807,7 +35490,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>330</v>
       </c>
@@ -34848,7 +35531,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1">
+    <row r="15" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>330</v>
       </c>
@@ -34889,7 +35572,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>330</v>
       </c>
@@ -34928,7 +35611,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>330</v>
       </c>
@@ -34969,7 +35652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>330</v>
       </c>
@@ -35008,7 +35691,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>330</v>
       </c>
@@ -35049,7 +35732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>330</v>
       </c>
@@ -35090,7 +35773,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>330</v>
       </c>
@@ -35131,7 +35814,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1">
+    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>330</v>
       </c>
@@ -35172,7 +35855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="13" customFormat="1">
+    <row r="23" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>330</v>
       </c>
@@ -35213,7 +35896,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>330</v>
       </c>
@@ -35254,7 +35937,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="13" customFormat="1">
+    <row r="25" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>330</v>
       </c>
@@ -35295,7 +35978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>330</v>
       </c>
@@ -35334,7 +36017,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" s="13" customFormat="1">
+    <row r="27" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>330</v>
       </c>
@@ -35373,7 +36056,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1">
+    <row r="28" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>330</v>
       </c>
@@ -35414,7 +36097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>330</v>
       </c>
@@ -35455,7 +36138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="13" customFormat="1">
+    <row r="30" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>330</v>
       </c>
@@ -35496,7 +36179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="13" customFormat="1">
+    <row r="31" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>330</v>
       </c>
@@ -35537,7 +36220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>330</v>
       </c>
@@ -35578,7 +36261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>330</v>
       </c>
@@ -35619,7 +36302,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1">
+    <row r="34" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>330</v>
       </c>
@@ -35660,7 +36343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1">
+    <row r="35" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>330</v>
       </c>
@@ -35701,7 +36384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="13" customFormat="1">
+    <row r="36" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>330</v>
       </c>
@@ -35742,7 +36425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="13" customFormat="1">
+    <row r="37" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>330</v>
       </c>
@@ -35783,7 +36466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="13" customFormat="1">
+    <row r="38" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>330</v>
       </c>
@@ -35824,7 +36507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1">
+    <row r="39" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>330</v>
       </c>
@@ -35863,7 +36546,7 @@
       </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" s="13" customFormat="1">
+    <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>330</v>
       </c>
@@ -35904,7 +36587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="13" customFormat="1">
+    <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>330</v>
       </c>
@@ -35945,7 +36628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="13" customFormat="1">
+    <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>330</v>
       </c>
@@ -35986,7 +36669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="13" customFormat="1">
+    <row r="43" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>330</v>
       </c>
@@ -36023,7 +36706,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="1:13" s="13" customFormat="1">
+    <row r="44" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>330</v>
       </c>
@@ -36064,7 +36747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="13" customFormat="1">
+    <row r="45" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>330</v>
       </c>
@@ -36103,7 +36786,7 @@
       </c>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13" s="13" customFormat="1">
+    <row r="46" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>330</v>
       </c>
@@ -36142,7 +36825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="13" customFormat="1">
+    <row r="47" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>330</v>
       </c>
@@ -36180,7 +36863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="13" customFormat="1">
+    <row r="48" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>330</v>
       </c>
@@ -36219,7 +36902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="13" customFormat="1">
+    <row r="49" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>330</v>
       </c>
@@ -36258,7 +36941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="13" customFormat="1">
+    <row r="50" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>330</v>
       </c>
@@ -36297,7 +36980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="13" customFormat="1">
+    <row r="51" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>330</v>
       </c>
@@ -36336,7 +37019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1">
+    <row r="52" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>330</v>
       </c>
@@ -36375,7 +37058,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="13" customFormat="1">
+    <row r="53" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>330</v>
       </c>
@@ -36414,7 +37097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="13" customFormat="1">
+    <row r="54" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>330</v>
       </c>
@@ -36453,7 +37136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="13" customFormat="1">
+    <row r="55" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>330</v>
       </c>
@@ -36492,7 +37175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="13" customFormat="1">
+    <row r="56" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>330</v>
       </c>
@@ -36531,7 +37214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="13" customFormat="1">
+    <row r="57" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>330</v>
       </c>
@@ -36572,7 +37255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="13" customFormat="1">
+    <row r="58" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>330</v>
       </c>
@@ -36613,7 +37296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="52" customFormat="1" ht="30">
+    <row r="59" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="90" t="s">
         <v>336</v>
       </c>
@@ -36654,7 +37337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="52" customFormat="1" ht="30">
+    <row r="60" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90" t="s">
         <v>336</v>
       </c>
@@ -36695,7 +37378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="52" customFormat="1" ht="30">
+    <row r="61" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="90" t="s">
         <v>336</v>
       </c>
@@ -36736,7 +37419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="52" customFormat="1" ht="30">
+    <row r="62" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90" t="s">
         <v>336</v>
       </c>
@@ -36777,7 +37460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="52" customFormat="1" ht="30">
+    <row r="63" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="90" t="s">
         <v>336</v>
       </c>
@@ -36818,7 +37501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="52" customFormat="1">
+    <row r="64" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="90" t="s">
         <v>336</v>
       </c>
@@ -36859,7 +37542,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="52" customFormat="1">
+    <row r="65" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="90" t="s">
         <v>336</v>
       </c>
@@ -36900,7 +37583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="52" customFormat="1">
+    <row r="66" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90" t="s">
         <v>336</v>
       </c>
@@ -36941,7 +37624,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="52" customFormat="1">
+    <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="90" t="s">
         <v>336</v>
       </c>
@@ -36982,7 +37665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="52" customFormat="1">
+    <row r="68" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="90" t="s">
         <v>336</v>
       </c>
@@ -37023,7 +37706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="52" customFormat="1">
+    <row r="69" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="90" t="s">
         <v>336</v>
       </c>
@@ -37064,7 +37747,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="52" customFormat="1">
+    <row r="70" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="90" t="s">
         <v>336</v>
       </c>
@@ -37105,7 +37788,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="52" customFormat="1" ht="30">
+    <row r="71" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="90" t="s">
         <v>336</v>
       </c>
@@ -37146,7 +37829,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="52" customFormat="1" ht="30">
+    <row r="72" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="90" t="s">
         <v>336</v>
       </c>
@@ -37187,7 +37870,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="52" customFormat="1">
+    <row r="73" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="90" t="s">
         <v>336</v>
       </c>
@@ -37228,7 +37911,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="52" customFormat="1">
+    <row r="74" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="90" t="s">
         <v>336</v>
       </c>
@@ -37269,7 +37952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="52" customFormat="1">
+    <row r="75" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="90" t="s">
         <v>336</v>
       </c>
@@ -37310,7 +37993,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="52" customFormat="1">
+    <row r="76" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="90" t="s">
         <v>336</v>
       </c>
@@ -37351,7 +38034,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="52" customFormat="1">
+    <row r="77" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="90" t="s">
         <v>336</v>
       </c>
@@ -37402,32 +38085,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -37468,7 +38151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>5</v>
       </c>
@@ -37509,7 +38192,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>5</v>
       </c>
@@ -37550,7 +38233,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -37591,7 +38274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -37632,7 +38315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -37673,7 +38356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -37714,7 +38397,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -37755,7 +38438,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -37796,7 +38479,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -37837,7 +38520,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -37878,7 +38561,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -37919,7 +38602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -37960,7 +38643,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -38001,7 +38684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -38042,7 +38725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -38083,7 +38766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -38124,7 +38807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="52" customFormat="1">
+    <row r="18" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="90" t="s">
         <v>336</v>
       </c>
@@ -38165,7 +38848,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="52" customFormat="1">
+    <row r="19" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="90" t="s">
         <v>336</v>
       </c>
@@ -38204,6 +38887,129 @@
       </c>
       <c r="M19" s="49" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="49">
+        <v>19</v>
+      </c>
+      <c r="C20" s="49">
+        <v>10</v>
+      </c>
+      <c r="D20" s="50">
+        <v>3</v>
+      </c>
+      <c r="E20" s="49">
+        <v>2</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="I20" s="50">
+        <v>2</v>
+      </c>
+      <c r="J20" s="49">
+        <v>1</v>
+      </c>
+      <c r="K20" s="49">
+        <v>1</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="49">
+        <v>20</v>
+      </c>
+      <c r="C21" s="49">
+        <v>10</v>
+      </c>
+      <c r="D21" s="50">
+        <v>3</v>
+      </c>
+      <c r="E21" s="49">
+        <v>1</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="I21" s="50">
+        <v>2</v>
+      </c>
+      <c r="J21" s="49">
+        <v>1</v>
+      </c>
+      <c r="K21" s="49">
+        <v>1</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M21" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" s="49">
+        <v>21</v>
+      </c>
+      <c r="C22" s="49">
+        <v>10</v>
+      </c>
+      <c r="D22" s="50">
+        <v>3</v>
+      </c>
+      <c r="E22" s="49">
+        <v>3</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="I22" s="50">
+        <v>2</v>
+      </c>
+      <c r="J22" s="49">
+        <v>1</v>
+      </c>
+      <c r="K22" s="49">
+        <v>1</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M22" s="49">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="266" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F08C558-38C8-4210-81EA-9355F69C7688}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE7B453-4243-4F9B-8929-595CD33C82BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1476" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="675">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1568,9 +1568,6 @@
     <t>aritmetička sredina</t>
   </si>
   <si>
-    <t>Stubičasti dijagram</t>
-  </si>
-  <si>
     <t>I tabela</t>
   </si>
   <si>
@@ -2139,6 +2136,45 @@
   </si>
   <si>
     <t>množenje brojem</t>
+  </si>
+  <si>
+    <t>Prikaz podataka</t>
+  </si>
+  <si>
+    <t>Koordinate kvadrata</t>
+  </si>
+  <si>
+    <t>sedište u bioskopu</t>
+  </si>
+  <si>
+    <t>Prikaz podataka dijagramima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stubičasti </t>
+  </si>
+  <si>
+    <t>Linijski</t>
+  </si>
+  <si>
+    <t>zagrevanje vode</t>
+  </si>
+  <si>
+    <t>Tumačenje podataka</t>
+  </si>
+  <si>
+    <t>Prikazanih grafički</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Prikazanih tabelom</t>
+  </si>
+  <si>
+    <t>numbers 220</t>
+  </si>
+  <si>
+    <t>rast</t>
   </si>
 </sst>
 </file>
@@ -5562,10 +5598,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5582,6 +5618,7 @@
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5662,6 +5699,7 @@
       <c r="L2" s="18" t="s">
         <v>427</v>
       </c>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
@@ -5677,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>452</v>
@@ -5700,6 +5738,7 @@
       <c r="L3" s="18" t="s">
         <v>427</v>
       </c>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
@@ -5738,6 +5777,7 @@
       <c r="L4" s="18" t="s">
         <v>427</v>
       </c>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
@@ -5938,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M9" s="9">
         <v>5</v>
@@ -5979,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M10" s="9">
         <v>8</v>
@@ -6005,7 +6045,7 @@
         <v>452</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>453</v>
@@ -6046,7 +6086,7 @@
         <v>452</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>453</v>
@@ -6087,7 +6127,7 @@
         <v>452</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>453</v>
@@ -6128,7 +6168,7 @@
         <v>452</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>453</v>
@@ -6169,7 +6209,7 @@
         <v>452</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>453</v>
@@ -6184,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M15" s="15">
         <v>8</v>
@@ -6249,10 +6289,10 @@
         <v>452</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I17" s="16">
         <v>4</v>
@@ -6492,7 +6532,7 @@
         <v>447</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I23" s="16">
         <v>4</v>
@@ -6531,7 +6571,7 @@
         <v>447</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I24" s="16">
         <v>4</v>
@@ -6570,7 +6610,7 @@
         <v>447</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I25" s="16">
         <v>4</v>
@@ -6945,86 +6985,86 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>5</v>
-      </c>
-      <c r="B35" s="9">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>6</v>
+      </c>
+      <c r="B35" s="15">
         <v>33</v>
       </c>
-      <c r="C35" s="9">
-        <v>10</v>
-      </c>
-      <c r="D35" s="9">
-        <v>3</v>
-      </c>
-      <c r="E35" s="9">
-        <v>2</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="C35" s="15">
+        <v>10</v>
+      </c>
+      <c r="D35" s="15">
+        <v>3</v>
+      </c>
+      <c r="E35" s="15">
+        <v>2</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" s="10">
-        <v>4</v>
-      </c>
-      <c r="J35" s="10">
-        <v>2</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="M35" s="9" t="s">
+      <c r="G35" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="I35" s="16">
+        <v>4</v>
+      </c>
+      <c r="J35" s="16">
+        <v>3</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1</v>
+      </c>
+      <c r="L35" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>6</v>
+      </c>
+      <c r="B36" s="15">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15">
+        <v>10</v>
+      </c>
+      <c r="D36" s="15">
+        <v>3</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="I36" s="16">
+        <v>4</v>
+      </c>
+      <c r="J36" s="16">
+        <v>3</v>
+      </c>
+      <c r="K36" s="16">
+        <v>1</v>
+      </c>
+      <c r="L36" s="18" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>5</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="M36" s="15">
         <v>33</v>
-      </c>
-      <c r="C36" s="9">
-        <v>10</v>
-      </c>
-      <c r="D36" s="9">
-        <v>3</v>
-      </c>
-      <c r="E36" s="9">
-        <v>2</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="I36" s="10">
-        <v>4</v>
-      </c>
-      <c r="J36" s="10">
-        <v>2</v>
-      </c>
-      <c r="K36" s="10">
-        <v>2</v>
-      </c>
-      <c r="L36" s="93" t="s">
-        <v>473</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7032,7 +7072,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="9">
         <v>10</v>
@@ -7050,22 +7090,20 @@
         <v>470</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>156</v>
+        <v>475</v>
       </c>
       <c r="I37" s="10">
         <v>4</v>
       </c>
       <c r="J37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="M37" s="9">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="L37" s="93"/>
+      <c r="M37" s="9" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7073,7 +7111,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C38" s="9">
         <v>10</v>
@@ -7082,7 +7120,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>452</v>
@@ -7091,7 +7129,7 @@
         <v>470</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I38" s="10">
         <v>4</v>
@@ -7100,13 +7138,13 @@
         <v>2</v>
       </c>
       <c r="K38" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38" s="93" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M38" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7114,7 +7152,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
@@ -7123,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>452</v>
@@ -7132,7 +7170,7 @@
         <v>470</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>476</v>
+        <v>156</v>
       </c>
       <c r="I39" s="10">
         <v>4</v>
@@ -7141,11 +7179,13 @@
         <v>2</v>
       </c>
       <c r="K39" s="10">
-        <v>3</v>
-      </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="93" t="s">
         <v>477</v>
+      </c>
+      <c r="M39" s="9">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7168,19 +7208,19 @@
         <v>452</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="I40" s="10">
         <v>4</v>
       </c>
       <c r="J40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" s="93" t="s">
         <v>479</v>
@@ -7189,133 +7229,131 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" s="15">
+        <v>37</v>
+      </c>
+      <c r="C41" s="15">
+        <v>10</v>
+      </c>
+      <c r="D41" s="16">
+        <v>2</v>
+      </c>
+      <c r="E41" s="15">
+        <v>3</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="I41" s="16">
+        <v>4</v>
+      </c>
+      <c r="J41" s="15">
+        <v>2</v>
+      </c>
+      <c r="K41" s="15">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="15">
+        <v>38</v>
+      </c>
+      <c r="C42" s="15">
+        <v>10</v>
+      </c>
+      <c r="D42" s="16">
+        <v>2</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="I42" s="16">
+        <v>4</v>
+      </c>
+      <c r="J42" s="15">
+        <v>2</v>
+      </c>
+      <c r="K42" s="15">
+        <v>1</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B41" s="9">
-        <v>36</v>
-      </c>
-      <c r="C41" s="9">
-        <v>10</v>
-      </c>
-      <c r="D41" s="9">
-        <v>3</v>
-      </c>
-      <c r="E41" s="9">
-        <v>3</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="B43" s="9">
+        <v>39</v>
+      </c>
+      <c r="C43" s="9">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9">
+        <v>3</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I41" s="10">
-        <v>4</v>
-      </c>
-      <c r="J41" s="10">
-        <v>2</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="93" t="s">
-        <v>478</v>
-      </c>
-      <c r="M41" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>5</v>
-      </c>
-      <c r="B42" s="9">
-        <v>36</v>
-      </c>
-      <c r="C42" s="9">
-        <v>10</v>
-      </c>
-      <c r="D42" s="9">
-        <v>3</v>
-      </c>
-      <c r="E42" s="9">
-        <v>3</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="G42" s="13" t="s">
+      <c r="G43" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H43" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="I42" s="10">
-        <v>4</v>
-      </c>
-      <c r="J42" s="10">
-        <v>1</v>
-      </c>
-      <c r="K42" s="10">
-        <v>1</v>
-      </c>
-      <c r="L42" s="93" t="s">
-        <v>480</v>
-      </c>
-      <c r="M42" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120" t="s">
-        <v>335</v>
-      </c>
-      <c r="B43" s="15">
-        <v>37</v>
-      </c>
-      <c r="C43" s="15">
-        <v>10</v>
-      </c>
-      <c r="D43" s="16">
-        <v>2</v>
-      </c>
-      <c r="E43" s="15">
-        <v>3</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="I43" s="16">
-        <v>4</v>
-      </c>
-      <c r="J43" s="15">
-        <v>2</v>
-      </c>
-      <c r="K43" s="15">
-        <v>1</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="M43" s="15"/>
+      <c r="I43" s="10">
+        <v>4</v>
+      </c>
+      <c r="J43" s="10">
+        <v>1</v>
+      </c>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
+      <c r="L43" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="120" t="s">
         <v>335</v>
       </c>
       <c r="B44" s="15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" s="15">
         <v>10</v>
@@ -7330,10 +7368,10 @@
         <v>452</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="I44" s="16">
         <v>4</v>
@@ -7342,92 +7380,537 @@
         <v>2</v>
       </c>
       <c r="K44" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>5</v>
-      </c>
-      <c r="B45" s="9">
-        <v>39</v>
-      </c>
-      <c r="C45" s="9">
-        <v>10</v>
-      </c>
-      <c r="D45" s="9">
-        <v>3</v>
-      </c>
-      <c r="E45" s="9">
-        <v>1</v>
-      </c>
-      <c r="F45" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>6</v>
+      </c>
+      <c r="B45" s="15">
+        <v>41</v>
+      </c>
+      <c r="C45" s="15">
+        <v>10</v>
+      </c>
+      <c r="D45" s="15">
+        <v>3</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="I45" s="10">
-        <v>4</v>
-      </c>
-      <c r="J45" s="10">
-        <v>1</v>
-      </c>
-      <c r="K45" s="10">
-        <v>1</v>
-      </c>
-      <c r="L45" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="120" t="s">
-        <v>335</v>
+      <c r="G45" s="113" t="s">
+        <v>424</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="I45" s="15">
+        <v>4</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>6</v>
       </c>
       <c r="B46" s="15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C46" s="15">
         <v>10</v>
       </c>
-      <c r="D46" s="16">
-        <v>2</v>
+      <c r="D46" s="15">
+        <v>3</v>
       </c>
       <c r="E46" s="15">
         <v>1</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>655</v>
+      <c r="G46" s="113" t="s">
+        <v>424</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="I46" s="16">
+        <v>662</v>
+      </c>
+      <c r="I46" s="15">
         <v>4</v>
       </c>
       <c r="J46" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="15">
-        <v>2</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>463</v>
+        <v>1</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>427</v>
       </c>
       <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>6</v>
+      </c>
+      <c r="B47" s="15">
+        <v>43</v>
+      </c>
+      <c r="C47" s="15">
+        <v>10</v>
+      </c>
+      <c r="D47" s="15">
+        <v>3</v>
+      </c>
+      <c r="E47" s="15">
+        <v>3</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G47" s="113" t="s">
+        <v>424</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="I47" s="15">
+        <v>4</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="M47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>6</v>
+      </c>
+      <c r="B48" s="15">
+        <v>44</v>
+      </c>
+      <c r="C48" s="15">
+        <v>10</v>
+      </c>
+      <c r="D48" s="15">
+        <v>3</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G48" s="113" t="s">
+        <v>424</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="I48" s="15">
+        <v>4</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>6</v>
+      </c>
+      <c r="B49" s="15">
+        <v>45</v>
+      </c>
+      <c r="C49" s="15">
+        <v>8</v>
+      </c>
+      <c r="D49" s="15">
+        <v>3</v>
+      </c>
+      <c r="E49" s="15">
+        <v>2</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="I49" s="15">
+        <v>4</v>
+      </c>
+      <c r="J49" s="15">
+        <v>3</v>
+      </c>
+      <c r="K49" s="15">
+        <v>3</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>6</v>
+      </c>
+      <c r="B50" s="15">
+        <v>45</v>
+      </c>
+      <c r="C50" s="15">
+        <v>8</v>
+      </c>
+      <c r="D50" s="15">
+        <v>3</v>
+      </c>
+      <c r="E50" s="15">
+        <v>2</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="I50" s="15">
+        <v>4</v>
+      </c>
+      <c r="J50" s="15">
+        <v>4</v>
+      </c>
+      <c r="K50" s="15">
+        <v>2</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>6</v>
+      </c>
+      <c r="B51" s="15">
+        <v>46</v>
+      </c>
+      <c r="C51" s="15">
+        <v>10</v>
+      </c>
+      <c r="D51" s="15">
+        <v>3</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="I51" s="15">
+        <v>4</v>
+      </c>
+      <c r="J51" s="15">
+        <v>3</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>6</v>
+      </c>
+      <c r="B52" s="15">
+        <v>47</v>
+      </c>
+      <c r="C52" s="15">
+        <v>8</v>
+      </c>
+      <c r="D52" s="15">
+        <v>3</v>
+      </c>
+      <c r="E52" s="15">
+        <v>2</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="I52" s="15">
+        <v>4</v>
+      </c>
+      <c r="J52" s="15">
+        <v>4</v>
+      </c>
+      <c r="K52" s="15">
+        <v>2</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="M52" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>6</v>
+      </c>
+      <c r="B53" s="15">
+        <v>47</v>
+      </c>
+      <c r="C53" s="15">
+        <v>8</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3</v>
+      </c>
+      <c r="E53" s="15">
+        <v>2</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="I53" s="15">
+        <v>4</v>
+      </c>
+      <c r="J53" s="15">
+        <v>3</v>
+      </c>
+      <c r="K53" s="15">
+        <v>3</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="M53" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>6</v>
+      </c>
+      <c r="B54" s="15">
+        <v>48</v>
+      </c>
+      <c r="C54" s="15">
+        <v>10</v>
+      </c>
+      <c r="D54" s="15">
+        <v>3</v>
+      </c>
+      <c r="E54" s="15">
+        <v>3</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="I54" s="15">
+        <v>4</v>
+      </c>
+      <c r="J54" s="15">
+        <v>4</v>
+      </c>
+      <c r="K54" s="15">
+        <v>2</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M54" s="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>6</v>
+      </c>
+      <c r="B55" s="15">
+        <v>49</v>
+      </c>
+      <c r="C55" s="15">
+        <v>10</v>
+      </c>
+      <c r="D55" s="15">
+        <v>3</v>
+      </c>
+      <c r="E55" s="15">
+        <v>3</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="I55" s="15">
+        <v>4</v>
+      </c>
+      <c r="J55" s="15">
+        <v>4</v>
+      </c>
+      <c r="K55" s="15">
+        <v>1</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M55" s="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
+        <v>6</v>
+      </c>
+      <c r="B56" s="15">
+        <v>50</v>
+      </c>
+      <c r="C56" s="15">
+        <v>10</v>
+      </c>
+      <c r="D56" s="15">
+        <v>3</v>
+      </c>
+      <c r="E56" s="15">
+        <v>2</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="I56" s="15">
+        <v>4</v>
+      </c>
+      <c r="J56" s="15">
+        <v>4</v>
+      </c>
+      <c r="K56" s="15">
+        <v>1</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M56" s="15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
+        <v>6</v>
+      </c>
+      <c r="B57" s="15">
+        <v>50</v>
+      </c>
+      <c r="C57" s="15">
+        <v>10</v>
+      </c>
+      <c r="D57" s="15">
+        <v>3</v>
+      </c>
+      <c r="E57" s="15">
+        <v>2</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="I57" s="15">
+        <v>4</v>
+      </c>
+      <c r="J57" s="15">
+        <v>4</v>
+      </c>
+      <c r="K57" s="15">
+        <v>2</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M57" s="15">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11032,7 +11515,7 @@
   <dimension ref="A1:N256"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L239" sqref="L239"/>
     </sheetView>
   </sheetViews>
@@ -22992,7 +23475,7 @@
         <v>3</v>
       </c>
       <c r="L43" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M43" s="42">
         <v>37</v>
@@ -30278,7 +30761,7 @@
         <v>178</v>
       </c>
       <c r="G62" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H62" s="52" t="s">
         <v>348</v>
@@ -30293,7 +30776,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="51" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M62" s="49">
         <v>5</v>
@@ -30319,7 +30802,7 @@
         <v>178</v>
       </c>
       <c r="G63" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H63" s="52" t="s">
         <v>348</v>
@@ -30334,7 +30817,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="51" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M63" s="49">
         <v>6</v>
@@ -30360,22 +30843,22 @@
         <v>178</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H64" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="I64" s="50">
+        <v>1</v>
+      </c>
+      <c r="J64" s="49">
+        <v>2</v>
+      </c>
+      <c r="K64" s="49">
+        <v>1</v>
+      </c>
+      <c r="L64" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="I64" s="50">
-        <v>1</v>
-      </c>
-      <c r="J64" s="49">
-        <v>2</v>
-      </c>
-      <c r="K64" s="49">
-        <v>1</v>
-      </c>
-      <c r="L64" s="51" t="s">
-        <v>632</v>
       </c>
       <c r="M64" s="49">
         <v>22</v>
@@ -30401,22 +30884,22 @@
         <v>178</v>
       </c>
       <c r="G65" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H65" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="I65" s="50">
+        <v>1</v>
+      </c>
+      <c r="J65" s="49">
+        <v>2</v>
+      </c>
+      <c r="K65" s="49">
+        <v>1</v>
+      </c>
+      <c r="L65" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="I65" s="50">
-        <v>1</v>
-      </c>
-      <c r="J65" s="49">
-        <v>2</v>
-      </c>
-      <c r="K65" s="49">
-        <v>1</v>
-      </c>
-      <c r="L65" s="51" t="s">
-        <v>632</v>
       </c>
       <c r="M65" s="49">
         <v>21</v>
@@ -30442,10 +30925,10 @@
         <v>178</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I66" s="50">
         <v>1</v>
@@ -30457,10 +30940,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="51" t="s">
+        <v>632</v>
+      </c>
+      <c r="M66" s="49" t="s">
         <v>633</v>
-      </c>
-      <c r="M66" s="49" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -30483,7 +30966,7 @@
         <v>178</v>
       </c>
       <c r="G67" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H67" s="52" t="s">
         <v>193</v>
@@ -30498,10 +30981,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M67" s="49" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -30524,10 +31007,10 @@
         <v>178</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I68" s="50">
         <v>1</v>
@@ -30539,7 +31022,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M68" s="49"/>
     </row>
@@ -30563,7 +31046,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H69" s="52" t="s">
         <v>193</v>
@@ -30578,7 +31061,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M69" s="49">
         <v>11</v>
@@ -30604,7 +31087,7 @@
         <v>178</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H70" s="52" t="s">
         <v>193</v>
@@ -30619,7 +31102,7 @@
         <v>3</v>
       </c>
       <c r="L70" s="51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M70" s="49">
         <v>68</v>
@@ -30645,7 +31128,7 @@
         <v>178</v>
       </c>
       <c r="G71" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H71" s="52" t="s">
         <v>75</v>
@@ -30660,7 +31143,7 @@
         <v>4</v>
       </c>
       <c r="L71" s="51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M71" s="49">
         <v>42</v>
@@ -30686,7 +31169,7 @@
         <v>178</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H72" s="52" t="s">
         <v>75</v>
@@ -30701,7 +31184,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M72" s="49">
         <v>41</v>
@@ -30727,7 +31210,7 @@
         <v>178</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H73" s="52" t="s">
         <v>75</v>
@@ -30742,7 +31225,7 @@
         <v>4</v>
       </c>
       <c r="L73" s="51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M73" s="49">
         <v>71</v>
@@ -30768,7 +31251,7 @@
         <v>178</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H74" s="52" t="s">
         <v>75</v>
@@ -30783,7 +31266,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M74" s="49">
         <v>72</v>
@@ -30809,7 +31292,7 @@
         <v>178</v>
       </c>
       <c r="G75" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H75" s="52" t="s">
         <v>193</v>
@@ -30824,7 +31307,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M75" s="49">
         <v>66</v>
@@ -30850,7 +31333,7 @@
         <v>178</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H76" s="52" t="s">
         <v>193</v>
@@ -30865,7 +31348,7 @@
         <v>3</v>
       </c>
       <c r="L76" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M76" s="49">
         <v>69</v>
@@ -30891,7 +31374,7 @@
         <v>178</v>
       </c>
       <c r="G77" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H77" s="52" t="s">
         <v>75</v>
@@ -30906,7 +31389,7 @@
         <v>4</v>
       </c>
       <c r="L77" s="51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M77" s="49">
         <v>56</v>
@@ -30932,7 +31415,7 @@
         <v>178</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H78" s="52" t="s">
         <v>193</v>
@@ -30973,7 +31456,7 @@
         <v>178</v>
       </c>
       <c r="G79" s="118" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H79" s="119" t="s">
         <v>75</v>
@@ -30988,7 +31471,7 @@
         <v>4</v>
       </c>
       <c r="L79" s="118" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M79" s="115">
         <v>73</v>
@@ -31004,7 +31487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
@@ -31084,25 +31567,25 @@
         <v>179</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="9">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="110" t="s">
+        <v>502</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="I2" s="9">
-        <v>3</v>
-      </c>
-      <c r="J2" s="9">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="110" t="s">
-        <v>503</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31125,25 +31608,25 @@
         <v>179</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="110" t="s">
+        <v>502</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="I3" s="9">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="110" t="s">
-        <v>503</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31166,11 +31649,11 @@
         <v>179</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>501</v>
-      </c>
       <c r="I4" s="9">
         <v>3</v>
       </c>
@@ -31181,7 +31664,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="110" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M4" s="9">
         <v>2</v>
@@ -31207,25 +31690,25 @@
         <v>179</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="110" t="s">
+        <v>502</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="110" t="s">
-        <v>503</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31248,11 +31731,11 @@
         <v>179</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>501</v>
-      </c>
       <c r="I6" s="9">
         <v>3</v>
       </c>
@@ -31263,10 +31746,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="110" t="s">
+        <v>503</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31289,25 +31772,25 @@
         <v>179</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H7" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>2</v>
+      </c>
+      <c r="L7" s="110" t="s">
         <v>506</v>
       </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>2</v>
-      </c>
-      <c r="L7" s="110" t="s">
+      <c r="M7" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31330,10 +31813,10 @@
         <v>179</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I8" s="9">
         <v>3</v>
@@ -31345,7 +31828,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="110" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M8" s="9"/>
     </row>
@@ -31369,10 +31852,10 @@
         <v>179</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I9" s="9">
         <v>3</v>
@@ -31384,10 +31867,10 @@
         <v>2</v>
       </c>
       <c r="L9" s="110" t="s">
+        <v>508</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31410,22 +31893,22 @@
         <v>179</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="110" t="s">
         <v>506</v>
-      </c>
-      <c r="I10" s="9">
-        <v>3</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>2</v>
-      </c>
-      <c r="L10" s="110" t="s">
-        <v>507</v>
       </c>
       <c r="M10" s="9"/>
     </row>
@@ -31449,10 +31932,10 @@
         <v>179</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
@@ -31464,10 +31947,10 @@
         <v>2</v>
       </c>
       <c r="L11" s="110" t="s">
+        <v>510</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31490,10 +31973,10 @@
         <v>179</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I12" s="9">
         <v>3</v>
@@ -31505,7 +31988,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="110" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M12" s="9">
         <v>9</v>
@@ -31531,25 +32014,25 @@
         <v>179</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H13" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3</v>
+      </c>
+      <c r="L13" s="110" t="s">
         <v>513</v>
       </c>
-      <c r="I13" s="9">
-        <v>3</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>3</v>
-      </c>
-      <c r="L13" s="110" t="s">
+      <c r="M13" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31572,22 +32055,22 @@
         <v>179</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>3</v>
+      </c>
+      <c r="L14" s="110" t="s">
         <v>513</v>
-      </c>
-      <c r="I14" s="9">
-        <v>3</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
-        <v>3</v>
-      </c>
-      <c r="L14" s="110" t="s">
-        <v>514</v>
       </c>
       <c r="M14" s="9">
         <v>12</v>
@@ -31613,10 +32096,10 @@
         <v>179</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I15" s="9">
         <v>3</v>
@@ -31628,7 +32111,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="110" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>269</v>
@@ -31654,10 +32137,10 @@
         <v>179</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I16" s="9">
         <v>3</v>
@@ -31669,7 +32152,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="110" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M16" s="9">
         <v>14</v>
@@ -31695,10 +32178,10 @@
         <v>179</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I17" s="9">
         <v>3</v>
@@ -31710,7 +32193,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="110" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M17" s="9">
         <v>15</v>
@@ -31736,10 +32219,10 @@
         <v>179</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I18" s="9">
         <v>3</v>
@@ -31751,7 +32234,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M18" s="9">
         <v>16</v>
@@ -31777,10 +32260,10 @@
         <v>179</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I19" s="9">
         <v>3</v>
@@ -31792,7 +32275,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M19" s="9">
         <v>17</v>
@@ -31821,7 +32304,7 @@
         <v>251</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I20" s="9">
         <v>3</v>
@@ -31833,10 +32316,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="110" t="s">
+        <v>519</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31862,7 +32345,7 @@
         <v>251</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I21" s="9">
         <v>3</v>
@@ -31874,7 +32357,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="110" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M21" s="9">
         <v>19</v>
@@ -31903,7 +32386,7 @@
         <v>251</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I22" s="9">
         <v>3</v>
@@ -31915,10 +32398,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="110" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31944,7 +32427,7 @@
         <v>251</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I23" s="9">
         <v>3</v>
@@ -31956,10 +32439,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="110" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31985,7 +32468,7 @@
         <v>251</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I24" s="9">
         <v>3</v>
@@ -31997,7 +32480,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M24" s="9">
         <v>22</v>
@@ -32026,22 +32509,22 @@
         <v>251</v>
       </c>
       <c r="H25" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>2</v>
+      </c>
+      <c r="K25" s="10">
+        <v>2</v>
+      </c>
+      <c r="L25" s="110" t="s">
+        <v>528</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="I25" s="9">
-        <v>3</v>
-      </c>
-      <c r="J25" s="9">
-        <v>2</v>
-      </c>
-      <c r="K25" s="10">
-        <v>2</v>
-      </c>
-      <c r="L25" s="110" t="s">
-        <v>529</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32067,7 +32550,7 @@
         <v>251</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I26" s="9">
         <v>3</v>
@@ -32079,7 +32562,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="110" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M26" s="9">
         <v>24</v>
@@ -32108,7 +32591,7 @@
         <v>251</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I27" s="9">
         <v>3</v>
@@ -32149,7 +32632,7 @@
         <v>251</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I28" s="9">
         <v>3</v>
@@ -32161,7 +32644,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M28" s="9">
         <v>26</v>
@@ -32190,7 +32673,7 @@
         <v>251</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I29" s="9">
         <v>3</v>
@@ -32202,7 +32685,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="110" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M29" s="9">
         <v>27</v>
@@ -32231,7 +32714,7 @@
         <v>251</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I30" s="9">
         <v>3</v>
@@ -32243,7 +32726,7 @@
         <v>2</v>
       </c>
       <c r="L30" s="110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M30" s="9">
         <v>27</v>
@@ -32272,7 +32755,7 @@
         <v>251</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I31" s="9">
         <v>3</v>
@@ -32284,10 +32767,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32313,7 +32796,7 @@
         <v>251</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I32" s="9">
         <v>3</v>
@@ -32325,10 +32808,10 @@
         <v>2</v>
       </c>
       <c r="L32" s="110" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32354,7 +32837,7 @@
         <v>251</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I33" s="9">
         <v>3</v>
@@ -32366,7 +32849,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="110" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M33" s="9">
         <v>31</v>
@@ -32395,22 +32878,22 @@
         <v>251</v>
       </c>
       <c r="H34" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="I34" s="9">
+        <v>3</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>3</v>
+      </c>
+      <c r="L34" s="110" t="s">
         <v>536</v>
       </c>
-      <c r="I34" s="9">
-        <v>3</v>
-      </c>
-      <c r="J34" s="9">
-        <v>2</v>
-      </c>
-      <c r="K34" s="10">
-        <v>3</v>
-      </c>
-      <c r="L34" s="110" t="s">
+      <c r="M34" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32436,7 +32919,7 @@
         <v>251</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I35" s="9">
         <v>3</v>
@@ -32448,7 +32931,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="110" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M35" s="9">
         <v>33</v>
@@ -32477,7 +32960,7 @@
         <v>251</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I36" s="9">
         <v>3</v>
@@ -32489,7 +32972,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="110" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M36" s="9">
         <v>33</v>
@@ -32518,7 +33001,7 @@
         <v>251</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I37" s="9">
         <v>3</v>
@@ -32530,7 +33013,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="110" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M37" s="9">
         <v>35</v>
@@ -32556,10 +33039,10 @@
         <v>179</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I38" s="16">
         <v>3</v>
@@ -32571,7 +33054,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M38" s="15">
         <v>35</v>
@@ -32597,25 +33080,25 @@
         <v>179</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="I39" s="9">
+        <v>3</v>
+      </c>
+      <c r="J39" s="9">
+        <v>3</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="I39" s="9">
-        <v>3</v>
-      </c>
-      <c r="J39" s="9">
-        <v>3</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="110" t="s">
+      <c r="M39" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32638,10 +33121,10 @@
         <v>179</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I40" s="9">
         <v>3</v>
@@ -32653,10 +33136,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="110" t="s">
+        <v>543</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32679,25 +33162,25 @@
         <v>179</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="I41" s="9">
+        <v>3</v>
+      </c>
+      <c r="J41" s="9">
+        <v>3</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="I41" s="9">
-        <v>3</v>
-      </c>
-      <c r="J41" s="9">
-        <v>3</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="110" t="s">
-        <v>542</v>
-      </c>
       <c r="M41" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32720,10 +33203,10 @@
         <v>179</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I42" s="9">
         <v>3</v>
@@ -32735,10 +33218,10 @@
         <v>2</v>
       </c>
       <c r="L42" s="110" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32761,10 +33244,10 @@
         <v>179</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I43" s="9">
         <v>3</v>
@@ -32776,7 +33259,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="110" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M43" s="9">
         <v>40</v>
@@ -32802,10 +33285,10 @@
         <v>179</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I44" s="9">
         <v>3</v>
@@ -32817,7 +33300,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="110" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M44" s="9">
         <v>39</v>
@@ -32843,25 +33326,25 @@
         <v>179</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H45" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="I45" s="9">
+        <v>3</v>
+      </c>
+      <c r="J45" s="9">
+        <v>3</v>
+      </c>
+      <c r="K45" s="10">
+        <v>2</v>
+      </c>
+      <c r="L45" s="110" t="s">
         <v>550</v>
       </c>
-      <c r="I45" s="9">
-        <v>3</v>
-      </c>
-      <c r="J45" s="9">
-        <v>3</v>
-      </c>
-      <c r="K45" s="10">
-        <v>2</v>
-      </c>
-      <c r="L45" s="110" t="s">
+      <c r="M45" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32884,25 +33367,25 @@
         <v>179</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H46" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="I46" s="9">
+        <v>3</v>
+      </c>
+      <c r="J46" s="9">
+        <v>3</v>
+      </c>
+      <c r="K46" s="10">
+        <v>2</v>
+      </c>
+      <c r="L46" s="110" t="s">
         <v>550</v>
       </c>
-      <c r="I46" s="9">
-        <v>3</v>
-      </c>
-      <c r="J46" s="9">
-        <v>3</v>
-      </c>
-      <c r="K46" s="10">
-        <v>2</v>
-      </c>
-      <c r="L46" s="110" t="s">
-        <v>551</v>
-      </c>
       <c r="M46" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -32928,7 +33411,7 @@
         <v>257</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I47" s="16">
         <v>3</v>
@@ -32940,10 +33423,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="M47" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -32969,22 +33452,22 @@
         <v>257</v>
       </c>
       <c r="H48" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="I48" s="16">
+        <v>3</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1</v>
+      </c>
+      <c r="L48" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="I48" s="16">
-        <v>3</v>
-      </c>
-      <c r="J48" s="15">
-        <v>1</v>
-      </c>
-      <c r="K48" s="15">
-        <v>1</v>
-      </c>
-      <c r="L48" s="64" t="s">
+      <c r="M48" s="15" t="s">
         <v>557</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33010,7 +33493,7 @@
         <v>257</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I49" s="16">
         <v>3</v>
@@ -33023,7 +33506,7 @@
       </c>
       <c r="L49" s="64"/>
       <c r="M49" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33049,22 +33532,22 @@
         <v>257</v>
       </c>
       <c r="H50" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="I50" s="16">
+        <v>3</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1</v>
+      </c>
+      <c r="K50" s="15">
+        <v>2</v>
+      </c>
+      <c r="L50" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="I50" s="16">
-        <v>3</v>
-      </c>
-      <c r="J50" s="15">
-        <v>1</v>
-      </c>
-      <c r="K50" s="15">
-        <v>2</v>
-      </c>
-      <c r="L50" s="64" t="s">
+      <c r="M50" s="15" t="s">
         <v>560</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33090,7 +33573,7 @@
         <v>257</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I51" s="16">
         <v>3</v>
@@ -33102,10 +33585,10 @@
         <v>2</v>
       </c>
       <c r="L51" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="M51" s="15" t="s">
         <v>562</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33131,7 +33614,7 @@
         <v>257</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I52" s="16">
         <v>3</v>
@@ -33143,10 +33626,10 @@
         <v>2</v>
       </c>
       <c r="L52" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="M52" s="15" t="s">
         <v>564</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33172,7 +33655,7 @@
         <v>257</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I53" s="16">
         <v>3</v>
@@ -33184,10 +33667,10 @@
         <v>2</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33213,19 +33696,19 @@
         <v>257</v>
       </c>
       <c r="H54" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="I54" s="16">
+        <v>3</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1</v>
+      </c>
+      <c r="K54" s="15">
+        <v>2</v>
+      </c>
+      <c r="L54" s="64" t="s">
         <v>559</v>
-      </c>
-      <c r="I54" s="16">
-        <v>3</v>
-      </c>
-      <c r="J54" s="15">
-        <v>1</v>
-      </c>
-      <c r="K54" s="15">
-        <v>2</v>
-      </c>
-      <c r="L54" s="64" t="s">
-        <v>560</v>
       </c>
       <c r="M54" s="15">
         <v>50</v>
@@ -33254,7 +33737,7 @@
         <v>257</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I55" s="16">
         <v>3</v>
@@ -33266,7 +33749,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M55" s="15"/>
     </row>
@@ -33293,7 +33776,7 @@
         <v>257</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I56" s="16">
         <v>3</v>
@@ -33305,7 +33788,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M56" s="15"/>
     </row>
@@ -33332,7 +33815,7 @@
         <v>257</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I57" s="16">
         <v>3</v>
@@ -33344,7 +33827,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M57" s="15">
         <v>44</v>
@@ -33373,7 +33856,7 @@
         <v>257</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I58" s="16">
         <v>3</v>
@@ -33385,7 +33868,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M58" s="15">
         <v>54</v>
@@ -33426,7 +33909,7 @@
         <v>3</v>
       </c>
       <c r="L59" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M59" s="15">
         <v>43</v>
@@ -33467,7 +33950,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M60" s="15"/>
     </row>
@@ -33506,7 +33989,7 @@
         <v>3</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M61" s="15"/>
     </row>
@@ -33545,7 +34028,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M62" s="15">
         <v>59</v>
@@ -33586,7 +34069,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M63" s="15">
         <v>21</v>
@@ -33615,7 +34098,7 @@
         <v>257</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I64" s="16">
         <v>3</v>
@@ -33627,7 +34110,7 @@
         <v>4</v>
       </c>
       <c r="L64" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M64" s="15">
         <v>35</v>
@@ -33656,19 +34139,19 @@
         <v>257</v>
       </c>
       <c r="H65" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="I65" s="16">
+        <v>3</v>
+      </c>
+      <c r="J65" s="15">
+        <v>1</v>
+      </c>
+      <c r="K65" s="15">
+        <v>4</v>
+      </c>
+      <c r="L65" s="64" t="s">
         <v>573</v>
-      </c>
-      <c r="I65" s="16">
-        <v>3</v>
-      </c>
-      <c r="J65" s="15">
-        <v>1</v>
-      </c>
-      <c r="K65" s="15">
-        <v>4</v>
-      </c>
-      <c r="L65" s="64" t="s">
-        <v>574</v>
       </c>
       <c r="M65" s="15">
         <v>51</v>
@@ -33697,7 +34180,7 @@
         <v>257</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I66" s="16">
         <v>3</v>
@@ -33709,7 +34192,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M66" s="15"/>
     </row>
@@ -33736,7 +34219,7 @@
         <v>257</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I67" s="16">
         <v>3</v>
@@ -33748,7 +34231,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M67" s="15">
         <v>35</v>
@@ -33777,7 +34260,7 @@
         <v>257</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I68" s="16">
         <v>3</v>
@@ -33789,7 +34272,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M68" s="15">
         <v>35</v>
@@ -33815,11 +34298,11 @@
         <v>179</v>
       </c>
       <c r="G69" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="H69" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>578</v>
-      </c>
       <c r="I69" s="16">
         <v>3</v>
       </c>
@@ -33830,7 +34313,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M69" s="15">
         <v>46</v>
@@ -33856,22 +34339,22 @@
         <v>179</v>
       </c>
       <c r="G70" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="I70" s="16">
+        <v>3</v>
+      </c>
+      <c r="J70" s="15">
+        <v>2</v>
+      </c>
+      <c r="K70" s="15">
+        <v>1</v>
+      </c>
+      <c r="L70" s="64" t="s">
         <v>578</v>
-      </c>
-      <c r="I70" s="16">
-        <v>3</v>
-      </c>
-      <c r="J70" s="15">
-        <v>2</v>
-      </c>
-      <c r="K70" s="15">
-        <v>1</v>
-      </c>
-      <c r="L70" s="64" t="s">
-        <v>579</v>
       </c>
       <c r="M70" s="15">
         <v>51</v>
@@ -33897,11 +34380,11 @@
         <v>179</v>
       </c>
       <c r="G71" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="H71" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>578</v>
-      </c>
       <c r="I71" s="16">
         <v>3</v>
       </c>
@@ -33912,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M71" s="15">
         <v>49</v>
@@ -33938,11 +34421,11 @@
         <v>179</v>
       </c>
       <c r="G72" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="H72" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>578</v>
-      </c>
       <c r="I72" s="16">
         <v>3</v>
       </c>
@@ -33953,7 +34436,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M72" s="15">
         <v>34</v>
@@ -33979,11 +34462,11 @@
         <v>179</v>
       </c>
       <c r="G73" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="H73" s="17" t="s">
-        <v>578</v>
-      </c>
       <c r="I73" s="16">
         <v>3</v>
       </c>
@@ -33994,7 +34477,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M73" s="15">
         <v>64</v>
@@ -34020,10 +34503,10 @@
         <v>179</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I74" s="16">
         <v>3</v>
@@ -34035,7 +34518,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M74" s="15">
         <v>72</v>
@@ -34061,10 +34544,10 @@
         <v>179</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I75" s="16">
         <v>3</v>
@@ -34076,7 +34559,7 @@
         <v>2</v>
       </c>
       <c r="L75" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M75" s="15">
         <v>72</v>
@@ -34102,10 +34585,10 @@
         <v>179</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I76" s="16">
         <v>3</v>
@@ -34117,7 +34600,7 @@
         <v>2</v>
       </c>
       <c r="L76" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M76" s="15">
         <v>72</v>
@@ -34143,10 +34626,10 @@
         <v>179</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I77" s="16">
         <v>3</v>
@@ -34158,7 +34641,7 @@
         <v>2</v>
       </c>
       <c r="L77" s="64" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M77" s="15"/>
     </row>
@@ -34182,10 +34665,10 @@
         <v>179</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I78" s="16">
         <v>3</v>
@@ -34197,7 +34680,7 @@
         <v>2</v>
       </c>
       <c r="L78" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M78" s="15">
         <v>68</v>
@@ -34223,10 +34706,10 @@
         <v>179</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I79" s="16">
         <v>3</v>
@@ -34238,7 +34721,7 @@
         <v>4</v>
       </c>
       <c r="L79" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M79" s="15">
         <v>60</v>
@@ -34264,22 +34747,22 @@
         <v>179</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H80" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="I80" s="16">
+        <v>3</v>
+      </c>
+      <c r="J80" s="15">
+        <v>2</v>
+      </c>
+      <c r="K80" s="15">
+        <v>4</v>
+      </c>
+      <c r="L80" s="64" t="s">
         <v>585</v>
-      </c>
-      <c r="I80" s="16">
-        <v>3</v>
-      </c>
-      <c r="J80" s="15">
-        <v>2</v>
-      </c>
-      <c r="K80" s="15">
-        <v>4</v>
-      </c>
-      <c r="L80" s="64" t="s">
-        <v>586</v>
       </c>
       <c r="M80" s="15">
         <v>70</v>
@@ -34305,10 +34788,10 @@
         <v>179</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I81" s="16">
         <v>3</v>
@@ -34320,7 +34803,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M81" s="15"/>
     </row>
@@ -34344,10 +34827,10 @@
         <v>179</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I82" s="16">
         <v>3</v>
@@ -34359,7 +34842,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M82" s="15">
         <v>71</v>
@@ -34385,10 +34868,10 @@
         <v>179</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I83" s="16">
         <v>3</v>
@@ -34400,7 +34883,7 @@
         <v>4</v>
       </c>
       <c r="L83" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M83" s="15"/>
     </row>
@@ -34424,10 +34907,10 @@
         <v>179</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I84" s="16">
         <v>3</v>
@@ -34439,7 +34922,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M84" s="15"/>
     </row>
@@ -34463,10 +34946,10 @@
         <v>179</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I85" s="16">
         <v>3</v>
@@ -34478,7 +34961,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M85" s="15"/>
     </row>
@@ -34505,19 +34988,19 @@
         <v>142</v>
       </c>
       <c r="H86" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="I86" s="16">
+        <v>3</v>
+      </c>
+      <c r="J86" s="83">
+        <v>3</v>
+      </c>
+      <c r="K86" s="83">
+        <v>1</v>
+      </c>
+      <c r="L86" s="64" t="s">
         <v>591</v>
-      </c>
-      <c r="I86" s="16">
-        <v>3</v>
-      </c>
-      <c r="J86" s="83">
-        <v>3</v>
-      </c>
-      <c r="K86" s="83">
-        <v>1</v>
-      </c>
-      <c r="L86" s="64" t="s">
-        <v>592</v>
       </c>
       <c r="M86" s="15"/>
     </row>
@@ -34544,19 +35027,19 @@
         <v>142</v>
       </c>
       <c r="H87" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="I87" s="16">
+        <v>3</v>
+      </c>
+      <c r="J87" s="83">
+        <v>3</v>
+      </c>
+      <c r="K87" s="83">
+        <v>1</v>
+      </c>
+      <c r="L87" s="64" t="s">
         <v>591</v>
-      </c>
-      <c r="I87" s="16">
-        <v>3</v>
-      </c>
-      <c r="J87" s="83">
-        <v>3</v>
-      </c>
-      <c r="K87" s="83">
-        <v>1</v>
-      </c>
-      <c r="L87" s="64" t="s">
-        <v>592</v>
       </c>
       <c r="M87" s="15"/>
     </row>
@@ -34598,7 +35081,7 @@
         <v>281</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34704,7 +35187,7 @@
         <v>142</v>
       </c>
       <c r="H91" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I91" s="16">
         <v>3</v>
@@ -34716,10 +35199,10 @@
         <v>3</v>
       </c>
       <c r="L91" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="M91" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34745,7 +35228,7 @@
         <v>142</v>
       </c>
       <c r="H92" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I92" s="16">
         <v>3</v>
@@ -34757,7 +35240,7 @@
         <v>3</v>
       </c>
       <c r="L92" s="64" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M92" s="15">
         <v>89</v>
@@ -34801,7 +35284,7 @@
         <v>281</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -34827,7 +35310,7 @@
         <v>142</v>
       </c>
       <c r="H94" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I94" s="16">
         <v>3</v>
@@ -34839,7 +35322,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M94" s="15"/>
     </row>
@@ -34866,7 +35349,7 @@
         <v>142</v>
       </c>
       <c r="H95" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I95" s="16">
         <v>3</v>
@@ -34878,7 +35361,7 @@
         <v>3</v>
       </c>
       <c r="L95" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M95" s="15">
         <v>90</v>
@@ -34907,7 +35390,7 @@
         <v>142</v>
       </c>
       <c r="H96" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I96" s="16">
         <v>3</v>
@@ -34919,7 +35402,7 @@
         <v>3</v>
       </c>
       <c r="L96" s="64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M96" s="15">
         <v>90</v>
@@ -34948,19 +35431,19 @@
         <v>142</v>
       </c>
       <c r="H97" s="65" t="s">
+        <v>600</v>
+      </c>
+      <c r="I97" s="16">
+        <v>3</v>
+      </c>
+      <c r="J97" s="83">
+        <v>3</v>
+      </c>
+      <c r="K97" s="83">
+        <v>3</v>
+      </c>
+      <c r="L97" s="65" t="s">
         <v>601</v>
-      </c>
-      <c r="I97" s="16">
-        <v>3</v>
-      </c>
-      <c r="J97" s="83">
-        <v>3</v>
-      </c>
-      <c r="K97" s="83">
-        <v>3</v>
-      </c>
-      <c r="L97" s="65" t="s">
-        <v>602</v>
       </c>
       <c r="M97" s="15">
         <v>67</v>
@@ -34989,7 +35472,7 @@
         <v>142</v>
       </c>
       <c r="H98" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I98" s="16">
         <v>3</v>
@@ -35001,7 +35484,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M98" s="15">
         <v>95</v>
@@ -35030,7 +35513,7 @@
         <v>142</v>
       </c>
       <c r="H99" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I99" s="16">
         <v>3</v>
@@ -35071,7 +35554,7 @@
         <v>142</v>
       </c>
       <c r="H100" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I100" s="16">
         <v>3</v>
@@ -35083,7 +35566,7 @@
         <v>3</v>
       </c>
       <c r="L100" s="65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M100" s="15">
         <v>95</v>
@@ -35112,7 +35595,7 @@
         <v>142</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I101" s="16">
         <v>3</v>
@@ -35124,7 +35607,7 @@
         <v>3</v>
       </c>
       <c r="L101" s="65" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M101" s="15">
         <v>95</v>
@@ -35153,7 +35636,7 @@
         <v>142</v>
       </c>
       <c r="H102" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I102" s="16">
         <v>3</v>
@@ -35165,7 +35648,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="65" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M102" s="15">
         <v>99</v>
@@ -35191,10 +35674,10 @@
         <v>179</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I103" s="16">
         <v>3</v>
@@ -35206,7 +35689,7 @@
         <v>3</v>
       </c>
       <c r="L103" s="64" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M103" s="15"/>
     </row>
@@ -35230,10 +35713,10 @@
         <v>179</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I104" s="16">
         <v>3</v>
@@ -35245,7 +35728,7 @@
         <v>3</v>
       </c>
       <c r="L104" s="64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M104" s="15">
         <v>58</v>
@@ -35271,10 +35754,10 @@
         <v>179</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I105" s="16">
         <v>3</v>
@@ -35286,7 +35769,7 @@
         <v>3</v>
       </c>
       <c r="L105" s="64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M105" s="15">
         <v>102</v>
@@ -35312,10 +35795,10 @@
         <v>179</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I106" s="16">
         <v>3</v>
@@ -35327,7 +35810,7 @@
         <v>3</v>
       </c>
       <c r="L106" s="64" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M106" s="15">
         <v>102</v>
@@ -35353,10 +35836,10 @@
         <v>179</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I107" s="16">
         <v>3</v>
@@ -35368,7 +35851,7 @@
         <v>3</v>
       </c>
       <c r="L107" s="64" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M107" s="15">
         <v>103</v>
@@ -37757,7 +38240,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="51" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M59" s="49">
         <v>6</v>
@@ -37839,7 +38322,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="51" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M61" s="49">
         <v>57</v>
@@ -37921,7 +38404,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M63" s="49">
         <v>57</v>
@@ -37962,10 +38445,10 @@
         <v>3</v>
       </c>
       <c r="L64" s="51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M64" s="49" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -38003,7 +38486,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M65" s="49">
         <v>60</v>
@@ -38044,10 +38527,10 @@
         <v>3</v>
       </c>
       <c r="L66" s="51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M66" s="49" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -38085,7 +38568,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M67" s="49">
         <v>62</v>
@@ -38126,7 +38609,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M68" s="49">
         <v>63</v>
@@ -38167,10 +38650,10 @@
         <v>4</v>
       </c>
       <c r="L69" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="M69" s="49" t="s">
         <v>611</v>
-      </c>
-      <c r="M69" s="49" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -38208,10 +38691,10 @@
         <v>3</v>
       </c>
       <c r="L70" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="M70" s="49" t="s">
         <v>613</v>
-      </c>
-      <c r="M70" s="49" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -38249,10 +38732,10 @@
         <v>2</v>
       </c>
       <c r="L71" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="M71" s="49" t="s">
         <v>615</v>
-      </c>
-      <c r="M71" s="49" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -38290,10 +38773,10 @@
         <v>1</v>
       </c>
       <c r="L72" s="53" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M72" s="49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -38331,10 +38814,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="M73" s="49" t="s">
         <v>618</v>
-      </c>
-      <c r="M73" s="49" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -38372,7 +38855,7 @@
         <v>3</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M74" s="49">
         <v>69</v>
@@ -38413,10 +38896,10 @@
         <v>4</v>
       </c>
       <c r="L75" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="M75" s="49" t="s">
         <v>621</v>
-      </c>
-      <c r="M75" s="49" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -38454,10 +38937,10 @@
         <v>4</v>
       </c>
       <c r="L76" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="M76" s="49" t="s">
         <v>623</v>
-      </c>
-      <c r="M76" s="49" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -38498,7 +38981,7 @@
         <v>22</v>
       </c>
       <c r="M77" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -38594,28 +39077,28 @@
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="110" t="s">
-        <v>484</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38635,13 +39118,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" s="9">
         <v>2</v>
@@ -38653,10 +39136,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="110" t="s">
+        <v>484</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38676,13 +39159,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
@@ -38694,7 +39177,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M4" s="9">
         <v>2</v>
@@ -38717,13 +39200,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -38735,7 +39218,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="110" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M5" s="9">
         <v>2</v>
@@ -38758,13 +39241,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -38776,7 +39259,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="110" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M6" s="9">
         <v>4</v>
@@ -38799,13 +39282,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -38817,10 +39300,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="110" t="s">
+        <v>489</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38840,13 +39323,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -38861,7 +39344,7 @@
         <v>224</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38881,13 +39364,13 @@
         <v>2</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
@@ -38902,7 +39385,7 @@
         <v>224</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38922,13 +39405,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
@@ -38943,7 +39426,7 @@
         <v>224</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38963,13 +39446,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I11" s="9">
         <v>2</v>
@@ -38981,10 +39464,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="110" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39004,13 +39487,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
@@ -39022,7 +39505,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M12" s="9">
         <v>10</v>
@@ -39045,13 +39528,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
@@ -39063,10 +39546,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39086,13 +39569,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
@@ -39104,7 +39587,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="110" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M14" s="9">
         <v>12</v>
@@ -39127,13 +39610,13 @@
         <v>2</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
@@ -39145,7 +39628,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="110" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M15" s="9">
         <v>4</v>
@@ -39168,13 +39651,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
@@ -39209,13 +39692,13 @@
         <v>2</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
@@ -39227,7 +39710,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="110" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M17" s="9">
         <v>3</v>
@@ -39250,13 +39733,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G18" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I18" s="50">
         <v>2</v>
@@ -39271,7 +39754,7 @@
         <v>22</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39291,13 +39774,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I19" s="50">
         <v>2</v>
@@ -39312,7 +39795,7 @@
         <v>22</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39332,13 +39815,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G20" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I20" s="50">
         <v>2</v>
@@ -39373,13 +39856,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G21" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I21" s="50">
         <v>2</v>
@@ -39391,7 +39874,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M21" s="49">
         <v>17</v>
@@ -39414,13 +39897,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G22" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I22" s="50">
         <v>2</v>
@@ -39432,7 +39915,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M22" s="49">
         <v>19</v>
@@ -39455,13 +39938,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G23" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I23" s="50">
         <v>2</v>
@@ -39476,7 +39959,7 @@
         <v>22</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39496,13 +39979,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G24" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I24" s="50">
         <v>2</v>
@@ -39517,7 +40000,7 @@
         <v>149</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39537,13 +40020,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G25" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I25" s="50">
         <v>2</v>
@@ -39578,13 +40061,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G26" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I26" s="50">
         <v>2</v>
@@ -39596,7 +40079,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M26" s="49">
         <v>23</v>
@@ -39619,13 +40102,13 @@
         <v>2</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G27" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I27" s="50">
         <v>2</v>
@@ -39637,10 +40120,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="51" t="s">
+        <v>647</v>
+      </c>
+      <c r="M27" s="49" t="s">
         <v>648</v>
-      </c>
-      <c r="M27" s="49" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39660,13 +40143,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G28" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I28" s="50">
         <v>2</v>
@@ -39681,7 +40164,7 @@
         <v>149</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39701,13 +40184,13 @@
         <v>2</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G29" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I29" s="50">
         <v>2</v>
@@ -39742,13 +40225,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G30" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I30" s="50">
         <v>2</v>
@@ -39783,13 +40266,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G31" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I31" s="50">
         <v>2</v>
@@ -39801,7 +40284,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M31" s="49">
         <v>25</v>
@@ -39824,13 +40307,13 @@
         <v>3</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G32" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I32" s="50">
         <v>2</v>
@@ -39845,7 +40328,7 @@
         <v>224</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="379" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE7B453-4243-4F9B-8929-595CD33C82BB}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{736062A6-46AE-4C45-9E08-FDAF962B8EA4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1476" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1476" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="701">
   <si>
     <t>RAZRED</t>
   </si>
@@ -2175,6 +2175,84 @@
   </si>
   <si>
     <t>rast</t>
+  </si>
+  <si>
+    <t>Realni brojevi</t>
+  </si>
+  <si>
+    <t>Iracionalni brojevi</t>
+  </si>
+  <si>
+    <t>Kvadrat racionalnog broja</t>
+  </si>
+  <si>
+    <t>numb_2 4</t>
+  </si>
+  <si>
+    <t>razlomci u raznim oblicima</t>
+  </si>
+  <si>
+    <t>tabela</t>
+  </si>
+  <si>
+    <t>upoređivanje</t>
+  </si>
+  <si>
+    <t>Kvadratni koren</t>
+  </si>
+  <si>
+    <t>pojam</t>
+  </si>
+  <si>
+    <t>Rešenje kvadratne jednačine</t>
+  </si>
+  <si>
+    <t>brojevna prava</t>
+  </si>
+  <si>
+    <t>Približna vrednost</t>
+  </si>
+  <si>
+    <t>numb_2 18, fact_2 32</t>
+  </si>
+  <si>
+    <t>Apsolutna greška</t>
+  </si>
+  <si>
+    <t>decimalni broj ili razlomak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabiranje i oduzimanje  </t>
+  </si>
+  <si>
+    <t>zbir/razlika korena broja</t>
+  </si>
+  <si>
+    <t>fact_2 89</t>
+  </si>
+  <si>
+    <t>pojam / tabela</t>
+  </si>
+  <si>
+    <t>koren broja / tabela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poredjenje  </t>
+  </si>
+  <si>
+    <t>koren proizvoda 2 činioca istog tipa</t>
+  </si>
+  <si>
+    <t>koren proizvoda 4 činioca raznog tipa</t>
+  </si>
+  <si>
+    <t>zbir/razlika/proizvod korena brojeva</t>
+  </si>
+  <si>
+    <t>nb_2 78</t>
+  </si>
+  <si>
+    <t>nb_2 66</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2269,12 +2347,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2367,7 +2439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2656,25 +2728,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2683,9 +2746,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFFF"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
@@ -3028,8 +3092,8 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5598,10 +5662,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7230,7 +7294,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="120" t="s">
+      <c r="A41" s="114" t="s">
         <v>335</v>
       </c>
       <c r="B41" s="15">
@@ -7269,7 +7333,7 @@
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="120" t="s">
+      <c r="A42" s="114" t="s">
         <v>335</v>
       </c>
       <c r="B42" s="15">
@@ -7349,7 +7413,7 @@
       <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="114" t="s">
         <v>335</v>
       </c>
       <c r="B44" s="15">
@@ -7909,6 +7973,47 @@
         <v>671</v>
       </c>
       <c r="M57" s="15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
+        <v>6</v>
+      </c>
+      <c r="B58" s="15">
+        <v>51</v>
+      </c>
+      <c r="C58" s="15">
+        <v>10</v>
+      </c>
+      <c r="D58" s="15">
+        <v>3</v>
+      </c>
+      <c r="E58" s="15">
+        <v>2</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G58" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="I58" s="15">
+        <v>4</v>
+      </c>
+      <c r="J58" s="15">
+        <v>4</v>
+      </c>
+      <c r="K58" s="15">
+        <v>2</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M58" s="15">
         <v>47</v>
       </c>
     </row>
@@ -28260,10 +28365,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31436,45 +31541,619 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="119" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="114" t="s">
+    <row r="79" spans="1:13" s="52" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="B79" s="115">
+      <c r="B79" s="49">
         <v>78</v>
       </c>
-      <c r="C79" s="115">
-        <v>10</v>
-      </c>
-      <c r="D79" s="116">
-        <v>2</v>
-      </c>
-      <c r="E79" s="115">
-        <v>3</v>
-      </c>
-      <c r="F79" s="117" t="s">
+      <c r="C79" s="49">
+        <v>10</v>
+      </c>
+      <c r="D79" s="50">
+        <v>2</v>
+      </c>
+      <c r="E79" s="49">
+        <v>3</v>
+      </c>
+      <c r="F79" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="G79" s="118" t="s">
+      <c r="G79" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="H79" s="119" t="s">
+      <c r="H79" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="I79" s="116">
-        <v>1</v>
-      </c>
-      <c r="J79" s="115">
-        <v>2</v>
-      </c>
-      <c r="K79" s="115">
-        <v>4</v>
-      </c>
-      <c r="L79" s="118" t="s">
+      <c r="I79" s="50">
+        <v>1</v>
+      </c>
+      <c r="J79" s="49">
+        <v>2</v>
+      </c>
+      <c r="K79" s="49">
+        <v>4</v>
+      </c>
+      <c r="L79" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="M79" s="115">
+      <c r="M79" s="49">
         <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="116">
+        <v>7</v>
+      </c>
+      <c r="B80" s="116">
+        <v>79</v>
+      </c>
+      <c r="C80" s="116">
+        <v>10</v>
+      </c>
+      <c r="D80" s="116">
+        <v>1</v>
+      </c>
+      <c r="E80" s="116">
+        <v>1</v>
+      </c>
+      <c r="F80" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G80" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H80" s="115" t="s">
+        <v>677</v>
+      </c>
+      <c r="I80" s="116">
+        <v>1</v>
+      </c>
+      <c r="J80" s="116">
+        <v>1</v>
+      </c>
+      <c r="K80" s="116">
+        <v>1</v>
+      </c>
+      <c r="L80" s="115" t="s">
+        <v>680</v>
+      </c>
+      <c r="M80" s="116">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="116">
+        <v>7</v>
+      </c>
+      <c r="B81" s="116">
+        <v>80</v>
+      </c>
+      <c r="C81" s="116">
+        <v>10</v>
+      </c>
+      <c r="D81" s="116">
+        <v>1</v>
+      </c>
+      <c r="E81" s="116">
+        <v>2</v>
+      </c>
+      <c r="F81" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G81" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H81" s="115" t="s">
+        <v>677</v>
+      </c>
+      <c r="I81" s="116">
+        <v>1</v>
+      </c>
+      <c r="J81" s="116">
+        <v>1</v>
+      </c>
+      <c r="K81" s="116">
+        <v>1</v>
+      </c>
+      <c r="L81" s="115" t="s">
+        <v>679</v>
+      </c>
+      <c r="M81" s="116">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="116">
+        <v>7</v>
+      </c>
+      <c r="B82" s="116">
+        <v>81</v>
+      </c>
+      <c r="C82" s="116">
+        <v>10</v>
+      </c>
+      <c r="D82" s="116">
+        <v>1</v>
+      </c>
+      <c r="E82" s="116">
+        <v>2</v>
+      </c>
+      <c r="F82" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G82" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H82" s="115" t="s">
+        <v>677</v>
+      </c>
+      <c r="I82" s="116">
+        <v>1</v>
+      </c>
+      <c r="J82" s="116">
+        <v>1</v>
+      </c>
+      <c r="K82" s="116">
+        <v>1</v>
+      </c>
+      <c r="L82" s="115" t="s">
+        <v>442</v>
+      </c>
+      <c r="M82" s="116">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="116">
+        <v>7</v>
+      </c>
+      <c r="B83" s="116">
+        <v>82</v>
+      </c>
+      <c r="C83" s="116">
+        <v>10</v>
+      </c>
+      <c r="D83" s="116">
+        <v>1</v>
+      </c>
+      <c r="E83" s="116">
+        <v>1</v>
+      </c>
+      <c r="F83" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G83" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H83" s="115" t="s">
+        <v>677</v>
+      </c>
+      <c r="I83" s="116">
+        <v>1</v>
+      </c>
+      <c r="J83" s="116">
+        <v>1</v>
+      </c>
+      <c r="K83" s="116">
+        <v>1</v>
+      </c>
+      <c r="L83" s="115" t="s">
+        <v>681</v>
+      </c>
+      <c r="M83" s="116">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="116">
+        <v>7</v>
+      </c>
+      <c r="B84" s="116">
+        <v>83</v>
+      </c>
+      <c r="C84" s="116">
+        <v>10</v>
+      </c>
+      <c r="D84" s="116">
+        <v>1</v>
+      </c>
+      <c r="E84" s="116">
+        <v>1</v>
+      </c>
+      <c r="F84" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G84" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H84" s="115" t="s">
+        <v>677</v>
+      </c>
+      <c r="I84" s="116">
+        <v>1</v>
+      </c>
+      <c r="J84" s="116">
+        <v>1</v>
+      </c>
+      <c r="K84" s="116">
+        <v>1</v>
+      </c>
+      <c r="L84" s="115" t="s">
+        <v>442</v>
+      </c>
+      <c r="M84" s="116">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="116">
+        <v>7</v>
+      </c>
+      <c r="B85" s="116">
+        <v>84</v>
+      </c>
+      <c r="C85" s="116">
+        <v>10</v>
+      </c>
+      <c r="D85" s="116">
+        <v>1</v>
+      </c>
+      <c r="E85" s="116">
+        <v>1</v>
+      </c>
+      <c r="F85" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G85" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H85" s="115" t="s">
+        <v>682</v>
+      </c>
+      <c r="I85" s="116">
+        <v>1</v>
+      </c>
+      <c r="J85" s="116">
+        <v>1</v>
+      </c>
+      <c r="K85" s="116">
+        <v>2</v>
+      </c>
+      <c r="L85" s="115" t="s">
+        <v>693</v>
+      </c>
+      <c r="M85" s="116">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="116">
+        <v>7</v>
+      </c>
+      <c r="B86" s="116">
+        <v>85</v>
+      </c>
+      <c r="C86" s="116">
+        <v>10</v>
+      </c>
+      <c r="D86" s="116">
+        <v>1</v>
+      </c>
+      <c r="E86" s="116">
+        <v>2</v>
+      </c>
+      <c r="F86" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G86" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H86" s="115" t="s">
+        <v>682</v>
+      </c>
+      <c r="I86" s="116">
+        <v>1</v>
+      </c>
+      <c r="J86" s="116">
+        <v>1</v>
+      </c>
+      <c r="K86" s="116">
+        <v>2</v>
+      </c>
+      <c r="L86" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="M86" s="116">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="116">
+        <v>7</v>
+      </c>
+      <c r="B87" s="116">
+        <v>86</v>
+      </c>
+      <c r="C87" s="116">
+        <v>10</v>
+      </c>
+      <c r="D87" s="116">
+        <v>1</v>
+      </c>
+      <c r="E87" s="116">
+        <v>2</v>
+      </c>
+      <c r="F87" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G87" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H87" s="115" t="s">
+        <v>682</v>
+      </c>
+      <c r="I87" s="116">
+        <v>1</v>
+      </c>
+      <c r="J87" s="116">
+        <v>1</v>
+      </c>
+      <c r="K87" s="116">
+        <v>2</v>
+      </c>
+      <c r="L87" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="M87" s="116">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="116">
+        <v>7</v>
+      </c>
+      <c r="B88" s="116">
+        <v>87</v>
+      </c>
+      <c r="C88" s="116">
+        <v>10</v>
+      </c>
+      <c r="D88" s="116">
+        <v>1</v>
+      </c>
+      <c r="E88" s="116">
+        <v>3</v>
+      </c>
+      <c r="F88" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G88" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H88" s="115" t="s">
+        <v>682</v>
+      </c>
+      <c r="I88" s="116">
+        <v>1</v>
+      </c>
+      <c r="J88" s="116">
+        <v>1</v>
+      </c>
+      <c r="K88" s="116">
+        <v>2</v>
+      </c>
+      <c r="L88" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="M88" s="116">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="116">
+        <v>7</v>
+      </c>
+      <c r="B89" s="116">
+        <v>88</v>
+      </c>
+      <c r="C89" s="116">
+        <v>10</v>
+      </c>
+      <c r="D89" s="116">
+        <v>1</v>
+      </c>
+      <c r="E89" s="116">
+        <v>1</v>
+      </c>
+      <c r="F89" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G89" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H89" s="115" t="s">
+        <v>682</v>
+      </c>
+      <c r="I89" s="116">
+        <v>1</v>
+      </c>
+      <c r="J89" s="116">
+        <v>1</v>
+      </c>
+      <c r="K89" s="116">
+        <v>2</v>
+      </c>
+      <c r="L89" s="115" t="s">
+        <v>683</v>
+      </c>
+      <c r="M89" s="116">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="116">
+        <v>7</v>
+      </c>
+      <c r="B90" s="116">
+        <v>89</v>
+      </c>
+      <c r="C90" s="116">
+        <v>10</v>
+      </c>
+      <c r="D90" s="116">
+        <v>1</v>
+      </c>
+      <c r="E90" s="116">
+        <v>2</v>
+      </c>
+      <c r="F90" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G90" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H90" s="115" t="s">
+        <v>682</v>
+      </c>
+      <c r="I90" s="116">
+        <v>1</v>
+      </c>
+      <c r="J90" s="116">
+        <v>1</v>
+      </c>
+      <c r="K90" s="116">
+        <v>2</v>
+      </c>
+      <c r="L90" s="115" t="s">
+        <v>683</v>
+      </c>
+      <c r="M90" s="116">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="116">
+        <v>7</v>
+      </c>
+      <c r="B91" s="116">
+        <v>90</v>
+      </c>
+      <c r="C91" s="116">
+        <v>10</v>
+      </c>
+      <c r="D91" s="116">
+        <v>1</v>
+      </c>
+      <c r="E91" s="116">
+        <v>1</v>
+      </c>
+      <c r="F91" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G91" s="115" t="s">
+        <v>676</v>
+      </c>
+      <c r="H91" s="115" t="s">
+        <v>682</v>
+      </c>
+      <c r="I91" s="116">
+        <v>1</v>
+      </c>
+      <c r="J91" s="116">
+        <v>1</v>
+      </c>
+      <c r="K91" s="116">
+        <v>2</v>
+      </c>
+      <c r="L91" s="115" t="s">
+        <v>685</v>
+      </c>
+      <c r="M91" s="116">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="116">
+        <v>7</v>
+      </c>
+      <c r="B92" s="116">
+        <v>91</v>
+      </c>
+      <c r="C92" s="116">
+        <v>10</v>
+      </c>
+      <c r="D92" s="116">
+        <v>1</v>
+      </c>
+      <c r="E92" s="116">
+        <v>1</v>
+      </c>
+      <c r="F92" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G92" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H92" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="I92" s="116">
+        <v>1</v>
+      </c>
+      <c r="J92" s="116">
+        <v>3</v>
+      </c>
+      <c r="K92" s="116">
+        <v>2</v>
+      </c>
+      <c r="L92" s="115" t="s">
+        <v>696</v>
+      </c>
+      <c r="M92" s="116">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="116">
+        <v>7</v>
+      </c>
+      <c r="B93" s="116">
+        <v>92</v>
+      </c>
+      <c r="C93" s="116">
+        <v>10</v>
+      </c>
+      <c r="D93" s="116">
+        <v>1</v>
+      </c>
+      <c r="E93" s="116">
+        <v>2</v>
+      </c>
+      <c r="F93" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="G93" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="I93" s="116">
+        <v>1</v>
+      </c>
+      <c r="J93" s="116">
+        <v>3</v>
+      </c>
+      <c r="K93" s="116">
+        <v>2</v>
+      </c>
+      <c r="L93" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="M93" s="116">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -31487,7 +32166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="G97" workbookViewId="0">
       <selection activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
@@ -35865,10 +36544,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38982,6 +39661,414 @@
       </c>
       <c r="M77" s="49" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="116">
+        <v>7</v>
+      </c>
+      <c r="B78" s="34">
+        <v>74</v>
+      </c>
+      <c r="C78" s="34">
+        <v>10</v>
+      </c>
+      <c r="D78" s="35">
+        <v>1</v>
+      </c>
+      <c r="E78" s="34">
+        <v>1</v>
+      </c>
+      <c r="F78" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G78" s="117" t="s">
+        <v>676</v>
+      </c>
+      <c r="H78" s="117" t="s">
+        <v>677</v>
+      </c>
+      <c r="I78" s="116">
+        <v>1</v>
+      </c>
+      <c r="J78" s="116">
+        <v>1</v>
+      </c>
+      <c r="K78" s="116">
+        <v>1</v>
+      </c>
+      <c r="L78" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="M78" s="116" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="116">
+        <v>7</v>
+      </c>
+      <c r="B79" s="34">
+        <v>75</v>
+      </c>
+      <c r="C79" s="34">
+        <v>10</v>
+      </c>
+      <c r="D79" s="35">
+        <v>1</v>
+      </c>
+      <c r="E79" s="34">
+        <v>1</v>
+      </c>
+      <c r="F79" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G79" s="117" t="s">
+        <v>676</v>
+      </c>
+      <c r="H79" s="117" t="s">
+        <v>682</v>
+      </c>
+      <c r="I79" s="116">
+        <v>1</v>
+      </c>
+      <c r="J79" s="116">
+        <v>1</v>
+      </c>
+      <c r="K79" s="116">
+        <v>2</v>
+      </c>
+      <c r="L79" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="M79" s="116" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="116">
+        <v>7</v>
+      </c>
+      <c r="B80" s="34">
+        <v>76</v>
+      </c>
+      <c r="C80" s="34">
+        <v>10</v>
+      </c>
+      <c r="D80" s="35">
+        <v>1</v>
+      </c>
+      <c r="E80" s="34">
+        <v>1</v>
+      </c>
+      <c r="F80" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G80" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="H80" s="117" t="s">
+        <v>686</v>
+      </c>
+      <c r="I80" s="116">
+        <v>1</v>
+      </c>
+      <c r="J80" s="116">
+        <v>2</v>
+      </c>
+      <c r="K80" s="116">
+        <v>1</v>
+      </c>
+      <c r="L80" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="M80" s="116" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="116">
+        <v>7</v>
+      </c>
+      <c r="B81" s="34">
+        <v>76</v>
+      </c>
+      <c r="C81" s="34">
+        <v>10</v>
+      </c>
+      <c r="D81" s="35">
+        <v>1</v>
+      </c>
+      <c r="E81" s="34">
+        <v>1</v>
+      </c>
+      <c r="F81" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G81" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="H81" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="I81" s="116">
+        <v>1</v>
+      </c>
+      <c r="J81" s="116">
+        <v>2</v>
+      </c>
+      <c r="K81" s="116">
+        <v>2</v>
+      </c>
+      <c r="L81" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="M81" s="116" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="116">
+        <v>7</v>
+      </c>
+      <c r="B82" s="34">
+        <v>77</v>
+      </c>
+      <c r="C82" s="34">
+        <v>10</v>
+      </c>
+      <c r="D82" s="35">
+        <v>1</v>
+      </c>
+      <c r="E82" s="34">
+        <v>2</v>
+      </c>
+      <c r="F82" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G82" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="H82" s="117" t="s">
+        <v>686</v>
+      </c>
+      <c r="I82" s="116">
+        <v>1</v>
+      </c>
+      <c r="J82" s="116">
+        <v>2</v>
+      </c>
+      <c r="K82" s="116">
+        <v>1</v>
+      </c>
+      <c r="L82" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="M82" s="116">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="116">
+        <v>7</v>
+      </c>
+      <c r="B83" s="34">
+        <v>77</v>
+      </c>
+      <c r="C83" s="34">
+        <v>10</v>
+      </c>
+      <c r="D83" s="35">
+        <v>1</v>
+      </c>
+      <c r="E83" s="34">
+        <v>2</v>
+      </c>
+      <c r="F83" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G83" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="H83" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="I83" s="116">
+        <v>1</v>
+      </c>
+      <c r="J83" s="116">
+        <v>2</v>
+      </c>
+      <c r="K83" s="116">
+        <v>2</v>
+      </c>
+      <c r="L83" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="M83" s="116">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="116">
+        <v>7</v>
+      </c>
+      <c r="B84" s="34">
+        <v>78</v>
+      </c>
+      <c r="C84" s="34">
+        <v>10</v>
+      </c>
+      <c r="D84" s="35">
+        <v>1</v>
+      </c>
+      <c r="E84" s="34">
+        <v>2</v>
+      </c>
+      <c r="F84" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G84" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" s="117" t="s">
+        <v>690</v>
+      </c>
+      <c r="I84" s="116">
+        <v>1</v>
+      </c>
+      <c r="J84" s="116">
+        <v>3</v>
+      </c>
+      <c r="K84" s="116">
+        <v>1</v>
+      </c>
+      <c r="L84" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="M84" s="116" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="116">
+        <v>7</v>
+      </c>
+      <c r="B85" s="34">
+        <v>79</v>
+      </c>
+      <c r="C85" s="34">
+        <v>10</v>
+      </c>
+      <c r="D85" s="35">
+        <v>1</v>
+      </c>
+      <c r="E85" s="34">
+        <v>2</v>
+      </c>
+      <c r="F85" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G85" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="H85" s="117" t="s">
+        <v>690</v>
+      </c>
+      <c r="I85" s="116">
+        <v>1</v>
+      </c>
+      <c r="J85" s="116">
+        <v>3</v>
+      </c>
+      <c r="K85" s="116">
+        <v>1</v>
+      </c>
+      <c r="L85" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="M85" s="116"/>
+    </row>
+    <row r="86" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="116">
+        <v>7</v>
+      </c>
+      <c r="B86" s="34">
+        <v>80</v>
+      </c>
+      <c r="C86" s="34">
+        <v>10</v>
+      </c>
+      <c r="D86" s="35">
+        <v>1</v>
+      </c>
+      <c r="E86" s="34">
+        <v>2</v>
+      </c>
+      <c r="F86" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G86" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86" s="116">
+        <v>1</v>
+      </c>
+      <c r="J86" s="116">
+        <v>3</v>
+      </c>
+      <c r="K86" s="116">
+        <v>3</v>
+      </c>
+      <c r="L86" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="M86" s="116" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="116">
+        <v>7</v>
+      </c>
+      <c r="B87" s="34">
+        <v>81</v>
+      </c>
+      <c r="C87" s="34">
+        <v>10</v>
+      </c>
+      <c r="D87" s="35">
+        <v>1</v>
+      </c>
+      <c r="E87" s="34">
+        <v>2</v>
+      </c>
+      <c r="F87" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="G87" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" s="116">
+        <v>1</v>
+      </c>
+      <c r="J87" s="116">
+        <v>3</v>
+      </c>
+      <c r="K87" s="116">
+        <v>3</v>
+      </c>
+      <c r="L87" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="M87" s="116" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="574" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{736062A6-46AE-4C45-9E08-FDAF962B8EA4}"/>
+  <xr:revisionPtr revIDLastSave="736" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25EC230-95EA-40A9-B190-111CCC5EA5ED}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1476" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="716">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1430,9 +1430,6 @@
     </r>
   </si>
   <si>
-    <t>Zavisnost među veličinama</t>
-  </si>
-  <si>
     <t>Koordinate tačaka</t>
   </si>
   <si>
@@ -2253,6 +2250,54 @@
   </si>
   <si>
     <t>nb_2 66</t>
+  </si>
+  <si>
+    <t>Produžena proporcija</t>
+  </si>
+  <si>
+    <t>Duž i mnogougao</t>
+  </si>
+  <si>
+    <t>Funkcija direktne proporcionalnosti</t>
+  </si>
+  <si>
+    <t>grafik</t>
+  </si>
+  <si>
+    <t>grafik I tabela</t>
+  </si>
+  <si>
+    <t>Koordinate duži</t>
+  </si>
+  <si>
+    <t>Uzorak</t>
+  </si>
+  <si>
+    <t>brojni niz</t>
+  </si>
+  <si>
+    <t>Srednja vrednost, medijana, mod</t>
+  </si>
+  <si>
+    <t>Rastojanje tačaka u koord.sistemu</t>
+  </si>
+  <si>
+    <t>dužina, sredina duži</t>
+  </si>
+  <si>
+    <t>dužina duži</t>
+  </si>
+  <si>
+    <t>trougao-obim, povrs.</t>
+  </si>
+  <si>
+    <t>prav.trougao-obim, povrs.</t>
+  </si>
+  <si>
+    <t>kvadrat-obim, povrs.</t>
+  </si>
+  <si>
+    <t>cetvoroug.-obim, povrs.</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2738,6 +2783,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5648,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M69" s="42">
         <v>28</v>
@@ -5662,10 +5708,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="D62" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5677,7 +5723,7 @@
     <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
@@ -5726,122 +5772,122 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
+    <row r="2" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>7</v>
+      </c>
+      <c r="B2" s="34">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34">
+        <v>10</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34">
+        <v>3</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I2" s="34">
+        <v>4</v>
+      </c>
+      <c r="J2" s="34">
+        <v>1</v>
+      </c>
+      <c r="K2" s="34">
+        <v>1</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>7</v>
+      </c>
+      <c r="B3" s="34">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34">
+        <v>2</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I3" s="34">
+        <v>4</v>
+      </c>
+      <c r="J3" s="34">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34">
+        <v>1</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>7</v>
+      </c>
+      <c r="B4" s="34">
+        <v>3</v>
+      </c>
+      <c r="C4" s="34">
         <v>8</v>
       </c>
-      <c r="D2" s="15">
-        <v>3</v>
-      </c>
-      <c r="E2" s="15">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="G2" s="113" t="s">
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" s="118" t="s">
         <v>424</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="I2" s="15">
-        <v>4</v>
-      </c>
-      <c r="J2" s="15">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>6</v>
-      </c>
-      <c r="B3" s="15">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15">
-        <v>10</v>
-      </c>
-      <c r="D3" s="15">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="I3" s="15">
-        <v>4</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>6</v>
-      </c>
-      <c r="B4" s="15">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="I4" s="15">
-        <v>4</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="M4" s="15"/>
+      <c r="H4" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I4" s="34">
+        <v>4</v>
+      </c>
+      <c r="J4" s="34">
+        <v>1</v>
+      </c>
+      <c r="K4" s="34">
+        <v>1</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
@@ -5860,25 +5906,25 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="I5" s="10">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="93" t="s">
         <v>447</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4</v>
-      </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="93" t="s">
-        <v>448</v>
       </c>
       <c r="M5" s="9">
         <v>57</v>
@@ -5901,14 +5947,14 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="I6" s="10">
         <v>4</v>
       </c>
@@ -5919,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M6" s="9">
         <v>4</v>
@@ -5942,14 +5988,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="I7" s="10">
         <v>4</v>
       </c>
@@ -5960,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="93" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M7" s="9">
         <v>5</v>
@@ -5983,14 +6029,14 @@
         <v>3</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="I8" s="10">
         <v>4</v>
       </c>
@@ -6001,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M8" s="9">
         <v>5</v>
@@ -6024,14 +6070,14 @@
         <v>3</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="I9" s="10">
         <v>4</v>
       </c>
@@ -6042,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M9" s="9">
         <v>5</v>
@@ -6065,14 +6111,14 @@
         <v>2</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="I10" s="10">
         <v>4</v>
       </c>
@@ -6083,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M10" s="9">
         <v>8</v>
@@ -6106,14 +6152,14 @@
         <v>2</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I11" s="16">
         <v>4</v>
       </c>
@@ -6124,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M11" s="15">
         <v>5</v>
@@ -6147,14 +6193,14 @@
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I12" s="16">
         <v>4</v>
       </c>
@@ -6165,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M12" s="15">
         <v>5</v>
@@ -6188,14 +6234,14 @@
         <v>2</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I13" s="16">
         <v>4</v>
       </c>
@@ -6206,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M13" s="15">
         <v>8</v>
@@ -6229,14 +6275,14 @@
         <v>2</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I14" s="16">
         <v>4</v>
       </c>
@@ -6247,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M14" s="15">
         <v>8</v>
@@ -6270,14 +6316,14 @@
         <v>3</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I15" s="16">
         <v>4</v>
       </c>
@@ -6288,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M15" s="15">
         <v>8</v>
@@ -6311,13 +6357,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I16" s="10">
         <v>4</v>
@@ -6329,48 +6375,48 @@
         <v>2</v>
       </c>
       <c r="L16" s="93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>6</v>
-      </c>
-      <c r="B17" s="15">
+    <row r="17" spans="1:13" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>7</v>
+      </c>
+      <c r="B17" s="34">
         <v>16</v>
       </c>
-      <c r="C17" s="15">
-        <v>10</v>
-      </c>
-      <c r="D17" s="15">
-        <v>3</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="I17" s="16">
-        <v>4</v>
-      </c>
-      <c r="J17" s="16">
-        <v>2</v>
-      </c>
-      <c r="K17" s="16">
-        <v>2</v>
-      </c>
-      <c r="L17" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="M17" s="15"/>
+      <c r="C17" s="34">
+        <v>10</v>
+      </c>
+      <c r="D17" s="34">
+        <v>3</v>
+      </c>
+      <c r="E17" s="34">
+        <v>2</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>700</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="35">
+        <v>4</v>
+      </c>
+      <c r="J17" s="35">
+        <v>2</v>
+      </c>
+      <c r="K17" s="35">
+        <v>2</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>455</v>
+      </c>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
@@ -6389,25 +6435,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H18" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="I18" s="10">
+        <v>4</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+      <c r="L18" s="93" t="s">
         <v>454</v>
-      </c>
-      <c r="I18" s="10">
-        <v>4</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>2</v>
-      </c>
-      <c r="L18" s="93" t="s">
-        <v>455</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -6428,13 +6474,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I19" s="10">
         <v>4</v>
@@ -6446,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M19" s="9">
         <v>17</v>
@@ -6469,13 +6515,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I20" s="10">
         <v>4</v>
@@ -6487,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M20" s="9">
         <v>17</v>
@@ -6510,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I21" s="10">
         <v>4</v>
@@ -6528,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M21" s="9">
         <v>17</v>
@@ -6551,14 +6597,14 @@
         <v>3</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I22" s="16">
         <v>4</v>
       </c>
@@ -6569,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M22" s="15"/>
     </row>
@@ -6590,13 +6636,13 @@
         <v>3</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I23" s="16">
         <v>4</v>
@@ -6608,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M23" s="15"/>
     </row>
@@ -6629,13 +6675,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I24" s="16">
         <v>4</v>
@@ -6647,7 +6693,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M24" s="15"/>
     </row>
@@ -6668,13 +6714,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I25" s="16">
         <v>4</v>
@@ -6686,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M25" s="15"/>
     </row>
@@ -6707,25 +6753,25 @@
         <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H26" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="I26" s="10">
+        <v>4</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>3</v>
+      </c>
+      <c r="L26" s="93" t="s">
         <v>467</v>
-      </c>
-      <c r="I26" s="10">
-        <v>4</v>
-      </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10">
-        <v>3</v>
-      </c>
-      <c r="L26" s="93" t="s">
-        <v>468</v>
       </c>
       <c r="M26" s="9"/>
     </row>
@@ -6746,13 +6792,13 @@
         <v>2</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I27" s="10">
         <v>4</v>
@@ -6764,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="93" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M27" s="9">
         <v>24</v>
@@ -6787,13 +6833,13 @@
         <v>2</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I28" s="10">
         <v>4</v>
@@ -6805,7 +6851,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="93" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M28" s="9">
         <v>25</v>
@@ -6828,13 +6874,13 @@
         <v>2</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I29" s="10">
         <v>4</v>
@@ -6867,13 +6913,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I30" s="10">
         <v>4</v>
@@ -6906,13 +6952,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I31" s="10">
         <v>4</v>
@@ -6947,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>156</v>
@@ -6965,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M32" s="9"/>
     </row>
@@ -6986,10 +7032,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>156</v>
@@ -7004,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M33" s="9"/>
     </row>
@@ -7025,10 +7071,10 @@
         <v>2</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>156</v>
@@ -7043,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M34" s="9">
         <v>31</v>
@@ -7066,14 +7112,14 @@
         <v>2</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G35" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>666</v>
-      </c>
       <c r="I35" s="16">
         <v>4</v>
       </c>
@@ -7084,10 +7130,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="M35" s="15" t="s">
         <v>472</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7107,14 +7153,14 @@
         <v>1</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G36" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>666</v>
-      </c>
       <c r="I36" s="16">
         <v>4</v>
       </c>
@@ -7125,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M36" s="15">
         <v>33</v>
@@ -7148,13 +7194,13 @@
         <v>1</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I37" s="10">
         <v>4</v>
@@ -7167,7 +7213,7 @@
       </c>
       <c r="L37" s="93"/>
       <c r="M37" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7187,13 +7233,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I38" s="10">
         <v>4</v>
@@ -7205,7 +7251,7 @@
         <v>3</v>
       </c>
       <c r="L38" s="93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M38" s="9">
         <v>35</v>
@@ -7228,10 +7274,10 @@
         <v>3</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>156</v>
@@ -7246,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M39" s="9">
         <v>35</v>
@@ -7269,14 +7315,14 @@
         <v>3</v>
       </c>
       <c r="F40" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="I40" s="10">
         <v>4</v>
       </c>
@@ -7287,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="93" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M40" s="9">
         <v>35</v>
@@ -7310,14 +7356,14 @@
         <v>3</v>
       </c>
       <c r="F41" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H41" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I41" s="16">
         <v>4</v>
       </c>
@@ -7328,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M41" s="15"/>
     </row>
@@ -7349,14 +7395,14 @@
         <v>1</v>
       </c>
       <c r="F42" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H42" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="I42" s="16">
         <v>4</v>
       </c>
@@ -7367,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="M42" s="15" t="s">
         <v>652</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7390,13 +7436,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>452</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>453</v>
       </c>
       <c r="I43" s="10">
         <v>4</v>
@@ -7429,13 +7475,13 @@
         <v>1</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I44" s="16">
         <v>4</v>
@@ -7447,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M44" s="15"/>
     </row>
@@ -7468,13 +7514,13 @@
         <v>1</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G45" s="113" t="s">
         <v>424</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I45" s="15">
         <v>4</v>
@@ -7486,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M45" s="15">
         <v>2</v>
@@ -7509,66 +7555,66 @@
         <v>1</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G46" s="113" t="s">
         <v>424</v>
       </c>
       <c r="H46" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="I46" s="15">
+        <v>4</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="34">
+        <v>7</v>
+      </c>
+      <c r="B47" s="34">
+        <v>43</v>
+      </c>
+      <c r="C47" s="34">
+        <v>10</v>
+      </c>
+      <c r="D47" s="34">
+        <v>3</v>
+      </c>
+      <c r="E47" s="34">
+        <v>3</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G47" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I47" s="34">
+        <v>4</v>
+      </c>
+      <c r="J47" s="34">
+        <v>1</v>
+      </c>
+      <c r="K47" s="34">
+        <v>1</v>
+      </c>
+      <c r="L47" s="38" t="s">
         <v>662</v>
       </c>
-      <c r="I46" s="15">
-        <v>4</v>
-      </c>
-      <c r="J46" s="15">
-        <v>1</v>
-      </c>
-      <c r="K46" s="15">
-        <v>1</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
-        <v>6</v>
-      </c>
-      <c r="B47" s="15">
-        <v>43</v>
-      </c>
-      <c r="C47" s="15">
-        <v>10</v>
-      </c>
-      <c r="D47" s="15">
-        <v>3</v>
-      </c>
-      <c r="E47" s="15">
-        <v>3</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="G47" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>662</v>
-      </c>
-      <c r="I47" s="15">
-        <v>4</v>
-      </c>
-      <c r="J47" s="15">
-        <v>1</v>
-      </c>
-      <c r="K47" s="15">
-        <v>1</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="M47" s="15"/>
+      <c r="M47" s="34"/>
     </row>
     <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
@@ -7587,13 +7633,13 @@
         <v>1</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G48" s="113" t="s">
         <v>424</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I48" s="15">
         <v>4</v>
@@ -7605,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M48" s="15" t="s">
         <v>363</v>
@@ -7628,25 +7674,25 @@
         <v>2</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H49" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="I49" s="15">
+        <v>4</v>
+      </c>
+      <c r="J49" s="15">
+        <v>3</v>
+      </c>
+      <c r="K49" s="15">
+        <v>3</v>
+      </c>
+      <c r="L49" s="18" t="s">
         <v>667</v>
-      </c>
-      <c r="I49" s="15">
-        <v>4</v>
-      </c>
-      <c r="J49" s="15">
-        <v>3</v>
-      </c>
-      <c r="K49" s="15">
-        <v>3</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>668</v>
       </c>
       <c r="M49" s="15"/>
     </row>
@@ -7667,14 +7713,14 @@
         <v>2</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G50" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="H50" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>670</v>
-      </c>
       <c r="I50" s="15">
         <v>4</v>
       </c>
@@ -7685,7 +7731,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M50" s="15"/>
     </row>
@@ -7706,14 +7752,14 @@
         <v>1</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G51" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="H51" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>666</v>
-      </c>
       <c r="I51" s="15">
         <v>4</v>
       </c>
@@ -7724,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -7747,14 +7793,14 @@
         <v>2</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G52" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="H52" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>670</v>
-      </c>
       <c r="I52" s="15">
         <v>4</v>
       </c>
@@ -7765,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M52" s="15">
         <v>45</v>
@@ -7788,13 +7834,13 @@
         <v>2</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I53" s="15">
         <v>4</v>
@@ -7806,7 +7852,7 @@
         <v>3</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M53" s="15">
         <v>45</v>
@@ -7829,25 +7875,25 @@
         <v>3</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G54" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="I54" s="15">
+        <v>4</v>
+      </c>
+      <c r="J54" s="15">
+        <v>4</v>
+      </c>
+      <c r="K54" s="15">
+        <v>2</v>
+      </c>
+      <c r="L54" s="18" t="s">
         <v>670</v>
-      </c>
-      <c r="I54" s="15">
-        <v>4</v>
-      </c>
-      <c r="J54" s="15">
-        <v>4</v>
-      </c>
-      <c r="K54" s="15">
-        <v>2</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>671</v>
       </c>
       <c r="M54" s="15">
         <v>46</v>
@@ -7870,13 +7916,13 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G55" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I55" s="15">
         <v>4</v>
@@ -7888,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M55" s="15">
         <v>46</v>
@@ -7911,13 +7957,13 @@
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G56" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I56" s="15">
         <v>4</v>
@@ -7929,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M56" s="15">
         <v>47</v>
@@ -7952,25 +7998,25 @@
         <v>2</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G57" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="H57" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="I57" s="15">
+        <v>4</v>
+      </c>
+      <c r="J57" s="15">
+        <v>4</v>
+      </c>
+      <c r="K57" s="15">
+        <v>2</v>
+      </c>
+      <c r="L57" s="18" t="s">
         <v>670</v>
-      </c>
-      <c r="I57" s="15">
-        <v>4</v>
-      </c>
-      <c r="J57" s="15">
-        <v>4</v>
-      </c>
-      <c r="K57" s="15">
-        <v>2</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>671</v>
       </c>
       <c r="M57" s="15">
         <v>47</v>
@@ -7993,28 +8039,797 @@
         <v>2</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G58" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="H58" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="I58" s="15">
+        <v>4</v>
+      </c>
+      <c r="J58" s="15">
+        <v>4</v>
+      </c>
+      <c r="K58" s="15">
+        <v>2</v>
+      </c>
+      <c r="L58" s="18" t="s">
         <v>670</v>
-      </c>
-      <c r="I58" s="15">
-        <v>4</v>
-      </c>
-      <c r="J58" s="15">
-        <v>4</v>
-      </c>
-      <c r="K58" s="15">
-        <v>2</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>671</v>
       </c>
       <c r="M58" s="15">
         <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="34">
+        <v>7</v>
+      </c>
+      <c r="B59" s="34">
+        <v>52</v>
+      </c>
+      <c r="C59" s="34">
+        <v>10</v>
+      </c>
+      <c r="D59" s="34">
+        <v>1</v>
+      </c>
+      <c r="E59" s="34">
+        <v>1</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="I59" s="34">
+        <v>4</v>
+      </c>
+      <c r="J59" s="34">
+        <v>2</v>
+      </c>
+      <c r="K59" s="34">
+        <v>1</v>
+      </c>
+      <c r="M59" s="34"/>
+    </row>
+    <row r="60" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="34">
+        <v>7</v>
+      </c>
+      <c r="B60" s="34">
+        <v>52</v>
+      </c>
+      <c r="C60" s="34">
+        <v>10</v>
+      </c>
+      <c r="D60" s="34">
+        <v>1</v>
+      </c>
+      <c r="E60" s="34">
+        <v>1</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G60" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="34">
+        <v>4</v>
+      </c>
+      <c r="J60" s="34">
+        <v>2</v>
+      </c>
+      <c r="K60" s="34">
+        <v>2</v>
+      </c>
+      <c r="M60" s="34"/>
+    </row>
+    <row r="61" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="34">
+        <v>7</v>
+      </c>
+      <c r="B61" s="34">
+        <v>53</v>
+      </c>
+      <c r="C61" s="34">
+        <v>10</v>
+      </c>
+      <c r="D61" s="34">
+        <v>1</v>
+      </c>
+      <c r="E61" s="34">
+        <v>1</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G61" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="I61" s="34">
+        <v>4</v>
+      </c>
+      <c r="J61" s="34">
+        <v>2</v>
+      </c>
+      <c r="K61" s="34">
+        <v>1</v>
+      </c>
+      <c r="L61" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="M61" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="34">
+        <v>7</v>
+      </c>
+      <c r="B62" s="34">
+        <v>54</v>
+      </c>
+      <c r="C62" s="34">
+        <v>10</v>
+      </c>
+      <c r="D62" s="34">
+        <v>1</v>
+      </c>
+      <c r="E62" s="34">
+        <v>2</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G62" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="I62" s="34">
+        <v>4</v>
+      </c>
+      <c r="J62" s="34">
+        <v>2</v>
+      </c>
+      <c r="K62" s="34">
+        <v>1</v>
+      </c>
+      <c r="L62" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="M62" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="34">
+        <v>7</v>
+      </c>
+      <c r="B63" s="34">
+        <v>54</v>
+      </c>
+      <c r="C63" s="34">
+        <v>10</v>
+      </c>
+      <c r="D63" s="34">
+        <v>1</v>
+      </c>
+      <c r="E63" s="34">
+        <v>2</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G63" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="34">
+        <v>4</v>
+      </c>
+      <c r="J63" s="34">
+        <v>2</v>
+      </c>
+      <c r="K63" s="34">
+        <v>2</v>
+      </c>
+      <c r="L63" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="M63" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="34">
+        <v>7</v>
+      </c>
+      <c r="B64" s="34">
+        <v>55</v>
+      </c>
+      <c r="C64" s="34">
+        <v>8</v>
+      </c>
+      <c r="D64" s="34">
+        <v>1</v>
+      </c>
+      <c r="E64" s="34">
+        <v>1</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G64" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="I64" s="34">
+        <v>4</v>
+      </c>
+      <c r="J64" s="34">
+        <v>2</v>
+      </c>
+      <c r="K64" s="34">
+        <v>1</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="M64" s="34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="34">
+        <v>7</v>
+      </c>
+      <c r="B65" s="34">
+        <v>56</v>
+      </c>
+      <c r="C65" s="34">
+        <v>10</v>
+      </c>
+      <c r="D65" s="34">
+        <v>1</v>
+      </c>
+      <c r="E65" s="34">
+        <v>1</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G65" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="I65" s="34">
+        <v>4</v>
+      </c>
+      <c r="J65" s="34">
+        <v>2</v>
+      </c>
+      <c r="K65" s="34">
+        <v>1</v>
+      </c>
+      <c r="L65" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="M65" s="34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="34">
+        <v>7</v>
+      </c>
+      <c r="B66" s="34">
+        <v>57</v>
+      </c>
+      <c r="C66" s="34">
+        <v>10</v>
+      </c>
+      <c r="D66" s="34">
+        <v>1</v>
+      </c>
+      <c r="E66" s="34">
+        <v>1</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G66" s="118" t="s">
+        <v>700</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="34">
+        <v>4</v>
+      </c>
+      <c r="J66" s="34">
+        <v>2</v>
+      </c>
+      <c r="K66" s="34">
+        <v>2</v>
+      </c>
+      <c r="L66" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="M66" s="34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="34">
+        <v>7</v>
+      </c>
+      <c r="B67" s="34">
+        <v>58</v>
+      </c>
+      <c r="C67" s="34">
+        <v>10</v>
+      </c>
+      <c r="D67" s="34">
+        <v>1</v>
+      </c>
+      <c r="E67" s="34">
+        <v>1</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G67" s="118" t="s">
+        <v>706</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="I67" s="34">
+        <v>4</v>
+      </c>
+      <c r="J67" s="34">
+        <v>3</v>
+      </c>
+      <c r="K67" s="34">
+        <v>1</v>
+      </c>
+      <c r="L67" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="34">
+        <v>7</v>
+      </c>
+      <c r="B68" s="34">
+        <v>59</v>
+      </c>
+      <c r="C68" s="34">
+        <v>10</v>
+      </c>
+      <c r="D68" s="34">
+        <v>1</v>
+      </c>
+      <c r="E68" s="34">
+        <v>1</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G68" s="118" t="s">
+        <v>706</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="I68" s="34">
+        <v>4</v>
+      </c>
+      <c r="J68" s="34">
+        <v>3</v>
+      </c>
+      <c r="K68" s="34">
+        <v>1</v>
+      </c>
+      <c r="L68" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="M68" s="34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="34">
+        <v>7</v>
+      </c>
+      <c r="B69" s="34">
+        <v>60</v>
+      </c>
+      <c r="C69" s="34">
+        <v>10</v>
+      </c>
+      <c r="D69" s="34">
+        <v>1</v>
+      </c>
+      <c r="E69" s="34">
+        <v>2</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G69" s="118" t="s">
+        <v>706</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="I69" s="34">
+        <v>4</v>
+      </c>
+      <c r="J69" s="34">
+        <v>3</v>
+      </c>
+      <c r="K69" s="34">
+        <v>1</v>
+      </c>
+      <c r="L69" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="M69" s="34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="34">
+        <v>7</v>
+      </c>
+      <c r="B70" s="34">
+        <v>61</v>
+      </c>
+      <c r="C70" s="34">
+        <v>10</v>
+      </c>
+      <c r="D70" s="34">
+        <v>1</v>
+      </c>
+      <c r="E70" s="34">
+        <v>3</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G70" s="118" t="s">
+        <v>706</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="I70" s="34">
+        <v>4</v>
+      </c>
+      <c r="J70" s="34">
+        <v>3</v>
+      </c>
+      <c r="K70" s="34">
+        <v>1</v>
+      </c>
+      <c r="L70" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="M70" s="34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="34">
+        <v>7</v>
+      </c>
+      <c r="B71" s="34">
+        <v>62</v>
+      </c>
+      <c r="C71" s="34">
+        <v>10</v>
+      </c>
+      <c r="D71" s="34">
+        <v>1</v>
+      </c>
+      <c r="E71" s="34">
+        <v>1</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="I71" s="34">
+        <v>4</v>
+      </c>
+      <c r="J71" s="34">
+        <v>1</v>
+      </c>
+      <c r="K71" s="34">
+        <v>1</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="M71" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="34">
+        <v>7</v>
+      </c>
+      <c r="B72" s="34">
+        <v>63</v>
+      </c>
+      <c r="C72" s="34">
+        <v>10</v>
+      </c>
+      <c r="D72" s="34">
+        <v>1</v>
+      </c>
+      <c r="E72" s="34">
+        <v>2</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G72" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="I72" s="34">
+        <v>4</v>
+      </c>
+      <c r="J72" s="34">
+        <v>1</v>
+      </c>
+      <c r="K72" s="34">
+        <v>1</v>
+      </c>
+      <c r="L72" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="M72" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="34">
+        <v>7</v>
+      </c>
+      <c r="B73" s="34">
+        <v>64</v>
+      </c>
+      <c r="C73" s="34">
+        <v>10</v>
+      </c>
+      <c r="D73" s="34">
+        <v>1</v>
+      </c>
+      <c r="E73" s="34">
+        <v>1</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G73" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I73" s="34">
+        <v>4</v>
+      </c>
+      <c r="J73" s="34">
+        <v>1</v>
+      </c>
+      <c r="K73" s="34">
+        <v>2</v>
+      </c>
+      <c r="L73" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="M73" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="34">
+        <v>7</v>
+      </c>
+      <c r="B74" s="34">
+        <v>65</v>
+      </c>
+      <c r="C74" s="34">
+        <v>10</v>
+      </c>
+      <c r="D74" s="34">
+        <v>1</v>
+      </c>
+      <c r="E74" s="34">
+        <v>3</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G74" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I74" s="34">
+        <v>4</v>
+      </c>
+      <c r="J74" s="34">
+        <v>1</v>
+      </c>
+      <c r="K74" s="34">
+        <v>2</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="M74" s="34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="34">
+        <v>7</v>
+      </c>
+      <c r="B75" s="34">
+        <v>66</v>
+      </c>
+      <c r="C75" s="34">
+        <v>10</v>
+      </c>
+      <c r="D75" s="34">
+        <v>1</v>
+      </c>
+      <c r="E75" s="34">
+        <v>2</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G75" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I75" s="34">
+        <v>4</v>
+      </c>
+      <c r="J75" s="34">
+        <v>1</v>
+      </c>
+      <c r="K75" s="34">
+        <v>2</v>
+      </c>
+      <c r="L75" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="M75" s="34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="34">
+        <v>7</v>
+      </c>
+      <c r="B76" s="34">
+        <v>67</v>
+      </c>
+      <c r="C76" s="34">
+        <v>10</v>
+      </c>
+      <c r="D76" s="34">
+        <v>1</v>
+      </c>
+      <c r="E76" s="34">
+        <v>1</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G76" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I76" s="34">
+        <v>4</v>
+      </c>
+      <c r="J76" s="34">
+        <v>1</v>
+      </c>
+      <c r="K76" s="34">
+        <v>2</v>
+      </c>
+      <c r="L76" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="M76" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="34">
+        <v>7</v>
+      </c>
+      <c r="B77" s="34">
+        <v>68</v>
+      </c>
+      <c r="C77" s="34">
+        <v>10</v>
+      </c>
+      <c r="D77" s="34">
+        <v>1</v>
+      </c>
+      <c r="E77" s="34">
+        <v>3</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G77" s="118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I77" s="34">
+        <v>4</v>
+      </c>
+      <c r="J77" s="34">
+        <v>1</v>
+      </c>
+      <c r="K77" s="34">
+        <v>2</v>
+      </c>
+      <c r="L77" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="M77" s="34">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -23580,7 +24395,7 @@
         <v>3</v>
       </c>
       <c r="L43" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M43" s="42">
         <v>37</v>
@@ -28367,7 +29182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
@@ -30024,7 +30839,7 @@
         <v>4</v>
       </c>
       <c r="L41" s="93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M41" s="9">
         <v>39</v>
@@ -30065,7 +30880,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M42" s="9">
         <v>39</v>
@@ -30106,10 +30921,10 @@
         <v>4</v>
       </c>
       <c r="L43" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="M43" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -30150,7 +30965,7 @@
         <v>27</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -30266,7 +31081,7 @@
         <v>5</v>
       </c>
       <c r="L47" s="93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M47" s="9">
         <v>12</v>
@@ -30307,7 +31122,7 @@
         <v>5</v>
       </c>
       <c r="L48" s="93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M48" s="9">
         <v>13</v>
@@ -30348,7 +31163,7 @@
         <v>5</v>
       </c>
       <c r="L49" s="93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M49" s="9">
         <v>15</v>
@@ -30389,7 +31204,7 @@
         <v>5</v>
       </c>
       <c r="L50" s="93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M50" s="9">
         <v>41</v>
@@ -30430,7 +31245,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M51" s="9">
         <v>1</v>
@@ -30471,7 +31286,7 @@
         <v>5</v>
       </c>
       <c r="L52" s="93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M52" s="9">
         <v>50</v>
@@ -30556,7 +31371,7 @@
         <v>27</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30594,7 +31409,7 @@
         <v>5</v>
       </c>
       <c r="L55" s="93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M55" s="9">
         <v>51</v>
@@ -30635,7 +31450,7 @@
         <v>5</v>
       </c>
       <c r="L56" s="93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M56" s="9">
         <v>51</v>
@@ -30676,7 +31491,7 @@
         <v>5</v>
       </c>
       <c r="L57" s="93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M57" s="9">
         <v>41</v>
@@ -30717,7 +31532,7 @@
         <v>5</v>
       </c>
       <c r="L58" s="93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M58" s="9">
         <v>42</v>
@@ -30758,7 +31573,7 @@
         <v>5</v>
       </c>
       <c r="L59" s="93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M59" s="9">
         <v>57</v>
@@ -30799,7 +31614,7 @@
         <v>5</v>
       </c>
       <c r="L60" s="93" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M60" s="9">
         <v>58</v>
@@ -30840,7 +31655,7 @@
         <v>5</v>
       </c>
       <c r="L61" s="93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M61" s="9">
         <v>31</v>
@@ -30866,7 +31681,7 @@
         <v>178</v>
       </c>
       <c r="G62" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H62" s="52" t="s">
         <v>348</v>
@@ -30881,7 +31696,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M62" s="49">
         <v>5</v>
@@ -30907,7 +31722,7 @@
         <v>178</v>
       </c>
       <c r="G63" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H63" s="52" t="s">
         <v>348</v>
@@ -30922,7 +31737,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="51" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M63" s="49">
         <v>6</v>
@@ -30948,22 +31763,22 @@
         <v>178</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H64" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="I64" s="50">
+        <v>1</v>
+      </c>
+      <c r="J64" s="49">
+        <v>2</v>
+      </c>
+      <c r="K64" s="49">
+        <v>1</v>
+      </c>
+      <c r="L64" s="51" t="s">
         <v>630</v>
-      </c>
-      <c r="I64" s="50">
-        <v>1</v>
-      </c>
-      <c r="J64" s="49">
-        <v>2</v>
-      </c>
-      <c r="K64" s="49">
-        <v>1</v>
-      </c>
-      <c r="L64" s="51" t="s">
-        <v>631</v>
       </c>
       <c r="M64" s="49">
         <v>22</v>
@@ -30989,22 +31804,22 @@
         <v>178</v>
       </c>
       <c r="G65" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H65" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="I65" s="50">
+        <v>1</v>
+      </c>
+      <c r="J65" s="49">
+        <v>2</v>
+      </c>
+      <c r="K65" s="49">
+        <v>1</v>
+      </c>
+      <c r="L65" s="51" t="s">
         <v>630</v>
-      </c>
-      <c r="I65" s="50">
-        <v>1</v>
-      </c>
-      <c r="J65" s="49">
-        <v>2</v>
-      </c>
-      <c r="K65" s="49">
-        <v>1</v>
-      </c>
-      <c r="L65" s="51" t="s">
-        <v>631</v>
       </c>
       <c r="M65" s="49">
         <v>21</v>
@@ -31030,10 +31845,10 @@
         <v>178</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I66" s="50">
         <v>1</v>
@@ -31045,10 +31860,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="M66" s="49" t="s">
         <v>632</v>
-      </c>
-      <c r="M66" s="49" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -31071,7 +31886,7 @@
         <v>178</v>
       </c>
       <c r="G67" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H67" s="52" t="s">
         <v>193</v>
@@ -31086,10 +31901,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M67" s="49" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -31112,10 +31927,10 @@
         <v>178</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I68" s="50">
         <v>1</v>
@@ -31127,7 +31942,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="51" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M68" s="49"/>
     </row>
@@ -31151,7 +31966,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H69" s="52" t="s">
         <v>193</v>
@@ -31166,7 +31981,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M69" s="49">
         <v>11</v>
@@ -31192,7 +32007,7 @@
         <v>178</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H70" s="52" t="s">
         <v>193</v>
@@ -31207,7 +32022,7 @@
         <v>3</v>
       </c>
       <c r="L70" s="51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M70" s="49">
         <v>68</v>
@@ -31233,7 +32048,7 @@
         <v>178</v>
       </c>
       <c r="G71" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H71" s="52" t="s">
         <v>75</v>
@@ -31248,7 +32063,7 @@
         <v>4</v>
       </c>
       <c r="L71" s="51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M71" s="49">
         <v>42</v>
@@ -31274,7 +32089,7 @@
         <v>178</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H72" s="52" t="s">
         <v>75</v>
@@ -31289,7 +32104,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M72" s="49">
         <v>41</v>
@@ -31315,7 +32130,7 @@
         <v>178</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H73" s="52" t="s">
         <v>75</v>
@@ -31330,7 +32145,7 @@
         <v>4</v>
       </c>
       <c r="L73" s="51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M73" s="49">
         <v>71</v>
@@ -31356,7 +32171,7 @@
         <v>178</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H74" s="52" t="s">
         <v>75</v>
@@ -31371,7 +32186,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M74" s="49">
         <v>72</v>
@@ -31397,7 +32212,7 @@
         <v>178</v>
       </c>
       <c r="G75" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H75" s="52" t="s">
         <v>193</v>
@@ -31412,7 +32227,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M75" s="49">
         <v>66</v>
@@ -31438,7 +32253,7 @@
         <v>178</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H76" s="52" t="s">
         <v>193</v>
@@ -31453,7 +32268,7 @@
         <v>3</v>
       </c>
       <c r="L76" s="51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M76" s="49">
         <v>69</v>
@@ -31479,7 +32294,7 @@
         <v>178</v>
       </c>
       <c r="G77" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H77" s="52" t="s">
         <v>75</v>
@@ -31494,7 +32309,7 @@
         <v>4</v>
       </c>
       <c r="L77" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M77" s="49">
         <v>56</v>
@@ -31520,7 +32335,7 @@
         <v>178</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H78" s="52" t="s">
         <v>193</v>
@@ -31535,7 +32350,7 @@
         <v>3</v>
       </c>
       <c r="L78" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M78" s="49">
         <v>50</v>
@@ -31561,7 +32376,7 @@
         <v>178</v>
       </c>
       <c r="G79" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H79" s="52" t="s">
         <v>75</v>
@@ -31576,7 +32391,7 @@
         <v>4</v>
       </c>
       <c r="L79" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M79" s="49">
         <v>73</v>
@@ -31599,14 +32414,14 @@
         <v>1</v>
       </c>
       <c r="F80" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G80" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="H80" s="115" t="s">
         <v>676</v>
       </c>
-      <c r="H80" s="115" t="s">
-        <v>677</v>
-      </c>
       <c r="I80" s="116">
         <v>1</v>
       </c>
@@ -31617,7 +32432,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="115" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M80" s="116">
         <v>74</v>
@@ -31640,14 +32455,14 @@
         <v>2</v>
       </c>
       <c r="F81" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G81" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G81" s="115" t="s">
+      <c r="H81" s="115" t="s">
         <v>676</v>
       </c>
-      <c r="H81" s="115" t="s">
-        <v>677</v>
-      </c>
       <c r="I81" s="116">
         <v>1</v>
       </c>
@@ -31658,7 +32473,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="115" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M81" s="116">
         <v>61</v>
@@ -31681,14 +32496,14 @@
         <v>2</v>
       </c>
       <c r="F82" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G82" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G82" s="115" t="s">
+      <c r="H82" s="115" t="s">
         <v>676</v>
       </c>
-      <c r="H82" s="115" t="s">
-        <v>677</v>
-      </c>
       <c r="I82" s="116">
         <v>1</v>
       </c>
@@ -31699,7 +32514,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M82" s="116">
         <v>76</v>
@@ -31722,14 +32537,14 @@
         <v>1</v>
       </c>
       <c r="F83" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G83" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G83" s="115" t="s">
+      <c r="H83" s="115" t="s">
         <v>676</v>
       </c>
-      <c r="H83" s="115" t="s">
-        <v>677</v>
-      </c>
       <c r="I83" s="116">
         <v>1</v>
       </c>
@@ -31740,7 +32555,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="115" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M83" s="116">
         <v>62</v>
@@ -31763,14 +32578,14 @@
         <v>1</v>
       </c>
       <c r="F84" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G84" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G84" s="115" t="s">
+      <c r="H84" s="115" t="s">
         <v>676</v>
       </c>
-      <c r="H84" s="115" t="s">
-        <v>677</v>
-      </c>
       <c r="I84" s="116">
         <v>1</v>
       </c>
@@ -31781,7 +32596,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M84" s="116">
         <v>82</v>
@@ -31804,13 +32619,13 @@
         <v>1</v>
       </c>
       <c r="F85" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G85" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G85" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="H85" s="115" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I85" s="116">
         <v>1</v>
@@ -31822,7 +32637,7 @@
         <v>2</v>
       </c>
       <c r="L85" s="115" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M85" s="116">
         <v>74</v>
@@ -31845,13 +32660,13 @@
         <v>2</v>
       </c>
       <c r="F86" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G86" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G86" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="H86" s="115" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I86" s="116">
         <v>1</v>
@@ -31863,7 +32678,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="63" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M86" s="116">
         <v>77</v>
@@ -31886,13 +32701,13 @@
         <v>2</v>
       </c>
       <c r="F87" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G87" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G87" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="H87" s="115" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I87" s="116">
         <v>1</v>
@@ -31904,7 +32719,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="63" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M87" s="116">
         <v>77</v>
@@ -31927,13 +32742,13 @@
         <v>3</v>
       </c>
       <c r="F88" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G88" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G88" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="H88" s="115" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I88" s="116">
         <v>1</v>
@@ -31945,7 +32760,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="63" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M88" s="116">
         <v>86</v>
@@ -31968,25 +32783,25 @@
         <v>1</v>
       </c>
       <c r="F89" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G89" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G89" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="H89" s="115" t="s">
+        <v>681</v>
+      </c>
+      <c r="I89" s="116">
+        <v>1</v>
+      </c>
+      <c r="J89" s="116">
+        <v>1</v>
+      </c>
+      <c r="K89" s="116">
+        <v>2</v>
+      </c>
+      <c r="L89" s="115" t="s">
         <v>682</v>
-      </c>
-      <c r="I89" s="116">
-        <v>1</v>
-      </c>
-      <c r="J89" s="116">
-        <v>1</v>
-      </c>
-      <c r="K89" s="116">
-        <v>2</v>
-      </c>
-      <c r="L89" s="115" t="s">
-        <v>683</v>
       </c>
       <c r="M89" s="116">
         <v>86</v>
@@ -32009,25 +32824,25 @@
         <v>2</v>
       </c>
       <c r="F90" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G90" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G90" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="H90" s="115" t="s">
+        <v>681</v>
+      </c>
+      <c r="I90" s="116">
+        <v>1</v>
+      </c>
+      <c r="J90" s="116">
+        <v>1</v>
+      </c>
+      <c r="K90" s="116">
+        <v>2</v>
+      </c>
+      <c r="L90" s="115" t="s">
         <v>682</v>
-      </c>
-      <c r="I90" s="116">
-        <v>1</v>
-      </c>
-      <c r="J90" s="116">
-        <v>1</v>
-      </c>
-      <c r="K90" s="116">
-        <v>2</v>
-      </c>
-      <c r="L90" s="115" t="s">
-        <v>683</v>
       </c>
       <c r="M90" s="116">
         <v>87</v>
@@ -32050,13 +32865,13 @@
         <v>1</v>
       </c>
       <c r="F91" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G91" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="G91" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="H91" s="115" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I91" s="116">
         <v>1</v>
@@ -32068,7 +32883,7 @@
         <v>2</v>
       </c>
       <c r="L91" s="115" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M91" s="116">
         <v>22</v>
@@ -32091,7 +32906,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="115" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G92" s="115" t="s">
         <v>125</v>
@@ -32109,7 +32924,7 @@
         <v>2</v>
       </c>
       <c r="L92" s="115" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M92" s="116">
         <v>89</v>
@@ -32132,7 +32947,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="115" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G93" s="115" t="s">
         <v>125</v>
@@ -32150,7 +32965,7 @@
         <v>2</v>
       </c>
       <c r="L93" s="115" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M93" s="116">
         <v>91</v>
@@ -32246,25 +33061,25 @@
         <v>179</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="9">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="110" t="s">
+        <v>501</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="I2" s="9">
-        <v>3</v>
-      </c>
-      <c r="J2" s="9">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="110" t="s">
-        <v>502</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32287,25 +33102,25 @@
         <v>179</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="110" t="s">
+        <v>501</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="I3" s="9">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="110" t="s">
-        <v>502</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32328,11 +33143,11 @@
         <v>179</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>500</v>
-      </c>
       <c r="I4" s="9">
         <v>3</v>
       </c>
@@ -32343,7 +33158,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="110" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M4" s="9">
         <v>2</v>
@@ -32369,25 +33184,25 @@
         <v>179</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="110" t="s">
+        <v>501</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="110" t="s">
-        <v>502</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32410,11 +33225,11 @@
         <v>179</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>500</v>
-      </c>
       <c r="I6" s="9">
         <v>3</v>
       </c>
@@ -32425,10 +33240,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="110" t="s">
+        <v>502</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32451,25 +33266,25 @@
         <v>179</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H7" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>2</v>
+      </c>
+      <c r="L7" s="110" t="s">
         <v>505</v>
       </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>2</v>
-      </c>
-      <c r="L7" s="110" t="s">
+      <c r="M7" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32492,10 +33307,10 @@
         <v>179</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I8" s="9">
         <v>3</v>
@@ -32507,7 +33322,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="110" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M8" s="9"/>
     </row>
@@ -32531,10 +33346,10 @@
         <v>179</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I9" s="9">
         <v>3</v>
@@ -32546,10 +33361,10 @@
         <v>2</v>
       </c>
       <c r="L9" s="110" t="s">
+        <v>507</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32572,22 +33387,22 @@
         <v>179</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="110" t="s">
         <v>505</v>
-      </c>
-      <c r="I10" s="9">
-        <v>3</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>2</v>
-      </c>
-      <c r="L10" s="110" t="s">
-        <v>506</v>
       </c>
       <c r="M10" s="9"/>
     </row>
@@ -32611,10 +33426,10 @@
         <v>179</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
@@ -32626,10 +33441,10 @@
         <v>2</v>
       </c>
       <c r="L11" s="110" t="s">
+        <v>509</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32652,10 +33467,10 @@
         <v>179</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I12" s="9">
         <v>3</v>
@@ -32667,7 +33482,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="110" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M12" s="9">
         <v>9</v>
@@ -32693,25 +33508,25 @@
         <v>179</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H13" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3</v>
+      </c>
+      <c r="L13" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="I13" s="9">
-        <v>3</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>3</v>
-      </c>
-      <c r="L13" s="110" t="s">
+      <c r="M13" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32734,22 +33549,22 @@
         <v>179</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>3</v>
+      </c>
+      <c r="L14" s="110" t="s">
         <v>512</v>
-      </c>
-      <c r="I14" s="9">
-        <v>3</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
-        <v>3</v>
-      </c>
-      <c r="L14" s="110" t="s">
-        <v>513</v>
       </c>
       <c r="M14" s="9">
         <v>12</v>
@@ -32775,10 +33590,10 @@
         <v>179</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I15" s="9">
         <v>3</v>
@@ -32790,7 +33605,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="110" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>269</v>
@@ -32816,10 +33631,10 @@
         <v>179</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I16" s="9">
         <v>3</v>
@@ -32831,7 +33646,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="110" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M16" s="9">
         <v>14</v>
@@ -32857,10 +33672,10 @@
         <v>179</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I17" s="9">
         <v>3</v>
@@ -32872,7 +33687,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="110" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M17" s="9">
         <v>15</v>
@@ -32898,10 +33713,10 @@
         <v>179</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I18" s="9">
         <v>3</v>
@@ -32913,7 +33728,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="110" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M18" s="9">
         <v>16</v>
@@ -32939,10 +33754,10 @@
         <v>179</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I19" s="9">
         <v>3</v>
@@ -32954,7 +33769,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M19" s="9">
         <v>17</v>
@@ -32983,7 +33798,7 @@
         <v>251</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I20" s="9">
         <v>3</v>
@@ -32995,10 +33810,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="110" t="s">
+        <v>518</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33024,7 +33839,7 @@
         <v>251</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I21" s="9">
         <v>3</v>
@@ -33036,7 +33851,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="110" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M21" s="9">
         <v>19</v>
@@ -33065,7 +33880,7 @@
         <v>251</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I22" s="9">
         <v>3</v>
@@ -33077,10 +33892,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="110" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33106,7 +33921,7 @@
         <v>251</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I23" s="9">
         <v>3</v>
@@ -33118,10 +33933,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="110" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33147,7 +33962,7 @@
         <v>251</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I24" s="9">
         <v>3</v>
@@ -33159,7 +33974,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="110" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M24" s="9">
         <v>22</v>
@@ -33188,22 +34003,22 @@
         <v>251</v>
       </c>
       <c r="H25" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>2</v>
+      </c>
+      <c r="K25" s="10">
+        <v>2</v>
+      </c>
+      <c r="L25" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="I25" s="9">
-        <v>3</v>
-      </c>
-      <c r="J25" s="9">
-        <v>2</v>
-      </c>
-      <c r="K25" s="10">
-        <v>2</v>
-      </c>
-      <c r="L25" s="110" t="s">
-        <v>528</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33229,7 +34044,7 @@
         <v>251</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I26" s="9">
         <v>3</v>
@@ -33241,7 +34056,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="110" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M26" s="9">
         <v>24</v>
@@ -33270,7 +34085,7 @@
         <v>251</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I27" s="9">
         <v>3</v>
@@ -33311,7 +34126,7 @@
         <v>251</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I28" s="9">
         <v>3</v>
@@ -33323,7 +34138,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M28" s="9">
         <v>26</v>
@@ -33352,7 +34167,7 @@
         <v>251</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I29" s="9">
         <v>3</v>
@@ -33364,7 +34179,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M29" s="9">
         <v>27</v>
@@ -33393,7 +34208,7 @@
         <v>251</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I30" s="9">
         <v>3</v>
@@ -33405,7 +34220,7 @@
         <v>2</v>
       </c>
       <c r="L30" s="110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M30" s="9">
         <v>27</v>
@@ -33434,7 +34249,7 @@
         <v>251</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I31" s="9">
         <v>3</v>
@@ -33446,10 +34261,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="110" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33475,7 +34290,7 @@
         <v>251</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I32" s="9">
         <v>3</v>
@@ -33487,10 +34302,10 @@
         <v>2</v>
       </c>
       <c r="L32" s="110" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33516,7 +34331,7 @@
         <v>251</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I33" s="9">
         <v>3</v>
@@ -33528,7 +34343,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="110" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M33" s="9">
         <v>31</v>
@@ -33557,22 +34372,22 @@
         <v>251</v>
       </c>
       <c r="H34" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I34" s="9">
+        <v>3</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>3</v>
+      </c>
+      <c r="L34" s="110" t="s">
         <v>535</v>
       </c>
-      <c r="I34" s="9">
-        <v>3</v>
-      </c>
-      <c r="J34" s="9">
-        <v>2</v>
-      </c>
-      <c r="K34" s="10">
-        <v>3</v>
-      </c>
-      <c r="L34" s="110" t="s">
+      <c r="M34" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33598,7 +34413,7 @@
         <v>251</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I35" s="9">
         <v>3</v>
@@ -33610,7 +34425,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="110" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M35" s="9">
         <v>33</v>
@@ -33639,7 +34454,7 @@
         <v>251</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I36" s="9">
         <v>3</v>
@@ -33651,7 +34466,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="110" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M36" s="9">
         <v>33</v>
@@ -33680,7 +34495,7 @@
         <v>251</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I37" s="9">
         <v>3</v>
@@ -33692,7 +34507,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="110" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M37" s="9">
         <v>35</v>
@@ -33718,10 +34533,10 @@
         <v>179</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I38" s="16">
         <v>3</v>
@@ -33733,7 +34548,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M38" s="15">
         <v>35</v>
@@ -33759,25 +34574,25 @@
         <v>179</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="I39" s="9">
+        <v>3</v>
+      </c>
+      <c r="J39" s="9">
+        <v>3</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="110" t="s">
         <v>540</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="I39" s="9">
-        <v>3</v>
-      </c>
-      <c r="J39" s="9">
-        <v>3</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="110" t="s">
+      <c r="M39" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33800,10 +34615,10 @@
         <v>179</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I40" s="9">
         <v>3</v>
@@ -33815,10 +34630,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="110" t="s">
+        <v>542</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33841,25 +34656,25 @@
         <v>179</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="I41" s="9">
+        <v>3</v>
+      </c>
+      <c r="J41" s="9">
+        <v>3</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="110" t="s">
         <v>540</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="I41" s="9">
-        <v>3</v>
-      </c>
-      <c r="J41" s="9">
-        <v>3</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="110" t="s">
-        <v>541</v>
-      </c>
       <c r="M41" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33882,10 +34697,10 @@
         <v>179</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I42" s="9">
         <v>3</v>
@@ -33897,10 +34712,10 @@
         <v>2</v>
       </c>
       <c r="L42" s="110" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33923,10 +34738,10 @@
         <v>179</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I43" s="9">
         <v>3</v>
@@ -33938,7 +34753,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="110" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M43" s="9">
         <v>40</v>
@@ -33964,10 +34779,10 @@
         <v>179</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I44" s="9">
         <v>3</v>
@@ -33979,7 +34794,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="110" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M44" s="9">
         <v>39</v>
@@ -34005,25 +34820,25 @@
         <v>179</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H45" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="I45" s="9">
+        <v>3</v>
+      </c>
+      <c r="J45" s="9">
+        <v>3</v>
+      </c>
+      <c r="K45" s="10">
+        <v>2</v>
+      </c>
+      <c r="L45" s="110" t="s">
         <v>549</v>
       </c>
-      <c r="I45" s="9">
-        <v>3</v>
-      </c>
-      <c r="J45" s="9">
-        <v>3</v>
-      </c>
-      <c r="K45" s="10">
-        <v>2</v>
-      </c>
-      <c r="L45" s="110" t="s">
+      <c r="M45" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34046,25 +34861,25 @@
         <v>179</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H46" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="I46" s="9">
+        <v>3</v>
+      </c>
+      <c r="J46" s="9">
+        <v>3</v>
+      </c>
+      <c r="K46" s="10">
+        <v>2</v>
+      </c>
+      <c r="L46" s="110" t="s">
         <v>549</v>
       </c>
-      <c r="I46" s="9">
-        <v>3</v>
-      </c>
-      <c r="J46" s="9">
-        <v>3</v>
-      </c>
-      <c r="K46" s="10">
-        <v>2</v>
-      </c>
-      <c r="L46" s="110" t="s">
-        <v>550</v>
-      </c>
       <c r="M46" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34090,7 +34905,7 @@
         <v>257</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I47" s="16">
         <v>3</v>
@@ -34102,10 +34917,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="M47" s="15" t="s">
         <v>553</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34131,22 +34946,22 @@
         <v>257</v>
       </c>
       <c r="H48" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="I48" s="16">
+        <v>3</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1</v>
+      </c>
+      <c r="L48" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="I48" s="16">
-        <v>3</v>
-      </c>
-      <c r="J48" s="15">
-        <v>1</v>
-      </c>
-      <c r="K48" s="15">
-        <v>1</v>
-      </c>
-      <c r="L48" s="64" t="s">
+      <c r="M48" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34172,7 +34987,7 @@
         <v>257</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I49" s="16">
         <v>3</v>
@@ -34185,7 +35000,7 @@
       </c>
       <c r="L49" s="64"/>
       <c r="M49" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34211,22 +35026,22 @@
         <v>257</v>
       </c>
       <c r="H50" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="I50" s="16">
+        <v>3</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1</v>
+      </c>
+      <c r="K50" s="15">
+        <v>2</v>
+      </c>
+      <c r="L50" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="I50" s="16">
-        <v>3</v>
-      </c>
-      <c r="J50" s="15">
-        <v>1</v>
-      </c>
-      <c r="K50" s="15">
-        <v>2</v>
-      </c>
-      <c r="L50" s="64" t="s">
+      <c r="M50" s="15" t="s">
         <v>559</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34252,7 +35067,7 @@
         <v>257</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I51" s="16">
         <v>3</v>
@@ -34264,10 +35079,10 @@
         <v>2</v>
       </c>
       <c r="L51" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="M51" s="15" t="s">
         <v>561</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34293,7 +35108,7 @@
         <v>257</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I52" s="16">
         <v>3</v>
@@ -34305,10 +35120,10 @@
         <v>2</v>
       </c>
       <c r="L52" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="M52" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34334,7 +35149,7 @@
         <v>257</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I53" s="16">
         <v>3</v>
@@ -34346,10 +35161,10 @@
         <v>2</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -34375,19 +35190,19 @@
         <v>257</v>
       </c>
       <c r="H54" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="I54" s="16">
+        <v>3</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1</v>
+      </c>
+      <c r="K54" s="15">
+        <v>2</v>
+      </c>
+      <c r="L54" s="64" t="s">
         <v>558</v>
-      </c>
-      <c r="I54" s="16">
-        <v>3</v>
-      </c>
-      <c r="J54" s="15">
-        <v>1</v>
-      </c>
-      <c r="K54" s="15">
-        <v>2</v>
-      </c>
-      <c r="L54" s="64" t="s">
-        <v>559</v>
       </c>
       <c r="M54" s="15">
         <v>50</v>
@@ -34416,7 +35231,7 @@
         <v>257</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I55" s="16">
         <v>3</v>
@@ -34428,7 +35243,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M55" s="15"/>
     </row>
@@ -34455,7 +35270,7 @@
         <v>257</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I56" s="16">
         <v>3</v>
@@ -34467,7 +35282,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M56" s="15"/>
     </row>
@@ -34494,7 +35309,7 @@
         <v>257</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I57" s="16">
         <v>3</v>
@@ -34506,7 +35321,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M57" s="15">
         <v>44</v>
@@ -34535,7 +35350,7 @@
         <v>257</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I58" s="16">
         <v>3</v>
@@ -34547,7 +35362,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M58" s="15">
         <v>54</v>
@@ -34588,7 +35403,7 @@
         <v>3</v>
       </c>
       <c r="L59" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M59" s="15">
         <v>43</v>
@@ -34629,7 +35444,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M60" s="15"/>
     </row>
@@ -34668,7 +35483,7 @@
         <v>3</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M61" s="15"/>
     </row>
@@ -34707,7 +35522,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M62" s="15">
         <v>59</v>
@@ -34748,7 +35563,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M63" s="15">
         <v>21</v>
@@ -34777,7 +35592,7 @@
         <v>257</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I64" s="16">
         <v>3</v>
@@ -34789,7 +35604,7 @@
         <v>4</v>
       </c>
       <c r="L64" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M64" s="15">
         <v>35</v>
@@ -34818,19 +35633,19 @@
         <v>257</v>
       </c>
       <c r="H65" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="I65" s="16">
+        <v>3</v>
+      </c>
+      <c r="J65" s="15">
+        <v>1</v>
+      </c>
+      <c r="K65" s="15">
+        <v>4</v>
+      </c>
+      <c r="L65" s="64" t="s">
         <v>572</v>
-      </c>
-      <c r="I65" s="16">
-        <v>3</v>
-      </c>
-      <c r="J65" s="15">
-        <v>1</v>
-      </c>
-      <c r="K65" s="15">
-        <v>4</v>
-      </c>
-      <c r="L65" s="64" t="s">
-        <v>573</v>
       </c>
       <c r="M65" s="15">
         <v>51</v>
@@ -34859,7 +35674,7 @@
         <v>257</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I66" s="16">
         <v>3</v>
@@ -34871,7 +35686,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M66" s="15"/>
     </row>
@@ -34898,7 +35713,7 @@
         <v>257</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I67" s="16">
         <v>3</v>
@@ -34910,7 +35725,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M67" s="15">
         <v>35</v>
@@ -34939,7 +35754,7 @@
         <v>257</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I68" s="16">
         <v>3</v>
@@ -34951,7 +35766,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M68" s="15">
         <v>35</v>
@@ -34977,11 +35792,11 @@
         <v>179</v>
       </c>
       <c r="G69" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="H69" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="I69" s="16">
         <v>3</v>
       </c>
@@ -34992,7 +35807,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M69" s="15">
         <v>46</v>
@@ -35018,22 +35833,22 @@
         <v>179</v>
       </c>
       <c r="G70" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="I70" s="16">
+        <v>3</v>
+      </c>
+      <c r="J70" s="15">
+        <v>2</v>
+      </c>
+      <c r="K70" s="15">
+        <v>1</v>
+      </c>
+      <c r="L70" s="64" t="s">
         <v>577</v>
-      </c>
-      <c r="I70" s="16">
-        <v>3</v>
-      </c>
-      <c r="J70" s="15">
-        <v>2</v>
-      </c>
-      <c r="K70" s="15">
-        <v>1</v>
-      </c>
-      <c r="L70" s="64" t="s">
-        <v>578</v>
       </c>
       <c r="M70" s="15">
         <v>51</v>
@@ -35059,11 +35874,11 @@
         <v>179</v>
       </c>
       <c r="G71" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="H71" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="I71" s="16">
         <v>3</v>
       </c>
@@ -35074,7 +35889,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M71" s="15">
         <v>49</v>
@@ -35100,11 +35915,11 @@
         <v>179</v>
       </c>
       <c r="G72" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="H72" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="I72" s="16">
         <v>3</v>
       </c>
@@ -35115,7 +35930,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M72" s="15">
         <v>34</v>
@@ -35141,11 +35956,11 @@
         <v>179</v>
       </c>
       <c r="G73" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="H73" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="I73" s="16">
         <v>3</v>
       </c>
@@ -35156,7 +35971,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M73" s="15">
         <v>64</v>
@@ -35182,10 +35997,10 @@
         <v>179</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I74" s="16">
         <v>3</v>
@@ -35197,7 +36012,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M74" s="15">
         <v>72</v>
@@ -35223,10 +36038,10 @@
         <v>179</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I75" s="16">
         <v>3</v>
@@ -35238,7 +36053,7 @@
         <v>2</v>
       </c>
       <c r="L75" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M75" s="15">
         <v>72</v>
@@ -35264,10 +36079,10 @@
         <v>179</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I76" s="16">
         <v>3</v>
@@ -35279,7 +36094,7 @@
         <v>2</v>
       </c>
       <c r="L76" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M76" s="15">
         <v>72</v>
@@ -35305,10 +36120,10 @@
         <v>179</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I77" s="16">
         <v>3</v>
@@ -35320,7 +36135,7 @@
         <v>2</v>
       </c>
       <c r="L77" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M77" s="15"/>
     </row>
@@ -35344,10 +36159,10 @@
         <v>179</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I78" s="16">
         <v>3</v>
@@ -35359,7 +36174,7 @@
         <v>2</v>
       </c>
       <c r="L78" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M78" s="15">
         <v>68</v>
@@ -35385,10 +36200,10 @@
         <v>179</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I79" s="16">
         <v>3</v>
@@ -35400,7 +36215,7 @@
         <v>4</v>
       </c>
       <c r="L79" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M79" s="15">
         <v>60</v>
@@ -35426,22 +36241,22 @@
         <v>179</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H80" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="I80" s="16">
+        <v>3</v>
+      </c>
+      <c r="J80" s="15">
+        <v>2</v>
+      </c>
+      <c r="K80" s="15">
+        <v>4</v>
+      </c>
+      <c r="L80" s="64" t="s">
         <v>584</v>
-      </c>
-      <c r="I80" s="16">
-        <v>3</v>
-      </c>
-      <c r="J80" s="15">
-        <v>2</v>
-      </c>
-      <c r="K80" s="15">
-        <v>4</v>
-      </c>
-      <c r="L80" s="64" t="s">
-        <v>585</v>
       </c>
       <c r="M80" s="15">
         <v>70</v>
@@ -35467,10 +36282,10 @@
         <v>179</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I81" s="16">
         <v>3</v>
@@ -35482,7 +36297,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="64" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M81" s="15"/>
     </row>
@@ -35506,10 +36321,10 @@
         <v>179</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I82" s="16">
         <v>3</v>
@@ -35521,7 +36336,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M82" s="15">
         <v>71</v>
@@ -35547,10 +36362,10 @@
         <v>179</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I83" s="16">
         <v>3</v>
@@ -35562,7 +36377,7 @@
         <v>4</v>
       </c>
       <c r="L83" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M83" s="15"/>
     </row>
@@ -35586,10 +36401,10 @@
         <v>179</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I84" s="16">
         <v>3</v>
@@ -35601,7 +36416,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M84" s="15"/>
     </row>
@@ -35625,10 +36440,10 @@
         <v>179</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I85" s="16">
         <v>3</v>
@@ -35640,7 +36455,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M85" s="15"/>
     </row>
@@ -35667,19 +36482,19 @@
         <v>142</v>
       </c>
       <c r="H86" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="I86" s="16">
+        <v>3</v>
+      </c>
+      <c r="J86" s="83">
+        <v>3</v>
+      </c>
+      <c r="K86" s="83">
+        <v>1</v>
+      </c>
+      <c r="L86" s="64" t="s">
         <v>590</v>
-      </c>
-      <c r="I86" s="16">
-        <v>3</v>
-      </c>
-      <c r="J86" s="83">
-        <v>3</v>
-      </c>
-      <c r="K86" s="83">
-        <v>1</v>
-      </c>
-      <c r="L86" s="64" t="s">
-        <v>591</v>
       </c>
       <c r="M86" s="15"/>
     </row>
@@ -35706,19 +36521,19 @@
         <v>142</v>
       </c>
       <c r="H87" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="I87" s="16">
+        <v>3</v>
+      </c>
+      <c r="J87" s="83">
+        <v>3</v>
+      </c>
+      <c r="K87" s="83">
+        <v>1</v>
+      </c>
+      <c r="L87" s="64" t="s">
         <v>590</v>
-      </c>
-      <c r="I87" s="16">
-        <v>3</v>
-      </c>
-      <c r="J87" s="83">
-        <v>3</v>
-      </c>
-      <c r="K87" s="83">
-        <v>1</v>
-      </c>
-      <c r="L87" s="64" t="s">
-        <v>591</v>
       </c>
       <c r="M87" s="15"/>
     </row>
@@ -35760,7 +36575,7 @@
         <v>281</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35866,7 +36681,7 @@
         <v>142</v>
       </c>
       <c r="H91" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I91" s="16">
         <v>3</v>
@@ -35878,10 +36693,10 @@
         <v>3</v>
       </c>
       <c r="L91" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="M91" s="15" t="s">
         <v>594</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35907,7 +36722,7 @@
         <v>142</v>
       </c>
       <c r="H92" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I92" s="16">
         <v>3</v>
@@ -35919,7 +36734,7 @@
         <v>3</v>
       </c>
       <c r="L92" s="64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M92" s="15">
         <v>89</v>
@@ -35963,7 +36778,7 @@
         <v>281</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -35989,7 +36804,7 @@
         <v>142</v>
       </c>
       <c r="H94" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I94" s="16">
         <v>3</v>
@@ -36001,7 +36816,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M94" s="15"/>
     </row>
@@ -36028,7 +36843,7 @@
         <v>142</v>
       </c>
       <c r="H95" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I95" s="16">
         <v>3</v>
@@ -36040,7 +36855,7 @@
         <v>3</v>
       </c>
       <c r="L95" s="64" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M95" s="15">
         <v>90</v>
@@ -36069,7 +36884,7 @@
         <v>142</v>
       </c>
       <c r="H96" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I96" s="16">
         <v>3</v>
@@ -36081,7 +36896,7 @@
         <v>3</v>
       </c>
       <c r="L96" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M96" s="15">
         <v>90</v>
@@ -36110,19 +36925,19 @@
         <v>142</v>
       </c>
       <c r="H97" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="I97" s="16">
+        <v>3</v>
+      </c>
+      <c r="J97" s="83">
+        <v>3</v>
+      </c>
+      <c r="K97" s="83">
+        <v>3</v>
+      </c>
+      <c r="L97" s="65" t="s">
         <v>600</v>
-      </c>
-      <c r="I97" s="16">
-        <v>3</v>
-      </c>
-      <c r="J97" s="83">
-        <v>3</v>
-      </c>
-      <c r="K97" s="83">
-        <v>3</v>
-      </c>
-      <c r="L97" s="65" t="s">
-        <v>601</v>
       </c>
       <c r="M97" s="15">
         <v>67</v>
@@ -36151,7 +36966,7 @@
         <v>142</v>
       </c>
       <c r="H98" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I98" s="16">
         <v>3</v>
@@ -36163,7 +36978,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="65" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M98" s="15">
         <v>95</v>
@@ -36192,7 +37007,7 @@
         <v>142</v>
       </c>
       <c r="H99" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I99" s="16">
         <v>3</v>
@@ -36233,7 +37048,7 @@
         <v>142</v>
       </c>
       <c r="H100" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I100" s="16">
         <v>3</v>
@@ -36245,7 +37060,7 @@
         <v>3</v>
       </c>
       <c r="L100" s="65" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M100" s="15">
         <v>95</v>
@@ -36274,7 +37089,7 @@
         <v>142</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I101" s="16">
         <v>3</v>
@@ -36286,7 +37101,7 @@
         <v>3</v>
       </c>
       <c r="L101" s="65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M101" s="15">
         <v>95</v>
@@ -36315,7 +37130,7 @@
         <v>142</v>
       </c>
       <c r="H102" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I102" s="16">
         <v>3</v>
@@ -36327,7 +37142,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M102" s="15">
         <v>99</v>
@@ -36353,10 +37168,10 @@
         <v>179</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I103" s="16">
         <v>3</v>
@@ -36368,7 +37183,7 @@
         <v>3</v>
       </c>
       <c r="L103" s="64" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M103" s="15"/>
     </row>
@@ -36392,10 +37207,10 @@
         <v>179</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I104" s="16">
         <v>3</v>
@@ -36407,7 +37222,7 @@
         <v>3</v>
       </c>
       <c r="L104" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M104" s="15">
         <v>58</v>
@@ -36433,10 +37248,10 @@
         <v>179</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I105" s="16">
         <v>3</v>
@@ -36448,7 +37263,7 @@
         <v>3</v>
       </c>
       <c r="L105" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M105" s="15">
         <v>102</v>
@@ -36474,10 +37289,10 @@
         <v>179</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I106" s="16">
         <v>3</v>
@@ -36489,7 +37304,7 @@
         <v>3</v>
       </c>
       <c r="L106" s="64" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M106" s="15">
         <v>102</v>
@@ -36515,10 +37330,10 @@
         <v>179</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I107" s="16">
         <v>3</v>
@@ -36530,7 +37345,7 @@
         <v>3</v>
       </c>
       <c r="L107" s="64" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M107" s="15">
         <v>103</v>
@@ -36546,8 +37361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36696,7 +37511,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -36735,7 +37550,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="50">
         <v>1</v>
@@ -38919,7 +39734,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M59" s="49">
         <v>6</v>
@@ -39001,7 +39816,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M61" s="49">
         <v>57</v>
@@ -39083,7 +39898,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="51" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M63" s="49">
         <v>57</v>
@@ -39124,10 +39939,10 @@
         <v>3</v>
       </c>
       <c r="L64" s="51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M64" s="49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39165,7 +39980,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M65" s="49">
         <v>60</v>
@@ -39206,10 +40021,10 @@
         <v>3</v>
       </c>
       <c r="L66" s="51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M66" s="49" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39247,7 +40062,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M67" s="49">
         <v>62</v>
@@ -39288,7 +40103,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M68" s="49">
         <v>63</v>
@@ -39329,10 +40144,10 @@
         <v>4</v>
       </c>
       <c r="L69" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="M69" s="49" t="s">
         <v>610</v>
-      </c>
-      <c r="M69" s="49" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39370,10 +40185,10 @@
         <v>3</v>
       </c>
       <c r="L70" s="51" t="s">
+        <v>611</v>
+      </c>
+      <c r="M70" s="49" t="s">
         <v>612</v>
-      </c>
-      <c r="M70" s="49" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -39411,10 +40226,10 @@
         <v>2</v>
       </c>
       <c r="L71" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="M71" s="49" t="s">
         <v>614</v>
-      </c>
-      <c r="M71" s="49" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -39452,10 +40267,10 @@
         <v>1</v>
       </c>
       <c r="L72" s="53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M72" s="49" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39493,10 +40308,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="M73" s="49" t="s">
         <v>617</v>
-      </c>
-      <c r="M73" s="49" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39534,7 +40349,7 @@
         <v>3</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M74" s="49">
         <v>69</v>
@@ -39575,10 +40390,10 @@
         <v>4</v>
       </c>
       <c r="L75" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="M75" s="49" t="s">
         <v>620</v>
-      </c>
-      <c r="M75" s="49" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39616,10 +40431,10 @@
         <v>4</v>
       </c>
       <c r="L76" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="M76" s="49" t="s">
         <v>622</v>
-      </c>
-      <c r="M76" s="49" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -39660,7 +40475,7 @@
         <v>22</v>
       </c>
       <c r="M77" s="49" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -39680,28 +40495,28 @@
         <v>1</v>
       </c>
       <c r="F78" s="117" t="s">
+        <v>674</v>
+      </c>
+      <c r="G78" s="117" t="s">
         <v>675</v>
       </c>
-      <c r="G78" s="117" t="s">
+      <c r="H78" s="117" t="s">
         <v>676</v>
       </c>
-      <c r="H78" s="117" t="s">
+      <c r="I78" s="116">
+        <v>1</v>
+      </c>
+      <c r="J78" s="116">
+        <v>1</v>
+      </c>
+      <c r="K78" s="116">
+        <v>1</v>
+      </c>
+      <c r="L78" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="M78" s="116" t="s">
         <v>677</v>
-      </c>
-      <c r="I78" s="116">
-        <v>1</v>
-      </c>
-      <c r="J78" s="116">
-        <v>1</v>
-      </c>
-      <c r="K78" s="116">
-        <v>1</v>
-      </c>
-      <c r="L78" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="M78" s="116" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -39721,13 +40536,13 @@
         <v>1</v>
       </c>
       <c r="F79" s="117" t="s">
+        <v>674</v>
+      </c>
+      <c r="G79" s="117" t="s">
         <v>675</v>
       </c>
-      <c r="G79" s="117" t="s">
-        <v>676</v>
-      </c>
       <c r="H79" s="117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I79" s="116">
         <v>1</v>
@@ -39742,7 +40557,7 @@
         <v>374</v>
       </c>
       <c r="M79" s="116" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -39762,28 +40577,28 @@
         <v>1</v>
       </c>
       <c r="F80" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G80" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H80" s="117" t="s">
+        <v>685</v>
+      </c>
+      <c r="I80" s="116">
+        <v>1</v>
+      </c>
+      <c r="J80" s="116">
+        <v>2</v>
+      </c>
+      <c r="K80" s="116">
+        <v>1</v>
+      </c>
+      <c r="L80" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="M80" s="116" t="s">
         <v>686</v>
-      </c>
-      <c r="I80" s="116">
-        <v>1</v>
-      </c>
-      <c r="J80" s="116">
-        <v>2</v>
-      </c>
-      <c r="K80" s="116">
-        <v>1</v>
-      </c>
-      <c r="L80" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="M80" s="116" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -39803,28 +40618,28 @@
         <v>1</v>
       </c>
       <c r="F81" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G81" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H81" s="117" t="s">
+        <v>687</v>
+      </c>
+      <c r="I81" s="116">
+        <v>1</v>
+      </c>
+      <c r="J81" s="116">
+        <v>2</v>
+      </c>
+      <c r="K81" s="116">
+        <v>2</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="I81" s="116">
-        <v>1</v>
-      </c>
-      <c r="J81" s="116">
-        <v>2</v>
-      </c>
-      <c r="K81" s="116">
-        <v>2</v>
-      </c>
-      <c r="L81" s="38" t="s">
-        <v>689</v>
-      </c>
       <c r="M81" s="116" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -39844,13 +40659,13 @@
         <v>2</v>
       </c>
       <c r="F82" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G82" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H82" s="117" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I82" s="116">
         <v>1</v>
@@ -39862,7 +40677,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M82" s="116">
         <v>76</v>
@@ -39885,13 +40700,13 @@
         <v>2</v>
       </c>
       <c r="F83" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G83" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H83" s="117" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I83" s="116">
         <v>1</v>
@@ -39903,7 +40718,7 @@
         <v>2</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M83" s="116">
         <v>76</v>
@@ -39926,28 +40741,28 @@
         <v>2</v>
       </c>
       <c r="F84" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G84" s="117" t="s">
         <v>125</v>
       </c>
       <c r="H84" s="117" t="s">
+        <v>689</v>
+      </c>
+      <c r="I84" s="116">
+        <v>1</v>
+      </c>
+      <c r="J84" s="116">
+        <v>3</v>
+      </c>
+      <c r="K84" s="116">
+        <v>1</v>
+      </c>
+      <c r="L84" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="I84" s="116">
-        <v>1</v>
-      </c>
-      <c r="J84" s="116">
-        <v>3</v>
-      </c>
-      <c r="K84" s="116">
-        <v>1</v>
-      </c>
-      <c r="L84" s="38" t="s">
+      <c r="M84" s="116" t="s">
         <v>691</v>
-      </c>
-      <c r="M84" s="116" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -39967,25 +40782,25 @@
         <v>2</v>
       </c>
       <c r="F85" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G85" s="117" t="s">
         <v>125</v>
       </c>
       <c r="H85" s="117" t="s">
+        <v>689</v>
+      </c>
+      <c r="I85" s="116">
+        <v>1</v>
+      </c>
+      <c r="J85" s="116">
+        <v>3</v>
+      </c>
+      <c r="K85" s="116">
+        <v>1</v>
+      </c>
+      <c r="L85" s="38" t="s">
         <v>690</v>
-      </c>
-      <c r="I85" s="116">
-        <v>1</v>
-      </c>
-      <c r="J85" s="116">
-        <v>3</v>
-      </c>
-      <c r="K85" s="116">
-        <v>1</v>
-      </c>
-      <c r="L85" s="38" t="s">
-        <v>691</v>
       </c>
       <c r="M85" s="116"/>
     </row>
@@ -40006,7 +40821,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G86" s="117" t="s">
         <v>125</v>
@@ -40024,10 +40839,10 @@
         <v>3</v>
       </c>
       <c r="L86" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="M86" s="116" t="s">
         <v>698</v>
-      </c>
-      <c r="M86" s="116" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -40047,7 +40862,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="117" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G87" s="117" t="s">
         <v>125</v>
@@ -40065,10 +40880,10 @@
         <v>3</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M87" s="116" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -40164,28 +40979,28 @@
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="110" t="s">
         <v>482</v>
       </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="110" t="s">
-        <v>483</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40205,13 +41020,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I3" s="9">
         <v>2</v>
@@ -40223,10 +41038,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="110" t="s">
+        <v>483</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40246,13 +41061,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
@@ -40264,7 +41079,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="110" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M4" s="9">
         <v>2</v>
@@ -40287,13 +41102,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -40305,7 +41120,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M5" s="9">
         <v>2</v>
@@ -40328,13 +41143,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -40346,7 +41161,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="110" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M6" s="9">
         <v>4</v>
@@ -40369,13 +41184,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -40387,10 +41202,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="110" t="s">
+        <v>488</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40410,13 +41225,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -40431,7 +41246,7 @@
         <v>224</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40451,13 +41266,13 @@
         <v>2</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
@@ -40472,7 +41287,7 @@
         <v>224</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40492,13 +41307,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
@@ -40513,7 +41328,7 @@
         <v>224</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40533,13 +41348,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I11" s="9">
         <v>2</v>
@@ -40551,10 +41366,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="110" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40574,13 +41389,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
@@ -40592,7 +41407,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="110" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M12" s="9">
         <v>10</v>
@@ -40615,13 +41430,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
@@ -40633,10 +41448,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="110" t="s">
+        <v>493</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40656,13 +41471,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
@@ -40674,7 +41489,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="110" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M14" s="9">
         <v>12</v>
@@ -40697,13 +41512,13 @@
         <v>2</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
@@ -40715,7 +41530,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="110" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M15" s="9">
         <v>4</v>
@@ -40738,13 +41553,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
@@ -40779,13 +41594,13 @@
         <v>2</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
@@ -40797,7 +41612,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="110" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M17" s="9">
         <v>3</v>
@@ -40820,13 +41635,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G18" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I18" s="50">
         <v>2</v>
@@ -40841,7 +41656,7 @@
         <v>22</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -40861,13 +41676,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I19" s="50">
         <v>2</v>
@@ -40882,7 +41697,7 @@
         <v>22</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -40902,13 +41717,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G20" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I20" s="50">
         <v>2</v>
@@ -40943,13 +41758,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G21" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I21" s="50">
         <v>2</v>
@@ -40961,7 +41776,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M21" s="49">
         <v>17</v>
@@ -40984,13 +41799,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G22" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I22" s="50">
         <v>2</v>
@@ -41002,7 +41817,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M22" s="49">
         <v>19</v>
@@ -41025,13 +41840,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G23" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I23" s="50">
         <v>2</v>
@@ -41046,7 +41861,7 @@
         <v>22</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -41066,13 +41881,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G24" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I24" s="50">
         <v>2</v>
@@ -41087,7 +41902,7 @@
         <v>149</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -41107,13 +41922,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G25" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I25" s="50">
         <v>2</v>
@@ -41148,13 +41963,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G26" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I26" s="50">
         <v>2</v>
@@ -41166,7 +41981,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M26" s="49">
         <v>23</v>
@@ -41189,13 +42004,13 @@
         <v>2</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G27" s="51" t="s">
         <v>87</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I27" s="50">
         <v>2</v>
@@ -41207,10 +42022,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="M27" s="49" t="s">
         <v>647</v>
-      </c>
-      <c r="M27" s="49" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -41230,13 +42045,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G28" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I28" s="50">
         <v>2</v>
@@ -41251,7 +42066,7 @@
         <v>149</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -41271,13 +42086,13 @@
         <v>2</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G29" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I29" s="50">
         <v>2</v>
@@ -41312,13 +42127,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G30" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I30" s="50">
         <v>2</v>
@@ -41353,13 +42168,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G31" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I31" s="50">
         <v>2</v>
@@ -41371,7 +42186,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="51" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M31" s="49">
         <v>25</v>
@@ -41394,13 +42209,13 @@
         <v>3</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G32" s="51" t="s">
         <v>177</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I32" s="50">
         <v>2</v>
@@ -41415,7 +42230,7 @@
         <v>224</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="736" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25EC230-95EA-40A9-B190-111CCC5EA5ED}"/>
+  <xr:revisionPtr revIDLastSave="823" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1C850D-452B-4502-B4E3-3B252A790DD8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="728">
   <si>
     <t>RAZRED</t>
   </si>
@@ -2298,6 +2298,42 @@
   </si>
   <si>
     <t>cetvoroug.-obim, povrs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitagorina teorema </t>
+  </si>
+  <si>
+    <t>2 elem. data -&gt; 2 odredi</t>
+  </si>
+  <si>
+    <t>obrnut problem</t>
+  </si>
+  <si>
+    <t>tabela-visina, tez.linija,obim, povrs.</t>
+  </si>
+  <si>
+    <t>tabela-stranice</t>
+  </si>
+  <si>
+    <t>pravougaonik</t>
+  </si>
+  <si>
+    <t>kvadrat</t>
+  </si>
+  <si>
+    <t>jednakostranični trougao</t>
+  </si>
+  <si>
+    <t>jednakokraki pravougli tr.</t>
+  </si>
+  <si>
+    <t>kompozicija pravouglih tr.</t>
+  </si>
+  <si>
+    <t>romboid</t>
+  </si>
+  <si>
+    <t>deltoid</t>
   </si>
 </sst>
 </file>
@@ -5710,8 +5746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D62" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8805,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="38" t="s">
         <v>451</v>
@@ -32979,10 +33015,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView topLeftCell="G97" workbookViewId="0">
-      <selection activeCell="M103" sqref="M103"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32990,7 +33026,7 @@
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="26.5546875" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
@@ -37349,6 +37385,576 @@
       </c>
       <c r="M107" s="15">
         <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="34">
+        <v>7</v>
+      </c>
+      <c r="B108" s="34">
+        <v>106</v>
+      </c>
+      <c r="C108" s="34">
+        <v>10</v>
+      </c>
+      <c r="D108" s="34">
+        <v>1</v>
+      </c>
+      <c r="E108" s="34">
+        <v>1</v>
+      </c>
+      <c r="F108" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G108" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H108" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I108" s="34">
+        <v>3</v>
+      </c>
+      <c r="J108" s="34">
+        <v>1</v>
+      </c>
+      <c r="K108" s="34">
+        <v>1</v>
+      </c>
+      <c r="L108" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="M108" s="34">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="34">
+        <v>7</v>
+      </c>
+      <c r="B109" s="34">
+        <v>107</v>
+      </c>
+      <c r="C109" s="34">
+        <v>10</v>
+      </c>
+      <c r="D109" s="34">
+        <v>1</v>
+      </c>
+      <c r="E109" s="34">
+        <v>2</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G109" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I109" s="34">
+        <v>3</v>
+      </c>
+      <c r="J109" s="34">
+        <v>1</v>
+      </c>
+      <c r="K109" s="34">
+        <v>1</v>
+      </c>
+      <c r="L109" s="38" t="s">
+        <v>719</v>
+      </c>
+      <c r="M109" s="34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="34">
+        <v>7</v>
+      </c>
+      <c r="B110" s="34">
+        <v>108</v>
+      </c>
+      <c r="C110" s="34">
+        <v>10</v>
+      </c>
+      <c r="D110" s="34">
+        <v>1</v>
+      </c>
+      <c r="E110" s="34">
+        <v>1</v>
+      </c>
+      <c r="F110" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G110" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H110" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I110" s="34">
+        <v>3</v>
+      </c>
+      <c r="J110" s="34">
+        <v>1</v>
+      </c>
+      <c r="K110" s="34">
+        <v>1</v>
+      </c>
+      <c r="L110" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="M110" s="34"/>
+    </row>
+    <row r="111" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="34">
+        <v>7</v>
+      </c>
+      <c r="B111" s="34">
+        <v>109</v>
+      </c>
+      <c r="C111" s="34">
+        <v>10</v>
+      </c>
+      <c r="D111" s="34">
+        <v>1</v>
+      </c>
+      <c r="E111" s="34">
+        <v>2</v>
+      </c>
+      <c r="F111" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H111" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I111" s="34">
+        <v>3</v>
+      </c>
+      <c r="J111" s="34">
+        <v>1</v>
+      </c>
+      <c r="K111" s="34">
+        <v>1</v>
+      </c>
+      <c r="L111" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="M111" s="34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="34">
+        <v>7</v>
+      </c>
+      <c r="B112" s="34">
+        <v>110</v>
+      </c>
+      <c r="C112" s="34">
+        <v>10</v>
+      </c>
+      <c r="D112" s="34">
+        <v>1</v>
+      </c>
+      <c r="E112" s="34">
+        <v>1</v>
+      </c>
+      <c r="F112" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G112" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H112" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I112" s="34">
+        <v>3</v>
+      </c>
+      <c r="J112" s="34">
+        <v>1</v>
+      </c>
+      <c r="K112" s="34">
+        <v>2</v>
+      </c>
+      <c r="L112" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="M112" s="34">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="34">
+        <v>7</v>
+      </c>
+      <c r="B113" s="34">
+        <v>111</v>
+      </c>
+      <c r="C113" s="34">
+        <v>10</v>
+      </c>
+      <c r="D113" s="34">
+        <v>1</v>
+      </c>
+      <c r="E113" s="34">
+        <v>1</v>
+      </c>
+      <c r="F113" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G113" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I113" s="34">
+        <v>3</v>
+      </c>
+      <c r="J113" s="34">
+        <v>1</v>
+      </c>
+      <c r="K113" s="34">
+        <v>2</v>
+      </c>
+      <c r="L113" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="M113" s="34">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="34">
+        <v>7</v>
+      </c>
+      <c r="B114" s="34">
+        <v>112</v>
+      </c>
+      <c r="C114" s="34">
+        <v>10</v>
+      </c>
+      <c r="D114" s="34">
+        <v>1</v>
+      </c>
+      <c r="E114" s="34">
+        <v>2</v>
+      </c>
+      <c r="F114" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G114" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I114" s="34">
+        <v>3</v>
+      </c>
+      <c r="J114" s="34">
+        <v>1</v>
+      </c>
+      <c r="K114" s="34">
+        <v>2</v>
+      </c>
+      <c r="L114" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="M114" s="34"/>
+    </row>
+    <row r="115" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="34">
+        <v>7</v>
+      </c>
+      <c r="B115" s="34">
+        <v>113</v>
+      </c>
+      <c r="C115" s="34">
+        <v>10</v>
+      </c>
+      <c r="D115" s="34">
+        <v>1</v>
+      </c>
+      <c r="E115" s="34">
+        <v>1</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G115" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I115" s="34">
+        <v>3</v>
+      </c>
+      <c r="J115" s="34">
+        <v>1</v>
+      </c>
+      <c r="K115" s="34">
+        <v>1</v>
+      </c>
+      <c r="L115" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="M115" s="34">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="34">
+        <v>7</v>
+      </c>
+      <c r="B116" s="34">
+        <v>114</v>
+      </c>
+      <c r="C116" s="34">
+        <v>10</v>
+      </c>
+      <c r="D116" s="34">
+        <v>1</v>
+      </c>
+      <c r="E116" s="34">
+        <v>2</v>
+      </c>
+      <c r="F116" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G116" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H116" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I116" s="34">
+        <v>3</v>
+      </c>
+      <c r="J116" s="34">
+        <v>1</v>
+      </c>
+      <c r="K116" s="34">
+        <v>1</v>
+      </c>
+      <c r="L116" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="M116" s="34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="34">
+        <v>7</v>
+      </c>
+      <c r="B117" s="34">
+        <v>115</v>
+      </c>
+      <c r="C117" s="34">
+        <v>10</v>
+      </c>
+      <c r="D117" s="34">
+        <v>1</v>
+      </c>
+      <c r="E117" s="34">
+        <v>3</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G117" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I117" s="34">
+        <v>3</v>
+      </c>
+      <c r="J117" s="34">
+        <v>1</v>
+      </c>
+      <c r="K117" s="34">
+        <v>1</v>
+      </c>
+      <c r="L117" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="M117" s="34">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="34">
+        <v>7</v>
+      </c>
+      <c r="B118" s="34">
+        <v>116</v>
+      </c>
+      <c r="C118" s="34">
+        <v>10</v>
+      </c>
+      <c r="D118" s="34">
+        <v>1</v>
+      </c>
+      <c r="E118" s="34">
+        <v>2</v>
+      </c>
+      <c r="F118" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G118" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I118" s="34">
+        <v>3</v>
+      </c>
+      <c r="J118" s="34">
+        <v>1</v>
+      </c>
+      <c r="K118" s="34">
+        <v>2</v>
+      </c>
+      <c r="L118" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="M118" s="34">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="34">
+        <v>7</v>
+      </c>
+      <c r="B119" s="34">
+        <v>117</v>
+      </c>
+      <c r="C119" s="34">
+        <v>10</v>
+      </c>
+      <c r="D119" s="34">
+        <v>1</v>
+      </c>
+      <c r="E119" s="34">
+        <v>3</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G119" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H119" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I119" s="34">
+        <v>3</v>
+      </c>
+      <c r="J119" s="34">
+        <v>1</v>
+      </c>
+      <c r="K119" s="34">
+        <v>2</v>
+      </c>
+      <c r="L119" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="M119" s="34">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="34">
+        <v>7</v>
+      </c>
+      <c r="B120" s="34">
+        <v>118</v>
+      </c>
+      <c r="C120" s="34">
+        <v>10</v>
+      </c>
+      <c r="D120" s="34">
+        <v>1</v>
+      </c>
+      <c r="E120" s="34">
+        <v>2</v>
+      </c>
+      <c r="F120" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G120" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H120" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I120" s="34">
+        <v>3</v>
+      </c>
+      <c r="J120" s="34">
+        <v>1</v>
+      </c>
+      <c r="K120" s="34">
+        <v>2</v>
+      </c>
+      <c r="L120" s="38" t="s">
+        <v>727</v>
+      </c>
+      <c r="M120" s="34">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="34">
+        <v>7</v>
+      </c>
+      <c r="B121" s="34">
+        <v>119</v>
+      </c>
+      <c r="C121" s="34">
+        <v>10</v>
+      </c>
+      <c r="D121" s="34">
+        <v>1</v>
+      </c>
+      <c r="E121" s="34">
+        <v>3</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G121" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="H121" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I121" s="34">
+        <v>3</v>
+      </c>
+      <c r="J121" s="34">
+        <v>1</v>
+      </c>
+      <c r="K121" s="34">
+        <v>2</v>
+      </c>
+      <c r="L121" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="M121" s="34">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="823" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1C850D-452B-4502-B4E3-3B252A790DD8}"/>
+  <xr:revisionPtr revIDLastSave="1026" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6CC3717-7223-4426-A357-61F96DB3D822}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2160" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="756">
   <si>
     <t>RAZRED</t>
   </si>
@@ -1865,9 +1865,6 @@
     <t>osna simetrija</t>
   </si>
   <si>
-    <t xml:space="preserve">Značajne duži I tačke trougla </t>
-  </si>
-  <si>
     <t>odnos razlicitih tačaka i duži</t>
   </si>
   <si>
@@ -2334,6 +2331,93 @@
   </si>
   <si>
     <t>deltoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mnogougao </t>
+  </si>
+  <si>
+    <t>vrsta</t>
+  </si>
+  <si>
+    <t>tabela - elementi</t>
+  </si>
+  <si>
+    <t>Vrstе, elementi</t>
+  </si>
+  <si>
+    <t>uglovi, dijagonale</t>
+  </si>
+  <si>
+    <t>Pravilni mnogougao</t>
+  </si>
+  <si>
+    <t>Obim i površina</t>
+  </si>
+  <si>
+    <t>n = 3, 4, 6</t>
+  </si>
+  <si>
+    <t>n = 5, 8, 10, 12</t>
+  </si>
+  <si>
+    <t>nepravilni mnogougli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Značajne duži i tačke trougla </t>
+  </si>
+  <si>
+    <t>visina, težišna linija, težište</t>
+  </si>
+  <si>
+    <t>Centralni i periferijski ugao</t>
+  </si>
+  <si>
+    <t>luk kao deo kružne linije</t>
+  </si>
+  <si>
+    <t>veza</t>
+  </si>
+  <si>
+    <t>Obim, dužina kružnog luka</t>
+  </si>
+  <si>
+    <t>Broj π</t>
+  </si>
+  <si>
+    <t>obim kruga - tabela</t>
+  </si>
+  <si>
+    <t>luk, obim kruga - tabela</t>
+  </si>
+  <si>
+    <t>136, 132</t>
+  </si>
+  <si>
+    <t>centralni luk prav.mnogougla</t>
+  </si>
+  <si>
+    <t>Površina kruga, kružnog isečka I kružnog prstena</t>
+  </si>
+  <si>
+    <t>obim, površina kruga - tabela</t>
+  </si>
+  <si>
+    <t>površine polukrugova</t>
+  </si>
+  <si>
+    <t>dužina polukrugova</t>
+  </si>
+  <si>
+    <t>luk, površina isečka - tabela</t>
+  </si>
+  <si>
+    <t>pravilni mnogougao</t>
+  </si>
+  <si>
+    <t>127, 128</t>
+  </si>
+  <si>
+    <t>obim luk+ prava u mnogoug.</t>
   </si>
 </sst>
 </file>
@@ -2520,7 +2604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2820,6 +2904,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5746,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5831,7 +5921,7 @@
         <v>424</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I2" s="34">
         <v>4</v>
@@ -5843,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M2" s="34"/>
     </row>
@@ -5870,7 +5960,7 @@
         <v>424</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I3" s="34">
         <v>4</v>
@@ -5882,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M3" s="34"/>
     </row>
@@ -5909,7 +5999,7 @@
         <v>424</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I4" s="34">
         <v>4</v>
@@ -5921,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -6124,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M9" s="9">
         <v>5</v>
@@ -6165,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M10" s="9">
         <v>8</v>
@@ -6191,7 +6281,7 @@
         <v>451</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>452</v>
@@ -6232,7 +6322,7 @@
         <v>451</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>452</v>
@@ -6273,7 +6363,7 @@
         <v>451</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>452</v>
@@ -6314,7 +6404,7 @@
         <v>451</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>452</v>
@@ -6355,7 +6445,7 @@
         <v>451</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>452</v>
@@ -6370,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M15" s="15">
         <v>8</v>
@@ -6435,7 +6525,7 @@
         <v>451</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>27</v>
@@ -6678,7 +6768,7 @@
         <v>446</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I23" s="16">
         <v>4</v>
@@ -6717,7 +6807,7 @@
         <v>446</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I24" s="16">
         <v>4</v>
@@ -6756,7 +6846,7 @@
         <v>446</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I25" s="16">
         <v>4</v>
@@ -7151,10 +7241,10 @@
         <v>451</v>
       </c>
       <c r="G35" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>665</v>
       </c>
       <c r="I35" s="16">
         <v>4</v>
@@ -7192,10 +7282,10 @@
         <v>451</v>
       </c>
       <c r="G36" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>665</v>
       </c>
       <c r="I36" s="16">
         <v>4</v>
@@ -7395,7 +7485,7 @@
         <v>451</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>452</v>
@@ -7410,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M41" s="15"/>
     </row>
@@ -7434,7 +7524,7 @@
         <v>451</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>452</v>
@@ -7449,10 +7539,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="M42" s="15" t="s">
         <v>651</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7514,10 +7604,10 @@
         <v>451</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I44" s="16">
         <v>4</v>
@@ -7556,7 +7646,7 @@
         <v>424</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I45" s="15">
         <v>4</v>
@@ -7597,7 +7687,7 @@
         <v>424</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I46" s="15">
         <v>4</v>
@@ -7636,7 +7726,7 @@
         <v>424</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I47" s="34">
         <v>4</v>
@@ -7648,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M47" s="34"/>
     </row>
@@ -7675,7 +7765,7 @@
         <v>424</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I48" s="15">
         <v>4</v>
@@ -7687,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M48" s="15" t="s">
         <v>363</v>
@@ -7713,22 +7803,22 @@
         <v>451</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H49" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="I49" s="15">
+        <v>4</v>
+      </c>
+      <c r="J49" s="15">
+        <v>3</v>
+      </c>
+      <c r="K49" s="15">
+        <v>2</v>
+      </c>
+      <c r="L49" s="18" t="s">
         <v>666</v>
-      </c>
-      <c r="I49" s="15">
-        <v>4</v>
-      </c>
-      <c r="J49" s="15">
-        <v>3</v>
-      </c>
-      <c r="K49" s="15">
-        <v>3</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>667</v>
       </c>
       <c r="M49" s="15"/>
     </row>
@@ -7752,11 +7842,11 @@
         <v>451</v>
       </c>
       <c r="G50" s="113" t="s">
+        <v>667</v>
+      </c>
+      <c r="H50" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="I50" s="15">
         <v>4</v>
       </c>
@@ -7767,7 +7857,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M50" s="15"/>
     </row>
@@ -7791,11 +7881,11 @@
         <v>451</v>
       </c>
       <c r="G51" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="H51" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>665</v>
-      </c>
       <c r="I51" s="15">
         <v>4</v>
       </c>
@@ -7806,10 +7896,10 @@
         <v>1</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -7832,11 +7922,11 @@
         <v>451</v>
       </c>
       <c r="G52" s="113" t="s">
+        <v>667</v>
+      </c>
+      <c r="H52" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="I52" s="15">
         <v>4</v>
       </c>
@@ -7847,7 +7937,7 @@
         <v>2</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M52" s="15">
         <v>45</v>
@@ -7873,10 +7963,10 @@
         <v>451</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I53" s="15">
         <v>4</v>
@@ -7885,10 +7975,10 @@
         <v>3</v>
       </c>
       <c r="K53" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M53" s="15">
         <v>45</v>
@@ -7914,22 +8004,22 @@
         <v>451</v>
       </c>
       <c r="G54" s="113" t="s">
+        <v>667</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="I54" s="15">
+        <v>4</v>
+      </c>
+      <c r="J54" s="15">
+        <v>4</v>
+      </c>
+      <c r="K54" s="15">
+        <v>2</v>
+      </c>
+      <c r="L54" s="18" t="s">
         <v>669</v>
-      </c>
-      <c r="I54" s="15">
-        <v>4</v>
-      </c>
-      <c r="J54" s="15">
-        <v>4</v>
-      </c>
-      <c r="K54" s="15">
-        <v>2</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>670</v>
       </c>
       <c r="M54" s="15">
         <v>46</v>
@@ -7955,10 +8045,10 @@
         <v>451</v>
       </c>
       <c r="G55" s="113" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I55" s="15">
         <v>4</v>
@@ -7970,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M55" s="15">
         <v>46</v>
@@ -7996,10 +8086,10 @@
         <v>451</v>
       </c>
       <c r="G56" s="113" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I56" s="15">
         <v>4</v>
@@ -8011,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M56" s="15">
         <v>47</v>
@@ -8037,22 +8127,22 @@
         <v>451</v>
       </c>
       <c r="G57" s="113" t="s">
+        <v>667</v>
+      </c>
+      <c r="H57" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="I57" s="15">
+        <v>4</v>
+      </c>
+      <c r="J57" s="15">
+        <v>4</v>
+      </c>
+      <c r="K57" s="15">
+        <v>2</v>
+      </c>
+      <c r="L57" s="18" t="s">
         <v>669</v>
-      </c>
-      <c r="I57" s="15">
-        <v>4</v>
-      </c>
-      <c r="J57" s="15">
-        <v>4</v>
-      </c>
-      <c r="K57" s="15">
-        <v>2</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>670</v>
       </c>
       <c r="M57" s="15">
         <v>47</v>
@@ -8078,22 +8168,22 @@
         <v>451</v>
       </c>
       <c r="G58" s="113" t="s">
+        <v>667</v>
+      </c>
+      <c r="H58" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="I58" s="15">
+        <v>4</v>
+      </c>
+      <c r="J58" s="15">
+        <v>4</v>
+      </c>
+      <c r="K58" s="15">
+        <v>2</v>
+      </c>
+      <c r="L58" s="18" t="s">
         <v>669</v>
-      </c>
-      <c r="I58" s="15">
-        <v>4</v>
-      </c>
-      <c r="J58" s="15">
-        <v>4</v>
-      </c>
-      <c r="K58" s="15">
-        <v>2</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>670</v>
       </c>
       <c r="M58" s="15">
         <v>47</v>
@@ -8119,10 +8209,10 @@
         <v>451</v>
       </c>
       <c r="G59" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I59" s="34">
         <v>4</v>
@@ -8155,7 +8245,7 @@
         <v>451</v>
       </c>
       <c r="G60" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>27</v>
@@ -8191,22 +8281,22 @@
         <v>451</v>
       </c>
       <c r="G61" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H61" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="I61" s="34">
+        <v>4</v>
+      </c>
+      <c r="J61" s="34">
+        <v>2</v>
+      </c>
+      <c r="K61" s="34">
+        <v>1</v>
+      </c>
+      <c r="L61" s="38" t="s">
         <v>702</v>
-      </c>
-      <c r="I61" s="34">
-        <v>4</v>
-      </c>
-      <c r="J61" s="34">
-        <v>2</v>
-      </c>
-      <c r="K61" s="34">
-        <v>1</v>
-      </c>
-      <c r="L61" s="38" t="s">
-        <v>703</v>
       </c>
       <c r="M61" s="34">
         <v>50</v>
@@ -8232,10 +8322,10 @@
         <v>451</v>
       </c>
       <c r="G62" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I62" s="34">
         <v>4</v>
@@ -8247,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M62" s="34">
         <v>50</v>
@@ -8273,7 +8363,7 @@
         <v>451</v>
       </c>
       <c r="G63" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>27</v>
@@ -8288,7 +8378,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M63" s="34">
         <v>50</v>
@@ -8314,10 +8404,10 @@
         <v>451</v>
       </c>
       <c r="G64" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I64" s="34">
         <v>4</v>
@@ -8329,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M64" s="34">
         <v>54</v>
@@ -8355,10 +8445,10 @@
         <v>451</v>
       </c>
       <c r="G65" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I65" s="34">
         <v>4</v>
@@ -8370,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M65" s="34">
         <v>54</v>
@@ -8396,7 +8486,7 @@
         <v>451</v>
       </c>
       <c r="G66" s="118" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>27</v>
@@ -8411,7 +8501,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M66" s="34">
         <v>56</v>
@@ -8437,10 +8527,10 @@
         <v>451</v>
       </c>
       <c r="G67" s="118" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I67" s="34">
         <v>4</v>
@@ -8478,22 +8568,22 @@
         <v>451</v>
       </c>
       <c r="G68" s="118" t="s">
+        <v>705</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="I68" s="34">
+        <v>4</v>
+      </c>
+      <c r="J68" s="34">
+        <v>3</v>
+      </c>
+      <c r="K68" s="34">
+        <v>1</v>
+      </c>
+      <c r="L68" s="38" t="s">
         <v>706</v>
-      </c>
-      <c r="H68" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="I68" s="34">
-        <v>4</v>
-      </c>
-      <c r="J68" s="34">
-        <v>3</v>
-      </c>
-      <c r="K68" s="34">
-        <v>1</v>
-      </c>
-      <c r="L68" s="38" t="s">
-        <v>707</v>
       </c>
       <c r="M68" s="34">
         <v>58</v>
@@ -8519,22 +8609,22 @@
         <v>451</v>
       </c>
       <c r="G69" s="118" t="s">
+        <v>705</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="I69" s="34">
+        <v>4</v>
+      </c>
+      <c r="J69" s="34">
+        <v>3</v>
+      </c>
+      <c r="K69" s="34">
+        <v>1</v>
+      </c>
+      <c r="L69" s="38" t="s">
         <v>706</v>
-      </c>
-      <c r="H69" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="I69" s="34">
-        <v>4</v>
-      </c>
-      <c r="J69" s="34">
-        <v>3</v>
-      </c>
-      <c r="K69" s="34">
-        <v>1</v>
-      </c>
-      <c r="L69" s="38" t="s">
-        <v>707</v>
       </c>
       <c r="M69" s="34">
         <v>32</v>
@@ -8560,22 +8650,22 @@
         <v>451</v>
       </c>
       <c r="G70" s="118" t="s">
+        <v>705</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="I70" s="34">
+        <v>4</v>
+      </c>
+      <c r="J70" s="34">
+        <v>3</v>
+      </c>
+      <c r="K70" s="34">
+        <v>1</v>
+      </c>
+      <c r="L70" s="38" t="s">
         <v>706</v>
-      </c>
-      <c r="H70" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="I70" s="34">
-        <v>4</v>
-      </c>
-      <c r="J70" s="34">
-        <v>3</v>
-      </c>
-      <c r="K70" s="34">
-        <v>1</v>
-      </c>
-      <c r="L70" s="38" t="s">
-        <v>707</v>
       </c>
       <c r="M70" s="34">
         <v>49</v>
@@ -8604,7 +8694,7 @@
         <v>424</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I71" s="34">
         <v>4</v>
@@ -8616,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M71" s="34">
         <v>41</v>
@@ -8645,19 +8735,19 @@
         <v>424</v>
       </c>
       <c r="H72" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="I72" s="34">
+        <v>4</v>
+      </c>
+      <c r="J72" s="34">
+        <v>1</v>
+      </c>
+      <c r="K72" s="34">
+        <v>1</v>
+      </c>
+      <c r="L72" s="38" t="s">
         <v>709</v>
-      </c>
-      <c r="I72" s="34">
-        <v>4</v>
-      </c>
-      <c r="J72" s="34">
-        <v>1</v>
-      </c>
-      <c r="K72" s="34">
-        <v>1</v>
-      </c>
-      <c r="L72" s="38" t="s">
-        <v>710</v>
       </c>
       <c r="M72" s="34">
         <v>41</v>
@@ -8686,7 +8776,7 @@
         <v>424</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I73" s="34">
         <v>4</v>
@@ -8698,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M73" s="34">
         <v>41</v>
@@ -8727,7 +8817,7 @@
         <v>424</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I74" s="34">
         <v>4</v>
@@ -8739,7 +8829,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M74" s="34">
         <v>64</v>
@@ -8768,7 +8858,7 @@
         <v>424</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I75" s="34">
         <v>4</v>
@@ -8780,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="L75" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M75" s="34">
         <v>64</v>
@@ -8809,7 +8899,7 @@
         <v>424</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I76" s="34">
         <v>4</v>
@@ -8821,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="L76" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M76" s="34">
         <v>43</v>
@@ -8850,7 +8940,7 @@
         <v>424</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I77" s="34">
         <v>4</v>
@@ -8862,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M77" s="34">
         <v>67</v>
@@ -24431,7 +24521,7 @@
         <v>3</v>
       </c>
       <c r="L43" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M43" s="42">
         <v>37</v>
@@ -31717,7 +31807,7 @@
         <v>178</v>
       </c>
       <c r="G62" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H62" s="52" t="s">
         <v>348</v>
@@ -31732,7 +31822,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M62" s="49">
         <v>5</v>
@@ -31758,7 +31848,7 @@
         <v>178</v>
       </c>
       <c r="G63" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H63" s="52" t="s">
         <v>348</v>
@@ -31773,7 +31863,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M63" s="49">
         <v>6</v>
@@ -31799,22 +31889,22 @@
         <v>178</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H64" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="I64" s="50">
+        <v>1</v>
+      </c>
+      <c r="J64" s="49">
+        <v>2</v>
+      </c>
+      <c r="K64" s="49">
+        <v>1</v>
+      </c>
+      <c r="L64" s="51" t="s">
         <v>629</v>
-      </c>
-      <c r="I64" s="50">
-        <v>1</v>
-      </c>
-      <c r="J64" s="49">
-        <v>2</v>
-      </c>
-      <c r="K64" s="49">
-        <v>1</v>
-      </c>
-      <c r="L64" s="51" t="s">
-        <v>630</v>
       </c>
       <c r="M64" s="49">
         <v>22</v>
@@ -31840,22 +31930,22 @@
         <v>178</v>
       </c>
       <c r="G65" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H65" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="I65" s="50">
+        <v>1</v>
+      </c>
+      <c r="J65" s="49">
+        <v>2</v>
+      </c>
+      <c r="K65" s="49">
+        <v>1</v>
+      </c>
+      <c r="L65" s="51" t="s">
         <v>629</v>
-      </c>
-      <c r="I65" s="50">
-        <v>1</v>
-      </c>
-      <c r="J65" s="49">
-        <v>2</v>
-      </c>
-      <c r="K65" s="49">
-        <v>1</v>
-      </c>
-      <c r="L65" s="51" t="s">
-        <v>630</v>
       </c>
       <c r="M65" s="49">
         <v>21</v>
@@ -31881,10 +31971,10 @@
         <v>178</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I66" s="50">
         <v>1</v>
@@ -31896,10 +31986,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="M66" s="49" t="s">
         <v>631</v>
-      </c>
-      <c r="M66" s="49" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -31922,7 +32012,7 @@
         <v>178</v>
       </c>
       <c r="G67" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H67" s="52" t="s">
         <v>193</v>
@@ -31937,10 +32027,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="51" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M67" s="49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -31963,10 +32053,10 @@
         <v>178</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I68" s="50">
         <v>1</v>
@@ -31978,7 +32068,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="51" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M68" s="49"/>
     </row>
@@ -32002,7 +32092,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H69" s="52" t="s">
         <v>193</v>
@@ -32017,7 +32107,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M69" s="49">
         <v>11</v>
@@ -32043,7 +32133,7 @@
         <v>178</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H70" s="52" t="s">
         <v>193</v>
@@ -32058,7 +32148,7 @@
         <v>3</v>
       </c>
       <c r="L70" s="51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M70" s="49">
         <v>68</v>
@@ -32084,7 +32174,7 @@
         <v>178</v>
       </c>
       <c r="G71" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H71" s="52" t="s">
         <v>75</v>
@@ -32099,7 +32189,7 @@
         <v>4</v>
       </c>
       <c r="L71" s="51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M71" s="49">
         <v>42</v>
@@ -32125,7 +32215,7 @@
         <v>178</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H72" s="52" t="s">
         <v>75</v>
@@ -32140,7 +32230,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M72" s="49">
         <v>41</v>
@@ -32166,7 +32256,7 @@
         <v>178</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H73" s="52" t="s">
         <v>75</v>
@@ -32181,7 +32271,7 @@
         <v>4</v>
       </c>
       <c r="L73" s="51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M73" s="49">
         <v>71</v>
@@ -32207,7 +32297,7 @@
         <v>178</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H74" s="52" t="s">
         <v>75</v>
@@ -32222,7 +32312,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M74" s="49">
         <v>72</v>
@@ -32248,7 +32338,7 @@
         <v>178</v>
       </c>
       <c r="G75" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H75" s="52" t="s">
         <v>193</v>
@@ -32263,7 +32353,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M75" s="49">
         <v>66</v>
@@ -32289,7 +32379,7 @@
         <v>178</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H76" s="52" t="s">
         <v>193</v>
@@ -32304,7 +32394,7 @@
         <v>3</v>
       </c>
       <c r="L76" s="51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M76" s="49">
         <v>69</v>
@@ -32330,7 +32420,7 @@
         <v>178</v>
       </c>
       <c r="G77" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H77" s="52" t="s">
         <v>75</v>
@@ -32345,7 +32435,7 @@
         <v>4</v>
       </c>
       <c r="L77" s="51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M77" s="49">
         <v>56</v>
@@ -32371,7 +32461,7 @@
         <v>178</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H78" s="52" t="s">
         <v>193</v>
@@ -32412,7 +32502,7 @@
         <v>178</v>
       </c>
       <c r="G79" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H79" s="52" t="s">
         <v>75</v>
@@ -32427,7 +32517,7 @@
         <v>4</v>
       </c>
       <c r="L79" s="51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M79" s="49">
         <v>73</v>
@@ -32450,14 +32540,14 @@
         <v>1</v>
       </c>
       <c r="F80" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G80" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="H80" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="H80" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="I80" s="116">
         <v>1</v>
       </c>
@@ -32468,7 +32558,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="115" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M80" s="116">
         <v>74</v>
@@ -32491,14 +32581,14 @@
         <v>2</v>
       </c>
       <c r="F81" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G81" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G81" s="115" t="s">
+      <c r="H81" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="H81" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="I81" s="116">
         <v>1</v>
       </c>
@@ -32509,7 +32599,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="115" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M81" s="116">
         <v>61</v>
@@ -32532,13 +32622,13 @@
         <v>2</v>
       </c>
       <c r="F82" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G82" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G82" s="115" t="s">
+      <c r="H82" s="115" t="s">
         <v>675</v>
-      </c>
-      <c r="H82" s="115" t="s">
-        <v>676</v>
       </c>
       <c r="I82" s="116">
         <v>1</v>
@@ -32573,14 +32663,14 @@
         <v>1</v>
       </c>
       <c r="F83" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G83" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G83" s="115" t="s">
+      <c r="H83" s="115" t="s">
         <v>675</v>
       </c>
-      <c r="H83" s="115" t="s">
-        <v>676</v>
-      </c>
       <c r="I83" s="116">
         <v>1</v>
       </c>
@@ -32591,7 +32681,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="115" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M83" s="116">
         <v>62</v>
@@ -32614,13 +32704,13 @@
         <v>1</v>
       </c>
       <c r="F84" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G84" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G84" s="115" t="s">
+      <c r="H84" s="115" t="s">
         <v>675</v>
-      </c>
-      <c r="H84" s="115" t="s">
-        <v>676</v>
       </c>
       <c r="I84" s="116">
         <v>1</v>
@@ -32655,13 +32745,13 @@
         <v>1</v>
       </c>
       <c r="F85" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G85" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G85" s="115" t="s">
-        <v>675</v>
-      </c>
       <c r="H85" s="115" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I85" s="116">
         <v>1</v>
@@ -32673,7 +32763,7 @@
         <v>2</v>
       </c>
       <c r="L85" s="115" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M85" s="116">
         <v>74</v>
@@ -32696,13 +32786,13 @@
         <v>2</v>
       </c>
       <c r="F86" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G86" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G86" s="115" t="s">
-        <v>675</v>
-      </c>
       <c r="H86" s="115" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I86" s="116">
         <v>1</v>
@@ -32714,7 +32804,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M86" s="116">
         <v>77</v>
@@ -32737,13 +32827,13 @@
         <v>2</v>
       </c>
       <c r="F87" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G87" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G87" s="115" t="s">
-        <v>675</v>
-      </c>
       <c r="H87" s="115" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I87" s="116">
         <v>1</v>
@@ -32755,7 +32845,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M87" s="116">
         <v>77</v>
@@ -32778,13 +32868,13 @@
         <v>3</v>
       </c>
       <c r="F88" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G88" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G88" s="115" t="s">
-        <v>675</v>
-      </c>
       <c r="H88" s="115" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I88" s="116">
         <v>1</v>
@@ -32796,7 +32886,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M88" s="116">
         <v>86</v>
@@ -32819,25 +32909,25 @@
         <v>1</v>
       </c>
       <c r="F89" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G89" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G89" s="115" t="s">
-        <v>675</v>
-      </c>
       <c r="H89" s="115" t="s">
+        <v>680</v>
+      </c>
+      <c r="I89" s="116">
+        <v>1</v>
+      </c>
+      <c r="J89" s="116">
+        <v>1</v>
+      </c>
+      <c r="K89" s="116">
+        <v>2</v>
+      </c>
+      <c r="L89" s="115" t="s">
         <v>681</v>
-      </c>
-      <c r="I89" s="116">
-        <v>1</v>
-      </c>
-      <c r="J89" s="116">
-        <v>1</v>
-      </c>
-      <c r="K89" s="116">
-        <v>2</v>
-      </c>
-      <c r="L89" s="115" t="s">
-        <v>682</v>
       </c>
       <c r="M89" s="116">
         <v>86</v>
@@ -32860,25 +32950,25 @@
         <v>2</v>
       </c>
       <c r="F90" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G90" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G90" s="115" t="s">
-        <v>675</v>
-      </c>
       <c r="H90" s="115" t="s">
+        <v>680</v>
+      </c>
+      <c r="I90" s="116">
+        <v>1</v>
+      </c>
+      <c r="J90" s="116">
+        <v>1</v>
+      </c>
+      <c r="K90" s="116">
+        <v>2</v>
+      </c>
+      <c r="L90" s="115" t="s">
         <v>681</v>
-      </c>
-      <c r="I90" s="116">
-        <v>1</v>
-      </c>
-      <c r="J90" s="116">
-        <v>1</v>
-      </c>
-      <c r="K90" s="116">
-        <v>2</v>
-      </c>
-      <c r="L90" s="115" t="s">
-        <v>682</v>
       </c>
       <c r="M90" s="116">
         <v>87</v>
@@ -32901,13 +32991,13 @@
         <v>1</v>
       </c>
       <c r="F91" s="115" t="s">
+        <v>673</v>
+      </c>
+      <c r="G91" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="G91" s="115" t="s">
-        <v>675</v>
-      </c>
       <c r="H91" s="115" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I91" s="116">
         <v>1</v>
@@ -32919,7 +33009,7 @@
         <v>2</v>
       </c>
       <c r="L91" s="115" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M91" s="116">
         <v>22</v>
@@ -32942,7 +33032,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="115" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G92" s="115" t="s">
         <v>125</v>
@@ -32960,7 +33050,7 @@
         <v>2</v>
       </c>
       <c r="L92" s="115" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M92" s="116">
         <v>89</v>
@@ -32983,7 +33073,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="115" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G93" s="115" t="s">
         <v>125</v>
@@ -33001,7 +33091,7 @@
         <v>2</v>
       </c>
       <c r="L93" s="115" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M93" s="116">
         <v>91</v>
@@ -33015,10 +33105,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34569,10 +34659,10 @@
         <v>179</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I38" s="16">
         <v>3</v>
@@ -34584,7 +34674,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M38" s="15">
         <v>35</v>
@@ -35605,85 +35695,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15">
-        <v>6</v>
-      </c>
-      <c r="B64" s="15">
+    <row r="64" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="34">
+        <v>7</v>
+      </c>
+      <c r="B64" s="34">
         <v>62</v>
       </c>
-      <c r="C64" s="15">
-        <v>10</v>
-      </c>
-      <c r="D64" s="16">
-        <v>2</v>
-      </c>
-      <c r="E64" s="15">
-        <v>1</v>
-      </c>
-      <c r="F64" s="16" t="s">
+      <c r="C64" s="34">
+        <v>10</v>
+      </c>
+      <c r="D64" s="35">
+        <v>2</v>
+      </c>
+      <c r="E64" s="34">
+        <v>1</v>
+      </c>
+      <c r="F64" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="H64" s="17" t="s">
+      <c r="H64" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="I64" s="35">
+        <v>3</v>
+      </c>
+      <c r="J64" s="34">
+        <v>3</v>
+      </c>
+      <c r="K64" s="34">
+        <v>1</v>
+      </c>
+      <c r="L64" s="63" t="s">
+        <v>568</v>
+      </c>
+      <c r="M64" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="34">
+        <v>7</v>
+      </c>
+      <c r="B65" s="34">
+        <v>63</v>
+      </c>
+      <c r="C65" s="34">
+        <v>8</v>
+      </c>
+      <c r="D65" s="35">
+        <v>2</v>
+      </c>
+      <c r="E65" s="34">
+        <v>1</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="I65" s="35">
+        <v>3</v>
+      </c>
+      <c r="J65" s="34">
+        <v>3</v>
+      </c>
+      <c r="K65" s="34">
+        <v>1</v>
+      </c>
+      <c r="L65" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="I64" s="16">
-        <v>3</v>
-      </c>
-      <c r="J64" s="15">
-        <v>1</v>
-      </c>
-      <c r="K64" s="15">
-        <v>4</v>
-      </c>
-      <c r="L64" s="64" t="s">
-        <v>568</v>
-      </c>
-      <c r="M64" s="15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15">
-        <v>6</v>
-      </c>
-      <c r="B65" s="15">
-        <v>63</v>
-      </c>
-      <c r="C65" s="15">
-        <v>10</v>
-      </c>
-      <c r="D65" s="16">
-        <v>2</v>
-      </c>
-      <c r="E65" s="15">
-        <v>1</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="I65" s="16">
-        <v>3</v>
-      </c>
-      <c r="J65" s="15">
-        <v>1</v>
-      </c>
-      <c r="K65" s="15">
-        <v>4</v>
-      </c>
-      <c r="L65" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="M65" s="15">
+      <c r="M65" s="34">
         <v>51</v>
       </c>
     </row>
@@ -35726,85 +35816,85 @@
       </c>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15">
-        <v>6</v>
-      </c>
-      <c r="B67" s="15">
+    <row r="67" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="34">
+        <v>7</v>
+      </c>
+      <c r="B67" s="34">
         <v>65</v>
       </c>
-      <c r="C67" s="15">
-        <v>10</v>
-      </c>
-      <c r="D67" s="16">
-        <v>2</v>
-      </c>
-      <c r="E67" s="15">
-        <v>3</v>
-      </c>
-      <c r="F67" s="16" t="s">
+      <c r="C67" s="34">
+        <v>10</v>
+      </c>
+      <c r="D67" s="35">
+        <v>2</v>
+      </c>
+      <c r="E67" s="34">
+        <v>3</v>
+      </c>
+      <c r="F67" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="I67" s="16">
-        <v>3</v>
-      </c>
-      <c r="J67" s="15">
-        <v>1</v>
-      </c>
-      <c r="K67" s="15">
-        <v>4</v>
-      </c>
-      <c r="L67" s="64" t="s">
+      <c r="H67" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="I67" s="35">
+        <v>3</v>
+      </c>
+      <c r="J67" s="34">
+        <v>3</v>
+      </c>
+      <c r="K67" s="34">
+        <v>1</v>
+      </c>
+      <c r="L67" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="M67" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="34">
+        <v>7</v>
+      </c>
+      <c r="B68" s="34">
+        <v>66</v>
+      </c>
+      <c r="C68" s="34">
+        <v>10</v>
+      </c>
+      <c r="D68" s="35">
+        <v>2</v>
+      </c>
+      <c r="E68" s="34">
+        <v>3</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="I68" s="35">
+        <v>3</v>
+      </c>
+      <c r="J68" s="34">
+        <v>3</v>
+      </c>
+      <c r="K68" s="34">
+        <v>1</v>
+      </c>
+      <c r="L68" s="63" t="s">
         <v>573</v>
       </c>
-      <c r="M67" s="15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15">
-        <v>6</v>
-      </c>
-      <c r="B68" s="15">
-        <v>66</v>
-      </c>
-      <c r="C68" s="15">
-        <v>10</v>
-      </c>
-      <c r="D68" s="16">
-        <v>2</v>
-      </c>
-      <c r="E68" s="15">
-        <v>3</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="I68" s="16">
-        <v>3</v>
-      </c>
-      <c r="J68" s="15">
-        <v>1</v>
-      </c>
-      <c r="K68" s="15">
-        <v>4</v>
-      </c>
-      <c r="L68" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="M68" s="15">
+      <c r="M68" s="34">
         <v>35</v>
       </c>
     </row>
@@ -35828,10 +35918,10 @@
         <v>179</v>
       </c>
       <c r="G69" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="H69" s="17" t="s">
         <v>575</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>576</v>
       </c>
       <c r="I69" s="16">
         <v>3</v>
@@ -35869,22 +35959,22 @@
         <v>179</v>
       </c>
       <c r="G70" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="I70" s="16">
+        <v>3</v>
+      </c>
+      <c r="J70" s="15">
+        <v>2</v>
+      </c>
+      <c r="K70" s="15">
+        <v>1</v>
+      </c>
+      <c r="L70" s="64" t="s">
         <v>576</v>
-      </c>
-      <c r="I70" s="16">
-        <v>3</v>
-      </c>
-      <c r="J70" s="15">
-        <v>2</v>
-      </c>
-      <c r="K70" s="15">
-        <v>1</v>
-      </c>
-      <c r="L70" s="64" t="s">
-        <v>577</v>
       </c>
       <c r="M70" s="15">
         <v>51</v>
@@ -35910,11 +36000,11 @@
         <v>179</v>
       </c>
       <c r="G71" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="H71" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>576</v>
-      </c>
       <c r="I71" s="16">
         <v>3</v>
       </c>
@@ -35925,7 +36015,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M71" s="15">
         <v>49</v>
@@ -35951,11 +36041,11 @@
         <v>179</v>
       </c>
       <c r="G72" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="H72" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>576</v>
-      </c>
       <c r="I72" s="16">
         <v>3</v>
       </c>
@@ -35966,7 +36056,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M72" s="15">
         <v>34</v>
@@ -35992,11 +36082,11 @@
         <v>179</v>
       </c>
       <c r="G73" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="H73" s="17" t="s">
-        <v>576</v>
-      </c>
       <c r="I73" s="16">
         <v>3</v>
       </c>
@@ -36007,7 +36097,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M73" s="15">
         <v>64</v>
@@ -36033,10 +36123,10 @@
         <v>179</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I74" s="16">
         <v>3</v>
@@ -36048,7 +36138,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M74" s="15">
         <v>72</v>
@@ -36074,10 +36164,10 @@
         <v>179</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I75" s="16">
         <v>3</v>
@@ -36089,7 +36179,7 @@
         <v>2</v>
       </c>
       <c r="L75" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M75" s="15">
         <v>72</v>
@@ -36115,10 +36205,10 @@
         <v>179</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I76" s="16">
         <v>3</v>
@@ -36130,7 +36220,7 @@
         <v>2</v>
       </c>
       <c r="L76" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M76" s="15">
         <v>72</v>
@@ -36156,10 +36246,10 @@
         <v>179</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I77" s="16">
         <v>3</v>
@@ -36171,7 +36261,7 @@
         <v>2</v>
       </c>
       <c r="L77" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M77" s="15"/>
     </row>
@@ -36195,10 +36285,10 @@
         <v>179</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I78" s="16">
         <v>3</v>
@@ -36210,7 +36300,7 @@
         <v>2</v>
       </c>
       <c r="L78" s="64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M78" s="15">
         <v>68</v>
@@ -36236,10 +36326,10 @@
         <v>179</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I79" s="16">
         <v>3</v>
@@ -36277,22 +36367,22 @@
         <v>179</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H80" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="I80" s="16">
+        <v>3</v>
+      </c>
+      <c r="J80" s="15">
+        <v>2</v>
+      </c>
+      <c r="K80" s="15">
+        <v>4</v>
+      </c>
+      <c r="L80" s="64" t="s">
         <v>583</v>
-      </c>
-      <c r="I80" s="16">
-        <v>3</v>
-      </c>
-      <c r="J80" s="15">
-        <v>2</v>
-      </c>
-      <c r="K80" s="15">
-        <v>4</v>
-      </c>
-      <c r="L80" s="64" t="s">
-        <v>584</v>
       </c>
       <c r="M80" s="15">
         <v>70</v>
@@ -36318,10 +36408,10 @@
         <v>179</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I81" s="16">
         <v>3</v>
@@ -36333,7 +36423,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="64" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M81" s="15"/>
     </row>
@@ -36357,10 +36447,10 @@
         <v>179</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I82" s="16">
         <v>3</v>
@@ -36372,7 +36462,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M82" s="15">
         <v>71</v>
@@ -36398,10 +36488,10 @@
         <v>179</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I83" s="16">
         <v>3</v>
@@ -36413,7 +36503,7 @@
         <v>4</v>
       </c>
       <c r="L83" s="64" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M83" s="15"/>
     </row>
@@ -36437,10 +36527,10 @@
         <v>179</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I84" s="16">
         <v>3</v>
@@ -36452,7 +36542,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M84" s="15"/>
     </row>
@@ -36476,10 +36566,10 @@
         <v>179</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I85" s="16">
         <v>3</v>
@@ -36491,7 +36581,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M85" s="15"/>
     </row>
@@ -36518,19 +36608,19 @@
         <v>142</v>
       </c>
       <c r="H86" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="I86" s="16">
+        <v>3</v>
+      </c>
+      <c r="J86" s="83">
+        <v>3</v>
+      </c>
+      <c r="K86" s="83">
+        <v>1</v>
+      </c>
+      <c r="L86" s="64" t="s">
         <v>589</v>
-      </c>
-      <c r="I86" s="16">
-        <v>3</v>
-      </c>
-      <c r="J86" s="83">
-        <v>3</v>
-      </c>
-      <c r="K86" s="83">
-        <v>1</v>
-      </c>
-      <c r="L86" s="64" t="s">
-        <v>590</v>
       </c>
       <c r="M86" s="15"/>
     </row>
@@ -36557,19 +36647,19 @@
         <v>142</v>
       </c>
       <c r="H87" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="I87" s="16">
+        <v>3</v>
+      </c>
+      <c r="J87" s="83">
+        <v>3</v>
+      </c>
+      <c r="K87" s="83">
+        <v>1</v>
+      </c>
+      <c r="L87" s="64" t="s">
         <v>589</v>
-      </c>
-      <c r="I87" s="16">
-        <v>3</v>
-      </c>
-      <c r="J87" s="83">
-        <v>3</v>
-      </c>
-      <c r="K87" s="83">
-        <v>1</v>
-      </c>
-      <c r="L87" s="64" t="s">
-        <v>590</v>
       </c>
       <c r="M87" s="15"/>
     </row>
@@ -36611,7 +36701,7 @@
         <v>281</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36717,7 +36807,7 @@
         <v>142</v>
       </c>
       <c r="H91" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I91" s="16">
         <v>3</v>
@@ -36729,10 +36819,10 @@
         <v>3</v>
       </c>
       <c r="L91" s="64" t="s">
+        <v>592</v>
+      </c>
+      <c r="M91" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -36758,7 +36848,7 @@
         <v>142</v>
       </c>
       <c r="H92" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I92" s="16">
         <v>3</v>
@@ -36770,7 +36860,7 @@
         <v>3</v>
       </c>
       <c r="L92" s="64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M92" s="15">
         <v>89</v>
@@ -36814,7 +36904,7 @@
         <v>281</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -36840,7 +36930,7 @@
         <v>142</v>
       </c>
       <c r="H94" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I94" s="16">
         <v>3</v>
@@ -36852,7 +36942,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M94" s="15"/>
     </row>
@@ -36879,7 +36969,7 @@
         <v>142</v>
       </c>
       <c r="H95" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I95" s="16">
         <v>3</v>
@@ -36891,7 +36981,7 @@
         <v>3</v>
       </c>
       <c r="L95" s="64" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M95" s="15">
         <v>90</v>
@@ -36920,7 +37010,7 @@
         <v>142</v>
       </c>
       <c r="H96" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I96" s="16">
         <v>3</v>
@@ -36932,7 +37022,7 @@
         <v>3</v>
       </c>
       <c r="L96" s="64" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M96" s="15">
         <v>90</v>
@@ -36961,19 +37051,19 @@
         <v>142</v>
       </c>
       <c r="H97" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="I97" s="16">
+        <v>3</v>
+      </c>
+      <c r="J97" s="83">
+        <v>3</v>
+      </c>
+      <c r="K97" s="83">
+        <v>3</v>
+      </c>
+      <c r="L97" s="65" t="s">
         <v>599</v>
-      </c>
-      <c r="I97" s="16">
-        <v>3</v>
-      </c>
-      <c r="J97" s="83">
-        <v>3</v>
-      </c>
-      <c r="K97" s="83">
-        <v>3</v>
-      </c>
-      <c r="L97" s="65" t="s">
-        <v>600</v>
       </c>
       <c r="M97" s="15">
         <v>67</v>
@@ -37002,7 +37092,7 @@
         <v>142</v>
       </c>
       <c r="H98" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I98" s="16">
         <v>3</v>
@@ -37014,7 +37104,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M98" s="15">
         <v>95</v>
@@ -37043,7 +37133,7 @@
         <v>142</v>
       </c>
       <c r="H99" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I99" s="16">
         <v>3</v>
@@ -37084,7 +37174,7 @@
         <v>142</v>
       </c>
       <c r="H100" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I100" s="16">
         <v>3</v>
@@ -37096,7 +37186,7 @@
         <v>3</v>
       </c>
       <c r="L100" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M100" s="15">
         <v>95</v>
@@ -37125,7 +37215,7 @@
         <v>142</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I101" s="16">
         <v>3</v>
@@ -37137,7 +37227,7 @@
         <v>3</v>
       </c>
       <c r="L101" s="65" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M101" s="15">
         <v>95</v>
@@ -37166,7 +37256,7 @@
         <v>142</v>
       </c>
       <c r="H102" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I102" s="16">
         <v>3</v>
@@ -37178,7 +37268,7 @@
         <v>3</v>
       </c>
       <c r="L102" s="65" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M102" s="15">
         <v>99</v>
@@ -37204,7 +37294,7 @@
         <v>179</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H103" s="17" t="s">
         <v>514</v>
@@ -37219,7 +37309,7 @@
         <v>3</v>
       </c>
       <c r="L103" s="64" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M103" s="15"/>
     </row>
@@ -37243,7 +37333,7 @@
         <v>179</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H104" s="17" t="s">
         <v>514</v>
@@ -37258,7 +37348,7 @@
         <v>3</v>
       </c>
       <c r="L104" s="64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M104" s="15">
         <v>58</v>
@@ -37284,7 +37374,7 @@
         <v>179</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H105" s="17" t="s">
         <v>514</v>
@@ -37299,7 +37389,7 @@
         <v>3</v>
       </c>
       <c r="L105" s="64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M105" s="15">
         <v>102</v>
@@ -37325,7 +37415,7 @@
         <v>179</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H106" s="17" t="s">
         <v>514</v>
@@ -37340,7 +37430,7 @@
         <v>3</v>
       </c>
       <c r="L106" s="64" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M106" s="15">
         <v>102</v>
@@ -37366,7 +37456,7 @@
         <v>179</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H107" s="17" t="s">
         <v>514</v>
@@ -37381,7 +37471,7 @@
         <v>3</v>
       </c>
       <c r="L107" s="64" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M107" s="15">
         <v>103</v>
@@ -37407,7 +37497,7 @@
         <v>179</v>
       </c>
       <c r="G108" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>257</v>
@@ -37422,7 +37512,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M108" s="34">
         <v>86</v>
@@ -37448,7 +37538,7 @@
         <v>179</v>
       </c>
       <c r="G109" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H109" s="38" t="s">
         <v>257</v>
@@ -37463,7 +37553,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M109" s="34">
         <v>90</v>
@@ -37489,7 +37579,7 @@
         <v>179</v>
       </c>
       <c r="G110" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>257</v>
@@ -37504,7 +37594,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M110" s="34"/>
     </row>
@@ -37528,7 +37618,7 @@
         <v>179</v>
       </c>
       <c r="G111" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>257</v>
@@ -37543,7 +37633,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M111" s="34">
         <v>65</v>
@@ -37569,10 +37659,10 @@
         <v>179</v>
       </c>
       <c r="G112" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H112" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I112" s="34">
         <v>3</v>
@@ -37584,7 +37674,7 @@
         <v>2</v>
       </c>
       <c r="L112" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M112" s="34">
         <v>107</v>
@@ -37610,10 +37700,10 @@
         <v>179</v>
       </c>
       <c r="G113" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H113" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I113" s="34">
         <v>3</v>
@@ -37625,7 +37715,7 @@
         <v>2</v>
       </c>
       <c r="L113" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M113" s="34">
         <v>110</v>
@@ -37651,10 +37741,10 @@
         <v>179</v>
       </c>
       <c r="G114" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I114" s="34">
         <v>3</v>
@@ -37666,7 +37756,7 @@
         <v>2</v>
       </c>
       <c r="L114" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M114" s="34"/>
     </row>
@@ -37690,7 +37780,7 @@
         <v>179</v>
       </c>
       <c r="G115" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>257</v>
@@ -37705,7 +37795,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M115" s="34">
         <v>111</v>
@@ -37731,7 +37821,7 @@
         <v>179</v>
       </c>
       <c r="G116" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>257</v>
@@ -37746,7 +37836,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M116" s="34">
         <v>113</v>
@@ -37772,7 +37862,7 @@
         <v>179</v>
       </c>
       <c r="G117" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H117" s="38" t="s">
         <v>257</v>
@@ -37787,7 +37877,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M117" s="34">
         <v>109</v>
@@ -37813,10 +37903,10 @@
         <v>179</v>
       </c>
       <c r="G118" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H118" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I118" s="34">
         <v>3</v>
@@ -37828,7 +37918,7 @@
         <v>2</v>
       </c>
       <c r="L118" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M118" s="34">
         <v>107</v>
@@ -37854,10 +37944,10 @@
         <v>179</v>
       </c>
       <c r="G119" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H119" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I119" s="34">
         <v>3</v>
@@ -37869,7 +37959,7 @@
         <v>2</v>
       </c>
       <c r="L119" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M119" s="34">
         <v>109</v>
@@ -37895,10 +37985,10 @@
         <v>179</v>
       </c>
       <c r="G120" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H120" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I120" s="34">
         <v>3</v>
@@ -37910,7 +38000,7 @@
         <v>2</v>
       </c>
       <c r="L120" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M120" s="34">
         <v>117</v>
@@ -37936,10 +38026,10 @@
         <v>179</v>
       </c>
       <c r="G121" s="118" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I121" s="34">
         <v>3</v>
@@ -37951,10 +38041,1106 @@
         <v>2</v>
       </c>
       <c r="L121" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="M121" s="34">
-        <v>117</v>
+        <v>597</v>
+      </c>
+      <c r="M121" s="34"/>
+    </row>
+    <row r="122" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="34">
+        <v>7</v>
+      </c>
+      <c r="B122" s="34">
+        <v>120</v>
+      </c>
+      <c r="C122" s="34">
+        <v>10</v>
+      </c>
+      <c r="D122" s="34">
+        <v>1</v>
+      </c>
+      <c r="E122" s="34">
+        <v>1</v>
+      </c>
+      <c r="F122" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G122" s="118" t="s">
+        <v>715</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="I122" s="34">
+        <v>3</v>
+      </c>
+      <c r="J122" s="34">
+        <v>1</v>
+      </c>
+      <c r="K122" s="34">
+        <v>2</v>
+      </c>
+      <c r="L122" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="M122" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="34">
+        <v>7</v>
+      </c>
+      <c r="B123" s="34">
+        <v>121</v>
+      </c>
+      <c r="C123" s="34">
+        <v>8</v>
+      </c>
+      <c r="D123" s="34">
+        <v>2</v>
+      </c>
+      <c r="E123" s="34">
+        <v>1</v>
+      </c>
+      <c r="F123" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G123" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>730</v>
+      </c>
+      <c r="I123" s="34">
+        <v>3</v>
+      </c>
+      <c r="J123" s="34">
+        <v>2</v>
+      </c>
+      <c r="K123" s="34">
+        <v>1</v>
+      </c>
+      <c r="L123" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="M123" s="34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="34">
+        <v>7</v>
+      </c>
+      <c r="B124" s="34">
+        <v>122</v>
+      </c>
+      <c r="C124" s="34">
+        <v>8</v>
+      </c>
+      <c r="D124" s="34">
+        <v>2</v>
+      </c>
+      <c r="E124" s="34">
+        <v>1</v>
+      </c>
+      <c r="F124" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G124" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H124" s="38" t="s">
+        <v>730</v>
+      </c>
+      <c r="I124" s="34">
+        <v>3</v>
+      </c>
+      <c r="J124" s="34">
+        <v>2</v>
+      </c>
+      <c r="K124" s="34">
+        <v>1</v>
+      </c>
+      <c r="L124" s="38" t="s">
+        <v>729</v>
+      </c>
+      <c r="M124" s="34">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="34">
+        <v>7</v>
+      </c>
+      <c r="B125" s="34">
+        <v>123</v>
+      </c>
+      <c r="C125" s="34">
+        <v>10</v>
+      </c>
+      <c r="D125" s="34">
+        <v>2</v>
+      </c>
+      <c r="E125" s="34">
+        <v>1</v>
+      </c>
+      <c r="F125" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G125" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H125" s="38" t="s">
+        <v>730</v>
+      </c>
+      <c r="I125" s="34">
+        <v>3</v>
+      </c>
+      <c r="J125" s="34">
+        <v>2</v>
+      </c>
+      <c r="K125" s="34">
+        <v>1</v>
+      </c>
+      <c r="L125" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="M125" s="34"/>
+    </row>
+    <row r="126" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="34">
+        <v>7</v>
+      </c>
+      <c r="B126" s="34">
+        <v>124</v>
+      </c>
+      <c r="C126" s="34">
+        <v>8</v>
+      </c>
+      <c r="D126" s="34">
+        <v>2</v>
+      </c>
+      <c r="E126" s="34">
+        <v>2</v>
+      </c>
+      <c r="F126" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G126" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H126" s="38" t="s">
+        <v>730</v>
+      </c>
+      <c r="I126" s="34">
+        <v>3</v>
+      </c>
+      <c r="J126" s="34">
+        <v>2</v>
+      </c>
+      <c r="K126" s="34">
+        <v>1</v>
+      </c>
+      <c r="L126" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="M126" s="34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="34">
+        <v>7</v>
+      </c>
+      <c r="B127" s="34">
+        <v>125</v>
+      </c>
+      <c r="C127" s="34">
+        <v>10</v>
+      </c>
+      <c r="D127" s="34">
+        <v>2</v>
+      </c>
+      <c r="E127" s="34">
+        <v>2</v>
+      </c>
+      <c r="F127" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G127" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H127" s="38" t="s">
+        <v>732</v>
+      </c>
+      <c r="I127" s="34">
+        <v>3</v>
+      </c>
+      <c r="J127" s="34">
+        <v>2</v>
+      </c>
+      <c r="K127" s="34">
+        <v>2</v>
+      </c>
+      <c r="L127" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="M127" s="34">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="34">
+        <v>7</v>
+      </c>
+      <c r="B128" s="34">
+        <v>126</v>
+      </c>
+      <c r="C128" s="34">
+        <v>8</v>
+      </c>
+      <c r="D128" s="34">
+        <v>2</v>
+      </c>
+      <c r="E128" s="34">
+        <v>2</v>
+      </c>
+      <c r="F128" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G128" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H128" s="38" t="s">
+        <v>732</v>
+      </c>
+      <c r="I128" s="34">
+        <v>3</v>
+      </c>
+      <c r="J128" s="34">
+        <v>2</v>
+      </c>
+      <c r="K128" s="34">
+        <v>2</v>
+      </c>
+      <c r="L128" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="M128" s="34">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="34">
+        <v>7</v>
+      </c>
+      <c r="B129" s="34">
+        <v>127</v>
+      </c>
+      <c r="C129" s="34">
+        <v>10</v>
+      </c>
+      <c r="D129" s="34">
+        <v>2</v>
+      </c>
+      <c r="E129" s="34">
+        <v>1</v>
+      </c>
+      <c r="F129" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G129" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H129" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="I129" s="34">
+        <v>3</v>
+      </c>
+      <c r="J129" s="34">
+        <v>2</v>
+      </c>
+      <c r="K129" s="34">
+        <v>3</v>
+      </c>
+      <c r="L129" s="38" t="s">
+        <v>734</v>
+      </c>
+      <c r="M129" s="34">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="34">
+        <v>7</v>
+      </c>
+      <c r="B130" s="34">
+        <v>128</v>
+      </c>
+      <c r="C130" s="34">
+        <v>10</v>
+      </c>
+      <c r="D130" s="34">
+        <v>2</v>
+      </c>
+      <c r="E130" s="34">
+        <v>3</v>
+      </c>
+      <c r="F130" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H130" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="I130" s="34">
+        <v>3</v>
+      </c>
+      <c r="J130" s="34">
+        <v>2</v>
+      </c>
+      <c r="K130" s="34">
+        <v>3</v>
+      </c>
+      <c r="L130" s="38" t="s">
+        <v>735</v>
+      </c>
+      <c r="M130" s="34">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="34">
+        <v>7</v>
+      </c>
+      <c r="B131" s="34">
+        <v>129</v>
+      </c>
+      <c r="C131" s="34">
+        <v>10</v>
+      </c>
+      <c r="D131" s="34">
+        <v>2</v>
+      </c>
+      <c r="E131" s="34">
+        <v>2</v>
+      </c>
+      <c r="F131" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G131" s="118" t="s">
+        <v>727</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="I131" s="34">
+        <v>3</v>
+      </c>
+      <c r="J131" s="34">
+        <v>2</v>
+      </c>
+      <c r="K131" s="34">
+        <v>3</v>
+      </c>
+      <c r="L131" s="38" t="s">
+        <v>736</v>
+      </c>
+      <c r="M131" s="34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="34">
+        <v>7</v>
+      </c>
+      <c r="B132" s="34">
+        <v>130</v>
+      </c>
+      <c r="C132" s="34">
+        <v>10</v>
+      </c>
+      <c r="D132" s="34">
+        <v>2</v>
+      </c>
+      <c r="E132" s="34">
+        <v>1</v>
+      </c>
+      <c r="F132" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G132" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="H132" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="I132" s="35">
+        <v>3</v>
+      </c>
+      <c r="J132" s="34">
+        <v>3</v>
+      </c>
+      <c r="K132" s="34">
+        <v>1</v>
+      </c>
+      <c r="L132" s="38" t="s">
+        <v>738</v>
+      </c>
+      <c r="M132" s="34"/>
+    </row>
+    <row r="133" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="34">
+        <v>7</v>
+      </c>
+      <c r="B133" s="34">
+        <v>131</v>
+      </c>
+      <c r="C133" s="34">
+        <v>10</v>
+      </c>
+      <c r="D133" s="34">
+        <v>3</v>
+      </c>
+      <c r="E133" s="34">
+        <v>1</v>
+      </c>
+      <c r="F133" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G133" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H133" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="I133" s="35">
+        <v>3</v>
+      </c>
+      <c r="J133" s="34">
+        <v>4</v>
+      </c>
+      <c r="K133" s="34">
+        <v>1</v>
+      </c>
+      <c r="L133" s="38" t="s">
+        <v>741</v>
+      </c>
+      <c r="M133" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="34">
+        <v>7</v>
+      </c>
+      <c r="B134" s="34">
+        <v>132</v>
+      </c>
+      <c r="C134" s="34">
+        <v>10</v>
+      </c>
+      <c r="D134" s="34">
+        <v>3</v>
+      </c>
+      <c r="E134" s="34">
+        <v>1</v>
+      </c>
+      <c r="F134" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H134" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="I134" s="35">
+        <v>3</v>
+      </c>
+      <c r="J134" s="34">
+        <v>4</v>
+      </c>
+      <c r="K134" s="34">
+        <v>1</v>
+      </c>
+      <c r="L134" s="38" t="s">
+        <v>740</v>
+      </c>
+      <c r="M134" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="34">
+        <v>7</v>
+      </c>
+      <c r="B135" s="34">
+        <v>133</v>
+      </c>
+      <c r="C135" s="34">
+        <v>10</v>
+      </c>
+      <c r="D135" s="34">
+        <v>3</v>
+      </c>
+      <c r="E135" s="34">
+        <v>2</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G135" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H135" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="I135" s="35">
+        <v>3</v>
+      </c>
+      <c r="J135" s="34">
+        <v>4</v>
+      </c>
+      <c r="K135" s="34">
+        <v>1</v>
+      </c>
+      <c r="L135" s="38" t="s">
+        <v>740</v>
+      </c>
+      <c r="M135" s="34">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="34">
+        <v>7</v>
+      </c>
+      <c r="B136" s="34">
+        <v>134</v>
+      </c>
+      <c r="C136" s="34">
+        <v>10</v>
+      </c>
+      <c r="D136" s="34">
+        <v>3</v>
+      </c>
+      <c r="E136" s="34">
+        <v>2</v>
+      </c>
+      <c r="F136" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G136" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H136" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="I136" s="35">
+        <v>3</v>
+      </c>
+      <c r="J136" s="34">
+        <v>4</v>
+      </c>
+      <c r="K136" s="34">
+        <v>1</v>
+      </c>
+      <c r="M136" s="34"/>
+    </row>
+    <row r="137" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="34">
+        <v>7</v>
+      </c>
+      <c r="B137" s="34">
+        <v>135</v>
+      </c>
+      <c r="C137" s="34">
+        <v>10</v>
+      </c>
+      <c r="D137" s="34">
+        <v>3</v>
+      </c>
+      <c r="E137" s="34">
+        <v>3</v>
+      </c>
+      <c r="F137" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G137" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H137" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I137" s="35">
+        <v>3</v>
+      </c>
+      <c r="J137" s="34">
+        <v>4</v>
+      </c>
+      <c r="K137" s="34">
+        <v>2</v>
+      </c>
+      <c r="L137" s="38" t="s">
+        <v>743</v>
+      </c>
+      <c r="M137" s="34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="34">
+        <v>7</v>
+      </c>
+      <c r="B138" s="34">
+        <v>136</v>
+      </c>
+      <c r="C138" s="34">
+        <v>10</v>
+      </c>
+      <c r="D138" s="34">
+        <v>3</v>
+      </c>
+      <c r="E138" s="34">
+        <v>1</v>
+      </c>
+      <c r="F138" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G138" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H138" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I138" s="35">
+        <v>3</v>
+      </c>
+      <c r="J138" s="34">
+        <v>4</v>
+      </c>
+      <c r="K138" s="34">
+        <v>2</v>
+      </c>
+      <c r="L138" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="M138" s="34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="34">
+        <v>7</v>
+      </c>
+      <c r="B139" s="34">
+        <v>137</v>
+      </c>
+      <c r="C139" s="34">
+        <v>10</v>
+      </c>
+      <c r="D139" s="34">
+        <v>3</v>
+      </c>
+      <c r="E139" s="34">
+        <v>2</v>
+      </c>
+      <c r="F139" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G139" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H139" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I139" s="35">
+        <v>3</v>
+      </c>
+      <c r="J139" s="34">
+        <v>4</v>
+      </c>
+      <c r="K139" s="34">
+        <v>2</v>
+      </c>
+      <c r="L139" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="M139" s="34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="34">
+        <v>7</v>
+      </c>
+      <c r="B140" s="34">
+        <v>138</v>
+      </c>
+      <c r="C140" s="34">
+        <v>10</v>
+      </c>
+      <c r="D140" s="34">
+        <v>3</v>
+      </c>
+      <c r="E140" s="34">
+        <v>3</v>
+      </c>
+      <c r="F140" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G140" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H140" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I140" s="35">
+        <v>3</v>
+      </c>
+      <c r="J140" s="34">
+        <v>4</v>
+      </c>
+      <c r="K140" s="34">
+        <v>2</v>
+      </c>
+      <c r="L140" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="M140" s="34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="34">
+        <v>7</v>
+      </c>
+      <c r="B141" s="34">
+        <v>139</v>
+      </c>
+      <c r="C141" s="34">
+        <v>10</v>
+      </c>
+      <c r="D141" s="34">
+        <v>3</v>
+      </c>
+      <c r="E141" s="34">
+        <v>2</v>
+      </c>
+      <c r="F141" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G141" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H141" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I141" s="35">
+        <v>3</v>
+      </c>
+      <c r="J141" s="34">
+        <v>4</v>
+      </c>
+      <c r="K141" s="34">
+        <v>2</v>
+      </c>
+      <c r="L141" s="38" t="s">
+        <v>745</v>
+      </c>
+      <c r="M141" s="34" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="34">
+        <v>7</v>
+      </c>
+      <c r="B142" s="34">
+        <v>140</v>
+      </c>
+      <c r="C142" s="34">
+        <v>10</v>
+      </c>
+      <c r="D142" s="34">
+        <v>3</v>
+      </c>
+      <c r="E142" s="34">
+        <v>1</v>
+      </c>
+      <c r="F142" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G142" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H142" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I142" s="35">
+        <v>3</v>
+      </c>
+      <c r="J142" s="34">
+        <v>4</v>
+      </c>
+      <c r="K142" s="34">
+        <v>2</v>
+      </c>
+      <c r="L142" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="M142" s="34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="34">
+        <v>7</v>
+      </c>
+      <c r="B143" s="34">
+        <v>141</v>
+      </c>
+      <c r="C143" s="34">
+        <v>10</v>
+      </c>
+      <c r="D143" s="34">
+        <v>3</v>
+      </c>
+      <c r="E143" s="34">
+        <v>2</v>
+      </c>
+      <c r="F143" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G143" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H143" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I143" s="35">
+        <v>3</v>
+      </c>
+      <c r="J143" s="34">
+        <v>4</v>
+      </c>
+      <c r="K143" s="34">
+        <v>2</v>
+      </c>
+      <c r="L143" s="38" t="s">
+        <v>755</v>
+      </c>
+      <c r="M143" s="34">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" s="38" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="34">
+        <v>7</v>
+      </c>
+      <c r="B144" s="34">
+        <v>142</v>
+      </c>
+      <c r="C144" s="34">
+        <v>10</v>
+      </c>
+      <c r="D144" s="34">
+        <v>3</v>
+      </c>
+      <c r="E144" s="34">
+        <v>1</v>
+      </c>
+      <c r="F144" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="G144" s="119" t="s">
+        <v>504</v>
+      </c>
+      <c r="H144" s="120" t="s">
+        <v>748</v>
+      </c>
+      <c r="I144" s="35">
+        <v>3</v>
+      </c>
+      <c r="J144" s="34">
+        <v>4</v>
+      </c>
+      <c r="K144" s="34">
+        <v>3</v>
+      </c>
+      <c r="L144" s="119" t="s">
+        <v>750</v>
+      </c>
+      <c r="M144" s="34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="38" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="34">
+        <v>7</v>
+      </c>
+      <c r="B145" s="34">
+        <v>143</v>
+      </c>
+      <c r="C145" s="34">
+        <v>10</v>
+      </c>
+      <c r="D145" s="34">
+        <v>3</v>
+      </c>
+      <c r="E145" s="34">
+        <v>1</v>
+      </c>
+      <c r="F145" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="G145" s="119" t="s">
+        <v>504</v>
+      </c>
+      <c r="H145" s="120" t="s">
+        <v>748</v>
+      </c>
+      <c r="I145" s="35">
+        <v>3</v>
+      </c>
+      <c r="J145" s="34">
+        <v>4</v>
+      </c>
+      <c r="K145" s="34">
+        <v>3</v>
+      </c>
+      <c r="L145" s="119" t="s">
+        <v>749</v>
+      </c>
+      <c r="M145" s="34">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" s="38" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="34">
+        <v>7</v>
+      </c>
+      <c r="B146" s="34">
+        <v>144</v>
+      </c>
+      <c r="C146" s="34">
+        <v>10</v>
+      </c>
+      <c r="D146" s="34">
+        <v>3</v>
+      </c>
+      <c r="E146" s="34">
+        <v>2</v>
+      </c>
+      <c r="F146" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="G146" s="119" t="s">
+        <v>504</v>
+      </c>
+      <c r="H146" s="120" t="s">
+        <v>748</v>
+      </c>
+      <c r="I146" s="35">
+        <v>3</v>
+      </c>
+      <c r="J146" s="34">
+        <v>4</v>
+      </c>
+      <c r="K146" s="34">
+        <v>3</v>
+      </c>
+      <c r="L146" s="119" t="s">
+        <v>752</v>
+      </c>
+      <c r="M146" s="34">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" s="38" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="34">
+        <v>7</v>
+      </c>
+      <c r="B147" s="34">
+        <v>145</v>
+      </c>
+      <c r="C147" s="34">
+        <v>10</v>
+      </c>
+      <c r="D147" s="34">
+        <v>3</v>
+      </c>
+      <c r="E147" s="34">
+        <v>2</v>
+      </c>
+      <c r="F147" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="G147" s="119" t="s">
+        <v>504</v>
+      </c>
+      <c r="H147" s="120" t="s">
+        <v>748</v>
+      </c>
+      <c r="I147" s="35">
+        <v>3</v>
+      </c>
+      <c r="J147" s="34">
+        <v>4</v>
+      </c>
+      <c r="K147" s="34">
+        <v>3</v>
+      </c>
+      <c r="L147" s="119" t="s">
+        <v>753</v>
+      </c>
+      <c r="M147" s="34" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" s="38" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="34">
+        <v>7</v>
+      </c>
+      <c r="B148" s="34">
+        <v>146</v>
+      </c>
+      <c r="C148" s="34">
+        <v>10</v>
+      </c>
+      <c r="D148" s="34">
+        <v>3</v>
+      </c>
+      <c r="E148" s="34">
+        <v>3</v>
+      </c>
+      <c r="F148" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="G148" s="119" t="s">
+        <v>504</v>
+      </c>
+      <c r="H148" s="120" t="s">
+        <v>748</v>
+      </c>
+      <c r="I148" s="35">
+        <v>3</v>
+      </c>
+      <c r="J148" s="34">
+        <v>4</v>
+      </c>
+      <c r="K148" s="34">
+        <v>3</v>
+      </c>
+      <c r="L148" s="38" t="s">
+        <v>755</v>
+      </c>
+      <c r="M148" s="34">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -40340,7 +41526,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M59" s="49">
         <v>6</v>
@@ -40422,7 +41608,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M61" s="49">
         <v>57</v>
@@ -40504,7 +41690,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M63" s="49">
         <v>57</v>
@@ -40545,10 +41731,10 @@
         <v>3</v>
       </c>
       <c r="L64" s="51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M64" s="49" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -40586,7 +41772,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M65" s="49">
         <v>60</v>
@@ -40627,10 +41813,10 @@
         <v>3</v>
       </c>
       <c r="L66" s="51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M66" s="49" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -40668,7 +41854,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M67" s="49">
         <v>62</v>
@@ -40709,7 +41895,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M68" s="49">
         <v>63</v>
@@ -40750,10 +41936,10 @@
         <v>4</v>
       </c>
       <c r="L69" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="M69" s="49" t="s">
         <v>609</v>
-      </c>
-      <c r="M69" s="49" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -40791,10 +41977,10 @@
         <v>3</v>
       </c>
       <c r="L70" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="M70" s="49" t="s">
         <v>611</v>
-      </c>
-      <c r="M70" s="49" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -40832,10 +42018,10 @@
         <v>2</v>
       </c>
       <c r="L71" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="M71" s="49" t="s">
         <v>613</v>
-      </c>
-      <c r="M71" s="49" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -40873,7 +42059,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M72" s="49" t="s">
         <v>564</v>
@@ -40914,10 +42100,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="M73" s="49" t="s">
         <v>616</v>
-      </c>
-      <c r="M73" s="49" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -40955,7 +42141,7 @@
         <v>3</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M74" s="49">
         <v>69</v>
@@ -40996,10 +42182,10 @@
         <v>4</v>
       </c>
       <c r="L75" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="M75" s="49" t="s">
         <v>619</v>
-      </c>
-      <c r="M75" s="49" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -41037,10 +42223,10 @@
         <v>4</v>
       </c>
       <c r="L76" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="M76" s="49" t="s">
         <v>621</v>
-      </c>
-      <c r="M76" s="49" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -41081,7 +42267,7 @@
         <v>22</v>
       </c>
       <c r="M77" s="49" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -41101,28 +42287,28 @@
         <v>1</v>
       </c>
       <c r="F78" s="117" t="s">
+        <v>673</v>
+      </c>
+      <c r="G78" s="117" t="s">
         <v>674</v>
       </c>
-      <c r="G78" s="117" t="s">
+      <c r="H78" s="117" t="s">
         <v>675</v>
       </c>
-      <c r="H78" s="117" t="s">
+      <c r="I78" s="116">
+        <v>1</v>
+      </c>
+      <c r="J78" s="116">
+        <v>1</v>
+      </c>
+      <c r="K78" s="116">
+        <v>1</v>
+      </c>
+      <c r="L78" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="M78" s="116" t="s">
         <v>676</v>
-      </c>
-      <c r="I78" s="116">
-        <v>1</v>
-      </c>
-      <c r="J78" s="116">
-        <v>1</v>
-      </c>
-      <c r="K78" s="116">
-        <v>1</v>
-      </c>
-      <c r="L78" s="38" t="s">
-        <v>694</v>
-      </c>
-      <c r="M78" s="116" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -41142,13 +42328,13 @@
         <v>1</v>
       </c>
       <c r="F79" s="117" t="s">
+        <v>673</v>
+      </c>
+      <c r="G79" s="117" t="s">
         <v>674</v>
       </c>
-      <c r="G79" s="117" t="s">
-        <v>675</v>
-      </c>
       <c r="H79" s="117" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I79" s="116">
         <v>1</v>
@@ -41163,7 +42349,7 @@
         <v>374</v>
       </c>
       <c r="M79" s="116" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -41183,28 +42369,28 @@
         <v>1</v>
       </c>
       <c r="F80" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G80" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H80" s="117" t="s">
+        <v>684</v>
+      </c>
+      <c r="I80" s="116">
+        <v>1</v>
+      </c>
+      <c r="J80" s="116">
+        <v>2</v>
+      </c>
+      <c r="K80" s="116">
+        <v>1</v>
+      </c>
+      <c r="L80" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="M80" s="116" t="s">
         <v>685</v>
-      </c>
-      <c r="I80" s="116">
-        <v>1</v>
-      </c>
-      <c r="J80" s="116">
-        <v>2</v>
-      </c>
-      <c r="K80" s="116">
-        <v>1</v>
-      </c>
-      <c r="L80" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="M80" s="116" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -41224,28 +42410,28 @@
         <v>1</v>
       </c>
       <c r="F81" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G81" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H81" s="117" t="s">
+        <v>686</v>
+      </c>
+      <c r="I81" s="116">
+        <v>1</v>
+      </c>
+      <c r="J81" s="116">
+        <v>2</v>
+      </c>
+      <c r="K81" s="116">
+        <v>2</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="I81" s="116">
-        <v>1</v>
-      </c>
-      <c r="J81" s="116">
-        <v>2</v>
-      </c>
-      <c r="K81" s="116">
-        <v>2</v>
-      </c>
-      <c r="L81" s="38" t="s">
-        <v>688</v>
-      </c>
       <c r="M81" s="116" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -41265,13 +42451,13 @@
         <v>2</v>
       </c>
       <c r="F82" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G82" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H82" s="117" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I82" s="116">
         <v>1</v>
@@ -41283,7 +42469,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M82" s="116">
         <v>76</v>
@@ -41306,13 +42492,13 @@
         <v>2</v>
       </c>
       <c r="F83" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G83" s="117" t="s">
         <v>403</v>
       </c>
       <c r="H83" s="117" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I83" s="116">
         <v>1</v>
@@ -41324,7 +42510,7 @@
         <v>2</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M83" s="116">
         <v>76</v>
@@ -41347,28 +42533,28 @@
         <v>2</v>
       </c>
       <c r="F84" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G84" s="117" t="s">
         <v>125</v>
       </c>
       <c r="H84" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="I84" s="116">
+        <v>1</v>
+      </c>
+      <c r="J84" s="116">
+        <v>3</v>
+      </c>
+      <c r="K84" s="116">
+        <v>1</v>
+      </c>
+      <c r="L84" s="38" t="s">
         <v>689</v>
       </c>
-      <c r="I84" s="116">
-        <v>1</v>
-      </c>
-      <c r="J84" s="116">
-        <v>3</v>
-      </c>
-      <c r="K84" s="116">
-        <v>1</v>
-      </c>
-      <c r="L84" s="38" t="s">
+      <c r="M84" s="116" t="s">
         <v>690</v>
-      </c>
-      <c r="M84" s="116" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -41388,25 +42574,25 @@
         <v>2</v>
       </c>
       <c r="F85" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G85" s="117" t="s">
         <v>125</v>
       </c>
       <c r="H85" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="I85" s="116">
+        <v>1</v>
+      </c>
+      <c r="J85" s="116">
+        <v>3</v>
+      </c>
+      <c r="K85" s="116">
+        <v>1</v>
+      </c>
+      <c r="L85" s="38" t="s">
         <v>689</v>
-      </c>
-      <c r="I85" s="116">
-        <v>1</v>
-      </c>
-      <c r="J85" s="116">
-        <v>3</v>
-      </c>
-      <c r="K85" s="116">
-        <v>1</v>
-      </c>
-      <c r="L85" s="38" t="s">
-        <v>690</v>
       </c>
       <c r="M85" s="116"/>
     </row>
@@ -41427,7 +42613,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G86" s="117" t="s">
         <v>125</v>
@@ -41445,10 +42631,10 @@
         <v>3</v>
       </c>
       <c r="L86" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="M86" s="116" t="s">
         <v>697</v>
-      </c>
-      <c r="M86" s="116" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -41468,7 +42654,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G87" s="117" t="s">
         <v>125</v>
@@ -41486,10 +42672,10 @@
         <v>3</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M87" s="116" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -42247,7 +43433,7 @@
         <v>87</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I18" s="50">
         <v>2</v>
@@ -42262,7 +43448,7 @@
         <v>22</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -42288,7 +43474,7 @@
         <v>87</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I19" s="50">
         <v>2</v>
@@ -42303,7 +43489,7 @@
         <v>22</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -42329,7 +43515,7 @@
         <v>87</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I20" s="50">
         <v>2</v>
@@ -42370,7 +43556,7 @@
         <v>87</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I21" s="50">
         <v>2</v>
@@ -42382,7 +43568,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M21" s="49">
         <v>17</v>
@@ -42411,7 +43597,7 @@
         <v>87</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I22" s="50">
         <v>2</v>
@@ -42423,7 +43609,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M22" s="49">
         <v>19</v>
@@ -42452,7 +43638,7 @@
         <v>87</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I23" s="50">
         <v>2</v>
@@ -42467,7 +43653,7 @@
         <v>22</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -42493,7 +43679,7 @@
         <v>87</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I24" s="50">
         <v>2</v>
@@ -42508,7 +43694,7 @@
         <v>149</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -42534,7 +43720,7 @@
         <v>87</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I25" s="50">
         <v>2</v>
@@ -42575,7 +43761,7 @@
         <v>87</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I26" s="50">
         <v>2</v>
@@ -42587,7 +43773,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M26" s="49">
         <v>23</v>
@@ -42616,7 +43802,7 @@
         <v>87</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I27" s="50">
         <v>2</v>
@@ -42628,10 +43814,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="51" t="s">
+        <v>645</v>
+      </c>
+      <c r="M27" s="49" t="s">
         <v>646</v>
-      </c>
-      <c r="M27" s="49" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -42657,7 +43843,7 @@
         <v>177</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I28" s="50">
         <v>2</v>
@@ -42672,7 +43858,7 @@
         <v>149</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -42698,7 +43884,7 @@
         <v>177</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I29" s="50">
         <v>2</v>
@@ -42739,7 +43925,7 @@
         <v>177</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I30" s="50">
         <v>2</v>
@@ -42780,7 +43966,7 @@
         <v>177</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I31" s="50">
         <v>2</v>
@@ -42792,7 +43978,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M31" s="49">
         <v>25</v>
@@ -42821,7 +44007,7 @@
         <v>177</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I32" s="50">
         <v>2</v>
@@ -42836,7 +44022,7 @@
         <v>224</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/lists/lists.rs.xlsx
+++ b/lists/lists.rs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1026" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6CC3717-7223-4426-A357-61F96DB3D822}"/>
+  <xr:revisionPtr revIDLastSave="1113" documentId="11_0E618F0EA1E257E00DADCD87E20241976D57A87B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E9BEDC-C456-4504-97AF-14DF275A0671}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="15924" windowHeight="8964" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fractions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="771">
   <si>
     <t>RAZRED</t>
   </si>
@@ -2418,6 +2418,51 @@
   </si>
   <si>
     <t>obim luk+ prava u mnogoug.</t>
+  </si>
+  <si>
+    <t>Stepen</t>
+  </si>
+  <si>
+    <t>predstavljanje stepena proizvodom</t>
+  </si>
+  <si>
+    <t>osnova racionalan broj ili slovo</t>
+  </si>
+  <si>
+    <t>vise osnova - racionalan broj ili slovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predstavljanje broja stepena </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> računanje stepena</t>
+  </si>
+  <si>
+    <t>stepen prirodan broj, računanje stepena</t>
+  </si>
+  <si>
+    <t>poredjenje stepena</t>
+  </si>
+  <si>
+    <t>naučni zapis</t>
+  </si>
+  <si>
+    <t>Operacije sa stepenima</t>
+  </si>
+  <si>
+    <t>sabiranje I oduzimanje stepena sa istom osnovom</t>
+  </si>
+  <si>
+    <t>množenje stepena sa istom osnovom</t>
+  </si>
+  <si>
+    <t>deljenje stepena sa istom osnovom</t>
+  </si>
+  <si>
+    <t>deljenje stepena sa istom +/- osnovom</t>
+  </si>
+  <si>
+    <t>množenje I deljenje stepena sa istom +/- osnovom</t>
   </si>
 </sst>
 </file>
@@ -22794,7 +22839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
@@ -33107,7 +33152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="C138" workbookViewId="0">
       <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
@@ -39151,10 +39196,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="G88" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42678,6 +42723,617 @@
         <v>698</v>
       </c>
     </row>
+    <row r="88" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="116">
+        <v>7</v>
+      </c>
+      <c r="B88" s="34">
+        <v>82</v>
+      </c>
+      <c r="C88" s="34">
+        <v>10</v>
+      </c>
+      <c r="D88" s="35">
+        <v>2</v>
+      </c>
+      <c r="E88" s="34">
+        <v>1</v>
+      </c>
+      <c r="F88" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G88" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H88" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" s="116">
+        <v>2</v>
+      </c>
+      <c r="J88" s="116">
+        <v>1</v>
+      </c>
+      <c r="K88" s="116">
+        <v>1</v>
+      </c>
+      <c r="L88" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="M88" s="116" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="116">
+        <v>7</v>
+      </c>
+      <c r="B89" s="34">
+        <v>83</v>
+      </c>
+      <c r="C89" s="34">
+        <v>10</v>
+      </c>
+      <c r="D89" s="35">
+        <v>2</v>
+      </c>
+      <c r="E89" s="34">
+        <v>1</v>
+      </c>
+      <c r="F89" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G89" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H89" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="116">
+        <v>2</v>
+      </c>
+      <c r="J89" s="116">
+        <v>1</v>
+      </c>
+      <c r="K89" s="116">
+        <v>1</v>
+      </c>
+      <c r="L89" s="38" t="s">
+        <v>762</v>
+      </c>
+      <c r="M89" s="116"/>
+    </row>
+    <row r="90" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="116">
+        <v>7</v>
+      </c>
+      <c r="B90" s="34">
+        <v>84</v>
+      </c>
+      <c r="C90" s="34">
+        <v>10</v>
+      </c>
+      <c r="D90" s="35">
+        <v>2</v>
+      </c>
+      <c r="E90" s="34">
+        <v>2</v>
+      </c>
+      <c r="F90" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G90" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H90" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I90" s="116">
+        <v>2</v>
+      </c>
+      <c r="J90" s="116">
+        <v>1</v>
+      </c>
+      <c r="K90" s="116">
+        <v>1</v>
+      </c>
+      <c r="L90" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="M90" s="116">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="116">
+        <v>7</v>
+      </c>
+      <c r="B91" s="34">
+        <v>85</v>
+      </c>
+      <c r="C91" s="34">
+        <v>10</v>
+      </c>
+      <c r="D91" s="35">
+        <v>2</v>
+      </c>
+      <c r="E91" s="34">
+        <v>2</v>
+      </c>
+      <c r="F91" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G91" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H91" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" s="116">
+        <v>2</v>
+      </c>
+      <c r="J91" s="116">
+        <v>1</v>
+      </c>
+      <c r="K91" s="116">
+        <v>1</v>
+      </c>
+      <c r="L91" s="38" t="s">
+        <v>759</v>
+      </c>
+      <c r="M91" s="116">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="116">
+        <v>7</v>
+      </c>
+      <c r="B92" s="34">
+        <v>86</v>
+      </c>
+      <c r="C92" s="34">
+        <v>10</v>
+      </c>
+      <c r="D92" s="35">
+        <v>2</v>
+      </c>
+      <c r="E92" s="34">
+        <v>1</v>
+      </c>
+      <c r="F92" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G92" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H92" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" s="116">
+        <v>2</v>
+      </c>
+      <c r="J92" s="116">
+        <v>1</v>
+      </c>
+      <c r="K92" s="116">
+        <v>1</v>
+      </c>
+      <c r="L92" s="38" t="s">
+        <v>760</v>
+      </c>
+      <c r="M92" s="116">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="116">
+        <v>7</v>
+      </c>
+      <c r="B93" s="34">
+        <v>87</v>
+      </c>
+      <c r="C93" s="34">
+        <v>10</v>
+      </c>
+      <c r="D93" s="35">
+        <v>2</v>
+      </c>
+      <c r="E93" s="34">
+        <v>2</v>
+      </c>
+      <c r="F93" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G93" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H93" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" s="116">
+        <v>2</v>
+      </c>
+      <c r="J93" s="116">
+        <v>1</v>
+      </c>
+      <c r="K93" s="116">
+        <v>1</v>
+      </c>
+      <c r="L93" s="38" t="s">
+        <v>761</v>
+      </c>
+      <c r="M93" s="116">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="116">
+        <v>7</v>
+      </c>
+      <c r="B94" s="34">
+        <v>88</v>
+      </c>
+      <c r="C94" s="34">
+        <v>10</v>
+      </c>
+      <c r="D94" s="35">
+        <v>2</v>
+      </c>
+      <c r="E94" s="34">
+        <v>2</v>
+      </c>
+      <c r="F94" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G94" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H94" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" s="116">
+        <v>2</v>
+      </c>
+      <c r="J94" s="116">
+        <v>1</v>
+      </c>
+      <c r="K94" s="116">
+        <v>1</v>
+      </c>
+      <c r="L94" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="M94" s="116">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="116">
+        <v>7</v>
+      </c>
+      <c r="B95" s="34">
+        <v>89</v>
+      </c>
+      <c r="C95" s="34">
+        <v>10</v>
+      </c>
+      <c r="D95" s="35">
+        <v>2</v>
+      </c>
+      <c r="E95" s="34">
+        <v>1</v>
+      </c>
+      <c r="F95" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G95" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H95" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="116">
+        <v>2</v>
+      </c>
+      <c r="J95" s="116">
+        <v>1</v>
+      </c>
+      <c r="K95" s="116">
+        <v>1</v>
+      </c>
+      <c r="L95" s="38" t="s">
+        <v>764</v>
+      </c>
+      <c r="M95" s="116">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="116">
+        <v>7</v>
+      </c>
+      <c r="B96" s="34">
+        <v>90</v>
+      </c>
+      <c r="C96" s="34">
+        <v>10</v>
+      </c>
+      <c r="D96" s="35">
+        <v>2</v>
+      </c>
+      <c r="E96" s="34">
+        <v>3</v>
+      </c>
+      <c r="F96" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G96" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H96" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="116">
+        <v>2</v>
+      </c>
+      <c r="J96" s="116">
+        <v>1</v>
+      </c>
+      <c r="K96" s="116">
+        <v>1</v>
+      </c>
+      <c r="L96" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="M96" s="116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="116">
+        <v>7</v>
+      </c>
+      <c r="B97" s="34">
+        <v>91</v>
+      </c>
+      <c r="C97" s="34">
+        <v>10</v>
+      </c>
+      <c r="D97" s="35">
+        <v>2</v>
+      </c>
+      <c r="E97" s="34">
+        <v>2</v>
+      </c>
+      <c r="F97" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G97" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H97" s="117" t="s">
+        <v>765</v>
+      </c>
+      <c r="I97" s="116">
+        <v>2</v>
+      </c>
+      <c r="J97" s="116">
+        <v>1</v>
+      </c>
+      <c r="K97" s="116">
+        <v>2</v>
+      </c>
+      <c r="L97" s="38" t="s">
+        <v>766</v>
+      </c>
+      <c r="M97" s="116"/>
+    </row>
+    <row r="98" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="116">
+        <v>7</v>
+      </c>
+      <c r="B98" s="34">
+        <v>92</v>
+      </c>
+      <c r="C98" s="34">
+        <v>10</v>
+      </c>
+      <c r="D98" s="35">
+        <v>2</v>
+      </c>
+      <c r="E98" s="34">
+        <v>1</v>
+      </c>
+      <c r="F98" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G98" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H98" s="117" t="s">
+        <v>765</v>
+      </c>
+      <c r="I98" s="116">
+        <v>2</v>
+      </c>
+      <c r="J98" s="116">
+        <v>1</v>
+      </c>
+      <c r="K98" s="116">
+        <v>2</v>
+      </c>
+      <c r="L98" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="M98" s="116">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="116">
+        <v>7</v>
+      </c>
+      <c r="B99" s="34">
+        <v>93</v>
+      </c>
+      <c r="C99" s="34">
+        <v>10</v>
+      </c>
+      <c r="D99" s="35">
+        <v>2</v>
+      </c>
+      <c r="E99" s="34">
+        <v>1</v>
+      </c>
+      <c r="F99" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G99" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H99" s="117" t="s">
+        <v>765</v>
+      </c>
+      <c r="I99" s="116">
+        <v>2</v>
+      </c>
+      <c r="J99" s="116">
+        <v>1</v>
+      </c>
+      <c r="K99" s="116">
+        <v>2</v>
+      </c>
+      <c r="L99" s="38" t="s">
+        <v>768</v>
+      </c>
+      <c r="M99" s="116">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="116">
+        <v>7</v>
+      </c>
+      <c r="B100" s="34">
+        <v>94</v>
+      </c>
+      <c r="C100" s="34">
+        <v>10</v>
+      </c>
+      <c r="D100" s="35">
+        <v>2</v>
+      </c>
+      <c r="E100" s="34">
+        <v>2</v>
+      </c>
+      <c r="F100" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G100" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H100" s="117" t="s">
+        <v>765</v>
+      </c>
+      <c r="I100" s="116">
+        <v>2</v>
+      </c>
+      <c r="J100" s="116">
+        <v>1</v>
+      </c>
+      <c r="K100" s="116">
+        <v>2</v>
+      </c>
+      <c r="L100" s="38" t="s">
+        <v>769</v>
+      </c>
+      <c r="M100" s="116">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="116">
+        <v>7</v>
+      </c>
+      <c r="B101" s="34">
+        <v>95</v>
+      </c>
+      <c r="C101" s="34">
+        <v>10</v>
+      </c>
+      <c r="D101" s="35">
+        <v>2</v>
+      </c>
+      <c r="E101" s="34">
+        <v>3</v>
+      </c>
+      <c r="F101" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G101" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H101" s="117" t="s">
+        <v>765</v>
+      </c>
+      <c r="I101" s="116">
+        <v>2</v>
+      </c>
+      <c r="J101" s="116">
+        <v>1</v>
+      </c>
+      <c r="K101" s="116">
+        <v>2</v>
+      </c>
+      <c r="L101" s="38" t="s">
+        <v>769</v>
+      </c>
+      <c r="M101" s="116">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="116">
+        <v>7</v>
+      </c>
+      <c r="B102" s="34">
+        <v>96</v>
+      </c>
+      <c r="C102" s="34">
+        <v>10</v>
+      </c>
+      <c r="D102" s="35">
+        <v>2</v>
+      </c>
+      <c r="E102" s="34">
+        <v>3</v>
+      </c>
+      <c r="F102" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="G102" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="H102" s="117" t="s">
+        <v>765</v>
+      </c>
+      <c r="I102" s="116">
+        <v>2</v>
+      </c>
+      <c r="J102" s="116">
+        <v>1</v>
+      </c>
+      <c r="K102" s="116">
+        <v>2</v>
+      </c>
+      <c r="L102" s="38" t="s">
+        <v>770</v>
+      </c>
+      <c r="M102" s="116">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42691,7 +43347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
